--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="12780"/>
+    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -1062,160 +1062,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1224,9 +1078,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1236,17 +1087,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1255,6 +1097,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -1553,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1572,21 +1572,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="98"/>
       <c r="G1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="65">
+      <c r="H1" s="110">
         <f>H2+H3</f>
         <v>75</v>
       </c>
-      <c r="I1" s="65"/>
+      <c r="I1" s="110"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="14"/>
@@ -1794,8 +1794,8 @@
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="4">
         <f>SUM(E3:E11)</f>
         <v>2192855</v>
@@ -1808,8 +1808,8 @@
       <c r="B13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="26">
         <f>E12/H1</f>
         <v>29238.066666666666</v>
@@ -1825,24 +1825,24 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="98"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -1850,19 +1850,19 @@
       <c r="G16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="89">
+      <c r="H16" s="87">
         <f>E16</f>
         <v>77500</v>
       </c>
-      <c r="I16" s="90"/>
+      <c r="I16" s="105"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="113"/>
       <c r="E17" s="17">
         <f>640*310</f>
         <v>198400</v>
@@ -1870,19 +1870,19 @@
       <c r="G17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="87">
+      <c r="H17" s="120">
         <f>E17</f>
         <v>198400</v>
       </c>
-      <c r="I17" s="88"/>
+      <c r="I17" s="121"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="69"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="113"/>
       <c r="E18" s="4">
         <f>SUM(E16:E17)</f>
         <v>275900</v>
@@ -1896,41 +1896,41 @@
       <c r="D19" s="23"/>
       <c r="E19" s="7"/>
       <c r="J19" s="1"/>
-      <c r="P19" s="75" t="s">
+      <c r="P19" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="109"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="98"/>
       <c r="K20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="68">
+      <c r="L20" s="107">
         <f>H1</f>
         <v>75</v>
       </c>
-      <c r="M20" s="74"/>
-      <c r="P20" s="73" t="s">
+      <c r="M20" s="108"/>
+      <c r="P20" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="94" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="14">
@@ -1947,22 +1947,22 @@
       <c r="K21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="68">
-        <v>1</v>
-      </c>
-      <c r="M21" s="74"/>
-      <c r="P21" s="73" t="s">
+      <c r="L21" s="107">
+        <v>1</v>
+      </c>
+      <c r="M21" s="108"/>
+      <c r="P21" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="85"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="26">
         <v>12000</v>
       </c>
@@ -1977,22 +1977,22 @@
       <c r="K22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="68">
+      <c r="L22" s="107">
         <v>8</v>
       </c>
-      <c r="M22" s="74"/>
-      <c r="P22" s="73" t="s">
+      <c r="M22" s="108"/>
+      <c r="P22" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="85"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="26">
         <v>18500</v>
       </c>
@@ -2007,20 +2007,20 @@
       <c r="K23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="P23" s="73" t="s">
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="P23" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="85"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="26">
         <v>7500</v>
       </c>
@@ -2034,20 +2034,20 @@
       <c r="K24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="81"/>
-      <c r="M24" s="82"/>
-      <c r="P24" s="73" t="s">
+      <c r="L24" s="101"/>
+      <c r="M24" s="102"/>
+      <c r="P24" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="85"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
         <v>1</v>
@@ -2055,18 +2055,18 @@
       <c r="E25" s="28">
         <v>0</v>
       </c>
-      <c r="P25" s="73" t="s">
+      <c r="P25" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="85"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="26">
         <v>22500</v>
       </c>
@@ -2085,7 +2085,7 @@
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="85"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="26">
         <v>5500</v>
       </c>
@@ -2105,7 +2105,7 @@
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="85"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="26">
         <v>1850</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="85"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="26">
         <v>7500</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="85"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="2">
         <v>1850</v>
       </c>
@@ -2160,7 +2160,7 @@
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="85"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="2">
         <v>2000</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="A32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="85"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="2">
         <v>500</v>
       </c>
@@ -2197,7 +2197,7 @@
       <c r="A33" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="85"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="2">
         <v>1500</v>
       </c>
@@ -2211,21 +2211,21 @@
       <c r="G33" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="136">
+      <c r="H33" s="82">
         <f>Meghívottak!G24</f>
         <v>27</v>
       </c>
-      <c r="I33" s="139">
+      <c r="I33" s="85">
         <f>E35/2+E26+E27+C32*H33</f>
         <v>146625</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="138" t="s">
+      <c r="A34" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="86"/>
+      <c r="B34" s="95"/>
       <c r="C34" s="2">
         <v>300</v>
       </c>
@@ -2239,11 +2239,11 @@
       <c r="G34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="137">
+      <c r="H34" s="83">
         <f>Meghívottak!Q14</f>
         <v>26</v>
       </c>
-      <c r="I34" s="140">
+      <c r="I34" s="86">
         <f>E35/2+E28+C32*H34</f>
         <v>119975</v>
       </c>
@@ -2273,19 +2273,19 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="64"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="98"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="99" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="14"/>
@@ -2298,7 +2298,7 @@
       <c r="A39" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="79"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3">
@@ -2309,7 +2309,7 @@
       <c r="A40" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="79"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3">
@@ -2320,7 +2320,7 @@
       <c r="A41" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="79"/>
+      <c r="B41" s="99"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3">
@@ -2331,7 +2331,7 @@
       <c r="A42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="79"/>
+      <c r="B42" s="99"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3">
@@ -2342,7 +2342,7 @@
       <c r="A43" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="79"/>
+      <c r="B43" s="99"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3">
@@ -2353,7 +2353,7 @@
       <c r="A44" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="79"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="28">
@@ -2364,7 +2364,7 @@
       <c r="A45" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="79"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -2378,7 +2378,7 @@
       <c r="A46" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="79"/>
+      <c r="B46" s="99"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -2390,17 +2390,17 @@
       <c r="G46" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="89">
+      <c r="H46" s="87">
         <f>$E$48/2+E45+E46</f>
         <v>709450</v>
       </c>
-      <c r="I46" s="90"/>
+      <c r="I46" s="105"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="79"/>
+      <c r="B47" s="99"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="28">
@@ -2412,17 +2412,17 @@
       <c r="G47" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="89">
+      <c r="H47" s="87">
         <f>$E$48/2+E47</f>
         <v>739450</v>
       </c>
-      <c r="I47" s="90"/>
+      <c r="I47" s="105"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="4">
@@ -2432,13 +2432,13 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="50" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="64"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="98"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="35" t="s">
@@ -2535,19 +2535,19 @@
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="63"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="64"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="98"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="84" t="s">
+      <c r="B57" s="94" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="14"/>
@@ -2571,7 +2571,7 @@
       <c r="A58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="86"/>
+      <c r="B58" s="95"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="39">
@@ -2609,57 +2609,34 @@
         <f>E12+E18+E35+E48+E54</f>
         <v>4147905</v>
       </c>
-      <c r="G60" s="94" t="s">
+      <c r="G60" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="H60" s="95"/>
-      <c r="I60" s="96"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="93"/>
     </row>
     <row r="61" spans="1:9">
       <c r="G61" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H61" s="89">
+      <c r="H61" s="87">
         <f>$I$2+$H$16+$I$33+$I$52+$I$57+H46</f>
         <v>2541421.5333333332</v>
       </c>
-      <c r="I61" s="91"/>
+      <c r="I61" s="88"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" thickBot="1">
       <c r="G62" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="92">
+      <c r="H62" s="89">
         <f>$I$3+$H$17+$I$34+$I$58+$I$53+$H$47</f>
         <v>2632833.4666666668</v>
       </c>
-      <c r="I62" s="93"/>
+      <c r="I62" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="B38:B48"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B21:B34"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P23:R23"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="H1:I1"/>
@@ -2672,6 +2649,29 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H16:I16"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B21:B34"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A56:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2697,51 +2697,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="102"/>
-      <c r="B2" s="83" t="s">
+      <c r="A2" s="127"/>
+      <c r="B2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="97" t="s">
+      <c r="C2" s="103"/>
+      <c r="D2" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="97" t="s">
+      <c r="F2" s="103"/>
+      <c r="G2" s="122" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="102"/>
+      <c r="A3" s="127"/>
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="98"/>
+      <c r="D3" s="123"/>
       <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="98"/>
+      <c r="G3" s="123"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
@@ -2902,8 +2902,8 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
       <c r="D13" s="40"/>
     </row>
   </sheetData>
@@ -3393,34 +3393,34 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="83" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="I1" s="105"/>
-      <c r="K1" s="106" t="s">
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="I1" s="62"/>
+      <c r="K1" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="107"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="83" t="s">
+      <c r="L1" s="134"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="132"/>
       <c r="D2" s="61" t="s">
         <v>113</v>
       </c>
@@ -3433,11 +3433,11 @@
       <c r="G2" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="105"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="62"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
       <c r="N2" s="61" t="s">
         <v>113</v>
       </c>
@@ -3457,57 +3457,57 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113">
-        <v>1</v>
-      </c>
-      <c r="G3" s="113"/>
-      <c r="I3" s="105"/>
-      <c r="K3" s="114" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64">
+        <v>1</v>
+      </c>
+      <c r="G3" s="64"/>
+      <c r="I3" s="62"/>
+      <c r="K3" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="L3" s="115"/>
-      <c r="M3" s="116">
+      <c r="L3" s="66"/>
+      <c r="M3" s="67">
         <v>5</v>
       </c>
-      <c r="N3" s="117">
+      <c r="N3" s="137">
         <v>2</v>
       </c>
-      <c r="O3" s="118">
+      <c r="O3" s="68">
         <v>2</v>
       </c>
-      <c r="P3" s="118">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="118"/>
+      <c r="P3" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="120"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113">
-        <v>1</v>
-      </c>
-      <c r="G4" s="113"/>
-      <c r="I4" s="105"/>
-      <c r="K4" s="121" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64">
+        <v>1</v>
+      </c>
+      <c r="G4" s="64"/>
+      <c r="I4" s="62"/>
+      <c r="K4" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="L4" s="121"/>
-      <c r="M4" s="116">
+      <c r="L4" s="71"/>
+      <c r="M4" s="67">
         <v>3</v>
       </c>
-      <c r="N4" s="122"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
@@ -3517,26 +3517,26 @@
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113">
-        <v>1</v>
-      </c>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="I5" s="105"/>
-      <c r="K5" s="121" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="64">
+        <v>1</v>
+      </c>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="I5" s="62"/>
+      <c r="K5" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="121"/>
-      <c r="M5" s="116">
+      <c r="L5" s="71"/>
+      <c r="M5" s="67">
         <v>12</v>
       </c>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113">
+      <c r="N5" s="64"/>
+      <c r="O5" s="64">
         <v>6</v>
       </c>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
@@ -3546,232 +3546,232 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113">
-        <v>1</v>
-      </c>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="I6" s="105"/>
-      <c r="K6" s="121" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64">
+        <v>1</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="I6" s="62"/>
+      <c r="K6" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="L6" s="121"/>
-      <c r="M6" s="116">
+      <c r="L6" s="71"/>
+      <c r="M6" s="67">
         <v>4</v>
       </c>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113">
+      <c r="N6" s="64"/>
+      <c r="O6" s="64">
         <v>2</v>
       </c>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="113"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72">
         <v>2</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113">
-        <v>1</v>
-      </c>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="I7" s="105"/>
-      <c r="K7" s="121" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64">
+        <v>1</v>
+      </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="I7" s="62"/>
+      <c r="K7" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="121"/>
-      <c r="M7" s="116">
+      <c r="L7" s="71"/>
+      <c r="M7" s="67">
         <v>6</v>
       </c>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113">
+      <c r="N7" s="64"/>
+      <c r="O7" s="64">
         <v>3</v>
       </c>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72">
         <v>2</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113">
-        <v>1</v>
-      </c>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="I8" s="105"/>
-      <c r="K8" s="121" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64">
+        <v>1</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="I8" s="62"/>
+      <c r="K8" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="L8" s="121"/>
-      <c r="M8" s="116">
+      <c r="L8" s="71"/>
+      <c r="M8" s="67">
         <v>2</v>
       </c>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113">
-        <v>1</v>
-      </c>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64">
+        <v>1</v>
+      </c>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124">
+      <c r="B9" s="73"/>
+      <c r="C9" s="73">
         <f>SUM(C4:C8)</f>
         <v>9</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="I9" s="105"/>
-      <c r="K9" s="125" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="I9" s="62"/>
+      <c r="K9" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="121"/>
-      <c r="M9" s="116">
-        <v>1</v>
-      </c>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="113"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="67">
+        <v>1</v>
+      </c>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="64"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="124">
+      <c r="B10" s="76"/>
+      <c r="C10" s="73">
         <v>8</v>
       </c>
-      <c r="D10" s="113">
-        <v>1</v>
-      </c>
-      <c r="E10" s="113">
-        <v>1</v>
-      </c>
-      <c r="F10" s="113">
-        <v>1</v>
-      </c>
-      <c r="G10" s="113"/>
-      <c r="I10" s="105"/>
-      <c r="K10" s="121" t="s">
+      <c r="D10" s="64">
+        <v>1</v>
+      </c>
+      <c r="E10" s="64">
+        <v>1</v>
+      </c>
+      <c r="F10" s="64">
+        <v>1</v>
+      </c>
+      <c r="G10" s="64"/>
+      <c r="I10" s="62"/>
+      <c r="K10" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="121"/>
-      <c r="M10" s="116">
+      <c r="L10" s="71"/>
+      <c r="M10" s="67">
         <v>4</v>
       </c>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113">
+      <c r="N10" s="64"/>
+      <c r="O10" s="64">
         <v>2</v>
       </c>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113">
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="124">
+      <c r="B11" s="76"/>
+      <c r="C11" s="73">
         <v>6</v>
       </c>
-      <c r="D11" s="113">
-        <v>1</v>
-      </c>
-      <c r="E11" s="113">
-        <v>1</v>
-      </c>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="I11" s="105"/>
+      <c r="D11" s="64">
+        <v>1</v>
+      </c>
+      <c r="E11" s="64">
+        <v>1</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="I11" s="62"/>
     </row>
     <row r="12" spans="1:17" ht="15.75">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="124">
+      <c r="B12" s="76"/>
+      <c r="C12" s="73">
         <v>3</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113">
-        <v>1</v>
-      </c>
-      <c r="F12" s="113">
-        <v>1</v>
-      </c>
-      <c r="G12" s="113"/>
-      <c r="I12" s="105"/>
-      <c r="K12" s="128" t="s">
+      <c r="D12" s="64"/>
+      <c r="E12" s="64">
+        <v>1</v>
+      </c>
+      <c r="F12" s="64">
+        <v>1</v>
+      </c>
+      <c r="G12" s="64"/>
+      <c r="I12" s="62"/>
+      <c r="K12" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="129"/>
-      <c r="M12" s="130">
+      <c r="L12" s="140"/>
+      <c r="M12" s="77">
         <f>SUM(M3:M10)</f>
         <v>37</v>
       </c>
-      <c r="N12" s="131">
+      <c r="N12" s="78">
         <f>SUM(N3:N10)</f>
         <v>2</v>
       </c>
-      <c r="O12" s="131">
+      <c r="O12" s="78">
         <f>SUM(O3:O10)</f>
         <v>16</v>
       </c>
-      <c r="P12" s="131">
+      <c r="P12" s="78">
         <f>SUM(P3:P10)</f>
         <v>2</v>
       </c>
-      <c r="Q12" s="131">
+      <c r="Q12" s="78">
         <f>SUM(Q3:Q10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124">
+      <c r="B13" s="73"/>
+      <c r="C13" s="73">
         <v>4</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113">
+      <c r="D13" s="64"/>
+      <c r="E13" s="64">
         <v>2</v>
       </c>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113">
-        <v>1</v>
-      </c>
-      <c r="I13" s="105"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64">
+        <v>1</v>
+      </c>
+      <c r="I13" s="62"/>
       <c r="Q13">
         <f>SUM(N12:Q12)</f>
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="I14" s="105"/>
+      <c r="I14" s="62"/>
       <c r="M14">
         <v>34</v>
       </c>
@@ -3781,20 +3781,20 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="120"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113">
-        <v>1</v>
-      </c>
-      <c r="G15" s="113"/>
-      <c r="I15" s="105"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64">
+        <v>1</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
@@ -3804,13 +3804,13 @@
       <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113">
-        <v>1</v>
-      </c>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="I16" s="105"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64">
+        <v>1</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
@@ -3820,13 +3820,13 @@
       <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113">
-        <v>1</v>
-      </c>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="I17" s="105"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64">
+        <v>1</v>
+      </c>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
@@ -3836,13 +3836,13 @@
       <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113">
-        <v>1</v>
-      </c>
-      <c r="G18" s="113"/>
-      <c r="I18" s="105"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64">
+        <v>1</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
@@ -3852,13 +3852,13 @@
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113">
-        <v>1</v>
-      </c>
-      <c r="G19" s="113"/>
-      <c r="I19" s="105"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64">
+        <v>1</v>
+      </c>
+      <c r="G19" s="64"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
@@ -3868,35 +3868,35 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113">
-        <v>1</v>
-      </c>
-      <c r="G20" s="113"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64">
+        <v>1</v>
+      </c>
+      <c r="G20" s="64"/>
     </row>
     <row r="22" spans="1:12" ht="15.75">
-      <c r="A22" s="132" t="s">
+      <c r="A22" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="133">
+      <c r="B22" s="128"/>
+      <c r="C22" s="79">
         <f>SUM(C15:C20)+C9+C10+C11+C12+C13</f>
         <v>38</v>
       </c>
-      <c r="D22" s="131">
+      <c r="D22" s="78">
         <f>SUM(D3:D20)</f>
         <v>2</v>
       </c>
-      <c r="E22" s="131">
+      <c r="E22" s="78">
         <f t="shared" ref="E22" si="0">SUM(E3:E20)</f>
         <v>11</v>
       </c>
-      <c r="F22" s="131">
+      <c r="F22" s="78">
         <f>SUM(F3:F20)</f>
         <v>8</v>
       </c>
-      <c r="G22" s="131">
+      <c r="G22" s="78">
         <f>SUM(G3:G20)</f>
         <v>1</v>
       </c>
@@ -3973,23 +3973,23 @@
       <c r="G29" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="134">
+      <c r="H29" s="80">
         <f>SUM(H27:H28)</f>
         <v>6</v>
       </c>
-      <c r="I29" s="134">
+      <c r="I29" s="80">
         <f t="shared" ref="I29:K29" si="1">SUM(I27:I28)</f>
         <v>31</v>
       </c>
-      <c r="J29" s="134">
+      <c r="J29" s="80">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K29" s="134">
+      <c r="K29" s="80">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L29" s="135">
+      <c r="L29" s="81">
         <f>SUM(H29:K29)</f>
         <v>53</v>
       </c>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="12315"/>
+    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="148">
   <si>
     <t>TOTAL</t>
   </si>
@@ -449,6 +449,18 @@
   </si>
   <si>
     <t>Meghívó szerkesztés</t>
+  </si>
+  <si>
+    <t>Smink, fodrász</t>
+  </si>
+  <si>
+    <t>Cipő</t>
+  </si>
+  <si>
+    <t>Anyakönyvezető</t>
+  </si>
+  <si>
+    <t>Köszönőajándék apáknak</t>
   </si>
 </sst>
 </file>
@@ -582,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -973,13 +985,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1032,9 +1075,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1097,33 +1137,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1133,46 +1146,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1198,6 +1181,63 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1254,6 +1294,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1551,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1572,21 +1628,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
       <c r="G1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="110">
+      <c r="H1" s="89">
         <f>H2+H3</f>
         <v>75</v>
       </c>
-      <c r="I1" s="110"/>
+      <c r="I1" s="89"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="14"/>
@@ -1607,7 +1663,7 @@
         <f>Meghívottak!C22</f>
         <v>38</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="56">
         <f>H2*E13</f>
         <v>1111046.5333333332</v>
       </c>
@@ -1637,7 +1693,7 @@
         <f>Meghívottak!M12</f>
         <v>37</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="56">
         <f>H3*E13</f>
         <v>1081808.4666666666</v>
       </c>
@@ -1744,7 +1800,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="25"/>
-      <c r="C9" s="56">
+      <c r="C9" s="55">
         <f>'Kieg. - Ital'!C4/TERVEZETT!H1</f>
         <v>2332.0666666666666</v>
       </c>
@@ -1794,8 +1850,8 @@
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="4">
         <f>SUM(E3:E11)</f>
         <v>2192855</v>
@@ -1808,8 +1864,8 @@
       <c r="B13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="26">
         <f>E12/H1</f>
         <v>29238.066666666666</v>
@@ -1825,24 +1881,24 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="98"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="112"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -1850,19 +1906,19 @@
       <c r="G16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="87">
+      <c r="H16" s="102">
         <f>E16</f>
         <v>77500</v>
       </c>
-      <c r="I16" s="105"/>
+      <c r="I16" s="103"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="118"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="113"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="17">
         <f>640*310</f>
         <v>198400</v>
@@ -1870,19 +1926,19 @@
       <c r="G17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="120">
+      <c r="H17" s="100">
         <f>E17</f>
         <v>198400</v>
       </c>
-      <c r="I17" s="121"/>
+      <c r="I17" s="101"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="113"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="93"/>
       <c r="E18" s="4">
         <f>SUM(E16:E17)</f>
         <v>275900</v>
@@ -1896,41 +1952,41 @@
       <c r="D19" s="23"/>
       <c r="E19" s="7"/>
       <c r="J19" s="1"/>
-      <c r="P19" s="109" t="s">
+      <c r="P19" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="98"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
       <c r="K20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="107">
+      <c r="L20" s="92">
         <f>H1</f>
         <v>75</v>
       </c>
-      <c r="M20" s="108"/>
-      <c r="P20" s="106" t="s">
+      <c r="M20" s="106"/>
+      <c r="P20" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="105"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="112" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="14">
@@ -1947,22 +2003,22 @@
       <c r="K21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="107">
-        <v>1</v>
-      </c>
-      <c r="M21" s="108"/>
-      <c r="P21" s="106" t="s">
+      <c r="L21" s="92">
+        <v>1</v>
+      </c>
+      <c r="M21" s="106"/>
+      <c r="P21" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="104"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="26">
         <v>12000</v>
       </c>
@@ -1977,22 +2033,22 @@
       <c r="K22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="107">
+      <c r="L22" s="92">
         <v>8</v>
       </c>
-      <c r="M22" s="108"/>
-      <c r="P22" s="106" t="s">
+      <c r="M22" s="106"/>
+      <c r="P22" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="105"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="104"/>
+      <c r="B23" s="113"/>
       <c r="C23" s="26">
         <v>18500</v>
       </c>
@@ -2007,20 +2063,20 @@
       <c r="K23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="103"/>
-      <c r="M23" s="103"/>
-      <c r="P23" s="106" t="s">
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="P23" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="104"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="26">
         <v>7500</v>
       </c>
@@ -2034,20 +2090,20 @@
       <c r="K24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="101"/>
-      <c r="M24" s="102"/>
-      <c r="P24" s="106" t="s">
+      <c r="L24" s="109"/>
+      <c r="M24" s="110"/>
+      <c r="P24" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="104"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
         <v>1</v>
@@ -2055,18 +2111,18 @@
       <c r="E25" s="28">
         <v>0</v>
       </c>
-      <c r="P25" s="106" t="s">
+      <c r="P25" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="104"/>
+      <c r="B26" s="113"/>
       <c r="C26" s="26">
         <v>22500</v>
       </c>
@@ -2077,7 +2133,7 @@
         <f t="shared" ref="E26:E31" si="1">C26*D26</f>
         <v>22500</v>
       </c>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="57" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2085,7 +2141,7 @@
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="104"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="26">
         <v>5500</v>
       </c>
@@ -2096,7 +2152,7 @@
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="F27" s="58" t="s">
+      <c r="F27" s="57" t="s">
         <v>108</v>
       </c>
       <c r="J27" s="1"/>
@@ -2105,7 +2161,7 @@
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="104"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="26">
         <v>1850</v>
       </c>
@@ -2116,7 +2172,7 @@
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="57" t="s">
         <v>109</v>
       </c>
       <c r="J28" s="1"/>
@@ -2125,7 +2181,7 @@
       <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="104"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="26">
         <v>7500</v>
       </c>
@@ -2143,7 +2199,7 @@
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="104"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="2">
         <v>1850</v>
       </c>
@@ -2160,7 +2216,7 @@
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="104"/>
+      <c r="B31" s="113"/>
       <c r="C31" s="2">
         <v>2000</v>
       </c>
@@ -2177,7 +2233,7 @@
       <c r="A32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="104"/>
+      <c r="B32" s="113"/>
       <c r="C32" s="2">
         <v>500</v>
       </c>
@@ -2197,7 +2253,7 @@
       <c r="A33" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="104"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="2">
         <v>1500</v>
       </c>
@@ -2211,21 +2267,21 @@
       <c r="G33" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="82">
+      <c r="H33" s="81">
         <f>Meghívottak!G24</f>
         <v>27</v>
       </c>
-      <c r="I33" s="85">
+      <c r="I33" s="84">
         <f>E35/2+E26+E27+C32*H33</f>
         <v>146625</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="95"/>
+      <c r="B34" s="114"/>
       <c r="C34" s="2">
         <v>300</v>
       </c>
@@ -2239,11 +2295,11 @@
       <c r="G34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="83">
+      <c r="H34" s="82">
         <f>Meghívottak!Q14</f>
         <v>26</v>
       </c>
-      <c r="I34" s="86">
+      <c r="I34" s="85">
         <f>E35/2+E28+C32*H34</f>
         <v>119975</v>
       </c>
@@ -2273,19 +2329,19 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="88"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="99" t="s">
+      <c r="B38" s="107" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="14"/>
@@ -2298,7 +2354,7 @@
       <c r="A39" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="99"/>
+      <c r="B39" s="107"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3">
@@ -2309,7 +2365,7 @@
       <c r="A40" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="99"/>
+      <c r="B40" s="107"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3">
@@ -2320,7 +2376,7 @@
       <c r="A41" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="99"/>
+      <c r="B41" s="107"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3">
@@ -2331,7 +2387,7 @@
       <c r="A42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="99"/>
+      <c r="B42" s="107"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3">
@@ -2342,7 +2398,7 @@
       <c r="A43" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="99"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3">
@@ -2353,7 +2409,7 @@
       <c r="A44" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="99"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="28">
@@ -2364,13 +2420,13 @@
       <c r="A45" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="99"/>
+      <c r="B45" s="107"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
         <v>30000</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="57" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2378,51 +2434,51 @@
       <c r="A46" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="99"/>
+      <c r="B46" s="107"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
         <v>190000</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="57" t="s">
         <v>108</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="87">
+      <c r="H46" s="102">
         <f>$E$48/2+E45+E46</f>
         <v>709450</v>
       </c>
-      <c r="I46" s="105"/>
+      <c r="I46" s="103"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="99"/>
+      <c r="B47" s="107"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="28">
         <v>250000</v>
       </c>
-      <c r="F47" s="58" t="s">
+      <c r="F47" s="57" t="s">
         <v>109</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H47" s="87">
+      <c r="H47" s="102">
         <f>$E$48/2+E47</f>
         <v>739450</v>
       </c>
-      <c r="I47" s="105"/>
+      <c r="I47" s="103"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="100"/>
+      <c r="B48" s="108"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="4">
@@ -2432,13 +2488,13 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="50" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A50" s="96" t="s">
+      <c r="A50" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="97"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="98"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="88"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="35" t="s">
@@ -2484,7 +2540,7 @@
         <f>$H$2</f>
         <v>38</v>
       </c>
-      <c r="I52" s="57">
+      <c r="I52" s="56">
         <f>$E$53/2+($H$52*$C$51)+($H$52*$C$52)</f>
         <v>246800</v>
       </c>
@@ -2508,7 +2564,7 @@
         <f>$H$3</f>
         <v>37</v>
       </c>
-      <c r="I53" s="57">
+      <c r="I53" s="56">
         <f>$E$53/2+($H$53*$C$51)+($H$53*$C$52)</f>
         <v>243200</v>
       </c>
@@ -2534,25 +2590,25 @@
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A56" s="96" t="s">
+    <row r="56" spans="1:9">
+      <c r="A56" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="98"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="144"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="94" t="s">
+      <c r="B57" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="39">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="28">
         <v>0</v>
       </c>
       <c r="G57" s="18" t="s">
@@ -2562,7 +2618,7 @@
         <f>$H$2</f>
         <v>38</v>
       </c>
-      <c r="I57" s="57">
+      <c r="I57" s="56">
         <f>SUM(E57:E58)/2</f>
         <v>250000</v>
       </c>
@@ -2571,10 +2627,10 @@
       <c r="A58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="95"/>
+      <c r="B58" s="113"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="39">
+      <c r="E58" s="28">
         <v>500000</v>
       </c>
       <c r="G58" s="18" t="s">
@@ -2584,59 +2640,130 @@
         <f>$H$3</f>
         <v>37</v>
       </c>
-      <c r="I58" s="57">
+      <c r="I58" s="56">
         <f>SUM(E57:E58)/2</f>
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A60" s="31" t="s">
+    <row r="59" spans="1:9">
+      <c r="A59" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="113"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="28"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="141"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="113"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="28"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="141"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="113"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="28"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="141"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="114"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="28"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="141"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A64" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B64" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="33">
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="33">
         <f>E12+E18+E35+E48+E54</f>
         <v>4147905</v>
       </c>
-      <c r="G60" s="91" t="s">
+      <c r="G64" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="H60" s="92"/>
-      <c r="I60" s="93"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="G61" s="59" t="s">
+      <c r="H64" s="119"/>
+      <c r="I64" s="120"/>
+    </row>
+    <row r="65" spans="7:9">
+      <c r="G65" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H61" s="87">
+      <c r="H65" s="102">
         <f>$I$2+$H$16+$I$33+$I$52+$I$57+H46</f>
         <v>2541421.5333333332</v>
       </c>
-      <c r="I61" s="88"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1">
-      <c r="G62" s="60" t="s">
+      <c r="I65" s="115"/>
+    </row>
+    <row r="66" spans="7:9" ht="15.75" thickBot="1">
+      <c r="G66" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="89">
+      <c r="H66" s="116">
         <f>$I$3+$H$17+$I$34+$I$58+$I$53+$H$47</f>
         <v>2632833.4666666668</v>
       </c>
-      <c r="I62" s="90"/>
+      <c r="I66" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B21:B34"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P23:R23"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="H1:I1"/>
@@ -2649,29 +2776,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B38:B48"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B21:B34"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A56:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2697,51 +2801,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="127"/>
-      <c r="B2" s="103" t="s">
+      <c r="A2" s="126"/>
+      <c r="B2" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="122" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="122" t="s">
+      <c r="F2" s="111"/>
+      <c r="G2" s="121" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="127"/>
+      <c r="A3" s="126"/>
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="123"/>
+      <c r="D3" s="122"/>
       <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="123"/>
+      <c r="G3" s="122"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
@@ -2902,9 +3006,9 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2946,23 +3050,23 @@
       <c r="B1">
         <v>15</v>
       </c>
-      <c r="C1" s="41">
+      <c r="C1" s="40">
         <f>B1*H18</f>
         <v>85935</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2973,23 +3077,23 @@
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="40">
         <f>B2*I4</f>
         <v>59980</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="42">
         <v>0.7</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="43">
         <v>2698</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="44">
         <f>H2/G2</f>
         <v>3854.2857142857147</v>
       </c>
@@ -3001,43 +3105,43 @@
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="40">
         <f>B3*I10</f>
         <v>28990</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="42">
         <v>0.7</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="43">
         <v>2698</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="44">
         <f t="shared" ref="I3:I24" si="0">H3/G3</f>
         <v>3854.2857142857147</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75">
-      <c r="C4" s="41">
+      <c r="C4" s="40">
         <f>SUM(C1:C3)</f>
         <v>174905</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>0.5</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="46">
         <v>2999</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="47">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
@@ -3046,333 +3150,333 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="E5" s="43"/>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="42">
         <v>0.5</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="43">
         <v>2999</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="44">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <f>C4/93</f>
         <v>1880.6989247311828</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="42">
         <v>0.5</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="43">
         <v>2999</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="44">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="E7" s="43"/>
-      <c r="F7" s="43" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="42">
         <v>0.5</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="43">
         <v>2999</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="44">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
-      <c r="E8" s="43"/>
-      <c r="F8" s="43" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="42">
         <v>0.5</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="43">
         <v>2999</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="44">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="E9" s="43"/>
-      <c r="F9" s="43" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="42">
         <v>0.5</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="43">
         <v>2999</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="44">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75">
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>0.5</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="46">
         <v>2899</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="47">
         <f t="shared" si="0"/>
         <v>5798</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75">
-      <c r="E11" s="43"/>
-      <c r="F11" s="43" t="s">
+      <c r="E11" s="42"/>
+      <c r="F11" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="42">
         <v>0.7</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="43">
         <v>4332</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="44">
         <f t="shared" si="0"/>
         <v>6188.5714285714294</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75">
-      <c r="E12" s="43"/>
-      <c r="F12" s="43" t="s">
+      <c r="E12" s="42"/>
+      <c r="F12" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="43">
-        <v>1</v>
-      </c>
-      <c r="H12" s="44">
+      <c r="G12" s="42">
+        <v>1</v>
+      </c>
+      <c r="H12" s="43">
         <v>5719</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="44">
         <f t="shared" si="0"/>
         <v>5719</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75">
-      <c r="E13" s="43"/>
-      <c r="F13" s="43" t="s">
+      <c r="E13" s="42"/>
+      <c r="F13" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="42">
         <v>0.5</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="43">
         <v>3099</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="44">
         <f t="shared" si="0"/>
         <v>6198</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="E14" s="43"/>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="43">
-        <v>1</v>
-      </c>
-      <c r="H14" s="44">
+      <c r="G14" s="42">
+        <v>1</v>
+      </c>
+      <c r="H14" s="43">
         <v>5734</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="44">
         <f t="shared" si="0"/>
         <v>5734</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="42">
         <v>0.5</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="43">
         <v>1999</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="49">
         <f t="shared" si="0"/>
         <v>3998</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75">
-      <c r="E16" s="43"/>
-      <c r="F16" s="43" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="42">
         <v>0.7</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="43">
         <v>2999</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="44">
         <f t="shared" si="0"/>
         <v>4284.2857142857147</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="15.75">
-      <c r="E17" s="43"/>
-      <c r="F17" s="43" t="s">
+      <c r="E17" s="42"/>
+      <c r="F17" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="43">
-        <v>1</v>
-      </c>
-      <c r="H17" s="44">
+      <c r="G17" s="42">
+        <v>1</v>
+      </c>
+      <c r="H17" s="43">
         <v>4259</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="44">
         <f t="shared" si="0"/>
         <v>4259</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="16.5" thickBot="1">
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="51">
-        <v>1</v>
-      </c>
-      <c r="H18" s="52">
+      <c r="G18" s="50">
+        <v>1</v>
+      </c>
+      <c r="H18" s="51">
         <v>5729</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="52">
         <f t="shared" si="0"/>
         <v>5729</v>
       </c>
     </row>
     <row r="19" spans="5:9" ht="16.5" thickTop="1">
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="53">
         <v>0.5</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="54">
         <v>5526</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="54">
         <f t="shared" si="0"/>
         <v>11052</v>
       </c>
     </row>
     <row r="20" spans="5:9" ht="15.75">
-      <c r="E20" s="43"/>
-      <c r="F20" s="43" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="42">
         <v>0.5</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="44">
         <v>5479</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="44">
         <f t="shared" si="0"/>
         <v>10958</v>
       </c>
     </row>
     <row r="21" spans="5:9" ht="15.75">
-      <c r="E21" s="43"/>
-      <c r="F21" s="43" t="s">
+      <c r="E21" s="42"/>
+      <c r="F21" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="42">
         <v>0.5</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="44">
         <v>4580</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="44">
         <f t="shared" si="0"/>
         <v>9160</v>
       </c>
     </row>
     <row r="22" spans="5:9" ht="15.75">
-      <c r="E22" s="43"/>
-      <c r="F22" s="43" t="s">
+      <c r="E22" s="42"/>
+      <c r="F22" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="42">
         <v>0.5</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="44">
         <v>5999</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="44">
         <f t="shared" si="0"/>
         <v>11998</v>
       </c>
     </row>
     <row r="23" spans="5:9" ht="15.75">
-      <c r="E23" s="43"/>
-      <c r="F23" s="43" t="s">
+      <c r="E23" s="42"/>
+      <c r="F23" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="42">
         <v>0.5</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="44">
         <v>7075</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="44">
         <f t="shared" si="0"/>
         <v>14150</v>
       </c>
     </row>
     <row r="24" spans="5:9" ht="15.75">
-      <c r="E24" s="43"/>
-      <c r="F24" s="43" t="s">
+      <c r="E24" s="42"/>
+      <c r="F24" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="42">
         <v>0.5</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="44">
         <v>5500</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="44">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
@@ -3393,61 +3497,61 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="103" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="I1" s="62"/>
-      <c r="K1" s="133" t="s">
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="I1" s="61"/>
+      <c r="K1" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="134"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="103" t="s">
+      <c r="L1" s="133"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="61" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="62"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="61" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="61"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="60" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3457,57 +3561,57 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64">
-        <v>1</v>
-      </c>
-      <c r="G3" s="64"/>
-      <c r="I3" s="62"/>
-      <c r="K3" s="65" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63">
+        <v>1</v>
+      </c>
+      <c r="G3" s="63"/>
+      <c r="I3" s="61"/>
+      <c r="K3" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67">
+      <c r="L3" s="65"/>
+      <c r="M3" s="66">
         <v>5</v>
       </c>
-      <c r="N3" s="137">
+      <c r="N3" s="136">
         <v>2</v>
       </c>
-      <c r="O3" s="68">
+      <c r="O3" s="67">
         <v>2</v>
       </c>
-      <c r="P3" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="68"/>
+      <c r="P3" s="67">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64">
-        <v>1</v>
-      </c>
-      <c r="G4" s="64"/>
-      <c r="I4" s="62"/>
-      <c r="K4" s="71" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63">
+        <v>1</v>
+      </c>
+      <c r="G4" s="63"/>
+      <c r="I4" s="61"/>
+      <c r="K4" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="67">
+      <c r="L4" s="70"/>
+      <c r="M4" s="66">
         <v>3</v>
       </c>
-      <c r="N4" s="138"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
@@ -3517,26 +3621,26 @@
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64">
-        <v>1</v>
-      </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="I5" s="62"/>
-      <c r="K5" s="71" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63">
+        <v>1</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="I5" s="61"/>
+      <c r="K5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="67">
+      <c r="L5" s="70"/>
+      <c r="M5" s="66">
         <v>12</v>
       </c>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64">
+      <c r="N5" s="63"/>
+      <c r="O5" s="63">
         <v>6</v>
       </c>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
@@ -3546,232 +3650,232 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64">
-        <v>1</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="I6" s="62"/>
-      <c r="K6" s="71" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="63">
+        <v>1</v>
+      </c>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="I6" s="61"/>
+      <c r="K6" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="L6" s="71"/>
-      <c r="M6" s="67">
+      <c r="L6" s="70"/>
+      <c r="M6" s="66">
         <v>4</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64">
+      <c r="N6" s="63"/>
+      <c r="O6" s="63">
         <v>2</v>
       </c>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72">
+      <c r="B7" s="71"/>
+      <c r="C7" s="71">
         <v>2</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64">
-        <v>1</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="I7" s="62"/>
-      <c r="K7" s="71" t="s">
+      <c r="D7" s="63"/>
+      <c r="E7" s="63">
+        <v>1</v>
+      </c>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="I7" s="61"/>
+      <c r="K7" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="71"/>
-      <c r="M7" s="67">
+      <c r="L7" s="70"/>
+      <c r="M7" s="66">
         <v>6</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64">
+      <c r="N7" s="63"/>
+      <c r="O7" s="63">
         <v>3</v>
       </c>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71">
         <v>2</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64">
-        <v>1</v>
-      </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="I8" s="62"/>
-      <c r="K8" s="71" t="s">
+      <c r="D8" s="63"/>
+      <c r="E8" s="63">
+        <v>1</v>
+      </c>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="I8" s="61"/>
+      <c r="K8" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="67">
+      <c r="L8" s="70"/>
+      <c r="M8" s="66">
         <v>2</v>
       </c>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64">
-        <v>1</v>
-      </c>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63">
+        <v>1</v>
+      </c>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72">
         <f>SUM(C4:C8)</f>
         <v>9</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="I9" s="62"/>
-      <c r="K9" s="74" t="s">
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="I9" s="61"/>
+      <c r="K9" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="71"/>
-      <c r="M9" s="67">
-        <v>1</v>
-      </c>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="64"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="66">
+        <v>1</v>
+      </c>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="63"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="73">
+      <c r="B10" s="75"/>
+      <c r="C10" s="72">
         <v>8</v>
       </c>
-      <c r="D10" s="64">
-        <v>1</v>
-      </c>
-      <c r="E10" s="64">
-        <v>1</v>
-      </c>
-      <c r="F10" s="64">
-        <v>1</v>
-      </c>
-      <c r="G10" s="64"/>
-      <c r="I10" s="62"/>
-      <c r="K10" s="71" t="s">
+      <c r="D10" s="63">
+        <v>1</v>
+      </c>
+      <c r="E10" s="63">
+        <v>1</v>
+      </c>
+      <c r="F10" s="63">
+        <v>1</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="I10" s="61"/>
+      <c r="K10" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="71"/>
-      <c r="M10" s="67">
+      <c r="L10" s="70"/>
+      <c r="M10" s="66">
         <v>4</v>
       </c>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64">
+      <c r="N10" s="63"/>
+      <c r="O10" s="63">
         <v>2</v>
       </c>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64">
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="73">
+      <c r="B11" s="75"/>
+      <c r="C11" s="72">
         <v>6</v>
       </c>
-      <c r="D11" s="64">
-        <v>1</v>
-      </c>
-      <c r="E11" s="64">
-        <v>1</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="I11" s="62"/>
+      <c r="D11" s="63">
+        <v>1</v>
+      </c>
+      <c r="E11" s="63">
+        <v>1</v>
+      </c>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="I11" s="61"/>
     </row>
     <row r="12" spans="1:17" ht="15.75">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="73">
+      <c r="B12" s="75"/>
+      <c r="C12" s="72">
         <v>3</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64">
-        <v>1</v>
-      </c>
-      <c r="F12" s="64">
-        <v>1</v>
-      </c>
-      <c r="G12" s="64"/>
-      <c r="I12" s="62"/>
-      <c r="K12" s="139" t="s">
+      <c r="D12" s="63"/>
+      <c r="E12" s="63">
+        <v>1</v>
+      </c>
+      <c r="F12" s="63">
+        <v>1</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="I12" s="61"/>
+      <c r="K12" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="140"/>
-      <c r="M12" s="77">
+      <c r="L12" s="139"/>
+      <c r="M12" s="76">
         <f>SUM(M3:M10)</f>
         <v>37</v>
       </c>
-      <c r="N12" s="78">
+      <c r="N12" s="77">
         <f>SUM(N3:N10)</f>
         <v>2</v>
       </c>
-      <c r="O12" s="78">
+      <c r="O12" s="77">
         <f>SUM(O3:O10)</f>
         <v>16</v>
       </c>
-      <c r="P12" s="78">
+      <c r="P12" s="77">
         <f>SUM(P3:P10)</f>
         <v>2</v>
       </c>
-      <c r="Q12" s="78">
+      <c r="Q12" s="77">
         <f>SUM(Q3:Q10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73">
+      <c r="B13" s="72"/>
+      <c r="C13" s="72">
         <v>4</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64">
+      <c r="D13" s="63"/>
+      <c r="E13" s="63">
         <v>2</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64">
-        <v>1</v>
-      </c>
-      <c r="I13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63">
+        <v>1</v>
+      </c>
+      <c r="I13" s="61"/>
       <c r="Q13">
         <f>SUM(N12:Q12)</f>
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="I14" s="62"/>
+      <c r="I14" s="61"/>
       <c r="M14">
         <v>34</v>
       </c>
@@ -3781,20 +3885,20 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64">
-        <v>1</v>
-      </c>
-      <c r="G15" s="64"/>
-      <c r="I15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63">
+        <v>1</v>
+      </c>
+      <c r="G15" s="63"/>
+      <c r="I15" s="61"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
@@ -3804,13 +3908,13 @@
       <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64">
-        <v>1</v>
-      </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="I16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63">
+        <v>1</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="I16" s="61"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
@@ -3820,13 +3924,13 @@
       <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64">
-        <v>1</v>
-      </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="I17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63">
+        <v>1</v>
+      </c>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="I17" s="61"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
@@ -3836,13 +3940,13 @@
       <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64">
-        <v>1</v>
-      </c>
-      <c r="G18" s="64"/>
-      <c r="I18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63">
+        <v>1</v>
+      </c>
+      <c r="G18" s="63"/>
+      <c r="I18" s="61"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
@@ -3852,13 +3956,13 @@
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64">
-        <v>1</v>
-      </c>
-      <c r="G19" s="64"/>
-      <c r="I19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63">
+        <v>1</v>
+      </c>
+      <c r="G19" s="63"/>
+      <c r="I19" s="61"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
@@ -3868,35 +3972,35 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64">
-        <v>1</v>
-      </c>
-      <c r="G20" s="64"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63">
+        <v>1</v>
+      </c>
+      <c r="G20" s="63"/>
     </row>
     <row r="22" spans="1:12" ht="15.75">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="128"/>
-      <c r="C22" s="79">
+      <c r="B22" s="127"/>
+      <c r="C22" s="78">
         <f>SUM(C15:C20)+C9+C10+C11+C12+C13</f>
         <v>38</v>
       </c>
-      <c r="D22" s="78">
+      <c r="D22" s="77">
         <f>SUM(D3:D20)</f>
         <v>2</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="77">
         <f t="shared" ref="E22" si="0">SUM(E3:E20)</f>
         <v>11</v>
       </c>
-      <c r="F22" s="78">
+      <c r="F22" s="77">
         <f>SUM(F3:F20)</f>
         <v>8</v>
       </c>
-      <c r="G22" s="78">
+      <c r="G22" s="77">
         <f>SUM(G3:G20)</f>
         <v>1</v>
       </c>
@@ -3917,16 +4021,16 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="61" t="s">
+      <c r="I26" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="61" t="s">
+      <c r="J26" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="K26" s="61" t="s">
+      <c r="K26" s="60" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3973,23 +4077,23 @@
       <c r="G29" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="80">
+      <c r="H29" s="79">
         <f>SUM(H27:H28)</f>
         <v>6</v>
       </c>
-      <c r="I29" s="80">
+      <c r="I29" s="79">
         <f t="shared" ref="I29:K29" si="1">SUM(I27:I28)</f>
         <v>31</v>
       </c>
-      <c r="J29" s="80">
+      <c r="J29" s="79">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K29" s="80">
+      <c r="K29" s="79">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L29" s="81">
+      <c r="L29" s="80">
         <f>SUM(H29:K29)</f>
         <v>53</v>
       </c>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760"/>
+    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
     <sheet name="TÉNYLEGES" sheetId="2" r:id="rId2"/>
     <sheet name="Kieg. - Ital" sheetId="3" r:id="rId3"/>
     <sheet name="Meghívottak" sheetId="4" r:id="rId4"/>
+    <sheet name="Hajó_kalkula" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="160">
   <si>
     <t>TOTAL</t>
   </si>
@@ -31,18 +32,9 @@
     <t>Ft</t>
   </si>
   <si>
-    <t>Esküvői torta</t>
-  </si>
-  <si>
     <t>Kriszti:</t>
   </si>
   <si>
-    <t>Pezsgő</t>
-  </si>
-  <si>
-    <t>Italcsomag (5700 Ft/fő 5 órára)</t>
-  </si>
-  <si>
     <t>Dugódíj</t>
   </si>
   <si>
@@ -133,9 +125,6 @@
     <t>Busz bérlés</t>
   </si>
   <si>
-    <t>Büfé ajánlat I.</t>
-  </si>
-  <si>
     <t>Költség</t>
   </si>
   <si>
@@ -400,45 +389,18 @@
     <t>Sanyi</t>
   </si>
   <si>
-    <t>Lackó</t>
-  </si>
-  <si>
     <t>Lidák</t>
   </si>
   <si>
-    <t>Szentmihályi összes</t>
-  </si>
-  <si>
     <t>Kasza</t>
   </si>
   <si>
     <t>Keresztcsalád</t>
   </si>
   <si>
-    <t>Sziegl összes:</t>
-  </si>
-  <si>
-    <t>Bodnár összes</t>
-  </si>
-  <si>
     <t>Erzsi nénje</t>
   </si>
   <si>
-    <t>Sereg Jánoska</t>
-  </si>
-  <si>
-    <t>Erzsók</t>
-  </si>
-  <si>
-    <t>Csaba</t>
-  </si>
-  <si>
-    <t>Tünde</t>
-  </si>
-  <si>
-    <t>Piri</t>
-  </si>
-  <si>
     <t>Igény:</t>
   </si>
   <si>
@@ -454,13 +416,138 @@
     <t>Smink, fodrász</t>
   </si>
   <si>
-    <t>Cipő</t>
-  </si>
-  <si>
     <t>Anyakönyvezető</t>
   </si>
   <si>
     <t>Köszönőajándék apáknak</t>
+  </si>
+  <si>
+    <t>Welcome ital</t>
+  </si>
+  <si>
+    <t>Esküvői vacsora</t>
+  </si>
+  <si>
+    <t>Italcsomag (8 órára/17.00-01.00)</t>
+  </si>
+  <si>
+    <t>1 mikrofon hangosítással a teraszon</t>
+  </si>
+  <si>
+    <t>Esküvői torta virággal (80 szeletes!)</t>
+  </si>
+  <si>
+    <t>50%-os</t>
+  </si>
+  <si>
+    <t>Gyűrű előleg</t>
+  </si>
+  <si>
+    <t>Ital (1 db welcome pezsgő + 2 ital/fő)</t>
+  </si>
+  <si>
+    <r>
+      <t>Étel (kanapé szendvics</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 db/fő</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - sajtos, sonkás, szalámis)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Étel (kanapé szendvics </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5 db/fő </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- sajtos, sonkás, szalámis, húsos, lazacos)</t>
+    </r>
+  </si>
+  <si>
+    <t>Diff.:</t>
+  </si>
+  <si>
+    <t>Bérlés + kikötési díj</t>
+  </si>
+  <si>
+    <t>Busz parkolási díj</t>
+  </si>
+  <si>
+    <t>Busz (fő)</t>
+  </si>
+  <si>
+    <t>Sziegl összes</t>
+  </si>
+  <si>
+    <t>Sereg János</t>
+  </si>
+  <si>
+    <t>Sereg Csaba</t>
+  </si>
+  <si>
+    <t>Sereg Szabolcs</t>
+  </si>
+  <si>
+    <t>Jávorszki Erzsók</t>
+  </si>
+  <si>
+    <t>Jászkai Tünde</t>
+  </si>
+  <si>
+    <t>Pataky Piri</t>
+  </si>
+  <si>
+    <t>Berecz Andrea</t>
+  </si>
+  <si>
+    <t>Takács Éva</t>
+  </si>
+  <si>
+    <t>Teslér Marika</t>
+  </si>
+  <si>
+    <t>TELJES:</t>
+  </si>
+  <si>
+    <t>Kriszti Cipő</t>
   </si>
 </sst>
 </file>
@@ -474,7 +561,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ [$Ft-40E]_-;\-* #,##0\ [$Ft-40E]_-;_-* &quot;-&quot;??\ [$Ft-40E]_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +648,55 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -594,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -902,15 +1038,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1016,13 +1143,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dashDotDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDotDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color auto="1"/>
+      </left>
+      <right style="dashDotDot">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1056,7 +1310,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1094,23 +1347,12 @@
     <xf numFmtId="165" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1120,23 +1362,101 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1146,24 +1466,69 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,63 +1546,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,7 +1576,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1277,40 +1588,82 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -1607,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1628,1154 +1981,1206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88"/>
+      <c r="A1" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="110"/>
       <c r="G1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="89">
+        <v>45</v>
+      </c>
+      <c r="H1" s="114">
         <f>H2+H3</f>
-        <v>75</v>
-      </c>
-      <c r="I1" s="89"/>
+        <v>78</v>
+      </c>
+      <c r="I1" s="114"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="5">
         <f>Meghívottak!C22</f>
-        <v>38</v>
-      </c>
-      <c r="I2" s="56">
-        <f>H2*E13</f>
-        <v>1111046.5333333332</v>
+        <v>41</v>
+      </c>
+      <c r="I2" s="54">
+        <f>H2*E15</f>
+        <v>1013507.1217948719</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="26">
-        <v>8000</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="A3" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="78">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="79">
         <f>H1</f>
-        <v>75</v>
-      </c>
-      <c r="E3" s="26">
+        <v>78</v>
+      </c>
+      <c r="E3" s="78">
         <f>C3*D3</f>
-        <v>600000</v>
+        <v>156000</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="5">
-        <f>Meghívottak!M12</f>
+        <f>Meghívottak!L22</f>
         <v>37</v>
       </c>
-      <c r="I3" s="56">
-        <f>H3*E13</f>
-        <v>1081808.4666666666</v>
+      <c r="I3" s="54">
+        <f>H3*E15</f>
+        <v>914628.37820512825</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="26">
+      <c r="A4" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="78">
+        <v>12000</v>
+      </c>
+      <c r="D4" s="79">
+        <v>1</v>
+      </c>
+      <c r="E4" s="78">
+        <f>C4*D4</f>
+        <v>12000</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="78">
+        <v>7800</v>
+      </c>
+      <c r="D5" s="79">
+        <f>H1</f>
+        <v>78</v>
+      </c>
+      <c r="E5" s="78">
+        <f>C5*D5</f>
+        <v>608400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="78">
+        <v>3900</v>
+      </c>
+      <c r="D6" s="79">
+        <v>2</v>
+      </c>
+      <c r="E6" s="78">
+        <f>C6*D6</f>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="78">
         <v>2900</v>
       </c>
-      <c r="D4" s="24">
-        <f>H1/2</f>
-        <v>37.5</v>
-      </c>
-      <c r="E4" s="26">
-        <f t="shared" ref="E4:E8" si="0">C4*D4</f>
-        <v>108750</v>
-      </c>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="24">
-        <v>850</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="D7" s="82">
+        <v>37</v>
+      </c>
+      <c r="E7" s="78">
+        <f>C7*D7</f>
+        <v>107300</v>
+      </c>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="82">
+        <f>E8/D8</f>
+        <v>1205.1282051282051</v>
+      </c>
+      <c r="D8" s="79">
         <f>$H$1</f>
-        <v>75</v>
-      </c>
-      <c r="E5" s="26">
+        <v>78</v>
+      </c>
+      <c r="E8" s="78">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="78">
+        <v>7800</v>
+      </c>
+      <c r="D9" s="79">
+        <f>$H$1</f>
+        <v>78</v>
+      </c>
+      <c r="E9" s="78">
+        <f t="shared" ref="E9:E10" si="0">C9*D9</f>
+        <v>608400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="78">
+        <v>1500</v>
+      </c>
+      <c r="D10" s="79">
+        <f>$H$1</f>
+        <v>78</v>
+      </c>
+      <c r="E10" s="78">
         <f t="shared" si="0"/>
-        <v>63750</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="24" t="s">
+        <v>117000</v>
+      </c>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="26">
-        <v>1200</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="B11" s="77"/>
+      <c r="C11" s="82">
+        <f>'Kieg. - Ital'!C4/TERVEZETT!H1</f>
+        <v>2242.3717948717949</v>
+      </c>
+      <c r="D11" s="79">
         <f>$H$1</f>
-        <v>75</v>
-      </c>
-      <c r="E6" s="26">
-        <f t="shared" si="0"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="200">
+        <f>C11*D11</f>
+        <v>174905</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="78">
+        <f>(E3+E5+E6+E7+E8+E9+E13+E11)*0.1</f>
+        <v>178830.5</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="79">
+        <v>3500</v>
+      </c>
+      <c r="D13" s="79">
+        <v>9</v>
+      </c>
+      <c r="E13" s="78">
+        <f>C13*D13</f>
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="26">
-        <v>11400</v>
-      </c>
-      <c r="D7" s="24">
-        <f>$H$1</f>
-        <v>75</v>
-      </c>
-      <c r="E7" s="26">
-        <f t="shared" si="0"/>
-        <v>855000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="26">
-        <v>1500</v>
-      </c>
-      <c r="D8" s="24">
-        <f>$H$1</f>
-        <v>75</v>
-      </c>
-      <c r="E8" s="26">
-        <f t="shared" si="0"/>
-        <v>112500</v>
-      </c>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="55">
-        <f>'Kieg. - Ital'!C4/TERVEZETT!H1</f>
-        <v>2332.0666666666666</v>
-      </c>
-      <c r="D9" s="24">
-        <f>$H$1</f>
-        <v>75</v>
-      </c>
-      <c r="E9" s="26">
-        <f>C9*D9</f>
-        <v>174905</v>
-      </c>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="26">
-        <f>SUM(E3:E7)*0.1</f>
-        <v>171750</v>
-      </c>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="24">
-        <v>1800</v>
-      </c>
-      <c r="D11" s="24">
-        <v>9</v>
-      </c>
-      <c r="E11" s="26">
-        <f>C11*D11</f>
-        <v>16200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="4">
-        <f>SUM(E3:E11)</f>
-        <v>2192855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="26">
-        <f>E12/H1</f>
-        <v>29238.066666666666</v>
-      </c>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="12"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1">
+      <c r="C14" s="132"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="85">
+        <f>SUM(E5:E13)</f>
+        <v>1928135.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="132"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="78">
+        <f>E14/H1</f>
+        <v>24719.685897435898</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="12"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A17" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="110"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="3">
+      <c r="C18" s="128"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="102">
-        <f>E16</f>
+      <c r="G18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="101">
+        <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="I16" s="103"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="17">
+      <c r="I18" s="123"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="135"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="17">
         <f>640*310</f>
         <v>198400</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="100">
-        <f>E17</f>
+      <c r="H19" s="137">
+        <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="I17" s="101"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="4">
-        <f>SUM(E16:E17)</f>
+      <c r="I19" s="138"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="136"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="4">
+        <f>SUM(E18:E19)</f>
         <v>275900</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="7"/>
-      <c r="J19" s="1"/>
-      <c r="P19" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A20" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="K20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="92">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="7"/>
+      <c r="J21" s="1"/>
+      <c r="P21" s="127" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A22" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="K22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="125">
         <f>H1</f>
-        <v>75</v>
-      </c>
-      <c r="M20" s="106"/>
-      <c r="P20" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="105"/>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="14">
+        <v>78</v>
+      </c>
+      <c r="M22" s="126"/>
+      <c r="P22" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="14">
         <v>450</v>
       </c>
-      <c r="D21" s="14">
-        <f>L20</f>
-        <v>75</v>
-      </c>
-      <c r="E21" s="17">
-        <f>C21*D21</f>
-        <v>33750</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="92">
-        <v>1</v>
-      </c>
-      <c r="M21" s="106"/>
-      <c r="P21" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="105"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="26">
-        <v>12000</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="D23" s="14">
         <f>L22</f>
-        <v>8</v>
-      </c>
-      <c r="E22" s="3">
-        <f>C22*D22</f>
-        <v>96000</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="92">
-        <v>8</v>
-      </c>
-      <c r="M22" s="106"/>
-      <c r="P22" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q22" s="105"/>
-      <c r="R22" s="105"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="113"/>
-      <c r="C23" s="26">
-        <v>18500</v>
-      </c>
-      <c r="D23" s="2">
-        <f>L21</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
+        <v>78</v>
+      </c>
+      <c r="E23" s="17">
         <f>C23*D23</f>
-        <v>18500</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="P23" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="105"/>
+        <v>35100</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="125">
+        <v>1</v>
+      </c>
+      <c r="M23" s="126"/>
+      <c r="P23" s="124" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="124"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="113"/>
+        <v>51</v>
+      </c>
+      <c r="B24" s="121"/>
       <c r="C24" s="26">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="D24" s="2">
-        <v>1</v>
+        <f>L24</f>
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <f>C24*D24</f>
-        <v>7500</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="L24" s="109"/>
-      <c r="M24" s="110"/>
-      <c r="P24" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="105"/>
+        <v>96000</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="125">
+        <v>8</v>
+      </c>
+      <c r="M24" s="126"/>
+      <c r="P24" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="124"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="113"/>
-      <c r="C25" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B25" s="121"/>
+      <c r="C25" s="26">
+        <v>18500</v>
+      </c>
       <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="28">
-        <v>0</v>
-      </c>
-      <c r="P25" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="105"/>
+        <f>L23</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <f>C25*D25</f>
+        <v>18500</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="P25" s="124" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="124"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="113"/>
+        <v>53</v>
+      </c>
+      <c r="B26" s="121"/>
       <c r="C26" s="26">
-        <v>22500</v>
+        <v>7500</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" ref="E26:E31" si="1">C26*D26</f>
-        <v>22500</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>108</v>
-      </c>
+        <f>C26*D26</f>
+        <v>7500</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="117"/>
+      <c r="M26" s="118"/>
+      <c r="P26" s="124" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="124"/>
+      <c r="R26" s="124"/>
+      <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="26">
+        <v>54</v>
+      </c>
+      <c r="B27" s="121"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="27">
+        <v>0</v>
+      </c>
+      <c r="P27" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="124"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="121"/>
+      <c r="C28" s="26">
+        <v>22500</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" ref="E28:E33" si="1">C28*D28</f>
+        <v>22500</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="121"/>
+      <c r="C29" s="26">
         <v>5500</v>
       </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="F27" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="26">
+      <c r="F29" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="121"/>
+      <c r="C30" s="26">
         <v>1850</v>
       </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="F28" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="26">
+      <c r="F30" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="121"/>
+      <c r="C31" s="26">
         <v>7500</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D31" s="2">
         <v>6</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E31" s="3">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="2">
+      <c r="G31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="121"/>
+      <c r="C32" s="2">
         <v>1850</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D32" s="2">
         <v>2</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E32" s="3">
         <f t="shared" si="1"/>
         <v>3700</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="2">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="121"/>
+      <c r="C33" s="2">
         <v>2000</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D33" s="2">
         <v>2</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E33" s="3">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="113"/>
-      <c r="C32" s="2">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="121"/>
+      <c r="C34" s="2">
         <v>500</v>
       </c>
-      <c r="D32" s="2">
-        <f>H33+H34</f>
-        <v>53</v>
-      </c>
-      <c r="E32" s="3">
-        <f>D32*C32</f>
-        <v>26500</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <f>D33*C33</f>
-        <v>1500</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="81">
-        <f>Meghívottak!G24</f>
-        <v>27</v>
-      </c>
-      <c r="I33" s="84">
-        <f>E35/2+E26+E27+C32*H33</f>
-        <v>146625</v>
-      </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="2">
-        <v>300</v>
-      </c>
       <c r="D34" s="2">
-        <v>1</v>
+        <f>H35+H36</f>
+        <v>0</v>
       </c>
       <c r="E34" s="3">
         <f>D34*C34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="121"/>
+      <c r="C35" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <f>D35*C35</f>
+        <v>1500</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="69">
+        <f>Meghívottak!G24</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="72">
+        <f>E37/2+E28+E29+C34*H35</f>
+        <v>133800</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="122"/>
+      <c r="C36" s="2">
         <v>300</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <f>D36*C36</f>
+        <v>300</v>
+      </c>
+      <c r="G36" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="82">
+      <c r="H36" s="70">
         <f>Meghívottak!Q14</f>
-        <v>26</v>
-      </c>
-      <c r="I34" s="85">
-        <f>E35/2+E28+C32*H34</f>
-        <v>119975</v>
-      </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="73">
+        <f>E37/2+E30+C34*H36</f>
+        <v>107650</v>
+      </c>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4">
+        <f>SUM(E31:E33,E23:E27,E35:E36)</f>
+        <v>211600</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="12"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A39" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="110"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B40" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4">
-        <f>SUM(E29:E31,E21:E25,E33:E34)</f>
-        <v>210250</v>
-      </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="12"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A37" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="88"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="17">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="17">
         <v>50000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="107"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3">
-        <v>240000</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="107"/>
+        <v>15</v>
+      </c>
+      <c r="B41" s="115"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3">
-        <v>120000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="107"/>
+      <c r="A42" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="115"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3">
-        <v>169900</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="107"/>
+      <c r="A43" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="115"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3">
-        <v>220000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="107"/>
+      <c r="A44" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="115"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="28">
-        <v>150000</v>
+      <c r="E44" s="3">
+        <v>169900</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="107"/>
+      <c r="A45" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="115"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
-        <v>30000</v>
-      </c>
-      <c r="F45" s="57" t="s">
-        <v>108</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="107"/>
+      <c r="A46" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="115"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="3">
-        <v>190000</v>
-      </c>
-      <c r="F46" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="102">
-        <f>$E$48/2+E45+E46</f>
-        <v>709450</v>
-      </c>
-      <c r="I46" s="103"/>
+      <c r="E46" s="27">
+        <v>150000</v>
+      </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="107"/>
+      <c r="A47" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="115"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="28">
-        <v>250000</v>
-      </c>
-      <c r="F47" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="102">
-        <f>$E$48/2+E47</f>
-        <v>739450</v>
-      </c>
-      <c r="I47" s="103"/>
+      <c r="E47" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="108"/>
+      <c r="A48" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="115"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="4">
-        <f>SUM(E38:E44)</f>
+      <c r="E48" s="3">
+        <v>190000</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="101">
+        <f>$E$50/2+E47+E48</f>
+        <v>709450</v>
+      </c>
+      <c r="I48" s="123"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="115"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="27">
+        <v>250000</v>
+      </c>
+      <c r="F49" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="101">
+        <f>$E$50/2+E49</f>
+        <v>739450</v>
+      </c>
+      <c r="I49" s="123"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="116"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="4">
+        <f>SUM(E40:E46)</f>
         <v>978900</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A50" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="88"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="37">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A52" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="109"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="110"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="36">
         <v>1200</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D53" s="34">
         <f>H1</f>
-        <v>75</v>
-      </c>
-      <c r="E51" s="37">
-        <f>C51*D51</f>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="30">
-      <c r="A52" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="37">
+        <v>78</v>
+      </c>
+      <c r="E53" s="36">
+        <f>C53*D53</f>
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="30">
+      <c r="A54" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="36">
         <v>2400</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D54" s="34">
         <f>H1</f>
-        <v>75</v>
-      </c>
-      <c r="E52" s="37">
-        <f>C52*D52</f>
-        <v>180000</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="5">
+        <v>78</v>
+      </c>
+      <c r="E54" s="36">
+        <f>C54*D54</f>
+        <v>187200</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="5">
         <f>$H$2</f>
-        <v>38</v>
-      </c>
-      <c r="I52" s="56">
-        <f>$E$53/2+($H$52*$C$51)+($H$52*$C$52)</f>
-        <v>246800</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="54">
+        <f>$E$55/2+($H$54*$C$53)+($H$54*$C$54)</f>
+        <v>257600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="3">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3">
         <v>220000</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G55" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H55" s="5">
         <f>$H$3</f>
         <v>37</v>
       </c>
-      <c r="I53" s="56">
-        <f>$E$53/2+($H$53*$C$51)+($H$53*$C$52)</f>
+      <c r="I55" s="54">
+        <f>$E$55/2+($H$55*$C$53)+($H$55*$C$54)</f>
         <v>243200</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="5" t="s">
+    <row r="56" spans="1:9">
+      <c r="A56" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="4">
-        <f>SUM(E51:E53)</f>
-        <v>490000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="142" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="143"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="143"/>
-      <c r="E56" s="144"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="145" t="s">
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="4">
+        <f>SUM(E53:E55)</f>
+        <v>500800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="112"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="112"/>
+      <c r="E58" s="113"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="28">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="27">
         <v>0</v>
       </c>
-      <c r="G57" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="5">
+      <c r="G59" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="5">
         <f>$H$2</f>
-        <v>38</v>
-      </c>
-      <c r="I57" s="56">
-        <f>SUM(E57:E58)/2</f>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="113"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="28">
-        <v>500000</v>
-      </c>
-      <c r="G58" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="54">
+        <f>SUM(E59:E60)/2</f>
+        <v>116750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="114"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="89">
+        <v>233500</v>
+      </c>
+      <c r="G60" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H60" s="5">
         <f>$H$3</f>
         <v>37</v>
       </c>
-      <c r="I58" s="56">
-        <f>SUM(E57:E58)/2</f>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="113"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="28"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="141"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" s="113"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="28"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="141"/>
+      <c r="I60" s="54">
+        <f>SUM(E59:E60)/2</f>
+        <v>116750</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B61" s="113"/>
+        <v>131</v>
+      </c>
+      <c r="B61" s="114"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="28"/>
+      <c r="E61" s="27"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="141"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="75"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="10" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B62" s="114"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="28"/>
+      <c r="E62" s="27"/>
       <c r="G62" s="23"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="141"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A64" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="34" t="s">
+      <c r="H62" s="74"/>
+      <c r="I62" s="75"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="114"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="27"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="75"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="114"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="27"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="75"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="114"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="27"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="75"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A67" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="33">
-        <f>E12+E18+E35+E48+E54</f>
-        <v>4147905</v>
-      </c>
-      <c r="G64" s="118" t="s">
-        <v>110</v>
-      </c>
-      <c r="H64" s="119"/>
-      <c r="I64" s="120"/>
-    </row>
-    <row r="65" spans="7:9">
-      <c r="G65" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="H65" s="102">
-        <f>$I$2+$H$16+$I$33+$I$52+$I$57+H46</f>
-        <v>2541421.5333333332</v>
-      </c>
-      <c r="I65" s="115"/>
-    </row>
-    <row r="66" spans="7:9" ht="15.75" thickBot="1">
-      <c r="G66" s="59" t="s">
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="32">
+        <f>E14+E20+E37+E50+E56</f>
+        <v>3895335.5</v>
+      </c>
+      <c r="G67" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="H67" s="106"/>
+      <c r="I67" s="107"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="G68" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" s="101">
+        <f>$I$2+$H$18+$I$35+$I$54+$I$59+H48</f>
+        <v>2308607.121794872</v>
+      </c>
+      <c r="I68" s="102"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" thickBot="1">
+      <c r="G69" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H66" s="116">
-        <f>$I$3+$H$17+$I$34+$I$58+$I$53+$H$47</f>
-        <v>2632833.4666666668</v>
-      </c>
-      <c r="I66" s="117"/>
+      <c r="H69" s="103">
+        <f>$I$3+$H$19+$I$36+$I$60+$I$55+$H$49</f>
+        <v>2320078.378205128</v>
+      </c>
+      <c r="I69" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="B38:B48"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B21:B34"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="P21:R21"/>
     <mergeCell ref="P22:R22"/>
     <mergeCell ref="P23:R23"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B40:B50"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="B23:B36"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:B65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2784,7 +3189,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -2801,55 +3206,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="123" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="A1" s="144" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="126"/>
-      <c r="B2" s="111" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="121" t="s">
-        <v>79</v>
+      <c r="A2" s="144"/>
+      <c r="B2" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="139" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="119"/>
+      <c r="G2" s="139" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="126"/>
+      <c r="A3" s="144"/>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="122"/>
+        <v>19</v>
+      </c>
+      <c r="D3" s="140"/>
       <c r="E3" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="122"/>
+        <v>19</v>
+      </c>
+      <c r="G3" s="140"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="9">
         <v>100000</v>
@@ -2867,7 +3272,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="9">
         <v>5000</v>
@@ -2876,7 +3281,7 @@
         <v>5000</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" ref="D5:D12" si="0">SUM(B5:C5)</f>
+        <f t="shared" ref="D5:D14" si="0">SUM(B5:C5)</f>
         <v>10000</v>
       </c>
       <c r="E5" s="2"/>
@@ -2885,7 +3290,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="9">
         <v>10000</v>
@@ -2903,7 +3308,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="9">
         <v>15000</v>
@@ -2921,7 +3326,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="11">
         <v>15000</v>
@@ -2937,7 +3342,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="11">
         <v>15000</v>
@@ -2955,7 +3360,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="11">
         <v>10000</v>
@@ -2973,7 +3378,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="11">
         <v>100000</v>
@@ -2988,33 +3393,69 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21">
-        <f>SUM(B4:B11)</f>
-        <v>270000</v>
-      </c>
-      <c r="C12" s="21">
-        <f>SUM(C4:C11)</f>
-        <v>155000</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="A12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="11">
+        <v>14150</v>
+      </c>
+      <c r="C12" s="11">
+        <v>14150</v>
+      </c>
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>425000</v>
-      </c>
-      <c r="F12" s="13"/>
+        <v>28300</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="11">
+        <v>15000</v>
+      </c>
+      <c r="C13" s="11">
+        <v>15000</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="21">
+        <f>SUM(B4:B13)</f>
+        <v>299150</v>
+      </c>
+      <c r="C14" s="21">
+        <f>SUM(C4:C13)</f>
+        <v>184150</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" si="0"/>
+        <v>483300</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -3045,438 +3486,438 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1">
         <v>15</v>
       </c>
-      <c r="C1" s="40">
+      <c r="C1" s="39">
         <f>B1*H18</f>
         <v>85935</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="40" t="s">
         <v>81</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="39">
         <f>B2*I4</f>
         <v>59980</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="42">
+      <c r="E2" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="41">
         <v>0.7</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="42">
         <v>2698</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="43">
         <f>H2/G2</f>
         <v>3854.2857142857147</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="39">
         <f>B3*I10</f>
         <v>28990</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="42">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="41">
         <v>0.7</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="42">
         <v>2698</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="43">
         <f t="shared" ref="I3:I24" si="0">H3/G3</f>
         <v>3854.2857142857147</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75">
-      <c r="C4" s="40">
+      <c r="C4" s="39">
         <f>SUM(C1:C3)</f>
         <v>174905</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="45">
+      <c r="E4" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="44">
         <v>0.5</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>2999</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="46">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="E5" s="42"/>
-      <c r="F5" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="42">
+      <c r="E5" s="41"/>
+      <c r="F5" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="41">
         <v>0.5</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="42">
         <v>2999</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="43">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="C6" s="48">
+      <c r="C6" s="47">
         <f>C4/93</f>
         <v>1880.6989247311828</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="42">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="41">
         <v>0.5</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="42">
         <v>2999</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="43">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="E7" s="42"/>
-      <c r="F7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="42">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="41">
         <v>0.5</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="42">
         <v>2999</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="43">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
-      <c r="E8" s="42"/>
-      <c r="F8" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="42">
+      <c r="E8" s="41"/>
+      <c r="F8" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="41">
         <v>0.5</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="42">
         <v>2999</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="43">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="E9" s="42"/>
-      <c r="F9" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="42">
+      <c r="E9" s="41"/>
+      <c r="F9" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="41">
         <v>0.5</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="42">
         <v>2999</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="43">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75">
-      <c r="E10" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="45">
+      <c r="E10" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="44">
         <v>0.5</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="45">
         <v>2899</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="46">
         <f t="shared" si="0"/>
         <v>5798</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75">
-      <c r="E11" s="42"/>
-      <c r="F11" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="42">
+      <c r="E11" s="41"/>
+      <c r="F11" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="41">
         <v>0.7</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="42">
         <v>4332</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="43">
         <f t="shared" si="0"/>
         <v>6188.5714285714294</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75">
-      <c r="E12" s="42"/>
-      <c r="F12" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="42">
-        <v>1</v>
-      </c>
-      <c r="H12" s="43">
+      <c r="E12" s="41"/>
+      <c r="F12" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="41">
+        <v>1</v>
+      </c>
+      <c r="H12" s="42">
         <v>5719</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="43">
         <f t="shared" si="0"/>
         <v>5719</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75">
-      <c r="E13" s="42"/>
-      <c r="F13" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="42">
+      <c r="E13" s="41"/>
+      <c r="F13" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="41">
         <v>0.5</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="42">
         <v>3099</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="43">
         <f t="shared" si="0"/>
         <v>6198</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="E14" s="42"/>
-      <c r="F14" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="42">
-        <v>1</v>
-      </c>
-      <c r="H14" s="43">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="41">
+        <v>1</v>
+      </c>
+      <c r="H14" s="42">
         <v>5734</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="43">
         <f t="shared" si="0"/>
         <v>5734</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="E15" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="42">
+      <c r="E15" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="41">
         <v>0.5</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="42">
         <v>1999</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="48">
         <f t="shared" si="0"/>
         <v>3998</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75">
-      <c r="E16" s="42"/>
-      <c r="F16" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="42">
+      <c r="E16" s="41"/>
+      <c r="F16" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="41">
         <v>0.7</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="42">
         <v>2999</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="43">
         <f t="shared" si="0"/>
         <v>4284.2857142857147</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="15.75">
-      <c r="E17" s="42"/>
-      <c r="F17" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="42">
-        <v>1</v>
-      </c>
-      <c r="H17" s="43">
+      <c r="E17" s="41"/>
+      <c r="F17" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="41">
+        <v>1</v>
+      </c>
+      <c r="H17" s="42">
         <v>4259</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="43">
         <f t="shared" si="0"/>
         <v>4259</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="16.5" thickBot="1">
-      <c r="E18" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="50">
-        <v>1</v>
-      </c>
-      <c r="H18" s="51">
+      <c r="E18" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="49">
+        <v>1</v>
+      </c>
+      <c r="H18" s="50">
         <v>5729</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="51">
         <f t="shared" si="0"/>
         <v>5729</v>
       </c>
     </row>
     <row r="19" spans="5:9" ht="16.5" thickTop="1">
-      <c r="E19" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="53">
+      <c r="E19" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="52">
         <v>0.5</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="53">
         <v>5526</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="53">
         <f t="shared" si="0"/>
         <v>11052</v>
       </c>
     </row>
     <row r="20" spans="5:9" ht="15.75">
-      <c r="E20" s="42"/>
-      <c r="F20" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="42">
+      <c r="E20" s="41"/>
+      <c r="F20" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="41">
         <v>0.5</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="43">
         <v>5479</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="43">
         <f t="shared" si="0"/>
         <v>10958</v>
       </c>
     </row>
     <row r="21" spans="5:9" ht="15.75">
-      <c r="E21" s="42"/>
-      <c r="F21" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="42">
+      <c r="E21" s="41"/>
+      <c r="F21" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="41">
         <v>0.5</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="43">
         <v>4580</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="43">
         <f t="shared" si="0"/>
         <v>9160</v>
       </c>
     </row>
     <row r="22" spans="5:9" ht="15.75">
-      <c r="E22" s="42"/>
-      <c r="F22" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="42">
+      <c r="E22" s="41"/>
+      <c r="F22" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="41">
         <v>0.5</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="43">
         <v>5999</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="43">
         <f t="shared" si="0"/>
         <v>11998</v>
       </c>
     </row>
     <row r="23" spans="5:9" ht="15.75">
-      <c r="E23" s="42"/>
-      <c r="F23" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="42">
+      <c r="E23" s="41"/>
+      <c r="F23" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="41">
         <v>0.5</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="43">
         <v>7075</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="43">
         <f t="shared" si="0"/>
         <v>14150</v>
       </c>
     </row>
     <row r="24" spans="5:9" ht="15.75">
-      <c r="E24" s="42"/>
-      <c r="F24" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="42">
+      <c r="E24" s="41"/>
+      <c r="F24" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="41">
         <v>0.5</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="43">
         <v>5500</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="43">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
@@ -3488,625 +3929,878 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="146" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="151"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="131" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="157" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="111" t="s">
+      <c r="G2" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="I1" s="61"/>
-      <c r="K1" s="132" t="s">
+      <c r="H2" s="155"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="111" t="s">
+      <c r="P2" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="60" t="s">
+      <c r="Q2" s="159"/>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="63">
+        <v>8</v>
+      </c>
+      <c r="D3" s="58">
+        <v>1</v>
+      </c>
+      <c r="E3" s="160">
+        <v>1</v>
+      </c>
+      <c r="F3" s="160">
+        <v>1</v>
+      </c>
+      <c r="G3" s="161"/>
+      <c r="H3" s="162">
+        <v>1</v>
+      </c>
+      <c r="J3" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="164">
+        <v>5</v>
+      </c>
+      <c r="M3" s="165">
+        <v>2</v>
+      </c>
+      <c r="N3" s="166">
+        <v>2</v>
+      </c>
+      <c r="O3" s="167">
+        <v>1</v>
+      </c>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="63">
+        <v>6</v>
+      </c>
+      <c r="D4" s="58">
+        <v>1</v>
+      </c>
+      <c r="E4" s="160">
+        <v>1</v>
+      </c>
+      <c r="F4" s="160"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="162">
+        <v>0</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="62"/>
+      <c r="L4" s="164">
+        <v>3</v>
+      </c>
+      <c r="M4" s="169"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="172">
+        <v>1</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160">
+        <v>1</v>
+      </c>
+      <c r="G5" s="161"/>
+      <c r="H5" s="162">
+        <v>1</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="62"/>
+      <c r="L5" s="164">
+        <v>12</v>
+      </c>
+      <c r="M5" s="170"/>
+      <c r="N5" s="173">
+        <v>6</v>
+      </c>
+      <c r="O5" s="170"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="172">
+        <v>2</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="160">
+        <v>1</v>
+      </c>
+      <c r="F6" s="160"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="162">
+        <v>2</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="62"/>
+      <c r="L6" s="164">
+        <v>4</v>
+      </c>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170">
+        <v>2</v>
+      </c>
+      <c r="O6" s="170"/>
+      <c r="P6" s="171"/>
+      <c r="Q6" s="162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="172">
+        <v>2</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="160">
+        <v>1</v>
+      </c>
+      <c r="F7" s="160"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="162">
+        <v>2</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="62"/>
+      <c r="L7" s="164">
+        <v>6</v>
+      </c>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170">
+        <v>3</v>
+      </c>
+      <c r="O7" s="170"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63">
+        <v>2</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="160">
+        <v>1</v>
+      </c>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="162">
+        <v>2</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="62"/>
+      <c r="L8" s="164">
+        <v>2</v>
+      </c>
+      <c r="M8" s="170"/>
+      <c r="N8" s="173">
+        <v>1</v>
+      </c>
+      <c r="O8" s="170"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="66"/>
+      <c r="C9" s="63">
+        <v>1</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160">
+        <v>1</v>
+      </c>
+      <c r="G9" s="161"/>
+      <c r="H9" s="162">
+        <v>1</v>
+      </c>
+      <c r="J9" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="62"/>
+      <c r="L9" s="164">
+        <v>1</v>
+      </c>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="173">
+        <v>1</v>
+      </c>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="174" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="66"/>
+      <c r="C10" s="63">
+        <v>2</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="160">
+        <v>1</v>
+      </c>
+      <c r="F10" s="160"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="162">
+        <v>2</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="62"/>
+      <c r="L10" s="164">
+        <v>4</v>
+      </c>
+      <c r="M10" s="170"/>
+      <c r="N10" s="173">
+        <v>2</v>
+      </c>
+      <c r="O10" s="170"/>
+      <c r="P10" s="171">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="174" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="66"/>
+      <c r="C11" s="63">
+        <v>1</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="175">
+        <v>1</v>
+      </c>
+      <c r="G11" s="161"/>
+      <c r="H11" s="162">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="176"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="174" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="66"/>
+      <c r="C12" s="63">
+        <v>2</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="175">
+        <v>1</v>
+      </c>
+      <c r="F12" s="160"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="61"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q2" s="60" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63">
-        <v>1</v>
-      </c>
-      <c r="G3" s="63"/>
-      <c r="I3" s="61"/>
-      <c r="K3" s="64" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="172">
+        <v>0</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160">
+        <v>1</v>
+      </c>
+      <c r="G13" s="161"/>
+      <c r="H13" s="162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="172">
+        <v>2</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="171">
+        <v>1</v>
+      </c>
+      <c r="F14" s="171"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="162">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="176"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="172">
+        <v>1</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171">
+        <v>1</v>
+      </c>
+      <c r="G15" s="177"/>
+      <c r="H15" s="162">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="176"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="178" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="179"/>
+      <c r="C16" s="172">
+        <v>1</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171">
+        <v>1</v>
+      </c>
+      <c r="G16" s="177"/>
+      <c r="H16" s="162">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="176"/>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="180">
+        <v>2</v>
+      </c>
+      <c r="D17" s="181"/>
+      <c r="E17" s="171">
+        <v>1</v>
+      </c>
+      <c r="F17" s="171"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="172" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="180">
+        <v>2</v>
+      </c>
+      <c r="D18" s="181"/>
+      <c r="E18" s="171">
+        <v>1</v>
+      </c>
+      <c r="F18" s="171"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="162">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="176"/>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="172" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="180">
+        <v>2</v>
+      </c>
+      <c r="D19" s="181"/>
+      <c r="E19" s="171">
+        <v>1</v>
+      </c>
+      <c r="F19" s="171"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="162">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="176"/>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66">
-        <v>5</v>
-      </c>
-      <c r="N3" s="136">
+      <c r="B20" s="64"/>
+      <c r="C20" s="63">
+        <v>4</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="170">
         <v>2</v>
       </c>
-      <c r="O3" s="67">
-        <v>2</v>
-      </c>
-      <c r="P3" s="67">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="67"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63">
-        <v>1</v>
-      </c>
-      <c r="G4" s="63"/>
-      <c r="I4" s="61"/>
-      <c r="K4" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="66">
-        <v>3</v>
-      </c>
-      <c r="N4" s="137"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63">
-        <v>1</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="I5" s="61"/>
-      <c r="K5" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="70"/>
-      <c r="M5" s="66">
-        <v>12</v>
-      </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63">
-        <v>6</v>
-      </c>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63">
-        <v>1</v>
-      </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="I6" s="61"/>
-      <c r="K6" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="70"/>
-      <c r="M6" s="66">
-        <v>4</v>
-      </c>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63">
-        <v>2</v>
-      </c>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71">
-        <v>2</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63">
-        <v>1</v>
-      </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="I7" s="61"/>
-      <c r="K7" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="70"/>
-      <c r="M7" s="66">
-        <v>6</v>
-      </c>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63">
-        <v>3</v>
-      </c>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71">
-        <v>2</v>
-      </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63">
-        <v>1</v>
-      </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="I8" s="61"/>
-      <c r="K8" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="66">
-        <v>2</v>
-      </c>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63">
-        <v>1</v>
-      </c>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72">
-        <f>SUM(C4:C8)</f>
-        <v>9</v>
-      </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="I9" s="61"/>
-      <c r="K9" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" s="70"/>
-      <c r="M9" s="66">
-        <v>1</v>
-      </c>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="63"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="72">
-        <v>8</v>
-      </c>
-      <c r="D10" s="63">
-        <v>1</v>
-      </c>
-      <c r="E10" s="63">
-        <v>1</v>
-      </c>
-      <c r="F10" s="63">
-        <v>1</v>
-      </c>
-      <c r="G10" s="63"/>
-      <c r="I10" s="61"/>
-      <c r="K10" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="L10" s="70"/>
-      <c r="M10" s="66">
-        <v>4</v>
-      </c>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63">
-        <v>2</v>
-      </c>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="72">
-        <v>6</v>
-      </c>
-      <c r="D11" s="63">
-        <v>1</v>
-      </c>
-      <c r="E11" s="63">
-        <v>1</v>
-      </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="I11" s="61"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75">
-      <c r="A12" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="72">
-        <v>3</v>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63">
-        <v>1</v>
-      </c>
-      <c r="F12" s="63">
-        <v>1</v>
-      </c>
-      <c r="G12" s="63"/>
-      <c r="I12" s="61"/>
-      <c r="K12" s="138" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="139"/>
-      <c r="M12" s="76">
-        <f>SUM(M3:M10)</f>
-        <v>37</v>
-      </c>
-      <c r="N12" s="77">
-        <f>SUM(N3:N10)</f>
-        <v>2</v>
-      </c>
-      <c r="O12" s="77">
-        <f>SUM(O3:O10)</f>
+      <c r="F20" s="170"/>
+      <c r="G20" s="182">
+        <v>1</v>
+      </c>
+      <c r="H20" s="162">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="176"/>
+    </row>
+    <row r="21" spans="1:17" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="22" spans="1:17" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A22" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="77">
-        <f>SUM(P3:P10)</f>
-        <v>2</v>
-      </c>
-      <c r="Q12" s="77">
-        <f>SUM(Q3:Q10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72">
-        <v>4</v>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63">
-        <v>2</v>
-      </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63">
-        <v>1</v>
-      </c>
-      <c r="I13" s="61"/>
-      <c r="Q13">
-        <f>SUM(N12:Q12)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="I14" s="61"/>
-      <c r="M14">
-        <v>34</v>
-      </c>
-      <c r="Q14">
-        <f>Q13+L28/2</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63">
-        <v>1</v>
-      </c>
-      <c r="G15" s="63"/>
-      <c r="I15" s="61"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63">
-        <v>1</v>
-      </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="I16" s="61"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63">
-        <v>1</v>
-      </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="I17" s="61"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63">
-        <v>1</v>
-      </c>
-      <c r="G18" s="63"/>
-      <c r="I18" s="61"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63">
-        <v>1</v>
-      </c>
-      <c r="G19" s="63"/>
-      <c r="I19" s="61"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63">
-        <v>1</v>
-      </c>
-      <c r="G20" s="63"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75">
-      <c r="A22" s="127" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="127"/>
-      <c r="C22" s="78">
-        <f>SUM(C15:C20)+C9+C10+C11+C12+C13</f>
-        <v>38</v>
-      </c>
-      <c r="D22" s="77">
+      <c r="B22" s="145"/>
+      <c r="C22" s="68">
+        <f>SUM(C3:C20)</f>
+        <v>41</v>
+      </c>
+      <c r="D22" s="67">
         <f>SUM(D3:D20)</f>
         <v>2</v>
       </c>
-      <c r="E22" s="77">
-        <f t="shared" ref="E22" si="0">SUM(E3:E20)</f>
-        <v>11</v>
-      </c>
-      <c r="F22" s="77">
+      <c r="E22" s="67">
+        <f>SUM(E3:E20)</f>
+        <v>13</v>
+      </c>
+      <c r="F22" s="67">
         <f>SUM(F3:F20)</f>
-        <v>8</v>
-      </c>
-      <c r="G22" s="77">
-        <f>SUM(G3:G20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="G23">
-        <f>SUM(D22:G22)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="C24">
-        <v>35</v>
-      </c>
-      <c r="G24">
-        <f>G23+L28/2</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="H26" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26" s="60" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="G27" t="s">
-        <v>140</v>
-      </c>
-      <c r="H27">
-        <f>D22+N12</f>
+        <v>7</v>
+      </c>
+      <c r="G22" s="67">
+        <f>SUM(G5:G20)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="183">
+        <f>SUM(H3:H20)</f>
+        <v>24</v>
+      </c>
+      <c r="J22" s="184" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="185"/>
+      <c r="L22" s="186">
+        <f t="shared" ref="L22:Q22" si="0">SUM(L3:L10)</f>
+        <v>37</v>
+      </c>
+      <c r="M22" s="187">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N22" s="187">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="O22" s="187">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P22" s="188">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="183">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" thickTop="1">
+      <c r="C23">
+        <f>C22-3</f>
+        <v>38</v>
+      </c>
+      <c r="L23">
+        <f>L22-3</f>
+        <v>34</v>
+      </c>
+      <c r="Q23" s="176"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="189" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="190">
+        <f>C22+L22</f>
+        <v>78</v>
+      </c>
+      <c r="C26" s="183">
+        <f>H22+Q22</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" thickTop="1"/>
+    <row r="28" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="29" spans="1:17">
+      <c r="A29" s="191"/>
+      <c r="B29" s="192"/>
+      <c r="C29" s="192"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="193"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="194"/>
+      <c r="B30" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="195"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="194" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="6">
+        <f>D17+M22</f>
+        <v>2</v>
+      </c>
+      <c r="C31" s="6">
+        <f>E17+N22</f>
+        <v>17</v>
+      </c>
+      <c r="D31" s="6">
+        <f>F17+O22</f>
+        <v>2</v>
+      </c>
+      <c r="E31" s="6">
+        <f>G17+P22</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="195"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="194" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6">
         <v>4</v>
       </c>
-      <c r="I27">
-        <f>E22+O12</f>
-        <v>27</v>
-      </c>
-      <c r="J27">
-        <f>F22+P12</f>
-        <v>10</v>
-      </c>
-      <c r="K27">
-        <f>G22+Q12</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="G28" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
+      <c r="D32" s="6">
         <v>4</v>
       </c>
-      <c r="J28">
+      <c r="E32" s="6"/>
+      <c r="F32" s="195"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="194" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="196">
+        <f>SUM(B31:B32)</f>
         <v>4</v>
       </c>
-      <c r="L28">
-        <f>SUM(H28:K28)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="79">
-        <f>SUM(H27:H28)</f>
+      <c r="C33" s="196">
+        <f t="shared" ref="C33:E33" si="1">SUM(C31:C32)</f>
+        <v>21</v>
+      </c>
+      <c r="D33" s="196">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I29" s="79">
-        <f t="shared" ref="I29:K29" si="1">SUM(I27:I28)</f>
-        <v>31</v>
-      </c>
-      <c r="J29" s="79">
+      <c r="E33" s="196">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="K29" s="79">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L29" s="80">
-        <f>SUM(H29:K29)</f>
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F33" s="195">
+        <f>SUM(B33:E33)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A34" s="197"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="199"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="K1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="J22:K22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="110"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="95">
+        <v>1200</v>
+      </c>
+      <c r="D3" s="96">
+        <v>75</v>
+      </c>
+      <c r="E3" s="95">
+        <f>C3*D3</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="97">
+        <v>1550</v>
+      </c>
+      <c r="D4" s="97">
+        <v>75</v>
+      </c>
+      <c r="E4" s="97">
+        <f>C4*D4</f>
+        <v>116250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="97">
+        <v>2400</v>
+      </c>
+      <c r="D5" s="98">
+        <v>75</v>
+      </c>
+      <c r="E5" s="97">
+        <f>C5*D5</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="131"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="4">
+        <f>SUM(E2:E4)</f>
+        <v>426250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="131"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="4">
+        <f>SUM(E2:E3)+E5</f>
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D9" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="100">
+        <f>E7-E6</f>
+        <v>63750</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="153">
   <si>
     <t>TOTAL</t>
   </si>
@@ -200,27 +200,6 @@
     <t>Csuklódísz</t>
   </si>
   <si>
-    <t>Szálloda ajándéka:</t>
-  </si>
-  <si>
-    <t>hosszan égő gyertya</t>
-  </si>
-  <si>
-    <t>asztaltükör</t>
-  </si>
-  <si>
-    <t>menükártya</t>
-  </si>
-  <si>
-    <t>ültetőkártya</t>
-  </si>
-  <si>
-    <t>ültetési rend</t>
-  </si>
-  <si>
-    <t>vörös szőnyeg</t>
-  </si>
-  <si>
     <t>Dekor és Meghívó:</t>
   </si>
   <si>
@@ -399,12 +378,6 @@
   </si>
   <si>
     <t>Erzsi nénje</t>
-  </si>
-  <si>
-    <t>Igény:</t>
-  </si>
-  <si>
-    <t>Tart:</t>
   </si>
   <si>
     <t>Meghívó csomagolás</t>
@@ -532,9 +505,6 @@
     <t>Jászkai Tünde</t>
   </si>
   <si>
-    <t>Pataky Piri</t>
-  </si>
-  <si>
     <t>Berecz Andrea</t>
   </si>
   <si>
@@ -547,7 +517,16 @@
     <t>TELJES:</t>
   </si>
   <si>
-    <t>Kriszti Cipő</t>
+    <t>Weblap</t>
+  </si>
+  <si>
+    <t>Pataki Piri</t>
+  </si>
+  <si>
+    <t>Kriszti cipő</t>
+  </si>
+  <si>
+    <t>Anyakönyvezető (hivatalos)</t>
   </si>
 </sst>
 </file>
@@ -561,7 +540,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ [$Ft-40E]_-;\-* #,##0\ [$Ft-40E]_-;_-* &quot;-&quot;??\ [$Ft-40E]_-;_-@_-"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,6 +676,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8.8000000000000007"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -730,7 +717,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1221,62 +1208,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1398,215 +1340,45 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1614,15 +1386,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1643,30 +1408,197 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
+    <cellStyle name="Hivatkozás" xfId="3" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Pénznem" xfId="2" builtinId="4"/>
   </cellStyles>
@@ -1962,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1981,21 +1913,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="131"/>
       <c r="G1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="114">
+      <c r="H1" s="132">
         <f>H2+H3</f>
         <v>78</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="14"/>
@@ -2023,7 +1955,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="76" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>42</v>
@@ -2053,7 +1985,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="76" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>3</v>
@@ -2074,7 +2006,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="62" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B5" s="77" t="s">
         <v>42</v>
@@ -2093,7 +2025,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="81" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B6" s="77" t="s">
         <v>42</v>
@@ -2130,7 +2062,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="62" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B8" s="77" t="s">
         <v>42</v>
@@ -2149,7 +2081,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="62" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B9" s="77" t="s">
         <v>42</v>
@@ -2199,7 +2131,7 @@
         <f>$H$1</f>
         <v>78</v>
       </c>
-      <c r="E11" s="200">
+      <c r="E11" s="128">
         <f>C11*D11</f>
         <v>174905</v>
       </c>
@@ -2243,8 +2175,8 @@
       <c r="B14" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="133"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="85">
         <f>SUM(E5:E13)</f>
         <v>1928135.5</v>
@@ -2257,8 +2189,8 @@
       <c r="B15" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="133"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="78">
         <f>E14/H1</f>
         <v>24719.685897435898</v>
@@ -2274,24 +2206,24 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="110"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="129"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="134"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -2299,19 +2231,19 @@
       <c r="G18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="101">
+      <c r="H18" s="145">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="I18" s="123"/>
+      <c r="I18" s="146"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="130"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="136"/>
       <c r="E19" s="17">
         <f>640*310</f>
         <v>198400</v>
@@ -2319,19 +2251,19 @@
       <c r="G19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="137">
+      <c r="H19" s="143">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="I19" s="138"/>
+      <c r="I19" s="144"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="136"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="130"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="136"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2345,41 +2277,31 @@
       <c r="D21" s="23"/>
       <c r="E21" s="7"/>
       <c r="J21" s="1"/>
-      <c r="P21" s="127" t="s">
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A22" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A22" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="110"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131"/>
       <c r="K22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="125">
+      <c r="L22" s="135">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="M22" s="126"/>
-      <c r="P22" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="124"/>
+      <c r="M22" s="147"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="153" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="14">
@@ -2396,22 +2318,17 @@
       <c r="K23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="125">
-        <v>1</v>
-      </c>
-      <c r="M23" s="126"/>
-      <c r="P23" s="124" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q23" s="124"/>
-      <c r="R23" s="124"/>
+      <c r="L23" s="135">
+        <v>1</v>
+      </c>
+      <c r="M23" s="147"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="121"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="26">
         <v>12000</v>
       </c>
@@ -2426,22 +2343,17 @@
       <c r="K24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="125">
+      <c r="L24" s="135">
         <v>8</v>
       </c>
-      <c r="M24" s="126"/>
-      <c r="P24" s="124" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q24" s="124"/>
-      <c r="R24" s="124"/>
+      <c r="M24" s="147"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="121"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="26">
         <v>18500</v>
       </c>
@@ -2456,20 +2368,15 @@
       <c r="K25" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="P25" s="124" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="121"/>
+      <c r="B26" s="154"/>
       <c r="C26" s="26">
         <v>7500</v>
       </c>
@@ -2483,20 +2390,15 @@
       <c r="K26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="117"/>
-      <c r="M26" s="118"/>
-      <c r="P26" s="124" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="124"/>
-      <c r="R26" s="124"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="151"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="121"/>
+      <c r="B27" s="154"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>1</v>
@@ -2504,18 +2406,13 @@
       <c r="E27" s="27">
         <v>0</v>
       </c>
-      <c r="P27" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="124"/>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="121"/>
+      <c r="B28" s="154"/>
       <c r="C28" s="26">
         <v>22500</v>
       </c>
@@ -2527,14 +2424,14 @@
         <v>22500</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="121"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="26">
         <v>5500</v>
       </c>
@@ -2546,7 +2443,7 @@
         <v>5500</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -2554,7 +2451,7 @@
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="121"/>
+      <c r="B30" s="154"/>
       <c r="C30" s="26">
         <v>1850</v>
       </c>
@@ -2566,15 +2463,15 @@
         <v>1850</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="121"/>
+        <v>67</v>
+      </c>
+      <c r="B31" s="154"/>
       <c r="C31" s="26">
         <v>7500</v>
       </c>
@@ -2592,7 +2489,7 @@
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="121"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="2">
         <v>1850</v>
       </c>
@@ -2609,7 +2506,7 @@
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="121"/>
+      <c r="B33" s="154"/>
       <c r="C33" s="2">
         <v>2000</v>
       </c>
@@ -2624,9 +2521,9 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="121"/>
+        <v>61</v>
+      </c>
+      <c r="B34" s="154"/>
       <c r="C34" s="2">
         <v>500</v>
       </c>
@@ -2644,9 +2541,9 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="121"/>
+        <v>121</v>
+      </c>
+      <c r="B35" s="154"/>
       <c r="C35" s="2">
         <v>1500</v>
       </c>
@@ -2672,9 +2569,9 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="122"/>
+        <v>120</v>
+      </c>
+      <c r="B36" s="155"/>
       <c r="C36" s="2">
         <v>300</v>
       </c>
@@ -2722,19 +2619,19 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="110"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="131"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="115" t="s">
+      <c r="B40" s="148" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="14"/>
@@ -2747,7 +2644,7 @@
       <c r="A41" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="115"/>
+      <c r="B41" s="148"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3">
@@ -2758,7 +2655,7 @@
       <c r="A42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="115"/>
+      <c r="B42" s="148"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3">
@@ -2769,7 +2666,7 @@
       <c r="A43" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="115"/>
+      <c r="B43" s="148"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3">
@@ -2780,7 +2677,7 @@
       <c r="A44" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="115"/>
+      <c r="B44" s="148"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -2791,7 +2688,7 @@
       <c r="A45" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="115"/>
+      <c r="B45" s="148"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -2802,96 +2699,96 @@
       <c r="A46" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="115"/>
+      <c r="B46" s="148"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="27">
-        <v>150000</v>
+      <c r="E46" s="88">
+        <v>123000</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="115"/>
+      <c r="B47" s="148"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
         <v>30000</v>
       </c>
       <c r="F47" s="55" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="115"/>
+      <c r="B48" s="148"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
         <v>190000</v>
       </c>
       <c r="F48" s="55" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="101">
+      <c r="H48" s="145">
         <f>$E$50/2+E47+E48</f>
-        <v>709450</v>
-      </c>
-      <c r="I48" s="123"/>
+        <v>695950</v>
+      </c>
+      <c r="I48" s="146"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="115"/>
+      <c r="B49" s="148"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="27">
         <v>250000</v>
       </c>
       <c r="F49" s="55" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="101">
+      <c r="H49" s="145">
         <f>$E$50/2+E49</f>
-        <v>739450</v>
-      </c>
-      <c r="I49" s="123"/>
+        <v>725950</v>
+      </c>
+      <c r="I49" s="146"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="116"/>
+      <c r="B50" s="149"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
         <f>SUM(E40:E46)</f>
-        <v>978900</v>
+        <v>951900</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A52" s="108" t="s">
+      <c r="A52" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="109"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="110"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="131"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="34" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B53" s="35" t="s">
         <v>42</v>
@@ -2910,7 +2807,7 @@
     </row>
     <row r="54" spans="1:9" ht="30">
       <c r="A54" s="37" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>42</v>
@@ -2984,19 +2881,19 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="112"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="112"/>
-      <c r="E58" s="113"/>
+      <c r="A58" s="162" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="164"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="132" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="2"/>
@@ -3018,12 +2915,12 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="114"/>
+        <v>66</v>
+      </c>
+      <c r="B60" s="132"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="89">
+      <c r="E60" s="88">
         <v>233500</v>
       </c>
       <c r="G60" s="18" t="s">
@@ -3040,9 +2937,9 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="114"/>
+        <v>122</v>
+      </c>
+      <c r="B61" s="132"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="27"/>
@@ -3052,9 +2949,9 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B62" s="114"/>
+        <v>151</v>
+      </c>
+      <c r="B62" s="132"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="27"/>
@@ -3064,9 +2961,9 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="114"/>
+        <v>123</v>
+      </c>
+      <c r="B63" s="132"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="27"/>
@@ -3076,9 +2973,9 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" s="114"/>
+        <v>124</v>
+      </c>
+      <c r="B64" s="132"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="27"/>
@@ -3088,9 +2985,9 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B65" s="114"/>
+        <v>137</v>
+      </c>
+      <c r="B65" s="132"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="27"/>
@@ -3116,36 +3013,52 @@
       <c r="D67" s="31"/>
       <c r="E67" s="32">
         <f>E14+E20+E37+E50+E56</f>
-        <v>3895335.5</v>
-      </c>
-      <c r="G67" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="H67" s="106"/>
-      <c r="I67" s="107"/>
+        <v>3868335.5</v>
+      </c>
+      <c r="G67" s="159" t="s">
+        <v>99</v>
+      </c>
+      <c r="H67" s="160"/>
+      <c r="I67" s="161"/>
     </row>
     <row r="68" spans="1:9">
       <c r="G68" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H68" s="101">
+      <c r="H68" s="145">
         <f>$I$2+$H$18+$I$35+$I$54+$I$59+H48</f>
-        <v>2308607.121794872</v>
-      </c>
-      <c r="I68" s="102"/>
+        <v>2295107.121794872</v>
+      </c>
+      <c r="I68" s="156"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" thickBot="1">
       <c r="G69" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="103">
+      <c r="H69" s="157">
         <f>$I$3+$H$19+$I$36+$I$60+$I$55+$H$49</f>
-        <v>2320078.378205128</v>
-      </c>
-      <c r="I69" s="104"/>
+        <v>2306578.378205128</v>
+      </c>
+      <c r="I69" s="158"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="28">
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="B40:B50"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="B23:B36"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="H1:I1"/>
@@ -3158,29 +3071,6 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="B40:B50"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="B23:B36"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="B59:B65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3189,10 +3079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3206,51 +3096,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="144"/>
-      <c r="B2" s="119" t="s">
+      <c r="A2" s="170"/>
+      <c r="B2" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="139" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="119" t="s">
+      <c r="C2" s="152"/>
+      <c r="D2" s="165" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="139" t="s">
-        <v>75</v>
+      <c r="F2" s="152"/>
+      <c r="G2" s="165" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="144"/>
+      <c r="A3" s="170"/>
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="140"/>
+      <c r="D3" s="166"/>
       <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="140"/>
+      <c r="G3" s="166"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
@@ -3281,7 +3171,7 @@
         <v>5000</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" ref="D5:D14" si="0">SUM(B5:C5)</f>
+        <f t="shared" ref="D5:D16" si="0">SUM(B5:C5)</f>
         <v>10000</v>
       </c>
       <c r="E5" s="2"/>
@@ -3331,7 +3221,9 @@
       <c r="B8" s="11">
         <v>15000</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="100" t="s">
+        <v>87</v>
+      </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -3383,7 +3275,9 @@
       <c r="B11" s="11">
         <v>100000</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="100" t="s">
+        <v>87</v>
+      </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>100000</v>
@@ -3394,7 +3288,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B12" s="11">
         <v>14150</v>
@@ -3412,7 +3306,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B13" s="11">
         <v>15000</v>
@@ -3429,33 +3323,55 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B16" s="21">
         <f>SUM(B4:B13)</f>
         <v>299150</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C16" s="21">
         <f>SUM(C4:C13)</f>
         <v>184150</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D16" s="21">
         <f t="shared" si="0"/>
         <v>483300</v>
       </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="38"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -3471,7 +3387,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3486,7 +3402,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>15</v>
@@ -3496,24 +3412,24 @@
         <v>85935</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -3523,10 +3439,10 @@
         <v>59980</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G2" s="41">
         <v>0.7</v>
@@ -3541,7 +3457,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -3552,7 +3468,7 @@
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G3" s="41">
         <v>0.7</v>
@@ -3571,10 +3487,10 @@
         <v>174905</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G4" s="44">
         <v>0.5</v>
@@ -3587,13 +3503,13 @@
         <v>5998</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="E5" s="41"/>
       <c r="F5" s="41" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G5" s="41">
         <v>0.5</v>
@@ -3613,7 +3529,7 @@
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G6" s="41">
         <v>0.5</v>
@@ -3629,7 +3545,7 @@
     <row r="7" spans="1:10" ht="15.75">
       <c r="E7" s="41"/>
       <c r="F7" s="41" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G7" s="41">
         <v>0.5</v>
@@ -3645,7 +3561,7 @@
     <row r="8" spans="1:10" ht="15.75">
       <c r="E8" s="41"/>
       <c r="F8" s="41" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G8" s="41">
         <v>0.5</v>
@@ -3661,7 +3577,7 @@
     <row r="9" spans="1:10" ht="15.75">
       <c r="E9" s="41"/>
       <c r="F9" s="41" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G9" s="41">
         <v>0.5</v>
@@ -3676,10 +3592,10 @@
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="E10" s="44" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G10" s="44">
         <v>0.5</v>
@@ -3695,7 +3611,7 @@
     <row r="11" spans="1:10" ht="15.75">
       <c r="E11" s="41"/>
       <c r="F11" s="41" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G11" s="41">
         <v>0.7</v>
@@ -3711,7 +3627,7 @@
     <row r="12" spans="1:10" ht="15.75">
       <c r="E12" s="41"/>
       <c r="F12" s="41" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G12" s="41">
         <v>1</v>
@@ -3727,7 +3643,7 @@
     <row r="13" spans="1:10" ht="15.75">
       <c r="E13" s="41"/>
       <c r="F13" s="41" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G13" s="41">
         <v>0.5</v>
@@ -3743,7 +3659,7 @@
     <row r="14" spans="1:10" ht="15.75">
       <c r="E14" s="41"/>
       <c r="F14" s="41" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G14" s="41">
         <v>1</v>
@@ -3758,10 +3674,10 @@
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="E15" s="41" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G15" s="41">
         <v>0.5</v>
@@ -3777,7 +3693,7 @@
     <row r="16" spans="1:10" ht="15.75">
       <c r="E16" s="41"/>
       <c r="F16" s="41" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G16" s="41">
         <v>0.7</v>
@@ -3793,7 +3709,7 @@
     <row r="17" spans="5:9" ht="15.75">
       <c r="E17" s="41"/>
       <c r="F17" s="41" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G17" s="41">
         <v>1</v>
@@ -3808,10 +3724,10 @@
     </row>
     <row r="18" spans="5:9" ht="16.5" thickBot="1">
       <c r="E18" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G18" s="49">
         <v>1</v>
@@ -3826,10 +3742,10 @@
     </row>
     <row r="19" spans="5:9" ht="16.5" thickTop="1">
       <c r="E19" s="52" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G19" s="52">
         <v>0.5</v>
@@ -3845,7 +3761,7 @@
     <row r="20" spans="5:9" ht="15.75">
       <c r="E20" s="41"/>
       <c r="F20" s="41" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G20" s="41">
         <v>0.5</v>
@@ -3861,7 +3777,7 @@
     <row r="21" spans="5:9" ht="15.75">
       <c r="E21" s="41"/>
       <c r="F21" s="41" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G21" s="41">
         <v>0.5</v>
@@ -3877,7 +3793,7 @@
     <row r="22" spans="5:9" ht="15.75">
       <c r="E22" s="41"/>
       <c r="F22" s="41" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G22" s="41">
         <v>0.5</v>
@@ -3893,7 +3809,7 @@
     <row r="23" spans="5:9" ht="15.75">
       <c r="E23" s="41"/>
       <c r="F23" s="41" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G23" s="41">
         <v>0.5</v>
@@ -3909,7 +3825,7 @@
     <row r="24" spans="5:9" ht="15.75">
       <c r="E24" s="41"/>
       <c r="F24" s="41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G24" s="41">
         <v>0.5</v>
@@ -3929,555 +3845,560 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="172" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="172"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="152" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="176" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="177" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="178"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="183" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="176"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="184"/>
+    </row>
+    <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="65" t="s">
         <v>107</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="119" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="151"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="131" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="157" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="158" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="155"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="O2" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="P2" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q2" s="159"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="65" t="s">
-        <v>114</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="63">
         <v>8</v>
       </c>
-      <c r="D3" s="58">
-        <v>1</v>
-      </c>
-      <c r="E3" s="160">
-        <v>1</v>
-      </c>
-      <c r="F3" s="160">
-        <v>1</v>
-      </c>
-      <c r="G3" s="161"/>
-      <c r="H3" s="162">
-        <v>1</v>
-      </c>
-      <c r="J3" s="163" t="s">
-        <v>114</v>
+      <c r="D3" s="189">
+        <v>1</v>
+      </c>
+      <c r="E3" s="102">
+        <v>1</v>
+      </c>
+      <c r="F3" s="102">
+        <v>1</v>
+      </c>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104">
+        <v>1</v>
+      </c>
+      <c r="J3" s="105" t="s">
+        <v>107</v>
       </c>
       <c r="K3" s="59"/>
-      <c r="L3" s="164">
+      <c r="L3" s="106">
         <v>5</v>
       </c>
-      <c r="M3" s="165">
+      <c r="M3" s="185">
         <v>2</v>
       </c>
-      <c r="N3" s="166">
+      <c r="N3" s="107">
         <v>2</v>
       </c>
-      <c r="O3" s="167">
-        <v>1</v>
-      </c>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="O3" s="107">
+        <v>1</v>
+      </c>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="65" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="63">
         <v>6</v>
       </c>
-      <c r="D4" s="58">
-        <v>1</v>
-      </c>
-      <c r="E4" s="160">
-        <v>1</v>
-      </c>
-      <c r="F4" s="160"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="162">
+      <c r="D4" s="189">
+        <v>1</v>
+      </c>
+      <c r="E4" s="189">
+        <v>1</v>
+      </c>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="104">
         <v>0</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K4" s="62"/>
-      <c r="L4" s="164">
+      <c r="L4" s="106">
         <v>3</v>
       </c>
-      <c r="M4" s="169"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="162">
+      <c r="M4" s="186"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="104">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="88" t="s">
+    <row r="5" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="111">
+        <v>1</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102">
+        <v>1</v>
+      </c>
+      <c r="G5" s="103"/>
+      <c r="H5" s="104">
+        <v>1</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="62"/>
+      <c r="L5" s="106">
+        <v>12</v>
+      </c>
+      <c r="M5" s="109"/>
+      <c r="N5" s="112">
+        <v>6</v>
+      </c>
+      <c r="O5" s="109"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="111">
+        <v>2</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="102">
+        <v>1</v>
+      </c>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="104">
+        <v>2</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="62"/>
+      <c r="L6" s="106">
+        <v>4</v>
+      </c>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109">
+        <v>2</v>
+      </c>
+      <c r="O6" s="109"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="111">
+        <v>2</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="102">
+        <v>1</v>
+      </c>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104">
+        <v>2</v>
+      </c>
+      <c r="J7" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="172">
-        <v>1</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160">
-        <v>1</v>
-      </c>
-      <c r="G5" s="161"/>
-      <c r="H5" s="162">
-        <v>1</v>
-      </c>
-      <c r="J5" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="164">
-        <v>12</v>
-      </c>
-      <c r="M5" s="170"/>
-      <c r="N5" s="173">
+      <c r="K7" s="62"/>
+      <c r="L7" s="106">
         <v>6</v>
       </c>
-      <c r="O5" s="170"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="162">
+      <c r="M7" s="109"/>
+      <c r="N7" s="109">
+        <v>3</v>
+      </c>
+      <c r="O7" s="109"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="104">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="172">
-        <v>2</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="160">
-        <v>1</v>
-      </c>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="162">
-        <v>2</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="164">
-        <v>4</v>
-      </c>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170">
-        <v>2</v>
-      </c>
-      <c r="O6" s="170"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="162">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="172">
-        <v>2</v>
-      </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="160">
-        <v>1</v>
-      </c>
-      <c r="F7" s="160"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="162">
-        <v>2</v>
-      </c>
-      <c r="J7" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" s="62"/>
-      <c r="L7" s="164">
-        <v>6</v>
-      </c>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170">
-        <v>3</v>
-      </c>
-      <c r="O7" s="170"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="63" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="63">
         <v>2</v>
       </c>
       <c r="D8" s="58"/>
-      <c r="E8" s="160">
-        <v>1</v>
-      </c>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="162">
+      <c r="E8" s="102">
+        <v>1</v>
+      </c>
+      <c r="F8" s="102"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="104">
         <v>2</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K8" s="62"/>
-      <c r="L8" s="164">
+      <c r="L8" s="106">
         <v>2</v>
       </c>
-      <c r="M8" s="170"/>
-      <c r="N8" s="173">
-        <v>1</v>
-      </c>
-      <c r="O8" s="170"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="162">
+      <c r="M8" s="109"/>
+      <c r="N8" s="112">
+        <v>1</v>
+      </c>
+      <c r="O8" s="109"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="104">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="65" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="63">
         <v>1</v>
       </c>
       <c r="D9" s="58"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160">
-        <v>1</v>
-      </c>
-      <c r="G9" s="161"/>
-      <c r="H9" s="162">
+      <c r="E9" s="102"/>
+      <c r="F9" s="102">
+        <v>1</v>
+      </c>
+      <c r="G9" s="103"/>
+      <c r="H9" s="104">
         <v>1</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K9" s="62"/>
-      <c r="L9" s="164">
-        <v>1</v>
-      </c>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="173">
-        <v>1</v>
-      </c>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="174" t="s">
-        <v>149</v>
+      <c r="L9" s="106">
+        <v>1</v>
+      </c>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="112">
+        <v>1</v>
+      </c>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="104">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <f>+-2</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="113" t="s">
+        <v>140</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="63">
         <v>2</v>
       </c>
       <c r="D10" s="58"/>
-      <c r="E10" s="160">
-        <v>1</v>
-      </c>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="162">
+      <c r="E10" s="102">
+        <v>1</v>
+      </c>
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104">
         <v>2</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K10" s="62"/>
-      <c r="L10" s="164">
+      <c r="L10" s="106">
         <v>4</v>
       </c>
-      <c r="M10" s="170"/>
-      <c r="N10" s="173">
+      <c r="M10" s="109"/>
+      <c r="N10" s="109">
         <v>2</v>
       </c>
-      <c r="O10" s="170"/>
-      <c r="P10" s="171">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="162">
+      <c r="O10" s="109"/>
+      <c r="P10" s="110">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="104">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="174" t="s">
-        <v>150</v>
+    <row r="11" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="113" t="s">
+        <v>141</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="63">
         <v>1</v>
       </c>
       <c r="D11" s="58"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="175">
-        <v>1</v>
-      </c>
-      <c r="G11" s="161"/>
-      <c r="H11" s="162">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="176"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="174" t="s">
-        <v>151</v>
+      <c r="E11" s="102"/>
+      <c r="F11" s="114">
+        <v>1</v>
+      </c>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="115"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="113" t="s">
+        <v>142</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="63">
         <v>2</v>
       </c>
       <c r="D12" s="58"/>
-      <c r="E12" s="175">
-        <v>1</v>
-      </c>
-      <c r="F12" s="160"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="162">
+      <c r="E12" s="102">
+        <v>1</v>
+      </c>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="18" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="172">
+      <c r="C13" s="111">
         <v>0</v>
       </c>
       <c r="D13" s="58"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160">
-        <v>1</v>
-      </c>
-      <c r="G13" s="161"/>
-      <c r="H13" s="162">
+      <c r="E13" s="102"/>
+      <c r="F13" s="102">
+        <v>1</v>
+      </c>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="172">
+      <c r="C14" s="111">
         <v>2</v>
       </c>
       <c r="D14" s="58"/>
-      <c r="E14" s="171">
-        <v>1</v>
-      </c>
-      <c r="F14" s="171"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="162">
+      <c r="E14" s="110">
+        <v>1</v>
+      </c>
+      <c r="F14" s="110"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="104">
         <v>2</v>
       </c>
-      <c r="Q14" s="176"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="Q14" s="115"/>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="60" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B15" s="61"/>
-      <c r="C15" s="172">
+      <c r="C15" s="111">
         <v>1</v>
       </c>
       <c r="D15" s="58"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171">
-        <v>1</v>
-      </c>
-      <c r="G15" s="177"/>
-      <c r="H15" s="162">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="176"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="178" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="179"/>
-      <c r="C16" s="172">
+      <c r="E15" s="110"/>
+      <c r="F15" s="109">
+        <v>1</v>
+      </c>
+      <c r="G15" s="116"/>
+      <c r="H15" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="115"/>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="118"/>
+      <c r="C16" s="111">
         <v>1</v>
       </c>
       <c r="D16" s="58"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171">
-        <v>1</v>
-      </c>
-      <c r="G16" s="177"/>
-      <c r="H16" s="162">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="176"/>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="172" t="s">
-        <v>155</v>
+      <c r="E16" s="110"/>
+      <c r="F16" s="109">
+        <v>1</v>
+      </c>
+      <c r="G16" s="116"/>
+      <c r="H16" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="115"/>
+    </row>
+    <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="111" t="s">
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="180">
+      <c r="C17" s="119">
         <v>2</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="171">
-        <v>1</v>
-      </c>
-      <c r="F17" s="171"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="162">
+      <c r="D17" s="120"/>
+      <c r="E17" s="109">
+        <v>1</v>
+      </c>
+      <c r="F17" s="110"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="104">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="172" t="s">
-        <v>156</v>
+    <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="111" t="s">
+        <v>146</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="180">
+      <c r="C18" s="119">
         <v>2</v>
       </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="171">
-        <v>1</v>
-      </c>
-      <c r="F18" s="171"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="162">
+      <c r="D18" s="120"/>
+      <c r="E18" s="110">
+        <v>1</v>
+      </c>
+      <c r="F18" s="110"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="104">
         <v>2</v>
       </c>
-      <c r="Q18" s="176"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="172" t="s">
-        <v>157</v>
+      <c r="Q18" s="115"/>
+    </row>
+    <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="111" t="s">
+        <v>147</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="180">
+      <c r="C19" s="119">
         <v>2</v>
       </c>
-      <c r="D19" s="181"/>
-      <c r="E19" s="171">
-        <v>1</v>
-      </c>
-      <c r="F19" s="171"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="162">
+      <c r="D19" s="120"/>
+      <c r="E19" s="109">
+        <v>1</v>
+      </c>
+      <c r="F19" s="110"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="104">
         <v>2</v>
       </c>
-      <c r="Q19" s="176"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+      <c r="Q19" s="115"/>
+    </row>
+    <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="64" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B20" s="64"/>
       <c r="C20" s="63">
         <v>4</v>
       </c>
       <c r="D20" s="58"/>
-      <c r="E20" s="170">
+      <c r="E20" s="112">
         <v>2</v>
       </c>
-      <c r="F20" s="170"/>
-      <c r="G20" s="182">
-        <v>1</v>
-      </c>
-      <c r="H20" s="162">
+      <c r="F20" s="109"/>
+      <c r="G20" s="121">
+        <v>1</v>
+      </c>
+      <c r="H20" s="104">
         <v>0</v>
       </c>
-      <c r="Q20" s="176"/>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" thickTop="1" thickBot="1"/>
-    <row r="22" spans="1:17" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="145" t="s">
+      <c r="Q20" s="115"/>
+      <c r="R20" s="190"/>
+    </row>
+    <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A22" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="145"/>
+      <c r="B22" s="171"/>
       <c r="C22" s="68">
         <f>SUM(C3:C20)</f>
         <v>41</v>
@@ -4498,40 +4419,40 @@
         <f>SUM(G5:G20)</f>
         <v>1</v>
       </c>
-      <c r="H22" s="183">
+      <c r="H22" s="122">
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="184" t="s">
+      <c r="J22" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="185"/>
-      <c r="L22" s="186">
-        <f t="shared" ref="L22:Q22" si="0">SUM(L3:L10)</f>
+      <c r="K22" s="188"/>
+      <c r="L22" s="123">
+        <f>SUM(L3:L10)</f>
         <v>37</v>
       </c>
-      <c r="M22" s="187">
+      <c r="M22" s="124">
+        <f t="shared" ref="L22:Q22" si="0">SUM(M3:M10)</f>
+        <v>2</v>
+      </c>
+      <c r="N22" s="124">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="O22" s="124">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N22" s="187">
+      <c r="P22" s="125">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="O22" s="187">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P22" s="188">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="183">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="122">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.75" thickTop="1">
+    <row r="23" spans="1:18" ht="15.75" thickTop="1">
       <c r="C23">
         <f>C22-3</f>
         <v>38</v>
@@ -4540,130 +4461,97 @@
         <f>L22-3</f>
         <v>34</v>
       </c>
-      <c r="Q23" s="176"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="189" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="190">
+      <c r="Q23" s="115"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="126">
         <f>C22+L22</f>
         <v>78</v>
       </c>
-      <c r="C26" s="183">
+      <c r="C26" s="122">
         <f>H22+Q22</f>
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75" thickTop="1"/>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="29" spans="1:17">
-      <c r="A29" s="191"/>
-      <c r="B29" s="192"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="193"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="194"/>
-      <c r="B30" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="195"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="194" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="6">
-        <f>D17+M22</f>
-        <v>2</v>
-      </c>
-      <c r="C31" s="6">
-        <f>E17+N22</f>
-        <v>17</v>
-      </c>
-      <c r="D31" s="6">
-        <f>F17+O22</f>
-        <v>2</v>
-      </c>
-      <c r="E31" s="6">
-        <f>G17+P22</f>
-        <v>1</v>
-      </c>
-      <c r="F31" s="195"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="194" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="6">
-        <v>2</v>
-      </c>
-      <c r="C32" s="6">
-        <v>4</v>
-      </c>
-      <c r="D32" s="6">
-        <v>4</v>
-      </c>
+    <row r="27" spans="1:18" ht="15.75" thickTop="1"/>
+    <row r="28" spans="1:18">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="6"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="195"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="194" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="196">
-        <f>SUM(B31:B32)</f>
-        <v>4</v>
-      </c>
-      <c r="C33" s="196">
-        <f t="shared" ref="C33:E33" si="1">SUM(C31:C32)</f>
-        <v>21</v>
-      </c>
-      <c r="D33" s="196">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E33" s="196">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F33" s="195">
-        <f>SUM(B33:E33)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A34" s="197"/>
-      <c r="B34" s="198"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="198"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="199"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:L2"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="J22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4683,77 +4571,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="131"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93">
         <v>220000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="91" t="s">
+      <c r="A3" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="95">
+      <c r="C3" s="94">
         <v>1200</v>
       </c>
-      <c r="D3" s="96">
+      <c r="D3" s="95">
         <v>75</v>
       </c>
-      <c r="E3" s="95">
+      <c r="E3" s="94">
         <f>C3*D3</f>
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="97">
+      <c r="C4" s="96">
         <v>1550</v>
       </c>
-      <c r="D4" s="97">
+      <c r="D4" s="96">
         <v>75</v>
       </c>
-      <c r="E4" s="97">
+      <c r="E4" s="96">
         <f>C4*D4</f>
         <v>116250</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
       <c r="A5" s="37" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="97">
+      <c r="C5" s="96">
         <v>2400</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="97">
         <v>75</v>
       </c>
-      <c r="E5" s="97">
+      <c r="E5" s="96">
         <f>C5*D5</f>
         <v>180000</v>
       </c>
@@ -4765,8 +4653,8 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="154"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="182"/>
       <c r="E6" s="4">
         <f>SUM(E2:E4)</f>
         <v>426250</v>
@@ -4779,8 +4667,8 @@
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="154"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="182"/>
       <c r="E7" s="4">
         <f>SUM(E2:E3)+E5</f>
         <v>490000</v>
@@ -4788,10 +4676,10 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
-      <c r="D9" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="100">
+      <c r="D9" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="99">
         <f>E7-E6</f>
         <v>63750</v>
       </c>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
   <si>
     <t>TOTAL</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>Ital (pezsgő + 2 ital/fő)</t>
-  </si>
-  <si>
-    <t>Étel (kanapé szendvics 5 db/fő - sajtos, sonkás, szalámis, húsos, lazacos)</t>
   </si>
   <si>
     <t>Egyéb:</t>
@@ -527,6 +524,12 @@
   </si>
   <si>
     <t>Anyakönyvezető (hivatalos)</t>
+  </si>
+  <si>
+    <t>Kísérő zenekar</t>
+  </si>
+  <si>
+    <t>Étel (kanapé szendvics 3 db/fő)</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1097,37 +1100,6 @@
       <bottom style="dashDotDot">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1218,7 +1190,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1382,8 +1354,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1397,7 +1369,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1406,194 +1378,201 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1892,10 +1871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1913,21 +1892,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="131"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="143"/>
       <c r="G1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="132">
+      <c r="H1" s="145">
         <f>H2+H3</f>
         <v>78</v>
       </c>
-      <c r="I1" s="132"/>
+      <c r="I1" s="145"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="14"/>
@@ -1955,7 +1934,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>42</v>
@@ -1985,7 +1964,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>3</v>
@@ -2006,7 +1985,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="77" t="s">
         <v>42</v>
@@ -2025,7 +2004,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="77" t="s">
         <v>42</v>
@@ -2062,7 +2041,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="77" t="s">
         <v>42</v>
@@ -2081,7 +2060,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="77" t="s">
         <v>42</v>
@@ -2175,8 +2154,8 @@
       <c r="B14" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="139"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="85">
         <f>SUM(E5:E13)</f>
         <v>1928135.5</v>
@@ -2189,8 +2168,8 @@
       <c r="B15" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="161"/>
       <c r="E15" s="78">
         <f>E14/H1</f>
         <v>24719.685897435898</v>
@@ -2206,24 +2185,24 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A17" s="129" t="s">
+      <c r="A17" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="143"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="134"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="157"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -2231,19 +2210,19 @@
       <c r="G18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="145">
+      <c r="H18" s="134">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="I18" s="146"/>
+      <c r="I18" s="153"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="141"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="136"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="158"/>
       <c r="E19" s="17">
         <f>640*310</f>
         <v>198400</v>
@@ -2251,19 +2230,19 @@
       <c r="G19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="143">
+      <c r="H19" s="165">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="I19" s="144"/>
+      <c r="I19" s="166"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="142"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="136"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="158"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2280,28 +2259,28 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A22" s="129" t="s">
+      <c r="A22" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="131"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
       <c r="K22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="135">
+      <c r="L22" s="154">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="M22" s="147"/>
+      <c r="M22" s="155"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="151" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="14">
@@ -2318,17 +2297,17 @@
       <c r="K23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="135">
-        <v>1</v>
-      </c>
-      <c r="M23" s="147"/>
+      <c r="L23" s="154">
+        <v>1</v>
+      </c>
+      <c r="M23" s="155"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="154"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="26">
         <v>12000</v>
       </c>
@@ -2343,17 +2322,17 @@
       <c r="K24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="135">
+      <c r="L24" s="154">
         <v>8</v>
       </c>
-      <c r="M24" s="147"/>
+      <c r="M24" s="155"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="154"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="26">
         <v>18500</v>
       </c>
@@ -2368,15 +2347,15 @@
       <c r="K25" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="152"/>
-      <c r="M25" s="152"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="154"/>
+      <c r="B26" s="152"/>
       <c r="C26" s="26">
         <v>7500</v>
       </c>
@@ -2390,15 +2369,15 @@
       <c r="K26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="150"/>
-      <c r="M26" s="151"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="149"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="154"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>1</v>
@@ -2412,7 +2391,7 @@
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="154"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="26">
         <v>22500</v>
       </c>
@@ -2424,14 +2403,14 @@
         <v>22500</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="154"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="26">
         <v>5500</v>
       </c>
@@ -2443,7 +2422,7 @@
         <v>5500</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -2451,7 +2430,7 @@
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="154"/>
+      <c r="B30" s="152"/>
       <c r="C30" s="26">
         <v>1850</v>
       </c>
@@ -2463,15 +2442,15 @@
         <v>1850</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="154"/>
+        <v>66</v>
+      </c>
+      <c r="B31" s="152"/>
       <c r="C31" s="26">
         <v>7500</v>
       </c>
@@ -2489,7 +2468,7 @@
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="154"/>
+      <c r="B32" s="152"/>
       <c r="C32" s="2">
         <v>1850</v>
       </c>
@@ -2506,7 +2485,7 @@
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="154"/>
+      <c r="B33" s="152"/>
       <c r="C33" s="2">
         <v>2000</v>
       </c>
@@ -2523,7 +2502,7 @@
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="154"/>
+      <c r="B34" s="152"/>
       <c r="C34" s="2">
         <v>500</v>
       </c>
@@ -2541,9 +2520,9 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="154"/>
+        <v>120</v>
+      </c>
+      <c r="B35" s="152"/>
       <c r="C35" s="2">
         <v>1500</v>
       </c>
@@ -2569,9 +2548,9 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="155"/>
+        <v>119</v>
+      </c>
+      <c r="B36" s="144"/>
       <c r="C36" s="2">
         <v>300</v>
       </c>
@@ -2619,19 +2598,19 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A39" s="129" t="s">
+      <c r="A39" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
+      <c r="B39" s="142"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="143"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="148" t="s">
+      <c r="B40" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="14"/>
@@ -2644,7 +2623,7 @@
       <c r="A41" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="148"/>
+      <c r="B41" s="146"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3">
@@ -2655,7 +2634,7 @@
       <c r="A42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="148"/>
+      <c r="B42" s="146"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3">
@@ -2666,7 +2645,7 @@
       <c r="A43" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="148"/>
+      <c r="B43" s="146"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3">
@@ -2677,7 +2656,7 @@
       <c r="A44" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="148"/>
+      <c r="B44" s="146"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -2688,7 +2667,7 @@
       <c r="A45" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="148"/>
+      <c r="B45" s="146"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -2699,7 +2678,7 @@
       <c r="A46" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="148"/>
+      <c r="B46" s="146"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="88">
@@ -2710,65 +2689,65 @@
       <c r="A47" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="148"/>
+      <c r="B47" s="146"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
         <v>30000</v>
       </c>
       <c r="F47" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="148"/>
+      <c r="B48" s="146"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
         <v>190000</v>
       </c>
       <c r="F48" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="145">
+      <c r="H48" s="134">
         <f>$E$50/2+E47+E48</f>
         <v>695950</v>
       </c>
-      <c r="I48" s="146"/>
+      <c r="I48" s="153"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="148"/>
+      <c r="B49" s="146"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="27">
         <v>250000</v>
       </c>
       <c r="F49" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="145">
+      <c r="H49" s="134">
         <f>$E$50/2+E49</f>
         <v>725950</v>
       </c>
-      <c r="I49" s="146"/>
+      <c r="I49" s="153"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="149"/>
+      <c r="B50" s="147"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
@@ -2778,13 +2757,13 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A52" s="129" t="s">
+      <c r="A52" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="131"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="143"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="34" t="s">
@@ -2805,15 +2784,15 @@
         <v>93600</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9">
       <c r="A54" s="37" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>42</v>
       </c>
       <c r="C54" s="36">
-        <v>2400</v>
+        <v>1550</v>
       </c>
       <c r="D54" s="34">
         <f>H1</f>
@@ -2821,7 +2800,7 @@
       </c>
       <c r="E54" s="36">
         <f>C54*D54</f>
-        <v>187200</v>
+        <v>120900</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>4</v>
@@ -2832,7 +2811,7 @@
       </c>
       <c r="I54" s="54">
         <f>$E$55/2+($H$54*$C$53)+($H$54*$C$54)</f>
-        <v>257600</v>
+        <v>222750</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2856,7 +2835,7 @@
       </c>
       <c r="I55" s="54">
         <f>$E$55/2+($H$55*$C$53)+($H$55*$C$54)</f>
-        <v>243200</v>
+        <v>211750</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2870,7 +2849,7 @@
       <c r="D56" s="18"/>
       <c r="E56" s="4">
         <f>SUM(E53:E55)</f>
-        <v>500800</v>
+        <v>434500</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1">
@@ -2880,25 +2859,25 @@
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="162" t="s">
+    <row r="58" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A58" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="142"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="142"/>
+      <c r="E58" s="143"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="163"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
-      <c r="E58" s="164"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="132" t="s">
+      <c r="B59" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="27">
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="132">
         <v>0</v>
       </c>
       <c r="G59" s="18" t="s">
@@ -2910,18 +2889,18 @@
       </c>
       <c r="I59" s="54">
         <f>SUM(E59:E60)/2</f>
-        <v>116750</v>
+        <v>117550</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="132"/>
+        <v>65</v>
+      </c>
+      <c r="B60" s="145"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="88">
-        <v>233500</v>
+        <v>235100</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>2</v>
@@ -2932,14 +2911,14 @@
       </c>
       <c r="I60" s="54">
         <f>SUM(E59:E60)/2</f>
-        <v>116750</v>
+        <v>117550</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" s="132"/>
+        <v>121</v>
+      </c>
+      <c r="B61" s="145"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="27"/>
@@ -2949,33 +2928,37 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" s="132"/>
+        <v>150</v>
+      </c>
+      <c r="B62" s="145"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="27"/>
+      <c r="E62" s="88">
+        <v>24900</v>
+      </c>
       <c r="G62" s="23"/>
       <c r="H62" s="74"/>
       <c r="I62" s="75"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="132"/>
+        <v>122</v>
+      </c>
+      <c r="B63" s="145"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="27"/>
+      <c r="E63" s="27">
+        <v>41910</v>
+      </c>
       <c r="G63" s="23"/>
       <c r="H63" s="74"/>
       <c r="I63" s="75"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="132"/>
+        <v>123</v>
+      </c>
+      <c r="B64" s="145"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="27"/>
@@ -2985,9 +2968,9 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" s="132"/>
+        <v>136</v>
+      </c>
+      <c r="B65" s="145"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="27"/>
@@ -2995,67 +2978,68 @@
       <c r="H65" s="74"/>
       <c r="I65" s="75"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
+    <row r="66" spans="1:9">
+      <c r="A66" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="145"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="88">
+        <v>80000</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="75"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A68" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B68" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="32">
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="32">
         <f>E14+E20+E37+E50+E56</f>
-        <v>3868335.5</v>
-      </c>
-      <c r="G67" s="159" t="s">
-        <v>99</v>
-      </c>
-      <c r="H67" s="160"/>
-      <c r="I67" s="161"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="G68" s="56" t="s">
+        <v>3802035.5</v>
+      </c>
+      <c r="G68" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="H68" s="139"/>
+      <c r="I68" s="140"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="G69" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H68" s="145">
+      <c r="H69" s="134">
         <f>$I$2+$H$18+$I$35+$I$54+$I$59+H48</f>
-        <v>2295107.121794872</v>
-      </c>
-      <c r="I68" s="156"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1">
-      <c r="G69" s="57" t="s">
+        <v>2261057.121794872</v>
+      </c>
+      <c r="I69" s="135"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" thickBot="1">
+      <c r="G70" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="157">
+      <c r="H70" s="136">
         <f>$I$3+$H$19+$I$36+$I$60+$I$55+$H$49</f>
-        <v>2306578.378205128</v>
-      </c>
-      <c r="I69" s="158"/>
+        <v>2275928.378205128</v>
+      </c>
+      <c r="I70" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="B40:B50"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="B23:B36"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L24:M24"/>
@@ -3071,6 +3055,19 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B40:B50"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="B23:B36"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3079,10 +3076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3093,56 +3090,61 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="170" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="170"/>
-      <c r="B2" s="152" t="s">
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="173"/>
+      <c r="B2" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="165" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="152" t="s">
+      <c r="C2" s="150"/>
+      <c r="D2" s="168" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="165" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="170"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="168" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="173"/>
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="166"/>
+      <c r="D3" s="169"/>
       <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="166"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="169"/>
+      <c r="H3" s="167"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3159,8 +3161,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="9"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -3171,14 +3174,15 @@
         <v>5000</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" ref="D5:D16" si="0">SUM(B5:C5)</f>
+        <f t="shared" ref="D5:D17" si="0">SUM(B5:C5)</f>
         <v>10000</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="9"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -3195,8 +3199,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="9"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
@@ -3213,8 +3218,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="9"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -3222,7 +3228,7 @@
         <v>15000</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -3231,8 +3237,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -3249,8 +3256,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="11"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
@@ -3267,8 +3275,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="11"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
@@ -3276,7 +3285,7 @@
         <v>100000</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -3285,8 +3294,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="10" t="s">
         <v>61</v>
       </c>
@@ -3303,10 +3313,11 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="11">
         <v>15000</v>
@@ -3318,64 +3329,103 @@
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="E13" s="11">
+        <f>G13/2</f>
+        <v>102550</v>
+      </c>
+      <c r="F13" s="11">
+        <f>G13/2</f>
+        <v>102550</v>
+      </c>
+      <c r="G13" s="11">
+        <v>205100</v>
+      </c>
+      <c r="H13" s="133">
+        <f>D13+G13</f>
+        <v>235100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
+        <v>148</v>
+      </c>
+      <c r="B14" s="192"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="11">
+        <v>20193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="192"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="192"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="11">
+        <v>24900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B17" s="21">
         <f>SUM(B4:B13)</f>
         <v>299150</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C17" s="21">
         <f>SUM(C4:C13)</f>
         <v>184150</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D17" s="21">
         <f t="shared" si="0"/>
         <v>483300</v>
       </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="38"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="172"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="38"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="G21">
+        <v>24900</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3387,7 +3437,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3402,7 +3452,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1">
         <v>15</v>
@@ -3412,24 +3462,24 @@
         <v>85935</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>73</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -3439,10 +3489,10 @@
         <v>59980</v>
       </c>
       <c r="E2" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="41" t="s">
         <v>76</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>77</v>
       </c>
       <c r="G2" s="41">
         <v>0.7</v>
@@ -3457,7 +3507,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -3468,7 +3518,7 @@
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="41">
         <v>0.7</v>
@@ -3487,10 +3537,10 @@
         <v>174905</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="44">
         <v>0.5</v>
@@ -3503,13 +3553,13 @@
         <v>5998</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="E5" s="41"/>
       <c r="F5" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="41">
         <v>0.5</v>
@@ -3529,7 +3579,7 @@
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="41">
         <v>0.5</v>
@@ -3545,7 +3595,7 @@
     <row r="7" spans="1:10" ht="15.75">
       <c r="E7" s="41"/>
       <c r="F7" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="41">
         <v>0.5</v>
@@ -3561,7 +3611,7 @@
     <row r="8" spans="1:10" ht="15.75">
       <c r="E8" s="41"/>
       <c r="F8" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="41">
         <v>0.5</v>
@@ -3577,7 +3627,7 @@
     <row r="9" spans="1:10" ht="15.75">
       <c r="E9" s="41"/>
       <c r="F9" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="41">
         <v>0.5</v>
@@ -3592,10 +3642,10 @@
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="E10" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="44">
         <v>0.5</v>
@@ -3611,7 +3661,7 @@
     <row r="11" spans="1:10" ht="15.75">
       <c r="E11" s="41"/>
       <c r="F11" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="41">
         <v>0.7</v>
@@ -3627,7 +3677,7 @@
     <row r="12" spans="1:10" ht="15.75">
       <c r="E12" s="41"/>
       <c r="F12" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="41">
         <v>1</v>
@@ -3643,7 +3693,7 @@
     <row r="13" spans="1:10" ht="15.75">
       <c r="E13" s="41"/>
       <c r="F13" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="41">
         <v>0.5</v>
@@ -3659,7 +3709,7 @@
     <row r="14" spans="1:10" ht="15.75">
       <c r="E14" s="41"/>
       <c r="F14" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" s="41">
         <v>1</v>
@@ -3674,10 +3724,10 @@
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="E15" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" s="41">
         <v>0.5</v>
@@ -3693,7 +3743,7 @@
     <row r="16" spans="1:10" ht="15.75">
       <c r="E16" s="41"/>
       <c r="F16" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" s="41">
         <v>0.7</v>
@@ -3709,7 +3759,7 @@
     <row r="17" spans="5:9" ht="15.75">
       <c r="E17" s="41"/>
       <c r="F17" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="41">
         <v>1</v>
@@ -3724,10 +3774,10 @@
     </row>
     <row r="18" spans="5:9" ht="16.5" thickBot="1">
       <c r="E18" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" s="49">
         <v>1</v>
@@ -3742,10 +3792,10 @@
     </row>
     <row r="19" spans="5:9" ht="16.5" thickTop="1">
       <c r="E19" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="52" t="s">
         <v>90</v>
-      </c>
-      <c r="F19" s="52" t="s">
-        <v>91</v>
       </c>
       <c r="G19" s="52">
         <v>0.5</v>
@@ -3761,7 +3811,7 @@
     <row r="20" spans="5:9" ht="15.75">
       <c r="E20" s="41"/>
       <c r="F20" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" s="41">
         <v>0.5</v>
@@ -3777,7 +3827,7 @@
     <row r="21" spans="5:9" ht="15.75">
       <c r="E21" s="41"/>
       <c r="F21" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" s="41">
         <v>0.5</v>
@@ -3793,7 +3843,7 @@
     <row r="22" spans="5:9" ht="15.75">
       <c r="E22" s="41"/>
       <c r="F22" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" s="41">
         <v>0.5</v>
@@ -3809,7 +3859,7 @@
     <row r="23" spans="5:9" ht="15.75">
       <c r="E23" s="41"/>
       <c r="F23" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G23" s="41">
         <v>0.5</v>
@@ -3825,7 +3875,7 @@
     <row r="24" spans="5:9" ht="15.75">
       <c r="E24" s="41"/>
       <c r="F24" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" s="41">
         <v>0.5</v>
@@ -3847,85 +3897,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="183" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="150" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="152" t="s">
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="187" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="188" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="189"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="176" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="185"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="176" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="177" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="178"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="137" t="s">
+      <c r="E2" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="187"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="183" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="174"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="100" t="s">
+      <c r="N2" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="O2" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="P2" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="176"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="P2" s="100" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q2" s="184"/>
+      <c r="Q2" s="177"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="63">
         <v>8</v>
       </c>
-      <c r="D3" s="189">
+      <c r="D3" s="129">
         <v>1</v>
       </c>
       <c r="E3" s="102">
@@ -3939,13 +3989,13 @@
         <v>1</v>
       </c>
       <c r="J3" s="105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K3" s="59"/>
       <c r="L3" s="106">
         <v>5</v>
       </c>
-      <c r="M3" s="185">
+      <c r="M3" s="178">
         <v>2</v>
       </c>
       <c r="N3" s="107">
@@ -3961,16 +4011,16 @@
     </row>
     <row r="4" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="63">
         <v>6</v>
       </c>
-      <c r="D4" s="189">
-        <v>1</v>
-      </c>
-      <c r="E4" s="189">
+      <c r="D4" s="129">
+        <v>1</v>
+      </c>
+      <c r="E4" s="129">
         <v>1</v>
       </c>
       <c r="F4" s="102"/>
@@ -3979,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K4" s="62"/>
       <c r="L4" s="106">
         <v>3</v>
       </c>
-      <c r="M4" s="186"/>
+      <c r="M4" s="179"/>
       <c r="N4" s="109"/>
       <c r="O4" s="109"/>
       <c r="P4" s="110"/>
@@ -3995,7 +4045,7 @@
     </row>
     <row r="5" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="111">
@@ -4011,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K5" s="62"/>
       <c r="L5" s="106">
@@ -4029,7 +4079,7 @@
     </row>
     <row r="6" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="111">
@@ -4045,7 +4095,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K6" s="62"/>
       <c r="L6" s="106">
@@ -4063,7 +4113,7 @@
     </row>
     <row r="7" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="111">
@@ -4079,7 +4129,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K7" s="62"/>
       <c r="L7" s="106">
@@ -4097,7 +4147,7 @@
     </row>
     <row r="8" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="63">
@@ -4113,7 +4163,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K8" s="62"/>
       <c r="L8" s="106">
@@ -4131,7 +4181,7 @@
     </row>
     <row r="9" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="63">
@@ -4147,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K9" s="62"/>
       <c r="L9" s="106">
@@ -4169,7 +4219,7 @@
     </row>
     <row r="10" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="63">
@@ -4185,7 +4235,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K10" s="62"/>
       <c r="L10" s="106">
@@ -4205,7 +4255,7 @@
     </row>
     <row r="11" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="63">
@@ -4224,7 +4274,7 @@
     </row>
     <row r="12" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="63">
@@ -4242,7 +4292,7 @@
     </row>
     <row r="13" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="111">
@@ -4260,7 +4310,7 @@
     </row>
     <row r="14" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="111">
@@ -4279,7 +4329,7 @@
     </row>
     <row r="15" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="61"/>
       <c r="C15" s="111">
@@ -4298,7 +4348,7 @@
     </row>
     <row r="16" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" s="118"/>
       <c r="C16" s="111">
@@ -4317,7 +4367,7 @@
     </row>
     <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="119">
@@ -4335,7 +4385,7 @@
     </row>
     <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="119">
@@ -4354,7 +4404,7 @@
     </row>
     <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="119">
@@ -4373,7 +4423,7 @@
     </row>
     <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="64"/>
       <c r="C20" s="63">
@@ -4391,14 +4441,14 @@
         <v>0</v>
       </c>
       <c r="Q20" s="115"/>
-      <c r="R20" s="190"/>
+      <c r="R20" s="130"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="171"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="68">
         <f>SUM(C3:C20)</f>
         <v>41</v>
@@ -4423,16 +4473,16 @@
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="187" t="s">
+      <c r="J22" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="188"/>
+      <c r="K22" s="181"/>
       <c r="L22" s="123">
         <f>SUM(L3:L10)</f>
         <v>37</v>
       </c>
       <c r="M22" s="124">
-        <f t="shared" ref="L22:Q22" si="0">SUM(M3:M10)</f>
+        <f t="shared" ref="M22:Q22" si="0">SUM(M3:M10)</f>
         <v>2</v>
       </c>
       <c r="N22" s="124">
@@ -4466,7 +4516,7 @@
     <row r="25" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" s="126">
         <f>C22+L22</f>
@@ -4498,10 +4548,10 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="6"/>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="191"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
@@ -4562,7 +4612,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4571,17 +4621,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="131"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="143"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>3</v>
@@ -4594,7 +4644,7 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="90" t="s">
         <v>42</v>
@@ -4612,7 +4662,7 @@
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="89" t="s">
         <v>42</v>
@@ -4630,7 +4680,7 @@
     </row>
     <row r="5" spans="1:5" ht="45">
       <c r="A5" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>42</v>
@@ -4653,8 +4703,8 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="182"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="175"/>
       <c r="E6" s="4">
         <f>SUM(E2:E4)</f>
         <v>426250</v>
@@ -4667,8 +4717,8 @@
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="182"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="175"/>
       <c r="E7" s="4">
         <f>SUM(E2:E3)+E5</f>
         <v>490000</v>
@@ -4677,7 +4727,7 @@
     <row r="8" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="D9" s="98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="99">
         <f>E7-E6</f>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760"/>
+    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="155">
   <si>
     <t>TOTAL</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>Étel (kanapé szendvics 3 db/fő)</t>
+  </si>
+  <si>
+    <t>Süti doboz+szatyor</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1193,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1395,25 +1398,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1425,41 +1413,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1490,6 +1445,54 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1511,6 +1514,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1565,13 +1577,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1871,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1892,21 +1898,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="143"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="138"/>
       <c r="G1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="145">
+      <c r="H1" s="139">
         <f>H2+H3</f>
         <v>78</v>
       </c>
-      <c r="I1" s="145"/>
+      <c r="I1" s="139"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="14"/>
@@ -2154,8 +2160,8 @@
       <c r="B14" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="161"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="145"/>
       <c r="E14" s="85">
         <f>SUM(E5:E13)</f>
         <v>1928135.5</v>
@@ -2168,8 +2174,8 @@
       <c r="B15" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="161"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="145"/>
       <c r="E15" s="78">
         <f>E14/H1</f>
         <v>24719.685897435898</v>
@@ -2185,24 +2191,24 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A17" s="141" t="s">
+      <c r="A17" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="138"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="156"/>
-      <c r="D18" s="157"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -2210,19 +2216,19 @@
       <c r="G18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="134">
+      <c r="H18" s="151">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="I18" s="153"/>
+      <c r="I18" s="152"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="163"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="158"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="142"/>
       <c r="E19" s="17">
         <f>640*310</f>
         <v>198400</v>
@@ -2230,19 +2236,19 @@
       <c r="G19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="165">
+      <c r="H19" s="149">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="I19" s="166"/>
+      <c r="I19" s="150"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="164"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="158"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="142"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2259,28 +2265,28 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A22" s="141" t="s">
+      <c r="A22" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
       <c r="K22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="154">
+      <c r="L22" s="134">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="M22" s="155"/>
+      <c r="M22" s="135"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="158" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="14">
@@ -2297,17 +2303,17 @@
       <c r="K23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="154">
-        <v>1</v>
-      </c>
-      <c r="M23" s="155"/>
+      <c r="L23" s="134">
+        <v>1</v>
+      </c>
+      <c r="M23" s="135"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="152"/>
+      <c r="B24" s="159"/>
       <c r="C24" s="26">
         <v>12000</v>
       </c>
@@ -2322,17 +2328,17 @@
       <c r="K24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="154">
+      <c r="L24" s="134">
         <v>8</v>
       </c>
-      <c r="M24" s="155"/>
+      <c r="M24" s="135"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="152"/>
+      <c r="B25" s="159"/>
       <c r="C25" s="26">
         <v>18500</v>
       </c>
@@ -2347,15 +2353,15 @@
       <c r="K25" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="152"/>
+      <c r="B26" s="159"/>
       <c r="C26" s="26">
         <v>7500</v>
       </c>
@@ -2369,15 +2375,15 @@
       <c r="K26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="148"/>
-      <c r="M26" s="149"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="156"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="152"/>
+      <c r="B27" s="159"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>1</v>
@@ -2391,7 +2397,7 @@
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="152"/>
+      <c r="B28" s="159"/>
       <c r="C28" s="26">
         <v>22500</v>
       </c>
@@ -2410,7 +2416,7 @@
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="152"/>
+      <c r="B29" s="159"/>
       <c r="C29" s="26">
         <v>5500</v>
       </c>
@@ -2430,7 +2436,7 @@
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="152"/>
+      <c r="B30" s="159"/>
       <c r="C30" s="26">
         <v>1850</v>
       </c>
@@ -2450,7 +2456,7 @@
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="152"/>
+      <c r="B31" s="159"/>
       <c r="C31" s="26">
         <v>7500</v>
       </c>
@@ -2468,7 +2474,7 @@
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="152"/>
+      <c r="B32" s="159"/>
       <c r="C32" s="2">
         <v>1850</v>
       </c>
@@ -2485,7 +2491,7 @@
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="152"/>
+      <c r="B33" s="159"/>
       <c r="C33" s="2">
         <v>2000</v>
       </c>
@@ -2502,7 +2508,7 @@
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="152"/>
+      <c r="B34" s="159"/>
       <c r="C34" s="2">
         <v>500</v>
       </c>
@@ -2522,7 +2528,7 @@
       <c r="A35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="152"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="2">
         <v>1500</v>
       </c>
@@ -2550,7 +2556,7 @@
       <c r="A36" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="144"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="2">
         <v>300</v>
       </c>
@@ -2598,19 +2604,19 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A39" s="141" t="s">
+      <c r="A39" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="142"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="143"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="138"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="146" t="s">
+      <c r="B40" s="153" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="14"/>
@@ -2623,7 +2629,7 @@
       <c r="A41" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="146"/>
+      <c r="B41" s="153"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3">
@@ -2634,7 +2640,7 @@
       <c r="A42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="146"/>
+      <c r="B42" s="153"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3">
@@ -2645,7 +2651,7 @@
       <c r="A43" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="146"/>
+      <c r="B43" s="153"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3">
@@ -2656,7 +2662,7 @@
       <c r="A44" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="146"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -2667,7 +2673,7 @@
       <c r="A45" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="146"/>
+      <c r="B45" s="153"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -2678,7 +2684,7 @@
       <c r="A46" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="146"/>
+      <c r="B46" s="153"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="88">
@@ -2689,7 +2695,7 @@
       <c r="A47" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="146"/>
+      <c r="B47" s="153"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -2703,7 +2709,7 @@
       <c r="A48" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="146"/>
+      <c r="B48" s="153"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -2715,17 +2721,17 @@
       <c r="G48" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="134">
+      <c r="H48" s="151">
         <f>$E$50/2+E47+E48</f>
         <v>695950</v>
       </c>
-      <c r="I48" s="153"/>
+      <c r="I48" s="152"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="146"/>
+      <c r="B49" s="153"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="27">
@@ -2737,17 +2743,17 @@
       <c r="G49" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="134">
+      <c r="H49" s="151">
         <f>$E$50/2+E49</f>
         <v>725950</v>
       </c>
-      <c r="I49" s="153"/>
+      <c r="I49" s="152"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="147"/>
+      <c r="B50" s="154"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
@@ -2757,13 +2763,13 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A52" s="141" t="s">
+      <c r="A52" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="142"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="143"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="138"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="34" t="s">
@@ -2860,19 +2866,19 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A58" s="141" t="s">
+      <c r="A58" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="142"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="142"/>
-      <c r="E58" s="143"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="138"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="144" t="s">
+      <c r="B59" s="160" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="14"/>
@@ -2896,7 +2902,7 @@
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="145"/>
+      <c r="B60" s="139"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="88">
@@ -2918,7 +2924,7 @@
       <c r="A61" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="145"/>
+      <c r="B61" s="139"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="27"/>
@@ -2930,7 +2936,7 @@
       <c r="A62" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="145"/>
+      <c r="B62" s="139"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="88">
@@ -2944,10 +2950,10 @@
       <c r="A63" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="145"/>
+      <c r="B63" s="139"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="27">
+      <c r="E63" s="88">
         <v>41910</v>
       </c>
       <c r="G63" s="23"/>
@@ -2958,7 +2964,7 @@
       <c r="A64" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B64" s="145"/>
+      <c r="B64" s="139"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="27"/>
@@ -2970,7 +2976,7 @@
       <c r="A65" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="145"/>
+      <c r="B65" s="139"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="27"/>
@@ -2979,10 +2985,10 @@
       <c r="I65" s="75"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B66" s="145"/>
+      <c r="B66" s="139"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="88">
@@ -2992,54 +2998,86 @@
       <c r="H66" s="74"/>
       <c r="I66" s="75"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="7"/>
+    <row r="67" spans="1:9">
+      <c r="A67" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="139"/>
+      <c r="C67" s="2">
+        <v>59</v>
+      </c>
+      <c r="D67" s="2">
+        <v>50</v>
+      </c>
+      <c r="E67" s="88">
+        <f>C67*D67</f>
+        <v>2950</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="75"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A69" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B69" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="32">
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="32">
         <f>E14+E20+E37+E50+E56</f>
         <v>3802035.5</v>
       </c>
-      <c r="G68" s="138" t="s">
+      <c r="G69" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="H68" s="139"/>
-      <c r="I68" s="140"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="G69" s="56" t="s">
+      <c r="H69" s="165"/>
+      <c r="I69" s="166"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="G70" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H69" s="134">
+      <c r="H70" s="151">
         <f>$I$2+$H$18+$I$35+$I$54+$I$59+H48</f>
         <v>2261057.121794872</v>
       </c>
-      <c r="I69" s="135"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1">
-      <c r="G70" s="57" t="s">
+      <c r="I70" s="161"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" thickBot="1">
+      <c r="G71" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="136">
+      <c r="H71" s="162">
         <f>$I$3+$H$19+$I$36+$I$60+$I$55+$H$49</f>
         <v>2275928.378205128</v>
       </c>
-      <c r="I70" s="137"/>
+      <c r="I71" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B40:B50"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="B23:B36"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L24:M24"/>
@@ -3055,19 +3093,6 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B40:B50"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="B23:B36"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="B59:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3076,10 +3101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3108,17 +3133,17 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="173"/>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="150"/>
+      <c r="C2" s="157"/>
       <c r="D2" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="150" t="s">
+      <c r="E2" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="150"/>
+      <c r="F2" s="157"/>
       <c r="G2" s="168" t="s">
         <v>67</v>
       </c>
@@ -3174,7 +3199,7 @@
         <v>5000</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" ref="D5:D17" si="0">SUM(B5:C5)</f>
+        <f t="shared" ref="D5:D18" si="0">SUM(B5:C5)</f>
         <v>10000</v>
       </c>
       <c r="E5" s="2"/>
@@ -3349,12 +3374,12 @@
       <c r="A14" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="192"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="194"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="176"/>
       <c r="H14" s="11">
         <v>20193</v>
       </c>
@@ -3363,53 +3388,73 @@
       <c r="A15" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="192"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="2"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="11">
+        <v>41910</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="192"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="176"/>
       <c r="H16" s="11">
         <v>24900</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B18" s="21">
         <f>SUM(B4:B13)</f>
         <v>299150</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C18" s="21">
         <f>SUM(C4:C13)</f>
         <v>184150</v>
       </c>
-      <c r="D17" s="21">
-        <f t="shared" si="0"/>
+      <c r="D18" s="21">
+        <f>SUM(B18:C18)</f>
         <v>483300</v>
       </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="172"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="38"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="G21">
+      <c r="F18" s="13"/>
+      <c r="H18" s="21">
+        <f>SUM(H4:H17)</f>
+        <v>322103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="G22">
         <v>24900</v>
       </c>
     </row>
@@ -3418,7 +3463,7 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -3904,39 +3949,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="150" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="187" t="s">
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="190" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="188" t="s">
+      <c r="J1" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="189"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="159" t="s">
+      <c r="K1" s="192"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="143" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="176" t="s">
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="179" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="185"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="186"/>
+      <c r="A2" s="188"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="189"/>
       <c r="D2" s="100" t="s">
         <v>101</v>
       </c>
@@ -3949,10 +3994,10 @@
       <c r="G2" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="187"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="186"/>
+      <c r="H2" s="190"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="189"/>
       <c r="M2" s="100" t="s">
         <v>101</v>
       </c>
@@ -3965,7 +4010,7 @@
       <c r="P2" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" s="177"/>
+      <c r="Q2" s="180"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="65" t="s">
@@ -3995,7 +4040,7 @@
       <c r="L3" s="106">
         <v>5</v>
       </c>
-      <c r="M3" s="178">
+      <c r="M3" s="181">
         <v>2</v>
       </c>
       <c r="N3" s="107">
@@ -4035,7 +4080,7 @@
       <c r="L4" s="106">
         <v>3</v>
       </c>
-      <c r="M4" s="179"/>
+      <c r="M4" s="182"/>
       <c r="N4" s="109"/>
       <c r="O4" s="109"/>
       <c r="P4" s="110"/>
@@ -4445,10 +4490,10 @@
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="182" t="s">
+      <c r="A22" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="182"/>
+      <c r="B22" s="185"/>
       <c r="C22" s="68">
         <f>SUM(C3:C20)</f>
         <v>41</v>
@@ -4473,10 +4518,10 @@
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="180" t="s">
+      <c r="J22" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="181"/>
+      <c r="K22" s="184"/>
       <c r="L22" s="123">
         <f>SUM(L3:L10)</f>
         <v>37</v>
@@ -4621,13 +4666,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="143"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="138"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -4703,8 +4748,8 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="159"/>
-      <c r="D6" s="175"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="178"/>
       <c r="E6" s="4">
         <f>SUM(E2:E4)</f>
         <v>426250</v>
@@ -4717,8 +4762,8 @@
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="175"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="178"/>
       <c r="E7" s="4">
         <f>SUM(E2:E3)+E5</f>
         <v>490000</v>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -11,14 +11,15 @@
     <sheet name="TÉNYLEGES" sheetId="2" r:id="rId2"/>
     <sheet name="Kieg. - Ital" sheetId="3" r:id="rId3"/>
     <sheet name="Meghívottak" sheetId="4" r:id="rId4"/>
-    <sheet name="Hajó_kalkula" sheetId="5" r:id="rId5"/>
+    <sheet name="Kontaktok" sheetId="6" r:id="rId5"/>
+    <sheet name="Hajó_kalkula" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="196">
   <si>
     <t>TOTAL</t>
   </si>
@@ -534,17 +535,141 @@
   <si>
     <t>Süti doboz+szatyor</t>
   </si>
+  <si>
+    <t>Cégnév</t>
+  </si>
+  <si>
+    <t>Telefonszám</t>
+  </si>
+  <si>
+    <t>Szolgáltató</t>
+  </si>
+  <si>
+    <t>Kulcsár Ádám</t>
+  </si>
+  <si>
+    <t>Randevú zenekar</t>
+  </si>
+  <si>
+    <t>Földes Jocó</t>
+  </si>
+  <si>
+    <t>Esti zenekar</t>
+  </si>
+  <si>
+    <t>Hajó</t>
+  </si>
+  <si>
+    <t>Robinson Travel</t>
+  </si>
+  <si>
+    <t>Bencze Éva</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Grand Hotel</t>
+  </si>
+  <si>
+    <t>Szakács Enikő</t>
+  </si>
+  <si>
+    <t>Gruber Zsolt</t>
+  </si>
+  <si>
+    <t>70/534-8265</t>
+  </si>
+  <si>
+    <t>70/941-2368</t>
+  </si>
+  <si>
+    <t>30/417-8312</t>
+  </si>
+  <si>
+    <t>30/338-1133</t>
+  </si>
+  <si>
+    <t>30/341-3098</t>
+  </si>
+  <si>
+    <t>Debreczeni Krisztina</t>
+  </si>
+  <si>
+    <t>Elite events</t>
+  </si>
+  <si>
+    <t>70/397-2399</t>
+  </si>
+  <si>
+    <t>Fotós</t>
+  </si>
+  <si>
+    <t>Shepherd photography</t>
+  </si>
+  <si>
+    <t>Kelemen Éva</t>
+  </si>
+  <si>
+    <t>30/708-8242</t>
+  </si>
+  <si>
+    <t>Wedding film</t>
+  </si>
+  <si>
+    <t>Pataki Béla</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Fodrász (sminkes)</t>
+  </si>
+  <si>
+    <t>Fekete Katalin</t>
+  </si>
+  <si>
+    <t>Csóka Dóra</t>
+  </si>
+  <si>
+    <t>Gyöngyösi Szilvia</t>
+  </si>
+  <si>
+    <t>70/361-3927</t>
+  </si>
+  <si>
+    <t>Sylva Design</t>
+  </si>
+  <si>
+    <t>Busz</t>
+  </si>
+  <si>
+    <t>Dekor</t>
+  </si>
+  <si>
+    <t>Gülmár Kft.</t>
+  </si>
+  <si>
+    <t>Boronkai Tamás</t>
+  </si>
+  <si>
+    <t>30/630-4270</t>
+  </si>
+  <si>
+    <t>Kriszti fizeti Valentinnek</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _F_t_-;\-* #,##0\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ [$Ft-40E]_-;\-* #,##0\ [$Ft-40E]_-;_-* &quot;-&quot;??\ [$Ft-40E]_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[&lt;=999999999]\(##\)\ ###\-##\-##;[&lt;=6999999999]0#\ \(##\)###\-##\-##;#\ \(##\)\ ###\-##\-##"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -691,7 +816,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,6 +844,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,7 +1324,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1397,24 +1528,87 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1445,54 +1639,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1514,15 +1660,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1577,7 +1714,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1880,7 +2037,7 @@
   <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1898,21 +2055,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="138"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148"/>
       <c r="G1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="139">
+      <c r="H1" s="150">
         <f>H2+H3</f>
         <v>78</v>
       </c>
-      <c r="I1" s="139"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="14"/>
@@ -2160,8 +2317,8 @@
       <c r="B14" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="144"/>
-      <c r="D14" s="145"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="166"/>
       <c r="E14" s="85">
         <f>SUM(E5:E13)</f>
         <v>1928135.5</v>
@@ -2174,8 +2331,8 @@
       <c r="B15" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="145"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="166"/>
       <c r="E15" s="78">
         <f>E14/H1</f>
         <v>24719.685897435898</v>
@@ -2191,24 +2348,24 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A17" s="136" t="s">
+      <c r="A17" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="138"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="148"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="146" t="s">
+      <c r="B18" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="162"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -2216,19 +2373,19 @@
       <c r="G18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="151">
+      <c r="H18" s="139">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="I18" s="152"/>
+      <c r="I18" s="158"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="147"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="142"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="163"/>
       <c r="E19" s="17">
         <f>640*310</f>
         <v>198400</v>
@@ -2236,19 +2393,19 @@
       <c r="G19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="149">
+      <c r="H19" s="170">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="I19" s="150"/>
+      <c r="I19" s="171"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="148"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="142"/>
+      <c r="B20" s="169"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2265,28 +2422,28 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A22" s="136" t="s">
+      <c r="A22" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="138"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="148"/>
       <c r="K22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="134">
+      <c r="L22" s="159">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="M22" s="135"/>
+      <c r="M22" s="160"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="156" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="14">
@@ -2303,17 +2460,17 @@
       <c r="K23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="134">
-        <v>1</v>
-      </c>
-      <c r="M23" s="135"/>
+      <c r="L23" s="159">
+        <v>1</v>
+      </c>
+      <c r="M23" s="160"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="159"/>
+      <c r="B24" s="157"/>
       <c r="C24" s="26">
         <v>12000</v>
       </c>
@@ -2328,17 +2485,17 @@
       <c r="K24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="134">
+      <c r="L24" s="159">
         <v>8</v>
       </c>
-      <c r="M24" s="135"/>
+      <c r="M24" s="160"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="159"/>
+      <c r="B25" s="157"/>
       <c r="C25" s="26">
         <v>18500</v>
       </c>
@@ -2353,15 +2510,15 @@
       <c r="K25" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="157"/>
-      <c r="M25" s="157"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="159"/>
+      <c r="B26" s="157"/>
       <c r="C26" s="26">
         <v>7500</v>
       </c>
@@ -2375,15 +2532,15 @@
       <c r="K26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="155"/>
-      <c r="M26" s="156"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="154"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="159"/>
+      <c r="B27" s="157"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>1</v>
@@ -2397,7 +2554,7 @@
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="159"/>
+      <c r="B28" s="157"/>
       <c r="C28" s="26">
         <v>22500</v>
       </c>
@@ -2416,7 +2573,7 @@
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="159"/>
+      <c r="B29" s="157"/>
       <c r="C29" s="26">
         <v>5500</v>
       </c>
@@ -2436,7 +2593,7 @@
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="159"/>
+      <c r="B30" s="157"/>
       <c r="C30" s="26">
         <v>1850</v>
       </c>
@@ -2456,7 +2613,7 @@
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="159"/>
+      <c r="B31" s="157"/>
       <c r="C31" s="26">
         <v>7500</v>
       </c>
@@ -2474,7 +2631,7 @@
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="159"/>
+      <c r="B32" s="157"/>
       <c r="C32" s="2">
         <v>1850</v>
       </c>
@@ -2491,7 +2648,7 @@
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="159"/>
+      <c r="B33" s="157"/>
       <c r="C33" s="2">
         <v>2000</v>
       </c>
@@ -2508,7 +2665,7 @@
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="159"/>
+      <c r="B34" s="157"/>
       <c r="C34" s="2">
         <v>500</v>
       </c>
@@ -2528,7 +2685,7 @@
       <c r="A35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="159"/>
+      <c r="B35" s="157"/>
       <c r="C35" s="2">
         <v>1500</v>
       </c>
@@ -2556,7 +2713,7 @@
       <c r="A36" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="160"/>
+      <c r="B36" s="149"/>
       <c r="C36" s="2">
         <v>300</v>
       </c>
@@ -2604,19 +2761,19 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A39" s="136" t="s">
+      <c r="A39" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="138"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="148"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="153" t="s">
+      <c r="B40" s="151" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="14"/>
@@ -2629,7 +2786,7 @@
       <c r="A41" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="153"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3">
@@ -2640,7 +2797,7 @@
       <c r="A42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="153"/>
+      <c r="B42" s="151"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3">
@@ -2651,7 +2808,7 @@
       <c r="A43" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="153"/>
+      <c r="B43" s="151"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3">
@@ -2662,7 +2819,7 @@
       <c r="A44" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="153"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -2673,7 +2830,7 @@
       <c r="A45" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="153"/>
+      <c r="B45" s="151"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -2684,7 +2841,7 @@
       <c r="A46" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="153"/>
+      <c r="B46" s="151"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="88">
@@ -2695,7 +2852,7 @@
       <c r="A47" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="153"/>
+      <c r="B47" s="151"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -2709,7 +2866,7 @@
       <c r="A48" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="153"/>
+      <c r="B48" s="151"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -2721,17 +2878,17 @@
       <c r="G48" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="151">
+      <c r="H48" s="139">
         <f>$E$50/2+E47+E48</f>
         <v>695950</v>
       </c>
-      <c r="I48" s="152"/>
+      <c r="I48" s="158"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="153"/>
+      <c r="B49" s="151"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="27">
@@ -2743,17 +2900,17 @@
       <c r="G49" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="151">
+      <c r="H49" s="139">
         <f>$E$50/2+E49</f>
         <v>725950</v>
       </c>
-      <c r="I49" s="152"/>
+      <c r="I49" s="158"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="154"/>
+      <c r="B50" s="152"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
@@ -2763,13 +2920,13 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A52" s="136" t="s">
+      <c r="A52" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="138"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="148"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="34" t="s">
@@ -2866,19 +3023,19 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A58" s="136" t="s">
+      <c r="A58" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="138"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="148"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="160" t="s">
+      <c r="B59" s="149" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="14"/>
@@ -2902,7 +3059,7 @@
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="139"/>
+      <c r="B60" s="150"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="88">
@@ -2924,7 +3081,7 @@
       <c r="A61" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="139"/>
+      <c r="B61" s="150"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="27"/>
@@ -2936,7 +3093,7 @@
       <c r="A62" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="139"/>
+      <c r="B62" s="150"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="88">
@@ -2950,7 +3107,7 @@
       <c r="A63" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="139"/>
+      <c r="B63" s="150"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="88">
@@ -2964,7 +3121,7 @@
       <c r="A64" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B64" s="139"/>
+      <c r="B64" s="150"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="27"/>
@@ -2976,7 +3133,7 @@
       <c r="A65" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="139"/>
+      <c r="B65" s="150"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="27"/>
@@ -2988,7 +3145,7 @@
       <c r="A66" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B66" s="139"/>
+      <c r="B66" s="150"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="88">
@@ -3002,7 +3159,7 @@
       <c r="A67" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="139"/>
+      <c r="B67" s="150"/>
       <c r="C67" s="2">
         <v>59</v>
       </c>
@@ -3037,47 +3194,34 @@
         <f>E14+E20+E37+E50+E56</f>
         <v>3802035.5</v>
       </c>
-      <c r="G69" s="164" t="s">
+      <c r="G69" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="H69" s="165"/>
-      <c r="I69" s="166"/>
+      <c r="H69" s="144"/>
+      <c r="I69" s="145"/>
     </row>
     <row r="70" spans="1:9">
       <c r="G70" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="151">
+      <c r="H70" s="139">
         <f>$I$2+$H$18+$I$35+$I$54+$I$59+H48</f>
         <v>2261057.121794872</v>
       </c>
-      <c r="I70" s="161"/>
+      <c r="I70" s="140"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" thickBot="1">
       <c r="G71" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H71" s="162">
+      <c r="H71" s="141">
         <f>$I$3+$H$19+$I$36+$I$60+$I$55+$H$49</f>
         <v>2275928.378205128</v>
       </c>
-      <c r="I71" s="163"/>
+      <c r="I71" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B40:B50"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="B23:B36"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L24:M24"/>
@@ -3093,6 +3237,19 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B40:B50"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="B23:B36"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3104,7 +3261,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3119,67 +3276,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="178" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="173"/>
-      <c r="B2" s="157" t="s">
+      <c r="A2" s="178"/>
+      <c r="B2" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="168" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="157" t="s">
+      <c r="E2" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="157"/>
-      <c r="G2" s="168" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="167" t="s">
+      <c r="H2" s="172" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="173"/>
+      <c r="A3" s="178"/>
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="169"/>
+      <c r="D3" s="174"/>
       <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="169"/>
-      <c r="H3" s="167"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="172"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="199">
         <v>100000</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="199">
         <v>100000</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="199">
         <f>SUM(B4:C4)</f>
         <v>200000</v>
       </c>
@@ -3192,14 +3349,14 @@
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="199">
         <v>5000</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="199">
         <v>5000</v>
       </c>
-      <c r="D5" s="9">
-        <f t="shared" ref="D5:D18" si="0">SUM(B5:C5)</f>
+      <c r="D5" s="199">
+        <f t="shared" ref="D5:D13" si="0">SUM(B5:C5)</f>
         <v>10000</v>
       </c>
       <c r="E5" s="2"/>
@@ -3211,13 +3368,13 @@
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="199">
         <v>10000</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="199">
         <v>10000</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="199">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
@@ -3230,13 +3387,13 @@
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="199">
         <v>15000</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="199">
         <v>15000</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="199">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
@@ -3249,13 +3406,13 @@
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="199">
         <v>15000</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="199">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
@@ -3268,13 +3425,13 @@
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="199">
         <v>15000</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="199">
         <v>15000</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="199">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
@@ -3287,13 +3444,13 @@
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="199">
         <v>10000</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="199">
         <v>10000</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="199">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
@@ -3306,13 +3463,13 @@
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="199">
         <v>100000</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="199">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
@@ -3325,13 +3482,13 @@
       <c r="A12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="199">
         <v>14150</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="199">
         <v>14150</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="199">
         <f t="shared" si="0"/>
         <v>28300</v>
       </c>
@@ -3344,28 +3501,28 @@
       <c r="A13" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="199">
         <v>15000</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="199">
         <v>15000</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="199">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="199">
         <f>G13/2</f>
         <v>102550</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="199">
         <f>G13/2</f>
         <v>102550</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="199">
         <v>205100</v>
       </c>
-      <c r="H13" s="133">
+      <c r="H13" s="201">
         <f>D13+G13</f>
         <v>235100</v>
       </c>
@@ -3374,13 +3531,13 @@
       <c r="A14" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="174"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="11">
+      <c r="B14" s="202"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="199">
         <v>20193</v>
       </c>
     </row>
@@ -3388,13 +3545,13 @@
       <c r="A15" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="11">
+      <c r="B15" s="202"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="199">
         <v>41910</v>
       </c>
     </row>
@@ -3402,13 +3559,13 @@
       <c r="A16" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="11">
+      <c r="B16" s="202"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="199">
         <v>24900</v>
       </c>
     </row>
@@ -3416,14 +3573,18 @@
       <c r="A17" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="195"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="195">
+      <c r="B17" s="205">
+        <v>7500</v>
+      </c>
+      <c r="C17" s="205">
+        <v>7500</v>
+      </c>
+      <c r="D17" s="205">
         <v>15000</v>
       </c>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8">
@@ -3449,13 +3610,17 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
       <c r="D19" s="38"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="G22">
-        <v>24900</v>
+      <c r="F22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" s="13">
+        <f>E13+H14/2+H15/2+D17/2</f>
+        <v>141101.5</v>
       </c>
     </row>
   </sheetData>
@@ -3949,39 +4114,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="157" t="s">
+      <c r="B1" s="188"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="155" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="190" t="s">
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="192" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="191" t="s">
+      <c r="J1" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="192"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="143" t="s">
+      <c r="K1" s="194"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="178"/>
-      <c r="Q1" s="179" t="s">
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="181" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="188"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="189"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="191"/>
       <c r="D2" s="100" t="s">
         <v>101</v>
       </c>
@@ -3994,10 +4159,10 @@
       <c r="G2" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="190"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="189"/>
+      <c r="H2" s="192"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="191"/>
       <c r="M2" s="100" t="s">
         <v>101</v>
       </c>
@@ -4010,7 +4175,7 @@
       <c r="P2" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" s="180"/>
+      <c r="Q2" s="182"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="65" t="s">
@@ -4040,7 +4205,7 @@
       <c r="L3" s="106">
         <v>5</v>
       </c>
-      <c r="M3" s="181">
+      <c r="M3" s="183">
         <v>2</v>
       </c>
       <c r="N3" s="107">
@@ -4080,7 +4245,7 @@
       <c r="L4" s="106">
         <v>3</v>
       </c>
-      <c r="M4" s="182"/>
+      <c r="M4" s="184"/>
       <c r="N4" s="109"/>
       <c r="O4" s="109"/>
       <c r="P4" s="110"/>
@@ -4490,10 +4655,10 @@
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="185" t="s">
+      <c r="A22" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="185"/>
+      <c r="B22" s="187"/>
       <c r="C22" s="68">
         <f>SUM(C3:C20)</f>
         <v>41</v>
@@ -4518,10 +4683,10 @@
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="183" t="s">
+      <c r="J22" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="184"/>
+      <c r="K22" s="186"/>
       <c r="L22" s="123">
         <f>SUM(L3:L10)</f>
         <v>37</v>
@@ -4654,10 +4819,215 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="135" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="135" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="135" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="135" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="134" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="197" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="198"/>
+      <c r="B11" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4666,13 +5036,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="138"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="148"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -4748,8 +5118,8 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="178"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="180"/>
       <c r="E6" s="4">
         <f>SUM(E2:E4)</f>
         <v>426250</v>
@@ -4762,8 +5132,8 @@
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="178"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="180"/>
       <c r="E7" s="4">
         <f>SUM(E2:E3)+E5</f>
         <v>490000</v>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="202">
   <si>
     <t>TOTAL</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Körasztal (db):</t>
   </si>
   <si>
-    <t>Magasított váza virágkompozícióval</t>
-  </si>
-  <si>
     <t>Főasztali nyújott virágdísz</t>
   </si>
   <si>
@@ -189,18 +186,9 @@
     <t>Menyasszonyi csokor</t>
   </si>
   <si>
-    <t>Menyasszonyi dobó csokor</t>
-  </si>
-  <si>
     <t>Vőlegény kitűző</t>
   </si>
   <si>
-    <t>Tanú kitűző</t>
-  </si>
-  <si>
-    <t>Csuklódísz</t>
-  </si>
-  <si>
     <t>Dekor és Meghívó:</t>
   </si>
   <si>
@@ -217,9 +205,6 @@
   </si>
   <si>
     <t>Gyűrű</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szülő köszöntő </t>
   </si>
   <si>
     <t>Összesen (Ft)</t>
@@ -657,6 +642,39 @@
   </si>
   <si>
     <t>Kriszti fizeti Valentinnek</t>
+  </si>
+  <si>
+    <t>Tortadísz</t>
+  </si>
+  <si>
+    <t>Kriszti fehérnemű</t>
+  </si>
+  <si>
+    <t>Dobó csokor</t>
+  </si>
+  <si>
+    <t>Koszorús csokor</t>
+  </si>
+  <si>
+    <t>Magasított (martini) váza virágkompozícióval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanú kitűző </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanú csuklódísz </t>
+  </si>
+  <si>
+    <t>Örömapa kitűző</t>
+  </si>
+  <si>
+    <t>Szülő köszöntő virágdoboz (anyáknak)</t>
+  </si>
+  <si>
+    <t>Szállítási, rakodási, bontási költség</t>
+  </si>
+  <si>
+    <t>Dekor előleg</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1342,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1544,25 +1562,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,41 +1588,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1639,6 +1620,57 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1660,6 +1692,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1719,23 +1760,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2034,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O64" sqref="O64"/>
+    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2065,11 +2089,11 @@
       <c r="G1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="150">
+      <c r="H1" s="149">
         <f>H2+H3</f>
         <v>78</v>
       </c>
-      <c r="I1" s="150"/>
+      <c r="I1" s="149"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="14"/>
@@ -2097,7 +2121,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="76" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>42</v>
@@ -2127,7 +2151,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="76" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>3</v>
@@ -2148,7 +2172,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="62" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B5" s="77" t="s">
         <v>42</v>
@@ -2167,7 +2191,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="81" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B6" s="77" t="s">
         <v>42</v>
@@ -2204,7 +2228,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="62" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B8" s="77" t="s">
         <v>42</v>
@@ -2223,7 +2247,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="62" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B9" s="77" t="s">
         <v>42</v>
@@ -2317,8 +2341,8 @@
       <c r="B14" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="166"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
       <c r="E14" s="85">
         <f>SUM(E5:E13)</f>
         <v>1928135.5</v>
@@ -2331,8 +2355,8 @@
       <c r="B15" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="166"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="155"/>
       <c r="E15" s="78">
         <f>E14/H1</f>
         <v>24719.685897435898</v>
@@ -2361,11 +2385,11 @@
       <c r="A18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="167" t="s">
+      <c r="B18" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -2373,19 +2397,19 @@
       <c r="G18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="139">
+      <c r="H18" s="161">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="I18" s="158"/>
+      <c r="I18" s="162"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="168"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="163"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="152"/>
       <c r="E19" s="17">
         <f>640*310</f>
         <v>198400</v>
@@ -2393,19 +2417,19 @@
       <c r="G19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="170">
+      <c r="H19" s="159">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="I19" s="171"/>
+      <c r="I19" s="160"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="169"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="163"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="152"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2423,7 +2447,7 @@
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1">
       <c r="A22" s="146" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B22" s="147"/>
       <c r="C22" s="147"/>
@@ -2432,75 +2456,73 @@
       <c r="K22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="159">
+      <c r="L22" s="144">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="M22" s="160"/>
+      <c r="M22" s="145"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="168" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="14">
         <v>450</v>
       </c>
       <c r="D23" s="14">
-        <f>L22</f>
-        <v>78</v>
+        <f>78+5</f>
+        <v>83</v>
       </c>
       <c r="E23" s="17">
         <f>C23*D23</f>
-        <v>35100</v>
+        <v>37350</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="159">
-        <v>1</v>
-      </c>
-      <c r="M23" s="160"/>
+      <c r="L23" s="144">
+        <v>1</v>
+      </c>
+      <c r="M23" s="145"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="157"/>
+        <v>195</v>
+      </c>
+      <c r="B24" s="169"/>
       <c r="C24" s="26">
         <v>12000</v>
       </c>
       <c r="D24" s="2">
-        <f>L24</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="3">
         <f>C24*D24</f>
-        <v>96000</v>
+        <v>108000</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="159">
-        <v>8</v>
-      </c>
-      <c r="M24" s="160"/>
+      <c r="L24" s="144">
+        <v>9</v>
+      </c>
+      <c r="M24" s="145"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="157"/>
+        <v>51</v>
+      </c>
+      <c r="B25" s="169"/>
       <c r="C25" s="26">
         <v>18500</v>
       </c>
       <c r="D25" s="2">
-        <f>L23</f>
         <v>1</v>
       </c>
       <c r="E25" s="3">
@@ -2510,15 +2532,15 @@
       <c r="K25" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
+      <c r="L25" s="167"/>
+      <c r="M25" s="167"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="157"/>
+        <v>52</v>
+      </c>
+      <c r="B26" s="169"/>
       <c r="C26" s="26">
         <v>7500</v>
       </c>
@@ -2532,29 +2554,29 @@
       <c r="K26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="153"/>
-      <c r="M26" s="154"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="166"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="157"/>
+        <v>53</v>
+      </c>
+      <c r="B27" s="169"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="27">
-        <v>0</v>
+      <c r="E27" s="27" t="s">
+        <v>178</v>
       </c>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="157"/>
+        <v>54</v>
+      </c>
+      <c r="B28" s="169"/>
       <c r="C28" s="26">
         <v>22500</v>
       </c>
@@ -2562,18 +2584,18 @@
         <v>1</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" ref="E28:E33" si="1">C28*D28</f>
+        <f t="shared" ref="E28:E36" si="1">C28*D28</f>
         <v>22500</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="157"/>
+        <v>193</v>
+      </c>
+      <c r="B29" s="169"/>
       <c r="C29" s="26">
         <v>5500</v>
       </c>
@@ -2585,15 +2607,15 @@
         <v>5500</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="157"/>
+        <v>55</v>
+      </c>
+      <c r="B30" s="169"/>
       <c r="C30" s="26">
         <v>1850</v>
       </c>
@@ -2605,523 +2627,530 @@
         <v>1850</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="157"/>
+        <v>196</v>
+      </c>
+      <c r="B31" s="169"/>
       <c r="C31" s="26">
-        <v>7500</v>
+        <v>1850</v>
       </c>
       <c r="D31" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="1"/>
-        <v>45000</v>
+        <f>C31*D31</f>
+        <v>3700</v>
       </c>
       <c r="G31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="157"/>
-      <c r="C32" s="2">
+        <v>198</v>
+      </c>
+      <c r="B32" s="169"/>
+      <c r="C32" s="26">
         <v>1850</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="1"/>
+        <f>C32*D32</f>
         <v>3700</v>
       </c>
+      <c r="G32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="157"/>
-      <c r="C33" s="2">
+        <v>197</v>
+      </c>
+      <c r="B33" s="169"/>
+      <c r="C33" s="26">
         <v>2000</v>
       </c>
       <c r="D33" s="2">
         <v>2</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="1"/>
+        <f>C33*D33</f>
         <v>4000</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="157"/>
-      <c r="C34" s="2">
-        <v>500</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B34" s="169"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="2">
-        <f>H35+H36</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <f>D34*C34</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="I34" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>178</v>
+      </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="157"/>
-      <c r="C35" s="2">
+        <v>199</v>
+      </c>
+      <c r="B35" s="170"/>
+      <c r="C35" s="26">
+        <v>7500</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="26">
+        <v>20000</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="169" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="14">
+        <v>500</v>
+      </c>
+      <c r="D37" s="2">
+        <f>H38+H39</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <f>D37*C37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="169"/>
+      <c r="C38" s="2">
         <v>1500</v>
       </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <f>D35*C35</f>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <f>D38*C38</f>
         <v>1500</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G38" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="69">
+      <c r="H38" s="69">
         <f>Meghívottak!G24</f>
         <v>0</v>
       </c>
-      <c r="I35" s="72">
-        <f>E37/2+E28+E29+C34*H35</f>
-        <v>133800</v>
-      </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="149"/>
-      <c r="C36" s="2">
+      <c r="I38" s="72"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="170"/>
+      <c r="C39" s="2">
         <v>300</v>
       </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
-        <f>D36*C36</f>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <f>D39*C39</f>
         <v>300</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G39" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="70">
+      <c r="H39" s="70">
         <f>Meghívottak!Q14</f>
         <v>0</v>
       </c>
-      <c r="I36" s="73">
-        <f>E37/2+E30+C34*H36</f>
-        <v>107650</v>
-      </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="19" t="s">
+      <c r="I39" s="73"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4">
-        <f>SUM(E31:E33,E23:E27,E35:E36)</f>
-        <v>211600</v>
-      </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="12"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A39" s="146" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4">
+        <f>SUM(E23:E39)</f>
+        <v>249400</v>
+      </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="12"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A42" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="147"/>
-      <c r="C39" s="147"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="148"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="29" t="s">
+      <c r="B42" s="147"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="148"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="151" t="s">
+      <c r="B43" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="17">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="17">
         <v>50000</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="24" t="s">
+    <row r="44" spans="1:10">
+      <c r="A44" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="151"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="151"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="151"/>
+      <c r="B44" s="163"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
-        <v>169900</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="151"/>
+      <c r="A45" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="163"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
-        <v>220000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="151"/>
+      <c r="A46" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="163"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="88">
-        <v>123000</v>
+      <c r="E46" s="3">
+        <v>120000</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="151"/>
+        <v>12</v>
+      </c>
+      <c r="B47" s="163"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
-        <v>30000</v>
-      </c>
-      <c r="F47" s="55" t="s">
-        <v>96</v>
+        <v>169900</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="151"/>
+        <v>13</v>
+      </c>
+      <c r="B48" s="163"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
-        <v>190000</v>
-      </c>
-      <c r="F48" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="139">
-        <f>$E$50/2+E47+E48</f>
-        <v>695950</v>
-      </c>
-      <c r="I48" s="158"/>
+        <v>220000</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="151"/>
+        <v>34</v>
+      </c>
+      <c r="B49" s="163"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="27">
-        <v>250000</v>
-      </c>
-      <c r="F49" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="139">
-        <f>$E$50/2+E49</f>
-        <v>725950</v>
-      </c>
-      <c r="I49" s="158"/>
+      <c r="E49" s="88">
+        <v>123000</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="152"/>
+      <c r="A50" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="163"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="4">
-        <f>SUM(E40:E46)</f>
+      <c r="E50" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F50" s="55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="163"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3">
+        <v>190000</v>
+      </c>
+      <c r="F51" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="161">
+        <f>$E$53/2+E50+E51</f>
+        <v>695950</v>
+      </c>
+      <c r="I51" s="162"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="163"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="27">
+        <v>250000</v>
+      </c>
+      <c r="F52" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="161">
+        <f>$E$53/2+E52</f>
+        <v>725950</v>
+      </c>
+      <c r="I52" s="162"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="164"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="4">
+        <f>SUM(E43:E49)</f>
         <v>951900</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A52" s="146" t="s">
+    <row r="54" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="55" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A55" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="147"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="148"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="35" t="s">
+      <c r="B55" s="147"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="148"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C56" s="36">
         <v>1200</v>
       </c>
-      <c r="D53" s="34">
+      <c r="D56" s="34">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="E53" s="36">
-        <f>C53*D53</f>
+      <c r="E56" s="36">
+        <f>C56*D56</f>
         <v>93600</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" s="35" t="s">
+    <row r="57" spans="1:9">
+      <c r="A57" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C57" s="36">
         <v>1550</v>
       </c>
-      <c r="D54" s="34">
+      <c r="D57" s="34">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="E54" s="36">
-        <f>C54*D54</f>
+      <c r="E57" s="36">
+        <f>C57*D57</f>
         <v>120900</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G57" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H57" s="5">
         <f>$H$2</f>
         <v>41</v>
       </c>
-      <c r="I54" s="54">
-        <f>$E$55/2+($H$54*$C$53)+($H$54*$C$54)</f>
+      <c r="I57" s="54">
+        <f>$E$58/2+($H$57*$C$56)+($H$57*$C$57)</f>
         <v>222750</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="24" t="s">
+    <row r="58" spans="1:9">
+      <c r="A58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B58" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="3">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="3">
         <v>220000</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G58" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H58" s="5">
         <f>$H$3</f>
         <v>37</v>
       </c>
-      <c r="I55" s="54">
-        <f>$E$55/2+($H$55*$C$53)+($H$55*$C$54)</f>
+      <c r="I58" s="54">
+        <f>$E$58/2+($H$58*$C$56)+($H$58*$C$57)</f>
         <v>211750</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="18" t="s">
+    <row r="59" spans="1:9">
+      <c r="A59" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="4">
-        <f>SUM(E53:E55)</f>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="4">
+        <f>SUM(E56:E58)</f>
         <v>434500</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A58" s="146" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="147"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="148"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="149" t="s">
+    <row r="60" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A61" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="147"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="148"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="132">
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="132">
         <v>0</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G62" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H62" s="5">
         <f>$H$2</f>
         <v>41</v>
       </c>
-      <c r="I59" s="54">
-        <f>SUM(E59:E60)/2</f>
+      <c r="I62" s="54">
+        <f>SUM(E62:E63)/2</f>
         <v>117550</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="150"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="88">
-        <v>235100</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="5">
-        <f>$H$3</f>
-        <v>37</v>
-      </c>
-      <c r="I60" s="54">
-        <f>SUM(E59:E60)/2</f>
-        <v>117550</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="150"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="27"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="75"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B62" s="150"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="88">
-        <v>24900</v>
-      </c>
-      <c r="G62" s="23"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="75"/>
-    </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="150"/>
+      <c r="A63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="169"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="88">
-        <v>41910</v>
-      </c>
-      <c r="G63" s="23"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="75"/>
+        <v>235100</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="5">
+        <f>$H$3</f>
+        <v>37</v>
+      </c>
+      <c r="I63" s="54">
+        <f>SUM(E62:E63)/2</f>
+        <v>117550</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="150"/>
+        <v>116</v>
+      </c>
+      <c r="B64" s="169"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="27"/>
@@ -3131,25 +3160,27 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B65" s="150"/>
+        <v>145</v>
+      </c>
+      <c r="B65" s="169"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="27"/>
+      <c r="E65" s="88">
+        <v>24900</v>
+      </c>
       <c r="G65" s="23"/>
       <c r="H65" s="74"/>
       <c r="I65" s="75"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B66" s="150"/>
+        <v>117</v>
+      </c>
+      <c r="B66" s="169"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="88">
-        <v>80000</v>
+        <v>41910</v>
       </c>
       <c r="G66" s="23"/>
       <c r="H66" s="74"/>
@@ -3157,71 +3188,143 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B67" s="150"/>
-      <c r="C67" s="2">
-        <v>59</v>
-      </c>
-      <c r="D67" s="2">
-        <v>50</v>
-      </c>
-      <c r="E67" s="88">
-        <f>C67*D67</f>
-        <v>2950</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B67" s="169"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="27"/>
       <c r="G67" s="23"/>
       <c r="H67" s="74"/>
       <c r="I67" s="75"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A69" s="30" t="s">
+    <row r="68" spans="1:9">
+      <c r="A68" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="169"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="27"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="75"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="169"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="88">
+        <v>80000</v>
+      </c>
+      <c r="G69" s="23"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="75"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="169"/>
+      <c r="C70" s="2">
+        <v>59</v>
+      </c>
+      <c r="D70" s="2">
+        <v>50</v>
+      </c>
+      <c r="E70" s="88">
+        <f>C70*D70</f>
+        <v>2950</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="75"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="169"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B72" s="170"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="88">
+        <v>23198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A74" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B74" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="32">
-        <f>E14+E20+E37+E50+E56</f>
-        <v>3802035.5</v>
-      </c>
-      <c r="G69" s="143" t="s">
-        <v>98</v>
-      </c>
-      <c r="H69" s="144"/>
-      <c r="I69" s="145"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="G70" s="56" t="s">
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="32">
+        <f>E14+E20+E40+E53+E59</f>
+        <v>3839835.5</v>
+      </c>
+      <c r="G74" s="174" t="s">
+        <v>93</v>
+      </c>
+      <c r="H74" s="175"/>
+      <c r="I74" s="176"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="G75" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="139">
-        <f>$I$2+$H$18+$I$35+$I$54+$I$59+H48</f>
-        <v>2261057.121794872</v>
-      </c>
-      <c r="I70" s="140"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1">
-      <c r="G71" s="57" t="s">
+      <c r="H75" s="161">
+        <f>$I$2+$H$18+$I$38+$I$57+$I$62+H51</f>
+        <v>2127257.121794872</v>
+      </c>
+      <c r="I75" s="171"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" thickBot="1">
+      <c r="G76" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H71" s="141">
-        <f>$I$3+$H$19+$I$36+$I$60+$I$55+$H$49</f>
-        <v>2275928.378205128</v>
-      </c>
-      <c r="I71" s="142"/>
+      <c r="H76" s="172">
+        <f>$I$3+$H$19+$I$39+$I$63+$I$58+$H$52</f>
+        <v>2168278.378205128</v>
+      </c>
+      <c r="I76" s="173"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="B62:B72"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B23:B35"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L24:M24"/>
@@ -3237,19 +3340,6 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B40:B50"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="B23:B36"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="B59:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3258,10 +3348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3276,67 +3366,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="178"/>
-      <c r="B2" s="155" t="s">
+      <c r="A2" s="184"/>
+      <c r="B2" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="173" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="155" t="s">
+      <c r="C2" s="167"/>
+      <c r="D2" s="179" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="155"/>
-      <c r="G2" s="173" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="172" t="s">
+      <c r="F2" s="167"/>
+      <c r="G2" s="179" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="178" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="178"/>
+      <c r="A3" s="184"/>
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="174"/>
+      <c r="D3" s="180"/>
       <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="174"/>
-      <c r="H3" s="172"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="178"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="199">
+      <c r="B4" s="139">
         <v>100000</v>
       </c>
-      <c r="C4" s="199">
+      <c r="C4" s="139">
         <v>100000</v>
       </c>
-      <c r="D4" s="199">
+      <c r="D4" s="139">
         <f>SUM(B4:C4)</f>
         <v>200000</v>
       </c>
@@ -3349,13 +3439,13 @@
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="199">
+      <c r="B5" s="139">
         <v>5000</v>
       </c>
-      <c r="C5" s="199">
+      <c r="C5" s="139">
         <v>5000</v>
       </c>
-      <c r="D5" s="199">
+      <c r="D5" s="139">
         <f t="shared" ref="D5:D13" si="0">SUM(B5:C5)</f>
         <v>10000</v>
       </c>
@@ -3368,13 +3458,13 @@
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="199">
+      <c r="B6" s="139">
         <v>10000</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="139">
         <v>10000</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="139">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
@@ -3387,13 +3477,13 @@
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="199">
+      <c r="B7" s="139">
         <v>15000</v>
       </c>
-      <c r="C7" s="199">
+      <c r="C7" s="139">
         <v>15000</v>
       </c>
-      <c r="D7" s="199">
+      <c r="D7" s="139">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
@@ -3406,13 +3496,13 @@
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="199">
+      <c r="B8" s="139">
         <v>15000</v>
       </c>
-      <c r="C8" s="200" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="199">
+      <c r="C8" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="139">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
@@ -3425,13 +3515,13 @@
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="199">
+      <c r="B9" s="139">
         <v>15000</v>
       </c>
-      <c r="C9" s="199">
+      <c r="C9" s="139">
         <v>15000</v>
       </c>
-      <c r="D9" s="199">
+      <c r="D9" s="139">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
@@ -3444,13 +3534,13 @@
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="199">
+      <c r="B10" s="139">
         <v>10000</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="139">
         <v>10000</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="139">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
@@ -3463,13 +3553,13 @@
       <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="199">
+      <c r="B11" s="139">
         <v>100000</v>
       </c>
-      <c r="C11" s="200" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="199">
+      <c r="C11" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="139">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
@@ -3480,15 +3570,15 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="199">
+        <v>57</v>
+      </c>
+      <c r="B12" s="139">
         <v>14150</v>
       </c>
-      <c r="C12" s="199">
+      <c r="C12" s="139">
         <v>14150</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="139">
         <f t="shared" si="0"/>
         <v>28300</v>
       </c>
@@ -3499,87 +3589,87 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="199">
+        <v>125</v>
+      </c>
+      <c r="B13" s="139">
         <v>15000</v>
       </c>
-      <c r="C13" s="199">
+      <c r="C13" s="139">
         <v>15000</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="139">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="E13" s="199">
+      <c r="E13" s="139">
         <f>G13/2</f>
         <v>102550</v>
       </c>
-      <c r="F13" s="199">
+      <c r="F13" s="139">
         <f>G13/2</f>
         <v>102550</v>
       </c>
-      <c r="G13" s="199">
+      <c r="G13" s="139">
         <v>205100</v>
       </c>
-      <c r="H13" s="201">
+      <c r="H13" s="141">
         <f>D13+G13</f>
         <v>235100</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="202"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="199">
+        <v>143</v>
+      </c>
+      <c r="B14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="139">
         <v>20193</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="202"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="199">
+        <v>146</v>
+      </c>
+      <c r="B15" s="185"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="139">
         <v>41910</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="202"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="199">
+        <v>145</v>
+      </c>
+      <c r="B16" s="185"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="139">
         <v>24900</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="205">
+        <v>147</v>
+      </c>
+      <c r="B17" s="142">
         <v>7500</v>
       </c>
-      <c r="C17" s="205">
+      <c r="C17" s="142">
         <v>7500</v>
       </c>
-      <c r="D17" s="205">
+      <c r="D17" s="142">
         <v>15000</v>
       </c>
       <c r="E17" s="133"/>
@@ -3588,37 +3678,61 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B20" s="21">
         <f>SUM(B4:B13)</f>
         <v>299150</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C20" s="21">
         <f>SUM(C4:C13)</f>
         <v>184150</v>
       </c>
-      <c r="D18" s="21">
-        <f>SUM(B18:C18)</f>
+      <c r="D20" s="21">
+        <f>SUM(B20:C20)</f>
         <v>483300</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="H18" s="21">
+      <c r="F20" s="13"/>
+      <c r="H20" s="21">
         <f>SUM(H4:H17)</f>
         <v>322103</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="177"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="38"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="F22" t="s">
-        <v>195</v>
-      </c>
-      <c r="G22" s="13">
+    <row r="21" spans="1:8">
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="13">
         <f>E13+H14/2+H15/2+D17/2</f>
         <v>141101.5</v>
       </c>
@@ -3628,7 +3742,7 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -3662,7 +3776,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1">
         <v>15</v>
@@ -3672,24 +3786,24 @@
         <v>85935</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -3699,10 +3813,10 @@
         <v>59980</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G2" s="41">
         <v>0.7</v>
@@ -3717,7 +3831,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -3728,7 +3842,7 @@
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" s="41">
         <v>0.7</v>
@@ -3747,10 +3861,10 @@
         <v>174905</v>
       </c>
       <c r="E4" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="44" t="s">
         <v>74</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>79</v>
       </c>
       <c r="G4" s="44">
         <v>0.5</v>
@@ -3763,13 +3877,13 @@
         <v>5998</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="E5" s="41"/>
       <c r="F5" s="41" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G5" s="41">
         <v>0.5</v>
@@ -3789,7 +3903,7 @@
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G6" s="41">
         <v>0.5</v>
@@ -3805,7 +3919,7 @@
     <row r="7" spans="1:10" ht="15.75">
       <c r="E7" s="41"/>
       <c r="F7" s="41" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G7" s="41">
         <v>0.5</v>
@@ -3821,7 +3935,7 @@
     <row r="8" spans="1:10" ht="15.75">
       <c r="E8" s="41"/>
       <c r="F8" s="41" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G8" s="41">
         <v>0.5</v>
@@ -3837,7 +3951,7 @@
     <row r="9" spans="1:10" ht="15.75">
       <c r="E9" s="41"/>
       <c r="F9" s="41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G9" s="41">
         <v>0.5</v>
@@ -3852,10 +3966,10 @@
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="E10" s="44" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G10" s="44">
         <v>0.5</v>
@@ -3871,7 +3985,7 @@
     <row r="11" spans="1:10" ht="15.75">
       <c r="E11" s="41"/>
       <c r="F11" s="41" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G11" s="41">
         <v>0.7</v>
@@ -3887,7 +4001,7 @@
     <row r="12" spans="1:10" ht="15.75">
       <c r="E12" s="41"/>
       <c r="F12" s="41" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G12" s="41">
         <v>1</v>
@@ -3903,7 +4017,7 @@
     <row r="13" spans="1:10" ht="15.75">
       <c r="E13" s="41"/>
       <c r="F13" s="41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G13" s="41">
         <v>0.5</v>
@@ -3919,7 +4033,7 @@
     <row r="14" spans="1:10" ht="15.75">
       <c r="E14" s="41"/>
       <c r="F14" s="41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G14" s="41">
         <v>1</v>
@@ -3934,10 +4048,10 @@
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="E15" s="41" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G15" s="41">
         <v>0.5</v>
@@ -3953,7 +4067,7 @@
     <row r="16" spans="1:10" ht="15.75">
       <c r="E16" s="41"/>
       <c r="F16" s="41" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G16" s="41">
         <v>0.7</v>
@@ -3969,7 +4083,7 @@
     <row r="17" spans="5:9" ht="15.75">
       <c r="E17" s="41"/>
       <c r="F17" s="41" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G17" s="41">
         <v>1</v>
@@ -3984,10 +4098,10 @@
     </row>
     <row r="18" spans="5:9" ht="16.5" thickBot="1">
       <c r="E18" s="49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G18" s="49">
         <v>1</v>
@@ -4002,10 +4116,10 @@
     </row>
     <row r="19" spans="5:9" ht="16.5" thickTop="1">
       <c r="E19" s="52" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G19" s="52">
         <v>0.5</v>
@@ -4021,7 +4135,7 @@
     <row r="20" spans="5:9" ht="15.75">
       <c r="E20" s="41"/>
       <c r="F20" s="41" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G20" s="41">
         <v>0.5</v>
@@ -4037,7 +4151,7 @@
     <row r="21" spans="5:9" ht="15.75">
       <c r="E21" s="41"/>
       <c r="F21" s="41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G21" s="41">
         <v>0.5</v>
@@ -4053,7 +4167,7 @@
     <row r="22" spans="5:9" ht="15.75">
       <c r="E22" s="41"/>
       <c r="F22" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G22" s="41">
         <v>0.5</v>
@@ -4069,7 +4183,7 @@
     <row r="23" spans="5:9" ht="15.75">
       <c r="E23" s="41"/>
       <c r="F23" s="41" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G23" s="41">
         <v>0.5</v>
@@ -4085,7 +4199,7 @@
     <row r="24" spans="5:9" ht="15.75">
       <c r="E24" s="41"/>
       <c r="F24" s="41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G24" s="41">
         <v>0.5</v>
@@ -4114,72 +4228,72 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="197" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="167" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="201" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="202" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="203"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="188"/>
+      <c r="O1" s="188"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="190" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="155" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="192" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="193" t="s">
+      <c r="H2" s="201"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="194"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="164" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="179"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="181" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="190"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="100" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="101" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="192"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="100" t="s">
-        <v>101</v>
-      </c>
-      <c r="N2" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="O2" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="P2" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q2" s="182"/>
+      <c r="Q2" s="191"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="65" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="63">
@@ -4199,13 +4313,13 @@
         <v>1</v>
       </c>
       <c r="J3" s="105" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K3" s="59"/>
       <c r="L3" s="106">
         <v>5</v>
       </c>
-      <c r="M3" s="183">
+      <c r="M3" s="192">
         <v>2</v>
       </c>
       <c r="N3" s="107">
@@ -4221,7 +4335,7 @@
     </row>
     <row r="4" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="65" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="63">
@@ -4239,13 +4353,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K4" s="62"/>
       <c r="L4" s="106">
         <v>3</v>
       </c>
-      <c r="M4" s="184"/>
+      <c r="M4" s="193"/>
       <c r="N4" s="109"/>
       <c r="O4" s="109"/>
       <c r="P4" s="110"/>
@@ -4255,7 +4369,7 @@
     </row>
     <row r="5" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="87" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="111">
@@ -4271,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K5" s="62"/>
       <c r="L5" s="106">
@@ -4289,7 +4403,7 @@
     </row>
     <row r="6" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="111">
@@ -4305,7 +4419,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K6" s="62"/>
       <c r="L6" s="106">
@@ -4323,7 +4437,7 @@
     </row>
     <row r="7" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="111">
@@ -4339,7 +4453,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K7" s="62"/>
       <c r="L7" s="106">
@@ -4357,7 +4471,7 @@
     </row>
     <row r="8" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="63" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="63">
@@ -4373,7 +4487,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K8" s="62"/>
       <c r="L8" s="106">
@@ -4391,7 +4505,7 @@
     </row>
     <row r="9" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="65" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="63">
@@ -4407,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K9" s="62"/>
       <c r="L9" s="106">
@@ -4429,7 +4543,7 @@
     </row>
     <row r="10" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="113" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="63">
@@ -4445,7 +4559,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K10" s="62"/>
       <c r="L10" s="106">
@@ -4465,7 +4579,7 @@
     </row>
     <row r="11" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="113" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="63">
@@ -4484,7 +4598,7 @@
     </row>
     <row r="12" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="113" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="63">
@@ -4502,7 +4616,7 @@
     </row>
     <row r="13" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="111">
@@ -4520,7 +4634,7 @@
     </row>
     <row r="14" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="111">
@@ -4539,7 +4653,7 @@
     </row>
     <row r="15" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="60" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B15" s="61"/>
       <c r="C15" s="111">
@@ -4558,7 +4672,7 @@
     </row>
     <row r="16" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="117" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B16" s="118"/>
       <c r="C16" s="111">
@@ -4577,7 +4691,7 @@
     </row>
     <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="111" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="119">
@@ -4595,7 +4709,7 @@
     </row>
     <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="111" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="119">
@@ -4614,7 +4728,7 @@
     </row>
     <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="111" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="119">
@@ -4633,7 +4747,7 @@
     </row>
     <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="64" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B20" s="64"/>
       <c r="C20" s="63">
@@ -4655,10 +4769,10 @@
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="187" t="s">
+      <c r="A22" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="187"/>
+      <c r="B22" s="196"/>
       <c r="C22" s="68">
         <f>SUM(C3:C20)</f>
         <v>41</v>
@@ -4683,10 +4797,10 @@
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="185" t="s">
+      <c r="J22" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="186"/>
+      <c r="K22" s="195"/>
       <c r="L22" s="123">
         <f>SUM(L3:L10)</f>
         <v>37</v>
@@ -4726,7 +4840,7 @@
     <row r="25" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="83" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B26" s="126">
         <f>C22+L22</f>
@@ -4822,7 +4936,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4835,72 +4949,72 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="135" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B1" s="135" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C1" s="135" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D1" s="135" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B2" s="134" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D2" s="136" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4908,41 +5022,41 @@
         <v>24</v>
       </c>
       <c r="B6" s="134" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B8" s="137" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4950,67 +5064,67 @@
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="206" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="207"/>
+      <c r="B11" s="138" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="198"/>
-      <c r="B11" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5046,7 +5160,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>3</v>
@@ -5059,7 +5173,7 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="91" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B3" s="90" t="s">
         <v>42</v>
@@ -5077,7 +5191,7 @@
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="37" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B4" s="89" t="s">
         <v>42</v>
@@ -5095,7 +5209,7 @@
     </row>
     <row r="5" spans="1:5" ht="45">
       <c r="A5" s="37" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>42</v>
@@ -5118,8 +5232,8 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="164"/>
-      <c r="D6" s="180"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="4">
         <f>SUM(E2:E4)</f>
         <v>426250</v>
@@ -5132,8 +5246,8 @@
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="180"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="189"/>
       <c r="E7" s="4">
         <f>SUM(E2:E3)+E5</f>
         <v>490000</v>
@@ -5142,7 +5256,7 @@
     <row r="8" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="D9" s="98" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E9" s="99">
         <f>E7-E6</f>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="205">
   <si>
     <t>TOTAL</t>
   </si>
@@ -675,6 +675,15 @@
   </si>
   <si>
     <t>Dekor előleg</t>
+  </si>
+  <si>
+    <t>Hajtű, kontytű</t>
+  </si>
+  <si>
+    <t>Szirmok (kosárkákba)</t>
+  </si>
+  <si>
+    <t>Torta szalag</t>
   </si>
 </sst>
 </file>
@@ -872,7 +881,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1332,6 +1341,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1342,7 +1382,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1573,6 +1613,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1590,6 +1633,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1640,9 +1692,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2058,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S76"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2079,21 +2128,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="148"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="149"/>
       <c r="G1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="149">
+      <c r="H1" s="150">
         <f>H2+H3</f>
         <v>78</v>
       </c>
-      <c r="I1" s="149"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="14"/>
@@ -2341,8 +2390,8 @@
       <c r="B14" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="85">
         <f>SUM(E5:E13)</f>
         <v>1928135.5</v>
@@ -2355,8 +2404,8 @@
       <c r="B15" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="78">
         <f>E14/H1</f>
         <v>24719.685897435898</v>
@@ -2372,24 +2421,24 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="148"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="150"/>
-      <c r="D18" s="151"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="155"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -2397,19 +2446,19 @@
       <c r="G18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="161">
+      <c r="H18" s="165">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="I18" s="162"/>
+      <c r="I18" s="166"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="152"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="156"/>
       <c r="E19" s="17">
         <f>640*310</f>
         <v>198400</v>
@@ -2417,19 +2466,19 @@
       <c r="G19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="159">
+      <c r="H19" s="163">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="I19" s="160"/>
+      <c r="I19" s="164"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="158"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="152"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="156"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2445,56 +2494,56 @@
       <c r="J21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A22" s="146" t="s">
+    <row r="22" spans="1:19">
+      <c r="A22" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="148"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="153"/>
       <c r="K22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="144">
+      <c r="L22" s="145">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="M22" s="145"/>
+      <c r="M22" s="146"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="2">
         <v>450</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="2">
         <f>78+5</f>
         <v>83</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="3">
         <f>C23*D23</f>
         <v>37350</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="144">
-        <v>1</v>
-      </c>
-      <c r="M23" s="145"/>
+      <c r="L23" s="145">
+        <v>1</v>
+      </c>
+      <c r="M23" s="146"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B24" s="169"/>
+      <c r="B24" s="150"/>
       <c r="C24" s="26">
         <v>12000</v>
       </c>
@@ -2508,17 +2557,17 @@
       <c r="K24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="144">
+      <c r="L24" s="145">
         <v>9</v>
       </c>
-      <c r="M24" s="145"/>
+      <c r="M24" s="146"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="169"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="26">
         <v>18500</v>
       </c>
@@ -2532,15 +2581,15 @@
       <c r="K25" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="167"/>
-      <c r="M25" s="167"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="171"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="169"/>
+      <c r="B26" s="150"/>
       <c r="C26" s="26">
         <v>7500</v>
       </c>
@@ -2554,21 +2603,23 @@
       <c r="K26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="165"/>
-      <c r="M26" s="166"/>
+      <c r="L26" s="169"/>
+      <c r="M26" s="170"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="169"/>
+      <c r="B27" s="144" t="s">
+        <v>3</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="27" t="s">
-        <v>178</v>
+      <c r="E27" s="88">
+        <v>20000</v>
       </c>
       <c r="S27" s="1"/>
     </row>
@@ -2576,7 +2627,9 @@
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="169"/>
+      <c r="B28" s="150" t="s">
+        <v>47</v>
+      </c>
       <c r="C28" s="26">
         <v>22500</v>
       </c>
@@ -2595,7 +2648,7 @@
       <c r="A29" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B29" s="169"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="26">
         <v>5500</v>
       </c>
@@ -2615,7 +2668,7 @@
       <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="169"/>
+      <c r="B30" s="150"/>
       <c r="C30" s="26">
         <v>1850</v>
       </c>
@@ -2635,7 +2688,7 @@
       <c r="A31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="169"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="26">
         <v>1850</v>
       </c>
@@ -2653,7 +2706,7 @@
       <c r="A32" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B32" s="169"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="26">
         <v>1850</v>
       </c>
@@ -2671,7 +2724,7 @@
       <c r="A33" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B33" s="169"/>
+      <c r="B33" s="150"/>
       <c r="C33" s="26">
         <v>2000</v>
       </c>
@@ -2688,13 +2741,16 @@
       <c r="A34" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="169"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="26">
+        <v>2000</v>
+      </c>
       <c r="D34" s="2">
         <v>3</v>
       </c>
-      <c r="E34" s="27" t="s">
-        <v>178</v>
+      <c r="E34" s="88">
+        <f>C34*D34</f>
+        <v>6000</v>
       </c>
       <c r="J34" s="1"/>
     </row>
@@ -2702,7 +2758,7 @@
       <c r="A35" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B35" s="170"/>
+      <c r="B35" s="150"/>
       <c r="C35" s="26">
         <v>7500</v>
       </c>
@@ -2738,19 +2794,18 @@
       <c r="A37" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="169" t="s">
+      <c r="B37" s="172" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="14">
         <v>500</v>
       </c>
       <c r="D37" s="2">
-        <f>H38+H39</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E37" s="3">
         <f>D37*C37</f>
-        <v>0</v>
+        <v>26500</v>
       </c>
       <c r="G37" s="1"/>
       <c r="I37" s="1"/>
@@ -2760,7 +2815,7 @@
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="169"/>
+      <c r="B38" s="172"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -2785,7 +2840,7 @@
       <c r="A39" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="170"/>
+      <c r="B39" s="173"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -2817,7 +2872,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="4">
         <f>SUM(E23:E39)</f>
-        <v>249400</v>
+        <v>301900</v>
       </c>
       <c r="J40" s="1"/>
     </row>
@@ -2830,19 +2885,19 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A42" s="146" t="s">
+      <c r="A42" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="147"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="148"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="149"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="163" t="s">
+      <c r="B43" s="167" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="14"/>
@@ -2855,7 +2910,7 @@
       <c r="A44" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="163"/>
+      <c r="B44" s="167"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -2866,7 +2921,7 @@
       <c r="A45" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="163"/>
+      <c r="B45" s="167"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -2877,7 +2932,7 @@
       <c r="A46" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="163"/>
+      <c r="B46" s="167"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -2888,7 +2943,7 @@
       <c r="A47" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="163"/>
+      <c r="B47" s="167"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -2899,7 +2954,7 @@
       <c r="A48" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="163"/>
+      <c r="B48" s="167"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -2910,7 +2965,7 @@
       <c r="A49" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="163"/>
+      <c r="B49" s="167"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="88">
@@ -2921,7 +2976,7 @@
       <c r="A50" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="163"/>
+      <c r="B50" s="167"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3">
@@ -2935,7 +2990,7 @@
       <c r="A51" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="163"/>
+      <c r="B51" s="167"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3">
@@ -2947,17 +3002,17 @@
       <c r="G51" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="161">
+      <c r="H51" s="165">
         <f>$E$53/2+E50+E51</f>
         <v>695950</v>
       </c>
-      <c r="I51" s="162"/>
+      <c r="I51" s="166"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="163"/>
+      <c r="B52" s="167"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="27">
@@ -2969,17 +3024,17 @@
       <c r="G52" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="161">
+      <c r="H52" s="165">
         <f>$E$53/2+E52</f>
         <v>725950</v>
       </c>
-      <c r="I52" s="162"/>
+      <c r="I52" s="166"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="164"/>
+      <c r="B53" s="168"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="4">
@@ -2989,13 +3044,13 @@
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="55" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A55" s="146" t="s">
+      <c r="A55" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="147"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="147"/>
-      <c r="E55" s="148"/>
+      <c r="B55" s="148"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="149"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="34" t="s">
@@ -3092,25 +3147,25 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A61" s="146" t="s">
+      <c r="A61" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="147"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="148"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="149"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="177" t="s">
+      <c r="B62" s="180" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="132">
-        <v>0</v>
+        <v>53970</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>4</v>
@@ -3121,14 +3176,14 @@
       </c>
       <c r="I62" s="54">
         <f>SUM(E62:E63)/2</f>
-        <v>117550</v>
+        <v>144535</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="169"/>
+      <c r="B63" s="172"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="88">
@@ -3143,14 +3198,14 @@
       </c>
       <c r="I63" s="54">
         <f>SUM(E62:E63)/2</f>
-        <v>117550</v>
+        <v>144535</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="169"/>
+      <c r="B64" s="172"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="27"/>
@@ -3162,7 +3217,7 @@
       <c r="A65" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="169"/>
+      <c r="B65" s="172"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="88">
@@ -3176,7 +3231,7 @@
       <c r="A66" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="169"/>
+      <c r="B66" s="172"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="88">
@@ -3190,7 +3245,7 @@
       <c r="A67" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="169"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="27"/>
@@ -3202,7 +3257,7 @@
       <c r="A68" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="169"/>
+      <c r="B68" s="172"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="27"/>
@@ -3214,7 +3269,7 @@
       <c r="A69" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="169"/>
+      <c r="B69" s="172"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="88">
@@ -3228,7 +3283,7 @@
       <c r="A70" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="169"/>
+      <c r="B70" s="172"/>
       <c r="C70" s="2">
         <v>59</v>
       </c>
@@ -3247,7 +3302,7 @@
       <c r="A71" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="169"/>
+      <c r="B71" s="172"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="4"/>
@@ -3256,75 +3311,116 @@
       <c r="A72" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B72" s="170"/>
+      <c r="B72" s="172"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="88">
-        <v>23198</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A74" s="30" t="s">
+        <f>23198+4890</f>
+        <v>28088</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="172"/>
+      <c r="C73" s="2">
+        <v>450</v>
+      </c>
+      <c r="D73" s="2">
+        <v>6</v>
+      </c>
+      <c r="E73" s="88">
+        <f>C73*D73</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" s="172"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="88">
+        <f>2405+(278*3)</f>
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B75" s="173"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="26">
+        <f>950+490</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A77" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B77" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="32">
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="32">
         <f>E14+E20+E40+E53+E59</f>
-        <v>3839835.5</v>
-      </c>
-      <c r="G74" s="174" t="s">
+        <v>3892335.5</v>
+      </c>
+      <c r="G77" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="H74" s="175"/>
-      <c r="I74" s="176"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="G75" s="56" t="s">
+      <c r="H77" s="178"/>
+      <c r="I77" s="179"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="G78" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H75" s="161">
+      <c r="H78" s="165">
         <f>$I$2+$H$18+$I$38+$I$57+$I$62+H51</f>
-        <v>2127257.121794872</v>
-      </c>
-      <c r="I75" s="171"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" thickBot="1">
-      <c r="G76" s="57" t="s">
+        <v>2154242.121794872</v>
+      </c>
+      <c r="I78" s="174"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" thickBot="1">
+      <c r="G79" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H76" s="172">
+      <c r="H79" s="175">
         <f>$I$3+$H$19+$I$39+$I$63+$I$58+$H$52</f>
-        <v>2168278.378205128</v>
-      </c>
-      <c r="I76" s="173"/>
+        <v>2195263.378205128</v>
+      </c>
+      <c r="I79" s="176"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="G74:I74"/>
+  <mergeCells count="30">
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="G77:I77"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A61:E61"/>
-    <mergeCell ref="B62:B72"/>
+    <mergeCell ref="B62:B75"/>
     <mergeCell ref="B43:B53"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B23:B35"/>
     <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B28:B35"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L24:M24"/>
@@ -3340,6 +3436,7 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B23:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3350,7 +3447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -3366,55 +3463,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="184"/>
-      <c r="B2" s="167" t="s">
+      <c r="A2" s="187"/>
+      <c r="B2" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="179" t="s">
+      <c r="C2" s="171"/>
+      <c r="D2" s="182" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="179" t="s">
+      <c r="F2" s="171"/>
+      <c r="G2" s="182" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="181" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="184"/>
+      <c r="A3" s="187"/>
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="180"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="180"/>
-      <c r="H3" s="178"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="181"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -3621,12 +3718,12 @@
       <c r="A14" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="185"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="187"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="190"/>
       <c r="H14" s="139">
         <v>20193</v>
       </c>
@@ -3635,12 +3732,12 @@
       <c r="A15" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="185"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="187"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="190"/>
       <c r="H15" s="139">
         <v>41910</v>
       </c>
@@ -3649,12 +3746,12 @@
       <c r="A16" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="185"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="187"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="190"/>
       <c r="H16" s="139">
         <v>24900</v>
       </c>
@@ -3724,8 +3821,8 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
       <c r="D21" s="38"/>
     </row>
     <row r="24" spans="1:8">
@@ -4228,39 +4325,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="200" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="167" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="201" t="s">
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="204" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="202" t="s">
+      <c r="J1" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="203"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="153" t="s">
+      <c r="K1" s="206"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="190" t="s">
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="192"/>
+      <c r="Q1" s="193" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="199"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="200"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="203"/>
       <c r="D2" s="100" t="s">
         <v>96</v>
       </c>
@@ -4273,10 +4370,10 @@
       <c r="G2" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="200"/>
+      <c r="H2" s="204"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="203"/>
       <c r="M2" s="100" t="s">
         <v>96</v>
       </c>
@@ -4289,7 +4386,7 @@
       <c r="P2" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" s="191"/>
+      <c r="Q2" s="194"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="65" t="s">
@@ -4319,7 +4416,7 @@
       <c r="L3" s="106">
         <v>5</v>
       </c>
-      <c r="M3" s="192">
+      <c r="M3" s="195">
         <v>2</v>
       </c>
       <c r="N3" s="107">
@@ -4359,7 +4456,7 @@
       <c r="L4" s="106">
         <v>3</v>
       </c>
-      <c r="M4" s="193"/>
+      <c r="M4" s="196"/>
       <c r="N4" s="109"/>
       <c r="O4" s="109"/>
       <c r="P4" s="110"/>
@@ -4769,10 +4866,10 @@
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="196" t="s">
+      <c r="A22" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="196"/>
+      <c r="B22" s="199"/>
       <c r="C22" s="68">
         <f>SUM(C3:C20)</f>
         <v>41</v>
@@ -4797,10 +4894,10 @@
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="194" t="s">
+      <c r="J22" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="195"/>
+      <c r="K22" s="198"/>
       <c r="L22" s="123">
         <f>SUM(L3:L10)</f>
         <v>37</v>
@@ -5074,7 +5171,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="206" t="s">
+      <c r="A10" s="209" t="s">
         <v>179</v>
       </c>
       <c r="B10" s="138" t="s">
@@ -5088,7 +5185,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="207"/>
+      <c r="A11" s="210"/>
       <c r="B11" s="138" t="s">
         <v>81</v>
       </c>
@@ -5150,13 +5247,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="148"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="149"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -5232,8 +5329,8 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="153"/>
-      <c r="D6" s="189"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="192"/>
       <c r="E6" s="4">
         <f>SUM(E2:E4)</f>
         <v>426250</v>
@@ -5246,8 +5343,8 @@
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="189"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="192"/>
       <c r="E7" s="4">
         <f>SUM(E2:E3)+E5</f>
         <v>490000</v>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760"/>
+    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -641,9 +641,6 @@
     <t>30/630-4270</t>
   </si>
   <si>
-    <t>Kriszti fizeti Valentinnek</t>
-  </si>
-  <si>
     <t>Tortadísz</t>
   </si>
   <si>
@@ -684,6 +681,9 @@
   </si>
   <si>
     <t>Torta szalag</t>
+  </si>
+  <si>
+    <t>Kriszti fizeti Valentinnek:</t>
   </si>
 </sst>
 </file>
@@ -843,7 +843,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,12 +871,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,7 +1376,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1394,7 +1388,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1602,14 +1595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1741,15 +1726,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1809,6 +1785,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2109,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2128,285 +2119,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="149"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="144"/>
+      <c r="G1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="150">
+      <c r="H1" s="145">
         <f>H2+H3</f>
         <v>78</v>
       </c>
-      <c r="I1" s="150"/>
+      <c r="I1" s="145"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="5">
         <f>Meghívottak!C22</f>
         <v>41</v>
       </c>
-      <c r="I2" s="54">
+      <c r="I2" s="53">
         <f>H2*E15</f>
         <v>1013507.1217948719</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="77">
         <v>2000</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="78">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="77">
         <f>C3*D3</f>
         <v>156000</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="5">
         <f>Meghívottak!L22</f>
         <v>37</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="53">
         <f>H3*E15</f>
         <v>914628.37820512825</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="77">
         <v>12000</v>
       </c>
-      <c r="D4" s="79">
-        <v>1</v>
-      </c>
-      <c r="E4" s="78">
+      <c r="D4" s="78">
+        <v>1</v>
+      </c>
+      <c r="E4" s="77">
         <f>C4*D4</f>
         <v>12000</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="77">
         <v>7800</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="78">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="77">
         <f>C5*D5</f>
         <v>608400</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="77">
         <v>3900</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="78">
         <v>2</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="77">
         <f>C6*D6</f>
         <v>7800</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="77" t="s">
+      <c r="A7" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="77">
         <v>2900</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="81">
         <v>37</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="77">
         <f>C7*D7</f>
         <v>107300</v>
       </c>
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="81">
         <f>E8/D8</f>
         <v>1205.1282051282051</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="78">
         <f>$H$1</f>
         <v>78</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="77">
         <v>94000</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="77">
         <v>7800</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="78">
         <f>$H$1</f>
         <v>78</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="77">
         <f t="shared" ref="E9:E10" si="0">C9*D9</f>
         <v>608400</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="77">
         <v>1500</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="78">
         <f>$H$1</f>
         <v>78</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="77">
         <f t="shared" si="0"/>
         <v>117000</v>
       </c>
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="82">
+      <c r="B11" s="76"/>
+      <c r="C11" s="81">
         <f>'Kieg. - Ital'!C4/TERVEZETT!H1</f>
         <v>2242.3717948717949</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="78">
         <f>$H$1</f>
         <v>78</v>
       </c>
-      <c r="E11" s="128">
+      <c r="E11" s="127">
         <f>C11*D11</f>
         <v>174905</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="78">
+      <c r="B12" s="76"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="77">
         <f>(E3+E5+E6+E7+E8+E9+E13+E11)*0.1</f>
         <v>178830.5</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="78">
         <v>3500</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="78">
         <v>9</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="77">
         <f>C13*D13</f>
         <v>31500</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="85">
+      <c r="C14" s="153"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="84">
         <f>SUM(E5:E13)</f>
         <v>1928135.5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="78">
+      <c r="C15" s="153"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="77">
         <f>E14/H1</f>
         <v>24719.685897435898</v>
       </c>
@@ -2417,68 +2408,68 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="11"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A17" s="147" t="s">
+      <c r="A17" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="144"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="150"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="165">
+      <c r="H18" s="160">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="I18" s="166"/>
+      <c r="I18" s="161"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="161"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="17">
+      <c r="B19" s="156"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="16">
         <f>640*310</f>
         <v>198400</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="163">
+      <c r="H19" s="158">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="I19" s="164"/>
+      <c r="I19" s="159"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="162"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="156"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="151"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2486,37 +2477,37 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="7"/>
       <c r="J21" s="1"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="151" t="s">
+      <c r="A22" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="153"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="148"/>
       <c r="K22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="145">
+      <c r="L22" s="140">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="M22" s="146"/>
+      <c r="M22" s="141"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="145" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="2">
@@ -2533,18 +2524,18 @@
       <c r="K23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="145">
-        <v>1</v>
-      </c>
-      <c r="M23" s="146"/>
+      <c r="L23" s="140">
+        <v>1</v>
+      </c>
+      <c r="M23" s="141"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="150"/>
-      <c r="C24" s="26">
+        <v>194</v>
+      </c>
+      <c r="B24" s="145"/>
+      <c r="C24" s="25">
         <v>12000</v>
       </c>
       <c r="D24" s="2">
@@ -2557,18 +2548,18 @@
       <c r="K24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="145">
+      <c r="L24" s="140">
         <v>9</v>
       </c>
-      <c r="M24" s="146"/>
+      <c r="M24" s="141"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="26">
+      <c r="B25" s="145"/>
+      <c r="C25" s="25">
         <v>18500</v>
       </c>
       <c r="D25" s="2">
@@ -2578,19 +2569,19 @@
         <f>C25*D25</f>
         <v>18500</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="171"/>
-      <c r="M25" s="171"/>
+      <c r="L25" s="166"/>
+      <c r="M25" s="166"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="150"/>
-      <c r="C26" s="26">
+      <c r="B26" s="145"/>
+      <c r="C26" s="25">
         <v>7500</v>
       </c>
       <c r="D26" s="2">
@@ -2600,25 +2591,25 @@
         <f>C26*D26</f>
         <v>7500</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="169"/>
-      <c r="M26" s="170"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="165"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="144" t="s">
+      <c r="B27" s="139" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <v>20000</v>
       </c>
       <c r="S27" s="1"/>
@@ -2627,10 +2618,10 @@
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="150" t="s">
+      <c r="B28" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <v>22500</v>
       </c>
       <c r="D28" s="2">
@@ -2640,16 +2631,16 @@
         <f t="shared" ref="E28:E36" si="1">C28*D28</f>
         <v>22500</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="54" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="150"/>
-      <c r="C29" s="26">
+        <v>192</v>
+      </c>
+      <c r="B29" s="145"/>
+      <c r="C29" s="25">
         <v>5500</v>
       </c>
       <c r="D29" s="2">
@@ -2659,7 +2650,7 @@
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="54" t="s">
         <v>91</v>
       </c>
       <c r="J29" s="1"/>
@@ -2668,8 +2659,8 @@
       <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="150"/>
-      <c r="C30" s="26">
+      <c r="B30" s="145"/>
+      <c r="C30" s="25">
         <v>1850</v>
       </c>
       <c r="D30" s="2">
@@ -2679,17 +2670,17 @@
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="54" t="s">
         <v>92</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="26">
+        <v>195</v>
+      </c>
+      <c r="B31" s="145"/>
+      <c r="C31" s="25">
         <v>1850</v>
       </c>
       <c r="D31" s="2">
@@ -2700,14 +2691,15 @@
         <v>3700</v>
       </c>
       <c r="G31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" s="150"/>
-      <c r="C32" s="26">
+        <v>197</v>
+      </c>
+      <c r="B32" s="145"/>
+      <c r="C32" s="25">
         <v>1850</v>
       </c>
       <c r="D32" s="2">
@@ -2722,10 +2714,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="150"/>
-      <c r="C33" s="26">
+        <v>196</v>
+      </c>
+      <c r="B33" s="145"/>
+      <c r="C33" s="25">
         <v>2000</v>
       </c>
       <c r="D33" s="2">
@@ -2739,16 +2731,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" s="150"/>
-      <c r="C34" s="26">
+        <v>193</v>
+      </c>
+      <c r="B34" s="145"/>
+      <c r="C34" s="25">
         <v>2000</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f>C34*D34</f>
         <v>6000</v>
       </c>
@@ -2756,10 +2748,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35" s="150"/>
-      <c r="C35" s="26">
+        <v>198</v>
+      </c>
+      <c r="B35" s="145"/>
+      <c r="C35" s="25">
         <v>7500</v>
       </c>
       <c r="D35" s="2">
@@ -2773,12 +2765,12 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" s="143" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="25">
         <v>20000</v>
       </c>
       <c r="D36" s="2">
@@ -2791,13 +2783,13 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="172" t="s">
+      <c r="B37" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <v>500</v>
       </c>
       <c r="D37" s="2">
@@ -2815,7 +2807,7 @@
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="172"/>
+      <c r="B38" s="167"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -2826,21 +2818,21 @@
         <f>D38*C38</f>
         <v>1500</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="68">
         <f>Meghívottak!G24</f>
         <v>0</v>
       </c>
-      <c r="I38" s="72"/>
+      <c r="I38" s="71"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="173"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -2851,18 +2843,18 @@
         <f>D39*C39</f>
         <v>300</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H39" s="70">
+      <c r="H39" s="69">
         <f>Meghívottak!Q14</f>
         <v>0</v>
       </c>
-      <c r="I39" s="73"/>
+      <c r="I39" s="72"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2881,36 +2873,36 @@
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="12"/>
+      <c r="E41" s="11"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A42" s="147" t="s">
+      <c r="A42" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="148"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="149"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="144"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="167" t="s">
+      <c r="B43" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="17">
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="16">
         <v>50000</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="167"/>
+      <c r="B44" s="162"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -2918,10 +2910,10 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="167"/>
+      <c r="B45" s="162"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -2929,10 +2921,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="167"/>
+      <c r="B46" s="162"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -2940,10 +2932,10 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="167"/>
+      <c r="B47" s="162"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -2951,10 +2943,10 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="167"/>
+      <c r="B48" s="162"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -2962,79 +2954,79 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="167"/>
+      <c r="B49" s="162"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <v>123000</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="167"/>
+      <c r="B50" s="162"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3">
         <v>30000</v>
       </c>
-      <c r="F50" s="55" t="s">
+      <c r="F50" s="54" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="167"/>
+      <c r="B51" s="162"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3">
         <v>190000</v>
       </c>
-      <c r="F51" s="55" t="s">
+      <c r="F51" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="165">
+      <c r="H51" s="160">
         <f>$E$53/2+E50+E51</f>
         <v>695950</v>
       </c>
-      <c r="I51" s="166"/>
+      <c r="I51" s="161"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="167"/>
+      <c r="B52" s="162"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="27">
+      <c r="E52" s="26">
         <v>250000</v>
       </c>
-      <c r="F52" s="55" t="s">
+      <c r="F52" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="165">
+      <c r="H52" s="160">
         <f>$E$53/2+E52</f>
         <v>725950</v>
       </c>
-      <c r="I52" s="166"/>
+      <c r="I52" s="161"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="168"/>
+      <c r="B53" s="163"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="4">
@@ -3044,68 +3036,68 @@
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="55" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A55" s="147" t="s">
+      <c r="A55" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="148"/>
-      <c r="C55" s="148"/>
-      <c r="D55" s="148"/>
-      <c r="E55" s="149"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="144"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C56" s="35">
         <v>1200</v>
       </c>
-      <c r="D56" s="34">
+      <c r="D56" s="33">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="35">
         <f>C56*D56</f>
         <v>93600</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="35">
         <v>1550</v>
       </c>
-      <c r="D57" s="34">
+      <c r="D57" s="33">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="E57" s="36">
+      <c r="E57" s="35">
         <f>C57*D57</f>
         <v>120900</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G57" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H57" s="5">
         <f>$H$2</f>
         <v>41</v>
       </c>
-      <c r="I57" s="54">
+      <c r="I57" s="53">
         <f>$E$58/2+($H$57*$C$56)+($H$57*$C$57)</f>
         <v>222750</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="2"/>
@@ -3113,27 +3105,27 @@
       <c r="E58" s="3">
         <v>220000</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="17" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="5">
         <f>$H$3</f>
         <v>37</v>
       </c>
-      <c r="I58" s="54">
+      <c r="I58" s="53">
         <f>$E$58/2+($H$58*$C$56)+($H$58*$C$57)</f>
         <v>211750</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
       <c r="E59" s="4">
         <f>SUM(E56:E58)</f>
         <v>434500</v>
@@ -3147,34 +3139,34 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A61" s="147" t="s">
+      <c r="A61" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="148"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="149"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="144"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="180" t="s">
+      <c r="B62" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="132">
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="131">
         <v>53970</v>
       </c>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H62" s="5">
         <f>$H$2</f>
         <v>41</v>
       </c>
-      <c r="I62" s="54">
+      <c r="I62" s="53">
         <f>SUM(E62:E63)/2</f>
         <v>144535</v>
       </c>
@@ -3183,178 +3175,178 @@
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="172"/>
+      <c r="B63" s="167"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="88">
+      <c r="E63" s="87">
         <v>235100</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="17" t="s">
         <v>2</v>
       </c>
       <c r="H63" s="5">
         <f>$H$3</f>
         <v>37</v>
       </c>
-      <c r="I63" s="54">
+      <c r="I63" s="53">
         <f>SUM(E62:E63)/2</f>
         <v>144535</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="172"/>
+      <c r="B64" s="167"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="27"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="75"/>
+      <c r="E64" s="26"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="74"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="172"/>
+      <c r="B65" s="167"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="88">
+      <c r="E65" s="87">
         <v>24900</v>
       </c>
-      <c r="G65" s="23"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="75"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="74"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="172"/>
+      <c r="B66" s="167"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="88">
+      <c r="E66" s="87">
         <v>41910</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="75"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="74"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="172"/>
+      <c r="B67" s="167"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="27"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="75"/>
+      <c r="E67" s="26"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="74"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="172"/>
+      <c r="B68" s="167"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="27"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="75"/>
+      <c r="E68" s="26"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="74"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="172"/>
+      <c r="B69" s="167"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="88">
+      <c r="E69" s="87">
         <v>80000</v>
       </c>
-      <c r="G69" s="23"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="75"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="74"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="172"/>
+      <c r="B70" s="167"/>
       <c r="C70" s="2">
         <v>59</v>
       </c>
       <c r="D70" s="2">
         <v>50</v>
       </c>
-      <c r="E70" s="88">
+      <c r="E70" s="87">
         <f>C70*D70</f>
         <v>2950</v>
       </c>
-      <c r="G70" s="23"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="75"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="74"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B71" s="172"/>
+      <c r="A71" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="167"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B72" s="172"/>
+      <c r="A72" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" s="167"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="88">
+      <c r="E72" s="87">
         <f>23198+4890</f>
         <v>28088</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B73" s="172"/>
+      <c r="A73" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" s="167"/>
       <c r="C73" s="2">
         <v>450</v>
       </c>
       <c r="D73" s="2">
         <v>6</v>
       </c>
-      <c r="E73" s="88">
+      <c r="E73" s="87">
         <f>C73*D73</f>
         <v>2700</v>
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B74" s="172"/>
+      <c r="A74" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="167"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="88">
+      <c r="E74" s="87">
         <f>2405+(278*3)</f>
         <v>3239</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B75" s="173"/>
+      <c r="A75" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="168"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="26">
+      <c r="E75" s="25">
         <f>950+490</f>
         <v>1440</v>
       </c>
@@ -3367,43 +3359,43 @@
       <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="32">
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="31">
         <f>E14+E20+E40+E53+E59</f>
         <v>3892335.5</v>
       </c>
-      <c r="G77" s="177" t="s">
+      <c r="G77" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="H77" s="178"/>
-      <c r="I77" s="179"/>
+      <c r="H77" s="173"/>
+      <c r="I77" s="174"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="G78" s="56" t="s">
+      <c r="G78" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H78" s="165">
+      <c r="H78" s="160">
         <f>$I$2+$H$18+$I$38+$I$57+$I$62+H51</f>
         <v>2154242.121794872</v>
       </c>
-      <c r="I78" s="174"/>
+      <c r="I78" s="169"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" thickBot="1">
-      <c r="G79" s="57" t="s">
+      <c r="G79" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="175">
+      <c r="H79" s="170">
         <f>$I$3+$H$19+$I$39+$I$63+$I$58+$H$52</f>
         <v>2195263.378205128</v>
       </c>
-      <c r="I79" s="176"/>
+      <c r="I79" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -3447,8 +3439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3463,375 +3455,386 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="187"/>
-      <c r="B2" s="171" t="s">
+      <c r="A2" s="182"/>
+      <c r="B2" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="182" t="s">
+      <c r="C2" s="166"/>
+      <c r="D2" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="171" t="s">
+      <c r="E2" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="171"/>
-      <c r="G2" s="182" t="s">
+      <c r="F2" s="166"/>
+      <c r="G2" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="181" t="s">
+      <c r="H2" s="176" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="187"/>
+      <c r="A3" s="182"/>
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="183"/>
+      <c r="D3" s="178"/>
       <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="183"/>
-      <c r="H3" s="181"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="176"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="139">
+      <c r="B4" s="204">
         <v>100000</v>
       </c>
-      <c r="C4" s="139">
+      <c r="C4" s="204">
         <v>100000</v>
       </c>
-      <c r="D4" s="139">
+      <c r="D4" s="204">
         <f>SUM(B4:C4)</f>
         <v>200000</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="139">
+      <c r="B5" s="204">
         <v>5000</v>
       </c>
-      <c r="C5" s="139">
+      <c r="C5" s="204">
         <v>5000</v>
       </c>
-      <c r="D5" s="139">
+      <c r="D5" s="204">
         <f t="shared" ref="D5:D13" si="0">SUM(B5:C5)</f>
         <v>10000</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="139">
+      <c r="B6" s="204">
         <v>10000</v>
       </c>
-      <c r="C6" s="139">
+      <c r="C6" s="204">
         <v>10000</v>
       </c>
-      <c r="D6" s="139">
+      <c r="D6" s="204">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="139">
+      <c r="B7" s="204">
         <v>15000</v>
       </c>
-      <c r="C7" s="139">
+      <c r="C7" s="204">
         <v>15000</v>
       </c>
-      <c r="D7" s="139">
+      <c r="D7" s="204">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="139">
+      <c r="B8" s="204">
         <v>15000</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="139">
+      <c r="D8" s="204">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="139">
+      <c r="B9" s="204">
         <v>15000</v>
       </c>
-      <c r="C9" s="139">
+      <c r="C9" s="204">
         <v>15000</v>
       </c>
-      <c r="D9" s="139">
+      <c r="D9" s="204">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="139">
+      <c r="B10" s="204">
         <v>10000</v>
       </c>
-      <c r="C10" s="139">
+      <c r="C10" s="204">
         <v>10000</v>
       </c>
-      <c r="D10" s="139">
+      <c r="D10" s="204">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="139">
+      <c r="B11" s="204">
         <v>100000</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="139">
+      <c r="D11" s="204">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="139">
+      <c r="B12" s="204">
         <v>14150</v>
       </c>
-      <c r="C12" s="139">
+      <c r="C12" s="204">
         <v>14150</v>
       </c>
-      <c r="D12" s="139">
+      <c r="D12" s="204">
         <f t="shared" si="0"/>
         <v>28300</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="139">
+      <c r="B13" s="204">
         <v>15000</v>
       </c>
-      <c r="C13" s="139">
+      <c r="C13" s="204">
         <v>15000</v>
       </c>
-      <c r="D13" s="139">
+      <c r="D13" s="204">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="E13" s="139">
+      <c r="E13" s="204">
         <f>G13/2</f>
         <v>102550</v>
       </c>
-      <c r="F13" s="139">
+      <c r="F13" s="204">
         <f>G13/2</f>
         <v>102550</v>
       </c>
-      <c r="G13" s="139">
+      <c r="G13" s="204">
         <v>205100</v>
       </c>
-      <c r="H13" s="141">
+      <c r="H13" s="205">
         <f>D13+G13</f>
         <v>235100</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="188"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="139">
+      <c r="B14" s="206"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="204">
         <v>20193</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="188"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="139">
+      <c r="B15" s="206"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="204">
         <v>41910</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="188"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="139">
+      <c r="B16" s="206"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="204">
         <v>24900</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="142">
+      <c r="B17" s="209">
         <v>7500</v>
       </c>
-      <c r="C17" s="142">
+      <c r="C17" s="209">
         <v>7500</v>
       </c>
-      <c r="D17" s="142">
+      <c r="D17" s="209">
         <v>15000</v>
       </c>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="11"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="204"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10" t="s">
-        <v>191</v>
+      <c r="A18" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="11"/>
+      <c r="A19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="203">
+        <f>D19/2</f>
+        <v>68400</v>
+      </c>
+      <c r="C19" s="203">
+        <f>D19/2</f>
+        <v>68400</v>
+      </c>
+      <c r="D19" s="203">
+        <f>273600/2</f>
+        <v>136800</v>
+      </c>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="10">
+        <v>273600</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <f>SUM(B4:B13)</f>
         <v>299150</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <f>SUM(C4:C13)</f>
         <v>184150</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <f>SUM(B20:C20)</f>
         <v>483300</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="H20" s="21">
+      <c r="F20" s="12"/>
+      <c r="H20" s="20">
         <f>SUM(H4:H17)</f>
         <v>322103</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="38"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="F24" t="s">
-        <v>190</v>
-      </c>
-      <c r="G24" s="13">
-        <f>E13+H14/2+H15/2+D17/2</f>
-        <v>141101.5</v>
+      <c r="A24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="12">
+        <f>E13+H14/2+H15/2+D17/2-C19</f>
+        <v>72701.5</v>
       </c>
     </row>
   </sheetData>
@@ -3878,23 +3881,23 @@
       <c r="B1">
         <v>15</v>
       </c>
-      <c r="C1" s="39">
+      <c r="C1" s="38">
         <f>B1*H18</f>
         <v>85935</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3905,23 +3908,23 @@
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="38">
         <f>B2*I4</f>
         <v>59980</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="40">
         <v>0.7</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="41">
         <v>2698</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="42">
         <f>H2/G2</f>
         <v>3854.2857142857147</v>
       </c>
@@ -3933,43 +3936,43 @@
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <f>B3*I10</f>
         <v>28990</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="40">
         <v>0.7</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="41">
         <v>2698</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="42">
         <f t="shared" ref="I3:I24" si="0">H3/G3</f>
         <v>3854.2857142857147</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75">
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <f>SUM(C1:C3)</f>
         <v>174905</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="43">
         <v>0.5</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="44">
         <v>2999</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="45">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
@@ -3978,333 +3981,333 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="E5" s="41"/>
-      <c r="F5" s="41" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="40">
         <v>0.5</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="41">
         <v>2999</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="42">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="C6" s="47">
+      <c r="C6" s="46">
         <f>C4/93</f>
         <v>1880.6989247311828</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="40">
         <v>0.5</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="41">
         <v>2999</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="42">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="E7" s="41"/>
-      <c r="F7" s="41" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="40">
         <v>0.5</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="41">
         <v>2999</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="42">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
-      <c r="E8" s="41"/>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="40">
         <v>0.5</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="41">
         <v>2999</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="42">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="E9" s="41"/>
-      <c r="F9" s="41" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="40">
         <v>0.5</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="41">
         <v>2999</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="42">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75">
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="43">
         <v>0.5</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <v>2899</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="45">
         <f t="shared" si="0"/>
         <v>5798</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75">
-      <c r="E11" s="41"/>
-      <c r="F11" s="41" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="40">
         <v>0.7</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="41">
         <v>4332</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="42">
         <f t="shared" si="0"/>
         <v>6188.5714285714294</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75">
-      <c r="E12" s="41"/>
-      <c r="F12" s="41" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="41">
-        <v>1</v>
-      </c>
-      <c r="H12" s="42">
+      <c r="G12" s="40">
+        <v>1</v>
+      </c>
+      <c r="H12" s="41">
         <v>5719</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="42">
         <f t="shared" si="0"/>
         <v>5719</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75">
-      <c r="E13" s="41"/>
-      <c r="F13" s="41" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="40">
         <v>0.5</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="41">
         <v>3099</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="42">
         <f t="shared" si="0"/>
         <v>6198</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="E14" s="41"/>
-      <c r="F14" s="41" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="41">
-        <v>1</v>
-      </c>
-      <c r="H14" s="42">
+      <c r="G14" s="40">
+        <v>1</v>
+      </c>
+      <c r="H14" s="41">
         <v>5734</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="42">
         <f t="shared" si="0"/>
         <v>5734</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="40">
         <v>0.5</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="41">
         <v>1999</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="47">
         <f t="shared" si="0"/>
         <v>3998</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75">
-      <c r="E16" s="41"/>
-      <c r="F16" s="41" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="40">
         <v>0.7</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="41">
         <v>2999</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="42">
         <f t="shared" si="0"/>
         <v>4284.2857142857147</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="15.75">
-      <c r="E17" s="41"/>
-      <c r="F17" s="41" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="41">
-        <v>1</v>
-      </c>
-      <c r="H17" s="42">
+      <c r="G17" s="40">
+        <v>1</v>
+      </c>
+      <c r="H17" s="41">
         <v>4259</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="42">
         <f t="shared" si="0"/>
         <v>4259</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="16.5" thickBot="1">
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="49">
-        <v>1</v>
-      </c>
-      <c r="H18" s="50">
+      <c r="G18" s="48">
+        <v>1</v>
+      </c>
+      <c r="H18" s="49">
         <v>5729</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="50">
         <f t="shared" si="0"/>
         <v>5729</v>
       </c>
     </row>
     <row r="19" spans="5:9" ht="16.5" thickTop="1">
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="51">
         <v>0.5</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="52">
         <v>5526</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="52">
         <f t="shared" si="0"/>
         <v>11052</v>
       </c>
     </row>
     <row r="20" spans="5:9" ht="15.75">
-      <c r="E20" s="41"/>
-      <c r="F20" s="41" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="40">
         <v>0.5</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="42">
         <v>5479</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="42">
         <f t="shared" si="0"/>
         <v>10958</v>
       </c>
     </row>
     <row r="21" spans="5:9" ht="15.75">
-      <c r="E21" s="41"/>
-      <c r="F21" s="41" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="40">
         <v>0.5</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="42">
         <v>4580</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="42">
         <f t="shared" si="0"/>
         <v>9160</v>
       </c>
     </row>
     <row r="22" spans="5:9" ht="15.75">
-      <c r="E22" s="41"/>
-      <c r="F22" s="41" t="s">
+      <c r="E22" s="40"/>
+      <c r="F22" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="40">
         <v>0.5</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="42">
         <v>5999</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="42">
         <f t="shared" si="0"/>
         <v>11998</v>
       </c>
     </row>
     <row r="23" spans="5:9" ht="15.75">
-      <c r="E23" s="41"/>
-      <c r="F23" s="41" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="40">
         <v>0.5</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="42">
         <v>7075</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="42">
         <f t="shared" si="0"/>
         <v>14150</v>
       </c>
     </row>
     <row r="24" spans="5:9" ht="15.75">
-      <c r="E24" s="41"/>
-      <c r="F24" s="41" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="40">
         <v>0.5</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="42">
         <v>5500</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="42">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
@@ -4319,318 +4322,318 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="171" t="s">
+      <c r="B1" s="192"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="204" t="s">
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="196" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="205" t="s">
+      <c r="J1" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="206"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="157" t="s">
+      <c r="K1" s="198"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="193" t="s">
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="185" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="202"/>
-      <c r="B2" s="202"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="100" t="s">
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="204"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="100" t="s">
+      <c r="H2" s="196"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="100" t="s">
+      <c r="O2" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="P2" s="100" t="s">
+      <c r="P2" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" s="194"/>
+      <c r="Q2" s="186"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="63">
+      <c r="B3" s="65"/>
+      <c r="C3" s="62">
         <v>8</v>
       </c>
-      <c r="D3" s="129">
-        <v>1</v>
-      </c>
-      <c r="E3" s="102">
-        <v>1</v>
-      </c>
-      <c r="F3" s="102">
-        <v>1</v>
-      </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104">
-        <v>1</v>
-      </c>
-      <c r="J3" s="105" t="s">
+      <c r="D3" s="101">
+        <v>1</v>
+      </c>
+      <c r="E3" s="101">
+        <v>1</v>
+      </c>
+      <c r="F3" s="101">
+        <v>1</v>
+      </c>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103">
+        <v>1</v>
+      </c>
+      <c r="J3" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="106">
+      <c r="K3" s="58"/>
+      <c r="L3" s="105">
         <v>5</v>
       </c>
-      <c r="M3" s="195">
+      <c r="M3" s="187">
         <v>2</v>
       </c>
-      <c r="N3" s="107">
+      <c r="N3" s="106">
         <v>2</v>
       </c>
-      <c r="O3" s="107">
-        <v>1</v>
-      </c>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="104">
+      <c r="O3" s="106">
+        <v>1</v>
+      </c>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="103">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="63">
+      <c r="B4" s="65"/>
+      <c r="C4" s="62">
         <v>6</v>
       </c>
-      <c r="D4" s="129">
-        <v>1</v>
-      </c>
-      <c r="E4" s="129">
-        <v>1</v>
-      </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104">
+      <c r="D4" s="128">
+        <v>1</v>
+      </c>
+      <c r="E4" s="101">
+        <v>1</v>
+      </c>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="103">
         <v>0</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="106">
+      <c r="K4" s="61"/>
+      <c r="L4" s="105">
         <v>3</v>
       </c>
-      <c r="M4" s="196"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="104">
+      <c r="M4" s="188"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="111">
-        <v>1</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102">
-        <v>1</v>
-      </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="104">
-        <v>1</v>
-      </c>
-      <c r="J5" s="62" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="110">
+        <v>1</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101">
+        <v>1</v>
+      </c>
+      <c r="G5" s="102"/>
+      <c r="H5" s="103">
+        <v>1</v>
+      </c>
+      <c r="J5" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="106">
+      <c r="K5" s="61"/>
+      <c r="L5" s="105">
         <v>12</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="112">
+      <c r="M5" s="108"/>
+      <c r="N5" s="111">
         <v>6</v>
       </c>
-      <c r="O5" s="109"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="104">
+      <c r="O5" s="108"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="111">
+      <c r="C6" s="110">
         <v>2</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="102">
-        <v>1</v>
-      </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="104">
+      <c r="D6" s="57"/>
+      <c r="E6" s="101">
+        <v>1</v>
+      </c>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="103">
         <v>2</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="106">
+      <c r="K6" s="61"/>
+      <c r="L6" s="105">
         <v>4</v>
       </c>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109">
+      <c r="M6" s="108"/>
+      <c r="N6" s="108">
         <v>2</v>
       </c>
-      <c r="O6" s="109"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="104">
+      <c r="O6" s="108"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="103">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="111">
+      <c r="C7" s="110">
         <v>2</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="102">
-        <v>1</v>
-      </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104">
+      <c r="D7" s="57"/>
+      <c r="E7" s="101">
+        <v>1</v>
+      </c>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103">
         <v>2</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="62"/>
-      <c r="L7" s="106">
+      <c r="K7" s="61"/>
+      <c r="L7" s="105">
         <v>6</v>
       </c>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109">
+      <c r="M7" s="108"/>
+      <c r="N7" s="108">
         <v>3</v>
       </c>
-      <c r="O7" s="109"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="104">
+      <c r="O7" s="108"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63">
+      <c r="B8" s="62"/>
+      <c r="C8" s="62">
         <v>2</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="102">
-        <v>1</v>
-      </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="104">
+      <c r="D8" s="57"/>
+      <c r="E8" s="101">
+        <v>1</v>
+      </c>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="103">
         <v>2</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="62"/>
-      <c r="L8" s="106">
+      <c r="K8" s="61"/>
+      <c r="L8" s="105">
         <v>2</v>
       </c>
-      <c r="M8" s="109"/>
-      <c r="N8" s="112">
-        <v>1</v>
-      </c>
-      <c r="O8" s="109"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="104">
+      <c r="M8" s="108"/>
+      <c r="N8" s="111">
+        <v>1</v>
+      </c>
+      <c r="O8" s="108"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="63">
-        <v>1</v>
-      </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102">
-        <v>1</v>
-      </c>
-      <c r="G9" s="103"/>
-      <c r="H9" s="104">
-        <v>1</v>
-      </c>
-      <c r="J9" s="62" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="62">
+        <v>1</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101">
+        <v>1</v>
+      </c>
+      <c r="G9" s="102"/>
+      <c r="H9" s="103">
+        <v>1</v>
+      </c>
+      <c r="J9" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="K9" s="62"/>
-      <c r="L9" s="106">
-        <v>1</v>
-      </c>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="112">
-        <v>1</v>
-      </c>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="104">
+      <c r="K9" s="61"/>
+      <c r="L9" s="105">
+        <v>1</v>
+      </c>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="111">
+        <v>1</v>
+      </c>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="103">
         <v>1</v>
       </c>
       <c r="R9">
@@ -4639,93 +4642,93 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="63">
+      <c r="B10" s="65"/>
+      <c r="C10" s="62">
         <v>2</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="102">
-        <v>1</v>
-      </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104">
+      <c r="D10" s="57"/>
+      <c r="E10" s="101">
+        <v>1</v>
+      </c>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="103">
         <v>2</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="62"/>
-      <c r="L10" s="106">
+      <c r="K10" s="61"/>
+      <c r="L10" s="105">
         <v>4</v>
       </c>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109">
+      <c r="M10" s="108"/>
+      <c r="N10" s="108">
         <v>2</v>
       </c>
-      <c r="O10" s="109"/>
-      <c r="P10" s="110">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="104">
+      <c r="O10" s="108"/>
+      <c r="P10" s="109">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="63">
-        <v>1</v>
-      </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="114">
-        <v>1</v>
-      </c>
-      <c r="G11" s="103"/>
-      <c r="H11" s="104">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="115"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="62">
+        <v>1</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="113">
+        <v>1</v>
+      </c>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="114"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="63">
+      <c r="B12" s="65"/>
+      <c r="C12" s="62">
         <v>2</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="102">
-        <v>1</v>
-      </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104">
+      <c r="D12" s="57"/>
+      <c r="E12" s="101">
+        <v>1</v>
+      </c>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="111">
+      <c r="C13" s="110">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102">
-        <v>1</v>
-      </c>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104">
+      <c r="D13" s="57"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101">
+        <v>1</v>
+      </c>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103">
         <v>0</v>
       </c>
     </row>
@@ -4734,191 +4737,191 @@
         <v>137</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="111">
+      <c r="C14" s="110">
         <v>2</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="110">
-        <v>1</v>
-      </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="104">
+      <c r="D14" s="57"/>
+      <c r="E14" s="109">
+        <v>1</v>
+      </c>
+      <c r="F14" s="109"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="103">
         <v>2</v>
       </c>
-      <c r="Q14" s="115"/>
+      <c r="Q14" s="114"/>
     </row>
     <row r="15" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="111">
-        <v>1</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="109">
-        <v>1</v>
-      </c>
-      <c r="G15" s="116"/>
-      <c r="H15" s="104">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="115"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="110">
+        <v>1</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="108">
+        <v>1</v>
+      </c>
+      <c r="G15" s="115"/>
+      <c r="H15" s="103">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="114"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="111">
-        <v>1</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="109">
-        <v>1</v>
-      </c>
-      <c r="G16" s="116"/>
-      <c r="H16" s="104">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="115"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="110">
+        <v>1</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="108">
+        <v>1</v>
+      </c>
+      <c r="G16" s="115"/>
+      <c r="H16" s="103">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="114"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="110" t="s">
         <v>139</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="119">
+      <c r="C17" s="118">
         <v>2</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="109">
-        <v>1</v>
-      </c>
-      <c r="F17" s="110"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="104">
+      <c r="D17" s="119"/>
+      <c r="E17" s="108">
+        <v>1</v>
+      </c>
+      <c r="F17" s="109"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="110" t="s">
         <v>140</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="119">
+      <c r="C18" s="118">
         <v>2</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="110">
-        <v>1</v>
-      </c>
-      <c r="F18" s="110"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="104">
+      <c r="D18" s="119"/>
+      <c r="E18" s="109">
+        <v>1</v>
+      </c>
+      <c r="F18" s="109"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="103">
         <v>2</v>
       </c>
-      <c r="Q18" s="115"/>
+      <c r="Q18" s="114"/>
     </row>
     <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="110" t="s">
         <v>141</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="119">
+      <c r="C19" s="118">
         <v>2</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="109">
-        <v>1</v>
-      </c>
-      <c r="F19" s="110"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="104">
+      <c r="D19" s="119"/>
+      <c r="E19" s="108">
+        <v>1</v>
+      </c>
+      <c r="F19" s="109"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="103">
         <v>2</v>
       </c>
-      <c r="Q19" s="115"/>
+      <c r="Q19" s="114"/>
     </row>
     <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="63">
+      <c r="B20" s="63"/>
+      <c r="C20" s="62">
         <v>4</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="112">
+      <c r="D20" s="57"/>
+      <c r="E20" s="111">
         <v>2</v>
       </c>
-      <c r="F20" s="109"/>
-      <c r="G20" s="121">
-        <v>1</v>
-      </c>
-      <c r="H20" s="104">
+      <c r="F20" s="108"/>
+      <c r="G20" s="120">
+        <v>1</v>
+      </c>
+      <c r="H20" s="103">
         <v>0</v>
       </c>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="130"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="129"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="199" t="s">
+      <c r="A22" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="199"/>
-      <c r="C22" s="68">
+      <c r="B22" s="191"/>
+      <c r="C22" s="67">
         <f>SUM(C3:C20)</f>
         <v>41</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="66">
         <f>SUM(D3:D20)</f>
         <v>2</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="66">
         <f>SUM(E3:E20)</f>
         <v>13</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="66">
         <f>SUM(F3:F20)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="66">
         <f>SUM(G5:G20)</f>
         <v>1</v>
       </c>
-      <c r="H22" s="122">
+      <c r="H22" s="121">
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="197" t="s">
+      <c r="J22" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="198"/>
-      <c r="L22" s="123">
+      <c r="K22" s="190"/>
+      <c r="L22" s="122">
         <f>SUM(L3:L10)</f>
         <v>37</v>
       </c>
-      <c r="M22" s="124">
+      <c r="M22" s="123">
         <f t="shared" ref="M22:Q22" si="0">SUM(M3:M10)</f>
         <v>2</v>
       </c>
-      <c r="N22" s="124">
+      <c r="N22" s="123">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="O22" s="124">
+      <c r="O22" s="123">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P22" s="125">
+      <c r="P22" s="124">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="122">
+      <c r="Q22" s="121">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -4932,18 +4935,18 @@
         <f>L22-3</f>
         <v>34</v>
       </c>
-      <c r="Q23" s="115"/>
+      <c r="Q23" s="114"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="126">
+      <c r="B26" s="125">
         <f>C22+L22</f>
         <v>78</v>
       </c>
-      <c r="C26" s="122">
+      <c r="C26" s="121">
         <f>H22+Q22</f>
         <v>38</v>
       </c>
@@ -4969,10 +4972,10 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="6"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
@@ -4996,10 +4999,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
@@ -5045,16 +5048,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="134" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5062,13 +5065,13 @@
       <c r="A2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="133" t="s">
         <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="136" t="s">
+      <c r="D2" s="135" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5118,7 +5121,7 @@
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="133" t="s">
         <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5129,7 +5132,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5143,10 +5146,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="136" t="s">
         <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -5157,7 +5160,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -5171,10 +5174,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="209" t="s">
+      <c r="A10" s="201" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="137" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -5185,8 +5188,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="210"/>
-      <c r="B11" s="138" t="s">
+      <c r="A11" s="202"/>
+      <c r="B11" s="137" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -5197,13 +5200,13 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>182</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -5211,7 +5214,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5247,104 +5250,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="149"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="144"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92">
         <v>220000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="93">
         <v>1200</v>
       </c>
-      <c r="D3" s="95">
+      <c r="D3" s="94">
         <v>75</v>
       </c>
-      <c r="E3" s="94">
+      <c r="E3" s="93">
         <f>C3*D3</f>
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="96">
+      <c r="C4" s="95">
         <v>1550</v>
       </c>
-      <c r="D4" s="96">
+      <c r="D4" s="95">
         <v>75</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E4" s="95">
         <f>C4*D4</f>
         <v>116250</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="96">
+      <c r="C5" s="95">
         <v>2400</v>
       </c>
-      <c r="D5" s="97">
+      <c r="D5" s="96">
         <v>75</v>
       </c>
-      <c r="E5" s="96">
+      <c r="E5" s="95">
         <f>C5*D5</f>
         <v>180000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="192"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="4">
         <f>SUM(E2:E4)</f>
         <v>426250</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="192"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="184"/>
       <c r="E7" s="4">
         <f>SUM(E2:E3)+E5</f>
         <v>490000</v>
@@ -5352,10 +5355,10 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="98">
         <f>E7-E6</f>
         <v>63750</v>
       </c>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -1601,23 +1601,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1657,54 +1711,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1726,6 +1732,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1785,21 +1800,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2100,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2119,21 +2119,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="144"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
       <c r="G1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="145">
+      <c r="H1" s="163">
         <f>H2+H3</f>
         <v>78</v>
       </c>
-      <c r="I1" s="145"/>
+      <c r="I1" s="163"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="13"/>
@@ -2381,8 +2381,8 @@
       <c r="B14" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="153"/>
-      <c r="D14" s="154"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="84">
         <f>SUM(E5:E13)</f>
         <v>1928135.5</v>
@@ -2395,8 +2395,8 @@
       <c r="B15" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="153"/>
-      <c r="D15" s="154"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="174"/>
       <c r="E15" s="77">
         <f>E14/H1</f>
         <v>24719.685897435898</v>
@@ -2412,24 +2412,24 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="144"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="153"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="149"/>
-      <c r="D18" s="150"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="170"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -2437,19 +2437,19 @@
       <c r="G18" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="160">
+      <c r="H18" s="144">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="I18" s="161"/>
+      <c r="I18" s="162"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="156"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="151"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="16">
         <f>640*310</f>
         <v>198400</v>
@@ -2457,19 +2457,19 @@
       <c r="G19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="158">
+      <c r="H19" s="178">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="I19" s="159"/>
+      <c r="I19" s="179"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="157"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="151"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="171"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2486,28 +2486,28 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="148"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="168"/>
       <c r="K22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="140">
+      <c r="L22" s="164">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="M22" s="141"/>
+      <c r="M22" s="165"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="163" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="2">
@@ -2524,17 +2524,17 @@
       <c r="K23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="140">
-        <v>1</v>
-      </c>
-      <c r="M23" s="141"/>
+      <c r="L23" s="164">
+        <v>1</v>
+      </c>
+      <c r="M23" s="165"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="145"/>
+      <c r="B24" s="163"/>
       <c r="C24" s="25">
         <v>12000</v>
       </c>
@@ -2548,17 +2548,17 @@
       <c r="K24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="140">
+      <c r="L24" s="164">
         <v>9</v>
       </c>
-      <c r="M24" s="141"/>
+      <c r="M24" s="165"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="145"/>
+      <c r="B25" s="163"/>
       <c r="C25" s="25">
         <v>18500</v>
       </c>
@@ -2572,15 +2572,15 @@
       <c r="K25" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="166"/>
-      <c r="M25" s="166"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="145"/>
+      <c r="B26" s="163"/>
       <c r="C26" s="25">
         <v>7500</v>
       </c>
@@ -2594,8 +2594,8 @@
       <c r="K26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="164"/>
-      <c r="M26" s="165"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="160"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
@@ -2618,7 +2618,7 @@
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="163" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="25">
@@ -2639,7 +2639,7 @@
       <c r="A29" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B29" s="145"/>
+      <c r="B29" s="163"/>
       <c r="C29" s="25">
         <v>5500</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="145"/>
+      <c r="B30" s="163"/>
       <c r="C30" s="25">
         <v>1850</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="A31" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B31" s="145"/>
+      <c r="B31" s="163"/>
       <c r="C31" s="25">
         <v>1850</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="A32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="145"/>
+      <c r="B32" s="163"/>
       <c r="C32" s="25">
         <v>1850</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="A33" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="145"/>
+      <c r="B33" s="163"/>
       <c r="C33" s="25">
         <v>2000</v>
       </c>
@@ -2733,7 +2733,7 @@
       <c r="A34" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="145"/>
+      <c r="B34" s="163"/>
       <c r="C34" s="25">
         <v>2000</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="A35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B35" s="145"/>
+      <c r="B35" s="163"/>
       <c r="C35" s="25">
         <v>7500</v>
       </c>
@@ -2786,7 +2786,7 @@
       <c r="A37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="167" t="s">
+      <c r="B37" s="155" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="13">
@@ -2807,7 +2807,7 @@
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="167"/>
+      <c r="B38" s="155"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="A39" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="168"/>
+      <c r="B39" s="156"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -2877,19 +2877,19 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A42" s="142" t="s">
+      <c r="A42" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="144"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="153"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="162" t="s">
+      <c r="B43" s="157" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="13"/>
@@ -2902,7 +2902,7 @@
       <c r="A44" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="162"/>
+      <c r="B44" s="157"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -2913,7 +2913,7 @@
       <c r="A45" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="162"/>
+      <c r="B45" s="157"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -2924,7 +2924,7 @@
       <c r="A46" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="162"/>
+      <c r="B46" s="157"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -2935,7 +2935,7 @@
       <c r="A47" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="162"/>
+      <c r="B47" s="157"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -2946,7 +2946,7 @@
       <c r="A48" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="162"/>
+      <c r="B48" s="157"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -2957,7 +2957,7 @@
       <c r="A49" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="162"/>
+      <c r="B49" s="157"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="87">
@@ -2968,7 +2968,7 @@
       <c r="A50" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="162"/>
+      <c r="B50" s="157"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3">
@@ -2982,7 +2982,7 @@
       <c r="A51" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="162"/>
+      <c r="B51" s="157"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3">
@@ -2994,17 +2994,17 @@
       <c r="G51" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="160">
+      <c r="H51" s="144">
         <f>$E$53/2+E50+E51</f>
         <v>695950</v>
       </c>
-      <c r="I51" s="161"/>
+      <c r="I51" s="162"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="162"/>
+      <c r="B52" s="157"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="26">
@@ -3016,17 +3016,17 @@
       <c r="G52" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="160">
+      <c r="H52" s="144">
         <f>$E$53/2+E52</f>
         <v>725950</v>
       </c>
-      <c r="I52" s="161"/>
+      <c r="I52" s="162"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="163"/>
+      <c r="B53" s="158"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="4">
@@ -3036,13 +3036,13 @@
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="55" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A55" s="142" t="s">
+      <c r="A55" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="143"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="144"/>
+      <c r="B55" s="152"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="152"/>
+      <c r="E55" s="153"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="33" t="s">
@@ -3139,19 +3139,19 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A61" s="142" t="s">
+      <c r="A61" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="144"/>
+      <c r="B61" s="152"/>
+      <c r="C61" s="152"/>
+      <c r="D61" s="152"/>
+      <c r="E61" s="153"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="175" t="s">
+      <c r="B62" s="154" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="13"/>
@@ -3175,7 +3175,7 @@
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="167"/>
+      <c r="B63" s="155"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="87">
@@ -3197,7 +3197,7 @@
       <c r="A64" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="167"/>
+      <c r="B64" s="155"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="26"/>
@@ -3209,7 +3209,7 @@
       <c r="A65" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="167"/>
+      <c r="B65" s="155"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="87">
@@ -3223,7 +3223,7 @@
       <c r="A66" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="167"/>
+      <c r="B66" s="155"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="87">
@@ -3237,7 +3237,7 @@
       <c r="A67" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="167"/>
+      <c r="B67" s="155"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="26"/>
@@ -3249,7 +3249,7 @@
       <c r="A68" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="167"/>
+      <c r="B68" s="155"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="26"/>
@@ -3261,7 +3261,7 @@
       <c r="A69" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="167"/>
+      <c r="B69" s="155"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="87">
@@ -3275,7 +3275,7 @@
       <c r="A70" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="167"/>
+      <c r="B70" s="155"/>
       <c r="C70" s="2">
         <v>59</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="A71" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B71" s="167"/>
+      <c r="B71" s="155"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="4"/>
@@ -3303,7 +3303,7 @@
       <c r="A72" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B72" s="167"/>
+      <c r="B72" s="155"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="87">
@@ -3315,7 +3315,7 @@
       <c r="A73" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B73" s="167"/>
+      <c r="B73" s="155"/>
       <c r="C73" s="2">
         <v>450</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="A74" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B74" s="167"/>
+      <c r="B74" s="155"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="87">
@@ -3343,7 +3343,7 @@
       <c r="A75" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B75" s="168"/>
+      <c r="B75" s="156"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="25">
@@ -3371,48 +3371,34 @@
         <f>E14+E20+E40+E53+E59</f>
         <v>3892335.5</v>
       </c>
-      <c r="G77" s="172" t="s">
+      <c r="G77" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="H77" s="173"/>
-      <c r="I77" s="174"/>
+      <c r="H77" s="149"/>
+      <c r="I77" s="150"/>
     </row>
     <row r="78" spans="1:9">
       <c r="G78" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H78" s="160">
+      <c r="H78" s="144">
         <f>$I$2+$H$18+$I$38+$I$57+$I$62+H51</f>
         <v>2154242.121794872</v>
       </c>
-      <c r="I78" s="169"/>
+      <c r="I78" s="145"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" thickBot="1">
       <c r="G79" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="170">
+      <c r="H79" s="146">
         <f>$I$3+$H$19+$I$39+$I$63+$I$58+$H$52</f>
         <v>2195263.378205128</v>
       </c>
-      <c r="I79" s="171"/>
+      <c r="I79" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="B62:B75"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B28:B35"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L24:M24"/>
@@ -3429,6 +3415,20 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="B62:B75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3439,8 +3439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3455,72 +3455,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="182"/>
-      <c r="B2" s="166" t="s">
+      <c r="A2" s="186"/>
+      <c r="B2" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="177" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="166" t="s">
+      <c r="E2" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="166"/>
-      <c r="G2" s="177" t="s">
+      <c r="F2" s="161"/>
+      <c r="G2" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="176" t="s">
+      <c r="H2" s="180" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="182"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="178"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="178"/>
-      <c r="H3" s="176"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="180"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="204">
+      <c r="B4" s="141">
         <v>100000</v>
       </c>
-      <c r="C4" s="204">
+      <c r="C4" s="141">
         <v>100000</v>
       </c>
-      <c r="D4" s="204">
+      <c r="D4" s="141">
         <f>SUM(B4:C4)</f>
         <v>200000</v>
       </c>
       <c r="E4" s="61"/>
-      <c r="F4" s="204"/>
+      <c r="F4" s="141"/>
       <c r="G4" s="61"/>
       <c r="H4" s="61"/>
     </row>
@@ -3528,18 +3528,18 @@
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="204">
+      <c r="B5" s="141">
         <v>5000</v>
       </c>
-      <c r="C5" s="204">
+      <c r="C5" s="141">
         <v>5000</v>
       </c>
-      <c r="D5" s="204">
+      <c r="D5" s="141">
         <f t="shared" ref="D5:D13" si="0">SUM(B5:C5)</f>
         <v>10000</v>
       </c>
       <c r="E5" s="61"/>
-      <c r="F5" s="204"/>
+      <c r="F5" s="141"/>
       <c r="G5" s="61"/>
       <c r="H5" s="61"/>
     </row>
@@ -3547,18 +3547,18 @@
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="204">
+      <c r="B6" s="141">
         <v>10000</v>
       </c>
-      <c r="C6" s="204">
+      <c r="C6" s="141">
         <v>10000</v>
       </c>
-      <c r="D6" s="204">
+      <c r="D6" s="141">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="E6" s="61"/>
-      <c r="F6" s="204"/>
+      <c r="F6" s="141"/>
       <c r="G6" s="61"/>
       <c r="H6" s="61"/>
     </row>
@@ -3566,18 +3566,18 @@
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="204">
+      <c r="B7" s="141">
         <v>15000</v>
       </c>
-      <c r="C7" s="204">
+      <c r="C7" s="141">
         <v>15000</v>
       </c>
-      <c r="D7" s="204">
+      <c r="D7" s="141">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
       <c r="E7" s="61"/>
-      <c r="F7" s="204"/>
+      <c r="F7" s="141"/>
       <c r="G7" s="61"/>
       <c r="H7" s="61"/>
     </row>
@@ -3585,13 +3585,13 @@
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="204">
+      <c r="B8" s="141">
         <v>15000</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="204">
+      <c r="D8" s="141">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
@@ -3604,18 +3604,18 @@
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="204">
+      <c r="B9" s="141">
         <v>15000</v>
       </c>
-      <c r="C9" s="204">
+      <c r="C9" s="141">
         <v>15000</v>
       </c>
-      <c r="D9" s="204">
+      <c r="D9" s="141">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
       <c r="E9" s="61"/>
-      <c r="F9" s="204"/>
+      <c r="F9" s="141"/>
       <c r="G9" s="61"/>
       <c r="H9" s="61"/>
     </row>
@@ -3623,18 +3623,18 @@
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="204">
+      <c r="B10" s="141">
         <v>10000</v>
       </c>
-      <c r="C10" s="204">
+      <c r="C10" s="141">
         <v>10000</v>
       </c>
-      <c r="D10" s="204">
+      <c r="D10" s="141">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="E10" s="61"/>
-      <c r="F10" s="204"/>
+      <c r="F10" s="141"/>
       <c r="G10" s="61"/>
       <c r="H10" s="61"/>
     </row>
@@ -3642,13 +3642,13 @@
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="204">
+      <c r="B11" s="141">
         <v>100000</v>
       </c>
       <c r="C11" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="204">
+      <c r="D11" s="141">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
@@ -3661,13 +3661,13 @@
       <c r="A12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="204">
+      <c r="B12" s="141">
         <v>14150</v>
       </c>
-      <c r="C12" s="204">
+      <c r="C12" s="141">
         <v>14150</v>
       </c>
-      <c r="D12" s="204">
+      <c r="D12" s="141">
         <f t="shared" si="0"/>
         <v>28300</v>
       </c>
@@ -3680,28 +3680,28 @@
       <c r="A13" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="204">
+      <c r="B13" s="141">
         <v>15000</v>
       </c>
-      <c r="C13" s="204">
+      <c r="C13" s="141">
         <v>15000</v>
       </c>
-      <c r="D13" s="204">
+      <c r="D13" s="141">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="E13" s="204">
+      <c r="E13" s="141">
         <f>G13/2</f>
         <v>102550</v>
       </c>
-      <c r="F13" s="204">
+      <c r="F13" s="141">
         <f>G13/2</f>
         <v>102550</v>
       </c>
-      <c r="G13" s="204">
+      <c r="G13" s="141">
         <v>205100</v>
       </c>
-      <c r="H13" s="205">
+      <c r="H13" s="142">
         <f>D13+G13</f>
         <v>235100</v>
       </c>
@@ -3710,13 +3710,13 @@
       <c r="A14" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="206"/>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="204">
+      <c r="B14" s="187"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="141">
         <v>20193</v>
       </c>
     </row>
@@ -3724,13 +3724,13 @@
       <c r="A15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="206"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="204">
+      <c r="B15" s="187"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="141">
         <v>41910</v>
       </c>
     </row>
@@ -3738,13 +3738,13 @@
       <c r="A16" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="206"/>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="204">
+      <c r="B16" s="187"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="141">
         <v>24900</v>
       </c>
     </row>
@@ -3752,19 +3752,19 @@
       <c r="A17" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="209">
+      <c r="B17" s="143">
         <v>7500</v>
       </c>
-      <c r="C17" s="209">
+      <c r="C17" s="143">
         <v>7500</v>
       </c>
-      <c r="D17" s="209">
+      <c r="D17" s="143">
         <v>15000</v>
       </c>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="209"/>
-      <c r="H17" s="204"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="141"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="9" t="s">
@@ -3782,17 +3782,16 @@
       <c r="A19" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B19" s="203">
+      <c r="B19" s="140">
         <f>D19/2</f>
-        <v>68400</v>
-      </c>
-      <c r="C19" s="203">
+        <v>70000</v>
+      </c>
+      <c r="C19" s="140">
         <f>D19/2</f>
-        <v>68400</v>
-      </c>
-      <c r="D19" s="203">
-        <f>273600/2</f>
-        <v>136800</v>
+        <v>70000</v>
+      </c>
+      <c r="D19" s="140">
+        <v>140000</v>
       </c>
       <c r="E19" s="132"/>
       <c r="F19" s="132"/>
@@ -3824,8 +3823,8 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="181"/>
-      <c r="C21" s="181"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="185"/>
       <c r="D21" s="37"/>
     </row>
     <row r="24" spans="1:8">
@@ -3834,7 +3833,7 @@
       </c>
       <c r="B24" s="12">
         <f>E13+H14/2+H15/2+D17/2-C19</f>
-        <v>72701.5</v>
+        <v>71101.5</v>
       </c>
     </row>
   </sheetData>
@@ -4328,39 +4327,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="166" t="s">
+      <c r="B1" s="199"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="196" t="s">
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="203" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="197" t="s">
+      <c r="J1" s="204" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="198"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="152" t="s">
+      <c r="K1" s="205"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="172" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="185" t="s">
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="192" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="194"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="195"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="202"/>
       <c r="D2" s="99" t="s">
         <v>96</v>
       </c>
@@ -4373,10 +4372,10 @@
       <c r="G2" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="196"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="195"/>
+      <c r="H2" s="203"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="202"/>
       <c r="M2" s="99" t="s">
         <v>96</v>
       </c>
@@ -4389,7 +4388,7 @@
       <c r="P2" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" s="186"/>
+      <c r="Q2" s="193"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="64" t="s">
@@ -4419,7 +4418,7 @@
       <c r="L3" s="105">
         <v>5</v>
       </c>
-      <c r="M3" s="187">
+      <c r="M3" s="194">
         <v>2</v>
       </c>
       <c r="N3" s="106">
@@ -4459,7 +4458,7 @@
       <c r="L4" s="105">
         <v>3</v>
       </c>
-      <c r="M4" s="188"/>
+      <c r="M4" s="195"/>
       <c r="N4" s="108"/>
       <c r="O4" s="108"/>
       <c r="P4" s="109"/>
@@ -4869,10 +4868,10 @@
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="191" t="s">
+      <c r="A22" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="191"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="67">
         <f>SUM(C3:C20)</f>
         <v>41</v>
@@ -4897,10 +4896,10 @@
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="189" t="s">
+      <c r="J22" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="190"/>
+      <c r="K22" s="197"/>
       <c r="L22" s="122">
         <f>SUM(L3:L10)</f>
         <v>37</v>
@@ -5036,7 +5035,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5174,7 +5173,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="201" t="s">
+      <c r="A10" s="208" t="s">
         <v>179</v>
       </c>
       <c r="B10" s="137" t="s">
@@ -5188,7 +5187,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="202"/>
+      <c r="A11" s="209"/>
       <c r="B11" s="137" t="s">
         <v>81</v>
       </c>
@@ -5250,13 +5249,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="144"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -5332,8 +5331,8 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="184"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="191"/>
       <c r="E6" s="4">
         <f>SUM(E2:E4)</f>
         <v>426250</v>
@@ -5346,8 +5345,8 @@
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="184"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="191"/>
       <c r="E7" s="4">
         <f>SUM(E2:E3)+E5</f>
         <v>490000</v>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760"/>
+    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
-    <sheet name="TÉNYLEGES" sheetId="2" r:id="rId2"/>
+    <sheet name="TÉNYLEGES" sheetId="7" r:id="rId2"/>
     <sheet name="Kieg. - Ital" sheetId="3" r:id="rId3"/>
     <sheet name="Meghívottak" sheetId="4" r:id="rId4"/>
     <sheet name="Kontaktok" sheetId="6" r:id="rId5"/>
-    <sheet name="Hajó_kalkula" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="213">
   <si>
     <t>TOTAL</t>
   </si>
@@ -45,9 +44,6 @@
     <t>Összesen:</t>
   </si>
   <si>
-    <t>Összesen (Ft):</t>
-  </si>
-  <si>
     <t>Szolgáltatók:</t>
   </si>
   <si>
@@ -75,45 +71,21 @@
     <t>Szervízdíj (étel-és italfelszolgálás után)</t>
   </si>
   <si>
-    <t>Margitsziget Grand Hotel előleg</t>
-  </si>
-  <si>
     <t>Valentin</t>
   </si>
   <si>
     <t>Krisztina</t>
   </si>
   <si>
-    <t>Anyakönyvezető (kihelyezett) előleg</t>
-  </si>
-  <si>
-    <t>Randevú Zenekar előleg</t>
-  </si>
-  <si>
-    <t>Vőfély előleg</t>
-  </si>
-  <si>
     <t>Vőfély</t>
   </si>
   <si>
-    <t>Menyecskeruha előleg</t>
-  </si>
-  <si>
-    <t>Fotós előleg</t>
-  </si>
-  <si>
-    <t>Videós előleg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bérlés </t>
   </si>
   <si>
     <t>Menyasszonyi ruha</t>
   </si>
   <si>
-    <t>Menyasszonyi ruha foglaló</t>
-  </si>
-  <si>
     <t>Menyecske ruha</t>
   </si>
   <si>
@@ -126,15 +98,9 @@
     <t>Busz bérlés</t>
   </si>
   <si>
-    <t>Költség</t>
-  </si>
-  <si>
     <t>ELŐLEG</t>
   </si>
   <si>
-    <t>FENNMARADÓ ÖSSZEG</t>
-  </si>
-  <si>
     <t>TÉTEL</t>
   </si>
   <si>
@@ -201,9 +167,6 @@
     <t>Egyéb:</t>
   </si>
   <si>
-    <t>Sütemény</t>
-  </si>
-  <si>
     <t>Gyűrű</t>
   </si>
   <si>
@@ -369,9 +332,6 @@
     <t>Meghívó szerkesztés</t>
   </si>
   <si>
-    <t>Smink, fodrász</t>
-  </si>
-  <si>
     <t>Anyakönyvezető</t>
   </si>
   <si>
@@ -396,74 +356,6 @@
     <t>50%-os</t>
   </si>
   <si>
-    <t>Gyűrű előleg</t>
-  </si>
-  <si>
-    <t>Ital (1 db welcome pezsgő + 2 ital/fő)</t>
-  </si>
-  <si>
-    <r>
-      <t>Étel (kanapé szendvics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 3 db/fő</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - sajtos, sonkás, szalámis)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Étel (kanapé szendvics </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">5 db/fő </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- sajtos, sonkás, szalámis, húsos, lazacos)</t>
-    </r>
-  </si>
-  <si>
-    <t>Diff.:</t>
-  </si>
-  <si>
-    <t>Bérlés + kikötési díj</t>
-  </si>
-  <si>
     <t>Busz parkolási díj</t>
   </si>
   <si>
@@ -509,9 +401,6 @@
     <t>Kriszti cipő</t>
   </si>
   <si>
-    <t>Anyakönyvezető (hivatalos)</t>
-  </si>
-  <si>
     <t>Kísérő zenekar</t>
   </si>
   <si>
@@ -671,9 +560,6 @@
     <t>Szállítási, rakodási, bontási költség</t>
   </si>
   <si>
-    <t>Dekor előleg</t>
-  </si>
-  <si>
     <t>Hajtű, kontytű</t>
   </si>
   <si>
@@ -683,20 +569,108 @@
     <t>Torta szalag</t>
   </si>
   <si>
-    <t>Kriszti fizeti Valentinnek:</t>
+    <t xml:space="preserve">Gyűrű </t>
+  </si>
+  <si>
+    <t>Anyakönyvezető (hiv)</t>
+  </si>
+  <si>
+    <t>Menyasszonyi cipő</t>
+  </si>
+  <si>
+    <t>Menyasszonyi fehérnemű</t>
+  </si>
+  <si>
+    <t>Tortaszalag</t>
+  </si>
+  <si>
+    <t>Koszorúslányoknak szirmok</t>
+  </si>
+  <si>
+    <t>Koszorúslányoknak kosár</t>
+  </si>
+  <si>
+    <t>Vőlegény öltöny</t>
+  </si>
+  <si>
+    <t>KÖLTSÉG</t>
+  </si>
+  <si>
+    <t>FENNMARADÓ</t>
+  </si>
+  <si>
+    <t>Menyasszonyi ruha (hiv)</t>
+  </si>
+  <si>
+    <t>Koszorúslányoknak kosárka</t>
+  </si>
+  <si>
+    <t>Vőlegénynek piros menyecske nyakkendő</t>
+  </si>
+  <si>
+    <t>Kék combfix</t>
+  </si>
+  <si>
+    <t>Menyecskeruha</t>
+  </si>
+  <si>
+    <t>augusztus 17-ei méretre szabás és elvitel</t>
+  </si>
+  <si>
+    <t>augusztus 18-ai elvitel, 21-én visszavinni 100.000.- kaució visszajár</t>
+  </si>
+  <si>
+    <t>Egyszeri kifizetések</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teljesítés utáni kifizetések </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Hotel </t>
+  </si>
+  <si>
+    <t>Grand Hotel szállás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyakönyvezető (kihely) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randevú Zenekar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vőfély </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fotós </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Videós </t>
+  </si>
+  <si>
+    <t>Étterembe sütemény</t>
+  </si>
+  <si>
+    <t>Buszra sütemény</t>
+  </si>
+  <si>
+    <t>Fodrász (smink ár nélkül)</t>
+  </si>
+  <si>
+    <t>Fodrász (smink nélkül)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _F_t_-;\-* #,##0\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ [$Ft-40E]_-;\-* #,##0\ [$Ft-40E]_-;_-* &quot;-&quot;??\ [$Ft-40E]_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="[&lt;=999999999]\(##\)\ ###\-##\-##;[&lt;=6999999999]0#\ \(##\)###\-##\-##;#\ \(##\)\ ###\-##\-##"/>
+    <numFmt numFmtId="173" formatCode="[$-40E]mmmm\ d\.;@"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -793,15 +767,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -842,8 +807,18 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -874,8 +849,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1366,17 +1347,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1389,9 +1441,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1400,8 +1450,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1427,9 +1475,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1503,35 +1548,6 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1540,7 +1556,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1553,7 +1569,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1562,25 +1578,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1603,29 +1613,16 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,41 +1634,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1711,6 +1675,51 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1720,37 +1729,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1801,6 +1792,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -2098,10 +2186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2119,285 +2207,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="151" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="153"/>
-      <c r="G1" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="163">
+      <c r="A1" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130"/>
+      <c r="G1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="131">
         <f>H2+H3</f>
         <v>78</v>
       </c>
-      <c r="I1" s="163"/>
+      <c r="I1" s="131"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="5">
         <f>Meghívottak!C22</f>
         <v>41</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="48">
         <f>H2*E15</f>
         <v>1013507.1217948719</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="77">
+      <c r="A3" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="72">
         <v>2000</v>
       </c>
-      <c r="D3" s="78">
+      <c r="D3" s="73">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="72">
         <f>C3*D3</f>
         <v>156000</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="5">
         <f>Meghívottak!L22</f>
         <v>37</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="48">
         <f>H3*E15</f>
         <v>914628.37820512825</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="72">
         <v>12000</v>
       </c>
-      <c r="D4" s="78">
+      <c r="D4" s="73">
         <v>1</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="72">
         <f>C4*D4</f>
         <v>12000</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="77">
+      <c r="A5" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="72">
         <v>7800</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="73">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="72">
         <f>C5*D5</f>
         <v>608400</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="77">
+      <c r="A6" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="72">
         <v>3900</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="73">
         <v>2</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="72">
         <f>C6*D6</f>
         <v>7800</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="77">
+      <c r="B7" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="72">
         <v>2900</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="76">
         <v>37</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="72">
         <f>C7*D7</f>
         <v>107300</v>
       </c>
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="81">
+      <c r="A8" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="76">
         <f>E8/D8</f>
         <v>1205.1282051282051</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="73">
         <f>$H$1</f>
         <v>78</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="72">
         <v>94000</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="77">
+      <c r="A9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="72">
         <v>7800</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="73">
         <f>$H$1</f>
         <v>78</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="72">
         <f t="shared" ref="E9:E10" si="0">C9*D9</f>
         <v>608400</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="77">
+      <c r="B10" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="72">
         <v>1500</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="73">
         <f>$H$1</f>
         <v>78</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="72">
         <f t="shared" si="0"/>
         <v>117000</v>
       </c>
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="81">
+      <c r="B11" s="71"/>
+      <c r="C11" s="76">
         <f>'Kieg. - Ital'!C4/TERVEZETT!H1</f>
         <v>2242.3717948717949</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="73">
         <f>$H$1</f>
         <v>78</v>
       </c>
-      <c r="E11" s="127">
+      <c r="E11" s="111">
         <f>C11*D11</f>
         <v>174905</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="77">
+      <c r="A12" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="72">
         <f>(E3+E5+E6+E7+E8+E9+E13+E11)*0.1</f>
         <v>178830.5</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="78">
+      <c r="A13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="73">
         <v>3500</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="73">
         <v>9</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="72">
         <f>C13*D13</f>
         <v>31500</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="84">
+      <c r="C14" s="139"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="79">
         <f>SUM(E5:E13)</f>
         <v>1928135.5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="77">
+      <c r="B15" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="139"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="72">
         <f>E14/H1</f>
         <v>24719.685897435898</v>
       </c>
@@ -2408,68 +2496,68 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="10"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A17" s="151" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="152"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="153"/>
+      <c r="A17" s="128" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="175" t="s">
+      <c r="A18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="169"/>
-      <c r="D18" s="170"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="136"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="144">
+      <c r="H18" s="146">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="I18" s="162"/>
+      <c r="I18" s="147"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="176"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="16">
+      <c r="A19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="142"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="14">
         <f>640*310</f>
         <v>198400</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="178">
+      <c r="H19" s="144">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="I19" s="179"/>
+      <c r="I19" s="145"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="177"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="171"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="137"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2477,38 +2565,38 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="7"/>
       <c r="J21" s="1"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="166" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="167"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="168"/>
+      <c r="A22" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
       <c r="K22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" s="164">
+        <v>37</v>
+      </c>
+      <c r="L22" s="126">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="M22" s="165"/>
+      <c r="M22" s="127"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="163" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="131" t="s">
+        <v>36</v>
       </c>
       <c r="C23" s="2">
         <v>450</v>
@@ -2522,20 +2610,20 @@
         <v>37350</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="164">
+        <v>38</v>
+      </c>
+      <c r="L23" s="126">
         <v>1</v>
       </c>
-      <c r="M23" s="165"/>
+      <c r="M23" s="127"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="163"/>
-      <c r="C24" s="25">
+        <v>174</v>
+      </c>
+      <c r="B24" s="131"/>
+      <c r="C24" s="21">
         <v>12000</v>
       </c>
       <c r="D24" s="2">
@@ -2546,20 +2634,20 @@
         <v>108000</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="164">
+        <v>39</v>
+      </c>
+      <c r="L24" s="126">
         <v>9</v>
       </c>
-      <c r="M24" s="165"/>
+      <c r="M24" s="127"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="163"/>
-      <c r="C25" s="25">
+        <v>40</v>
+      </c>
+      <c r="B25" s="131"/>
+      <c r="C25" s="21">
         <v>18500</v>
       </c>
       <c r="D25" s="2">
@@ -2569,19 +2657,19 @@
         <f>C25*D25</f>
         <v>18500</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="163"/>
-      <c r="C26" s="25">
+        <v>41</v>
+      </c>
+      <c r="B26" s="131"/>
+      <c r="C26" s="21">
         <v>7500</v>
       </c>
       <c r="D26" s="2">
@@ -2591,37 +2679,37 @@
         <f>C26*D26</f>
         <v>7500</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="159"/>
-      <c r="M26" s="160"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="151"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="139" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="121" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="87">
+      <c r="E27" s="82">
         <v>20000</v>
       </c>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="163" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="25">
+        <v>43</v>
+      </c>
+      <c r="B28" s="131" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="21">
         <v>22500</v>
       </c>
       <c r="D28" s="2">
@@ -2631,16 +2719,16 @@
         <f t="shared" ref="E28:E36" si="1">C28*D28</f>
         <v>22500</v>
       </c>
-      <c r="F28" s="54" t="s">
-        <v>91</v>
+      <c r="F28" s="49" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="163"/>
-      <c r="C29" s="25">
+        <v>172</v>
+      </c>
+      <c r="B29" s="131"/>
+      <c r="C29" s="21">
         <v>5500</v>
       </c>
       <c r="D29" s="2">
@@ -2650,17 +2738,17 @@
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="F29" s="54" t="s">
-        <v>91</v>
+      <c r="F29" s="49" t="s">
+        <v>79</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="163"/>
-      <c r="C30" s="25">
+        <v>44</v>
+      </c>
+      <c r="B30" s="131"/>
+      <c r="C30" s="21">
         <v>1850</v>
       </c>
       <c r="D30" s="2">
@@ -2670,17 +2758,17 @@
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="F30" s="54" t="s">
-        <v>92</v>
+      <c r="F30" s="49" t="s">
+        <v>80</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="163"/>
-      <c r="C31" s="25">
+        <v>175</v>
+      </c>
+      <c r="B31" s="131"/>
+      <c r="C31" s="21">
         <v>1850</v>
       </c>
       <c r="D31" s="2">
@@ -2696,10 +2784,10 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32" s="163"/>
-      <c r="C32" s="25">
+        <v>177</v>
+      </c>
+      <c r="B32" s="131"/>
+      <c r="C32" s="21">
         <v>1850</v>
       </c>
       <c r="D32" s="2">
@@ -2714,10 +2802,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="163"/>
-      <c r="C33" s="25">
+        <v>176</v>
+      </c>
+      <c r="B33" s="131"/>
+      <c r="C33" s="21">
         <v>2000</v>
       </c>
       <c r="D33" s="2">
@@ -2731,16 +2819,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="163"/>
-      <c r="C34" s="25">
+        <v>173</v>
+      </c>
+      <c r="B34" s="131"/>
+      <c r="C34" s="21">
         <v>2000</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
       </c>
-      <c r="E34" s="87">
+      <c r="E34" s="82">
         <f>C34*D34</f>
         <v>6000</v>
       </c>
@@ -2748,10 +2836,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" s="163"/>
-      <c r="C35" s="25">
+        <v>178</v>
+      </c>
+      <c r="B35" s="131"/>
+      <c r="C35" s="21">
         <v>7500</v>
       </c>
       <c r="D35" s="2">
@@ -2765,12 +2853,12 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B36" s="138" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="21">
         <v>20000</v>
       </c>
       <c r="D36" s="2">
@@ -2783,13 +2871,13 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="155" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="13">
+      <c r="A37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="153" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="11">
         <v>500</v>
       </c>
       <c r="D37" s="2">
@@ -2805,9 +2893,9 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="155"/>
+        <v>103</v>
+      </c>
+      <c r="B38" s="153"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -2818,21 +2906,21 @@
         <f>D38*C38</f>
         <v>1500</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="68">
+      <c r="H38" s="63">
         <f>Meghívottak!G24</f>
         <v>0</v>
       </c>
-      <c r="I38" s="71"/>
+      <c r="I38" s="66"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="156"/>
+      <c r="A39" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="154"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -2843,18 +2931,18 @@
         <f>D39*C39</f>
         <v>300</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H39" s="69">
+      <c r="H39" s="64">
         <f>Meghívottak!Q14</f>
         <v>0</v>
       </c>
-      <c r="I39" s="72"/>
+      <c r="I39" s="67"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2873,47 +2961,47 @@
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="10"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A42" s="151" t="s">
+      <c r="A42" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="130"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="152"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="153"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="157" t="s">
+      <c r="B43" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="16">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="14">
         <v>50000</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="157"/>
+      <c r="A44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="148"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
-        <v>29000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="157"/>
+      <c r="A45" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="148"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -2921,10 +3009,10 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="157"/>
+      <c r="A46" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="148"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -2932,10 +3020,10 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="157"/>
+      <c r="A47" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="148"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -2943,10 +3031,10 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="157"/>
+      <c r="A48" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="148"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -2954,451 +3042,468 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="157"/>
+      <c r="A49" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="148"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="87">
+      <c r="E49" s="82">
         <v>123000</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="157"/>
+      <c r="A50" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="149"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="3">
-        <v>30000</v>
-      </c>
-      <c r="F50" s="54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="157"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="3">
-        <v>190000</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51" s="144">
-        <f>$E$53/2+E50+E51</f>
-        <v>695950</v>
-      </c>
-      <c r="I51" s="162"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="157"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="26">
-        <v>250000</v>
-      </c>
-      <c r="F52" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="144">
-        <f>$E$53/2+E52</f>
-        <v>725950</v>
-      </c>
-      <c r="I52" s="162"/>
+      <c r="E50" s="4">
+        <f>SUM(E43:E49)</f>
+        <v>949900</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A52" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="129"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="130"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="158"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="4">
-        <f>SUM(E43:E49)</f>
-        <v>951900</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A55" s="151" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="152"/>
-      <c r="C55" s="152"/>
-      <c r="D55" s="152"/>
-      <c r="E55" s="153"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="35">
+      <c r="A53" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="31">
         <v>1200</v>
       </c>
-      <c r="D56" s="33">
+      <c r="D53" s="29">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="E56" s="35">
-        <f>C56*D56</f>
+      <c r="E53" s="31">
+        <f>C53*D53</f>
         <v>93600</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="35">
+    <row r="54" spans="1:9">
+      <c r="A54" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="31">
         <v>1550</v>
       </c>
-      <c r="D57" s="33">
+      <c r="D54" s="29">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="E57" s="35">
-        <f>C57*D57</f>
+      <c r="E54" s="31">
+        <f>C54*D54</f>
         <v>120900</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G54" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H54" s="5">
         <f>$H$2</f>
         <v>41</v>
       </c>
-      <c r="I57" s="53">
-        <f>$E$58/2+($H$57*$C$56)+($H$57*$C$57)</f>
+      <c r="I54" s="48">
+        <f>$E$55/2+($H$54*$C$53)+($H$54*$C$54)</f>
         <v>222750</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="24" t="s">
+    <row r="55" spans="1:9">
+      <c r="A55" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="3">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3">
         <v>220000</v>
       </c>
-      <c r="G58" s="17" t="s">
+      <c r="G55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H55" s="5">
         <f>$H$3</f>
         <v>37</v>
       </c>
-      <c r="I58" s="53">
-        <f>$E$58/2+($H$58*$C$56)+($H$58*$C$57)</f>
+      <c r="I55" s="48">
+        <f>$E$55/2+($H$55*$C$53)+($H$55*$C$54)</f>
         <v>211750</v>
       </c>
     </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="4">
+        <f>SUM(E53:E55)</f>
+        <v>434500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A58" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="129"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="130"/>
+    </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="4">
-        <f>SUM(E56:E58)</f>
-        <v>434500</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A61" s="151" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="152"/>
-      <c r="C61" s="152"/>
-      <c r="D61" s="152"/>
-      <c r="E61" s="153"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="215"/>
+      <c r="E59" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="153"/>
+      <c r="C60" s="214"/>
+      <c r="D60" s="214"/>
+      <c r="E60" s="3">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="153"/>
+      <c r="C61" s="214"/>
+      <c r="D61" s="214"/>
+      <c r="E61" s="82">
+        <v>149970</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="154" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="131">
+      <c r="A62" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" s="153"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="210">
         <v>53970</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" s="15" t="s">
         <v>4</v>
       </c>
       <c r="H62" s="5">
         <f>$H$2</f>
         <v>41</v>
       </c>
-      <c r="I62" s="53">
-        <f>SUM(E62:E63)/2</f>
+      <c r="I62" s="48">
+        <f>SUM(E62:E64)/2</f>
         <v>144535</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="155"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="87">
-        <v>235100</v>
-      </c>
-      <c r="G63" s="17" t="s">
+      <c r="A63" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" s="153"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="210"/>
+      <c r="G63" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H63" s="5">
         <f>$H$3</f>
         <v>37</v>
       </c>
-      <c r="I63" s="53">
-        <f>SUM(E62:E63)/2</f>
+      <c r="I63" s="48">
+        <f>SUM(E62:E64)/2</f>
         <v>144535</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="155"/>
+      <c r="A64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="153"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="26"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="74"/>
+      <c r="E64" s="82">
+        <v>235100</v>
+      </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" s="155"/>
+      <c r="A65" s="187" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" s="153"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="87">
-        <v>24900</v>
-      </c>
-      <c r="G65" s="22"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="74"/>
+      <c r="E65" s="22">
+        <v>25000</v>
+      </c>
+      <c r="G65" s="18"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="69"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="155"/>
+        <v>126</v>
+      </c>
+      <c r="B66" s="153"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="87">
-        <v>41910</v>
-      </c>
-      <c r="G66" s="22"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="74"/>
+      <c r="E66" s="82">
+        <v>24900</v>
+      </c>
+      <c r="G66" s="18"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="69"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B67" s="155"/>
+        <v>184</v>
+      </c>
+      <c r="B67" s="153"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="26"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="74"/>
+      <c r="E67" s="82">
+        <v>41910</v>
+      </c>
+      <c r="G67" s="18"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="69"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="155"/>
+      <c r="A68" s="187" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="153"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="26"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="74"/>
+      <c r="E68" s="22"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="69"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B69" s="155"/>
+      <c r="A69" s="187" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="153"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="87">
-        <v>80000</v>
-      </c>
-      <c r="G69" s="22"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="74"/>
+      <c r="E69" s="22"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="69"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" s="155"/>
-      <c r="C70" s="2">
-        <v>59</v>
-      </c>
-      <c r="D70" s="2">
-        <v>50</v>
-      </c>
-      <c r="E70" s="87">
-        <f>C70*D70</f>
-        <v>2950</v>
-      </c>
-      <c r="G70" s="22"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="74"/>
+        <v>127</v>
+      </c>
+      <c r="B70" s="153"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="82">
+        <v>80000</v>
+      </c>
+      <c r="G70" s="18"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="69"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B71" s="155"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="B71" s="153"/>
+      <c r="C71" s="2">
+        <v>59</v>
+      </c>
+      <c r="D71" s="2">
+        <v>50</v>
+      </c>
+      <c r="E71" s="82">
+        <f>C71*D71</f>
+        <v>2950</v>
+      </c>
+      <c r="G71" s="18"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="69"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B72" s="155"/>
+        <v>170</v>
+      </c>
+      <c r="B72" s="153"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="87">
+      <c r="E72" s="21">
+        <v>6925</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="153"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="82">
         <f>23198+4890</f>
         <v>28088</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B73" s="155"/>
-      <c r="C73" s="2">
-        <v>450</v>
-      </c>
-      <c r="D73" s="2">
-        <v>6</v>
-      </c>
-      <c r="E73" s="87">
-        <f>C73*D73</f>
-        <v>2700</v>
-      </c>
-    </row>
     <row r="74" spans="1:9">
       <c r="A74" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B74" s="155"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="87">
+        <v>181</v>
+      </c>
+      <c r="B74" s="153"/>
+      <c r="C74" s="2">
+        <v>450</v>
+      </c>
+      <c r="D74" s="2">
+        <v>6</v>
+      </c>
+      <c r="E74" s="82">
+        <f>C74*D74</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" s="153"/>
+      <c r="C75" s="2">
+        <v>2392</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3</v>
+      </c>
+      <c r="E75" s="82">
+        <f>C75*D75</f>
+        <v>7176</v>
+      </c>
+      <c r="I75" s="190"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="153"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="82">
         <f>2405+(278*3)</f>
         <v>3239</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" s="156"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="25">
+    <row r="77" spans="1:9">
+      <c r="A77" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="154"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="21">
         <f>950+490</f>
         <v>1440</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A77" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" s="32" t="s">
+    <row r="78" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A79" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="31">
-        <f>E14+E20+E40+E53+E59</f>
-        <v>3892335.5</v>
-      </c>
-      <c r="G77" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="H77" s="149"/>
-      <c r="I77" s="150"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="G78" s="55" t="s">
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="27">
+        <f>E14+E20+E40+E50+E56</f>
+        <v>3890335.5</v>
+      </c>
+      <c r="G79" s="158" t="s">
+        <v>81</v>
+      </c>
+      <c r="H79" s="159"/>
+      <c r="I79" s="160"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="G80" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H78" s="144">
-        <f>$I$2+$H$18+$I$38+$I$57+$I$62+H51</f>
-        <v>2154242.121794872</v>
-      </c>
-      <c r="I78" s="145"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1">
-      <c r="G79" s="56" t="s">
+      <c r="H80" s="146" t="e">
+        <f>$I$2+$H$18+$I$38+$I$54+$I$62+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I80" s="155"/>
+    </row>
+    <row r="81" spans="7:9" ht="15.75" thickBot="1">
+      <c r="G81" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="146">
-        <f>$I$3+$H$19+$I$39+$I$63+$I$58+$H$52</f>
-        <v>2195263.378205128</v>
-      </c>
-      <c r="I79" s="147"/>
+      <c r="H81" s="156" t="e">
+        <f>$I$3+$H$19+$I$39+$I$63+$I$55+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I81" s="157"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="28">
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:B77"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B28:B35"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L24:M24"/>
@@ -3415,20 +3520,6 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="B62:B75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3437,421 +3528,1042 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="186" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="183" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
+      <c r="A1" s="164" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="166"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="186"/>
-      <c r="B2" s="161" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="181" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="161" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="161"/>
-      <c r="G2" s="181" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="180" t="s">
+      <c r="A2" s="164"/>
+      <c r="B2" s="152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="162" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="152" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="152"/>
+      <c r="G2" s="185" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="161" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="186"/>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="182"/>
-      <c r="H3" s="180"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="163"/>
+      <c r="E3" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="186"/>
+      <c r="H3" s="161"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="141">
-        <v>100000</v>
-      </c>
-      <c r="C4" s="141">
-        <v>100000</v>
-      </c>
-      <c r="D4" s="141">
-        <f>SUM(B4:C4)</f>
-        <v>200000</v>
-      </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="A4" s="194" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="141">
-        <v>5000</v>
-      </c>
-      <c r="C5" s="141">
-        <v>5000</v>
-      </c>
-      <c r="D5" s="141">
-        <f t="shared" ref="D5:D13" si="0">SUM(B5:C5)</f>
-        <v>10000</v>
-      </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="A5" s="213" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="219">
+        <v>14150</v>
+      </c>
+      <c r="C5" s="219">
+        <v>14150</v>
+      </c>
+      <c r="D5" s="219">
+        <f>SUM(B5:C5)</f>
+        <v>28300</v>
+      </c>
+      <c r="E5" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="189"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="220">
+        <f>D5</f>
+        <v>28300</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="141">
-        <v>10000</v>
-      </c>
-      <c r="C6" s="141">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="141">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
+      <c r="A6" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="219">
+        <f>235100/2</f>
+        <v>117550</v>
+      </c>
+      <c r="C6" s="219">
+        <f>235100/2</f>
+        <v>117550</v>
+      </c>
+      <c r="D6" s="219">
+        <f>SUM(B6:C6)</f>
+        <v>235100</v>
+      </c>
+      <c r="E6" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="189"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="220">
+        <f t="shared" ref="H6:H20" si="0">D6</f>
+        <v>235100</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="141">
-        <v>15000</v>
-      </c>
-      <c r="C7" s="141">
-        <v>15000</v>
-      </c>
-      <c r="D7" s="141">
+        <v>124</v>
+      </c>
+      <c r="B7" s="217">
+        <f>20193/2</f>
+        <v>10096.5</v>
+      </c>
+      <c r="C7" s="217">
+        <f>20193/2</f>
+        <v>10096.5</v>
+      </c>
+      <c r="D7" s="217">
+        <f>SUM(B7:C7)</f>
+        <v>20193</v>
+      </c>
+      <c r="E7" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="189"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="220">
         <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
+        <v>20193</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="141">
-        <v>15000</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="141">
+        <v>184</v>
+      </c>
+      <c r="B8" s="217">
+        <f>41910/2</f>
+        <v>20955</v>
+      </c>
+      <c r="C8" s="217">
+        <f>41910/2</f>
+        <v>20955</v>
+      </c>
+      <c r="D8" s="222">
+        <f>SUM(B8:C8)</f>
+        <v>41910</v>
+      </c>
+      <c r="E8" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="189"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="220">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
+        <v>41910</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="141">
-        <v>15000</v>
-      </c>
-      <c r="C9" s="141">
-        <v>15000</v>
-      </c>
-      <c r="D9" s="141">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
+      <c r="A9" s="195" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="217">
+        <f>6925/2</f>
+        <v>3462.5</v>
+      </c>
+      <c r="C9" s="217">
+        <f>6925/2</f>
+        <v>3462.5</v>
+      </c>
+      <c r="D9" s="222">
+        <f>SUM(B9:C9)</f>
+        <v>6925</v>
+      </c>
+      <c r="E9" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="189"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="220">
+        <f>D9</f>
+        <v>6925</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="141">
-        <v>10000</v>
-      </c>
-      <c r="C10" s="141">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="141">
+        <v>187</v>
+      </c>
+      <c r="B10" s="217">
+        <v>720</v>
+      </c>
+      <c r="C10" s="217">
+        <v>720</v>
+      </c>
+      <c r="D10" s="222">
+        <f>SUM(B10:C10)</f>
+        <v>1440</v>
+      </c>
+      <c r="E10" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="189"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="220">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="141">
-        <v>100000</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="141">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="205" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="217">
+        <v>2500</v>
+      </c>
+      <c r="C11" s="218">
+        <v>0</v>
+      </c>
+      <c r="D11" s="222">
+        <f>SUM(B11:C11)</f>
+        <v>2500</v>
+      </c>
+      <c r="E11" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="189"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="220">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
+        <v>2500</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="141">
-        <v>14150</v>
-      </c>
-      <c r="C12" s="141">
-        <v>14150</v>
-      </c>
-      <c r="D12" s="141">
+        <v>196</v>
+      </c>
+      <c r="B12" s="217">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="218">
+        <v>0</v>
+      </c>
+      <c r="D12" s="222">
+        <f>SUM(B12:C12)</f>
+        <v>1500</v>
+      </c>
+      <c r="E12" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="189"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="220">
         <f t="shared" si="0"/>
-        <v>28300</v>
-      </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
+        <v>1500</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="141">
-        <v>15000</v>
-      </c>
-      <c r="C13" s="141">
-        <v>15000</v>
-      </c>
-      <c r="D13" s="141">
+        <v>193</v>
+      </c>
+      <c r="B13" s="217">
+        <v>14995</v>
+      </c>
+      <c r="C13" s="218">
+        <v>0</v>
+      </c>
+      <c r="D13" s="222">
+        <f>SUM(B13:C13)</f>
+        <v>14995</v>
+      </c>
+      <c r="E13" s="196" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="197"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="220">
         <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="E13" s="141">
-        <f>G13/2</f>
-        <v>102550</v>
-      </c>
-      <c r="F13" s="141">
-        <f>G13/2</f>
-        <v>102550</v>
-      </c>
-      <c r="G13" s="141">
-        <v>205100</v>
-      </c>
-      <c r="H13" s="142">
-        <f>D13+G13</f>
-        <v>235100</v>
+        <v>14995</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="141">
-        <v>20193</v>
+        <v>185</v>
+      </c>
+      <c r="B14" s="217">
+        <v>24900</v>
+      </c>
+      <c r="C14" s="223">
+        <v>0</v>
+      </c>
+      <c r="D14" s="222">
+        <f>SUM(B14:C14)</f>
+        <v>24900</v>
+      </c>
+      <c r="E14" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="189"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="220">
+        <f t="shared" si="0"/>
+        <v>24900</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="187"/>
-      <c r="C15" s="188"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="141">
-        <v>41910</v>
+        <v>186</v>
+      </c>
+      <c r="B15" s="217">
+        <v>28088</v>
+      </c>
+      <c r="C15" s="223">
+        <v>0</v>
+      </c>
+      <c r="D15" s="222">
+        <f>SUM(B15:C15)</f>
+        <v>28088</v>
+      </c>
+      <c r="E15" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="189"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="220">
+        <f t="shared" si="0"/>
+        <v>28088</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="187"/>
-      <c r="C16" s="188"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="141">
-        <v>24900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="B16" s="217">
+        <v>3239</v>
+      </c>
+      <c r="C16" s="223">
+        <v>0</v>
+      </c>
+      <c r="D16" s="222">
+        <f t="shared" ref="D16:D17" si="1">SUM(B16:C16)</f>
+        <v>3239</v>
+      </c>
+      <c r="E16" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="189"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="220">
+        <f t="shared" si="0"/>
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="143">
+        <v>188</v>
+      </c>
+      <c r="B17" s="217">
+        <v>2700</v>
+      </c>
+      <c r="C17" s="223">
+        <v>0</v>
+      </c>
+      <c r="D17" s="222">
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
+      <c r="E17" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="189"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="220">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="217">
+        <f>7176/2</f>
+        <v>3588</v>
+      </c>
+      <c r="C18" s="217">
+        <f>7176/2</f>
+        <v>3588</v>
+      </c>
+      <c r="D18" s="222">
+        <f>SUM(B18:C18)</f>
+        <v>7176</v>
+      </c>
+      <c r="E18" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="189"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="220">
+        <f t="shared" si="0"/>
+        <v>7176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="217">
+        <v>1475</v>
+      </c>
+      <c r="C19" s="217">
+        <v>1475</v>
+      </c>
+      <c r="D19" s="217">
+        <f>SUM(B19:C19)</f>
+        <v>2950</v>
+      </c>
+      <c r="E19" s="188" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="220">
+        <f t="shared" si="0"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A20" s="199" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="224">
+        <v>0</v>
+      </c>
+      <c r="C20" s="225">
+        <v>149970</v>
+      </c>
+      <c r="D20" s="225">
+        <f>C20</f>
+        <v>149970</v>
+      </c>
+      <c r="E20" s="201" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="226">
+        <f t="shared" si="0"/>
+        <v>149970</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A21" s="202" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="221">
+        <f>SUM(B5:B20)</f>
+        <v>249919</v>
+      </c>
+      <c r="C21" s="221">
+        <f>SUM(C5:C20)</f>
+        <v>321967</v>
+      </c>
+      <c r="D21" s="221">
+        <f>SUM(D5:D20)</f>
+        <v>571886</v>
+      </c>
+      <c r="E21" s="227" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="228"/>
+      <c r="G21" s="229"/>
+      <c r="H21" s="216">
+        <f>SUM(H5:H20)</f>
+        <v>571886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="206"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="207"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="194" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="194"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="217">
+        <v>15000</v>
+      </c>
+      <c r="C24" s="218">
+        <v>0</v>
+      </c>
+      <c r="D24" s="217">
+        <f>SUM(B24:C24)</f>
+        <v>15000</v>
+      </c>
+      <c r="E24" s="124">
+        <v>15000</v>
+      </c>
+      <c r="F24" s="193">
+        <v>0</v>
+      </c>
+      <c r="G24" s="124">
+        <f>SUM(E24:F24)</f>
+        <v>15000</v>
+      </c>
+      <c r="H24" s="124">
+        <f>D24+G24</f>
+        <v>30000</v>
+      </c>
+      <c r="I24" s="209" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="217">
+        <v>100000</v>
+      </c>
+      <c r="C25" s="218">
+        <v>0</v>
+      </c>
+      <c r="D25" s="217">
+        <f>SUM(B25:C25)</f>
+        <v>100000</v>
+      </c>
+      <c r="E25" s="124">
+        <v>190000</v>
+      </c>
+      <c r="F25" s="193">
+        <v>0</v>
+      </c>
+      <c r="G25" s="124">
+        <f>SUM(E25:F25)</f>
+        <v>190000</v>
+      </c>
+      <c r="H25" s="191">
+        <f>D25+G25</f>
+        <v>290000</v>
+      </c>
+      <c r="I25" s="209" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="192" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="219">
+        <v>100000</v>
+      </c>
+      <c r="C26" s="219">
+        <v>100000</v>
+      </c>
+      <c r="D26" s="219">
+        <f>SUM(B26:C26)</f>
+        <v>200000</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="193">
+        <v>0</v>
+      </c>
+      <c r="C27" s="193">
+        <v>0</v>
+      </c>
+      <c r="D27" s="193">
+        <f>SUM(B27:C27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="124">
+        <v>77500</v>
+      </c>
+      <c r="F27" s="124">
+        <v>198400</v>
+      </c>
+      <c r="G27" s="124">
+        <f>SUM(E27:F27)</f>
+        <v>275900</v>
+      </c>
+      <c r="H27" s="124">
+        <f>G27</f>
+        <v>275900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="193"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="193"/>
+      <c r="E28" s="124">
+        <v>222750</v>
+      </c>
+      <c r="F28" s="124">
+        <v>211750</v>
+      </c>
+      <c r="G28" s="124">
+        <f>SUM(E28:F28)</f>
+        <v>434500</v>
+      </c>
+      <c r="H28" s="124">
+        <f>G28</f>
+        <v>434500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="219">
+        <v>5000</v>
+      </c>
+      <c r="C29" s="219">
+        <v>5000</v>
+      </c>
+      <c r="D29" s="219">
+        <f t="shared" ref="D29:D30" si="2">SUM(B29:C29)</f>
+        <v>10000</v>
+      </c>
+      <c r="E29" s="123">
+        <v>20000</v>
+      </c>
+      <c r="F29" s="123">
+        <v>20000</v>
+      </c>
+      <c r="G29" s="123">
+        <f>SUM(E29:F29)</f>
+        <v>40000</v>
+      </c>
+      <c r="H29" s="191">
+        <f>D29+G29</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="219">
+        <v>10000</v>
+      </c>
+      <c r="C30" s="219">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="219">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="E30" s="123">
+        <v>110000</v>
+      </c>
+      <c r="F30" s="123">
+        <v>110000</v>
+      </c>
+      <c r="G30" s="123">
+        <f>SUM(E30:F30)</f>
+        <v>220000</v>
+      </c>
+      <c r="H30" s="191">
+        <f>D30+G30</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="219">
+        <v>15000</v>
+      </c>
+      <c r="C31" s="219">
+        <v>15000</v>
+      </c>
+      <c r="D31" s="219">
+        <f>SUM(B31:C31)</f>
+        <v>30000</v>
+      </c>
+      <c r="E31" s="123">
+        <v>45000</v>
+      </c>
+      <c r="F31" s="123">
+        <v>45000</v>
+      </c>
+      <c r="G31" s="123">
+        <f>SUM(E31:F31)</f>
+        <v>90000</v>
+      </c>
+      <c r="H31" s="123">
+        <f>D31+G31</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="219">
+        <v>15000</v>
+      </c>
+      <c r="C32" s="219">
+        <v>15000</v>
+      </c>
+      <c r="D32" s="219">
+        <f>SUM(B32:C32)</f>
+        <v>30000</v>
+      </c>
+      <c r="E32" s="123">
+        <v>69950</v>
+      </c>
+      <c r="F32" s="123">
+        <v>69950</v>
+      </c>
+      <c r="G32" s="123">
+        <f>SUM(E32:F32)</f>
+        <v>139900</v>
+      </c>
+      <c r="H32" s="191">
+        <f>D32+G32</f>
+        <v>169900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="213" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="219">
+        <v>10000</v>
+      </c>
+      <c r="C33" s="219">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="219">
+        <f>SUM(B33:C33)</f>
+        <v>20000</v>
+      </c>
+      <c r="E33" s="123">
+        <v>135000</v>
+      </c>
+      <c r="F33" s="123">
+        <v>135000</v>
+      </c>
+      <c r="G33" s="123">
+        <f>SUM(E33:F33)</f>
+        <v>270000</v>
+      </c>
+      <c r="H33" s="123">
+        <f>D33+G33</f>
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="217">
         <v>7500</v>
       </c>
-      <c r="C17" s="143">
+      <c r="C34" s="217">
         <v>7500</v>
       </c>
-      <c r="D17" s="143">
+      <c r="D34" s="217">
         <v>15000</v>
       </c>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="141"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="140">
-        <f>D19/2</f>
+      <c r="E34" s="124">
+        <v>32500</v>
+      </c>
+      <c r="F34" s="124">
+        <v>32500</v>
+      </c>
+      <c r="G34" s="124">
+        <f>SUM(E34:F34)</f>
+        <v>65000</v>
+      </c>
+      <c r="H34" s="124">
+        <f>D34+G34</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="220">
+        <f>D35/2</f>
         <v>70000</v>
       </c>
-      <c r="C19" s="140">
-        <f>D19/2</f>
+      <c r="C35" s="220">
+        <f>D35/2</f>
         <v>70000</v>
       </c>
-      <c r="D19" s="140">
+      <c r="D35" s="220">
         <v>140000</v>
       </c>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="10">
+      <c r="E35" s="122">
+        <v>66800</v>
+      </c>
+      <c r="F35" s="122">
+        <v>66800</v>
+      </c>
+      <c r="G35" s="122">
+        <f>SUM(E35:F35)</f>
+        <v>133600</v>
+      </c>
+      <c r="H35" s="122">
+        <f>D35+G35</f>
         <v>273600</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="20">
-        <f>SUM(B4:B13)</f>
-        <v>299150</v>
-      </c>
-      <c r="C20" s="20">
-        <f>SUM(C4:C13)</f>
-        <v>184150</v>
-      </c>
-      <c r="D20" s="20">
-        <f>SUM(B20:C20)</f>
-        <v>483300</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="H20" s="20">
-        <f>SUM(H4:H17)</f>
-        <v>322103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="185"/>
-      <c r="C21" s="185"/>
-      <c r="D21" s="37"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>204</v>
-      </c>
-      <c r="B24" s="12">
-        <f>E13+H14/2+H15/2+D17/2-C19</f>
-        <v>71101.5</v>
-      </c>
+    <row r="36" spans="1:10">
+      <c r="A36" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="193">
+        <v>0</v>
+      </c>
+      <c r="C36" s="193">
+        <v>0</v>
+      </c>
+      <c r="D36" s="193">
+        <f>SUM(B36:C36)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="122">
+        <v>13500</v>
+      </c>
+      <c r="F36" s="122">
+        <v>13500</v>
+      </c>
+      <c r="G36" s="122">
+        <f>SUM(E36:F36)</f>
+        <v>27000</v>
+      </c>
+      <c r="H36" s="122">
+        <f>D36+G36</f>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="213" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="193">
+        <v>0</v>
+      </c>
+      <c r="C37" s="193">
+        <v>0</v>
+      </c>
+      <c r="D37" s="193">
+        <f>SUM(B37:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="122">
+        <v>61500</v>
+      </c>
+      <c r="F37" s="122">
+        <v>61500</v>
+      </c>
+      <c r="G37" s="122">
+        <f>SUM(E37:F37)</f>
+        <v>123000</v>
+      </c>
+      <c r="H37" s="122">
+        <f>D37+G37</f>
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="187" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="220">
+        <v>20000</v>
+      </c>
+      <c r="C38" s="220"/>
+      <c r="D38" s="220">
+        <f>SUM(B38:C38)</f>
+        <v>20000</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="187" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="193"/>
+      <c r="C39" s="193"/>
+      <c r="D39" s="193"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A40" s="231" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="200"/>
+      <c r="C40" s="200"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="211">
+        <v>15000</v>
+      </c>
+      <c r="F40" s="211">
+        <v>10000</v>
+      </c>
+      <c r="G40" s="211">
+        <f>SUM(E40:F40)</f>
+        <v>25000</v>
+      </c>
+      <c r="H40" s="211">
+        <f>G40</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A41" s="212" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="203">
+        <f>SUM(B24:B38)</f>
+        <v>367500</v>
+      </c>
+      <c r="C41" s="203">
+        <f>SUM(C24:C38)</f>
+        <v>232500</v>
+      </c>
+      <c r="D41" s="203">
+        <f>SUM(D24:D38)</f>
+        <v>600000</v>
+      </c>
+      <c r="E41" s="203">
+        <f>SUM(E24:E38)</f>
+        <v>1059500</v>
+      </c>
+      <c r="F41" s="203">
+        <f>SUM(F24:F38)</f>
+        <v>964400</v>
+      </c>
+      <c r="G41" s="203">
+        <f>SUM(G24:G38)</f>
+        <v>2023900</v>
+      </c>
+      <c r="H41" s="204">
+        <f>SUM(H24:H38)</f>
+        <v>2403900</v>
+      </c>
+      <c r="I41" s="230"/>
+      <c r="J41" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="26">
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B1:H1"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3875,438 +4587,438 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B1">
         <v>15</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="33">
         <f>B1*H18</f>
         <v>85935</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>68</v>
+      <c r="E1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="33">
         <f>B2*I4</f>
         <v>59980</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="40">
+      <c r="E2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="35">
         <v>0.7</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="36">
         <v>2698</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="37">
         <f>H2/G2</f>
         <v>3854.2857142857147</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="33">
         <f>B3*I10</f>
         <v>28990</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="40">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="35">
         <v>0.7</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="36">
         <v>2698</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="37">
         <f t="shared" ref="I3:I24" si="0">H3/G3</f>
         <v>3854.2857142857147</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75">
-      <c r="C4" s="38">
+      <c r="C4" s="33">
         <f>SUM(C1:C3)</f>
         <v>174905</v>
       </c>
-      <c r="E4" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="43">
+      <c r="E4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="38">
         <v>0.5</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="39">
         <v>2999</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="40">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="E5" s="40"/>
-      <c r="F5" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="40">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="35">
         <v>0.5</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="36">
         <v>2999</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="37">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="C6" s="46">
+      <c r="C6" s="41">
         <f>C4/93</f>
         <v>1880.6989247311828</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="40">
+      <c r="E6" s="35"/>
+      <c r="F6" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="35">
         <v>0.5</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="36">
         <v>2999</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="37">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="E7" s="40"/>
-      <c r="F7" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="40">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="35">
         <v>0.5</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="36">
         <v>2999</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="37">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
-      <c r="E8" s="40"/>
-      <c r="F8" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="40">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="35">
         <v>0.5</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="36">
         <v>2999</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="37">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="E9" s="40"/>
-      <c r="F9" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="40">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="35">
         <v>0.5</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="36">
         <v>2999</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="37">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75">
-      <c r="E10" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="43">
+      <c r="E10" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="38">
         <v>0.5</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="39">
         <v>2899</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="40">
         <f t="shared" si="0"/>
         <v>5798</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75">
-      <c r="E11" s="40"/>
-      <c r="F11" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="40">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="35">
         <v>0.7</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="36">
         <v>4332</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="37">
         <f t="shared" si="0"/>
         <v>6188.5714285714294</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75">
-      <c r="E12" s="40"/>
-      <c r="F12" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="40">
+      <c r="E12" s="35"/>
+      <c r="F12" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="35">
         <v>1</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="36">
         <v>5719</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="37">
         <f t="shared" si="0"/>
         <v>5719</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75">
-      <c r="E13" s="40"/>
-      <c r="F13" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="40">
+      <c r="E13" s="35"/>
+      <c r="F13" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="35">
         <v>0.5</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="36">
         <v>3099</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="37">
         <f t="shared" si="0"/>
         <v>6198</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="E14" s="40"/>
-      <c r="F14" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="40">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="35">
         <v>1</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="36">
         <v>5734</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="37">
         <f t="shared" si="0"/>
         <v>5734</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="E15" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="40">
+      <c r="E15" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="35">
         <v>0.5</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="36">
         <v>1999</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="42">
         <f t="shared" si="0"/>
         <v>3998</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75">
-      <c r="E16" s="40"/>
-      <c r="F16" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="40">
+      <c r="E16" s="35"/>
+      <c r="F16" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="35">
         <v>0.7</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="36">
         <v>2999</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="37">
         <f t="shared" si="0"/>
         <v>4284.2857142857147</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="15.75">
-      <c r="E17" s="40"/>
-      <c r="F17" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="40">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="35">
         <v>1</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="36">
         <v>4259</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="37">
         <f t="shared" si="0"/>
         <v>4259</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="16.5" thickBot="1">
-      <c r="E18" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="48">
+      <c r="E18" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="43">
         <v>1</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="44">
         <v>5729</v>
       </c>
-      <c r="I18" s="50">
+      <c r="I18" s="45">
         <f t="shared" si="0"/>
         <v>5729</v>
       </c>
     </row>
     <row r="19" spans="5:9" ht="16.5" thickTop="1">
-      <c r="E19" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="51">
+      <c r="E19" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="46">
         <v>0.5</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="47">
         <v>5526</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="47">
         <f t="shared" si="0"/>
         <v>11052</v>
       </c>
     </row>
     <row r="20" spans="5:9" ht="15.75">
-      <c r="E20" s="40"/>
-      <c r="F20" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="40">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="35">
         <v>0.5</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="37">
         <v>5479</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="37">
         <f t="shared" si="0"/>
         <v>10958</v>
       </c>
     </row>
     <row r="21" spans="5:9" ht="15.75">
-      <c r="E21" s="40"/>
-      <c r="F21" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="40">
+      <c r="E21" s="35"/>
+      <c r="F21" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="35">
         <v>0.5</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="37">
         <v>4580</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="37">
         <f t="shared" si="0"/>
         <v>9160</v>
       </c>
     </row>
     <row r="22" spans="5:9" ht="15.75">
-      <c r="E22" s="40"/>
-      <c r="F22" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="40">
+      <c r="E22" s="35"/>
+      <c r="F22" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="35">
         <v>0.5</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="37">
         <v>5999</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="37">
         <f t="shared" si="0"/>
         <v>11998</v>
       </c>
     </row>
     <row r="23" spans="5:9" ht="15.75">
-      <c r="E23" s="40"/>
-      <c r="F23" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="40">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="35">
         <v>0.5</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="37">
         <v>7075</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="37">
         <f t="shared" si="0"/>
         <v>14150</v>
       </c>
     </row>
     <row r="24" spans="5:9" ht="15.75">
-      <c r="E24" s="40"/>
-      <c r="F24" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="40">
+      <c r="E24" s="35"/>
+      <c r="F24" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="35">
         <v>0.5</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="37">
         <v>5500</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="37">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
@@ -4327,312 +5039,312 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="174" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="174"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="152" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="178" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="179" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="180"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="167" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="178"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="168"/>
+    </row>
+    <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="57">
+        <v>8</v>
+      </c>
+      <c r="D3" s="85">
+        <v>1</v>
+      </c>
+      <c r="E3" s="85">
+        <v>1</v>
+      </c>
+      <c r="F3" s="85">
+        <v>1</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87">
+        <v>1</v>
+      </c>
+      <c r="J3" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="53"/>
+      <c r="L3" s="89">
+        <v>5</v>
+      </c>
+      <c r="M3" s="169">
+        <v>2</v>
+      </c>
+      <c r="N3" s="90">
+        <v>2</v>
+      </c>
+      <c r="O3" s="90">
+        <v>1</v>
+      </c>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="57">
+        <v>6</v>
+      </c>
+      <c r="D4" s="112">
+        <v>1</v>
+      </c>
+      <c r="E4" s="85">
+        <v>1</v>
+      </c>
+      <c r="F4" s="85"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87">
+        <v>0</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="89">
+        <v>3</v>
+      </c>
+      <c r="M4" s="170"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="94">
+        <v>1</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85">
+        <v>1</v>
+      </c>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87">
+        <v>1</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="56"/>
+      <c r="L5" s="89">
+        <v>12</v>
+      </c>
+      <c r="M5" s="92"/>
+      <c r="N5" s="95">
+        <v>6</v>
+      </c>
+      <c r="O5" s="92"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="94">
+        <v>2</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="85">
+        <v>1</v>
+      </c>
+      <c r="F6" s="85"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87">
+        <v>2</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="56"/>
+      <c r="L6" s="89">
+        <v>4</v>
+      </c>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92">
+        <v>2</v>
+      </c>
+      <c r="O6" s="92"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="161" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="203" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" s="204" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="205"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="172" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="192" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="99" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="94">
+        <v>2</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="85">
+        <v>1</v>
+      </c>
+      <c r="F7" s="85"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87">
+        <v>2</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="56"/>
+      <c r="L7" s="89">
+        <v>6</v>
+      </c>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92">
+        <v>3</v>
+      </c>
+      <c r="O7" s="92"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="99" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57">
+        <v>2</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="85">
+        <v>1</v>
+      </c>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87">
+        <v>2</v>
+      </c>
+      <c r="J8" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="K8" s="56"/>
+      <c r="L8" s="89">
+        <v>2</v>
+      </c>
+      <c r="M8" s="92"/>
+      <c r="N8" s="95">
+        <v>1</v>
+      </c>
+      <c r="O8" s="92"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="57">
+        <v>1</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85">
+        <v>1</v>
+      </c>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87">
+        <v>1</v>
+      </c>
+      <c r="J9" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="203"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q2" s="193"/>
-    </row>
-    <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="62">
-        <v>8</v>
-      </c>
-      <c r="D3" s="101">
+      <c r="K9" s="56"/>
+      <c r="L9" s="89">
         <v>1</v>
       </c>
-      <c r="E3" s="101">
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="95">
         <v>1</v>
       </c>
-      <c r="F3" s="101">
-        <v>1</v>
-      </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103">
-        <v>1</v>
-      </c>
-      <c r="J3" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="105">
-        <v>5</v>
-      </c>
-      <c r="M3" s="194">
-        <v>2</v>
-      </c>
-      <c r="N3" s="106">
-        <v>2</v>
-      </c>
-      <c r="O3" s="106">
-        <v>1</v>
-      </c>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="62">
-        <v>6</v>
-      </c>
-      <c r="D4" s="128">
-        <v>1</v>
-      </c>
-      <c r="E4" s="101">
-        <v>1</v>
-      </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="103">
-        <v>0</v>
-      </c>
-      <c r="J4" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="105">
-        <v>3</v>
-      </c>
-      <c r="M4" s="195"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="110">
-        <v>1</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101">
-        <v>1</v>
-      </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="103">
-        <v>1</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="105">
-        <v>12</v>
-      </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="111">
-        <v>6</v>
-      </c>
-      <c r="O5" s="108"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="110">
-        <v>2</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="101">
-        <v>1</v>
-      </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="103">
-        <v>2</v>
-      </c>
-      <c r="J6" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="105">
-        <v>4</v>
-      </c>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108">
-        <v>2</v>
-      </c>
-      <c r="O6" s="108"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="110">
-        <v>2</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="101">
-        <v>1</v>
-      </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="103">
-        <v>2</v>
-      </c>
-      <c r="J7" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="105">
-        <v>6</v>
-      </c>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108">
-        <v>3</v>
-      </c>
-      <c r="O7" s="108"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62">
-        <v>2</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="101">
-        <v>1</v>
-      </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="103">
-        <v>2</v>
-      </c>
-      <c r="J8" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="105">
-        <v>2</v>
-      </c>
-      <c r="M8" s="108"/>
-      <c r="N8" s="111">
-        <v>1</v>
-      </c>
-      <c r="O8" s="108"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="62">
-        <v>1</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101">
-        <v>1</v>
-      </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="103">
-        <v>1</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="61"/>
-      <c r="L9" s="105">
-        <v>1</v>
-      </c>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="111">
-        <v>1</v>
-      </c>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="103">
+      <c r="P9" s="93"/>
+      <c r="Q9" s="87">
         <v>1</v>
       </c>
       <c r="R9">
@@ -4641,286 +5353,286 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="62">
+      <c r="A10" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="57">
         <v>2</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="101">
+      <c r="D10" s="52"/>
+      <c r="E10" s="85">
         <v>1</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="103">
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87">
         <v>2</v>
       </c>
-      <c r="J10" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="105">
+      <c r="J10" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="56"/>
+      <c r="L10" s="89">
         <v>4</v>
       </c>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108">
+      <c r="M10" s="92"/>
+      <c r="N10" s="92">
         <v>2</v>
       </c>
-      <c r="O10" s="108"/>
-      <c r="P10" s="109">
+      <c r="O10" s="92"/>
+      <c r="P10" s="93">
         <v>1</v>
       </c>
-      <c r="Q10" s="103">
+      <c r="Q10" s="87">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="112" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="62">
+      <c r="A11" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="57">
         <v>1</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="113">
+      <c r="D11" s="52"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="97">
         <v>1</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="103">
+      <c r="G11" s="86"/>
+      <c r="H11" s="87">
         <v>1</v>
       </c>
-      <c r="Q11" s="114"/>
+      <c r="Q11" s="98"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="112" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="62">
+      <c r="A12" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="57">
         <v>2</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="101">
+      <c r="D12" s="52"/>
+      <c r="E12" s="85">
         <v>1</v>
       </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103">
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="17" t="s">
-        <v>100</v>
+      <c r="A13" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="110">
+      <c r="C13" s="94">
         <v>0</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101">
+      <c r="D13" s="52"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85">
         <v>1</v>
       </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="103">
+      <c r="G13" s="86"/>
+      <c r="H13" s="87">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="110">
+      <c r="C14" s="94">
         <v>2</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="109">
+      <c r="D14" s="52"/>
+      <c r="E14" s="93">
         <v>1</v>
       </c>
-      <c r="F14" s="109"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="103">
+      <c r="F14" s="93"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="87">
         <v>2</v>
       </c>
-      <c r="Q14" s="114"/>
+      <c r="Q14" s="98"/>
     </row>
     <row r="15" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="110">
+      <c r="A15" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="94">
         <v>1</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="108">
+      <c r="D15" s="52"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="92">
         <v>1</v>
       </c>
-      <c r="G15" s="115"/>
-      <c r="H15" s="103">
+      <c r="G15" s="99"/>
+      <c r="H15" s="87">
         <v>1</v>
       </c>
-      <c r="Q15" s="114"/>
+      <c r="Q15" s="98"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="110">
+      <c r="A16" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="94">
         <v>1</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="108">
+      <c r="D16" s="52"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="92">
         <v>1</v>
       </c>
-      <c r="G16" s="115"/>
-      <c r="H16" s="103">
+      <c r="G16" s="99"/>
+      <c r="H16" s="87">
         <v>1</v>
       </c>
-      <c r="Q16" s="114"/>
+      <c r="Q16" s="98"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="110" t="s">
-        <v>139</v>
+      <c r="A17" s="94" t="s">
+        <v>120</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="118">
+      <c r="C17" s="102">
         <v>2</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="108">
+      <c r="D17" s="103"/>
+      <c r="E17" s="92">
         <v>1</v>
       </c>
-      <c r="F17" s="109"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="103">
+      <c r="F17" s="93"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="87">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="110" t="s">
-        <v>140</v>
+      <c r="A18" s="94" t="s">
+        <v>121</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="118">
+      <c r="C18" s="102">
         <v>2</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="109">
+      <c r="D18" s="103"/>
+      <c r="E18" s="93">
         <v>1</v>
       </c>
-      <c r="F18" s="109"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="103">
+      <c r="F18" s="93"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="87">
         <v>2</v>
       </c>
-      <c r="Q18" s="114"/>
+      <c r="Q18" s="98"/>
     </row>
     <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="110" t="s">
-        <v>141</v>
+      <c r="A19" s="94" t="s">
+        <v>122</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="118">
+      <c r="C19" s="102">
         <v>2</v>
       </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="108">
+      <c r="D19" s="103"/>
+      <c r="E19" s="92">
         <v>1</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="103">
+      <c r="F19" s="93"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="87">
         <v>2</v>
       </c>
-      <c r="Q19" s="114"/>
+      <c r="Q19" s="98"/>
     </row>
     <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="62">
+      <c r="A20" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="57">
         <v>4</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="111">
+      <c r="D20" s="52"/>
+      <c r="E20" s="95">
         <v>2</v>
       </c>
-      <c r="F20" s="108"/>
-      <c r="G20" s="120">
+      <c r="F20" s="92"/>
+      <c r="G20" s="104">
         <v>1</v>
       </c>
-      <c r="H20" s="103">
+      <c r="H20" s="87">
         <v>0</v>
       </c>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="129"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="113"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="198" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="198"/>
-      <c r="C22" s="67">
+      <c r="A22" s="173" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="173"/>
+      <c r="C22" s="62">
         <f>SUM(C3:C20)</f>
         <v>41</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="61">
         <f>SUM(D3:D20)</f>
         <v>2</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="61">
         <f>SUM(E3:E20)</f>
         <v>13</v>
       </c>
-      <c r="F22" s="66">
+      <c r="F22" s="61">
         <f>SUM(F3:F20)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="61">
         <f>SUM(G5:G20)</f>
         <v>1</v>
       </c>
-      <c r="H22" s="121">
+      <c r="H22" s="105">
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="196" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="197"/>
-      <c r="L22" s="122">
+      <c r="J22" s="171" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="172"/>
+      <c r="L22" s="106">
         <f>SUM(L3:L10)</f>
         <v>37</v>
       </c>
-      <c r="M22" s="123">
+      <c r="M22" s="107">
         <f t="shared" ref="M22:Q22" si="0">SUM(M3:M10)</f>
         <v>2</v>
       </c>
-      <c r="N22" s="123">
+      <c r="N22" s="107">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="O22" s="123">
+      <c r="O22" s="107">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P22" s="124">
+      <c r="P22" s="108">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="121">
+      <c r="Q22" s="105">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -4934,18 +5646,18 @@
         <f>L22-3</f>
         <v>34</v>
       </c>
-      <c r="Q23" s="114"/>
+      <c r="Q23" s="98"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="125">
+      <c r="A26" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="109">
         <f>C22+L22</f>
         <v>78</v>
       </c>
-      <c r="C26" s="121">
+      <c r="C26" s="105">
         <f>H22+Q22</f>
         <v>38</v>
       </c>
@@ -4971,10 +5683,10 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="6"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
@@ -4998,10 +5710,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
@@ -5035,7 +5747,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5047,183 +5759,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="134" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="134" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="134" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="134" t="s">
-        <v>151</v>
+      <c r="A1" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="133" t="s">
-        <v>81</v>
+        <v>127</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="135" t="s">
-        <v>164</v>
+        <v>133</v>
+      </c>
+      <c r="D2" s="117" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="133" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="136" t="s">
-        <v>173</v>
+        <v>152</v>
+      </c>
+      <c r="B8" s="118" t="s">
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="208" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="137" t="s">
-        <v>81</v>
+      <c r="A10" s="183" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="119" t="s">
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="209"/>
-      <c r="B11" s="137" t="s">
-        <v>81</v>
+      <c r="A11" s="184"/>
+      <c r="B11" s="119" t="s">
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5233,141 +5945,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="151" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="153"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="93">
-        <v>1200</v>
-      </c>
-      <c r="D3" s="94">
-        <v>75</v>
-      </c>
-      <c r="E3" s="93">
-        <f>C3*D3</f>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="95">
-        <v>1550</v>
-      </c>
-      <c r="D4" s="95">
-        <v>75</v>
-      </c>
-      <c r="E4" s="95">
-        <f>C4*D4</f>
-        <v>116250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="95">
-        <v>2400</v>
-      </c>
-      <c r="D5" s="96">
-        <v>75</v>
-      </c>
-      <c r="E5" s="95">
-        <f>C5*D5</f>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="4">
-        <f>SUM(E2:E4)</f>
-        <v>426250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="4">
-        <f>SUM(E2:E3)+E5</f>
-        <v>490000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
-      <c r="D9" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="98">
-        <f>E7-E6</f>
-        <v>63750</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -670,7 +670,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ [$Ft-40E]_-;\-* #,##0\ [$Ft-40E]_-;_-* &quot;-&quot;??\ [$Ft-40E]_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="[&lt;=999999999]\(##\)\ ###\-##\-##;[&lt;=6999999999]0#\ \(##\)###\-##\-##;#\ \(##\)\ ###\-##\-##"/>
-    <numFmt numFmtId="173" formatCode="[$-40E]mmmm\ d\.;@"/>
+    <numFmt numFmtId="168" formatCode="[$-40E]mmmm\ d\.;@"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1428,7 +1428,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1619,216 +1619,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1842,7 +1641,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1878,6 +1677,109 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1887,8 +1789,105 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -2188,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2207,21 +2206,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="169"/>
       <c r="G1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="131">
+      <c r="H1" s="177">
         <f>H2+H3</f>
         <v>78</v>
       </c>
-      <c r="I1" s="131"/>
+      <c r="I1" s="177"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="11"/>
@@ -2469,8 +2468,8 @@
       <c r="B14" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="140"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="188"/>
       <c r="E14" s="79">
         <f>SUM(E5:E13)</f>
         <v>1928135.5</v>
@@ -2483,8 +2482,8 @@
       <c r="B15" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="188"/>
       <c r="E15" s="72">
         <f>E14/H1</f>
         <v>24719.685897435898</v>
@@ -2500,24 +2499,24 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="130"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="169"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="135"/>
-      <c r="D18" s="136"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="184"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -2525,19 +2524,19 @@
       <c r="G18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="146">
+      <c r="H18" s="160">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="I18" s="147"/>
+      <c r="I18" s="194"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="142"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="137"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="185"/>
       <c r="E19" s="14">
         <f>640*310</f>
         <v>198400</v>
@@ -2545,19 +2544,19 @@
       <c r="G19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="144">
+      <c r="H19" s="192">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="I19" s="145"/>
+      <c r="I19" s="193"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="137"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="185"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2574,28 +2573,28 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="132" t="s">
+      <c r="A22" s="180" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="182"/>
       <c r="K22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="126">
+      <c r="L22" s="178">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="M22" s="127"/>
+      <c r="M22" s="179"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="177" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
@@ -2612,17 +2611,17 @@
       <c r="K23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="126">
+      <c r="L23" s="178">
         <v>1</v>
       </c>
-      <c r="M23" s="127"/>
+      <c r="M23" s="179"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="131"/>
+      <c r="B24" s="177"/>
       <c r="C24" s="21">
         <v>12000</v>
       </c>
@@ -2636,17 +2635,17 @@
       <c r="K24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="126">
+      <c r="L24" s="178">
         <v>9</v>
       </c>
-      <c r="M24" s="127"/>
+      <c r="M24" s="179"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="131"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="21">
         <v>18500</v>
       </c>
@@ -2660,15 +2659,15 @@
       <c r="K25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="152"/>
-      <c r="M25" s="152"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="176"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="131"/>
+      <c r="B26" s="177"/>
       <c r="C26" s="21">
         <v>7500</v>
       </c>
@@ -2682,8 +2681,8 @@
       <c r="K26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="150"/>
-      <c r="M26" s="151"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="175"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
@@ -2706,7 +2705,7 @@
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="131" t="s">
+      <c r="B28" s="177" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="21">
@@ -2727,7 +2726,7 @@
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="21">
         <v>5500</v>
       </c>
@@ -2747,7 +2746,7 @@
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="177"/>
       <c r="C30" s="21">
         <v>1850</v>
       </c>
@@ -2767,7 +2766,7 @@
       <c r="A31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="131"/>
+      <c r="B31" s="177"/>
       <c r="C31" s="21">
         <v>1850</v>
       </c>
@@ -2786,7 +2785,7 @@
       <c r="A32" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="131"/>
+      <c r="B32" s="177"/>
       <c r="C32" s="21">
         <v>1850</v>
       </c>
@@ -2804,7 +2803,7 @@
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="131"/>
+      <c r="B33" s="177"/>
       <c r="C33" s="21">
         <v>2000</v>
       </c>
@@ -2821,7 +2820,7 @@
       <c r="A34" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="131"/>
+      <c r="B34" s="177"/>
       <c r="C34" s="21">
         <v>2000</v>
       </c>
@@ -2838,7 +2837,7 @@
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="131"/>
+      <c r="B35" s="177"/>
       <c r="C35" s="21">
         <v>7500</v>
       </c>
@@ -2874,7 +2873,7 @@
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="153" t="s">
+      <c r="B37" s="170" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="11">
@@ -2895,7 +2894,7 @@
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="153"/>
+      <c r="B38" s="170"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -2920,7 +2919,7 @@
       <c r="A39" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="154"/>
+      <c r="B39" s="171"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -2965,19 +2964,19 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A42" s="128" t="s">
+      <c r="A42" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="129"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="130"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="169"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="148" t="s">
+      <c r="B43" s="172" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="11"/>
@@ -2990,7 +2989,7 @@
       <c r="A44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="148"/>
+      <c r="B44" s="172"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -3001,7 +3000,7 @@
       <c r="A45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="148"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -3012,7 +3011,7 @@
       <c r="A46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="148"/>
+      <c r="B46" s="172"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -3023,7 +3022,7 @@
       <c r="A47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="148"/>
+      <c r="B47" s="172"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -3034,7 +3033,7 @@
       <c r="A48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="148"/>
+      <c r="B48" s="172"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -3045,7 +3044,7 @@
       <c r="A49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="148"/>
+      <c r="B49" s="172"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="82">
@@ -3056,7 +3055,7 @@
       <c r="A50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="149"/>
+      <c r="B50" s="173"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
@@ -3066,13 +3065,13 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A52" s="128" t="s">
+      <c r="A52" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="129"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="130"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="169"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="29" t="s">
@@ -3169,23 +3168,23 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A58" s="128" t="s">
+      <c r="A58" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="129"/>
-      <c r="C58" s="129"/>
-      <c r="D58" s="129"/>
-      <c r="E58" s="130"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
+      <c r="E58" s="169"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="153" t="s">
+      <c r="B59" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="215"/>
-      <c r="D59" s="215"/>
+      <c r="C59" s="146"/>
+      <c r="D59" s="146"/>
       <c r="E59" s="3">
         <v>30000</v>
       </c>
@@ -3194,9 +3193,9 @@
       <c r="A60" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="153"/>
-      <c r="C60" s="214"/>
-      <c r="D60" s="214"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="145"/>
       <c r="E60" s="3">
         <v>190000</v>
       </c>
@@ -3205,9 +3204,9 @@
       <c r="A61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="153"/>
-      <c r="C61" s="214"/>
-      <c r="D61" s="214"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
       <c r="E61" s="82">
         <v>149970</v>
       </c>
@@ -3216,10 +3215,10 @@
       <c r="A62" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="153"/>
+      <c r="B62" s="170"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="210">
+      <c r="E62" s="141">
         <v>53970</v>
       </c>
       <c r="G62" s="15" t="s">
@@ -3238,10 +3237,10 @@
       <c r="A63" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B63" s="153"/>
+      <c r="B63" s="170"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="210"/>
+      <c r="E63" s="141"/>
       <c r="G63" s="15" t="s">
         <v>2</v>
       </c>
@@ -3258,7 +3257,7 @@
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="153"/>
+      <c r="B64" s="170"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="82">
@@ -3266,10 +3265,10 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="187" t="s">
+      <c r="A65" s="126" t="s">
         <v>212</v>
       </c>
-      <c r="B65" s="153"/>
+      <c r="B65" s="170"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="22">
@@ -3283,7 +3282,7 @@
       <c r="A66" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="153"/>
+      <c r="B66" s="170"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="82">
@@ -3297,7 +3296,7 @@
       <c r="A67" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="153"/>
+      <c r="B67" s="170"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="82">
@@ -3308,10 +3307,10 @@
       <c r="I67" s="69"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="187" t="s">
+      <c r="A68" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="153"/>
+      <c r="B68" s="170"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="22"/>
@@ -3320,10 +3319,10 @@
       <c r="I68" s="69"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="187" t="s">
+      <c r="A69" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="153"/>
+      <c r="B69" s="170"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="22"/>
@@ -3335,7 +3334,7 @@
       <c r="A70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="153"/>
+      <c r="B70" s="170"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="82">
@@ -3349,7 +3348,7 @@
       <c r="A71" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="153"/>
+      <c r="B71" s="170"/>
       <c r="C71" s="2">
         <v>59</v>
       </c>
@@ -3368,7 +3367,7 @@
       <c r="A72" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B72" s="153"/>
+      <c r="B72" s="170"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="21">
@@ -3379,7 +3378,7 @@
       <c r="A73" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="153"/>
+      <c r="B73" s="170"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="82">
@@ -3391,7 +3390,7 @@
       <c r="A74" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="153"/>
+      <c r="B74" s="170"/>
       <c r="C74" s="2">
         <v>450</v>
       </c>
@@ -3407,7 +3406,7 @@
       <c r="A75" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B75" s="153"/>
+      <c r="B75" s="170"/>
       <c r="C75" s="2">
         <v>2392</v>
       </c>
@@ -3418,13 +3417,13 @@
         <f>C75*D75</f>
         <v>7176</v>
       </c>
-      <c r="I75" s="190"/>
+      <c r="I75" s="127"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B76" s="153"/>
+      <c r="B76" s="170"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="82">
@@ -3436,7 +3435,7 @@
       <c r="A77" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B77" s="154"/>
+      <c r="B77" s="171"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="21">
@@ -3464,46 +3463,34 @@
         <f>E14+E20+E40+E50+E56</f>
         <v>3890335.5</v>
       </c>
-      <c r="G79" s="158" t="s">
+      <c r="G79" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="H79" s="159"/>
-      <c r="I79" s="160"/>
+      <c r="H79" s="165"/>
+      <c r="I79" s="166"/>
     </row>
     <row r="80" spans="1:9">
       <c r="G80" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H80" s="146" t="e">
+      <c r="H80" s="160" t="e">
         <f>$I$2+$H$18+$I$38+$I$54+$I$62+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I80" s="155"/>
+      <c r="I80" s="161"/>
     </row>
     <row r="81" spans="7:9" ht="15.75" thickBot="1">
       <c r="G81" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="156" t="e">
+      <c r="H81" s="162" t="e">
         <f>$I$3+$H$19+$I$39+$I$63+$I$55+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I81" s="157"/>
+      <c r="I81" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="B59:B77"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B28:B35"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L24:M24"/>
@@ -3520,6 +3507,18 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:B77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3531,7 +3530,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3540,97 +3539,96 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="186" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="166"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="206"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="164"/>
-      <c r="B2" s="152" t="s">
+      <c r="A2" s="208"/>
+      <c r="B2" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="162" t="s">
+      <c r="C2" s="176"/>
+      <c r="D2" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="152" t="s">
+      <c r="E2" s="176" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="185" t="s">
+      <c r="F2" s="176"/>
+      <c r="G2" s="211" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="161" t="s">
+      <c r="H2" s="207" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="164"/>
+      <c r="A3" s="208"/>
       <c r="B3" s="125" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="163"/>
+      <c r="D3" s="210"/>
       <c r="E3" s="125" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="186"/>
-      <c r="H3" s="161"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="207"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="219">
+      <c r="B5" s="150">
         <v>14150</v>
       </c>
-      <c r="C5" s="219">
+      <c r="C5" s="150">
         <v>14150</v>
       </c>
-      <c r="D5" s="219">
-        <f>SUM(B5:C5)</f>
+      <c r="D5" s="150">
+        <f t="shared" ref="D5:D15" si="0">SUM(B5:C5)</f>
         <v>28300</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="189"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="220">
+      <c r="F5" s="198"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="151">
         <f>D5</f>
         <v>28300</v>
       </c>
@@ -3639,25 +3637,25 @@
       <c r="A6" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="219">
+      <c r="B6" s="150">
         <f>235100/2</f>
         <v>117550</v>
       </c>
-      <c r="C6" s="219">
+      <c r="C6" s="150">
         <f>235100/2</f>
         <v>117550</v>
       </c>
-      <c r="D6" s="219">
-        <f>SUM(B6:C6)</f>
+      <c r="D6" s="150">
+        <f t="shared" si="0"/>
         <v>235100</v>
       </c>
-      <c r="E6" s="126" t="s">
+      <c r="E6" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="189"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="220">
-        <f t="shared" ref="H6:H20" si="0">D6</f>
+      <c r="F6" s="198"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="151">
+        <f t="shared" ref="H6:H20" si="1">D6</f>
         <v>235100</v>
       </c>
     </row>
@@ -3665,25 +3663,25 @@
       <c r="A7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="217">
+      <c r="B7" s="148">
         <f>20193/2</f>
         <v>10096.5</v>
       </c>
-      <c r="C7" s="217">
+      <c r="C7" s="148">
         <f>20193/2</f>
         <v>10096.5</v>
       </c>
-      <c r="D7" s="217">
-        <f>SUM(B7:C7)</f>
+      <c r="D7" s="148">
+        <f t="shared" si="0"/>
         <v>20193</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="189"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="220">
-        <f t="shared" si="0"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="151">
+        <f t="shared" si="1"/>
         <v>20193</v>
       </c>
     </row>
@@ -3691,50 +3689,50 @@
       <c r="A8" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="217">
+      <c r="B8" s="148">
         <f>41910/2</f>
         <v>20955</v>
       </c>
-      <c r="C8" s="217">
+      <c r="C8" s="148">
         <f>41910/2</f>
         <v>20955</v>
       </c>
-      <c r="D8" s="222">
-        <f>SUM(B8:C8)</f>
-        <v>41910</v>
-      </c>
-      <c r="E8" s="126" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="189"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="220">
+      <c r="D8" s="153">
         <f t="shared" si="0"/>
         <v>41910</v>
       </c>
+      <c r="E8" s="178" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="198"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="151">
+        <f t="shared" si="1"/>
+        <v>41910</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="130" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="217">
+      <c r="B9" s="148">
         <f>6925/2</f>
         <v>3462.5</v>
       </c>
-      <c r="C9" s="217">
+      <c r="C9" s="148">
         <f>6925/2</f>
         <v>3462.5</v>
       </c>
-      <c r="D9" s="222">
-        <f>SUM(B9:C9)</f>
+      <c r="D9" s="153">
+        <f t="shared" si="0"/>
         <v>6925</v>
       </c>
-      <c r="E9" s="126" t="s">
+      <c r="E9" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="189"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="220">
+      <c r="F9" s="198"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="151">
         <f>D9</f>
         <v>6925</v>
       </c>
@@ -3743,47 +3741,47 @@
       <c r="A10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="217">
+      <c r="B10" s="148">
         <v>720</v>
       </c>
-      <c r="C10" s="217">
+      <c r="C10" s="148">
         <v>720</v>
       </c>
-      <c r="D10" s="222">
-        <f>SUM(B10:C10)</f>
-        <v>1440</v>
-      </c>
-      <c r="E10" s="126" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="189"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="220">
+      <c r="D10" s="153">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
+      <c r="E10" s="178" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="198"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="151">
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="205" t="s">
+      <c r="A11" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="217">
+      <c r="B11" s="148">
         <v>2500</v>
       </c>
-      <c r="C11" s="218">
+      <c r="C11" s="149">
         <v>0</v>
       </c>
-      <c r="D11" s="222">
-        <f>SUM(B11:C11)</f>
+      <c r="D11" s="153">
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="189"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="220">
-        <f t="shared" si="0"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="151">
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
@@ -3791,23 +3789,23 @@
       <c r="A12" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="217">
+      <c r="B12" s="148">
         <v>1500</v>
       </c>
-      <c r="C12" s="218">
+      <c r="C12" s="149">
         <v>0</v>
       </c>
-      <c r="D12" s="222">
-        <f>SUM(B12:C12)</f>
+      <c r="D12" s="153">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E12" s="126" t="s">
+      <c r="E12" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="189"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="220">
-        <f t="shared" si="0"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="151">
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
     </row>
@@ -3815,23 +3813,23 @@
       <c r="A13" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="217">
+      <c r="B13" s="148">
         <v>14995</v>
       </c>
-      <c r="C13" s="218">
+      <c r="C13" s="149">
         <v>0</v>
       </c>
-      <c r="D13" s="222">
-        <f>SUM(B13:C13)</f>
+      <c r="D13" s="153">
+        <f t="shared" si="0"/>
         <v>14995</v>
       </c>
-      <c r="E13" s="196" t="s">
+      <c r="E13" s="202" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="197"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="220">
-        <f t="shared" si="0"/>
+      <c r="F13" s="203"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="151">
+        <f t="shared" si="1"/>
         <v>14995</v>
       </c>
     </row>
@@ -3839,23 +3837,23 @@
       <c r="A14" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="217">
+      <c r="B14" s="148">
         <v>24900</v>
       </c>
-      <c r="C14" s="223">
+      <c r="C14" s="154">
         <v>0</v>
       </c>
-      <c r="D14" s="222">
-        <f>SUM(B14:C14)</f>
+      <c r="D14" s="153">
+        <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="E14" s="126" t="s">
+      <c r="E14" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="189"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="220">
-        <f t="shared" si="0"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="151">
+        <f t="shared" si="1"/>
         <v>24900</v>
       </c>
     </row>
@@ -3863,23 +3861,23 @@
       <c r="A15" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="217">
+      <c r="B15" s="148">
         <v>28088</v>
       </c>
-      <c r="C15" s="223">
+      <c r="C15" s="154">
         <v>0</v>
       </c>
-      <c r="D15" s="222">
-        <f>SUM(B15:C15)</f>
+      <c r="D15" s="153">
+        <f t="shared" si="0"/>
         <v>28088</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="189"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="220">
-        <f t="shared" si="0"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="151">
+        <f t="shared" si="1"/>
         <v>28088</v>
       </c>
     </row>
@@ -3887,23 +3885,23 @@
       <c r="A16" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="217">
+      <c r="B16" s="148">
         <v>3239</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="154">
         <v>0</v>
       </c>
-      <c r="D16" s="222">
-        <f t="shared" ref="D16:D17" si="1">SUM(B16:C16)</f>
+      <c r="D16" s="153">
+        <f t="shared" ref="D16:D17" si="2">SUM(B16:C16)</f>
         <v>3239</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="189"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="220">
-        <f t="shared" si="0"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="151">
+        <f t="shared" si="1"/>
         <v>3239</v>
       </c>
     </row>
@@ -3911,23 +3909,23 @@
       <c r="A17" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="217">
+      <c r="B17" s="148">
         <v>2700</v>
       </c>
-      <c r="C17" s="223">
+      <c r="C17" s="154">
         <v>0</v>
       </c>
-      <c r="D17" s="222">
+      <c r="D17" s="153">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="E17" s="178" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="198"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="151">
         <f t="shared" si="1"/>
-        <v>2700</v>
-      </c>
-      <c r="E17" s="126" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="189"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="220">
-        <f t="shared" si="0"/>
         <v>2700</v>
       </c>
     </row>
@@ -3935,25 +3933,25 @@
       <c r="A18" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="217">
+      <c r="B18" s="148">
         <f>7176/2</f>
         <v>3588</v>
       </c>
-      <c r="C18" s="217">
+      <c r="C18" s="148">
         <f>7176/2</f>
         <v>3588</v>
       </c>
-      <c r="D18" s="222">
+      <c r="D18" s="153">
         <f>SUM(B18:C18)</f>
         <v>7176</v>
       </c>
-      <c r="E18" s="126" t="s">
+      <c r="E18" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="189"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="220">
-        <f t="shared" si="0"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="151">
+        <f t="shared" si="1"/>
         <v>7176</v>
       </c>
     </row>
@@ -3961,37 +3959,37 @@
       <c r="A19" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="217">
+      <c r="B19" s="148">
         <v>1475</v>
       </c>
-      <c r="C19" s="217">
+      <c r="C19" s="148">
         <v>1475</v>
       </c>
-      <c r="D19" s="217">
+      <c r="D19" s="148">
         <f>SUM(B19:C19)</f>
         <v>2950</v>
       </c>
-      <c r="E19" s="188" t="s">
+      <c r="E19" s="200" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="220">
-        <f t="shared" si="0"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="151">
+        <f t="shared" si="1"/>
         <v>2950</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A20" s="199" t="s">
+      <c r="A20" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="224">
+      <c r="B20" s="155">
         <v>0</v>
       </c>
-      <c r="C20" s="225">
+      <c r="C20" s="156">
         <v>149970</v>
       </c>
-      <c r="D20" s="225">
+      <c r="D20" s="156">
         <f>C20</f>
         <v>149970</v>
       </c>
@@ -4000,77 +3998,77 @@
       </c>
       <c r="F20" s="201"/>
       <c r="G20" s="201"/>
-      <c r="H20" s="226">
-        <f t="shared" si="0"/>
+      <c r="H20" s="157">
+        <f t="shared" si="1"/>
         <v>149970</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A21" s="202" t="s">
+      <c r="A21" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="221">
+      <c r="B21" s="152">
         <f>SUM(B5:B20)</f>
         <v>249919</v>
       </c>
-      <c r="C21" s="221">
+      <c r="C21" s="152">
         <f>SUM(C5:C20)</f>
         <v>321967</v>
       </c>
-      <c r="D21" s="221">
+      <c r="D21" s="152">
         <f>SUM(D5:D20)</f>
         <v>571886</v>
       </c>
-      <c r="E21" s="227" t="s">
+      <c r="E21" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="228"/>
-      <c r="G21" s="229"/>
-      <c r="H21" s="216">
+      <c r="F21" s="196"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="147">
         <f>SUM(H5:H20)</f>
         <v>571886</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="206"/>
-      <c r="B22" s="207"/>
-      <c r="C22" s="207"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="208"/>
-      <c r="F22" s="208"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="207"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="138"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="194"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="199"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="217">
+      <c r="B24" s="148">
         <v>15000</v>
       </c>
-      <c r="C24" s="218">
+      <c r="C24" s="149">
         <v>0</v>
       </c>
-      <c r="D24" s="217">
+      <c r="D24" s="148">
         <f>SUM(B24:C24)</f>
         <v>15000</v>
       </c>
       <c r="E24" s="124">
         <v>15000</v>
       </c>
-      <c r="F24" s="193">
+      <c r="F24" s="129">
         <v>0</v>
       </c>
       <c r="G24" s="124">
@@ -4081,7 +4079,7 @@
         <f>D24+G24</f>
         <v>30000</v>
       </c>
-      <c r="I24" s="209" t="s">
+      <c r="I24" s="140" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4089,64 +4087,76 @@
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="217">
+      <c r="B25" s="148">
         <v>100000</v>
       </c>
-      <c r="C25" s="218">
+      <c r="C25" s="149">
         <v>0</v>
       </c>
-      <c r="D25" s="217">
+      <c r="D25" s="148">
         <f>SUM(B25:C25)</f>
         <v>100000</v>
       </c>
       <c r="E25" s="124">
         <v>190000</v>
       </c>
-      <c r="F25" s="193">
+      <c r="F25" s="129">
         <v>0</v>
       </c>
       <c r="G25" s="124">
         <f>SUM(E25:F25)</f>
         <v>190000</v>
       </c>
-      <c r="H25" s="191">
+      <c r="H25" s="128">
         <f>D25+G25</f>
         <v>290000</v>
       </c>
-      <c r="I25" s="209" t="s">
+      <c r="I25" s="140" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="192" t="s">
+      <c r="A26" s="94" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="219">
+      <c r="B26" s="150">
         <v>100000</v>
       </c>
-      <c r="C26" s="219">
+      <c r="C26" s="150">
         <v>100000</v>
       </c>
-      <c r="D26" s="219">
+      <c r="D26" s="150">
         <f>SUM(B26:C26)</f>
         <v>200000</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="E26" s="124">
+        <f>1013507.12179487-B26</f>
+        <v>913507.12179487001</v>
+      </c>
+      <c r="F26" s="124">
+        <f>914628.378205128-C26</f>
+        <v>814628.37820512801</v>
+      </c>
+      <c r="G26" s="128">
+        <f>SUM(E26:F26)</f>
+        <v>1728135.4999999981</v>
+      </c>
+      <c r="H26" s="128">
+        <f>D26+G26</f>
+        <v>1928135.4999999981</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B27" s="193">
+      <c r="B27" s="129">
         <v>0</v>
       </c>
-      <c r="C27" s="193">
+      <c r="C27" s="129">
         <v>0</v>
       </c>
-      <c r="D27" s="193">
+      <c r="D27" s="129">
         <f>SUM(B27:C27)</f>
         <v>0</v>
       </c>
@@ -4157,7 +4167,7 @@
         <v>198400</v>
       </c>
       <c r="G27" s="124">
-        <f>SUM(E27:F27)</f>
+        <f t="shared" ref="G27:G37" si="3">SUM(E27:F27)</f>
         <v>275900</v>
       </c>
       <c r="H27" s="124">
@@ -4169,9 +4179,9 @@
       <c r="A28" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="193"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
       <c r="E28" s="124">
         <v>222750</v>
       </c>
@@ -4179,7 +4189,7 @@
         <v>211750</v>
       </c>
       <c r="G28" s="124">
-        <f>SUM(E28:F28)</f>
+        <f t="shared" si="3"/>
         <v>434500</v>
       </c>
       <c r="H28" s="124">
@@ -4191,14 +4201,14 @@
       <c r="A29" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="219">
+      <c r="B29" s="150">
         <v>5000</v>
       </c>
-      <c r="C29" s="219">
+      <c r="C29" s="150">
         <v>5000</v>
       </c>
-      <c r="D29" s="219">
-        <f t="shared" ref="D29:D30" si="2">SUM(B29:C29)</f>
+      <c r="D29" s="150">
+        <f t="shared" ref="D29:D30" si="4">SUM(B29:C29)</f>
         <v>10000</v>
       </c>
       <c r="E29" s="123">
@@ -4208,11 +4218,11 @@
         <v>20000</v>
       </c>
       <c r="G29" s="123">
-        <f>SUM(E29:F29)</f>
+        <f t="shared" si="3"/>
         <v>40000</v>
       </c>
-      <c r="H29" s="191">
-        <f>D29+G29</f>
+      <c r="H29" s="128">
+        <f t="shared" ref="H29:H37" si="5">D29+G29</f>
         <v>50000</v>
       </c>
     </row>
@@ -4220,14 +4230,14 @@
       <c r="A30" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B30" s="219">
+      <c r="B30" s="150">
         <v>10000</v>
       </c>
-      <c r="C30" s="219">
+      <c r="C30" s="150">
         <v>10000</v>
       </c>
-      <c r="D30" s="219">
-        <f t="shared" si="2"/>
+      <c r="D30" s="150">
+        <f t="shared" si="4"/>
         <v>20000</v>
       </c>
       <c r="E30" s="123">
@@ -4237,11 +4247,11 @@
         <v>110000</v>
       </c>
       <c r="G30" s="123">
-        <f>SUM(E30:F30)</f>
+        <f t="shared" si="3"/>
         <v>220000</v>
       </c>
-      <c r="H30" s="191">
-        <f>D30+G30</f>
+      <c r="H30" s="128">
+        <f t="shared" si="5"/>
         <v>240000</v>
       </c>
     </row>
@@ -4249,13 +4259,13 @@
       <c r="A31" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B31" s="219">
+      <c r="B31" s="150">
         <v>15000</v>
       </c>
-      <c r="C31" s="219">
+      <c r="C31" s="150">
         <v>15000</v>
       </c>
-      <c r="D31" s="219">
+      <c r="D31" s="150">
         <f>SUM(B31:C31)</f>
         <v>30000</v>
       </c>
@@ -4266,11 +4276,11 @@
         <v>45000</v>
       </c>
       <c r="G31" s="123">
-        <f>SUM(E31:F31)</f>
+        <f t="shared" si="3"/>
         <v>90000</v>
       </c>
       <c r="H31" s="123">
-        <f>D31+G31</f>
+        <f t="shared" si="5"/>
         <v>120000</v>
       </c>
     </row>
@@ -4278,13 +4288,13 @@
       <c r="A32" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="219">
+      <c r="B32" s="150">
         <v>15000</v>
       </c>
-      <c r="C32" s="219">
+      <c r="C32" s="150">
         <v>15000</v>
       </c>
-      <c r="D32" s="219">
+      <c r="D32" s="150">
         <f>SUM(B32:C32)</f>
         <v>30000</v>
       </c>
@@ -4295,25 +4305,25 @@
         <v>69950</v>
       </c>
       <c r="G32" s="123">
-        <f>SUM(E32:F32)</f>
+        <f t="shared" si="3"/>
         <v>139900</v>
       </c>
-      <c r="H32" s="191">
-        <f>D32+G32</f>
+      <c r="H32" s="128">
+        <f t="shared" si="5"/>
         <v>169900</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="213" t="s">
+      <c r="A33" s="144" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="219">
+      <c r="B33" s="150">
         <v>10000</v>
       </c>
-      <c r="C33" s="219">
+      <c r="C33" s="150">
         <v>10000</v>
       </c>
-      <c r="D33" s="219">
+      <c r="D33" s="150">
         <f>SUM(B33:C33)</f>
         <v>20000</v>
       </c>
@@ -4324,11 +4334,11 @@
         <v>135000</v>
       </c>
       <c r="G33" s="123">
-        <f>SUM(E33:F33)</f>
+        <f t="shared" si="3"/>
         <v>270000</v>
       </c>
       <c r="H33" s="123">
-        <f>D33+G33</f>
+        <f t="shared" si="5"/>
         <v>290000</v>
       </c>
     </row>
@@ -4336,13 +4346,13 @@
       <c r="A34" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="217">
+      <c r="B34" s="148">
         <v>7500</v>
       </c>
-      <c r="C34" s="217">
+      <c r="C34" s="148">
         <v>7500</v>
       </c>
-      <c r="D34" s="217">
+      <c r="D34" s="148">
         <v>15000</v>
       </c>
       <c r="E34" s="124">
@@ -4352,11 +4362,11 @@
         <v>32500</v>
       </c>
       <c r="G34" s="124">
-        <f>SUM(E34:F34)</f>
+        <f t="shared" si="3"/>
         <v>65000</v>
       </c>
       <c r="H34" s="124">
-        <f>D34+G34</f>
+        <f t="shared" si="5"/>
         <v>80000</v>
       </c>
     </row>
@@ -4364,15 +4374,15 @@
       <c r="A35" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="220">
+      <c r="B35" s="151">
         <f>D35/2</f>
         <v>70000</v>
       </c>
-      <c r="C35" s="220">
+      <c r="C35" s="151">
         <f>D35/2</f>
         <v>70000</v>
       </c>
-      <c r="D35" s="220">
+      <c r="D35" s="151">
         <v>140000</v>
       </c>
       <c r="E35" s="122">
@@ -4382,25 +4392,25 @@
         <v>66800</v>
       </c>
       <c r="G35" s="122">
-        <f>SUM(E35:F35)</f>
+        <f t="shared" si="3"/>
         <v>133600</v>
       </c>
       <c r="H35" s="122">
-        <f>D35+G35</f>
+        <f t="shared" si="5"/>
         <v>273600</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="213" t="s">
+      <c r="A36" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="193">
+      <c r="B36" s="129">
         <v>0</v>
       </c>
-      <c r="C36" s="193">
+      <c r="C36" s="129">
         <v>0</v>
       </c>
-      <c r="D36" s="193">
+      <c r="D36" s="129">
         <f>SUM(B36:C36)</f>
         <v>0</v>
       </c>
@@ -4411,25 +4421,25 @@
         <v>13500</v>
       </c>
       <c r="G36" s="122">
-        <f>SUM(E36:F36)</f>
+        <f t="shared" si="3"/>
         <v>27000</v>
       </c>
       <c r="H36" s="122">
-        <f>D36+G36</f>
+        <f t="shared" si="5"/>
         <v>27000</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="213" t="s">
+      <c r="A37" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="193">
+      <c r="B37" s="129">
         <v>0</v>
       </c>
-      <c r="C37" s="193">
+      <c r="C37" s="129">
         <v>0</v>
       </c>
-      <c r="D37" s="193">
+      <c r="D37" s="129">
         <f>SUM(B37:C37)</f>
         <v>0</v>
       </c>
@@ -4440,23 +4450,23 @@
         <v>61500</v>
       </c>
       <c r="G37" s="122">
-        <f>SUM(E37:F37)</f>
+        <f t="shared" si="3"/>
         <v>123000</v>
       </c>
       <c r="H37" s="122">
-        <f>D37+G37</f>
+        <f t="shared" si="5"/>
         <v>123000</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="187" t="s">
+      <c r="A38" s="126" t="s">
         <v>209</v>
       </c>
-      <c r="B38" s="220">
+      <c r="B38" s="151">
         <v>20000</v>
       </c>
-      <c r="C38" s="220"/>
-      <c r="D38" s="220">
+      <c r="C38" s="151"/>
+      <c r="D38" s="151">
         <f>SUM(B38:C38)</f>
         <v>20000</v>
       </c>
@@ -4466,104 +4476,105 @@
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="187" t="s">
+      <c r="A39" s="126" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="193"/>
-      <c r="C39" s="193"/>
-      <c r="D39" s="193"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
       <c r="E39" s="122"/>
       <c r="F39" s="122"/>
       <c r="G39" s="122"/>
       <c r="H39" s="122"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A40" s="231" t="s">
+      <c r="A40" s="159" t="s">
         <v>211</v>
       </c>
-      <c r="B40" s="200"/>
-      <c r="C40" s="200"/>
-      <c r="D40" s="200"/>
-      <c r="E40" s="211">
+      <c r="B40" s="132"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="142">
         <v>15000</v>
       </c>
-      <c r="F40" s="211">
+      <c r="F40" s="142">
         <v>10000</v>
       </c>
-      <c r="G40" s="211">
+      <c r="G40" s="142">
         <f>SUM(E40:F40)</f>
         <v>25000</v>
       </c>
-      <c r="H40" s="211">
+      <c r="H40" s="142">
         <f>G40</f>
         <v>25000</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A41" s="212" t="s">
+      <c r="A41" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="203">
-        <f>SUM(B24:B38)</f>
+      <c r="B41" s="134">
+        <f t="shared" ref="B41:H41" si="6">SUM(B24:B38)</f>
         <v>367500</v>
       </c>
-      <c r="C41" s="203">
-        <f>SUM(C24:C38)</f>
+      <c r="C41" s="134">
+        <f t="shared" si="6"/>
         <v>232500</v>
       </c>
-      <c r="D41" s="203">
-        <f>SUM(D24:D38)</f>
+      <c r="D41" s="134">
+        <f t="shared" si="6"/>
         <v>600000</v>
       </c>
-      <c r="E41" s="203">
+      <c r="E41" s="134">
         <f>SUM(E24:E38)</f>
-        <v>1059500</v>
-      </c>
-      <c r="F41" s="203">
-        <f>SUM(F24:F38)</f>
-        <v>964400</v>
-      </c>
-      <c r="G41" s="203">
-        <f>SUM(G24:G38)</f>
-        <v>2023900</v>
-      </c>
-      <c r="H41" s="204">
-        <f>SUM(H24:H38)</f>
-        <v>2403900</v>
-      </c>
-      <c r="I41" s="230"/>
+        <v>1973007.1217948701</v>
+      </c>
+      <c r="F41" s="134">
+        <f t="shared" si="6"/>
+        <v>1779028.378205128</v>
+      </c>
+      <c r="G41" s="134">
+        <f t="shared" si="6"/>
+        <v>3752035.4999999981</v>
+      </c>
+      <c r="H41" s="135">
+        <f t="shared" si="6"/>
+        <v>4332035.4999999981</v>
+      </c>
+      <c r="I41" s="158"/>
       <c r="J41" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5039,39 +5050,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="220" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="152" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="178" t="s">
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="224" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="179" t="s">
+      <c r="J1" s="225" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="138" t="s">
+      <c r="K1" s="226"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="167" t="s">
+      <c r="N1" s="205"/>
+      <c r="O1" s="205"/>
+      <c r="P1" s="206"/>
+      <c r="Q1" s="213" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="177"/>
+      <c r="A2" s="222"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="223"/>
       <c r="D2" s="83" t="s">
         <v>84</v>
       </c>
@@ -5084,10 +5095,10 @@
       <c r="G2" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="178"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="177"/>
+      <c r="H2" s="224"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="223"/>
       <c r="M2" s="83" t="s">
         <v>84</v>
       </c>
@@ -5100,7 +5111,7 @@
       <c r="P2" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="168"/>
+      <c r="Q2" s="214"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="59" t="s">
@@ -5130,7 +5141,7 @@
       <c r="L3" s="89">
         <v>5</v>
       </c>
-      <c r="M3" s="169">
+      <c r="M3" s="215">
         <v>2</v>
       </c>
       <c r="N3" s="90">
@@ -5170,7 +5181,7 @@
       <c r="L4" s="89">
         <v>3</v>
       </c>
-      <c r="M4" s="170"/>
+      <c r="M4" s="216"/>
       <c r="N4" s="92"/>
       <c r="O4" s="92"/>
       <c r="P4" s="93"/>
@@ -5580,10 +5591,10 @@
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="173" t="s">
+      <c r="A22" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="173"/>
+      <c r="B22" s="219"/>
       <c r="C22" s="62">
         <f>SUM(C3:C20)</f>
         <v>41</v>
@@ -5608,10 +5619,10 @@
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="171" t="s">
+      <c r="J22" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="172"/>
+      <c r="K22" s="218"/>
       <c r="L22" s="106">
         <f>SUM(L3:L10)</f>
         <v>37</v>
@@ -5885,7 +5896,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="183" t="s">
+      <c r="A10" s="229" t="s">
         <v>159</v>
       </c>
       <c r="B10" s="119" t="s">
@@ -5899,7 +5910,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="184"/>
+      <c r="A11" s="230"/>
       <c r="B11" s="119" t="s">
         <v>69</v>
       </c>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -1679,25 +1679,10 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,35 +1694,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1777,9 +1735,90 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1789,50 +1828,11 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2206,21 +2206,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="169"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="164"/>
       <c r="G1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="177">
+      <c r="H1" s="165">
         <f>H2+H3</f>
         <v>78</v>
       </c>
-      <c r="I1" s="177"/>
+      <c r="I1" s="165"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="11"/>
@@ -2468,8 +2468,8 @@
       <c r="B14" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="187"/>
-      <c r="D14" s="188"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="174"/>
       <c r="E14" s="79">
         <f>SUM(E5:E13)</f>
         <v>1928135.5</v>
@@ -2482,8 +2482,8 @@
       <c r="B15" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="187"/>
-      <c r="D15" s="188"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="174"/>
       <c r="E15" s="72">
         <f>E14/H1</f>
         <v>24719.685897435898</v>
@@ -2499,24 +2499,24 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A17" s="167" t="s">
+      <c r="A17" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="168"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="169"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="164"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="189" t="s">
+      <c r="B18" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="184"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="170"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -2524,19 +2524,19 @@
       <c r="G18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="160">
+      <c r="H18" s="180">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="I18" s="194"/>
+      <c r="I18" s="181"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="190"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="185"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="14">
         <f>640*310</f>
         <v>198400</v>
@@ -2544,19 +2544,19 @@
       <c r="G19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="192">
+      <c r="H19" s="178">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="I19" s="193"/>
+      <c r="I19" s="179"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="191"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="185"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="171"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2573,28 +2573,28 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="180" t="s">
+      <c r="A22" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="181"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="182"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="168"/>
       <c r="K22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="178">
+      <c r="L22" s="160">
         <f>H1</f>
         <v>78</v>
       </c>
-      <c r="M22" s="179"/>
+      <c r="M22" s="161"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="177" t="s">
+      <c r="B23" s="165" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
@@ -2611,17 +2611,17 @@
       <c r="K23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="178">
+      <c r="L23" s="160">
         <v>1</v>
       </c>
-      <c r="M23" s="179"/>
+      <c r="M23" s="161"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="177"/>
+      <c r="B24" s="165"/>
       <c r="C24" s="21">
         <v>12000</v>
       </c>
@@ -2635,17 +2635,17 @@
       <c r="K24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="178">
+      <c r="L24" s="160">
         <v>9</v>
       </c>
-      <c r="M24" s="179"/>
+      <c r="M24" s="161"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="177"/>
+      <c r="B25" s="165"/>
       <c r="C25" s="21">
         <v>18500</v>
       </c>
@@ -2659,15 +2659,15 @@
       <c r="K25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="176"/>
-      <c r="M25" s="176"/>
+      <c r="L25" s="186"/>
+      <c r="M25" s="186"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="177"/>
+      <c r="B26" s="165"/>
       <c r="C26" s="21">
         <v>7500</v>
       </c>
@@ -2681,8 +2681,8 @@
       <c r="K26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="174"/>
-      <c r="M26" s="175"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="185"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
@@ -2705,7 +2705,7 @@
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="165" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="21">
@@ -2726,7 +2726,7 @@
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="177"/>
+      <c r="B29" s="165"/>
       <c r="C29" s="21">
         <v>5500</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="177"/>
+      <c r="B30" s="165"/>
       <c r="C30" s="21">
         <v>1850</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="A31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="177"/>
+      <c r="B31" s="165"/>
       <c r="C31" s="21">
         <v>1850</v>
       </c>
@@ -2785,7 +2785,7 @@
       <c r="A32" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="177"/>
+      <c r="B32" s="165"/>
       <c r="C32" s="21">
         <v>1850</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="177"/>
+      <c r="B33" s="165"/>
       <c r="C33" s="21">
         <v>2000</v>
       </c>
@@ -2820,7 +2820,7 @@
       <c r="A34" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="177"/>
+      <c r="B34" s="165"/>
       <c r="C34" s="21">
         <v>2000</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="177"/>
+      <c r="B35" s="165"/>
       <c r="C35" s="21">
         <v>7500</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="170" t="s">
+      <c r="B37" s="187" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="11">
@@ -2894,7 +2894,7 @@
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="170"/>
+      <c r="B38" s="187"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="A39" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="171"/>
+      <c r="B39" s="188"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -2964,19 +2964,19 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A42" s="167" t="s">
+      <c r="A42" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
-      <c r="E42" s="169"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="164"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="172" t="s">
+      <c r="B43" s="182" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="11"/>
@@ -2989,7 +2989,7 @@
       <c r="A44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="172"/>
+      <c r="B44" s="182"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -3000,7 +3000,7 @@
       <c r="A45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="172"/>
+      <c r="B45" s="182"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -3011,7 +3011,7 @@
       <c r="A46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="172"/>
+      <c r="B46" s="182"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -3022,7 +3022,7 @@
       <c r="A47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="172"/>
+      <c r="B47" s="182"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -3033,7 +3033,7 @@
       <c r="A48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="172"/>
+      <c r="B48" s="182"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -3044,7 +3044,7 @@
       <c r="A49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="172"/>
+      <c r="B49" s="182"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="82">
@@ -3055,7 +3055,7 @@
       <c r="A50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="173"/>
+      <c r="B50" s="183"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
@@ -3065,13 +3065,13 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A52" s="167" t="s">
+      <c r="A52" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="168"/>
-      <c r="C52" s="168"/>
-      <c r="D52" s="168"/>
-      <c r="E52" s="169"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
+      <c r="E52" s="164"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="29" t="s">
@@ -3168,19 +3168,19 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A58" s="167" t="s">
+      <c r="A58" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="168"/>
-      <c r="C58" s="168"/>
-      <c r="D58" s="168"/>
-      <c r="E58" s="169"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="164"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="170" t="s">
+      <c r="B59" s="187" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="146"/>
@@ -3193,7 +3193,7 @@
       <c r="A60" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="170"/>
+      <c r="B60" s="187"/>
       <c r="C60" s="145"/>
       <c r="D60" s="145"/>
       <c r="E60" s="3">
@@ -3204,7 +3204,7 @@
       <c r="A61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="170"/>
+      <c r="B61" s="187"/>
       <c r="C61" s="145"/>
       <c r="D61" s="145"/>
       <c r="E61" s="82">
@@ -3215,7 +3215,7 @@
       <c r="A62" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="170"/>
+      <c r="B62" s="187"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="141">
@@ -3237,7 +3237,7 @@
       <c r="A63" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B63" s="170"/>
+      <c r="B63" s="187"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="141"/>
@@ -3257,7 +3257,7 @@
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="170"/>
+      <c r="B64" s="187"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="82">
@@ -3268,7 +3268,7 @@
       <c r="A65" s="126" t="s">
         <v>212</v>
       </c>
-      <c r="B65" s="170"/>
+      <c r="B65" s="187"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="22">
@@ -3282,7 +3282,7 @@
       <c r="A66" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="170"/>
+      <c r="B66" s="187"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="82">
@@ -3296,7 +3296,7 @@
       <c r="A67" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="170"/>
+      <c r="B67" s="187"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="82">
@@ -3310,7 +3310,7 @@
       <c r="A68" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="170"/>
+      <c r="B68" s="187"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="22"/>
@@ -3322,7 +3322,7 @@
       <c r="A69" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="170"/>
+      <c r="B69" s="187"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="22"/>
@@ -3334,7 +3334,7 @@
       <c r="A70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="170"/>
+      <c r="B70" s="187"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="82">
@@ -3348,7 +3348,7 @@
       <c r="A71" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="170"/>
+      <c r="B71" s="187"/>
       <c r="C71" s="2">
         <v>59</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="A72" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B72" s="170"/>
+      <c r="B72" s="187"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="21">
@@ -3378,7 +3378,7 @@
       <c r="A73" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="170"/>
+      <c r="B73" s="187"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="82">
@@ -3390,7 +3390,7 @@
       <c r="A74" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="170"/>
+      <c r="B74" s="187"/>
       <c r="C74" s="2">
         <v>450</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="A75" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B75" s="170"/>
+      <c r="B75" s="187"/>
       <c r="C75" s="2">
         <v>2392</v>
       </c>
@@ -3423,7 +3423,7 @@
       <c r="A76" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B76" s="170"/>
+      <c r="B76" s="187"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="82">
@@ -3435,7 +3435,7 @@
       <c r="A77" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B77" s="171"/>
+      <c r="B77" s="188"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="21">
@@ -3463,34 +3463,46 @@
         <f>E14+E20+E40+E50+E56</f>
         <v>3890335.5</v>
       </c>
-      <c r="G79" s="164" t="s">
+      <c r="G79" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="H79" s="165"/>
-      <c r="I79" s="166"/>
+      <c r="H79" s="193"/>
+      <c r="I79" s="194"/>
     </row>
     <row r="80" spans="1:9">
       <c r="G80" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H80" s="160" t="e">
+      <c r="H80" s="180" t="e">
         <f>$I$2+$H$18+$I$38+$I$54+$I$62+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I80" s="161"/>
+      <c r="I80" s="189"/>
     </row>
     <row r="81" spans="7:9" ht="15.75" thickBot="1">
       <c r="G81" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="162" t="e">
+      <c r="H81" s="190" t="e">
         <f>$I$3+$H$19+$I$39+$I$63+$I$55+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I81" s="163"/>
+      <c r="I81" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:B77"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B28:B35"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L24:M24"/>
@@ -3507,18 +3519,6 @@
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="B59:B77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3529,8 +3529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3546,68 +3546,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="172" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="206"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="196"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="208"/>
-      <c r="B2" s="176" t="s">
+      <c r="A2" s="200"/>
+      <c r="B2" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="209" t="s">
+      <c r="C2" s="186"/>
+      <c r="D2" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="176" t="s">
+      <c r="E2" s="186" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="211" t="s">
+      <c r="F2" s="186"/>
+      <c r="G2" s="203" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="207" t="s">
+      <c r="H2" s="197" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="208"/>
+      <c r="A3" s="200"/>
       <c r="B3" s="125" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="210"/>
+      <c r="D3" s="202"/>
       <c r="E3" s="125" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="212"/>
-      <c r="H3" s="207"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="197"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="198" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="144" t="s">
@@ -3623,11 +3623,11 @@
         <f t="shared" ref="D5:D15" si="0">SUM(B5:C5)</f>
         <v>28300</v>
       </c>
-      <c r="E5" s="178" t="s">
+      <c r="E5" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="198"/>
-      <c r="G5" s="179"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="161"/>
       <c r="H5" s="151">
         <f>D5</f>
         <v>28300</v>
@@ -3649,11 +3649,11 @@
         <f t="shared" si="0"/>
         <v>235100</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="198"/>
-      <c r="G6" s="179"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="161"/>
       <c r="H6" s="151">
         <f t="shared" ref="H6:H20" si="1">D6</f>
         <v>235100</v>
@@ -3675,11 +3675,11 @@
         <f t="shared" si="0"/>
         <v>20193</v>
       </c>
-      <c r="E7" s="178" t="s">
+      <c r="E7" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="198"/>
-      <c r="G7" s="179"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="161"/>
       <c r="H7" s="151">
         <f t="shared" si="1"/>
         <v>20193</v>
@@ -3701,11 +3701,11 @@
         <f t="shared" si="0"/>
         <v>41910</v>
       </c>
-      <c r="E8" s="178" t="s">
+      <c r="E8" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="198"/>
-      <c r="G8" s="179"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="161"/>
       <c r="H8" s="151">
         <f t="shared" si="1"/>
         <v>41910</v>
@@ -3727,11 +3727,11 @@
         <f t="shared" si="0"/>
         <v>6925</v>
       </c>
-      <c r="E9" s="178" t="s">
+      <c r="E9" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="198"/>
-      <c r="G9" s="179"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="161"/>
       <c r="H9" s="151">
         <f>D9</f>
         <v>6925</v>
@@ -3751,11 +3751,11 @@
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="198"/>
-      <c r="G10" s="179"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="161"/>
       <c r="H10" s="151">
         <f t="shared" si="1"/>
         <v>1440</v>
@@ -3775,11 +3775,11 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E11" s="178" t="s">
+      <c r="E11" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="198"/>
-      <c r="G11" s="179"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="161"/>
       <c r="H11" s="151">
         <f t="shared" si="1"/>
         <v>2500</v>
@@ -3799,11 +3799,11 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E12" s="178" t="s">
+      <c r="E12" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="198"/>
-      <c r="G12" s="179"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="161"/>
       <c r="H12" s="151">
         <f t="shared" si="1"/>
         <v>1500</v>
@@ -3823,11 +3823,11 @@
         <f t="shared" si="0"/>
         <v>14995</v>
       </c>
-      <c r="E13" s="202" t="s">
+      <c r="E13" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="203"/>
-      <c r="G13" s="204"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="207"/>
       <c r="H13" s="151">
         <f t="shared" si="1"/>
         <v>14995</v>
@@ -3847,11 +3847,11 @@
         <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="E14" s="178" t="s">
+      <c r="E14" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="198"/>
-      <c r="G14" s="179"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="161"/>
       <c r="H14" s="151">
         <f t="shared" si="1"/>
         <v>24900</v>
@@ -3871,11 +3871,11 @@
         <f t="shared" si="0"/>
         <v>28088</v>
       </c>
-      <c r="E15" s="178" t="s">
+      <c r="E15" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="198"/>
-      <c r="G15" s="179"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="161"/>
       <c r="H15" s="151">
         <f t="shared" si="1"/>
         <v>28088</v>
@@ -3895,11 +3895,11 @@
         <f t="shared" ref="D16:D17" si="2">SUM(B16:C16)</f>
         <v>3239</v>
       </c>
-      <c r="E16" s="178" t="s">
+      <c r="E16" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="198"/>
-      <c r="G16" s="179"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="161"/>
       <c r="H16" s="151">
         <f t="shared" si="1"/>
         <v>3239</v>
@@ -3919,11 +3919,11 @@
         <f t="shared" si="2"/>
         <v>2700</v>
       </c>
-      <c r="E17" s="178" t="s">
+      <c r="E17" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="198"/>
-      <c r="G17" s="179"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="161"/>
       <c r="H17" s="151">
         <f t="shared" si="1"/>
         <v>2700</v>
@@ -3945,11 +3945,11 @@
         <f>SUM(B18:C18)</f>
         <v>7176</v>
       </c>
-      <c r="E18" s="178" t="s">
+      <c r="E18" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="198"/>
-      <c r="G18" s="179"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="161"/>
       <c r="H18" s="151">
         <f t="shared" si="1"/>
         <v>7176</v>
@@ -3969,11 +3969,11 @@
         <f>SUM(B19:C19)</f>
         <v>2950</v>
       </c>
-      <c r="E19" s="200" t="s">
+      <c r="E19" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="211"/>
       <c r="H19" s="151">
         <f t="shared" si="1"/>
         <v>2950</v>
@@ -3993,11 +3993,11 @@
         <f>C20</f>
         <v>149970</v>
       </c>
-      <c r="E20" s="201" t="s">
+      <c r="E20" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="212"/>
       <c r="H20" s="157">
         <f t="shared" si="1"/>
         <v>149970</v>
@@ -4019,11 +4019,11 @@
         <f>SUM(D5:D20)</f>
         <v>571886</v>
       </c>
-      <c r="E21" s="195" t="s">
+      <c r="E21" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="196"/>
-      <c r="G21" s="197"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="147">
         <f>SUM(H5:H20)</f>
         <v>571886</v>
@@ -4040,16 +4040,16 @@
       <c r="H22" s="138"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="199" t="s">
+      <c r="A23" s="198" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="199"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="199"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="198"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
@@ -4546,6 +4546,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E13:G13"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -4557,21 +4572,6 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5055,12 +5055,12 @@
       </c>
       <c r="B1" s="220"/>
       <c r="C1" s="221"/>
-      <c r="D1" s="176" t="s">
+      <c r="D1" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="172"/>
       <c r="H1" s="224" t="s">
         <v>113</v>
       </c>
@@ -5069,12 +5069,12 @@
       </c>
       <c r="K1" s="226"/>
       <c r="L1" s="227"/>
-      <c r="M1" s="186" t="s">
+      <c r="M1" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="205"/>
-      <c r="O1" s="205"/>
-      <c r="P1" s="206"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="196"/>
       <c r="Q1" s="213" t="s">
         <v>113</v>
       </c>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="-15" windowWidth="15135" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="12765"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
-    <sheet name="TÉNYLEGES" sheetId="7" r:id="rId2"/>
+    <sheet name="TÉNYLEGES" sheetId="8" r:id="rId2"/>
     <sheet name="Kieg. - Ital" sheetId="3" r:id="rId3"/>
     <sheet name="Meghívottak" sheetId="4" r:id="rId4"/>
     <sheet name="Kontaktok" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TÉNYLEGES!$A$1:$J$3</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="213">
   <si>
     <t>TOTAL</t>
   </si>
@@ -663,7 +666,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _F_t_-;\-* #,##0\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
@@ -671,6 +674,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0\ [$Ft-40E]_-;\-* #,##0\ [$Ft-40E]_-;_-* &quot;-&quot;??\ [$Ft-40E]_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="[&lt;=999999999]\(##\)\ ###\-##\-##;[&lt;=6999999999]0#\ \(##\)###\-##\-##;#\ \(##\)\ ###\-##\-##"/>
     <numFmt numFmtId="168" formatCode="[$-40E]mmmm\ d\.;@"/>
+    <numFmt numFmtId="172" formatCode="#,##0\ &quot;Ft&quot;"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1428,7 +1432,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1514,11 +1518,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1616,9 +1616,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1679,23 +1676,68 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1735,50 +1777,38 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1789,12 +1819,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1810,30 +1834,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1888,6 +1888,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -2185,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2198,31 +2200,39 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="162" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A1" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="164"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="165"/>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="165">
-        <f>H2+H3</f>
+      <c r="L1" s="173">
+        <f>L2+L3</f>
         <v>78</v>
       </c>
-      <c r="I1" s="165"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="M1" s="173"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12" t="s">
@@ -2234,394 +2244,522 @@
       <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2">
         <f>Meghívottak!C22</f>
         <v>41</v>
       </c>
-      <c r="I2" s="48">
-        <f>H2*E15</f>
-        <v>1013507.1217948719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="70" t="s">
+      <c r="H2">
+        <f>Meghívottak!L22</f>
+        <v>37</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5">
+        <f>Meghívottak!C22</f>
+        <v>41</v>
+      </c>
+      <c r="M2" s="48">
+        <f>(L2-2)*M7+2*M8</f>
+        <v>1089995.185897436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="68">
         <v>2000</v>
       </c>
-      <c r="D3" s="73">
-        <f>H1</f>
+      <c r="D3" s="69">
+        <f>L1</f>
         <v>78</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="68">
         <f>C3*D3</f>
         <v>156000</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="227">
+        <f>G2*$C$3</f>
+        <v>82000</v>
+      </c>
+      <c r="H3" s="227">
+        <f>H2*$C$3</f>
+        <v>74000</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5">
+      <c r="L3" s="5">
         <f>Meghívottak!L22</f>
         <v>37</v>
       </c>
-      <c r="I3" s="48">
-        <f>H3*E15</f>
-        <v>914628.37820512825</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="70" t="s">
+      <c r="M3" s="48">
+        <f>L3*M7</f>
+        <v>998827.09615384613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="68">
         <v>12000</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="69">
         <v>1</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="68">
         <f>C4*D4</f>
         <v>12000</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="G4" s="227">
+        <f>$E$4/2</f>
+        <v>6000</v>
+      </c>
+      <c r="H4" s="227">
+        <f>$E$4/2</f>
+        <v>6000</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="68">
         <v>7800</v>
       </c>
-      <c r="D5" s="73">
-        <f>H1</f>
-        <v>78</v>
-      </c>
-      <c r="E5" s="72">
+      <c r="D5" s="69">
+        <f>L1-2</f>
+        <v>76</v>
+      </c>
+      <c r="E5" s="68">
         <f>C5*D5</f>
-        <v>608400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="75" t="s">
+        <v>592800</v>
+      </c>
+      <c r="G5" s="227">
+        <f>(G2-2)*C5</f>
+        <v>304200</v>
+      </c>
+      <c r="H5" s="227">
+        <f>H2*C5</f>
+        <v>288600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="68">
         <v>3900</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="69">
         <v>2</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="68">
         <f>C6*D6</f>
         <v>7800</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="73" t="s">
+      <c r="G6" s="227">
+        <f>2*C6</f>
+        <v>7800</v>
+      </c>
+      <c r="H6" s="227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="68">
         <v>2900</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="72">
         <v>37</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="68">
         <f>C7*D7</f>
         <v>107300</v>
       </c>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="G7" s="227">
+        <f>$E$7/2</f>
+        <v>53650</v>
+      </c>
+      <c r="H7" s="227">
+        <f>$E$7/2</f>
+        <v>53650</v>
+      </c>
+      <c r="M7">
+        <f>C4/L1+(C3+C5+C7/2+C8+C9+C10+C11+E13/L1)*1.1</f>
+        <v>26995.326923076922</v>
+      </c>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="72">
         <f>E8/D8</f>
         <v>1205.1282051282051</v>
       </c>
-      <c r="D8" s="73">
-        <f>$H$1</f>
+      <c r="D8" s="69">
+        <f>$L$1</f>
         <v>78</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="68">
         <v>94000</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="G8" s="227">
+        <f>$G$2*$C$8</f>
+        <v>49410.256410256407</v>
+      </c>
+      <c r="H8" s="227">
+        <f>$H$2*$C$8</f>
+        <v>44589.743589743586</v>
+      </c>
+      <c r="M8">
+        <f>C4/L1+(C3+C6+C7/2+C8+C9+E13/L1)*1.1</f>
+        <v>18588.717948717949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="68">
         <v>7800</v>
       </c>
-      <c r="D9" s="73">
-        <f>$H$1</f>
+      <c r="D9" s="69">
+        <f>$L$1</f>
         <v>78</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="68">
         <f t="shared" ref="E9:E10" si="0">C9*D9</f>
         <v>608400</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="73" t="s">
+      <c r="G9" s="227">
+        <f>$G$2*$C$9</f>
+        <v>319800</v>
+      </c>
+      <c r="H9" s="227">
+        <f>$H$2*$C$9</f>
+        <v>288600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="68">
         <v>1500</v>
       </c>
-      <c r="D10" s="73">
-        <f>$H$1</f>
-        <v>78</v>
-      </c>
-      <c r="E10" s="72">
+      <c r="D10" s="69">
+        <f>$L$1-2</f>
+        <v>76</v>
+      </c>
+      <c r="E10" s="68">
         <f t="shared" si="0"/>
-        <v>117000</v>
-      </c>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="73" t="s">
+        <v>114000</v>
+      </c>
+      <c r="G10" s="227">
+        <f>($G$2-2)*C10</f>
+        <v>58500</v>
+      </c>
+      <c r="H10" s="227">
+        <f>H2*C10</f>
+        <v>55500</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="76">
-        <f>'Kieg. - Ital'!C4/TERVEZETT!H1</f>
+      <c r="B11" s="67"/>
+      <c r="C11" s="72">
+        <f>'Kieg. - Ital'!C4/TERVEZETT!L1</f>
         <v>2242.3717948717949</v>
       </c>
-      <c r="D11" s="73">
-        <f>$H$1</f>
-        <v>78</v>
-      </c>
-      <c r="E11" s="111">
+      <c r="D11" s="69">
+        <f>$L$1-2</f>
+        <v>76</v>
+      </c>
+      <c r="E11" s="107">
         <f>C11*D11</f>
-        <v>174905</v>
-      </c>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="73" t="s">
+        <v>170420.25641025641</v>
+      </c>
+      <c r="G11" s="227">
+        <f>(G2-2)*C11</f>
+        <v>87452.5</v>
+      </c>
+      <c r="H11" s="227">
+        <f>H2*C11</f>
+        <v>82967.756410256407</v>
+      </c>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="72">
-        <f>(E3+E5+E6+E7+E8+E9+E13+E11)*0.1</f>
-        <v>178830.5</v>
-      </c>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="73" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="68">
+        <f>(E3+E5+E6+E7+E8+E9+E13)*0.1</f>
+        <v>159780</v>
+      </c>
+      <c r="G12" s="227">
+        <f>SUM(G3,G5:G10)*0.1+G13*0.1</f>
+        <v>89111.025641025641</v>
+      </c>
+      <c r="H12" s="227">
+        <f>SUM(H3,H5:H10)*0.1+H13*0.1</f>
+        <v>82068.974358974359</v>
+      </c>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="69">
         <v>3500</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="69">
         <v>9</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="68">
         <f>C13*D13</f>
         <v>31500</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="77" t="s">
+      <c r="G13" s="227">
+        <f>$E$13/2</f>
+        <v>15750</v>
+      </c>
+      <c r="H13" s="227">
+        <f>$E$13/2</f>
+        <v>15750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="79">
-        <f>SUM(E5:E13)</f>
-        <v>1928135.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="80" t="s">
+      <c r="C14" s="183"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="75">
+        <f>SUM(E3:E13)</f>
+        <v>2054000.2564102565</v>
+      </c>
+      <c r="G14" s="228">
+        <f>SUM(G3:G13)</f>
+        <v>1073673.782051282</v>
+      </c>
+      <c r="H14" s="228">
+        <f>SUM(H3:H13)</f>
+        <v>991726.47435897426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="72">
-        <f>E14/H1</f>
-        <v>24719.685897435898</v>
-      </c>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1">
+      <c r="C15" s="183"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="68">
+        <f>E14/L1</f>
+        <v>26333.336620644313</v>
+      </c>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" thickBot="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="10"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A17" s="162" t="s">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A17" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="164"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="B17" s="164"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="165"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="175" t="s">
+      <c r="B18" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="169"/>
-      <c r="D18" s="170"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="180">
+      <c r="G18" s="228">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="I18" s="181"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="H18" s="228">
+        <f>E19</f>
+        <v>198400</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="156">
+        <f>E18</f>
+        <v>77500</v>
+      </c>
+      <c r="M18" s="190"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="176"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="171"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="181"/>
       <c r="E19" s="14">
         <f>640*310</f>
         <v>198400</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="K19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="178">
+      <c r="L19" s="188">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="I19" s="179"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="M19" s="189"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="177"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="171"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="181"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" thickBot="1">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="7"/>
-      <c r="J21" s="1"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="166" t="s">
+      <c r="N21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="167"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="168"/>
-      <c r="K22" s="2" t="s">
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="178"/>
+      <c r="O22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="160">
-        <f>H1</f>
+      <c r="P22" s="174">
+        <f>L1</f>
         <v>78</v>
       </c>
-      <c r="M22" s="161"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="Q22" s="175"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="165" t="s">
+      <c r="B23" s="173" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
         <v>450</v>
       </c>
       <c r="D23" s="2">
-        <f>78+5</f>
+        <f>L1+5</f>
         <v>83</v>
       </c>
       <c r="E23" s="3">
         <f>C23*D23</f>
         <v>37350</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="G23" s="227">
+        <f>(G2+2.5)*C23</f>
+        <v>19575</v>
+      </c>
+      <c r="H23" s="227">
+        <f>(H2+2.5)*C23</f>
+        <v>17775</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="160">
+      <c r="P23" s="174">
         <v>1</v>
       </c>
-      <c r="M23" s="161"/>
-      <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="Q23" s="175"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="165"/>
+      <c r="B24" s="173"/>
       <c r="C24" s="21">
         <v>12000</v>
       </c>
@@ -2632,20 +2770,28 @@
         <f>C24*D24</f>
         <v>108000</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="G24" s="227">
+        <f>C24*5</f>
+        <v>60000</v>
+      </c>
+      <c r="H24" s="227">
+        <f>C24*4</f>
+        <v>48000</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="160">
+      <c r="P24" s="174">
         <v>9</v>
       </c>
-      <c r="M24" s="161"/>
-      <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="Q24" s="175"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="165"/>
+      <c r="B25" s="173"/>
       <c r="C25" s="21">
         <v>18500</v>
       </c>
@@ -2656,18 +2802,26 @@
         <f>C25*D25</f>
         <v>18500</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="G25" s="227">
+        <f t="shared" ref="G23:H38" si="1">$E25/2</f>
+        <v>9250</v>
+      </c>
+      <c r="H25" s="227">
+        <f t="shared" si="1"/>
+        <v>9250</v>
+      </c>
+      <c r="O25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="186"/>
-      <c r="M25" s="186"/>
-      <c r="S25" s="1"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="P25" s="172"/>
+      <c r="Q25" s="172"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="165"/>
+      <c r="B26" s="173"/>
       <c r="C26" s="21">
         <v>7500</v>
       </c>
@@ -2678,34 +2832,50 @@
         <f>C26*D26</f>
         <v>7500</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="G26" s="227">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="H26" s="227">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+      <c r="O26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="184"/>
-      <c r="M26" s="185"/>
-      <c r="S26" s="1"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="P26" s="170"/>
+      <c r="Q26" s="171"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="117" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="82">
+      <c r="E27" s="78">
         <v>20000</v>
       </c>
-      <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="G27" s="227">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="H27" s="227">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="165" t="s">
+      <c r="B28" s="173" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="21">
@@ -2715,18 +2885,27 @@
         <v>1</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" ref="E28:E36" si="1">C28*D28</f>
+        <f t="shared" ref="E28:E36" si="2">C28*D28</f>
         <v>22500</v>
       </c>
       <c r="F28" s="49" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="G28" s="227">
+        <f>E28</f>
+        <v>22500</v>
+      </c>
+      <c r="H28" s="227">
+        <v>0</v>
+      </c>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="165"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="21">
         <v>5500</v>
       </c>
@@ -2734,19 +2913,28 @@
         <v>1</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5500</v>
       </c>
       <c r="F29" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="G29" s="227">
+        <f>E29</f>
+        <v>5500</v>
+      </c>
+      <c r="H29" s="227">
+        <v>0</v>
+      </c>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="165"/>
+      <c r="B30" s="173"/>
       <c r="C30" s="21">
         <v>1850</v>
       </c>
@@ -2754,19 +2942,28 @@
         <v>1</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1850</v>
       </c>
       <c r="F30" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="G30" s="227">
+        <v>0</v>
+      </c>
+      <c r="H30" s="227">
+        <f>E30</f>
+        <v>1850</v>
+      </c>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="165"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="21">
         <v>1850</v>
       </c>
@@ -2777,15 +2974,23 @@
         <f>C31*D31</f>
         <v>3700</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="G31" s="227">
+        <f t="shared" si="1"/>
+        <v>1850</v>
+      </c>
+      <c r="H31" s="227">
+        <f t="shared" si="1"/>
+        <v>1850</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="165"/>
+      <c r="B32" s="173"/>
       <c r="C32" s="21">
         <v>1850</v>
       </c>
@@ -2796,14 +3001,22 @@
         <f>C32*D32</f>
         <v>3700</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="G32" s="227">
+        <f t="shared" si="1"/>
+        <v>1850</v>
+      </c>
+      <c r="H32" s="227">
+        <f t="shared" si="1"/>
+        <v>1850</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="165"/>
+      <c r="B33" s="173"/>
       <c r="C33" s="21">
         <v>2000</v>
       </c>
@@ -2814,30 +3027,46 @@
         <f>C33*D33</f>
         <v>4000</v>
       </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="G33" s="227">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="H33" s="227">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="165"/>
+      <c r="B34" s="173"/>
       <c r="C34" s="21">
         <v>2000</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
       </c>
-      <c r="E34" s="82">
+      <c r="E34" s="78">
         <f>C34*D34</f>
         <v>6000</v>
       </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="G34" s="227">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="H34" s="227">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="165"/>
+      <c r="B35" s="173"/>
       <c r="C35" s="21">
         <v>7500</v>
       </c>
@@ -2845,16 +3074,24 @@
         <v>2</v>
       </c>
       <c r="E35" s="3">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="G35" s="227">
         <f t="shared" si="1"/>
-        <v>15000</v>
-      </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10">
+        <v>7500</v>
+      </c>
+      <c r="H35" s="227">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="116" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="21">
@@ -2864,16 +3101,24 @@
         <v>1</v>
       </c>
       <c r="E36" s="3">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="G36" s="227">
         <f t="shared" si="1"/>
-        <v>20000</v>
-      </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10">
+        <v>10000</v>
+      </c>
+      <c r="H36" s="227">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="187" t="s">
+      <c r="B37" s="166" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="11">
@@ -2886,15 +3131,23 @@
         <f>D37*C37</f>
         <v>26500</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="G37" s="227">
+        <f t="shared" si="1"/>
+        <v>13250</v>
+      </c>
+      <c r="H37" s="227">
+        <f t="shared" si="1"/>
+        <v>13250</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="187"/>
+      <c r="B38" s="166"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -2905,21 +3158,21 @@
         <f>D38*C38</f>
         <v>1500</v>
       </c>
-      <c r="G38" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="63">
-        <f>Meghívottak!G24</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="66"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="65" t="s">
+      <c r="G38" s="227">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="H38" s="227">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="188"/>
+      <c r="B39" s="167"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -2930,17 +3183,27 @@
         <f>D39*C39</f>
         <v>300</v>
       </c>
-      <c r="G39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="64">
-        <f>Meghívottak!Q14</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="G39" s="227">
+        <f>$E39/2</f>
+        <v>150</v>
+      </c>
+      <c r="H39" s="227">
+        <f>$E39/2</f>
+        <v>150</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L39" s="155">
+        <f>$L$2</f>
+        <v>41</v>
+      </c>
+      <c r="M39" s="48">
+        <f>E40/2</f>
+        <v>150950</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="16" t="s">
         <v>7</v>
       </c>
@@ -2953,30 +3216,49 @@
         <f>SUM(E23:E39)</f>
         <v>301900</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1">
+      <c r="G40" s="228">
+        <f>SUM(G23:G39)</f>
+        <v>170925</v>
+      </c>
+      <c r="H40" s="228">
+        <f>SUM(H23:H39)</f>
+        <v>130975</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="155">
+        <f>$L$3</f>
+        <v>37</v>
+      </c>
+      <c r="M40" s="48">
+        <f>E40/2</f>
+        <v>150950</v>
+      </c>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" thickBot="1">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="10"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A42" s="162" t="s">
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A42" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="163"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
-      <c r="E42" s="164"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="B42" s="164"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="165"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="182" t="s">
+      <c r="B43" s="168" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="11"/>
@@ -2985,95 +3267,125 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:14">
       <c r="A44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="182"/>
+      <c r="B44" s="168"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:14">
       <c r="A45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="182"/>
+      <c r="B45" s="168"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:14">
       <c r="A46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="182"/>
+      <c r="B46" s="168"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:14">
       <c r="A47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="182"/>
+      <c r="B47" s="168"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
         <v>169900</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:14">
       <c r="A48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="182"/>
+      <c r="B48" s="168"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
         <v>220000</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:13">
       <c r="A49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="182"/>
+      <c r="B49" s="168"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="82">
+      <c r="E49" s="78">
         <v>123000</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="K49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="155">
+        <f>$L$2</f>
+        <v>41</v>
+      </c>
+      <c r="M49" s="48">
+        <f>E50/2</f>
+        <v>474950</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="183"/>
+      <c r="B50" s="169"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
         <f>SUM(E43:E49)</f>
         <v>949900</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A52" s="162" t="s">
+      <c r="G50" s="228">
+        <f>E50/2</f>
+        <v>474950</v>
+      </c>
+      <c r="H50" s="228">
+        <f>E50/2</f>
+        <v>474950</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50" s="155">
+        <f>$L$3</f>
+        <v>37</v>
+      </c>
+      <c r="M50" s="48">
+        <f>E50/2</f>
+        <v>474950</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="52" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A52" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="163"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
-      <c r="E52" s="164"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="B52" s="164"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="165"/>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="29" t="s">
         <v>47</v>
       </c>
@@ -3084,15 +3396,23 @@
         <v>1200</v>
       </c>
       <c r="D53" s="29">
-        <f>H1</f>
+        <f>L1</f>
         <v>78</v>
       </c>
       <c r="E53" s="31">
         <f>C53*D53</f>
         <v>93600</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="G53" s="227">
+        <f>$G$2*$C53</f>
+        <v>49200</v>
+      </c>
+      <c r="H53" s="227">
+        <f>$H$2*$C53</f>
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="32" t="s">
         <v>128</v>
       </c>
@@ -3103,26 +3423,34 @@
         <v>1550</v>
       </c>
       <c r="D54" s="29">
-        <f>H1</f>
+        <f>L1</f>
         <v>78</v>
       </c>
       <c r="E54" s="31">
         <f>C54*D54</f>
         <v>120900</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="227">
+        <f>$G$2*$C54</f>
+        <v>63550</v>
+      </c>
+      <c r="H54" s="227">
+        <f>$H$2*$C54</f>
+        <v>57350</v>
+      </c>
+      <c r="K54" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H54" s="5">
-        <f>$H$2</f>
+      <c r="L54" s="5">
+        <f>$L$2</f>
         <v>41</v>
       </c>
-      <c r="I54" s="48">
-        <f>$E$55/2+($H$54*$C$53)+($H$54*$C$54)</f>
+      <c r="M54" s="48">
+        <f>$E$55/2+($L$54*$C$53)+($L$54*$C$54)</f>
         <v>222750</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:13">
       <c r="A55" s="19" t="s">
         <v>20</v>
       </c>
@@ -3134,19 +3462,27 @@
       <c r="E55" s="3">
         <v>220000</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="227">
+        <f>E55/2</f>
+        <v>110000</v>
+      </c>
+      <c r="H55" s="227">
+        <f>E55/2</f>
+        <v>110000</v>
+      </c>
+      <c r="K55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="5">
-        <f>$H$3</f>
+      <c r="L55" s="5">
+        <f>$L$3</f>
         <v>37</v>
       </c>
-      <c r="I55" s="48">
-        <f>$E$55/2+($H$55*$C$53)+($H$55*$C$54)</f>
+      <c r="M55" s="48">
+        <f>$E$55/2+($L$55*$C$53)+($L$55*$C$54)</f>
         <v>211750</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:13">
       <c r="A56" s="15" t="s">
         <v>7</v>
       </c>
@@ -3159,298 +3495,430 @@
         <f>SUM(E53:E55)</f>
         <v>434500</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1">
+      <c r="G56" s="228">
+        <f>SUM(G53:G55)</f>
+        <v>222750</v>
+      </c>
+      <c r="H56" s="228">
+        <f>SUM(H53:H55)</f>
+        <v>211750</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" thickBot="1">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A58" s="162" t="s">
+    <row r="58" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A58" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="163"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
-      <c r="E58" s="164"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="165"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="187" t="s">
+      <c r="B59" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="146"/>
-      <c r="D59" s="146"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="141"/>
       <c r="E59" s="3">
         <v>30000</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="G59" s="227">
+        <f>E59</f>
+        <v>30000</v>
+      </c>
+      <c r="H59" s="227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="187"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
+      <c r="B60" s="166"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
       <c r="E60" s="3">
         <v>190000</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="G60" s="227">
+        <f>E60</f>
+        <v>190000</v>
+      </c>
+      <c r="H60" s="227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="187"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="82">
+      <c r="B61" s="166"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="78">
         <v>149970</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="G61" s="227">
+        <v>0</v>
+      </c>
+      <c r="H61" s="227">
+        <f>E61</f>
+        <v>149970</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="187"/>
+      <c r="B62" s="166"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="141">
+      <c r="E62" s="136">
         <v>53970</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="G62" s="227"/>
+      <c r="H62" s="227"/>
+      <c r="K62" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="5">
-        <f>$H$2</f>
+      <c r="L62" s="5">
+        <f>$L$2</f>
         <v>41</v>
       </c>
-      <c r="I62" s="48">
+      <c r="M62" s="48">
         <f>SUM(E62:E64)/2</f>
         <v>144535</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:13">
       <c r="A63" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B63" s="187"/>
+      <c r="B63" s="166"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="141"/>
-      <c r="G63" s="15" t="s">
+      <c r="E63" s="136"/>
+      <c r="G63" s="227"/>
+      <c r="H63" s="227"/>
+      <c r="K63" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H63" s="5">
-        <f>$H$3</f>
+      <c r="L63" s="5">
+        <f>$L$3</f>
         <v>37</v>
       </c>
-      <c r="I63" s="48">
+      <c r="M63" s="48">
         <f>SUM(E62:E64)/2</f>
         <v>144535</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:13">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="187"/>
+      <c r="B64" s="166"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="82">
+      <c r="E64" s="78">
         <v>235100</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="126" t="s">
+      <c r="G64" s="227">
+        <f>$E$64/2</f>
+        <v>117550</v>
+      </c>
+      <c r="H64" s="227">
+        <f>$E$64/2</f>
+        <v>117550</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="B65" s="187"/>
+      <c r="B65" s="166"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="22">
         <v>25000</v>
       </c>
-      <c r="G65" s="18"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="69"/>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="G65" s="227"/>
+      <c r="H65" s="227"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="64"/>
+      <c r="M65" s="65"/>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="187"/>
+      <c r="B66" s="166"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="82">
+      <c r="E66" s="78">
         <v>24900</v>
       </c>
-      <c r="G66" s="18"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="69"/>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="G66" s="227">
+        <f>E66</f>
+        <v>24900</v>
+      </c>
+      <c r="H66" s="227">
+        <v>0</v>
+      </c>
+      <c r="K66" s="18"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="65"/>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="187"/>
+      <c r="B67" s="166"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="82">
+      <c r="E67" s="78">
         <v>41910</v>
       </c>
-      <c r="G67" s="18"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="69"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="126" t="s">
+      <c r="G67" s="227">
+        <f>$E$67/2</f>
+        <v>20955</v>
+      </c>
+      <c r="H67" s="227">
+        <f>$E$67/2</f>
+        <v>20955</v>
+      </c>
+      <c r="K67" s="18"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="65"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="187"/>
+      <c r="B68" s="166"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="22"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="69"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="126" t="s">
+      <c r="G68" s="227"/>
+      <c r="H68" s="227"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="65"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="187"/>
+      <c r="B69" s="166"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="22"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="69"/>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="G69" s="227"/>
+      <c r="H69" s="227"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="65"/>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="187"/>
+      <c r="B70" s="166"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="82">
+      <c r="E70" s="78">
         <v>80000</v>
       </c>
-      <c r="G70" s="18"/>
-      <c r="H70" s="68"/>
-      <c r="I70" s="69"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="G70" s="227">
+        <f>$E$70/2</f>
+        <v>40000</v>
+      </c>
+      <c r="H70" s="227">
+        <f>$E$70/2</f>
+        <v>40000</v>
+      </c>
+      <c r="K70" s="18"/>
+      <c r="L70" s="64"/>
+      <c r="M70" s="65"/>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="187"/>
+      <c r="B71" s="166"/>
       <c r="C71" s="2">
         <v>59</v>
       </c>
       <c r="D71" s="2">
         <v>50</v>
       </c>
-      <c r="E71" s="82">
+      <c r="E71" s="78">
         <f>C71*D71</f>
         <v>2950</v>
       </c>
-      <c r="G71" s="18"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="69"/>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="G71" s="227">
+        <f>$E71/2</f>
+        <v>1475</v>
+      </c>
+      <c r="H71" s="227">
+        <f>$E71/2</f>
+        <v>1475</v>
+      </c>
+      <c r="K71" s="18"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="65"/>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B72" s="187"/>
+      <c r="B72" s="166"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="21">
         <v>6925</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="G72" s="227">
+        <f>$E72/2</f>
+        <v>3462.5</v>
+      </c>
+      <c r="H72" s="227">
+        <f>$E72/2</f>
+        <v>3462.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="187"/>
+      <c r="B73" s="166"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="82">
+      <c r="E73" s="78">
         <f>23198+4890</f>
         <v>28088</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="G73" s="227">
+        <f>E73</f>
+        <v>28088</v>
+      </c>
+      <c r="H73" s="227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="187"/>
+      <c r="B74" s="166"/>
       <c r="C74" s="2">
         <v>450</v>
       </c>
       <c r="D74" s="2">
         <v>6</v>
       </c>
-      <c r="E74" s="82">
+      <c r="E74" s="78">
         <f>C74*D74</f>
         <v>2700</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="G74" s="227">
+        <f>$E74/2</f>
+        <v>1350</v>
+      </c>
+      <c r="H74" s="227">
+        <f>$E74/2</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B75" s="187"/>
+      <c r="B75" s="166"/>
       <c r="C75" s="2">
         <v>2392</v>
       </c>
       <c r="D75" s="2">
         <v>3</v>
       </c>
-      <c r="E75" s="82">
+      <c r="E75" s="78">
         <f>C75*D75</f>
         <v>7176</v>
       </c>
-      <c r="I75" s="127"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="G75" s="227">
+        <f>$E75/2</f>
+        <v>3588</v>
+      </c>
+      <c r="H75" s="227">
+        <f>$E75/2</f>
+        <v>3588</v>
+      </c>
+      <c r="M75" s="122"/>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B76" s="187"/>
+      <c r="B76" s="166"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="82">
+      <c r="E76" s="78">
         <f>2405+(278*3)</f>
         <v>3239</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="G76" s="227">
+        <f>E76</f>
+        <v>3239</v>
+      </c>
+      <c r="H76" s="227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B77" s="188"/>
+      <c r="B77" s="167"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="21">
         <f>950+490</f>
         <v>1440</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1">
+      <c r="G77" s="227">
+        <f>$E$77/2</f>
+        <v>720</v>
+      </c>
+      <c r="H77" s="227">
+        <f>$E$77/2</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" thickBot="1">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1">
+      <c r="G78" s="228">
+        <f>SUM(G59:G77)</f>
+        <v>465327.5</v>
+      </c>
+      <c r="H78" s="228">
+        <f>SUM(H59:H77)</f>
+        <v>339070.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" thickBot="1">
       <c r="A79" s="25" t="s">
         <v>15</v>
       </c>
@@ -3461,54 +3929,50 @@
       <c r="D79" s="26"/>
       <c r="E79" s="27">
         <f>E14+E20+E40+E50+E56</f>
-        <v>3890335.5</v>
-      </c>
-      <c r="G79" s="192" t="s">
+        <v>4016200.2564102565</v>
+      </c>
+      <c r="G79" s="228">
+        <f>G14+G18+G40+G50+G56+G78</f>
+        <v>2485126.282051282</v>
+      </c>
+      <c r="H79" s="228">
+        <f>H56+H50+H40+H18+H14+H78</f>
+        <v>2346871.974358974</v>
+      </c>
+      <c r="K79" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="H79" s="193"/>
-      <c r="I79" s="194"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="G80" s="50" t="s">
+      <c r="L79" s="161"/>
+      <c r="M79" s="162"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="K80" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H80" s="180" t="e">
-        <f>$I$2+$H$18+$I$38+$I$54+$I$62+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I80" s="189"/>
-    </row>
-    <row r="81" spans="7:9" ht="15.75" thickBot="1">
-      <c r="G81" s="51" t="s">
+      <c r="L80" s="156">
+        <f>M2+L18+M39+M49+M54+M62</f>
+        <v>2160680.185897436</v>
+      </c>
+      <c r="M80" s="157"/>
+    </row>
+    <row r="81" spans="11:13" ht="15.75" thickBot="1">
+      <c r="K81" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="190" t="e">
-        <f>$I$3+$H$19+$I$39+$I$63+$I$55+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I81" s="191"/>
+      <c r="L81" s="158">
+        <f>M3+L19+M40+M50+M55+M63</f>
+        <v>2179412.096153846</v>
+      </c>
+      <c r="M81" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="B59:B77"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -3516,9 +3980,21 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L18:M18"/>
     <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:B77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3529,8 +4005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3546,89 +4022,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="182" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="196"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="202"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="200"/>
-      <c r="B2" s="186" t="s">
+      <c r="A2" s="204"/>
+      <c r="B2" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="201" t="s">
+      <c r="C2" s="172"/>
+      <c r="D2" s="205" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="186" t="s">
+      <c r="E2" s="172" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="186"/>
-      <c r="G2" s="203" t="s">
+      <c r="F2" s="172"/>
+      <c r="G2" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="197" t="s">
+      <c r="H2" s="203" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="200"/>
-      <c r="B3" s="125" t="s">
+      <c r="A3" s="204"/>
+      <c r="B3" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="202"/>
-      <c r="E3" s="125" t="s">
+      <c r="D3" s="206"/>
+      <c r="E3" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="204"/>
-      <c r="H3" s="197"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="203"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="191" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="150">
+      <c r="B5" s="145">
         <v>14150</v>
       </c>
-      <c r="C5" s="150">
+      <c r="C5" s="145">
         <v>14150</v>
       </c>
-      <c r="D5" s="150">
-        <f t="shared" ref="D5:D15" si="0">SUM(B5:C5)</f>
+      <c r="D5" s="145">
+        <f>SUM(B5:C5)</f>
         <v>28300</v>
       </c>
-      <c r="E5" s="160" t="s">
+      <c r="E5" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="199"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="151">
+      <c r="F5" s="194"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="146">
         <f>D5</f>
         <v>28300</v>
       </c>
@@ -3637,25 +4113,25 @@
       <c r="A6" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="150">
+      <c r="B6" s="145">
         <f>235100/2</f>
         <v>117550</v>
       </c>
-      <c r="C6" s="150">
+      <c r="C6" s="145">
         <f>235100/2</f>
         <v>117550</v>
       </c>
-      <c r="D6" s="150">
-        <f t="shared" si="0"/>
+      <c r="D6" s="145">
+        <f>SUM(B6:C6)</f>
         <v>235100</v>
       </c>
-      <c r="E6" s="160" t="s">
+      <c r="E6" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="199"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="151">
-        <f t="shared" ref="H6:H20" si="1">D6</f>
+      <c r="F6" s="194"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="146">
+        <f>D6</f>
         <v>235100</v>
       </c>
     </row>
@@ -3663,25 +4139,25 @@
       <c r="A7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="148">
+      <c r="B7" s="143">
         <f>20193/2</f>
         <v>10096.5</v>
       </c>
-      <c r="C7" s="148">
+      <c r="C7" s="143">
         <f>20193/2</f>
         <v>10096.5</v>
       </c>
-      <c r="D7" s="148">
-        <f t="shared" si="0"/>
+      <c r="D7" s="143">
+        <f>SUM(B7:C7)</f>
         <v>20193</v>
       </c>
-      <c r="E7" s="160" t="s">
+      <c r="E7" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="199"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="151">
-        <f t="shared" si="1"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="146">
+        <f>D7</f>
         <v>20193</v>
       </c>
     </row>
@@ -3689,50 +4165,50 @@
       <c r="A8" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="148">
+      <c r="B8" s="143">
         <f>41910/2</f>
         <v>20955</v>
       </c>
-      <c r="C8" s="148">
+      <c r="C8" s="143">
         <f>41910/2</f>
         <v>20955</v>
       </c>
-      <c r="D8" s="153">
-        <f t="shared" si="0"/>
+      <c r="D8" s="148">
+        <f>SUM(B8:C8)</f>
         <v>41910</v>
       </c>
-      <c r="E8" s="160" t="s">
+      <c r="E8" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="199"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="151">
-        <f t="shared" si="1"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="146">
+        <f>D8</f>
         <v>41910</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="125" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="148">
+      <c r="B9" s="143">
         <f>6925/2</f>
         <v>3462.5</v>
       </c>
-      <c r="C9" s="148">
+      <c r="C9" s="143">
         <f>6925/2</f>
         <v>3462.5</v>
       </c>
-      <c r="D9" s="153">
-        <f t="shared" si="0"/>
+      <c r="D9" s="148">
+        <f>SUM(B9:C9)</f>
         <v>6925</v>
       </c>
-      <c r="E9" s="160" t="s">
+      <c r="E9" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="199"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="151">
+      <c r="F9" s="194"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="146">
         <f>D9</f>
         <v>6925</v>
       </c>
@@ -3741,47 +4217,47 @@
       <c r="A10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="148">
+      <c r="B10" s="143">
         <v>720</v>
       </c>
-      <c r="C10" s="148">
+      <c r="C10" s="143">
         <v>720</v>
       </c>
-      <c r="D10" s="153">
-        <f t="shared" si="0"/>
+      <c r="D10" s="148">
+        <f>SUM(B10:C10)</f>
         <v>1440</v>
       </c>
-      <c r="E10" s="160" t="s">
+      <c r="E10" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="199"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="151">
-        <f t="shared" si="1"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="146">
+        <f>D10</f>
         <v>1440</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="148">
+      <c r="B11" s="143">
         <v>2500</v>
       </c>
-      <c r="C11" s="149">
+      <c r="C11" s="144">
         <v>0</v>
       </c>
-      <c r="D11" s="153">
-        <f t="shared" si="0"/>
+      <c r="D11" s="148">
+        <f>SUM(B11:C11)</f>
         <v>2500</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="199"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="151">
-        <f t="shared" si="1"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="146">
+        <f>D11</f>
         <v>2500</v>
       </c>
     </row>
@@ -3789,23 +4265,23 @@
       <c r="A12" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="148">
+      <c r="B12" s="143">
         <v>1500</v>
       </c>
-      <c r="C12" s="149">
+      <c r="C12" s="144">
         <v>0</v>
       </c>
-      <c r="D12" s="153">
-        <f t="shared" si="0"/>
+      <c r="D12" s="148">
+        <f>SUM(B12:C12)</f>
         <v>1500</v>
       </c>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="199"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="151">
-        <f t="shared" si="1"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="146">
+        <f>D12</f>
         <v>1500</v>
       </c>
     </row>
@@ -3813,23 +4289,23 @@
       <c r="A13" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="148">
+      <c r="B13" s="143">
         <v>14995</v>
       </c>
-      <c r="C13" s="149">
+      <c r="C13" s="144">
         <v>0</v>
       </c>
-      <c r="D13" s="153">
-        <f t="shared" si="0"/>
+      <c r="D13" s="148">
+        <f>SUM(B13:C13)</f>
         <v>14995</v>
       </c>
-      <c r="E13" s="205" t="s">
+      <c r="E13" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="206"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="151">
-        <f t="shared" si="1"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="146">
+        <f>D13</f>
         <v>14995</v>
       </c>
     </row>
@@ -3837,23 +4313,23 @@
       <c r="A14" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="148">
+      <c r="B14" s="143">
         <v>24900</v>
       </c>
-      <c r="C14" s="154">
+      <c r="C14" s="149">
         <v>0</v>
       </c>
-      <c r="D14" s="153">
-        <f t="shared" si="0"/>
+      <c r="D14" s="148">
+        <f>SUM(B14:C14)</f>
         <v>24900</v>
       </c>
-      <c r="E14" s="160" t="s">
+      <c r="E14" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="199"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="151">
-        <f t="shared" si="1"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="146">
+        <f>D14</f>
         <v>24900</v>
       </c>
     </row>
@@ -3861,23 +4337,23 @@
       <c r="A15" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="148">
+      <c r="B15" s="143">
         <v>28088</v>
       </c>
-      <c r="C15" s="154">
+      <c r="C15" s="149">
         <v>0</v>
       </c>
-      <c r="D15" s="153">
-        <f t="shared" si="0"/>
+      <c r="D15" s="148">
+        <f>SUM(B15:C15)</f>
         <v>28088</v>
       </c>
-      <c r="E15" s="160" t="s">
+      <c r="E15" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="199"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="151">
-        <f t="shared" si="1"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="146">
+        <f>D15</f>
         <v>28088</v>
       </c>
     </row>
@@ -3885,23 +4361,23 @@
       <c r="A16" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="148">
+      <c r="B16" s="143">
         <v>3239</v>
       </c>
-      <c r="C16" s="154">
+      <c r="C16" s="149">
         <v>0</v>
       </c>
-      <c r="D16" s="153">
-        <f t="shared" ref="D16:D17" si="2">SUM(B16:C16)</f>
+      <c r="D16" s="148">
+        <f>SUM(B16:C16)</f>
         <v>3239</v>
       </c>
-      <c r="E16" s="160" t="s">
+      <c r="E16" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="199"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="151">
-        <f t="shared" si="1"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="146">
+        <f>D16</f>
         <v>3239</v>
       </c>
     </row>
@@ -3909,49 +4385,49 @@
       <c r="A17" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="148">
+      <c r="B17" s="143">
         <v>2700</v>
       </c>
-      <c r="C17" s="154">
+      <c r="C17" s="149">
         <v>0</v>
       </c>
-      <c r="D17" s="153">
-        <f t="shared" si="2"/>
+      <c r="D17" s="148">
+        <f>SUM(B17:C17)</f>
         <v>2700</v>
       </c>
-      <c r="E17" s="160" t="s">
+      <c r="E17" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="199"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="151">
-        <f t="shared" si="1"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="146">
+        <f>D17</f>
         <v>2700</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="148">
+      <c r="B18" s="143">
         <f>7176/2</f>
         <v>3588</v>
       </c>
-      <c r="C18" s="148">
+      <c r="C18" s="143">
         <f>7176/2</f>
         <v>3588</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="148">
         <f>SUM(B18:C18)</f>
         <v>7176</v>
       </c>
-      <c r="E18" s="160" t="s">
+      <c r="E18" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="199"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="151">
-        <f t="shared" si="1"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="146">
+        <f>D18</f>
         <v>7176</v>
       </c>
     </row>
@@ -3959,127 +4435,127 @@
       <c r="A19" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="148">
+      <c r="B19" s="143">
         <v>1475</v>
       </c>
-      <c r="C19" s="148">
+      <c r="C19" s="143">
         <v>1475</v>
       </c>
-      <c r="D19" s="148">
+      <c r="D19" s="143">
         <f>SUM(B19:C19)</f>
         <v>2950</v>
       </c>
-      <c r="E19" s="211" t="s">
+      <c r="E19" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="151">
-        <f t="shared" si="1"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="146">
+        <f>D19</f>
         <v>2950</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A20" s="131" t="s">
+      <c r="A20" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="155">
+      <c r="B20" s="150">
         <v>0</v>
       </c>
-      <c r="C20" s="156">
+      <c r="C20" s="151">
         <v>149970</v>
       </c>
-      <c r="D20" s="156">
+      <c r="D20" s="151">
         <f>C20</f>
         <v>149970</v>
       </c>
-      <c r="E20" s="212" t="s">
+      <c r="E20" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="212"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="157">
-        <f t="shared" si="1"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="152">
+        <f>D20</f>
         <v>149970</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A21" s="133" t="s">
+      <c r="A21" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="152">
+      <c r="B21" s="147">
         <f>SUM(B5:B20)</f>
         <v>249919</v>
       </c>
-      <c r="C21" s="152">
+      <c r="C21" s="147">
         <f>SUM(C5:C20)</f>
         <v>321967</v>
       </c>
-      <c r="D21" s="152">
+      <c r="D21" s="147">
         <f>SUM(D5:D20)</f>
         <v>571886</v>
       </c>
-      <c r="E21" s="208" t="s">
+      <c r="E21" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="209"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="147">
+      <c r="F21" s="196"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="142">
         <f>SUM(H5:H20)</f>
         <v>571886</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="137"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="138"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="133"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="198" t="s">
+      <c r="A23" s="191" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="198"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="198"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="191"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="148">
+      <c r="B24" s="143">
         <v>15000</v>
       </c>
-      <c r="C24" s="149">
+      <c r="C24" s="144">
         <v>0</v>
       </c>
-      <c r="D24" s="148">
+      <c r="D24" s="143">
         <f>SUM(B24:C24)</f>
         <v>15000</v>
       </c>
-      <c r="E24" s="124">
+      <c r="E24" s="120">
         <v>15000</v>
       </c>
-      <c r="F24" s="129">
+      <c r="F24" s="124">
         <v>0</v>
       </c>
-      <c r="G24" s="124">
+      <c r="G24" s="120">
         <f>SUM(E24:F24)</f>
         <v>15000</v>
       </c>
-      <c r="H24" s="124">
+      <c r="H24" s="120">
         <f>D24+G24</f>
         <v>30000</v>
       </c>
-      <c r="I24" s="140" t="s">
+      <c r="I24" s="135" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4087,112 +4563,116 @@
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="148">
+      <c r="B25" s="143">
         <v>100000</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="144">
         <v>0</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="143">
         <f>SUM(B25:C25)</f>
         <v>100000</v>
       </c>
-      <c r="E25" s="124">
+      <c r="E25" s="120">
         <v>190000</v>
       </c>
-      <c r="F25" s="129">
+      <c r="F25" s="124">
         <v>0</v>
       </c>
-      <c r="G25" s="124">
+      <c r="G25" s="120">
         <f>SUM(E25:F25)</f>
         <v>190000</v>
       </c>
-      <c r="H25" s="128">
+      <c r="H25" s="123">
         <f>D25+G25</f>
         <v>290000</v>
       </c>
-      <c r="I25" s="140" t="s">
+      <c r="I25" s="135" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="150">
+      <c r="B26" s="145">
         <v>100000</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="145">
         <v>100000</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="145">
         <f>SUM(B26:C26)</f>
         <v>200000</v>
       </c>
-      <c r="E26" s="124">
-        <f>1013507.12179487-B26</f>
-        <v>913507.12179487001</v>
-      </c>
-      <c r="F26" s="124">
-        <f>914628.378205128-C26</f>
-        <v>814628.37820512801</v>
-      </c>
-      <c r="G26" s="128">
+      <c r="E26" s="120">
+        <f>TERVEZETT!M2-B26</f>
+        <v>989995.18589743599</v>
+      </c>
+      <c r="F26" s="120">
+        <f>TERVEZETT!M3-C26</f>
+        <v>898827.09615384613</v>
+      </c>
+      <c r="G26" s="123">
         <f>SUM(E26:F26)</f>
-        <v>1728135.4999999981</v>
-      </c>
-      <c r="H26" s="128">
+        <v>1888822.282051282</v>
+      </c>
+      <c r="H26" s="123">
         <f>D26+G26</f>
-        <v>1928135.4999999981</v>
+        <v>2088822.282051282</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B27" s="129">
+      <c r="B27" s="124">
         <v>0</v>
       </c>
-      <c r="C27" s="129">
+      <c r="C27" s="124">
         <v>0</v>
       </c>
-      <c r="D27" s="129">
+      <c r="D27" s="124">
         <f>SUM(B27:C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="124">
+      <c r="E27" s="120">
+        <f>TERVEZETT!L18</f>
         <v>77500</v>
       </c>
-      <c r="F27" s="124">
+      <c r="F27" s="120">
+        <f>TERVEZETT!L19</f>
         <v>198400</v>
       </c>
-      <c r="G27" s="124">
-        <f t="shared" ref="G27:G37" si="3">SUM(E27:F27)</f>
+      <c r="G27" s="120">
+        <f>SUM(E27:F27)</f>
         <v>275900</v>
       </c>
-      <c r="H27" s="124">
+      <c r="H27" s="120">
         <f>G27</f>
         <v>275900</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="124">
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="120">
+        <f>TERVEZETT!M54</f>
         <v>222750</v>
       </c>
-      <c r="F28" s="124">
+      <c r="F28" s="120">
+        <f>TERVEZETT!M55</f>
         <v>211750</v>
       </c>
-      <c r="G28" s="124">
-        <f t="shared" si="3"/>
+      <c r="G28" s="120">
+        <f>SUM(E28:F28)</f>
         <v>434500</v>
       </c>
-      <c r="H28" s="124">
+      <c r="H28" s="120">
         <f>G28</f>
         <v>434500</v>
       </c>
@@ -4201,28 +4681,28 @@
       <c r="A29" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="150">
+      <c r="B29" s="145">
         <v>5000</v>
       </c>
-      <c r="C29" s="150">
+      <c r="C29" s="145">
         <v>5000</v>
       </c>
-      <c r="D29" s="150">
-        <f t="shared" ref="D29:D30" si="4">SUM(B29:C29)</f>
+      <c r="D29" s="145">
+        <f>SUM(B29:C29)</f>
         <v>10000</v>
       </c>
-      <c r="E29" s="123">
+      <c r="E29" s="119">
         <v>20000</v>
       </c>
-      <c r="F29" s="123">
+      <c r="F29" s="119">
         <v>20000</v>
       </c>
-      <c r="G29" s="123">
-        <f t="shared" si="3"/>
+      <c r="G29" s="119">
+        <f>SUM(E29:F29)</f>
         <v>40000</v>
       </c>
-      <c r="H29" s="128">
-        <f t="shared" ref="H29:H37" si="5">D29+G29</f>
+      <c r="H29" s="123">
+        <f>D29+G29</f>
         <v>50000</v>
       </c>
     </row>
@@ -4230,28 +4710,28 @@
       <c r="A30" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B30" s="150">
+      <c r="B30" s="145">
         <v>10000</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="145">
         <v>10000</v>
       </c>
-      <c r="D30" s="150">
-        <f t="shared" si="4"/>
+      <c r="D30" s="145">
+        <f>SUM(B30:C30)</f>
         <v>20000</v>
       </c>
-      <c r="E30" s="123">
+      <c r="E30" s="119">
         <v>110000</v>
       </c>
-      <c r="F30" s="123">
+      <c r="F30" s="119">
         <v>110000</v>
       </c>
-      <c r="G30" s="123">
-        <f t="shared" si="3"/>
+      <c r="G30" s="119">
+        <f>SUM(E30:F30)</f>
         <v>220000</v>
       </c>
-      <c r="H30" s="128">
-        <f t="shared" si="5"/>
+      <c r="H30" s="123">
+        <f>D30+G30</f>
         <v>240000</v>
       </c>
     </row>
@@ -4259,28 +4739,28 @@
       <c r="A31" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B31" s="150">
+      <c r="B31" s="145">
         <v>15000</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="145">
         <v>15000</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="145">
         <f>SUM(B31:C31)</f>
         <v>30000</v>
       </c>
-      <c r="E31" s="123">
+      <c r="E31" s="119">
         <v>45000</v>
       </c>
-      <c r="F31" s="123">
+      <c r="F31" s="119">
         <v>45000</v>
       </c>
-      <c r="G31" s="123">
-        <f t="shared" si="3"/>
+      <c r="G31" s="119">
+        <f>SUM(E31:F31)</f>
         <v>90000</v>
       </c>
-      <c r="H31" s="123">
-        <f t="shared" si="5"/>
+      <c r="H31" s="119">
+        <f>D31+G31</f>
         <v>120000</v>
       </c>
     </row>
@@ -4288,85 +4768,85 @@
       <c r="A32" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="150">
+      <c r="B32" s="145">
         <v>15000</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="145">
         <v>15000</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="145">
         <f>SUM(B32:C32)</f>
         <v>30000</v>
       </c>
-      <c r="E32" s="123">
+      <c r="E32" s="119">
         <v>69950</v>
       </c>
-      <c r="F32" s="123">
+      <c r="F32" s="119">
         <v>69950</v>
       </c>
-      <c r="G32" s="123">
-        <f t="shared" si="3"/>
+      <c r="G32" s="119">
+        <f>SUM(E32:F32)</f>
         <v>139900</v>
       </c>
-      <c r="H32" s="128">
-        <f t="shared" si="5"/>
+      <c r="H32" s="123">
+        <f>D32+G32</f>
         <v>169900</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="144" t="s">
+      <c r="A33" s="139" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="150">
+      <c r="B33" s="145">
         <v>10000</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="145">
         <v>10000</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="145">
         <f>SUM(B33:C33)</f>
         <v>20000</v>
       </c>
-      <c r="E33" s="123">
-        <v>135000</v>
-      </c>
-      <c r="F33" s="123">
-        <v>135000</v>
-      </c>
-      <c r="G33" s="123">
-        <f t="shared" si="3"/>
-        <v>270000</v>
-      </c>
-      <c r="H33" s="123">
-        <f t="shared" si="5"/>
-        <v>290000</v>
+      <c r="E33" s="119">
+        <v>100000</v>
+      </c>
+      <c r="F33" s="119">
+        <v>100000</v>
+      </c>
+      <c r="G33" s="119">
+        <f>SUM(E33:F33)</f>
+        <v>200000</v>
+      </c>
+      <c r="H33" s="119">
+        <f>D33+G33</f>
+        <v>220000</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="148">
+      <c r="B34" s="143">
         <v>7500</v>
       </c>
-      <c r="C34" s="148">
+      <c r="C34" s="143">
         <v>7500</v>
       </c>
-      <c r="D34" s="148">
+      <c r="D34" s="143">
         <v>15000</v>
       </c>
-      <c r="E34" s="124">
+      <c r="E34" s="120">
         <v>32500</v>
       </c>
-      <c r="F34" s="124">
+      <c r="F34" s="120">
         <v>32500</v>
       </c>
-      <c r="G34" s="124">
-        <f t="shared" si="3"/>
+      <c r="G34" s="120">
+        <f>SUM(E34:F34)</f>
         <v>65000</v>
       </c>
-      <c r="H34" s="124">
-        <f t="shared" si="5"/>
+      <c r="H34" s="120">
+        <f>D34+G34</f>
         <v>80000</v>
       </c>
     </row>
@@ -4374,99 +4854,99 @@
       <c r="A35" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="151">
+      <c r="B35" s="146">
         <f>D35/2</f>
         <v>70000</v>
       </c>
-      <c r="C35" s="151">
+      <c r="C35" s="146">
         <f>D35/2</f>
         <v>70000</v>
       </c>
-      <c r="D35" s="151">
+      <c r="D35" s="146">
         <v>140000</v>
       </c>
-      <c r="E35" s="122">
+      <c r="E35" s="118">
         <v>66800</v>
       </c>
-      <c r="F35" s="122">
+      <c r="F35" s="118">
         <v>66800</v>
       </c>
-      <c r="G35" s="122">
-        <f t="shared" si="3"/>
+      <c r="G35" s="118">
+        <f>SUM(E35:F35)</f>
         <v>133600</v>
       </c>
-      <c r="H35" s="122">
-        <f t="shared" si="5"/>
+      <c r="H35" s="118">
+        <f>D35+G35</f>
         <v>273600</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="144" t="s">
+      <c r="A36" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="129">
+      <c r="B36" s="124">
         <v>0</v>
       </c>
-      <c r="C36" s="129">
+      <c r="C36" s="124">
         <v>0</v>
       </c>
-      <c r="D36" s="129">
+      <c r="D36" s="124">
         <f>SUM(B36:C36)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="122">
+      <c r="E36" s="118">
         <v>13500</v>
       </c>
-      <c r="F36" s="122">
+      <c r="F36" s="118">
         <v>13500</v>
       </c>
-      <c r="G36" s="122">
-        <f t="shared" si="3"/>
+      <c r="G36" s="118">
+        <f>SUM(E36:F36)</f>
         <v>27000</v>
       </c>
-      <c r="H36" s="122">
-        <f t="shared" si="5"/>
+      <c r="H36" s="118">
+        <f>D36+G36</f>
         <v>27000</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="144" t="s">
+      <c r="A37" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="129">
+      <c r="B37" s="124">
         <v>0</v>
       </c>
-      <c r="C37" s="129">
+      <c r="C37" s="124">
         <v>0</v>
       </c>
-      <c r="D37" s="129">
+      <c r="D37" s="124">
         <f>SUM(B37:C37)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="122">
+      <c r="E37" s="118">
         <v>61500</v>
       </c>
-      <c r="F37" s="122">
+      <c r="F37" s="118">
         <v>61500</v>
       </c>
-      <c r="G37" s="122">
-        <f t="shared" si="3"/>
+      <c r="G37" s="118">
+        <f>SUM(E37:F37)</f>
         <v>123000</v>
       </c>
-      <c r="H37" s="122">
-        <f t="shared" si="5"/>
+      <c r="H37" s="118">
+        <f>D37+G37</f>
         <v>123000</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="126" t="s">
+      <c r="A38" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="B38" s="151">
+      <c r="B38" s="146">
         <v>20000</v>
       </c>
-      <c r="C38" s="151"/>
-      <c r="D38" s="151">
+      <c r="C38" s="146"/>
+      <c r="D38" s="146">
         <f>SUM(B38:C38)</f>
         <v>20000</v>
       </c>
@@ -4476,91 +4956,76 @@
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="126" t="s">
+      <c r="A39" s="121" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="122"/>
-      <c r="H39" s="122"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="118"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A40" s="159" t="s">
+      <c r="A40" s="154" t="s">
         <v>211</v>
       </c>
-      <c r="B40" s="132"/>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="142">
+      <c r="B40" s="127"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="137">
         <v>15000</v>
       </c>
-      <c r="F40" s="142">
+      <c r="F40" s="137">
         <v>10000</v>
       </c>
-      <c r="G40" s="142">
+      <c r="G40" s="137">
         <f>SUM(E40:F40)</f>
         <v>25000</v>
       </c>
-      <c r="H40" s="142">
+      <c r="H40" s="137">
         <f>G40</f>
         <v>25000</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A41" s="143" t="s">
+      <c r="A41" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="134">
-        <f t="shared" ref="B41:H41" si="6">SUM(B24:B38)</f>
+      <c r="B41" s="129">
+        <f>SUM(B24:B40)</f>
         <v>367500</v>
       </c>
-      <c r="C41" s="134">
-        <f t="shared" si="6"/>
+      <c r="C41" s="129">
+        <f>SUM(C24:C40)</f>
         <v>232500</v>
       </c>
-      <c r="D41" s="134">
-        <f t="shared" si="6"/>
+      <c r="D41" s="129">
+        <f>SUM(D24:D40)</f>
         <v>600000</v>
       </c>
-      <c r="E41" s="134">
-        <f>SUM(E24:E38)</f>
-        <v>1973007.1217948701</v>
-      </c>
-      <c r="F41" s="134">
-        <f t="shared" si="6"/>
-        <v>1779028.378205128</v>
-      </c>
-      <c r="G41" s="134">
-        <f t="shared" si="6"/>
-        <v>3752035.4999999981</v>
-      </c>
-      <c r="H41" s="135">
-        <f t="shared" si="6"/>
-        <v>4332035.4999999981</v>
-      </c>
-      <c r="I41" s="158"/>
+      <c r="E41" s="129">
+        <f>SUM(E24:E40)</f>
+        <v>2029495.185897436</v>
+      </c>
+      <c r="F41" s="129">
+        <f>SUM(F24:F40)</f>
+        <v>1838227.096153846</v>
+      </c>
+      <c r="G41" s="129">
+        <f>SUM(G24:G40)</f>
+        <v>3867722.282051282</v>
+      </c>
+      <c r="H41" s="130">
+        <f>SUM(H24:H40)</f>
+        <v>4447722.282051282</v>
+      </c>
+      <c r="I41" s="153"/>
       <c r="J41" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E13:G13"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -4572,6 +5037,21 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4583,7 +5063,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H33" sqref="H32:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5044,74 +5524,74 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="216" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="186" t="s">
+      <c r="B1" s="216"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="224" t="s">
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="220" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="225" t="s">
+      <c r="J1" s="221" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="226"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="172" t="s">
+      <c r="K1" s="222"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="213" t="s">
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="209" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="222"/>
-      <c r="B2" s="222"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="83" t="s">
+      <c r="A2" s="218"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="224"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="83" t="s">
+      <c r="H2" s="220"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="83" t="s">
+      <c r="N2" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="83" t="s">
+      <c r="O2" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="83" t="s">
+      <c r="P2" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="214"/>
+      <c r="Q2" s="210"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="59" t="s">
@@ -5121,37 +5601,37 @@
       <c r="C3" s="57">
         <v>8</v>
       </c>
-      <c r="D3" s="85">
+      <c r="D3" s="81">
         <v>1</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="81">
         <v>1</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="81">
         <v>1</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87">
+      <c r="G3" s="82"/>
+      <c r="H3" s="83">
         <v>1</v>
       </c>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="84" t="s">
         <v>89</v>
       </c>
       <c r="K3" s="53"/>
-      <c r="L3" s="89">
+      <c r="L3" s="85">
         <v>5</v>
       </c>
-      <c r="M3" s="215">
+      <c r="M3" s="211">
         <v>2</v>
       </c>
-      <c r="N3" s="90">
+      <c r="N3" s="86">
         <v>2</v>
       </c>
-      <c r="O3" s="90">
+      <c r="O3" s="86">
         <v>1</v>
       </c>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="87">
+      <c r="P3" s="87"/>
+      <c r="Q3" s="83">
         <v>1</v>
       </c>
     </row>
@@ -5163,63 +5643,63 @@
       <c r="C4" s="57">
         <v>6</v>
       </c>
-      <c r="D4" s="112">
+      <c r="D4" s="108">
         <v>1</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="81">
         <v>1</v>
       </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87">
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83">
         <v>0</v>
       </c>
       <c r="J4" s="56" t="s">
         <v>91</v>
       </c>
       <c r="K4" s="56"/>
-      <c r="L4" s="89">
+      <c r="L4" s="85">
         <v>3</v>
       </c>
-      <c r="M4" s="216"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="87">
+      <c r="M4" s="212"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="83">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="77" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="55"/>
-      <c r="C5" s="94">
+      <c r="C5" s="90">
         <v>1</v>
       </c>
       <c r="D5" s="52"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81">
         <v>1</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87">
+      <c r="G5" s="82"/>
+      <c r="H5" s="83">
         <v>1</v>
       </c>
       <c r="J5" s="56" t="s">
         <v>93</v>
       </c>
       <c r="K5" s="56"/>
-      <c r="L5" s="89">
+      <c r="L5" s="85">
         <v>12</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="95">
+      <c r="M5" s="88"/>
+      <c r="N5" s="91">
         <v>6</v>
       </c>
-      <c r="O5" s="92"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="87">
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="83">
         <v>2</v>
       </c>
     </row>
@@ -5228,32 +5708,32 @@
         <v>92</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="94">
+      <c r="C6" s="90">
         <v>2</v>
       </c>
       <c r="D6" s="52"/>
-      <c r="E6" s="85">
+      <c r="E6" s="81">
         <v>1</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87">
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="83">
         <v>2</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>95</v>
       </c>
       <c r="K6" s="56"/>
-      <c r="L6" s="89">
+      <c r="L6" s="85">
         <v>4</v>
       </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92">
+      <c r="M6" s="88"/>
+      <c r="N6" s="88">
         <v>2</v>
       </c>
-      <c r="O6" s="92"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="87">
+      <c r="O6" s="88"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="83">
         <v>4</v>
       </c>
     </row>
@@ -5262,32 +5742,32 @@
         <v>94</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="94">
+      <c r="C7" s="90">
         <v>2</v>
       </c>
       <c r="D7" s="52"/>
-      <c r="E7" s="85">
+      <c r="E7" s="81">
         <v>1</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87">
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83">
         <v>2</v>
       </c>
       <c r="J7" s="56" t="s">
         <v>97</v>
       </c>
       <c r="K7" s="56"/>
-      <c r="L7" s="89">
+      <c r="L7" s="85">
         <v>6</v>
       </c>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92">
+      <c r="M7" s="88"/>
+      <c r="N7" s="88">
         <v>3</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="87">
+      <c r="O7" s="88"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="83">
         <v>2</v>
       </c>
     </row>
@@ -5300,28 +5780,28 @@
         <v>2</v>
       </c>
       <c r="D8" s="52"/>
-      <c r="E8" s="85">
+      <c r="E8" s="81">
         <v>1</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87">
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83">
         <v>2</v>
       </c>
       <c r="J8" s="56" t="s">
         <v>98</v>
       </c>
       <c r="K8" s="56"/>
-      <c r="L8" s="89">
+      <c r="L8" s="85">
         <v>2</v>
       </c>
-      <c r="M8" s="92"/>
-      <c r="N8" s="95">
+      <c r="M8" s="88"/>
+      <c r="N8" s="91">
         <v>1</v>
       </c>
-      <c r="O8" s="92"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="87">
+      <c r="O8" s="88"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="83">
         <v>0</v>
       </c>
     </row>
@@ -5334,28 +5814,28 @@
         <v>1</v>
       </c>
       <c r="D9" s="52"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85">
+      <c r="E9" s="81"/>
+      <c r="F9" s="81">
         <v>1</v>
       </c>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87">
+      <c r="G9" s="82"/>
+      <c r="H9" s="83">
         <v>1</v>
       </c>
       <c r="J9" s="56" t="s">
         <v>99</v>
       </c>
       <c r="K9" s="56"/>
-      <c r="L9" s="89">
+      <c r="L9" s="85">
         <v>1</v>
       </c>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="95">
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="91">
         <v>1</v>
       </c>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="87">
+      <c r="P9" s="89"/>
+      <c r="Q9" s="83">
         <v>1</v>
       </c>
       <c r="R9">
@@ -5364,7 +5844,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="92" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="60"/>
@@ -5372,35 +5852,35 @@
         <v>2</v>
       </c>
       <c r="D10" s="52"/>
-      <c r="E10" s="85">
+      <c r="E10" s="81">
         <v>1</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87">
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83">
         <v>2</v>
       </c>
       <c r="J10" s="56" t="s">
         <v>100</v>
       </c>
       <c r="K10" s="56"/>
-      <c r="L10" s="89">
+      <c r="L10" s="85">
         <v>4</v>
       </c>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92">
+      <c r="M10" s="88"/>
+      <c r="N10" s="88">
         <v>2</v>
       </c>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93">
+      <c r="O10" s="88"/>
+      <c r="P10" s="89">
         <v>1</v>
       </c>
-      <c r="Q10" s="87">
+      <c r="Q10" s="83">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="92" t="s">
         <v>116</v>
       </c>
       <c r="B11" s="60"/>
@@ -5408,18 +5888,18 @@
         <v>1</v>
       </c>
       <c r="D11" s="52"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="97">
+      <c r="E11" s="81"/>
+      <c r="F11" s="93">
         <v>1</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87">
+      <c r="G11" s="82"/>
+      <c r="H11" s="83">
         <v>1</v>
       </c>
-      <c r="Q11" s="98"/>
+      <c r="Q11" s="94"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="92" t="s">
         <v>117</v>
       </c>
       <c r="B12" s="60"/>
@@ -5427,12 +5907,12 @@
         <v>2</v>
       </c>
       <c r="D12" s="52"/>
-      <c r="E12" s="85">
+      <c r="E12" s="81">
         <v>1</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87">
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83">
         <v>2</v>
       </c>
     </row>
@@ -5441,16 +5921,16 @@
         <v>88</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="94">
+      <c r="C13" s="90">
         <v>0</v>
       </c>
       <c r="D13" s="52"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85">
+      <c r="E13" s="81"/>
+      <c r="F13" s="81">
         <v>1</v>
       </c>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87">
+      <c r="G13" s="82"/>
+      <c r="H13" s="83">
         <v>0</v>
       </c>
     </row>
@@ -5459,113 +5939,113 @@
         <v>118</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="94">
+      <c r="C14" s="90">
         <v>2</v>
       </c>
       <c r="D14" s="52"/>
-      <c r="E14" s="93">
+      <c r="E14" s="89">
         <v>1</v>
       </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="87">
+      <c r="F14" s="89"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="83">
         <v>2</v>
       </c>
-      <c r="Q14" s="98"/>
+      <c r="Q14" s="94"/>
     </row>
     <row r="15" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="54" t="s">
         <v>119</v>
       </c>
       <c r="B15" s="55"/>
-      <c r="C15" s="94">
+      <c r="C15" s="90">
         <v>1</v>
       </c>
       <c r="D15" s="52"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="92">
+      <c r="E15" s="89"/>
+      <c r="F15" s="88">
         <v>1</v>
       </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="87">
+      <c r="G15" s="95"/>
+      <c r="H15" s="83">
         <v>1</v>
       </c>
-      <c r="Q15" s="98"/>
+      <c r="Q15" s="94"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="94">
+      <c r="B16" s="97"/>
+      <c r="C16" s="90">
         <v>1</v>
       </c>
       <c r="D16" s="52"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="92">
+      <c r="E16" s="89"/>
+      <c r="F16" s="88">
         <v>1</v>
       </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="87">
+      <c r="G16" s="95"/>
+      <c r="H16" s="83">
         <v>1</v>
       </c>
-      <c r="Q16" s="98"/>
+      <c r="Q16" s="94"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="90" t="s">
         <v>120</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="102">
+      <c r="C17" s="98">
         <v>2</v>
       </c>
-      <c r="D17" s="103"/>
-      <c r="E17" s="92">
+      <c r="D17" s="99"/>
+      <c r="E17" s="88">
         <v>1</v>
       </c>
-      <c r="F17" s="93"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="87">
+      <c r="F17" s="89"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="83">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="90" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="102">
+      <c r="C18" s="98">
         <v>2</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="93">
+      <c r="D18" s="99"/>
+      <c r="E18" s="89">
         <v>1</v>
       </c>
-      <c r="F18" s="93"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="87">
+      <c r="F18" s="89"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="83">
         <v>2</v>
       </c>
-      <c r="Q18" s="98"/>
+      <c r="Q18" s="94"/>
     </row>
     <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="90" t="s">
         <v>122</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="102">
+      <c r="C19" s="98">
         <v>2</v>
       </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="92">
+      <c r="D19" s="99"/>
+      <c r="E19" s="88">
         <v>1</v>
       </c>
-      <c r="F19" s="93"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="87">
+      <c r="F19" s="89"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="83">
         <v>2</v>
       </c>
-      <c r="Q19" s="98"/>
+      <c r="Q19" s="94"/>
     </row>
     <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="58" t="s">
@@ -5576,25 +6056,25 @@
         <v>4</v>
       </c>
       <c r="D20" s="52"/>
-      <c r="E20" s="95">
+      <c r="E20" s="91">
         <v>2</v>
       </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="104">
+      <c r="F20" s="88"/>
+      <c r="G20" s="100">
         <v>1</v>
       </c>
-      <c r="H20" s="87">
+      <c r="H20" s="83">
         <v>0</v>
       </c>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="113"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="109"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="219" t="s">
+      <c r="A22" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="219"/>
+      <c r="B22" s="215"/>
       <c r="C22" s="62">
         <f>SUM(C3:C20)</f>
         <v>41</v>
@@ -5615,35 +6095,35 @@
         <f>SUM(G5:G20)</f>
         <v>1</v>
       </c>
-      <c r="H22" s="105">
+      <c r="H22" s="101">
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="217" t="s">
+      <c r="J22" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="218"/>
-      <c r="L22" s="106">
+      <c r="K22" s="214"/>
+      <c r="L22" s="102">
         <f>SUM(L3:L10)</f>
         <v>37</v>
       </c>
-      <c r="M22" s="107">
+      <c r="M22" s="103">
         <f t="shared" ref="M22:Q22" si="0">SUM(M3:M10)</f>
         <v>2</v>
       </c>
-      <c r="N22" s="107">
+      <c r="N22" s="103">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="O22" s="107">
+      <c r="O22" s="103">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P22" s="108">
+      <c r="P22" s="104">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="105">
+      <c r="Q22" s="101">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5657,18 +6137,18 @@
         <f>L22-3</f>
         <v>34</v>
       </c>
-      <c r="Q23" s="98"/>
+      <c r="Q23" s="94"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="109">
+      <c r="B26" s="105">
         <f>C22+L22</f>
         <v>78</v>
       </c>
-      <c r="C26" s="105">
+      <c r="C26" s="101">
         <f>H22+Q22</f>
         <v>38</v>
       </c>
@@ -5694,10 +6174,10 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="6"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
@@ -5721,10 +6201,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
@@ -5770,16 +6250,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="112" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5787,13 +6267,13 @@
       <c r="A2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="111" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="113" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5843,7 +6323,7 @@
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="111" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5871,7 +6351,7 @@
       <c r="A8" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="114" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -5896,10 +6376,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="229" t="s">
+      <c r="A10" s="225" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="115" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -5910,8 +6390,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="230"/>
-      <c r="B11" s="119" t="s">
+      <c r="A11" s="226"/>
+      <c r="B11" s="115" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="2" t="s">

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="12765"/>
+    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="220">
   <si>
     <t>TOTAL</t>
   </si>
@@ -660,6 +660,27 @@
   </si>
   <si>
     <t>Fodrász (smink nélkül)</t>
+  </si>
+  <si>
+    <t>Nászút</t>
+  </si>
+  <si>
+    <t>Repülőjegy</t>
+  </si>
+  <si>
+    <t>Vőlegény cipő</t>
+  </si>
+  <si>
+    <t>Vőlegény ingek</t>
+  </si>
+  <si>
+    <t>Vőlegény öv</t>
+  </si>
+  <si>
+    <t>Templomi ceremónia díj</t>
+  </si>
+  <si>
+    <t>Krisztiánnak tartozunk</t>
   </si>
 </sst>
 </file>
@@ -674,7 +695,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0\ [$Ft-40E]_-;\-* #,##0\ [$Ft-40E]_-;_-* &quot;-&quot;??\ [$Ft-40E]_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="[&lt;=999999999]\(##\)\ ###\-##\-##;[&lt;=6999999999]0#\ \(##\)###\-##\-##;#\ \(##\)\ ###\-##\-##"/>
     <numFmt numFmtId="168" formatCode="[$-40E]mmmm\ d\.;@"/>
-    <numFmt numFmtId="172" formatCode="#,##0\ &quot;Ft&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0\ &quot;Ft&quot;"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1432,7 +1453,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1623,7 +1644,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1667,18 +1687,13 @@
     <xf numFmtId="1" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1786,9 +1801,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1888,8 +1900,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -2189,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2210,13 +2238,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="163"/>
       <c r="G1" t="s">
         <v>23</v>
       </c>
@@ -2226,11 +2254,11 @@
       <c r="K1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="173">
+      <c r="L1" s="171">
         <f>L2+L3</f>
         <v>78</v>
       </c>
-      <c r="M1" s="173"/>
+      <c r="M1" s="171"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="11"/>
@@ -2282,11 +2310,11 @@
         <f>C3*D3</f>
         <v>156000</v>
       </c>
-      <c r="G3" s="227">
+      <c r="G3" s="152">
         <f>G2*$C$3</f>
         <v>82000</v>
       </c>
-      <c r="H3" s="227">
+      <c r="H3" s="152">
         <f>H2*$C$3</f>
         <v>74000</v>
       </c>
@@ -2319,11 +2347,11 @@
         <f>C4*D4</f>
         <v>12000</v>
       </c>
-      <c r="G4" s="227">
+      <c r="G4" s="152">
         <f>$E$4/2</f>
         <v>6000</v>
       </c>
-      <c r="H4" s="227">
+      <c r="H4" s="152">
         <f>$E$4/2</f>
         <v>6000</v>
       </c>
@@ -2349,11 +2377,11 @@
         <f>C5*D5</f>
         <v>592800</v>
       </c>
-      <c r="G5" s="227">
+      <c r="G5" s="152">
         <f>(G2-2)*C5</f>
         <v>304200</v>
       </c>
-      <c r="H5" s="227">
+      <c r="H5" s="152">
         <f>H2*C5</f>
         <v>288600</v>
       </c>
@@ -2375,11 +2403,11 @@
         <f>C6*D6</f>
         <v>7800</v>
       </c>
-      <c r="G6" s="227">
+      <c r="G6" s="152">
         <f>2*C6</f>
         <v>7800</v>
       </c>
-      <c r="H6" s="227">
+      <c r="H6" s="152">
         <v>0</v>
       </c>
     </row>
@@ -2400,11 +2428,11 @@
         <f>C7*D7</f>
         <v>107300</v>
       </c>
-      <c r="G7" s="227">
+      <c r="G7" s="152">
         <f>$E$7/2</f>
         <v>53650</v>
       </c>
-      <c r="H7" s="227">
+      <c r="H7" s="152">
         <f>$E$7/2</f>
         <v>53650</v>
       </c>
@@ -2432,11 +2460,11 @@
       <c r="E8" s="68">
         <v>94000</v>
       </c>
-      <c r="G8" s="227">
+      <c r="G8" s="152">
         <f>$G$2*$C$8</f>
         <v>49410.256410256407</v>
       </c>
-      <c r="H8" s="227">
+      <c r="H8" s="152">
         <f>$H$2*$C$8</f>
         <v>44589.743589743586</v>
       </c>
@@ -2463,11 +2491,11 @@
         <f t="shared" ref="E9:E10" si="0">C9*D9</f>
         <v>608400</v>
       </c>
-      <c r="G9" s="227">
+      <c r="G9" s="152">
         <f>$G$2*$C$9</f>
         <v>319800</v>
       </c>
-      <c r="H9" s="227">
+      <c r="H9" s="152">
         <f>$H$2*$C$9</f>
         <v>288600</v>
       </c>
@@ -2490,11 +2518,11 @@
         <f t="shared" si="0"/>
         <v>114000</v>
       </c>
-      <c r="G10" s="227">
+      <c r="G10" s="152">
         <f>($G$2-2)*C10</f>
         <v>58500</v>
       </c>
-      <c r="H10" s="227">
+      <c r="H10" s="152">
         <f>H2*C10</f>
         <v>55500</v>
       </c>
@@ -2518,11 +2546,11 @@
         <f>C11*D11</f>
         <v>170420.25641025641</v>
       </c>
-      <c r="G11" s="227">
+      <c r="G11" s="152">
         <f>(G2-2)*C11</f>
         <v>87452.5</v>
       </c>
-      <c r="H11" s="227">
+      <c r="H11" s="152">
         <f>H2*C11</f>
         <v>82967.756410256407</v>
       </c>
@@ -2539,11 +2567,11 @@
         <f>(E3+E5+E6+E7+E8+E9+E13)*0.1</f>
         <v>159780</v>
       </c>
-      <c r="G12" s="227">
+      <c r="G12" s="152">
         <f>SUM(G3,G5:G10)*0.1+G13*0.1</f>
         <v>89111.025641025641</v>
       </c>
-      <c r="H12" s="227">
+      <c r="H12" s="152">
         <f>SUM(H3,H5:H10)*0.1+H13*0.1</f>
         <v>82068.974358974359</v>
       </c>
@@ -2566,11 +2594,11 @@
         <f>C13*D13</f>
         <v>31500</v>
       </c>
-      <c r="G13" s="227">
+      <c r="G13" s="152">
         <f>$E$13/2</f>
         <v>15750</v>
       </c>
-      <c r="H13" s="227">
+      <c r="H13" s="152">
         <f>$E$13/2</f>
         <v>15750</v>
       </c>
@@ -2582,17 +2610,17 @@
       <c r="B14" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="184"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="182"/>
       <c r="E14" s="75">
         <f>SUM(E3:E13)</f>
         <v>2054000.2564102565</v>
       </c>
-      <c r="G14" s="228">
+      <c r="G14" s="153">
         <f>SUM(G3:G13)</f>
         <v>1073673.782051282</v>
       </c>
-      <c r="H14" s="228">
+      <c r="H14" s="153">
         <f>SUM(H3:H13)</f>
         <v>991726.47435897426</v>
       </c>
@@ -2604,8 +2632,8 @@
       <c r="B15" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="183"/>
-      <c r="D15" s="184"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="182"/>
       <c r="E15" s="68">
         <f>E14/L1</f>
         <v>26333.336620644313</v>
@@ -2621,52 +2649,52 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="164"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="165"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="163"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="185" t="s">
+      <c r="B18" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="179"/>
-      <c r="D18" s="180"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
       </c>
-      <c r="G18" s="228">
+      <c r="G18" s="153">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="H18" s="228">
+      <c r="H18" s="153">
         <f>E19</f>
         <v>198400</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="156">
+      <c r="L18" s="154">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="M18" s="190"/>
+      <c r="M18" s="188"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="186"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="181"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="179"/>
       <c r="E19" s="14">
         <f>640*310</f>
         <v>198400</v>
@@ -2674,19 +2702,19 @@
       <c r="K19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="188">
+      <c r="L19" s="186">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="M19" s="189"/>
+      <c r="M19" s="187"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="187"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="181"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2703,28 +2731,28 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="177"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="178"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="176"/>
       <c r="O22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="174">
+      <c r="P22" s="172">
         <f>L1</f>
         <v>78</v>
       </c>
-      <c r="Q22" s="175"/>
+      <c r="Q22" s="173"/>
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="173" t="s">
+      <c r="B23" s="171" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
@@ -2738,28 +2766,28 @@
         <f>C23*D23</f>
         <v>37350</v>
       </c>
-      <c r="G23" s="227">
+      <c r="G23" s="152">
         <f>(G2+2.5)*C23</f>
         <v>19575</v>
       </c>
-      <c r="H23" s="227">
+      <c r="H23" s="152">
         <f>(H2+2.5)*C23</f>
         <v>17775</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="174">
+      <c r="P23" s="172">
         <v>1</v>
       </c>
-      <c r="Q23" s="175"/>
+      <c r="Q23" s="173"/>
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="173"/>
+      <c r="B24" s="171"/>
       <c r="C24" s="21">
         <v>12000</v>
       </c>
@@ -2770,28 +2798,28 @@
         <f>C24*D24</f>
         <v>108000</v>
       </c>
-      <c r="G24" s="227">
+      <c r="G24" s="152">
         <f>C24*5</f>
         <v>60000</v>
       </c>
-      <c r="H24" s="227">
+      <c r="H24" s="152">
         <f>C24*4</f>
         <v>48000</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="174">
+      <c r="P24" s="172">
         <v>9</v>
       </c>
-      <c r="Q24" s="175"/>
+      <c r="Q24" s="173"/>
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="173"/>
+      <c r="B25" s="171"/>
       <c r="C25" s="21">
         <v>18500</v>
       </c>
@@ -2802,26 +2830,26 @@
         <f>C25*D25</f>
         <v>18500</v>
       </c>
-      <c r="G25" s="227">
-        <f t="shared" ref="G23:H38" si="1">$E25/2</f>
+      <c r="G25" s="152">
+        <f t="shared" ref="G25:H38" si="1">$E25/2</f>
         <v>9250</v>
       </c>
-      <c r="H25" s="227">
+      <c r="H25" s="152">
         <f t="shared" si="1"/>
         <v>9250</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="172"/>
+      <c r="P25" s="170"/>
+      <c r="Q25" s="170"/>
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="173"/>
+      <c r="B26" s="171"/>
       <c r="C26" s="21">
         <v>7500</v>
       </c>
@@ -2832,19 +2860,19 @@
         <f>C26*D26</f>
         <v>7500</v>
       </c>
-      <c r="G26" s="227">
+      <c r="G26" s="152">
         <f t="shared" si="1"/>
         <v>3750</v>
       </c>
-      <c r="H26" s="227">
+      <c r="H26" s="152">
         <f t="shared" si="1"/>
         <v>3750</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="171"/>
+      <c r="P26" s="168"/>
+      <c r="Q26" s="169"/>
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23">
@@ -2861,11 +2889,11 @@
       <c r="E27" s="78">
         <v>20000</v>
       </c>
-      <c r="G27" s="227">
+      <c r="G27" s="152">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="H27" s="227">
+      <c r="H27" s="152">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
@@ -2875,7 +2903,7 @@
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="173" t="s">
+      <c r="B28" s="171" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="21">
@@ -2891,11 +2919,11 @@
       <c r="F28" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="227">
+      <c r="G28" s="152">
         <f>E28</f>
         <v>22500</v>
       </c>
-      <c r="H28" s="227">
+      <c r="H28" s="152">
         <v>0</v>
       </c>
       <c r="I28" s="49"/>
@@ -2905,7 +2933,7 @@
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="173"/>
+      <c r="B29" s="171"/>
       <c r="C29" s="21">
         <v>5500</v>
       </c>
@@ -2919,11 +2947,11 @@
       <c r="F29" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="227">
+      <c r="G29" s="152">
         <f>E29</f>
         <v>5500</v>
       </c>
-      <c r="H29" s="227">
+      <c r="H29" s="152">
         <v>0</v>
       </c>
       <c r="I29" s="49"/>
@@ -2934,7 +2962,7 @@
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="173"/>
+      <c r="B30" s="171"/>
       <c r="C30" s="21">
         <v>1850</v>
       </c>
@@ -2948,10 +2976,10 @@
       <c r="F30" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="227">
+      <c r="G30" s="152">
         <v>0</v>
       </c>
-      <c r="H30" s="227">
+      <c r="H30" s="152">
         <f>E30</f>
         <v>1850</v>
       </c>
@@ -2963,7 +2991,7 @@
       <c r="A31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="173"/>
+      <c r="B31" s="171"/>
       <c r="C31" s="21">
         <v>1850</v>
       </c>
@@ -2974,11 +3002,11 @@
         <f>C31*D31</f>
         <v>3700</v>
       </c>
-      <c r="G31" s="227">
+      <c r="G31" s="152">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="H31" s="227">
+      <c r="H31" s="152">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
@@ -2990,7 +3018,7 @@
       <c r="A32" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="173"/>
+      <c r="B32" s="171"/>
       <c r="C32" s="21">
         <v>1850</v>
       </c>
@@ -3001,11 +3029,11 @@
         <f>C32*D32</f>
         <v>3700</v>
       </c>
-      <c r="G32" s="227">
+      <c r="G32" s="152">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="H32" s="227">
+      <c r="H32" s="152">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
@@ -3016,7 +3044,7 @@
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="173"/>
+      <c r="B33" s="171"/>
       <c r="C33" s="21">
         <v>2000</v>
       </c>
@@ -3027,11 +3055,11 @@
         <f>C33*D33</f>
         <v>4000</v>
       </c>
-      <c r="G33" s="227">
+      <c r="G33" s="152">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="H33" s="227">
+      <c r="H33" s="152">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
@@ -3041,7 +3069,7 @@
       <c r="A34" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="173"/>
+      <c r="B34" s="171"/>
       <c r="C34" s="21">
         <v>2000</v>
       </c>
@@ -3052,11 +3080,11 @@
         <f>C34*D34</f>
         <v>6000</v>
       </c>
-      <c r="G34" s="227">
+      <c r="G34" s="152">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="H34" s="227">
+      <c r="H34" s="152">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
@@ -3066,7 +3094,7 @@
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="173"/>
+      <c r="B35" s="171"/>
       <c r="C35" s="21">
         <v>7500</v>
       </c>
@@ -3077,11 +3105,11 @@
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="G35" s="227">
+      <c r="G35" s="152">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="H35" s="227">
+      <c r="H35" s="152">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
@@ -3104,11 +3132,11 @@
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="G36" s="227">
+      <c r="G36" s="152">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="H36" s="227">
+      <c r="H36" s="152">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
@@ -3118,7 +3146,7 @@
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="166" t="s">
+      <c r="B37" s="164" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="11">
@@ -3131,11 +3159,11 @@
         <f>D37*C37</f>
         <v>26500</v>
       </c>
-      <c r="G37" s="227">
+      <c r="G37" s="152">
         <f t="shared" si="1"/>
         <v>13250</v>
       </c>
-      <c r="H37" s="227">
+      <c r="H37" s="152">
         <f t="shared" si="1"/>
         <v>13250</v>
       </c>
@@ -3147,7 +3175,7 @@
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="166"/>
+      <c r="B38" s="164"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -3158,11 +3186,11 @@
         <f>D38*C38</f>
         <v>1500</v>
       </c>
-      <c r="G38" s="227">
+      <c r="G38" s="152">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="H38" s="227">
+      <c r="H38" s="152">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
@@ -3172,7 +3200,7 @@
       <c r="A39" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="167"/>
+      <c r="B39" s="165"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -3183,18 +3211,18 @@
         <f>D39*C39</f>
         <v>300</v>
       </c>
-      <c r="G39" s="227">
+      <c r="G39" s="152">
         <f>$E39/2</f>
         <v>150</v>
       </c>
-      <c r="H39" s="227">
+      <c r="H39" s="152">
         <f>$E39/2</f>
         <v>150</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L39" s="155">
+      <c r="L39" s="151">
         <f>$L$2</f>
         <v>41</v>
       </c>
@@ -3216,18 +3244,18 @@
         <f>SUM(E23:E39)</f>
         <v>301900</v>
       </c>
-      <c r="G40" s="228">
+      <c r="G40" s="153">
         <f>SUM(G23:G39)</f>
         <v>170925</v>
       </c>
-      <c r="H40" s="228">
+      <c r="H40" s="153">
         <f>SUM(H23:H39)</f>
         <v>130975</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L40" s="155">
+      <c r="L40" s="151">
         <f>$L$3</f>
         <v>37</v>
       </c>
@@ -3246,19 +3274,19 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A42" s="163" t="s">
+      <c r="A42" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="164"/>
-      <c r="C42" s="164"/>
-      <c r="D42" s="164"/>
-      <c r="E42" s="165"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="162"/>
+      <c r="E42" s="163"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="168" t="s">
+      <c r="B43" s="166" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="11"/>
@@ -3271,7 +3299,7 @@
       <c r="A44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="168"/>
+      <c r="B44" s="166"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -3282,7 +3310,7 @@
       <c r="A45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="168"/>
+      <c r="B45" s="166"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -3293,7 +3321,7 @@
       <c r="A46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="168"/>
+      <c r="B46" s="166"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -3304,7 +3332,7 @@
       <c r="A47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="168"/>
+      <c r="B47" s="166"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -3315,7 +3343,7 @@
       <c r="A48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="168"/>
+      <c r="B48" s="166"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -3326,7 +3354,7 @@
       <c r="A49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="168"/>
+      <c r="B49" s="166"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="78">
@@ -3335,7 +3363,7 @@
       <c r="K49" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="155">
+      <c r="L49" s="151">
         <f>$L$2</f>
         <v>41</v>
       </c>
@@ -3348,25 +3376,25 @@
       <c r="A50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="169"/>
+      <c r="B50" s="167"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
         <f>SUM(E43:E49)</f>
         <v>949900</v>
       </c>
-      <c r="G50" s="228">
+      <c r="G50" s="153">
         <f>E50/2</f>
         <v>474950</v>
       </c>
-      <c r="H50" s="228">
+      <c r="H50" s="153">
         <f>E50/2</f>
         <v>474950</v>
       </c>
       <c r="K50" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L50" s="155">
+      <c r="L50" s="151">
         <f>$L$3</f>
         <v>37</v>
       </c>
@@ -3377,13 +3405,13 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A52" s="163" t="s">
+      <c r="A52" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="164"/>
-      <c r="C52" s="164"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="165"/>
+      <c r="B52" s="162"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="162"/>
+      <c r="E52" s="163"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="29" t="s">
@@ -3403,11 +3431,11 @@
         <f>C53*D53</f>
         <v>93600</v>
       </c>
-      <c r="G53" s="227">
+      <c r="G53" s="152">
         <f>$G$2*$C53</f>
         <v>49200</v>
       </c>
-      <c r="H53" s="227">
+      <c r="H53" s="152">
         <f>$H$2*$C53</f>
         <v>44400</v>
       </c>
@@ -3430,11 +3458,11 @@
         <f>C54*D54</f>
         <v>120900</v>
       </c>
-      <c r="G54" s="227">
+      <c r="G54" s="152">
         <f>$G$2*$C54</f>
         <v>63550</v>
       </c>
-      <c r="H54" s="227">
+      <c r="H54" s="152">
         <f>$H$2*$C54</f>
         <v>57350</v>
       </c>
@@ -3462,11 +3490,11 @@
       <c r="E55" s="3">
         <v>220000</v>
       </c>
-      <c r="G55" s="227">
+      <c r="G55" s="152">
         <f>E55/2</f>
         <v>110000</v>
       </c>
-      <c r="H55" s="227">
+      <c r="H55" s="152">
         <f>E55/2</f>
         <v>110000</v>
       </c>
@@ -3495,11 +3523,11 @@
         <f>SUM(E53:E55)</f>
         <v>434500</v>
       </c>
-      <c r="G56" s="228">
+      <c r="G56" s="153">
         <f>SUM(G53:G55)</f>
         <v>222750</v>
       </c>
-      <c r="H56" s="228">
+      <c r="H56" s="153">
         <f>SUM(H53:H55)</f>
         <v>211750</v>
       </c>
@@ -3512,31 +3540,31 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A58" s="163" t="s">
+      <c r="A58" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="164"/>
-      <c r="C58" s="164"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="165"/>
+      <c r="B58" s="162"/>
+      <c r="C58" s="162"/>
+      <c r="D58" s="162"/>
+      <c r="E58" s="163"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="166" t="s">
+      <c r="B59" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="141"/>
-      <c r="D59" s="141"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
       <c r="E59" s="3">
         <v>30000</v>
       </c>
-      <c r="G59" s="227">
+      <c r="G59" s="152">
         <f>E59</f>
         <v>30000</v>
       </c>
-      <c r="H59" s="227">
+      <c r="H59" s="152">
         <v>0</v>
       </c>
     </row>
@@ -3544,17 +3572,17 @@
       <c r="A60" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="166"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="139"/>
       <c r="E60" s="3">
         <v>190000</v>
       </c>
-      <c r="G60" s="227">
+      <c r="G60" s="152">
         <f>E60</f>
         <v>190000</v>
       </c>
-      <c r="H60" s="227">
+      <c r="H60" s="152">
         <v>0</v>
       </c>
     </row>
@@ -3562,32 +3590,32 @@
       <c r="A61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="166"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="139"/>
+      <c r="D61" s="139"/>
       <c r="E61" s="78">
         <v>149970</v>
       </c>
-      <c r="G61" s="227">
+      <c r="G61" s="152">
         <v>0</v>
       </c>
-      <c r="H61" s="227">
+      <c r="H61" s="152">
         <f>E61</f>
         <v>149970</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="166"/>
+      <c r="B62" s="164"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="136">
+      <c r="E62" s="135">
         <v>53970</v>
       </c>
-      <c r="G62" s="227"/>
-      <c r="H62" s="227"/>
+      <c r="G62" s="152"/>
+      <c r="H62" s="152"/>
       <c r="K62" s="15" t="s">
         <v>4</v>
       </c>
@@ -3604,12 +3632,12 @@
       <c r="A63" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B63" s="166"/>
+      <c r="B63" s="164"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="136"/>
-      <c r="G63" s="227"/>
-      <c r="H63" s="227"/>
+      <c r="E63" s="135"/>
+      <c r="G63" s="152"/>
+      <c r="H63" s="152"/>
       <c r="K63" s="15" t="s">
         <v>2</v>
       </c>
@@ -3626,17 +3654,17 @@
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="166"/>
+      <c r="B64" s="164"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="78">
         <v>235100</v>
       </c>
-      <c r="G64" s="227">
+      <c r="G64" s="152">
         <f>$E$64/2</f>
         <v>117550</v>
       </c>
-      <c r="H64" s="227">
+      <c r="H64" s="152">
         <f>$E$64/2</f>
         <v>117550</v>
       </c>
@@ -3645,14 +3673,14 @@
       <c r="A65" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="B65" s="166"/>
+      <c r="B65" s="164"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="22">
         <v>25000</v>
       </c>
-      <c r="G65" s="227"/>
-      <c r="H65" s="227"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="152"/>
       <c r="K65" s="18"/>
       <c r="L65" s="64"/>
       <c r="M65" s="65"/>
@@ -3661,17 +3689,17 @@
       <c r="A66" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="166"/>
+      <c r="B66" s="164"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="78">
         <v>24900</v>
       </c>
-      <c r="G66" s="227">
+      <c r="G66" s="152">
         <f>E66</f>
         <v>24900</v>
       </c>
-      <c r="H66" s="227">
+      <c r="H66" s="152">
         <v>0</v>
       </c>
       <c r="K66" s="18"/>
@@ -3682,17 +3710,17 @@
       <c r="A67" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="166"/>
+      <c r="B67" s="164"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="78">
         <v>41910</v>
       </c>
-      <c r="G67" s="227">
+      <c r="G67" s="152">
         <f>$E$67/2</f>
         <v>20955</v>
       </c>
-      <c r="H67" s="227">
+      <c r="H67" s="152">
         <f>$E$67/2</f>
         <v>20955</v>
       </c>
@@ -3704,12 +3732,12 @@
       <c r="A68" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="166"/>
+      <c r="B68" s="164"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="22"/>
-      <c r="G68" s="227"/>
-      <c r="H68" s="227"/>
+      <c r="G68" s="152"/>
+      <c r="H68" s="152"/>
       <c r="K68" s="18"/>
       <c r="L68" s="64"/>
       <c r="M68" s="65"/>
@@ -3718,12 +3746,12 @@
       <c r="A69" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="166"/>
+      <c r="B69" s="164"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="22"/>
-      <c r="G69" s="227"/>
-      <c r="H69" s="227"/>
+      <c r="G69" s="152"/>
+      <c r="H69" s="152"/>
       <c r="K69" s="18"/>
       <c r="L69" s="64"/>
       <c r="M69" s="65"/>
@@ -3732,17 +3760,17 @@
       <c r="A70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="166"/>
+      <c r="B70" s="164"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="78">
         <v>80000</v>
       </c>
-      <c r="G70" s="227">
+      <c r="G70" s="152">
         <f>$E$70/2</f>
         <v>40000</v>
       </c>
-      <c r="H70" s="227">
+      <c r="H70" s="152">
         <f>$E$70/2</f>
         <v>40000</v>
       </c>
@@ -3754,7 +3782,7 @@
       <c r="A71" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="166"/>
+      <c r="B71" s="164"/>
       <c r="C71" s="2">
         <v>59</v>
       </c>
@@ -3765,11 +3793,11 @@
         <f>C71*D71</f>
         <v>2950</v>
       </c>
-      <c r="G71" s="227">
+      <c r="G71" s="152">
         <f>$E71/2</f>
         <v>1475</v>
       </c>
-      <c r="H71" s="227">
+      <c r="H71" s="152">
         <f>$E71/2</f>
         <v>1475</v>
       </c>
@@ -3781,17 +3809,17 @@
       <c r="A72" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B72" s="166"/>
+      <c r="B72" s="164"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="21">
         <v>6925</v>
       </c>
-      <c r="G72" s="227">
+      <c r="G72" s="152">
         <f>$E72/2</f>
         <v>3462.5</v>
       </c>
-      <c r="H72" s="227">
+      <c r="H72" s="152">
         <f>$E72/2</f>
         <v>3462.5</v>
       </c>
@@ -3800,18 +3828,18 @@
       <c r="A73" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="166"/>
+      <c r="B73" s="164"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="78">
         <f>23198+4890</f>
         <v>28088</v>
       </c>
-      <c r="G73" s="227">
+      <c r="G73" s="152">
         <f>E73</f>
         <v>28088</v>
       </c>
-      <c r="H73" s="227">
+      <c r="H73" s="152">
         <v>0</v>
       </c>
     </row>
@@ -3819,7 +3847,7 @@
       <c r="A74" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="166"/>
+      <c r="B74" s="164"/>
       <c r="C74" s="2">
         <v>450</v>
       </c>
@@ -3830,11 +3858,11 @@
         <f>C74*D74</f>
         <v>2700</v>
       </c>
-      <c r="G74" s="227">
+      <c r="G74" s="152">
         <f>$E74/2</f>
         <v>1350</v>
       </c>
-      <c r="H74" s="227">
+      <c r="H74" s="152">
         <f>$E74/2</f>
         <v>1350</v>
       </c>
@@ -3843,7 +3871,7 @@
       <c r="A75" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B75" s="166"/>
+      <c r="B75" s="164"/>
       <c r="C75" s="2">
         <v>2392</v>
       </c>
@@ -3854,11 +3882,11 @@
         <f>C75*D75</f>
         <v>7176</v>
       </c>
-      <c r="G75" s="227">
+      <c r="G75" s="152">
         <f>$E75/2</f>
         <v>3588</v>
       </c>
-      <c r="H75" s="227">
+      <c r="H75" s="152">
         <f>$E75/2</f>
         <v>3588</v>
       </c>
@@ -3868,18 +3896,18 @@
       <c r="A76" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B76" s="166"/>
+      <c r="B76" s="164"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="78">
         <f>2405+(278*3)</f>
         <v>3239</v>
       </c>
-      <c r="G76" s="227">
+      <c r="G76" s="152">
         <f>E76</f>
         <v>3239</v>
       </c>
-      <c r="H76" s="227">
+      <c r="H76" s="152">
         <v>0</v>
       </c>
     </row>
@@ -3887,18 +3915,18 @@
       <c r="A77" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B77" s="167"/>
+      <c r="B77" s="165"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="21">
         <f>950+490</f>
         <v>1440</v>
       </c>
-      <c r="G77" s="227">
+      <c r="G77" s="152">
         <f>$E$77/2</f>
         <v>720</v>
       </c>
-      <c r="H77" s="227">
+      <c r="H77" s="152">
         <f>$E$77/2</f>
         <v>720</v>
       </c>
@@ -3909,11 +3937,11 @@
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
-      <c r="G78" s="228">
+      <c r="G78" s="153">
         <f>SUM(G59:G77)</f>
         <v>465327.5</v>
       </c>
-      <c r="H78" s="228">
+      <c r="H78" s="153">
         <f>SUM(H59:H77)</f>
         <v>339070.5</v>
       </c>
@@ -3931,39 +3959,39 @@
         <f>E14+E20+E40+E50+E56</f>
         <v>4016200.2564102565</v>
       </c>
-      <c r="G79" s="228">
+      <c r="G79" s="153">
         <f>G14+G18+G40+G50+G56+G78</f>
         <v>2485126.282051282</v>
       </c>
-      <c r="H79" s="228">
+      <c r="H79" s="153">
         <f>H56+H50+H40+H18+H14+H78</f>
         <v>2346871.974358974</v>
       </c>
-      <c r="K79" s="160" t="s">
+      <c r="K79" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="L79" s="161"/>
-      <c r="M79" s="162"/>
+      <c r="L79" s="159"/>
+      <c r="M79" s="160"/>
     </row>
     <row r="80" spans="1:13">
       <c r="K80" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="156">
+      <c r="L80" s="154">
         <f>M2+L18+M39+M49+M54+M62</f>
         <v>2160680.185897436</v>
       </c>
-      <c r="M80" s="157"/>
+      <c r="M80" s="155"/>
     </row>
     <row r="81" spans="11:13" ht="15.75" thickBot="1">
       <c r="K81" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L81" s="158">
+      <c r="L81" s="156">
         <f>M3+L19+M40+M50+M55+M63</f>
         <v>2179412.096153846</v>
       </c>
-      <c r="M81" s="159"/>
+      <c r="M81" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -4003,10 +4031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4022,90 +4050,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="180" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="202"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="199"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="204"/>
-      <c r="B2" s="172" t="s">
+      <c r="A2" s="201"/>
+      <c r="B2" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="205" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="172" t="s">
+      <c r="E2" s="170" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="172"/>
-      <c r="G2" s="207" t="s">
+      <c r="F2" s="170"/>
+      <c r="G2" s="204" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="200" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="204"/>
-      <c r="B3" s="155" t="s">
+      <c r="A3" s="201"/>
+      <c r="B3" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="206"/>
-      <c r="E3" s="155" t="s">
+      <c r="D3" s="203"/>
+      <c r="E3" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="155" t="s">
+      <c r="F3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="208"/>
-      <c r="H3" s="203"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="200"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="189" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="191"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="144">
         <v>14150</v>
       </c>
-      <c r="C5" s="145">
+      <c r="C5" s="144">
         <v>14150</v>
       </c>
-      <c r="D5" s="145">
-        <f>SUM(B5:C5)</f>
+      <c r="D5" s="144">
+        <f t="shared" ref="D5:D19" si="0">SUM(B5:C5)</f>
         <v>28300</v>
       </c>
-      <c r="E5" s="174" t="s">
+      <c r="E5" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="194"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="146">
-        <f>D5</f>
+      <c r="F5" s="191"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="145">
+        <f t="shared" ref="H5:H21" si="1">D5</f>
         <v>28300</v>
       </c>
     </row>
@@ -4113,25 +4141,25 @@
       <c r="A6" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="145">
+      <c r="B6" s="144">
         <f>235100/2</f>
         <v>117550</v>
       </c>
-      <c r="C6" s="145">
+      <c r="C6" s="144">
         <f>235100/2</f>
         <v>117550</v>
       </c>
-      <c r="D6" s="145">
-        <f>SUM(B6:C6)</f>
+      <c r="D6" s="144">
+        <f t="shared" si="0"/>
         <v>235100</v>
       </c>
-      <c r="E6" s="174" t="s">
+      <c r="E6" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="194"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="146">
-        <f>D6</f>
+      <c r="F6" s="191"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="145">
+        <f t="shared" si="1"/>
         <v>235100</v>
       </c>
     </row>
@@ -4139,25 +4167,25 @@
       <c r="A7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="143">
+      <c r="B7" s="142">
         <f>20193/2</f>
         <v>10096.5</v>
       </c>
-      <c r="C7" s="143">
+      <c r="C7" s="142">
         <f>20193/2</f>
         <v>10096.5</v>
       </c>
-      <c r="D7" s="143">
-        <f>SUM(B7:C7)</f>
+      <c r="D7" s="142">
+        <f t="shared" si="0"/>
         <v>20193</v>
       </c>
-      <c r="E7" s="174" t="s">
+      <c r="E7" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="194"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="146">
-        <f>D7</f>
+      <c r="F7" s="191"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="145">
+        <f t="shared" si="1"/>
         <v>20193</v>
       </c>
     </row>
@@ -4165,25 +4193,25 @@
       <c r="A8" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="143">
+      <c r="B8" s="142">
         <f>41910/2</f>
         <v>20955</v>
       </c>
-      <c r="C8" s="143">
+      <c r="C8" s="142">
         <f>41910/2</f>
         <v>20955</v>
       </c>
-      <c r="D8" s="148">
-        <f>SUM(B8:C8)</f>
+      <c r="D8" s="147">
+        <f t="shared" si="0"/>
         <v>41910</v>
       </c>
-      <c r="E8" s="174" t="s">
+      <c r="E8" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="194"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="146">
-        <f>D8</f>
+      <c r="F8" s="191"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="145">
+        <f t="shared" si="1"/>
         <v>41910</v>
       </c>
     </row>
@@ -4191,25 +4219,25 @@
       <c r="A9" s="125" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="143">
+      <c r="B9" s="142">
         <f>6925/2</f>
         <v>3462.5</v>
       </c>
-      <c r="C9" s="143">
+      <c r="C9" s="142">
         <f>6925/2</f>
         <v>3462.5</v>
       </c>
-      <c r="D9" s="148">
-        <f>SUM(B9:C9)</f>
+      <c r="D9" s="147">
+        <f t="shared" si="0"/>
         <v>6925</v>
       </c>
-      <c r="E9" s="174" t="s">
+      <c r="E9" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="194"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="146">
-        <f>D9</f>
+      <c r="F9" s="191"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="145">
+        <f t="shared" si="1"/>
         <v>6925</v>
       </c>
     </row>
@@ -4217,47 +4245,47 @@
       <c r="A10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="143">
+      <c r="B10" s="142">
         <v>720</v>
       </c>
-      <c r="C10" s="143">
+      <c r="C10" s="142">
         <v>720</v>
       </c>
-      <c r="D10" s="148">
-        <f>SUM(B10:C10)</f>
+      <c r="D10" s="147">
+        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="E10" s="174" t="s">
+      <c r="E10" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="194"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="146">
-        <f>D10</f>
+      <c r="F10" s="191"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="145">
+        <f t="shared" si="1"/>
         <v>1440</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="143">
+      <c r="B11" s="142">
         <v>2500</v>
       </c>
-      <c r="C11" s="144">
+      <c r="C11" s="143">
         <v>0</v>
       </c>
-      <c r="D11" s="148">
-        <f>SUM(B11:C11)</f>
+      <c r="D11" s="147">
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E11" s="174" t="s">
+      <c r="E11" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="194"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="146">
-        <f>D11</f>
+      <c r="F11" s="191"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="145">
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
@@ -4265,23 +4293,23 @@
       <c r="A12" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="143">
+      <c r="B12" s="142">
         <v>1500</v>
       </c>
-      <c r="C12" s="144">
+      <c r="C12" s="143">
         <v>0</v>
       </c>
-      <c r="D12" s="148">
-        <f>SUM(B12:C12)</f>
+      <c r="D12" s="147">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E12" s="174" t="s">
+      <c r="E12" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="194"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="146">
-        <f>D12</f>
+      <c r="F12" s="191"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="145">
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
     </row>
@@ -4289,23 +4317,23 @@
       <c r="A13" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="143">
+      <c r="B13" s="142">
         <v>14995</v>
       </c>
-      <c r="C13" s="144">
+      <c r="C13" s="143">
         <v>0</v>
       </c>
-      <c r="D13" s="148">
-        <f>SUM(B13:C13)</f>
+      <c r="D13" s="147">
+        <f t="shared" si="0"/>
         <v>14995</v>
       </c>
-      <c r="E13" s="198" t="s">
+      <c r="E13" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="199"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="146">
-        <f>D13</f>
+      <c r="F13" s="196"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="145">
+        <f t="shared" si="1"/>
         <v>14995</v>
       </c>
     </row>
@@ -4313,23 +4341,23 @@
       <c r="A14" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="143">
+      <c r="B14" s="142">
         <v>24900</v>
       </c>
-      <c r="C14" s="149">
+      <c r="C14" s="148">
         <v>0</v>
       </c>
-      <c r="D14" s="148">
-        <f>SUM(B14:C14)</f>
+      <c r="D14" s="147">
+        <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="E14" s="174" t="s">
+      <c r="E14" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="194"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="146">
-        <f>D14</f>
+      <c r="F14" s="191"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="145">
+        <f t="shared" si="1"/>
         <v>24900</v>
       </c>
     </row>
@@ -4337,23 +4365,23 @@
       <c r="A15" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="143">
+      <c r="B15" s="142">
         <v>28088</v>
       </c>
-      <c r="C15" s="149">
+      <c r="C15" s="148">
         <v>0</v>
       </c>
-      <c r="D15" s="148">
-        <f>SUM(B15:C15)</f>
+      <c r="D15" s="147">
+        <f t="shared" si="0"/>
         <v>28088</v>
       </c>
-      <c r="E15" s="174" t="s">
+      <c r="E15" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="194"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="146">
-        <f>D15</f>
+      <c r="F15" s="191"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="145">
+        <f t="shared" si="1"/>
         <v>28088</v>
       </c>
     </row>
@@ -4361,23 +4389,23 @@
       <c r="A16" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="143">
+      <c r="B16" s="142">
         <v>3239</v>
       </c>
-      <c r="C16" s="149">
+      <c r="C16" s="148">
         <v>0</v>
       </c>
-      <c r="D16" s="148">
-        <f>SUM(B16:C16)</f>
+      <c r="D16" s="147">
+        <f t="shared" si="0"/>
         <v>3239</v>
       </c>
-      <c r="E16" s="174" t="s">
+      <c r="E16" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="194"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="146">
-        <f>D16</f>
+      <c r="F16" s="191"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="145">
+        <f t="shared" si="1"/>
         <v>3239</v>
       </c>
     </row>
@@ -4385,23 +4413,23 @@
       <c r="A17" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="143">
+      <c r="B17" s="142">
         <v>2700</v>
       </c>
-      <c r="C17" s="149">
+      <c r="C17" s="148">
         <v>0</v>
       </c>
-      <c r="D17" s="148">
-        <f>SUM(B17:C17)</f>
+      <c r="D17" s="147">
+        <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="E17" s="174" t="s">
+      <c r="E17" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="194"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="146">
-        <f>D17</f>
+      <c r="F17" s="191"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="145">
+        <f t="shared" si="1"/>
         <v>2700</v>
       </c>
     </row>
@@ -4409,25 +4437,25 @@
       <c r="A18" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="143">
+      <c r="B18" s="142">
         <f>7176/2</f>
         <v>3588</v>
       </c>
-      <c r="C18" s="143">
+      <c r="C18" s="142">
         <f>7176/2</f>
         <v>3588</v>
       </c>
-      <c r="D18" s="148">
-        <f>SUM(B18:C18)</f>
+      <c r="D18" s="147">
+        <f t="shared" si="0"/>
         <v>7176</v>
       </c>
-      <c r="E18" s="174" t="s">
+      <c r="E18" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="194"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="146">
-        <f>D18</f>
+      <c r="F18" s="191"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="145">
+        <f t="shared" si="1"/>
         <v>7176</v>
       </c>
     </row>
@@ -4435,597 +4463,738 @@
       <c r="A19" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="143">
+      <c r="B19" s="142">
         <v>1475</v>
       </c>
-      <c r="C19" s="143">
+      <c r="C19" s="142">
         <v>1475</v>
       </c>
-      <c r="D19" s="143">
-        <f>SUM(B19:C19)</f>
+      <c r="D19" s="142">
+        <f t="shared" si="0"/>
         <v>2950</v>
       </c>
-      <c r="E19" s="192" t="s">
+      <c r="E19" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="146">
-        <f>D19</f>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="145">
+        <f t="shared" si="1"/>
         <v>2950</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A20" s="126" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="150">
+      <c r="B20" s="143">
         <v>0</v>
       </c>
-      <c r="C20" s="151">
+      <c r="C20" s="142">
         <v>149970</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="142">
         <f>C20</f>
         <v>149970</v>
       </c>
-      <c r="E20" s="193" t="s">
+      <c r="E20" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="152">
-        <f>D20</f>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="145">
+        <f t="shared" si="1"/>
         <v>149970</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A21" s="128" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="224">
+        <v>0</v>
+      </c>
+      <c r="C21" s="225"/>
+      <c r="D21" s="225">
+        <f>C21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="226" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="226"/>
+      <c r="G21" s="226"/>
+      <c r="H21" s="227">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="224">
+        <v>0</v>
+      </c>
+      <c r="C22" s="225"/>
+      <c r="D22" s="225">
+        <f t="shared" ref="D22:D24" si="2">C22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="226" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="227">
+        <f t="shared" ref="H22:H24" si="3">D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="224">
+        <v>0</v>
+      </c>
+      <c r="C23" s="225"/>
+      <c r="D23" s="225">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="226" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A24" s="231" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="228"/>
+      <c r="C24" s="229"/>
+      <c r="D24" s="225">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="226" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A25" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="147">
-        <f>SUM(B5:B20)</f>
+      <c r="B25" s="146">
+        <f>SUM(B5:B24)</f>
         <v>249919</v>
       </c>
-      <c r="C21" s="147">
-        <f>SUM(C5:C20)</f>
+      <c r="C25" s="146">
+        <f>SUM(C5:C24)</f>
         <v>321967</v>
       </c>
-      <c r="D21" s="147">
-        <f>SUM(D5:D20)</f>
+      <c r="D25" s="146">
+        <f>SUM(D5:D24)</f>
         <v>571886</v>
       </c>
-      <c r="E21" s="195" t="s">
+      <c r="E25" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="196"/>
-      <c r="G21" s="197"/>
-      <c r="H21" s="142">
-        <f>SUM(H5:H20)</f>
+      <c r="F25" s="193"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="141">
+        <f>SUM(H5:H24)</f>
         <v>571886</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="132"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="133"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="191" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="131"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="132"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="189" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="191"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2" t="s">
+      <c r="B27" s="189"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="189"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="143">
+      <c r="B28" s="142">
         <v>15000</v>
       </c>
-      <c r="C24" s="144">
+      <c r="C28" s="143">
         <v>0</v>
       </c>
-      <c r="D24" s="143">
-        <f>SUM(B24:C24)</f>
+      <c r="D28" s="142">
+        <f>SUM(B28:C28)</f>
         <v>15000</v>
       </c>
-      <c r="E24" s="120">
+      <c r="E28" s="120">
         <v>15000</v>
       </c>
-      <c r="F24" s="124">
+      <c r="F28" s="124">
         <v>0</v>
       </c>
-      <c r="G24" s="120">
-        <f>SUM(E24:F24)</f>
+      <c r="G28" s="120">
+        <f t="shared" ref="G28:G41" si="4">SUM(E28:F28)</f>
         <v>15000</v>
       </c>
-      <c r="H24" s="120">
-        <f>D24+G24</f>
+      <c r="H28" s="120">
+        <f>D28+G28</f>
         <v>30000</v>
       </c>
-      <c r="I24" s="135" t="s">
+      <c r="I28" s="134" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="2" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="143">
+      <c r="B29" s="142">
         <v>100000</v>
       </c>
-      <c r="C25" s="144">
+      <c r="C29" s="143">
         <v>0</v>
       </c>
-      <c r="D25" s="143">
-        <f>SUM(B25:C25)</f>
+      <c r="D29" s="142">
+        <f>SUM(B29:C29)</f>
         <v>100000</v>
       </c>
-      <c r="E25" s="120">
+      <c r="E29" s="120">
         <v>190000</v>
       </c>
-      <c r="F25" s="124">
+      <c r="F29" s="124">
         <v>0</v>
       </c>
-      <c r="G25" s="120">
-        <f>SUM(E25:F25)</f>
+      <c r="G29" s="120">
+        <f t="shared" si="4"/>
         <v>190000</v>
       </c>
-      <c r="H25" s="123">
-        <f>D25+G25</f>
+      <c r="H29" s="123">
+        <f>D29+G29</f>
         <v>290000</v>
       </c>
-      <c r="I25" s="135" t="s">
+      <c r="I29" s="134" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="90" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="145">
+      <c r="B30" s="144">
         <v>100000</v>
       </c>
-      <c r="C26" s="145">
+      <c r="C30" s="144">
         <v>100000</v>
       </c>
-      <c r="D26" s="145">
-        <f>SUM(B26:C26)</f>
+      <c r="D30" s="144">
+        <f>SUM(B30:C30)</f>
         <v>200000</v>
       </c>
-      <c r="E26" s="120">
-        <f>TERVEZETT!M2-B26</f>
+      <c r="E30" s="120">
+        <f>TERVEZETT!M2-B30</f>
         <v>989995.18589743599</v>
       </c>
-      <c r="F26" s="120">
-        <f>TERVEZETT!M3-C26</f>
+      <c r="F30" s="120">
+        <f>TERVEZETT!M3-C30</f>
         <v>898827.09615384613</v>
       </c>
-      <c r="G26" s="123">
-        <f>SUM(E26:F26)</f>
+      <c r="G30" s="123">
+        <f t="shared" si="4"/>
         <v>1888822.282051282</v>
       </c>
-      <c r="H26" s="123">
-        <f>D26+G26</f>
+      <c r="H30" s="123">
+        <f>D30+G30</f>
         <v>2088822.282051282</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="2" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B27" s="124">
+      <c r="B31" s="124">
         <v>0</v>
       </c>
-      <c r="C27" s="124">
+      <c r="C31" s="124">
         <v>0</v>
       </c>
-      <c r="D27" s="124">
-        <f>SUM(B27:C27)</f>
+      <c r="D31" s="124">
+        <f>SUM(B31:C31)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="120">
+      <c r="E31" s="120">
         <f>TERVEZETT!L18</f>
         <v>77500</v>
       </c>
-      <c r="F27" s="120">
+      <c r="F31" s="120">
         <f>TERVEZETT!L19</f>
         <v>198400</v>
       </c>
-      <c r="G27" s="120">
-        <f>SUM(E27:F27)</f>
+      <c r="G31" s="120">
+        <f t="shared" si="4"/>
         <v>275900</v>
       </c>
-      <c r="H27" s="120">
-        <f>G27</f>
+      <c r="H31" s="120">
+        <f>G31</f>
         <v>275900</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="90" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="120">
+      <c r="B32" s="124">
+        <v>0</v>
+      </c>
+      <c r="C32" s="124">
+        <v>0</v>
+      </c>
+      <c r="D32" s="124">
+        <v>0</v>
+      </c>
+      <c r="E32" s="120">
         <f>TERVEZETT!M54</f>
         <v>222750</v>
       </c>
-      <c r="F28" s="120">
+      <c r="F32" s="120">
         <f>TERVEZETT!M55</f>
         <v>211750</v>
       </c>
-      <c r="G28" s="120">
-        <f>SUM(E28:F28)</f>
+      <c r="G32" s="120">
+        <f t="shared" si="4"/>
         <v>434500</v>
       </c>
-      <c r="H28" s="120">
-        <f>G28</f>
+      <c r="H32" s="120">
+        <f>G32</f>
         <v>434500</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="145">
+      <c r="B33" s="144">
         <v>5000</v>
       </c>
-      <c r="C29" s="145">
+      <c r="C33" s="144">
         <v>5000</v>
       </c>
-      <c r="D29" s="145">
-        <f>SUM(B29:C29)</f>
+      <c r="D33" s="144">
+        <f>SUM(B33:C33)</f>
         <v>10000</v>
       </c>
-      <c r="E29" s="119">
+      <c r="E33" s="119">
         <v>20000</v>
       </c>
-      <c r="F29" s="119">
+      <c r="F33" s="119">
         <v>20000</v>
       </c>
-      <c r="G29" s="119">
-        <f>SUM(E29:F29)</f>
+      <c r="G33" s="119">
+        <f t="shared" si="4"/>
         <v>40000</v>
       </c>
-      <c r="H29" s="123">
-        <f>D29+G29</f>
+      <c r="H33" s="123">
+        <f t="shared" ref="H33:H41" si="5">D33+G33</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B30" s="145">
+      <c r="B34" s="144">
         <v>10000</v>
       </c>
-      <c r="C30" s="145">
+      <c r="C34" s="144">
         <v>10000</v>
       </c>
-      <c r="D30" s="145">
-        <f>SUM(B30:C30)</f>
+      <c r="D34" s="144">
+        <f>SUM(B34:C34)</f>
         <v>20000</v>
       </c>
-      <c r="E30" s="119">
+      <c r="E34" s="119">
         <v>110000</v>
       </c>
-      <c r="F30" s="119">
+      <c r="F34" s="119">
         <v>110000</v>
       </c>
-      <c r="G30" s="119">
-        <f>SUM(E30:F30)</f>
+      <c r="G34" s="119">
+        <f t="shared" si="4"/>
         <v>220000</v>
       </c>
-      <c r="H30" s="123">
-        <f>D30+G30</f>
+      <c r="H34" s="123">
+        <f t="shared" si="5"/>
         <v>240000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B31" s="145">
-        <v>15000</v>
-      </c>
-      <c r="C31" s="145">
-        <v>15000</v>
-      </c>
-      <c r="D31" s="145">
-        <f>SUM(B31:C31)</f>
-        <v>30000</v>
-      </c>
-      <c r="E31" s="119">
-        <v>45000</v>
-      </c>
-      <c r="F31" s="119">
-        <v>45000</v>
-      </c>
-      <c r="G31" s="119">
-        <f>SUM(E31:F31)</f>
-        <v>90000</v>
-      </c>
-      <c r="H31" s="119">
-        <f>D31+G31</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B32" s="145">
-        <v>15000</v>
-      </c>
-      <c r="C32" s="145">
-        <v>15000</v>
-      </c>
-      <c r="D32" s="145">
-        <f>SUM(B32:C32)</f>
-        <v>30000</v>
-      </c>
-      <c r="E32" s="119">
-        <v>69950</v>
-      </c>
-      <c r="F32" s="119">
-        <v>69950</v>
-      </c>
-      <c r="G32" s="119">
-        <f>SUM(E32:F32)</f>
-        <v>139900</v>
-      </c>
-      <c r="H32" s="123">
-        <f>D32+G32</f>
-        <v>169900</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="139" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="145">
-        <v>10000</v>
-      </c>
-      <c r="C33" s="145">
-        <v>10000</v>
-      </c>
-      <c r="D33" s="145">
-        <f>SUM(B33:C33)</f>
-        <v>20000</v>
-      </c>
-      <c r="E33" s="119">
-        <v>100000</v>
-      </c>
-      <c r="F33" s="119">
-        <v>100000</v>
-      </c>
-      <c r="G33" s="119">
-        <f>SUM(E33:F33)</f>
-        <v>200000</v>
-      </c>
-      <c r="H33" s="119">
-        <f>D33+G33</f>
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="143">
-        <v>7500</v>
-      </c>
-      <c r="C34" s="143">
-        <v>7500</v>
-      </c>
-      <c r="D34" s="143">
-        <v>15000</v>
-      </c>
-      <c r="E34" s="120">
-        <v>32500</v>
-      </c>
-      <c r="F34" s="120">
-        <v>32500</v>
-      </c>
-      <c r="G34" s="120">
-        <f>SUM(E34:F34)</f>
-        <v>65000</v>
-      </c>
-      <c r="H34" s="120">
-        <f>D34+G34</f>
-        <v>80000</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="144">
+        <v>15000</v>
+      </c>
+      <c r="C35" s="144">
+        <v>15000</v>
+      </c>
+      <c r="D35" s="144">
+        <f>SUM(B35:C35)</f>
+        <v>30000</v>
+      </c>
+      <c r="E35" s="119">
+        <v>45000</v>
+      </c>
+      <c r="F35" s="119">
+        <v>45000</v>
+      </c>
+      <c r="G35" s="119">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+      <c r="H35" s="119">
+        <f t="shared" si="5"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="144">
+        <v>15000</v>
+      </c>
+      <c r="C36" s="144">
+        <v>15000</v>
+      </c>
+      <c r="D36" s="144">
+        <f>SUM(B36:C36)</f>
+        <v>30000</v>
+      </c>
+      <c r="E36" s="119">
+        <v>69950</v>
+      </c>
+      <c r="F36" s="119">
+        <v>69950</v>
+      </c>
+      <c r="G36" s="119">
+        <f t="shared" si="4"/>
+        <v>139900</v>
+      </c>
+      <c r="H36" s="123">
+        <f t="shared" si="5"/>
+        <v>169900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="138" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="144">
+        <v>10000</v>
+      </c>
+      <c r="C37" s="144">
+        <v>10000</v>
+      </c>
+      <c r="D37" s="144">
+        <f>SUM(B37:C37)</f>
+        <v>20000</v>
+      </c>
+      <c r="E37" s="119">
+        <v>100000</v>
+      </c>
+      <c r="F37" s="119">
+        <v>100000</v>
+      </c>
+      <c r="G37" s="119">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+      <c r="H37" s="119">
+        <f t="shared" si="5"/>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="142">
+        <v>7500</v>
+      </c>
+      <c r="C38" s="142">
+        <v>7500</v>
+      </c>
+      <c r="D38" s="142">
+        <v>15000</v>
+      </c>
+      <c r="E38" s="120">
+        <v>32500</v>
+      </c>
+      <c r="F38" s="120">
+        <v>32500</v>
+      </c>
+      <c r="G38" s="120">
+        <f t="shared" si="4"/>
+        <v>65000</v>
+      </c>
+      <c r="H38" s="120">
+        <f t="shared" si="5"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="146">
-        <f>D35/2</f>
+      <c r="B39" s="145">
+        <f>D39/2</f>
         <v>70000</v>
       </c>
-      <c r="C35" s="146">
-        <f>D35/2</f>
+      <c r="C39" s="145">
+        <f>D39/2</f>
         <v>70000</v>
       </c>
-      <c r="D35" s="146">
+      <c r="D39" s="145">
         <v>140000</v>
       </c>
-      <c r="E35" s="118">
+      <c r="E39" s="118">
         <v>66800</v>
       </c>
-      <c r="F35" s="118">
+      <c r="F39" s="118">
         <v>66800</v>
       </c>
-      <c r="G35" s="118">
-        <f>SUM(E35:F35)</f>
+      <c r="G39" s="118">
+        <f t="shared" si="4"/>
         <v>133600</v>
       </c>
-      <c r="H35" s="118">
-        <f>D35+G35</f>
+      <c r="H39" s="118">
+        <f t="shared" si="5"/>
         <v>273600</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="139" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="124">
+      <c r="B40" s="124">
         <v>0</v>
       </c>
-      <c r="C36" s="124">
+      <c r="C40" s="124">
         <v>0</v>
       </c>
-      <c r="D36" s="124">
-        <f>SUM(B36:C36)</f>
+      <c r="D40" s="124">
+        <f>SUM(B40:C40)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="118">
+      <c r="E40" s="118">
         <v>13500</v>
       </c>
-      <c r="F36" s="118">
+      <c r="F40" s="118">
         <v>13500</v>
       </c>
-      <c r="G36" s="118">
-        <f>SUM(E36:F36)</f>
+      <c r="G40" s="118">
+        <f t="shared" si="4"/>
         <v>27000</v>
       </c>
-      <c r="H36" s="118">
-        <f>D36+G36</f>
+      <c r="H40" s="118">
+        <f t="shared" si="5"/>
         <v>27000</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="139" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="124">
+      <c r="B41" s="124">
         <v>0</v>
       </c>
-      <c r="C37" s="124">
+      <c r="C41" s="124">
         <v>0</v>
       </c>
-      <c r="D37" s="124">
-        <f>SUM(B37:C37)</f>
+      <c r="D41" s="124">
+        <f>SUM(B41:C41)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="118">
+      <c r="E41" s="118">
         <v>61500</v>
       </c>
-      <c r="F37" s="118">
+      <c r="F41" s="118">
         <v>61500</v>
       </c>
-      <c r="G37" s="118">
-        <f>SUM(E37:F37)</f>
+      <c r="G41" s="118">
+        <f t="shared" si="4"/>
         <v>123000</v>
       </c>
-      <c r="H37" s="118">
-        <f>D37+G37</f>
+      <c r="H41" s="118">
+        <f t="shared" si="5"/>
         <v>123000</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="121" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="B38" s="146">
+      <c r="B42" s="145">
         <v>20000</v>
       </c>
-      <c r="C38" s="146"/>
-      <c r="D38" s="146">
-        <f>SUM(B38:C38)</f>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145">
+        <f>SUM(B42:C42)</f>
         <v>20000</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="121" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="121" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="124"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A40" s="154" t="s">
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="118"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A44" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="B40" s="127"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="137">
+      <c r="B44" s="126"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="136">
         <v>15000</v>
       </c>
-      <c r="F40" s="137">
+      <c r="F44" s="136">
         <v>10000</v>
       </c>
-      <c r="G40" s="137">
-        <f>SUM(E40:F40)</f>
+      <c r="G44" s="136">
+        <f>SUM(E44:F44)</f>
         <v>25000</v>
       </c>
-      <c r="H40" s="137">
-        <f>G40</f>
+      <c r="H44" s="136">
+        <f>G44</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A41" s="138" t="s">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A45" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="129">
-        <f>SUM(B24:B40)</f>
+      <c r="B45" s="128">
+        <f t="shared" ref="B45:H45" si="6">SUM(B28:B44)</f>
         <v>367500</v>
       </c>
-      <c r="C41" s="129">
-        <f>SUM(C24:C40)</f>
+      <c r="C45" s="128">
+        <f t="shared" si="6"/>
         <v>232500</v>
       </c>
-      <c r="D41" s="129">
-        <f>SUM(D24:D40)</f>
+      <c r="D45" s="128">
+        <f t="shared" si="6"/>
         <v>600000</v>
       </c>
-      <c r="E41" s="129">
-        <f>SUM(E24:E40)</f>
+      <c r="E45" s="128">
+        <f t="shared" si="6"/>
         <v>2029495.185897436</v>
       </c>
-      <c r="F41" s="129">
-        <f>SUM(F24:F40)</f>
+      <c r="F45" s="128">
+        <f t="shared" si="6"/>
         <v>1838227.096153846</v>
       </c>
-      <c r="G41" s="129">
-        <f>SUM(G24:G40)</f>
+      <c r="G45" s="128">
+        <f t="shared" si="6"/>
         <v>3867722.282051282</v>
       </c>
-      <c r="H41" s="130">
-        <f>SUM(H24:H40)</f>
+      <c r="H45" s="129">
+        <f t="shared" si="6"/>
         <v>4447722.282051282</v>
       </c>
-      <c r="I41" s="153"/>
-      <c r="J41" s="6"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="189" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="189"/>
+      <c r="C47" s="189"/>
+      <c r="D47" s="189"/>
+      <c r="E47" s="189"/>
+      <c r="F47" s="189"/>
+      <c r="G47" s="189"/>
+      <c r="H47" s="189"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="227">
+        <v>91480</v>
+      </c>
+      <c r="C48" s="227">
+        <v>91480</v>
+      </c>
+      <c r="D48" s="227">
+        <f>SUM(B48:C48)</f>
+        <v>182960</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <f>SUM(E48:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="123">
+        <f>D48+G48</f>
+        <v>182960</v>
+      </c>
+      <c r="I48" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="31">
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -5038,7 +5207,7 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E25:G25"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E14:G14"/>
@@ -5046,7 +5215,7 @@
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E13:G13"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E18:G18"/>
@@ -5530,39 +5699,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="172" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="220" t="s">
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="217" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="221" t="s">
+      <c r="J1" s="218" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="222"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="182" t="s">
+      <c r="K1" s="219"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="209" t="s">
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="206" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="218"/>
-      <c r="B2" s="218"/>
-      <c r="C2" s="219"/>
+      <c r="A2" s="215"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="216"/>
       <c r="D2" s="79" t="s">
         <v>84</v>
       </c>
@@ -5575,10 +5744,10 @@
       <c r="G2" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="220"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="219"/>
+      <c r="H2" s="217"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="216"/>
       <c r="M2" s="79" t="s">
         <v>84</v>
       </c>
@@ -5591,7 +5760,7 @@
       <c r="P2" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="210"/>
+      <c r="Q2" s="207"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="59" t="s">
@@ -5621,7 +5790,7 @@
       <c r="L3" s="85">
         <v>5</v>
       </c>
-      <c r="M3" s="211">
+      <c r="M3" s="208">
         <v>2</v>
       </c>
       <c r="N3" s="86">
@@ -5661,7 +5830,7 @@
       <c r="L4" s="85">
         <v>3</v>
       </c>
-      <c r="M4" s="212"/>
+      <c r="M4" s="209"/>
       <c r="N4" s="88"/>
       <c r="O4" s="88"/>
       <c r="P4" s="89"/>
@@ -6071,10 +6240,10 @@
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="215" t="s">
+      <c r="A22" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="215"/>
+      <c r="B22" s="212"/>
       <c r="C22" s="62">
         <f>SUM(C3:C20)</f>
         <v>41</v>
@@ -6099,10 +6268,10 @@
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="213" t="s">
+      <c r="J22" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="214"/>
+      <c r="K22" s="211"/>
       <c r="L22" s="102">
         <f>SUM(L3:L10)</f>
         <v>37</v>
@@ -6376,7 +6545,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="225" t="s">
+      <c r="A10" s="222" t="s">
         <v>159</v>
       </c>
       <c r="B10" s="115" t="s">
@@ -6390,7 +6559,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="226"/>
+      <c r="A11" s="223"/>
       <c r="B11" s="115" t="s">
         <v>69</v>
       </c>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="220">
   <si>
     <t>TOTAL</t>
   </si>
@@ -680,7 +680,7 @@
     <t>Templomi ceremónia díj</t>
   </si>
   <si>
-    <t>Krisztiánnak tartozunk</t>
+    <t>70/398-8468</t>
   </si>
 </sst>
 </file>
@@ -1694,25 +1694,25 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1724,35 +1724,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1792,60 +1765,105 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1900,24 +1918,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -2217,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2238,13 +2238,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="163"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="165"/>
       <c r="G1" t="s">
         <v>23</v>
       </c>
@@ -2254,11 +2254,11 @@
       <c r="K1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="171">
+      <c r="L1" s="166">
         <f>L2+L3</f>
         <v>78</v>
       </c>
-      <c r="M1" s="171"/>
+      <c r="M1" s="166"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="11"/>
@@ -2610,8 +2610,8 @@
       <c r="B14" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="182"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="175"/>
       <c r="E14" s="75">
         <f>SUM(E3:E13)</f>
         <v>2054000.2564102565</v>
@@ -2632,8 +2632,8 @@
       <c r="B15" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="181"/>
-      <c r="D15" s="182"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="68">
         <f>E14/L1</f>
         <v>26333.336620644313</v>
@@ -2649,24 +2649,24 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A17" s="161" t="s">
+      <c r="A17" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="162"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="163"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="165"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="183" t="s">
+      <c r="B18" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="177"/>
-      <c r="D18" s="178"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -2682,19 +2682,19 @@
       <c r="K18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="154">
+      <c r="L18" s="181">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="M18" s="188"/>
+      <c r="M18" s="182"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="184"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="179"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="172"/>
       <c r="E19" s="14">
         <f>640*310</f>
         <v>198400</v>
@@ -2702,19 +2702,19 @@
       <c r="K19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="186">
+      <c r="L19" s="179">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="M19" s="187"/>
+      <c r="M19" s="180"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="185"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="179"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="172"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2731,28 +2731,28 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="176"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
       <c r="O22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="172">
+      <c r="P22" s="161">
         <f>L1</f>
         <v>78</v>
       </c>
-      <c r="Q22" s="173"/>
+      <c r="Q22" s="162"/>
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="171" t="s">
+      <c r="B23" s="166" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
@@ -2777,17 +2777,17 @@
       <c r="O23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="172">
+      <c r="P23" s="161">
         <v>1</v>
       </c>
-      <c r="Q23" s="173"/>
+      <c r="Q23" s="162"/>
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="171"/>
+      <c r="B24" s="166"/>
       <c r="C24" s="21">
         <v>12000</v>
       </c>
@@ -2809,17 +2809,17 @@
       <c r="O24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="172">
+      <c r="P24" s="161">
         <v>9</v>
       </c>
-      <c r="Q24" s="173"/>
+      <c r="Q24" s="162"/>
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="171"/>
+      <c r="B25" s="166"/>
       <c r="C25" s="21">
         <v>18500</v>
       </c>
@@ -2841,15 +2841,15 @@
       <c r="O25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="170"/>
+      <c r="P25" s="187"/>
+      <c r="Q25" s="187"/>
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="171"/>
+      <c r="B26" s="166"/>
       <c r="C26" s="21">
         <v>7500</v>
       </c>
@@ -2871,8 +2871,8 @@
       <c r="O26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="168"/>
-      <c r="Q26" s="169"/>
+      <c r="P26" s="185"/>
+      <c r="Q26" s="186"/>
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23">
@@ -2903,7 +2903,7 @@
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="171" t="s">
+      <c r="B28" s="166" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="21">
@@ -2933,7 +2933,7 @@
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="171"/>
+      <c r="B29" s="166"/>
       <c r="C29" s="21">
         <v>5500</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="171"/>
+      <c r="B30" s="166"/>
       <c r="C30" s="21">
         <v>1850</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="A31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="171"/>
+      <c r="B31" s="166"/>
       <c r="C31" s="21">
         <v>1850</v>
       </c>
@@ -3018,7 +3018,7 @@
       <c r="A32" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="171"/>
+      <c r="B32" s="166"/>
       <c r="C32" s="21">
         <v>1850</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="171"/>
+      <c r="B33" s="166"/>
       <c r="C33" s="21">
         <v>2000</v>
       </c>
@@ -3069,7 +3069,7 @@
       <c r="A34" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="171"/>
+      <c r="B34" s="166"/>
       <c r="C34" s="21">
         <v>2000</v>
       </c>
@@ -3094,7 +3094,7 @@
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="171"/>
+      <c r="B35" s="166"/>
       <c r="C35" s="21">
         <v>7500</v>
       </c>
@@ -3146,7 +3146,7 @@
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="164" t="s">
+      <c r="B37" s="188" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="11">
@@ -3175,7 +3175,7 @@
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="164"/>
+      <c r="B38" s="188"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="A39" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="165"/>
+      <c r="B39" s="189"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -3274,19 +3274,19 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A42" s="161" t="s">
+      <c r="A42" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="162"/>
-      <c r="C42" s="162"/>
-      <c r="D42" s="162"/>
-      <c r="E42" s="163"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="165"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="166" t="s">
+      <c r="B43" s="183" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="11"/>
@@ -3299,7 +3299,7 @@
       <c r="A44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="166"/>
+      <c r="B44" s="183"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -3310,7 +3310,7 @@
       <c r="A45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="166"/>
+      <c r="B45" s="183"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -3321,7 +3321,7 @@
       <c r="A46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="166"/>
+      <c r="B46" s="183"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -3332,7 +3332,7 @@
       <c r="A47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="166"/>
+      <c r="B47" s="183"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -3343,7 +3343,7 @@
       <c r="A48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="166"/>
+      <c r="B48" s="183"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -3354,7 +3354,7 @@
       <c r="A49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="166"/>
+      <c r="B49" s="183"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="78">
@@ -3376,7 +3376,7 @@
       <c r="A50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="167"/>
+      <c r="B50" s="184"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
@@ -3405,13 +3405,13 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A52" s="161" t="s">
+      <c r="A52" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="162"/>
-      <c r="C52" s="162"/>
-      <c r="D52" s="162"/>
-      <c r="E52" s="163"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="165"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="29" t="s">
@@ -3540,19 +3540,19 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A58" s="161" t="s">
+      <c r="A58" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="162"/>
-      <c r="C58" s="162"/>
-      <c r="D58" s="162"/>
-      <c r="E58" s="163"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="165"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="164" t="s">
+      <c r="B59" s="188" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="140"/>
@@ -3572,7 +3572,7 @@
       <c r="A60" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="164"/>
+      <c r="B60" s="188"/>
       <c r="C60" s="139"/>
       <c r="D60" s="139"/>
       <c r="E60" s="3">
@@ -3590,7 +3590,7 @@
       <c r="A61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="164"/>
+      <c r="B61" s="188"/>
       <c r="C61" s="139"/>
       <c r="D61" s="139"/>
       <c r="E61" s="78">
@@ -3608,7 +3608,7 @@
       <c r="A62" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="164"/>
+      <c r="B62" s="188"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="135">
@@ -3632,7 +3632,7 @@
       <c r="A63" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B63" s="164"/>
+      <c r="B63" s="188"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="135"/>
@@ -3654,7 +3654,7 @@
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="164"/>
+      <c r="B64" s="188"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="78">
@@ -3673,7 +3673,7 @@
       <c r="A65" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="B65" s="164"/>
+      <c r="B65" s="188"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="22">
@@ -3689,7 +3689,7 @@
       <c r="A66" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="164"/>
+      <c r="B66" s="188"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="78">
@@ -3710,7 +3710,7 @@
       <c r="A67" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="164"/>
+      <c r="B67" s="188"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="78">
@@ -3732,7 +3732,7 @@
       <c r="A68" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="164"/>
+      <c r="B68" s="188"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="22"/>
@@ -3746,7 +3746,7 @@
       <c r="A69" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="164"/>
+      <c r="B69" s="188"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="22"/>
@@ -3760,7 +3760,7 @@
       <c r="A70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="164"/>
+      <c r="B70" s="188"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="78">
@@ -3782,7 +3782,7 @@
       <c r="A71" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="164"/>
+      <c r="B71" s="188"/>
       <c r="C71" s="2">
         <v>59</v>
       </c>
@@ -3809,7 +3809,7 @@
       <c r="A72" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B72" s="164"/>
+      <c r="B72" s="188"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="21">
@@ -3828,7 +3828,7 @@
       <c r="A73" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="164"/>
+      <c r="B73" s="188"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="78">
@@ -3847,7 +3847,7 @@
       <c r="A74" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="164"/>
+      <c r="B74" s="188"/>
       <c r="C74" s="2">
         <v>450</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="A75" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B75" s="164"/>
+      <c r="B75" s="188"/>
       <c r="C75" s="2">
         <v>2392</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="A76" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B76" s="164"/>
+      <c r="B76" s="188"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="78">
@@ -3915,7 +3915,7 @@
       <c r="A77" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B77" s="165"/>
+      <c r="B77" s="189"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="21">
@@ -3967,34 +3967,46 @@
         <f>H56+H50+H40+H18+H14+H78</f>
         <v>2346871.974358974</v>
       </c>
-      <c r="K79" s="158" t="s">
+      <c r="K79" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="L79" s="159"/>
-      <c r="M79" s="160"/>
+      <c r="L79" s="194"/>
+      <c r="M79" s="195"/>
     </row>
     <row r="80" spans="1:13">
       <c r="K80" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="154">
+      <c r="L80" s="181">
         <f>M2+L18+M39+M49+M54+M62</f>
         <v>2160680.185897436</v>
       </c>
-      <c r="M80" s="155"/>
+      <c r="M80" s="190"/>
     </row>
     <row r="81" spans="11:13" ht="15.75" thickBot="1">
       <c r="K81" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L81" s="156">
+      <c r="L81" s="191">
         <f>M3+L19+M40+M50+M55+M63</f>
         <v>2179412.096153846</v>
       </c>
-      <c r="M81" s="157"/>
+      <c r="M81" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:B77"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B28:B35"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P24:Q24"/>
@@ -4011,18 +4023,6 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="B59:B77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -4033,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4050,10 +4050,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="173" t="s">
         <v>191</v>
       </c>
       <c r="C1" s="198"/>
@@ -4064,19 +4064,19 @@
       <c r="H1" s="199"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="201"/>
-      <c r="B2" s="170" t="s">
+      <c r="A2" s="202"/>
+      <c r="B2" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="202" t="s">
+      <c r="C2" s="187"/>
+      <c r="D2" s="203" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="170" t="s">
+      <c r="E2" s="187" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="170"/>
-      <c r="G2" s="204" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="205" t="s">
         <v>50</v>
       </c>
       <c r="H2" s="200" t="s">
@@ -4084,34 +4084,34 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="201"/>
+      <c r="A3" s="202"/>
       <c r="B3" s="151" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="203"/>
+      <c r="D3" s="204"/>
       <c r="E3" s="151" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="205"/>
+      <c r="G3" s="206"/>
       <c r="H3" s="200"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="196" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="138" t="s">
@@ -4127,13 +4127,13 @@
         <f t="shared" ref="D5:D19" si="0">SUM(B5:C5)</f>
         <v>28300</v>
       </c>
-      <c r="E5" s="172" t="s">
+      <c r="E5" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="191"/>
-      <c r="G5" s="173"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="162"/>
       <c r="H5" s="145">
-        <f t="shared" ref="H5:H21" si="1">D5</f>
+        <f t="shared" ref="H5:H20" si="1">D5</f>
         <v>28300</v>
       </c>
     </row>
@@ -4153,11 +4153,11 @@
         <f t="shared" si="0"/>
         <v>235100</v>
       </c>
-      <c r="E6" s="172" t="s">
+      <c r="E6" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="191"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="162"/>
       <c r="H6" s="145">
         <f t="shared" si="1"/>
         <v>235100</v>
@@ -4179,11 +4179,11 @@
         <f t="shared" si="0"/>
         <v>20193</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="173"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="162"/>
       <c r="H7" s="145">
         <f t="shared" si="1"/>
         <v>20193</v>
@@ -4205,11 +4205,11 @@
         <f t="shared" si="0"/>
         <v>41910</v>
       </c>
-      <c r="E8" s="172" t="s">
+      <c r="E8" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="191"/>
-      <c r="G8" s="173"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="162"/>
       <c r="H8" s="145">
         <f t="shared" si="1"/>
         <v>41910</v>
@@ -4231,11 +4231,11 @@
         <f t="shared" si="0"/>
         <v>6925</v>
       </c>
-      <c r="E9" s="172" t="s">
+      <c r="E9" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="191"/>
-      <c r="G9" s="173"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="145">
         <f t="shared" si="1"/>
         <v>6925</v>
@@ -4255,11 +4255,11 @@
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="E10" s="172" t="s">
+      <c r="E10" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="191"/>
-      <c r="G10" s="173"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="162"/>
       <c r="H10" s="145">
         <f t="shared" si="1"/>
         <v>1440</v>
@@ -4279,11 +4279,11 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E11" s="172" t="s">
+      <c r="E11" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="191"/>
-      <c r="G11" s="173"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="162"/>
       <c r="H11" s="145">
         <f t="shared" si="1"/>
         <v>2500</v>
@@ -4303,11 +4303,11 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E12" s="172" t="s">
+      <c r="E12" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="191"/>
-      <c r="G12" s="173"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="162"/>
       <c r="H12" s="145">
         <f t="shared" si="1"/>
         <v>1500</v>
@@ -4327,11 +4327,11 @@
         <f t="shared" si="0"/>
         <v>14995</v>
       </c>
-      <c r="E13" s="195" t="s">
+      <c r="E13" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="196"/>
-      <c r="G13" s="197"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="212"/>
       <c r="H13" s="145">
         <f t="shared" si="1"/>
         <v>14995</v>
@@ -4351,11 +4351,11 @@
         <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="E14" s="172" t="s">
+      <c r="E14" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="191"/>
-      <c r="G14" s="173"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="162"/>
       <c r="H14" s="145">
         <f t="shared" si="1"/>
         <v>24900</v>
@@ -4375,11 +4375,11 @@
         <f t="shared" si="0"/>
         <v>28088</v>
       </c>
-      <c r="E15" s="172" t="s">
+      <c r="E15" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="191"/>
-      <c r="G15" s="173"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="162"/>
       <c r="H15" s="145">
         <f t="shared" si="1"/>
         <v>28088</v>
@@ -4399,11 +4399,11 @@
         <f t="shared" si="0"/>
         <v>3239</v>
       </c>
-      <c r="E16" s="172" t="s">
+      <c r="E16" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="191"/>
-      <c r="G16" s="173"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="162"/>
       <c r="H16" s="145">
         <f t="shared" si="1"/>
         <v>3239</v>
@@ -4423,11 +4423,11 @@
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="E17" s="172" t="s">
+      <c r="E17" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="191"/>
-      <c r="G17" s="173"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="162"/>
       <c r="H17" s="145">
         <f t="shared" si="1"/>
         <v>2700</v>
@@ -4449,11 +4449,11 @@
         <f t="shared" si="0"/>
         <v>7176</v>
       </c>
-      <c r="E18" s="172" t="s">
+      <c r="E18" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="191"/>
-      <c r="G18" s="173"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="162"/>
       <c r="H18" s="145">
         <f t="shared" si="1"/>
         <v>7176</v>
@@ -4473,11 +4473,11 @@
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
-      <c r="E19" s="190" t="s">
+      <c r="E19" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="190"/>
-      <c r="G19" s="190"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
       <c r="H19" s="145">
         <f t="shared" si="1"/>
         <v>2950</v>
@@ -4497,11 +4497,11 @@
         <f>C20</f>
         <v>149970</v>
       </c>
-      <c r="E20" s="190" t="s">
+      <c r="E20" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="145">
         <f t="shared" si="1"/>
         <v>149970</v>
@@ -4511,20 +4511,20 @@
       <c r="A21" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B21" s="224">
+      <c r="B21" s="154">
         <v>0</v>
       </c>
-      <c r="C21" s="225"/>
-      <c r="D21" s="225">
+      <c r="C21" s="155"/>
+      <c r="D21" s="155">
         <f>C21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="226" t="s">
+      <c r="E21" s="197" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="226"/>
-      <c r="G21" s="226"/>
-      <c r="H21" s="227">
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="156">
         <f>D21</f>
         <v>0</v>
       </c>
@@ -4533,20 +4533,20 @@
       <c r="A22" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B22" s="224">
+      <c r="B22" s="154">
         <v>0</v>
       </c>
-      <c r="C22" s="225"/>
-      <c r="D22" s="225">
+      <c r="C22" s="155"/>
+      <c r="D22" s="155">
         <f t="shared" ref="D22:D24" si="2">C22</f>
         <v>0</v>
       </c>
-      <c r="E22" s="226" t="s">
+      <c r="E22" s="197" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="226"/>
-      <c r="G22" s="226"/>
-      <c r="H22" s="227">
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
+      <c r="H22" s="156">
         <f t="shared" ref="H22:H24" si="3">D22</f>
         <v>0</v>
       </c>
@@ -4555,40 +4555,40 @@
       <c r="A23" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="224">
+      <c r="B23" s="154">
         <v>0</v>
       </c>
-      <c r="C23" s="225"/>
-      <c r="D23" s="225">
+      <c r="C23" s="155"/>
+      <c r="D23" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E23" s="226" t="s">
+      <c r="E23" s="197" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="226"/>
-      <c r="G23" s="226"/>
-      <c r="H23" s="227">
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="156">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A24" s="231" t="s">
+      <c r="A24" s="160" t="s">
         <v>218</v>
       </c>
-      <c r="B24" s="228"/>
-      <c r="C24" s="229"/>
-      <c r="D24" s="225">
+      <c r="B24" s="157"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E24" s="226" t="s">
+      <c r="E24" s="197" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="226"/>
-      <c r="G24" s="226"/>
-      <c r="H24" s="227">
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="156">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4609,11 +4609,11 @@
         <f>SUM(D5:D24)</f>
         <v>571886</v>
       </c>
-      <c r="E25" s="192" t="s">
+      <c r="E25" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="193"/>
-      <c r="G25" s="194"/>
+      <c r="F25" s="208"/>
+      <c r="G25" s="209"/>
       <c r="H25" s="141">
         <f>SUM(H5:H24)</f>
         <v>571886</v>
@@ -4630,16 +4630,16 @@
       <c r="H26" s="132"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="189" t="s">
+      <c r="A27" s="196" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="189"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="189"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="189"/>
-      <c r="H27" s="189"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
@@ -5001,7 +5001,7 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="230" t="s">
+      <c r="A40" s="159" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="124">
@@ -5145,28 +5145,28 @@
       <c r="J45" s="6"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="189" t="s">
+      <c r="A47" s="196" t="s">
         <v>213</v>
       </c>
-      <c r="B47" s="189"/>
-      <c r="C47" s="189"/>
-      <c r="D47" s="189"/>
-      <c r="E47" s="189"/>
-      <c r="F47" s="189"/>
-      <c r="G47" s="189"/>
-      <c r="H47" s="189"/>
+      <c r="B47" s="196"/>
+      <c r="C47" s="196"/>
+      <c r="D47" s="196"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="196"/>
+      <c r="G47" s="196"/>
+      <c r="H47" s="196"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="227">
+      <c r="B48" s="156">
         <v>91480</v>
       </c>
-      <c r="C48" s="227">
+      <c r="C48" s="145">
         <v>91480</v>
       </c>
-      <c r="D48" s="227">
+      <c r="D48" s="156">
         <f>SUM(B48:C48)</f>
         <v>182960</v>
       </c>
@@ -5184,17 +5184,23 @@
         <f>D48+G48</f>
         <v>182960</v>
       </c>
-      <c r="I48" t="s">
-        <v>219</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -5206,21 +5212,12 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5699,39 +5696,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="221" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="170" t="s">
+      <c r="B1" s="221"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="187" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="217" t="s">
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="225" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="218" t="s">
+      <c r="J1" s="226" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="219"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="180" t="s">
+      <c r="K1" s="227"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="173" t="s">
         <v>83</v>
       </c>
       <c r="N1" s="198"/>
       <c r="O1" s="198"/>
       <c r="P1" s="199"/>
-      <c r="Q1" s="206" t="s">
+      <c r="Q1" s="214" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
-      <c r="C2" s="216"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="224"/>
       <c r="D2" s="79" t="s">
         <v>84</v>
       </c>
@@ -5744,10 +5741,10 @@
       <c r="G2" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="217"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="216"/>
+      <c r="H2" s="225"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="224"/>
       <c r="M2" s="79" t="s">
         <v>84</v>
       </c>
@@ -5760,7 +5757,7 @@
       <c r="P2" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="207"/>
+      <c r="Q2" s="215"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="59" t="s">
@@ -5790,7 +5787,7 @@
       <c r="L3" s="85">
         <v>5</v>
       </c>
-      <c r="M3" s="208">
+      <c r="M3" s="216">
         <v>2</v>
       </c>
       <c r="N3" s="86">
@@ -5830,7 +5827,7 @@
       <c r="L4" s="85">
         <v>3</v>
       </c>
-      <c r="M4" s="209"/>
+      <c r="M4" s="217"/>
       <c r="N4" s="88"/>
       <c r="O4" s="88"/>
       <c r="P4" s="89"/>
@@ -6240,10 +6237,10 @@
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="212" t="s">
+      <c r="A22" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="212"/>
+      <c r="B22" s="220"/>
       <c r="C22" s="62">
         <f>SUM(C3:C20)</f>
         <v>41</v>
@@ -6268,10 +6265,10 @@
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="210" t="s">
+      <c r="J22" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="211"/>
+      <c r="K22" s="219"/>
       <c r="L22" s="102">
         <f>SUM(L3:L10)</f>
         <v>37</v>
@@ -6406,8 +6403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6545,7 +6542,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="222" t="s">
+      <c r="A10" s="230" t="s">
         <v>159</v>
       </c>
       <c r="B10" s="115" t="s">
@@ -6555,11 +6552,11 @@
         <v>160</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="223"/>
+      <c r="A11" s="231"/>
       <c r="B11" s="115" t="s">
         <v>69</v>
       </c>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="223">
   <si>
     <t>TOTAL</t>
   </si>
@@ -681,6 +681,15 @@
   </si>
   <si>
     <t>70/398-8468</t>
+  </si>
+  <si>
+    <t>Vőlegény alsónadrág, zokni</t>
+  </si>
+  <si>
+    <t>Útikönyv</t>
+  </si>
+  <si>
+    <t>Szállás</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1462,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1917,6 +1926,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4031,10 +4045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4514,19 +4528,21 @@
       <c r="B21" s="154">
         <v>0</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155">
+      <c r="C21" s="142">
+        <v>31980</v>
+      </c>
+      <c r="D21" s="142">
         <f>C21</f>
-        <v>0</v>
+        <v>31980</v>
       </c>
       <c r="E21" s="197" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="197"/>
       <c r="G21" s="197"/>
-      <c r="H21" s="156">
+      <c r="H21" s="145">
         <f>D21</f>
-        <v>0</v>
+        <v>31980</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4538,7 +4554,7 @@
       </c>
       <c r="C22" s="155"/>
       <c r="D22" s="155">
-        <f t="shared" ref="D22:D24" si="2">C22</f>
+        <f t="shared" ref="D22:D25" si="2">C22</f>
         <v>0</v>
       </c>
       <c r="E22" s="197" t="s">
@@ -4547,7 +4563,7 @@
       <c r="F22" s="197"/>
       <c r="G22" s="197"/>
       <c r="H22" s="156">
-        <f t="shared" ref="H22:H24" si="3">D22</f>
+        <f t="shared" ref="H22:H25" si="3">D22</f>
         <v>0</v>
       </c>
     </row>
@@ -4558,335 +4574,331 @@
       <c r="B23" s="154">
         <v>0</v>
       </c>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155">
+      <c r="C23" s="142">
+        <v>19990</v>
+      </c>
+      <c r="D23" s="142">
+        <f t="shared" si="2"/>
+        <v>19990</v>
+      </c>
+      <c r="E23" s="197" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="145">
+        <f t="shared" si="3"/>
+        <v>19990</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="233" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="157">
+        <v>0</v>
+      </c>
+      <c r="C24" s="234">
+        <v>13480</v>
+      </c>
+      <c r="D24" s="142">
+        <f t="shared" si="2"/>
+        <v>13480</v>
+      </c>
+      <c r="E24" s="197" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="145">
+        <f t="shared" si="3"/>
+        <v>13480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A25" s="160" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="157"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E23" s="197" t="s">
+      <c r="E25" s="197" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="197"/>
-      <c r="G23" s="197"/>
-      <c r="H23" s="156">
+      <c r="F25" s="197"/>
+      <c r="G25" s="197"/>
+      <c r="H25" s="156">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A24" s="160" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" s="157"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="155">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="197" t="s">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A26" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="146">
+        <f>SUM(B5:B25)</f>
+        <v>249919</v>
+      </c>
+      <c r="C26" s="146">
+        <f>SUM(C5:C25)</f>
+        <v>387417</v>
+      </c>
+      <c r="D26" s="146">
+        <f>SUM(D5:D25)</f>
+        <v>637336</v>
+      </c>
+      <c r="E26" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="197"/>
-      <c r="G24" s="197"/>
-      <c r="H24" s="156">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A25" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="146">
-        <f>SUM(B5:B24)</f>
-        <v>249919</v>
-      </c>
-      <c r="C25" s="146">
-        <f>SUM(C5:C24)</f>
-        <v>321967</v>
-      </c>
-      <c r="D25" s="146">
-        <f>SUM(D5:D24)</f>
-        <v>571886</v>
-      </c>
-      <c r="E25" s="207" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="208"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="141">
-        <f>SUM(H5:H24)</f>
-        <v>571886</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="131"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="132"/>
+      <c r="F26" s="208"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="141">
+        <f>SUM(H5:H25)</f>
+        <v>637336</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="196" t="s">
+      <c r="A27" s="131"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="132"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="196" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="196"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="196"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="142">
-        <v>15000</v>
-      </c>
-      <c r="C28" s="143">
-        <v>0</v>
-      </c>
-      <c r="D28" s="142">
-        <f>SUM(B28:C28)</f>
-        <v>15000</v>
-      </c>
-      <c r="E28" s="120">
-        <v>15000</v>
-      </c>
-      <c r="F28" s="124">
-        <v>0</v>
-      </c>
-      <c r="G28" s="120">
-        <f t="shared" ref="G28:G41" si="4">SUM(E28:F28)</f>
-        <v>15000</v>
-      </c>
-      <c r="H28" s="120">
-        <f>D28+G28</f>
-        <v>30000</v>
-      </c>
-      <c r="I28" s="134" t="s">
-        <v>198</v>
-      </c>
+      <c r="B28" s="196"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="B29" s="142">
-        <v>100000</v>
+        <v>15000</v>
       </c>
       <c r="C29" s="143">
         <v>0</v>
       </c>
       <c r="D29" s="142">
         <f>SUM(B29:C29)</f>
-        <v>100000</v>
+        <v>15000</v>
       </c>
       <c r="E29" s="120">
-        <v>190000</v>
+        <v>15000</v>
       </c>
       <c r="F29" s="124">
         <v>0</v>
       </c>
       <c r="G29" s="120">
+        <f t="shared" ref="G29:G42" si="4">SUM(E29:F29)</f>
+        <v>15000</v>
+      </c>
+      <c r="H29" s="120">
+        <f>D29+G29</f>
+        <v>30000</v>
+      </c>
+      <c r="I29" s="134" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="142">
+        <v>100000</v>
+      </c>
+      <c r="C30" s="143">
+        <v>0</v>
+      </c>
+      <c r="D30" s="142">
+        <f>SUM(B30:C30)</f>
+        <v>100000</v>
+      </c>
+      <c r="E30" s="120">
+        <v>190000</v>
+      </c>
+      <c r="F30" s="124">
+        <v>0</v>
+      </c>
+      <c r="G30" s="120">
         <f t="shared" si="4"/>
         <v>190000</v>
       </c>
-      <c r="H29" s="123">
-        <f>D29+G29</f>
+      <c r="H30" s="123">
+        <f>D30+G30</f>
         <v>290000</v>
       </c>
-      <c r="I29" s="134" t="s">
+      <c r="I30" s="134" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="90" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="B30" s="144">
+      <c r="B31" s="144">
         <v>100000</v>
       </c>
-      <c r="C30" s="144">
+      <c r="C31" s="144">
         <v>100000</v>
       </c>
-      <c r="D30" s="144">
-        <f>SUM(B30:C30)</f>
+      <c r="D31" s="144">
+        <f>SUM(B31:C31)</f>
         <v>200000</v>
       </c>
-      <c r="E30" s="120">
-        <f>TERVEZETT!M2-B30</f>
+      <c r="E31" s="120">
+        <f>TERVEZETT!M2-B31</f>
         <v>989995.18589743599</v>
       </c>
-      <c r="F30" s="120">
-        <f>TERVEZETT!M3-C30</f>
+      <c r="F31" s="120">
+        <f>TERVEZETT!M3-C31</f>
         <v>898827.09615384613</v>
       </c>
-      <c r="G30" s="123">
+      <c r="G31" s="123">
         <f t="shared" si="4"/>
         <v>1888822.282051282</v>
       </c>
-      <c r="H30" s="123">
-        <f>D30+G30</f>
+      <c r="H31" s="123">
+        <f>D31+G31</f>
         <v>2088822.282051282</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B31" s="124">
+      <c r="B32" s="124">
         <v>0</v>
       </c>
-      <c r="C31" s="124">
+      <c r="C32" s="124">
         <v>0</v>
       </c>
-      <c r="D31" s="124">
-        <f>SUM(B31:C31)</f>
+      <c r="D32" s="124">
+        <f>SUM(B32:C32)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="120">
+      <c r="E32" s="120">
         <f>TERVEZETT!L18</f>
         <v>77500</v>
       </c>
-      <c r="F31" s="120">
+      <c r="F32" s="120">
         <f>TERVEZETT!L19</f>
         <v>198400</v>
       </c>
-      <c r="G31" s="120">
+      <c r="G32" s="120">
         <f t="shared" si="4"/>
         <v>275900</v>
       </c>
-      <c r="H31" s="120">
-        <f>G31</f>
+      <c r="H32" s="120">
+        <f>G32</f>
         <v>275900</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="90" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="124">
-        <v>0</v>
-      </c>
-      <c r="C32" s="124">
-        <v>0</v>
-      </c>
-      <c r="D32" s="124">
-        <v>0</v>
-      </c>
-      <c r="E32" s="120">
+      <c r="B33" s="232"/>
+      <c r="C33" s="144">
+        <v>220000</v>
+      </c>
+      <c r="D33" s="144">
+        <f>SUM(B33:C33)</f>
+        <v>220000</v>
+      </c>
+      <c r="E33" s="120">
         <f>TERVEZETT!M54</f>
         <v>222750</v>
       </c>
-      <c r="F32" s="120">
+      <c r="F33" s="120">
         <f>TERVEZETT!M55</f>
         <v>211750</v>
       </c>
-      <c r="G32" s="120">
+      <c r="G33" s="120">
         <f t="shared" si="4"/>
         <v>434500</v>
       </c>
-      <c r="H32" s="120">
-        <f>G32</f>
+      <c r="H33" s="120">
+        <f>G33</f>
         <v>434500</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B33" s="144">
+      <c r="B34" s="144">
         <v>5000</v>
       </c>
-      <c r="C33" s="144">
+      <c r="C34" s="144">
         <v>5000</v>
       </c>
-      <c r="D33" s="144">
-        <f>SUM(B33:C33)</f>
+      <c r="D34" s="144">
+        <f>SUM(B34:C34)</f>
         <v>10000</v>
       </c>
-      <c r="E33" s="119">
+      <c r="E34" s="119">
         <v>20000</v>
       </c>
-      <c r="F33" s="119">
+      <c r="F34" s="119">
         <v>20000</v>
       </c>
-      <c r="G33" s="119">
+      <c r="G34" s="119">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
-      <c r="H33" s="123">
-        <f t="shared" ref="H33:H41" si="5">D33+G33</f>
+      <c r="H34" s="123">
+        <f t="shared" ref="H34:H42" si="5">D34+G34</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B34" s="144">
+      <c r="B35" s="144">
         <v>10000</v>
       </c>
-      <c r="C34" s="144">
+      <c r="C35" s="144">
         <v>10000</v>
       </c>
-      <c r="D34" s="144">
-        <f>SUM(B34:C34)</f>
+      <c r="D35" s="144">
+        <f>SUM(B35:C35)</f>
         <v>20000</v>
       </c>
-      <c r="E34" s="119">
+      <c r="E35" s="119">
         <v>110000</v>
       </c>
-      <c r="F34" s="119">
+      <c r="F35" s="119">
         <v>110000</v>
       </c>
-      <c r="G34" s="119">
+      <c r="G35" s="119">
         <f t="shared" si="4"/>
         <v>220000</v>
       </c>
-      <c r="H34" s="123">
+      <c r="H35" s="123">
         <f t="shared" si="5"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="9" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="B35" s="144">
-        <v>15000</v>
-      </c>
-      <c r="C35" s="144">
-        <v>15000</v>
-      </c>
-      <c r="D35" s="144">
-        <f>SUM(B35:C35)</f>
-        <v>30000</v>
-      </c>
-      <c r="E35" s="119">
-        <v>45000</v>
-      </c>
-      <c r="F35" s="119">
-        <v>45000</v>
-      </c>
-      <c r="G35" s="119">
-        <f t="shared" si="4"/>
-        <v>90000</v>
-      </c>
-      <c r="H35" s="119">
-        <f t="shared" si="5"/>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="B36" s="144">
         <v>15000</v>
@@ -4899,139 +4911,139 @@
         <v>30000</v>
       </c>
       <c r="E36" s="119">
-        <v>69950</v>
+        <v>45000</v>
       </c>
       <c r="F36" s="119">
-        <v>69950</v>
+        <v>45000</v>
       </c>
       <c r="G36" s="119">
         <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+      <c r="H36" s="119">
+        <f t="shared" si="5"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" s="144">
+        <v>15000</v>
+      </c>
+      <c r="C37" s="144">
+        <v>15000</v>
+      </c>
+      <c r="D37" s="144">
+        <f>SUM(B37:C37)</f>
+        <v>30000</v>
+      </c>
+      <c r="E37" s="119">
+        <v>69950</v>
+      </c>
+      <c r="F37" s="119">
+        <v>69950</v>
+      </c>
+      <c r="G37" s="119">
+        <f t="shared" si="4"/>
         <v>139900</v>
       </c>
-      <c r="H36" s="123">
+      <c r="H37" s="123">
         <f t="shared" si="5"/>
         <v>169900</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="138" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" s="138" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="144">
+      <c r="B38" s="144">
         <v>10000</v>
       </c>
-      <c r="C37" s="144">
+      <c r="C38" s="144">
         <v>10000</v>
       </c>
-      <c r="D37" s="144">
-        <f>SUM(B37:C37)</f>
+      <c r="D38" s="144">
+        <f>SUM(B38:C38)</f>
         <v>20000</v>
       </c>
-      <c r="E37" s="119">
+      <c r="E38" s="119">
         <v>100000</v>
       </c>
-      <c r="F37" s="119">
+      <c r="F38" s="119">
         <v>100000</v>
       </c>
-      <c r="G37" s="119">
+      <c r="G38" s="119">
         <f t="shared" si="4"/>
         <v>200000</v>
       </c>
-      <c r="H37" s="119">
+      <c r="H38" s="119">
         <f t="shared" si="5"/>
         <v>220000</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="9" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="142">
+      <c r="B39" s="142">
         <v>7500</v>
       </c>
-      <c r="C38" s="142">
+      <c r="C39" s="142">
         <v>7500</v>
       </c>
-      <c r="D38" s="142">
+      <c r="D39" s="142">
         <v>15000</v>
       </c>
-      <c r="E38" s="120">
+      <c r="E39" s="120">
         <v>32500</v>
       </c>
-      <c r="F38" s="120">
+      <c r="F39" s="120">
         <v>32500</v>
       </c>
-      <c r="G38" s="120">
+      <c r="G39" s="120">
         <f t="shared" si="4"/>
         <v>65000</v>
       </c>
-      <c r="H38" s="120">
+      <c r="H39" s="120">
         <f t="shared" si="5"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="9" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B39" s="145">
-        <f>D39/2</f>
+      <c r="B40" s="145">
+        <f>D40/2</f>
         <v>70000</v>
       </c>
-      <c r="C39" s="145">
-        <f>D39/2</f>
+      <c r="C40" s="145">
+        <f>D40/2</f>
         <v>70000</v>
       </c>
-      <c r="D39" s="145">
+      <c r="D40" s="145">
         <v>140000</v>
       </c>
-      <c r="E39" s="118">
+      <c r="E40" s="118">
         <v>66800</v>
       </c>
-      <c r="F39" s="118">
+      <c r="F40" s="118">
         <v>66800</v>
       </c>
-      <c r="G39" s="118">
+      <c r="G40" s="118">
         <f t="shared" si="4"/>
         <v>133600</v>
       </c>
-      <c r="H39" s="118">
+      <c r="H40" s="118">
         <f t="shared" si="5"/>
         <v>273600</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="159" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" s="159" t="s">
         <v>14</v>
-      </c>
-      <c r="B40" s="124">
-        <v>0</v>
-      </c>
-      <c r="C40" s="124">
-        <v>0</v>
-      </c>
-      <c r="D40" s="124">
-        <f>SUM(B40:C40)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="118">
-        <v>13500</v>
-      </c>
-      <c r="F40" s="118">
-        <v>13500</v>
-      </c>
-      <c r="G40" s="118">
-        <f t="shared" si="4"/>
-        <v>27000</v>
-      </c>
-      <c r="H40" s="118">
-        <f t="shared" si="5"/>
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="138" t="s">
-        <v>25</v>
       </c>
       <c r="B41" s="124">
         <v>0</v>
@@ -5044,151 +5056,220 @@
         <v>0</v>
       </c>
       <c r="E41" s="118">
-        <v>61500</v>
+        <v>13500</v>
       </c>
       <c r="F41" s="118">
-        <v>61500</v>
+        <v>13500</v>
       </c>
       <c r="G41" s="118">
         <f t="shared" si="4"/>
-        <v>123000</v>
+        <v>27000</v>
       </c>
       <c r="H41" s="118">
         <f t="shared" si="5"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="124">
+        <v>0</v>
+      </c>
+      <c r="C42" s="124">
+        <v>0</v>
+      </c>
+      <c r="D42" s="124">
+        <f>SUM(B42:C42)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="118">
+        <v>61500</v>
+      </c>
+      <c r="F42" s="118">
+        <v>61500</v>
+      </c>
+      <c r="G42" s="118">
+        <f t="shared" si="4"/>
         <v>123000</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="121" t="s">
-        <v>209</v>
-      </c>
-      <c r="B42" s="145">
-        <v>20000</v>
-      </c>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145">
-        <f>SUM(B42:C42)</f>
-        <v>20000</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="118">
+        <f t="shared" si="5"/>
+        <v>123000</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="121" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" s="145">
+        <v>20000</v>
+      </c>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145">
+        <f>SUM(B43:C43)</f>
+        <v>20000</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="121" t="s">
         <v>210</v>
       </c>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A44" s="150" t="s">
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A45" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="B44" s="126"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="136">
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="136">
         <v>15000</v>
       </c>
-      <c r="F44" s="136">
+      <c r="F45" s="136">
         <v>10000</v>
       </c>
-      <c r="G44" s="136">
-        <f>SUM(E44:F44)</f>
+      <c r="G45" s="136">
+        <f>SUM(E45:F45)</f>
         <v>25000</v>
       </c>
-      <c r="H44" s="136">
-        <f>G44</f>
+      <c r="H45" s="136">
+        <f>G45</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A45" s="137" t="s">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A46" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="128">
-        <f t="shared" ref="B45:H45" si="6">SUM(B28:B44)</f>
+      <c r="B46" s="128">
+        <f t="shared" ref="B46:H46" si="6">SUM(B29:B45)</f>
         <v>367500</v>
       </c>
-      <c r="C45" s="128">
+      <c r="C46" s="128">
         <f t="shared" si="6"/>
-        <v>232500</v>
-      </c>
-      <c r="D45" s="128">
+        <v>452500</v>
+      </c>
+      <c r="D46" s="128">
         <f t="shared" si="6"/>
-        <v>600000</v>
-      </c>
-      <c r="E45" s="128">
+        <v>820000</v>
+      </c>
+      <c r="E46" s="128">
         <f t="shared" si="6"/>
         <v>2029495.185897436</v>
       </c>
-      <c r="F45" s="128">
+      <c r="F46" s="128">
         <f t="shared" si="6"/>
         <v>1838227.096153846</v>
       </c>
-      <c r="G45" s="128">
+      <c r="G46" s="128">
         <f t="shared" si="6"/>
         <v>3867722.282051282</v>
       </c>
-      <c r="H45" s="129">
+      <c r="H46" s="129">
         <f t="shared" si="6"/>
         <v>4447722.282051282</v>
       </c>
-      <c r="I45" s="149"/>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="196" t="s">
+      <c r="I46" s="149"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="196" t="s">
         <v>213</v>
       </c>
-      <c r="B47" s="196"/>
-      <c r="C47" s="196"/>
-      <c r="D47" s="196"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="196"/>
-      <c r="G47" s="196"/>
-      <c r="H47" s="196"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="196"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="196"/>
+      <c r="G48" s="196"/>
+      <c r="H48" s="196"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="156">
+      <c r="B49" s="145">
         <v>91480</v>
       </c>
-      <c r="C48" s="145">
+      <c r="C49" s="145">
         <v>91480</v>
       </c>
-      <c r="D48" s="156">
-        <f>SUM(B48:C48)</f>
+      <c r="D49" s="145">
+        <f>SUM(B49:C49)</f>
         <v>182960</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E49" s="2">
         <v>0</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F49" s="2">
         <v>0</v>
       </c>
-      <c r="G48" s="2">
-        <f>SUM(E48:F48)</f>
+      <c r="G49" s="2">
+        <f>SUM(E49:F49)</f>
         <v>0</v>
       </c>
-      <c r="H48" s="123">
-        <f>D48+G48</f>
+      <c r="H49" s="145">
+        <f>D49+G49</f>
         <v>182960</v>
       </c>
     </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="145">
+        <v>2075</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="145">
+        <f>SUM(B50:C50)</f>
+        <v>2075</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="145">
+        <f>D50+G50</f>
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E14:G14"/>
@@ -5201,6 +5282,7 @@
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E24:G24"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -5212,12 +5294,12 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:H48"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6403,8 +6485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="223">
   <si>
     <t>TOTAL</t>
   </si>
@@ -671,9 +671,6 @@
     <t>Vőlegény cipő</t>
   </si>
   <si>
-    <t>Vőlegény ingek</t>
-  </si>
-  <si>
     <t>Vőlegény öv</t>
   </si>
   <si>
@@ -683,13 +680,16 @@
     <t>70/398-8468</t>
   </si>
   <si>
-    <t>Vőlegény alsónadrág, zokni</t>
-  </si>
-  <si>
     <t>Útikönyv</t>
   </si>
   <si>
     <t>Szállás</t>
+  </si>
+  <si>
+    <t>Vőlegény ingek (3 db)</t>
+  </si>
+  <si>
+    <t>Vőlegény alsónadrágok, zoknik</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1462,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1703,9 +1703,6 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1718,23 +1715,69 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1774,69 +1817,48 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1852,27 +1874,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1927,10 +1928,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2231,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2252,13 +2257,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="171"/>
       <c r="G1" t="s">
         <v>23</v>
       </c>
@@ -2268,11 +2273,11 @@
       <c r="K1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="166">
+      <c r="L1" s="179">
         <f>L2+L3</f>
         <v>78</v>
       </c>
-      <c r="M1" s="166"/>
+      <c r="M1" s="179"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="11"/>
@@ -2624,8 +2629,8 @@
       <c r="B14" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="190"/>
       <c r="E14" s="75">
         <f>SUM(E3:E13)</f>
         <v>2054000.2564102565</v>
@@ -2646,8 +2651,8 @@
       <c r="B15" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="190"/>
       <c r="E15" s="68">
         <f>E14/L1</f>
         <v>26333.336620644313</v>
@@ -2663,24 +2668,24 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="164"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="165"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="171"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="186"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -2696,19 +2701,19 @@
       <c r="K18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="181">
+      <c r="L18" s="162">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="M18" s="182"/>
+      <c r="M18" s="196"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="177"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="172"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="187"/>
       <c r="E19" s="14">
         <f>640*310</f>
         <v>198400</v>
@@ -2716,19 +2721,19 @@
       <c r="K19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="179">
+      <c r="L19" s="194">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="M19" s="180"/>
+      <c r="M19" s="195"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="178"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="172"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="187"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2745,28 +2750,28 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="169"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="184"/>
       <c r="O22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="161">
+      <c r="P22" s="180">
         <f>L1</f>
         <v>78</v>
       </c>
-      <c r="Q22" s="162"/>
+      <c r="Q22" s="181"/>
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="179" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
@@ -2791,17 +2796,17 @@
       <c r="O23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="161">
+      <c r="P23" s="180">
         <v>1</v>
       </c>
-      <c r="Q23" s="162"/>
+      <c r="Q23" s="181"/>
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="166"/>
+      <c r="B24" s="179"/>
       <c r="C24" s="21">
         <v>12000</v>
       </c>
@@ -2823,17 +2828,17 @@
       <c r="O24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="161">
+      <c r="P24" s="180">
         <v>9</v>
       </c>
-      <c r="Q24" s="162"/>
+      <c r="Q24" s="181"/>
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="166"/>
+      <c r="B25" s="179"/>
       <c r="C25" s="21">
         <v>18500</v>
       </c>
@@ -2855,15 +2860,15 @@
       <c r="O25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="187"/>
-      <c r="Q25" s="187"/>
+      <c r="P25" s="178"/>
+      <c r="Q25" s="178"/>
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="166"/>
+      <c r="B26" s="179"/>
       <c r="C26" s="21">
         <v>7500</v>
       </c>
@@ -2885,8 +2890,8 @@
       <c r="O26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="185"/>
-      <c r="Q26" s="186"/>
+      <c r="P26" s="176"/>
+      <c r="Q26" s="177"/>
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23">
@@ -2917,7 +2922,7 @@
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="166" t="s">
+      <c r="B28" s="179" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="21">
@@ -2947,7 +2952,7 @@
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="166"/>
+      <c r="B29" s="179"/>
       <c r="C29" s="21">
         <v>5500</v>
       </c>
@@ -2976,7 +2981,7 @@
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="166"/>
+      <c r="B30" s="179"/>
       <c r="C30" s="21">
         <v>1850</v>
       </c>
@@ -3005,7 +3010,7 @@
       <c r="A31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="166"/>
+      <c r="B31" s="179"/>
       <c r="C31" s="21">
         <v>1850</v>
       </c>
@@ -3032,7 +3037,7 @@
       <c r="A32" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="166"/>
+      <c r="B32" s="179"/>
       <c r="C32" s="21">
         <v>1850</v>
       </c>
@@ -3058,7 +3063,7 @@
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="166"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="21">
         <v>2000</v>
       </c>
@@ -3083,7 +3088,7 @@
       <c r="A34" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="166"/>
+      <c r="B34" s="179"/>
       <c r="C34" s="21">
         <v>2000</v>
       </c>
@@ -3108,7 +3113,7 @@
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="166"/>
+      <c r="B35" s="179"/>
       <c r="C35" s="21">
         <v>7500</v>
       </c>
@@ -3160,7 +3165,7 @@
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="188" t="s">
+      <c r="B37" s="172" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="11">
@@ -3189,7 +3194,7 @@
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="188"/>
+      <c r="B38" s="172"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -3214,7 +3219,7 @@
       <c r="A39" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="189"/>
+      <c r="B39" s="173"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -3288,19 +3293,19 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A42" s="163" t="s">
+      <c r="A42" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="164"/>
-      <c r="C42" s="164"/>
-      <c r="D42" s="164"/>
-      <c r="E42" s="165"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="171"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="183" t="s">
+      <c r="B43" s="174" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="11"/>
@@ -3313,7 +3318,7 @@
       <c r="A44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="183"/>
+      <c r="B44" s="174"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -3324,7 +3329,7 @@
       <c r="A45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="183"/>
+      <c r="B45" s="174"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -3335,7 +3340,7 @@
       <c r="A46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="183"/>
+      <c r="B46" s="174"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -3346,7 +3351,7 @@
       <c r="A47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="183"/>
+      <c r="B47" s="174"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -3357,7 +3362,7 @@
       <c r="A48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="183"/>
+      <c r="B48" s="174"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -3368,7 +3373,7 @@
       <c r="A49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="183"/>
+      <c r="B49" s="174"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="78">
@@ -3390,7 +3395,7 @@
       <c r="A50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="184"/>
+      <c r="B50" s="175"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
@@ -3419,13 +3424,13 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A52" s="163" t="s">
+      <c r="A52" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="164"/>
-      <c r="C52" s="164"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="165"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="171"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="29" t="s">
@@ -3554,19 +3559,19 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A58" s="163" t="s">
+      <c r="A58" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="164"/>
-      <c r="C58" s="164"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="165"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="170"/>
+      <c r="E58" s="171"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="188" t="s">
+      <c r="B59" s="172" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="140"/>
@@ -3586,7 +3591,7 @@
       <c r="A60" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="188"/>
+      <c r="B60" s="172"/>
       <c r="C60" s="139"/>
       <c r="D60" s="139"/>
       <c r="E60" s="3">
@@ -3604,7 +3609,7 @@
       <c r="A61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="188"/>
+      <c r="B61" s="172"/>
       <c r="C61" s="139"/>
       <c r="D61" s="139"/>
       <c r="E61" s="78">
@@ -3622,7 +3627,7 @@
       <c r="A62" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="188"/>
+      <c r="B62" s="172"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="135">
@@ -3646,7 +3651,7 @@
       <c r="A63" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B63" s="188"/>
+      <c r="B63" s="172"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="135"/>
@@ -3668,7 +3673,7 @@
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="188"/>
+      <c r="B64" s="172"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="78">
@@ -3687,7 +3692,7 @@
       <c r="A65" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="B65" s="188"/>
+      <c r="B65" s="172"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="22">
@@ -3703,7 +3708,7 @@
       <c r="A66" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="188"/>
+      <c r="B66" s="172"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="78">
@@ -3724,7 +3729,7 @@
       <c r="A67" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="188"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="78">
@@ -3746,7 +3751,7 @@
       <c r="A68" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="188"/>
+      <c r="B68" s="172"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="22"/>
@@ -3760,7 +3765,7 @@
       <c r="A69" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="188"/>
+      <c r="B69" s="172"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="22"/>
@@ -3774,7 +3779,7 @@
       <c r="A70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="188"/>
+      <c r="B70" s="172"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="78">
@@ -3796,7 +3801,7 @@
       <c r="A71" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="188"/>
+      <c r="B71" s="172"/>
       <c r="C71" s="2">
         <v>59</v>
       </c>
@@ -3823,7 +3828,7 @@
       <c r="A72" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B72" s="188"/>
+      <c r="B72" s="172"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="21">
@@ -3842,7 +3847,7 @@
       <c r="A73" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="188"/>
+      <c r="B73" s="172"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="78">
@@ -3861,7 +3866,7 @@
       <c r="A74" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="188"/>
+      <c r="B74" s="172"/>
       <c r="C74" s="2">
         <v>450</v>
       </c>
@@ -3885,7 +3890,7 @@
       <c r="A75" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B75" s="188"/>
+      <c r="B75" s="172"/>
       <c r="C75" s="2">
         <v>2392</v>
       </c>
@@ -3910,7 +3915,7 @@
       <c r="A76" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B76" s="188"/>
+      <c r="B76" s="172"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="78">
@@ -3929,7 +3934,7 @@
       <c r="A77" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B77" s="189"/>
+      <c r="B77" s="173"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="21">
@@ -3981,46 +3986,34 @@
         <f>H56+H50+H40+H18+H14+H78</f>
         <v>2346871.974358974</v>
       </c>
-      <c r="K79" s="193" t="s">
+      <c r="K79" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="L79" s="194"/>
-      <c r="M79" s="195"/>
+      <c r="L79" s="167"/>
+      <c r="M79" s="168"/>
     </row>
     <row r="80" spans="1:13">
       <c r="K80" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="181">
+      <c r="L80" s="162">
         <f>M2+L18+M39+M49+M54+M62</f>
         <v>2160680.185897436</v>
       </c>
-      <c r="M80" s="190"/>
+      <c r="M80" s="163"/>
     </row>
     <row r="81" spans="11:13" ht="15.75" thickBot="1">
       <c r="K81" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L81" s="191">
+      <c r="L81" s="164">
         <f>M3+L19+M40+M50+M55+M63</f>
         <v>2179412.096153846</v>
       </c>
-      <c r="M81" s="192"/>
+      <c r="M81" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="B59:B77"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B28:B35"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P24:Q24"/>
@@ -4037,6 +4030,18 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:B77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -4048,7 +4053,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4064,68 +4069,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="188" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="199"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="207"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="202"/>
-      <c r="B2" s="187" t="s">
+      <c r="A2" s="210"/>
+      <c r="B2" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="203" t="s">
+      <c r="C2" s="178"/>
+      <c r="D2" s="211" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="187" t="s">
+      <c r="E2" s="178" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="205" t="s">
+      <c r="F2" s="178"/>
+      <c r="G2" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="200" t="s">
+      <c r="H2" s="208" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="202"/>
+      <c r="A3" s="210"/>
       <c r="B3" s="151" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="204"/>
+      <c r="D3" s="212"/>
       <c r="E3" s="151" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="206"/>
-      <c r="H3" s="200"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="208"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="196" t="s">
+      <c r="A4" s="209" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="196"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="196"/>
-      <c r="H4" s="196"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="138" t="s">
@@ -4141,11 +4146,11 @@
         <f t="shared" ref="D5:D19" si="0">SUM(B5:C5)</f>
         <v>28300</v>
       </c>
-      <c r="E5" s="161" t="s">
+      <c r="E5" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="201"/>
-      <c r="G5" s="162"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="181"/>
       <c r="H5" s="145">
         <f t="shared" ref="H5:H20" si="1">D5</f>
         <v>28300</v>
@@ -4167,11 +4172,11 @@
         <f t="shared" si="0"/>
         <v>235100</v>
       </c>
-      <c r="E6" s="161" t="s">
+      <c r="E6" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="201"/>
-      <c r="G6" s="162"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="181"/>
       <c r="H6" s="145">
         <f t="shared" si="1"/>
         <v>235100</v>
@@ -4193,11 +4198,11 @@
         <f t="shared" si="0"/>
         <v>20193</v>
       </c>
-      <c r="E7" s="161" t="s">
+      <c r="E7" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="201"/>
-      <c r="G7" s="162"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="181"/>
       <c r="H7" s="145">
         <f t="shared" si="1"/>
         <v>20193</v>
@@ -4219,11 +4224,11 @@
         <f t="shared" si="0"/>
         <v>41910</v>
       </c>
-      <c r="E8" s="161" t="s">
+      <c r="E8" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="201"/>
-      <c r="G8" s="162"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="181"/>
       <c r="H8" s="145">
         <f t="shared" si="1"/>
         <v>41910</v>
@@ -4245,11 +4250,11 @@
         <f t="shared" si="0"/>
         <v>6925</v>
       </c>
-      <c r="E9" s="161" t="s">
+      <c r="E9" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="201"/>
-      <c r="G9" s="162"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="181"/>
       <c r="H9" s="145">
         <f t="shared" si="1"/>
         <v>6925</v>
@@ -4269,11 +4274,11 @@
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="E10" s="161" t="s">
+      <c r="E10" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="201"/>
-      <c r="G10" s="162"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="181"/>
       <c r="H10" s="145">
         <f t="shared" si="1"/>
         <v>1440</v>
@@ -4293,11 +4298,11 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E11" s="161" t="s">
+      <c r="E11" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="201"/>
-      <c r="G11" s="162"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="181"/>
       <c r="H11" s="145">
         <f t="shared" si="1"/>
         <v>2500</v>
@@ -4317,11 +4322,11 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E12" s="161" t="s">
+      <c r="E12" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="201"/>
-      <c r="G12" s="162"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="181"/>
       <c r="H12" s="145">
         <f t="shared" si="1"/>
         <v>1500</v>
@@ -4341,11 +4346,11 @@
         <f t="shared" si="0"/>
         <v>14995</v>
       </c>
-      <c r="E13" s="210" t="s">
+      <c r="E13" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="211"/>
-      <c r="G13" s="212"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="203"/>
       <c r="H13" s="145">
         <f t="shared" si="1"/>
         <v>14995</v>
@@ -4365,11 +4370,11 @@
         <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="E14" s="161" t="s">
+      <c r="E14" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="201"/>
-      <c r="G14" s="162"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="181"/>
       <c r="H14" s="145">
         <f t="shared" si="1"/>
         <v>24900</v>
@@ -4389,11 +4394,11 @@
         <f t="shared" si="0"/>
         <v>28088</v>
       </c>
-      <c r="E15" s="161" t="s">
+      <c r="E15" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="201"/>
-      <c r="G15" s="162"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="181"/>
       <c r="H15" s="145">
         <f t="shared" si="1"/>
         <v>28088</v>
@@ -4413,11 +4418,11 @@
         <f t="shared" si="0"/>
         <v>3239</v>
       </c>
-      <c r="E16" s="161" t="s">
+      <c r="E16" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="201"/>
-      <c r="G16" s="162"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="181"/>
       <c r="H16" s="145">
         <f t="shared" si="1"/>
         <v>3239</v>
@@ -4437,11 +4442,11 @@
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="E17" s="161" t="s">
+      <c r="E17" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="201"/>
-      <c r="G17" s="162"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="181"/>
       <c r="H17" s="145">
         <f t="shared" si="1"/>
         <v>2700</v>
@@ -4463,11 +4468,11 @@
         <f t="shared" si="0"/>
         <v>7176</v>
       </c>
-      <c r="E18" s="161" t="s">
+      <c r="E18" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="201"/>
-      <c r="G18" s="162"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="181"/>
       <c r="H18" s="145">
         <f t="shared" si="1"/>
         <v>7176</v>
@@ -4487,11 +4492,11 @@
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
-      <c r="E19" s="213" t="s">
+      <c r="E19" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="204"/>
       <c r="H19" s="145">
         <f t="shared" si="1"/>
         <v>2950</v>
@@ -4511,11 +4516,11 @@
         <f>C20</f>
         <v>149970</v>
       </c>
-      <c r="E20" s="213" t="s">
+      <c r="E20" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="145">
         <f t="shared" si="1"/>
         <v>149970</v>
@@ -4525,7 +4530,7 @@
       <c r="A21" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B21" s="154">
+      <c r="B21" s="143">
         <v>0</v>
       </c>
       <c r="C21" s="142">
@@ -4535,11 +4540,11 @@
         <f>C21</f>
         <v>31980</v>
       </c>
-      <c r="E21" s="197" t="s">
+      <c r="E21" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="197"/>
-      <c r="G21" s="197"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="205"/>
       <c r="H21" s="145">
         <f>D21</f>
         <v>31980</v>
@@ -4547,31 +4552,33 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" s="154">
+        <v>221</v>
+      </c>
+      <c r="B22" s="143">
         <v>0</v>
       </c>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155">
+      <c r="C22" s="142">
+        <v>38700</v>
+      </c>
+      <c r="D22" s="142">
         <f t="shared" ref="D22:D25" si="2">C22</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="197" t="s">
+        <v>38700</v>
+      </c>
+      <c r="E22" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="197"/>
-      <c r="G22" s="197"/>
-      <c r="H22" s="156">
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="145">
         <f t="shared" ref="H22:H25" si="3">D22</f>
-        <v>0</v>
+        <v>38700</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="154">
+        <v>216</v>
+      </c>
+      <c r="B23" s="143">
         <v>0</v>
       </c>
       <c r="C23" s="142">
@@ -4581,56 +4588,56 @@
         <f t="shared" si="2"/>
         <v>19990</v>
       </c>
-      <c r="E23" s="197" t="s">
+      <c r="E23" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="197"/>
-      <c r="G23" s="197"/>
+      <c r="F23" s="205"/>
+      <c r="G23" s="205"/>
       <c r="H23" s="145">
         <f t="shared" si="3"/>
         <v>19990</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="233" t="s">
-        <v>220</v>
-      </c>
-      <c r="B24" s="157">
+    <row r="24" spans="1:9" ht="30">
+      <c r="A24" s="234" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="233">
         <v>0</v>
       </c>
-      <c r="C24" s="234">
+      <c r="C24" s="161">
         <v>13480</v>
       </c>
       <c r="D24" s="142">
         <f t="shared" si="2"/>
         <v>13480</v>
       </c>
-      <c r="E24" s="197" t="s">
+      <c r="E24" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="197"/>
-      <c r="G24" s="197"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
       <c r="H24" s="145">
         <f t="shared" si="3"/>
         <v>13480</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A25" s="160" t="s">
-        <v>218</v>
-      </c>
-      <c r="B25" s="157"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="155">
+      <c r="A25" s="159" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="156"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="154">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E25" s="197" t="s">
+      <c r="E25" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="197"/>
-      <c r="G25" s="197"/>
-      <c r="H25" s="156">
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4645,20 +4652,20 @@
       </c>
       <c r="C26" s="146">
         <f>SUM(C5:C25)</f>
-        <v>387417</v>
+        <v>426117</v>
       </c>
       <c r="D26" s="146">
         <f>SUM(D5:D25)</f>
-        <v>637336</v>
-      </c>
-      <c r="E26" s="207" t="s">
+        <v>676036</v>
+      </c>
+      <c r="E26" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="208"/>
-      <c r="G26" s="209"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="200"/>
       <c r="H26" s="141">
         <f>SUM(H5:H25)</f>
-        <v>637336</v>
+        <v>676036</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4672,16 +4679,16 @@
       <c r="H27" s="132"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="196" t="s">
+      <c r="A28" s="209" t="s">
         <v>201</v>
       </c>
-      <c r="B28" s="196"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="196"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="196"/>
+      <c r="B28" s="209"/>
+      <c r="C28" s="209"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="209"/>
+      <c r="H28" s="209"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
@@ -4694,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="142">
-        <f>SUM(B29:C29)</f>
+        <f t="shared" ref="D29:D38" si="4">SUM(B29:C29)</f>
         <v>15000</v>
       </c>
       <c r="E29" s="120">
@@ -4704,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="120">
-        <f t="shared" ref="G29:G42" si="4">SUM(E29:F29)</f>
+        <f t="shared" ref="G29:G42" si="5">SUM(E29:F29)</f>
         <v>15000</v>
       </c>
       <c r="H29" s="120">
@@ -4726,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="142">
-        <f>SUM(B30:C30)</f>
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
       <c r="E30" s="120">
@@ -4736,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>190000</v>
       </c>
       <c r="H30" s="123">
@@ -4758,7 +4765,7 @@
         <v>100000</v>
       </c>
       <c r="D31" s="144">
-        <f>SUM(B31:C31)</f>
+        <f t="shared" si="4"/>
         <v>200000</v>
       </c>
       <c r="E31" s="120">
@@ -4770,7 +4777,7 @@
         <v>898827.09615384613</v>
       </c>
       <c r="G31" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1888822.282051282</v>
       </c>
       <c r="H31" s="123">
@@ -4789,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="124">
-        <f>SUM(B32:C32)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E32" s="120">
@@ -4801,7 +4808,7 @@
         <v>198400</v>
       </c>
       <c r="G32" s="120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>275900</v>
       </c>
       <c r="H32" s="120">
@@ -4813,12 +4820,12 @@
       <c r="A33" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="232"/>
+      <c r="B33" s="160"/>
       <c r="C33" s="144">
         <v>220000</v>
       </c>
       <c r="D33" s="144">
-        <f>SUM(B33:C33)</f>
+        <f t="shared" si="4"/>
         <v>220000</v>
       </c>
       <c r="E33" s="120">
@@ -4830,7 +4837,7 @@
         <v>211750</v>
       </c>
       <c r="G33" s="120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>434500</v>
       </c>
       <c r="H33" s="120">
@@ -4849,7 +4856,7 @@
         <v>5000</v>
       </c>
       <c r="D34" s="144">
-        <f>SUM(B34:C34)</f>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
       <c r="E34" s="119">
@@ -4859,11 +4866,11 @@
         <v>20000</v>
       </c>
       <c r="G34" s="119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40000</v>
       </c>
       <c r="H34" s="123">
-        <f t="shared" ref="H34:H42" si="5">D34+G34</f>
+        <f t="shared" ref="H34:H42" si="6">D34+G34</f>
         <v>50000</v>
       </c>
     </row>
@@ -4878,7 +4885,7 @@
         <v>10000</v>
       </c>
       <c r="D35" s="144">
-        <f>SUM(B35:C35)</f>
+        <f t="shared" si="4"/>
         <v>20000</v>
       </c>
       <c r="E35" s="119">
@@ -4888,11 +4895,11 @@
         <v>110000</v>
       </c>
       <c r="G35" s="119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>220000</v>
       </c>
       <c r="H35" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>240000</v>
       </c>
     </row>
@@ -4907,7 +4914,7 @@
         <v>15000</v>
       </c>
       <c r="D36" s="144">
-        <f>SUM(B36:C36)</f>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="E36" s="119">
@@ -4917,11 +4924,11 @@
         <v>45000</v>
       </c>
       <c r="G36" s="119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90000</v>
       </c>
       <c r="H36" s="119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>120000</v>
       </c>
     </row>
@@ -4936,7 +4943,7 @@
         <v>15000</v>
       </c>
       <c r="D37" s="144">
-        <f>SUM(B37:C37)</f>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="E37" s="119">
@@ -4946,11 +4953,11 @@
         <v>69950</v>
       </c>
       <c r="G37" s="119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>139900</v>
       </c>
       <c r="H37" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>169900</v>
       </c>
     </row>
@@ -4965,7 +4972,7 @@
         <v>10000</v>
       </c>
       <c r="D38" s="144">
-        <f>SUM(B38:C38)</f>
+        <f t="shared" si="4"/>
         <v>20000</v>
       </c>
       <c r="E38" s="119">
@@ -4975,11 +4982,11 @@
         <v>100000</v>
       </c>
       <c r="G38" s="119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
       <c r="H38" s="119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>220000</v>
       </c>
     </row>
@@ -5003,11 +5010,11 @@
         <v>32500</v>
       </c>
       <c r="G39" s="120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65000</v>
       </c>
       <c r="H39" s="120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80000</v>
       </c>
     </row>
@@ -5033,16 +5040,16 @@
         <v>66800</v>
       </c>
       <c r="G40" s="118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>133600</v>
       </c>
       <c r="H40" s="118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>273600</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="159" t="s">
+      <c r="A41" s="158" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="124">
@@ -5062,11 +5069,11 @@
         <v>13500</v>
       </c>
       <c r="G41" s="118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27000</v>
       </c>
       <c r="H41" s="118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27000</v>
       </c>
     </row>
@@ -5091,11 +5098,11 @@
         <v>61500</v>
       </c>
       <c r="G42" s="118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123000</v>
       </c>
       <c r="H42" s="118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>123000</v>
       </c>
     </row>
@@ -5155,47 +5162,47 @@
         <v>7</v>
       </c>
       <c r="B46" s="128">
-        <f t="shared" ref="B46:H46" si="6">SUM(B29:B45)</f>
+        <f t="shared" ref="B46:H46" si="7">SUM(B29:B45)</f>
         <v>367500</v>
       </c>
       <c r="C46" s="128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>452500</v>
       </c>
       <c r="D46" s="128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>820000</v>
       </c>
       <c r="E46" s="128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2029495.185897436</v>
       </c>
       <c r="F46" s="128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1838227.096153846</v>
       </c>
       <c r="G46" s="128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3867722.282051282</v>
       </c>
       <c r="H46" s="129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4447722.282051282</v>
       </c>
       <c r="I46" s="149"/>
       <c r="J46" s="6"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="196" t="s">
+      <c r="A48" s="209" t="s">
         <v>213</v>
       </c>
-      <c r="B48" s="196"/>
-      <c r="C48" s="196"/>
-      <c r="D48" s="196"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="196"/>
-      <c r="G48" s="196"/>
-      <c r="H48" s="196"/>
+      <c r="B48" s="209"/>
+      <c r="C48" s="209"/>
+      <c r="D48" s="209"/>
+      <c r="E48" s="209"/>
+      <c r="F48" s="209"/>
+      <c r="G48" s="209"/>
+      <c r="H48" s="209"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
@@ -5211,16 +5218,11 @@
         <f>SUM(B49:C49)</f>
         <v>182960</v>
       </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2">
-        <f>SUM(E49:F49)</f>
-        <v>0</v>
-      </c>
+      <c r="E49" s="205" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="205"/>
+      <c r="G49" s="205"/>
       <c r="H49" s="145">
         <f>D49+G49</f>
         <v>182960</v>
@@ -5228,27 +5230,23 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B50" s="145">
         <v>2075</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="235">
         <v>0</v>
       </c>
       <c r="D50" s="145">
         <f>SUM(B50:C50)</f>
         <v>2075</v>
       </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
+      <c r="E50" s="205" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="205"/>
+      <c r="G50" s="205"/>
       <c r="H50" s="145">
         <f>D50+G50</f>
         <v>2075</v>
@@ -5256,7 +5254,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5267,7 +5265,26 @@
       <c r="H51" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E11:G11"/>
@@ -5283,23 +5300,6 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5778,39 +5778,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="222" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="187" t="s">
+      <c r="B1" s="222"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="225" t="s">
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="226" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="226" t="s">
+      <c r="J1" s="227" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="227"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="173" t="s">
+      <c r="K1" s="228"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="188" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="214" t="s">
+      <c r="N1" s="206"/>
+      <c r="O1" s="206"/>
+      <c r="P1" s="207"/>
+      <c r="Q1" s="215" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="223"/>
-      <c r="B2" s="223"/>
-      <c r="C2" s="224"/>
+      <c r="A2" s="224"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="225"/>
       <c r="D2" s="79" t="s">
         <v>84</v>
       </c>
@@ -5823,10 +5823,10 @@
       <c r="G2" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="225"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="224"/>
+      <c r="H2" s="226"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="225"/>
       <c r="M2" s="79" t="s">
         <v>84</v>
       </c>
@@ -5839,7 +5839,7 @@
       <c r="P2" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="215"/>
+      <c r="Q2" s="216"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="59" t="s">
@@ -5869,7 +5869,7 @@
       <c r="L3" s="85">
         <v>5</v>
       </c>
-      <c r="M3" s="216">
+      <c r="M3" s="217">
         <v>2</v>
       </c>
       <c r="N3" s="86">
@@ -5909,7 +5909,7 @@
       <c r="L4" s="85">
         <v>3</v>
       </c>
-      <c r="M4" s="217"/>
+      <c r="M4" s="218"/>
       <c r="N4" s="88"/>
       <c r="O4" s="88"/>
       <c r="P4" s="89"/>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="220" t="s">
+      <c r="A22" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="220"/>
+      <c r="B22" s="221"/>
       <c r="C22" s="62">
         <f>SUM(C3:C20)</f>
         <v>41</v>
@@ -6347,10 +6347,10 @@
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="218" t="s">
+      <c r="J22" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="219"/>
+      <c r="K22" s="220"/>
       <c r="L22" s="102">
         <f>SUM(L3:L10)</f>
         <v>37</v>
@@ -6624,7 +6624,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="230" t="s">
+      <c r="A10" s="231" t="s">
         <v>159</v>
       </c>
       <c r="B10" s="115" t="s">
@@ -6634,11 +6634,11 @@
         <v>160</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="231"/>
+      <c r="A11" s="232"/>
       <c r="B11" s="115" t="s">
         <v>69</v>
       </c>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -617,12 +617,6 @@
     <t>Menyecskeruha</t>
   </si>
   <si>
-    <t>augusztus 17-ei méretre szabás és elvitel</t>
-  </si>
-  <si>
-    <t>augusztus 18-ai elvitel, 21-én visszavinni 100.000.- kaució visszajár</t>
-  </si>
-  <si>
     <t>Egyszeri kifizetések</t>
   </si>
   <si>
@@ -690,6 +684,12 @@
   </si>
   <si>
     <t>Vőlegény alsónadrágok, zoknik</t>
+  </si>
+  <si>
+    <t>augusztus 17-ei méretre szabás és elvitel 13 óra!</t>
+  </si>
+  <si>
+    <t>augusztus 17-ai elvitel, 21-én visszavinni 100.000.- kaució visszajár</t>
   </si>
 </sst>
 </file>
@@ -1719,6 +1719,15 @@
     <xf numFmtId="164" fontId="14" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1927,15 +1936,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2257,13 +2257,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="171"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="174"/>
       <c r="G1" t="s">
         <v>23</v>
       </c>
@@ -2273,11 +2273,11 @@
       <c r="K1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="179">
+      <c r="L1" s="182">
         <f>L2+L3</f>
         <v>78</v>
       </c>
-      <c r="M1" s="179"/>
+      <c r="M1" s="182"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="11"/>
@@ -2629,8 +2629,8 @@
       <c r="B14" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="193"/>
       <c r="E14" s="75">
         <f>SUM(E3:E13)</f>
         <v>2054000.2564102565</v>
@@ -2651,8 +2651,8 @@
       <c r="B15" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="189"/>
-      <c r="D15" s="190"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="193"/>
       <c r="E15" s="68">
         <f>E14/L1</f>
         <v>26333.336620644313</v>
@@ -2668,24 +2668,24 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="171"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="174"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="185"/>
-      <c r="D18" s="186"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="189"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -2701,19 +2701,19 @@
       <c r="K18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="162">
+      <c r="L18" s="165">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="M18" s="196"/>
+      <c r="M18" s="199"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="192"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="187"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="190"/>
       <c r="E19" s="14">
         <f>640*310</f>
         <v>198400</v>
@@ -2721,19 +2721,19 @@
       <c r="K19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="194">
+      <c r="L19" s="197">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="M19" s="195"/>
+      <c r="M19" s="198"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="193"/>
-      <c r="C20" s="188"/>
-      <c r="D20" s="187"/>
+      <c r="B20" s="196"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="190"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2750,28 +2750,28 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="182" t="s">
+      <c r="A22" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="183"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="184"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="187"/>
       <c r="O22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="180">
+      <c r="P22" s="183">
         <f>L1</f>
         <v>78</v>
       </c>
-      <c r="Q22" s="181"/>
+      <c r="Q22" s="184"/>
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="179" t="s">
+      <c r="B23" s="182" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
@@ -2796,17 +2796,17 @@
       <c r="O23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="180">
+      <c r="P23" s="183">
         <v>1</v>
       </c>
-      <c r="Q23" s="181"/>
+      <c r="Q23" s="184"/>
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="179"/>
+      <c r="B24" s="182"/>
       <c r="C24" s="21">
         <v>12000</v>
       </c>
@@ -2828,17 +2828,17 @@
       <c r="O24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="180">
+      <c r="P24" s="183">
         <v>9</v>
       </c>
-      <c r="Q24" s="181"/>
+      <c r="Q24" s="184"/>
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="179"/>
+      <c r="B25" s="182"/>
       <c r="C25" s="21">
         <v>18500</v>
       </c>
@@ -2860,15 +2860,15 @@
       <c r="O25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="178"/>
-      <c r="Q25" s="178"/>
+      <c r="P25" s="181"/>
+      <c r="Q25" s="181"/>
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="179"/>
+      <c r="B26" s="182"/>
       <c r="C26" s="21">
         <v>7500</v>
       </c>
@@ -2890,8 +2890,8 @@
       <c r="O26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="176"/>
-      <c r="Q26" s="177"/>
+      <c r="P26" s="179"/>
+      <c r="Q26" s="180"/>
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23">
@@ -2922,7 +2922,7 @@
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="179" t="s">
+      <c r="B28" s="182" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="21">
@@ -2952,7 +2952,7 @@
       <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="179"/>
+      <c r="B29" s="182"/>
       <c r="C29" s="21">
         <v>5500</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="179"/>
+      <c r="B30" s="182"/>
       <c r="C30" s="21">
         <v>1850</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="A31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="179"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="21">
         <v>1850</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="A32" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="179"/>
+      <c r="B32" s="182"/>
       <c r="C32" s="21">
         <v>1850</v>
       </c>
@@ -3063,7 +3063,7 @@
       <c r="A33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="179"/>
+      <c r="B33" s="182"/>
       <c r="C33" s="21">
         <v>2000</v>
       </c>
@@ -3088,7 +3088,7 @@
       <c r="A34" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="179"/>
+      <c r="B34" s="182"/>
       <c r="C34" s="21">
         <v>2000</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="A35" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="179"/>
+      <c r="B35" s="182"/>
       <c r="C35" s="21">
         <v>7500</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="172" t="s">
+      <c r="B37" s="175" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="11">
@@ -3194,7 +3194,7 @@
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="172"/>
+      <c r="B38" s="175"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -3219,7 +3219,7 @@
       <c r="A39" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="173"/>
+      <c r="B39" s="176"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -3293,19 +3293,19 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A42" s="169" t="s">
+      <c r="A42" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="171"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="174"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="177" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="11"/>
@@ -3318,7 +3318,7 @@
       <c r="A44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="174"/>
+      <c r="B44" s="177"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -3329,7 +3329,7 @@
       <c r="A45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="174"/>
+      <c r="B45" s="177"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -3340,7 +3340,7 @@
       <c r="A46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="174"/>
+      <c r="B46" s="177"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -3351,7 +3351,7 @@
       <c r="A47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="174"/>
+      <c r="B47" s="177"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -3362,7 +3362,7 @@
       <c r="A48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="174"/>
+      <c r="B48" s="177"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -3373,7 +3373,7 @@
       <c r="A49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="174"/>
+      <c r="B49" s="177"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="78">
@@ -3395,7 +3395,7 @@
       <c r="A50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="175"/>
+      <c r="B50" s="178"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
@@ -3424,13 +3424,13 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A52" s="169" t="s">
+      <c r="A52" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="171"/>
+      <c r="B52" s="173"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="173"/>
+      <c r="E52" s="174"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="29" t="s">
@@ -3559,19 +3559,19 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A58" s="169" t="s">
+      <c r="A58" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
-      <c r="E58" s="171"/>
+      <c r="B58" s="173"/>
+      <c r="C58" s="173"/>
+      <c r="D58" s="173"/>
+      <c r="E58" s="174"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="172" t="s">
+      <c r="B59" s="175" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="140"/>
@@ -3591,7 +3591,7 @@
       <c r="A60" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="172"/>
+      <c r="B60" s="175"/>
       <c r="C60" s="139"/>
       <c r="D60" s="139"/>
       <c r="E60" s="3">
@@ -3609,7 +3609,7 @@
       <c r="A61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="172"/>
+      <c r="B61" s="175"/>
       <c r="C61" s="139"/>
       <c r="D61" s="139"/>
       <c r="E61" s="78">
@@ -3625,9 +3625,9 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B62" s="172"/>
+        <v>207</v>
+      </c>
+      <c r="B62" s="175"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="135">
@@ -3649,9 +3649,9 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B63" s="172"/>
+        <v>208</v>
+      </c>
+      <c r="B63" s="175"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="135"/>
@@ -3673,7 +3673,7 @@
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="172"/>
+      <c r="B64" s="175"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="78">
@@ -3690,9 +3690,9 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="121" t="s">
-        <v>212</v>
-      </c>
-      <c r="B65" s="172"/>
+        <v>210</v>
+      </c>
+      <c r="B65" s="175"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="22">
@@ -3708,7 +3708,7 @@
       <c r="A66" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="172"/>
+      <c r="B66" s="175"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="78">
@@ -3729,7 +3729,7 @@
       <c r="A67" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="172"/>
+      <c r="B67" s="175"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="78">
@@ -3751,7 +3751,7 @@
       <c r="A68" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="172"/>
+      <c r="B68" s="175"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="22"/>
@@ -3765,7 +3765,7 @@
       <c r="A69" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="172"/>
+      <c r="B69" s="175"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="22"/>
@@ -3779,7 +3779,7 @@
       <c r="A70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="172"/>
+      <c r="B70" s="175"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="78">
@@ -3801,7 +3801,7 @@
       <c r="A71" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="172"/>
+      <c r="B71" s="175"/>
       <c r="C71" s="2">
         <v>59</v>
       </c>
@@ -3828,7 +3828,7 @@
       <c r="A72" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B72" s="172"/>
+      <c r="B72" s="175"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="21">
@@ -3847,7 +3847,7 @@
       <c r="A73" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="172"/>
+      <c r="B73" s="175"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="78">
@@ -3866,7 +3866,7 @@
       <c r="A74" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="172"/>
+      <c r="B74" s="175"/>
       <c r="C74" s="2">
         <v>450</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="A75" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B75" s="172"/>
+      <c r="B75" s="175"/>
       <c r="C75" s="2">
         <v>2392</v>
       </c>
@@ -3915,7 +3915,7 @@
       <c r="A76" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B76" s="172"/>
+      <c r="B76" s="175"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="78">
@@ -3934,7 +3934,7 @@
       <c r="A77" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B77" s="173"/>
+      <c r="B77" s="176"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="21">
@@ -3986,31 +3986,31 @@
         <f>H56+H50+H40+H18+H14+H78</f>
         <v>2346871.974358974</v>
       </c>
-      <c r="K79" s="166" t="s">
+      <c r="K79" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="L79" s="167"/>
-      <c r="M79" s="168"/>
+      <c r="L79" s="170"/>
+      <c r="M79" s="171"/>
     </row>
     <row r="80" spans="1:13">
       <c r="K80" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="162">
+      <c r="L80" s="165">
         <f>M2+L18+M39+M49+M54+M62</f>
         <v>2160680.185897436</v>
       </c>
-      <c r="M80" s="163"/>
+      <c r="M80" s="166"/>
     </row>
     <row r="81" spans="11:13" ht="15.75" thickBot="1">
       <c r="K81" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L81" s="164">
+      <c r="L81" s="167">
         <f>M3+L19+M40+M50+M55+M63</f>
         <v>2179412.096153846</v>
       </c>
-      <c r="M81" s="165"/>
+      <c r="M81" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -4052,8 +4052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4069,68 +4069,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="191" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="207"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="210"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="210"/>
-      <c r="B2" s="178" t="s">
+      <c r="A2" s="213"/>
+      <c r="B2" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="211" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="178" t="s">
+      <c r="E2" s="181" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="178"/>
-      <c r="G2" s="213" t="s">
+      <c r="F2" s="181"/>
+      <c r="G2" s="216" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="208" t="s">
+      <c r="H2" s="211" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="210"/>
+      <c r="A3" s="213"/>
       <c r="B3" s="151" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="212"/>
+      <c r="D3" s="215"/>
       <c r="E3" s="151" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="214"/>
-      <c r="H3" s="208"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="211"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="209" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
+      <c r="A4" s="212" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="212"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="138" t="s">
@@ -4146,11 +4146,11 @@
         <f t="shared" ref="D5:D19" si="0">SUM(B5:C5)</f>
         <v>28300</v>
       </c>
-      <c r="E5" s="180" t="s">
+      <c r="E5" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="197"/>
-      <c r="G5" s="181"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="184"/>
       <c r="H5" s="145">
         <f t="shared" ref="H5:H20" si="1">D5</f>
         <v>28300</v>
@@ -4172,11 +4172,11 @@
         <f t="shared" si="0"/>
         <v>235100</v>
       </c>
-      <c r="E6" s="180" t="s">
+      <c r="E6" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="197"/>
-      <c r="G6" s="181"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="184"/>
       <c r="H6" s="145">
         <f t="shared" si="1"/>
         <v>235100</v>
@@ -4198,11 +4198,11 @@
         <f t="shared" si="0"/>
         <v>20193</v>
       </c>
-      <c r="E7" s="180" t="s">
+      <c r="E7" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="197"/>
-      <c r="G7" s="181"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="184"/>
       <c r="H7" s="145">
         <f t="shared" si="1"/>
         <v>20193</v>
@@ -4224,11 +4224,11 @@
         <f t="shared" si="0"/>
         <v>41910</v>
       </c>
-      <c r="E8" s="180" t="s">
+      <c r="E8" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="197"/>
-      <c r="G8" s="181"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="184"/>
       <c r="H8" s="145">
         <f t="shared" si="1"/>
         <v>41910</v>
@@ -4250,11 +4250,11 @@
         <f t="shared" si="0"/>
         <v>6925</v>
       </c>
-      <c r="E9" s="180" t="s">
+      <c r="E9" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="197"/>
-      <c r="G9" s="181"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="184"/>
       <c r="H9" s="145">
         <f t="shared" si="1"/>
         <v>6925</v>
@@ -4274,11 +4274,11 @@
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="E10" s="180" t="s">
+      <c r="E10" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="197"/>
-      <c r="G10" s="181"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="184"/>
       <c r="H10" s="145">
         <f t="shared" si="1"/>
         <v>1440</v>
@@ -4298,11 +4298,11 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E11" s="180" t="s">
+      <c r="E11" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="197"/>
-      <c r="G11" s="181"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="184"/>
       <c r="H11" s="145">
         <f t="shared" si="1"/>
         <v>2500</v>
@@ -4322,11 +4322,11 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E12" s="180" t="s">
+      <c r="E12" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="197"/>
-      <c r="G12" s="181"/>
+      <c r="F12" s="200"/>
+      <c r="G12" s="184"/>
       <c r="H12" s="145">
         <f t="shared" si="1"/>
         <v>1500</v>
@@ -4346,11 +4346,11 @@
         <f t="shared" si="0"/>
         <v>14995</v>
       </c>
-      <c r="E13" s="201" t="s">
+      <c r="E13" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="202"/>
-      <c r="G13" s="203"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="206"/>
       <c r="H13" s="145">
         <f t="shared" si="1"/>
         <v>14995</v>
@@ -4370,11 +4370,11 @@
         <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="E14" s="180" t="s">
+      <c r="E14" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="197"/>
-      <c r="G14" s="181"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="184"/>
       <c r="H14" s="145">
         <f t="shared" si="1"/>
         <v>24900</v>
@@ -4394,11 +4394,11 @@
         <f t="shared" si="0"/>
         <v>28088</v>
       </c>
-      <c r="E15" s="180" t="s">
+      <c r="E15" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="197"/>
-      <c r="G15" s="181"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="184"/>
       <c r="H15" s="145">
         <f t="shared" si="1"/>
         <v>28088</v>
@@ -4418,11 +4418,11 @@
         <f t="shared" si="0"/>
         <v>3239</v>
       </c>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="197"/>
-      <c r="G16" s="181"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="184"/>
       <c r="H16" s="145">
         <f t="shared" si="1"/>
         <v>3239</v>
@@ -4442,11 +4442,11 @@
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="E17" s="180" t="s">
+      <c r="E17" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="197"/>
-      <c r="G17" s="181"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="184"/>
       <c r="H17" s="145">
         <f t="shared" si="1"/>
         <v>2700</v>
@@ -4468,11 +4468,11 @@
         <f t="shared" si="0"/>
         <v>7176</v>
       </c>
-      <c r="E18" s="180" t="s">
+      <c r="E18" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="197"/>
-      <c r="G18" s="181"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="184"/>
       <c r="H18" s="145">
         <f t="shared" si="1"/>
         <v>7176</v>
@@ -4492,11 +4492,11 @@
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
-      <c r="E19" s="204" t="s">
+      <c r="E19" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
       <c r="H19" s="145">
         <f t="shared" si="1"/>
         <v>2950</v>
@@ -4516,11 +4516,11 @@
         <f>C20</f>
         <v>149970</v>
       </c>
-      <c r="E20" s="204" t="s">
+      <c r="E20" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="207"/>
       <c r="H20" s="145">
         <f t="shared" si="1"/>
         <v>149970</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B21" s="143">
         <v>0</v>
@@ -4540,11 +4540,11 @@
         <f>C21</f>
         <v>31980</v>
       </c>
-      <c r="E21" s="205" t="s">
+      <c r="E21" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="205"/>
-      <c r="G21" s="205"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
       <c r="H21" s="145">
         <f>D21</f>
         <v>31980</v>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B22" s="143">
         <v>0</v>
@@ -4564,11 +4564,11 @@
         <f t="shared" ref="D22:D25" si="2">C22</f>
         <v>38700</v>
       </c>
-      <c r="E22" s="205" t="s">
+      <c r="E22" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="208"/>
       <c r="H22" s="145">
         <f t="shared" ref="H22:H25" si="3">D22</f>
         <v>38700</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B23" s="143">
         <v>0</v>
@@ -4588,21 +4588,21 @@
         <f t="shared" si="2"/>
         <v>19990</v>
       </c>
-      <c r="E23" s="205" t="s">
+      <c r="E23" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="205"/>
-      <c r="G23" s="205"/>
+      <c r="F23" s="208"/>
+      <c r="G23" s="208"/>
       <c r="H23" s="145">
         <f t="shared" si="3"/>
         <v>19990</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="234" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" s="233">
+      <c r="A24" s="163" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="162">
         <v>0</v>
       </c>
       <c r="C24" s="161">
@@ -4612,11 +4612,11 @@
         <f t="shared" si="2"/>
         <v>13480</v>
       </c>
-      <c r="E24" s="205" t="s">
+      <c r="E24" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
       <c r="H24" s="145">
         <f t="shared" si="3"/>
         <v>13480</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="159" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B25" s="156"/>
       <c r="C25" s="157"/>
@@ -4632,11 +4632,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E25" s="205" t="s">
+      <c r="E25" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
+      <c r="F25" s="208"/>
+      <c r="G25" s="208"/>
       <c r="H25" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4658,11 +4658,11 @@
         <f>SUM(D5:D25)</f>
         <v>676036</v>
       </c>
-      <c r="E26" s="198" t="s">
+      <c r="E26" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="199"/>
-      <c r="G26" s="200"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="203"/>
       <c r="H26" s="141">
         <f>SUM(H5:H25)</f>
         <v>676036</v>
@@ -4679,16 +4679,16 @@
       <c r="H27" s="132"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="209" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" s="209"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="209"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="209"/>
-      <c r="H28" s="209"/>
+      <c r="A28" s="212" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="212"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="212"/>
+      <c r="H28" s="212"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
@@ -4719,7 +4719,7 @@
         <v>30000</v>
       </c>
       <c r="I29" s="134" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4751,12 +4751,12 @@
         <v>290000</v>
       </c>
       <c r="I30" s="134" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B31" s="144">
         <v>100000</v>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B32" s="124">
         <v>0</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B34" s="144">
         <v>5000</v>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B35" s="144">
         <v>10000</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B36" s="144">
         <v>15000</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B37" s="144">
         <v>15000</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="138" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B38" s="144">
         <v>10000</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="121" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B43" s="145">
         <v>20000</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="121" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B44" s="124"/>
       <c r="C44" s="124"/>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1">
       <c r="A45" s="150" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B45" s="126"/>
       <c r="C45" s="126"/>
@@ -5193,20 +5193,20 @@
       <c r="J46" s="6"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="209" t="s">
-        <v>213</v>
-      </c>
-      <c r="B48" s="209"/>
-      <c r="C48" s="209"/>
-      <c r="D48" s="209"/>
-      <c r="E48" s="209"/>
-      <c r="F48" s="209"/>
-      <c r="G48" s="209"/>
-      <c r="H48" s="209"/>
+      <c r="A48" s="212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="212"/>
+      <c r="C48" s="212"/>
+      <c r="D48" s="212"/>
+      <c r="E48" s="212"/>
+      <c r="F48" s="212"/>
+      <c r="G48" s="212"/>
+      <c r="H48" s="212"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B49" s="145">
         <v>91480</v>
@@ -5218,11 +5218,11 @@
         <f>SUM(B49:C49)</f>
         <v>182960</v>
       </c>
-      <c r="E49" s="205" t="s">
+      <c r="E49" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="205"/>
-      <c r="G49" s="205"/>
+      <c r="F49" s="208"/>
+      <c r="G49" s="208"/>
       <c r="H49" s="145">
         <f>D49+G49</f>
         <v>182960</v>
@@ -5230,23 +5230,23 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B50" s="145">
         <v>2075</v>
       </c>
-      <c r="C50" s="235">
+      <c r="C50" s="164">
         <v>0</v>
       </c>
       <c r="D50" s="145">
         <f>SUM(B50:C50)</f>
         <v>2075</v>
       </c>
-      <c r="E50" s="205" t="s">
+      <c r="E50" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="205"/>
-      <c r="G50" s="205"/>
+      <c r="F50" s="208"/>
+      <c r="G50" s="208"/>
       <c r="H50" s="145">
         <f>D50+G50</f>
         <v>2075</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5778,39 +5778,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="225" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="178" t="s">
+      <c r="B1" s="225"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="181" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="226" t="s">
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="229" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="227" t="s">
+      <c r="J1" s="230" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="228"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="188" t="s">
+      <c r="K1" s="231"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="206"/>
-      <c r="O1" s="206"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="215" t="s">
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="210"/>
+      <c r="Q1" s="218" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="224"/>
-      <c r="B2" s="224"/>
-      <c r="C2" s="225"/>
+      <c r="A2" s="227"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="228"/>
       <c r="D2" s="79" t="s">
         <v>84</v>
       </c>
@@ -5823,10 +5823,10 @@
       <c r="G2" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="226"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="225"/>
+      <c r="H2" s="229"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="228"/>
       <c r="M2" s="79" t="s">
         <v>84</v>
       </c>
@@ -5839,7 +5839,7 @@
       <c r="P2" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="216"/>
+      <c r="Q2" s="219"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="59" t="s">
@@ -5869,7 +5869,7 @@
       <c r="L3" s="85">
         <v>5</v>
       </c>
-      <c r="M3" s="217">
+      <c r="M3" s="220">
         <v>2</v>
       </c>
       <c r="N3" s="86">
@@ -5909,7 +5909,7 @@
       <c r="L4" s="85">
         <v>3</v>
       </c>
-      <c r="M4" s="218"/>
+      <c r="M4" s="221"/>
       <c r="N4" s="88"/>
       <c r="O4" s="88"/>
       <c r="P4" s="89"/>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="221" t="s">
+      <c r="A22" s="224" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="221"/>
+      <c r="B22" s="224"/>
       <c r="C22" s="62">
         <f>SUM(C3:C20)</f>
         <v>41</v>
@@ -6347,10 +6347,10 @@
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="219" t="s">
+      <c r="J22" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="220"/>
+      <c r="K22" s="223"/>
       <c r="L22" s="102">
         <f>SUM(L3:L10)</f>
         <v>37</v>
@@ -6624,7 +6624,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="231" t="s">
+      <c r="A10" s="234" t="s">
         <v>159</v>
       </c>
       <c r="B10" s="115" t="s">
@@ -6634,11 +6634,11 @@
         <v>160</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="232"/>
+      <c r="A11" s="235"/>
       <c r="B11" s="115" t="s">
         <v>69</v>
       </c>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -4052,7 +4052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -5771,8 +5771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6304,7 +6304,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="52"/>
-      <c r="E20" s="91">
+      <c r="E20" s="88">
         <v>2</v>
       </c>
       <c r="F20" s="88"/>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -485,9 +485,6 @@
     <t>Shepherd photography</t>
   </si>
   <si>
-    <t>Kelemen Éva</t>
-  </si>
-  <si>
     <t>30/708-8242</t>
   </si>
   <si>
@@ -690,6 +687,9 @@
   </si>
   <si>
     <t>augusztus 17-ai elvitel, 21-én visszavinni 100.000.- kaució visszajár</t>
+  </si>
+  <si>
+    <t>Kelemen Éva, Juhász Tamás</t>
   </si>
 </sst>
 </file>
@@ -1728,25 +1728,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1758,35 +1743,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1826,12 +1784,84 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1852,36 +1882,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2257,13 +2257,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="174"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="169"/>
       <c r="G1" t="s">
         <v>23</v>
       </c>
@@ -2273,11 +2273,11 @@
       <c r="K1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="182">
+      <c r="L1" s="170">
         <f>L2+L3</f>
         <v>78</v>
       </c>
-      <c r="M1" s="182"/>
+      <c r="M1" s="170"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="11"/>
@@ -2629,8 +2629,8 @@
       <c r="B14" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="193"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="75">
         <f>SUM(E3:E13)</f>
         <v>2054000.2564102565</v>
@@ -2651,8 +2651,8 @@
       <c r="B15" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="192"/>
-      <c r="D15" s="193"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="68">
         <f>E14/L1</f>
         <v>26333.336620644313</v>
@@ -2668,24 +2668,24 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A17" s="172" t="s">
+      <c r="A17" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="174"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="169"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="194" t="s">
+      <c r="B18" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="188"/>
-      <c r="D18" s="189"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -2701,19 +2701,19 @@
       <c r="K18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="165">
+      <c r="L18" s="185">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="M18" s="199"/>
+      <c r="M18" s="186"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="195"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="190"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="14">
         <f>640*310</f>
         <v>198400</v>
@@ -2721,19 +2721,19 @@
       <c r="K19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="197">
+      <c r="L19" s="183">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="M19" s="198"/>
+      <c r="M19" s="184"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="196"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="190"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2750,28 +2750,28 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="185" t="s">
+      <c r="A22" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="186"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="187"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="173"/>
       <c r="O22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="183">
+      <c r="P22" s="165">
         <f>L1</f>
         <v>78</v>
       </c>
-      <c r="Q22" s="184"/>
+      <c r="Q22" s="166"/>
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="170" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
@@ -2796,17 +2796,17 @@
       <c r="O23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="183">
+      <c r="P23" s="165">
         <v>1</v>
       </c>
-      <c r="Q23" s="184"/>
+      <c r="Q23" s="166"/>
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" s="182"/>
+        <v>173</v>
+      </c>
+      <c r="B24" s="170"/>
       <c r="C24" s="21">
         <v>12000</v>
       </c>
@@ -2828,17 +2828,17 @@
       <c r="O24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="183">
+      <c r="P24" s="165">
         <v>9</v>
       </c>
-      <c r="Q24" s="184"/>
+      <c r="Q24" s="166"/>
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="182"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="21">
         <v>18500</v>
       </c>
@@ -2860,15 +2860,15 @@
       <c r="O25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="181"/>
-      <c r="Q25" s="181"/>
+      <c r="P25" s="191"/>
+      <c r="Q25" s="191"/>
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="182"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="21">
         <v>7500</v>
       </c>
@@ -2890,8 +2890,8 @@
       <c r="O26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="179"/>
-      <c r="Q26" s="180"/>
+      <c r="P26" s="189"/>
+      <c r="Q26" s="190"/>
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23">
@@ -2922,7 +2922,7 @@
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="182" t="s">
+      <c r="B28" s="170" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="21">
@@ -2950,9 +2950,9 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="182"/>
+        <v>171</v>
+      </c>
+      <c r="B29" s="170"/>
       <c r="C29" s="21">
         <v>5500</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="182"/>
+      <c r="B30" s="170"/>
       <c r="C30" s="21">
         <v>1850</v>
       </c>
@@ -3008,9 +3008,9 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="182"/>
+        <v>174</v>
+      </c>
+      <c r="B31" s="170"/>
       <c r="C31" s="21">
         <v>1850</v>
       </c>
@@ -3035,9 +3035,9 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B32" s="182"/>
+        <v>176</v>
+      </c>
+      <c r="B32" s="170"/>
       <c r="C32" s="21">
         <v>1850</v>
       </c>
@@ -3061,9 +3061,9 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="182"/>
+        <v>175</v>
+      </c>
+      <c r="B33" s="170"/>
       <c r="C33" s="21">
         <v>2000</v>
       </c>
@@ -3086,9 +3086,9 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" s="182"/>
+        <v>172</v>
+      </c>
+      <c r="B34" s="170"/>
       <c r="C34" s="21">
         <v>2000</v>
       </c>
@@ -3111,9 +3111,9 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B35" s="182"/>
+        <v>177</v>
+      </c>
+      <c r="B35" s="170"/>
       <c r="C35" s="21">
         <v>7500</v>
       </c>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B36" s="116" t="s">
         <v>3</v>
@@ -3165,7 +3165,7 @@
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="175" t="s">
+      <c r="B37" s="192" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="11">
@@ -3194,7 +3194,7 @@
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="175"/>
+      <c r="B38" s="192"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -3219,7 +3219,7 @@
       <c r="A39" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="176"/>
+      <c r="B39" s="193"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -3293,19 +3293,19 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A42" s="172" t="s">
+      <c r="A42" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="173"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="173"/>
-      <c r="E42" s="174"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="169"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="177" t="s">
+      <c r="B43" s="187" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="11"/>
@@ -3318,7 +3318,7 @@
       <c r="A44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="177"/>
+      <c r="B44" s="187"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -3329,7 +3329,7 @@
       <c r="A45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="177"/>
+      <c r="B45" s="187"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -3340,7 +3340,7 @@
       <c r="A46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="177"/>
+      <c r="B46" s="187"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -3351,7 +3351,7 @@
       <c r="A47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="177"/>
+      <c r="B47" s="187"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -3362,7 +3362,7 @@
       <c r="A48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="177"/>
+      <c r="B48" s="187"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -3373,7 +3373,7 @@
       <c r="A49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="177"/>
+      <c r="B49" s="187"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="78">
@@ -3395,7 +3395,7 @@
       <c r="A50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="178"/>
+      <c r="B50" s="188"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
@@ -3424,13 +3424,13 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A52" s="172" t="s">
+      <c r="A52" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="173"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="173"/>
-      <c r="E52" s="174"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="169"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="29" t="s">
@@ -3559,19 +3559,19 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A58" s="172" t="s">
+      <c r="A58" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="173"/>
-      <c r="C58" s="173"/>
-      <c r="D58" s="173"/>
-      <c r="E58" s="174"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
+      <c r="E58" s="169"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="175" t="s">
+      <c r="B59" s="192" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="140"/>
@@ -3591,7 +3591,7 @@
       <c r="A60" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="175"/>
+      <c r="B60" s="192"/>
       <c r="C60" s="139"/>
       <c r="D60" s="139"/>
       <c r="E60" s="3">
@@ -3609,7 +3609,7 @@
       <c r="A61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="175"/>
+      <c r="B61" s="192"/>
       <c r="C61" s="139"/>
       <c r="D61" s="139"/>
       <c r="E61" s="78">
@@ -3625,9 +3625,9 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="B62" s="175"/>
+        <v>206</v>
+      </c>
+      <c r="B62" s="192"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="135">
@@ -3649,9 +3649,9 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B63" s="175"/>
+        <v>207</v>
+      </c>
+      <c r="B63" s="192"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="135"/>
@@ -3673,7 +3673,7 @@
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="175"/>
+      <c r="B64" s="192"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="78">
@@ -3690,9 +3690,9 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="121" t="s">
-        <v>210</v>
-      </c>
-      <c r="B65" s="175"/>
+        <v>209</v>
+      </c>
+      <c r="B65" s="192"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="22">
@@ -3708,7 +3708,7 @@
       <c r="A66" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="175"/>
+      <c r="B66" s="192"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="78">
@@ -3727,9 +3727,9 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="175"/>
+        <v>183</v>
+      </c>
+      <c r="B67" s="192"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="78">
@@ -3751,7 +3751,7 @@
       <c r="A68" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="175"/>
+      <c r="B68" s="192"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="22"/>
@@ -3765,7 +3765,7 @@
       <c r="A69" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="175"/>
+      <c r="B69" s="192"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="22"/>
@@ -3779,7 +3779,7 @@
       <c r="A70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="175"/>
+      <c r="B70" s="192"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="78">
@@ -3801,7 +3801,7 @@
       <c r="A71" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="175"/>
+      <c r="B71" s="192"/>
       <c r="C71" s="2">
         <v>59</v>
       </c>
@@ -3826,9 +3826,9 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B72" s="175"/>
+        <v>169</v>
+      </c>
+      <c r="B72" s="192"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="21">
@@ -3845,9 +3845,9 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B73" s="175"/>
+        <v>170</v>
+      </c>
+      <c r="B73" s="192"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="78">
@@ -3864,9 +3864,9 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B74" s="175"/>
+        <v>180</v>
+      </c>
+      <c r="B74" s="192"/>
       <c r="C74" s="2">
         <v>450</v>
       </c>
@@ -3888,9 +3888,9 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B75" s="175"/>
+        <v>193</v>
+      </c>
+      <c r="B75" s="192"/>
       <c r="C75" s="2">
         <v>2392</v>
       </c>
@@ -3913,9 +3913,9 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B76" s="175"/>
+        <v>179</v>
+      </c>
+      <c r="B76" s="192"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="78">
@@ -3932,9 +3932,9 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B77" s="176"/>
+        <v>181</v>
+      </c>
+      <c r="B77" s="193"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="21">
@@ -3986,34 +3986,46 @@
         <f>H56+H50+H40+H18+H14+H78</f>
         <v>2346871.974358974</v>
       </c>
-      <c r="K79" s="169" t="s">
+      <c r="K79" s="197" t="s">
         <v>81</v>
       </c>
-      <c r="L79" s="170"/>
-      <c r="M79" s="171"/>
+      <c r="L79" s="198"/>
+      <c r="M79" s="199"/>
     </row>
     <row r="80" spans="1:13">
       <c r="K80" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="165">
+      <c r="L80" s="185">
         <f>M2+L18+M39+M49+M54+M62</f>
         <v>2160680.185897436</v>
       </c>
-      <c r="M80" s="166"/>
+      <c r="M80" s="194"/>
     </row>
     <row r="81" spans="11:13" ht="15.75" thickBot="1">
       <c r="K81" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L81" s="167">
+      <c r="L81" s="195">
         <f>M3+L19+M40+M50+M55+M63</f>
         <v>2179412.096153846</v>
       </c>
-      <c r="M81" s="168"/>
+      <c r="M81" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:B77"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B28:B35"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P24:Q24"/>
@@ -4030,18 +4042,6 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="B59:B77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -4069,68 +4069,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="177" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="203"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="206"/>
+      <c r="B2" s="191" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="191"/>
+      <c r="D2" s="207" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="191" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="210"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="213"/>
-      <c r="B2" s="181" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="214" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="181" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="216" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="204" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="213"/>
+      <c r="A3" s="206"/>
       <c r="B3" s="151" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="215"/>
+      <c r="D3" s="208"/>
       <c r="E3" s="151" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="217"/>
-      <c r="H3" s="211"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="204"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="212" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="212"/>
+      <c r="A4" s="201" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="201"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="138" t="s">
@@ -4146,11 +4146,11 @@
         <f t="shared" ref="D5:D19" si="0">SUM(B5:C5)</f>
         <v>28300</v>
       </c>
-      <c r="E5" s="183" t="s">
+      <c r="E5" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="200"/>
-      <c r="G5" s="184"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="145">
         <f t="shared" ref="H5:H20" si="1">D5</f>
         <v>28300</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="144">
         <f>235100/2</f>
@@ -4172,11 +4172,11 @@
         <f t="shared" si="0"/>
         <v>235100</v>
       </c>
-      <c r="E6" s="183" t="s">
+      <c r="E6" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="200"/>
-      <c r="G6" s="184"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="166"/>
       <c r="H6" s="145">
         <f t="shared" si="1"/>
         <v>235100</v>
@@ -4198,11 +4198,11 @@
         <f t="shared" si="0"/>
         <v>20193</v>
       </c>
-      <c r="E7" s="183" t="s">
+      <c r="E7" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="200"/>
-      <c r="G7" s="184"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="166"/>
       <c r="H7" s="145">
         <f t="shared" si="1"/>
         <v>20193</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="142">
         <f>41910/2</f>
@@ -4224,11 +4224,11 @@
         <f t="shared" si="0"/>
         <v>41910</v>
       </c>
-      <c r="E8" s="183" t="s">
+      <c r="E8" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="200"/>
-      <c r="G8" s="184"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="166"/>
       <c r="H8" s="145">
         <f t="shared" si="1"/>
         <v>41910</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="125" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="142">
         <f>6925/2</f>
@@ -4250,11 +4250,11 @@
         <f t="shared" si="0"/>
         <v>6925</v>
       </c>
-      <c r="E9" s="183" t="s">
+      <c r="E9" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="200"/>
-      <c r="G9" s="184"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="166"/>
       <c r="H9" s="145">
         <f t="shared" si="1"/>
         <v>6925</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10" s="142">
         <v>720</v>
@@ -4274,11 +4274,11 @@
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="E10" s="183" t="s">
+      <c r="E10" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="200"/>
-      <c r="G10" s="184"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="166"/>
       <c r="H10" s="145">
         <f t="shared" si="1"/>
         <v>1440</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="11" spans="1:8" ht="30">
       <c r="A11" s="130" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="142">
         <v>2500</v>
@@ -4298,11 +4298,11 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E11" s="183" t="s">
+      <c r="E11" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="200"/>
-      <c r="G11" s="184"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="166"/>
       <c r="H11" s="145">
         <f t="shared" si="1"/>
         <v>2500</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="142">
         <v>1500</v>
@@ -4322,11 +4322,11 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E12" s="183" t="s">
+      <c r="E12" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="200"/>
-      <c r="G12" s="184"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="166"/>
       <c r="H12" s="145">
         <f t="shared" si="1"/>
         <v>1500</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="142">
         <v>14995</v>
@@ -4346,11 +4346,11 @@
         <f t="shared" si="0"/>
         <v>14995</v>
       </c>
-      <c r="E13" s="204" t="s">
+      <c r="E13" s="214" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="205"/>
-      <c r="G13" s="206"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="216"/>
       <c r="H13" s="145">
         <f t="shared" si="1"/>
         <v>14995</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="142">
         <v>24900</v>
@@ -4370,11 +4370,11 @@
         <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="E14" s="183" t="s">
+      <c r="E14" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="200"/>
-      <c r="G14" s="184"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="166"/>
       <c r="H14" s="145">
         <f t="shared" si="1"/>
         <v>24900</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="142">
         <v>28088</v>
@@ -4394,11 +4394,11 @@
         <f t="shared" si="0"/>
         <v>28088</v>
       </c>
-      <c r="E15" s="183" t="s">
+      <c r="E15" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="200"/>
-      <c r="G15" s="184"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="166"/>
       <c r="H15" s="145">
         <f t="shared" si="1"/>
         <v>28088</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="142">
         <v>3239</v>
@@ -4418,11 +4418,11 @@
         <f t="shared" si="0"/>
         <v>3239</v>
       </c>
-      <c r="E16" s="183" t="s">
+      <c r="E16" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="200"/>
-      <c r="G16" s="184"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="166"/>
       <c r="H16" s="145">
         <f t="shared" si="1"/>
         <v>3239</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" s="142">
         <v>2700</v>
@@ -4442,11 +4442,11 @@
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="E17" s="183" t="s">
+      <c r="E17" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="200"/>
-      <c r="G17" s="184"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="166"/>
       <c r="H17" s="145">
         <f t="shared" si="1"/>
         <v>2700</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="142">
         <f>7176/2</f>
@@ -4468,11 +4468,11 @@
         <f t="shared" si="0"/>
         <v>7176</v>
       </c>
-      <c r="E18" s="183" t="s">
+      <c r="E18" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="200"/>
-      <c r="G18" s="184"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="166"/>
       <c r="H18" s="145">
         <f t="shared" si="1"/>
         <v>7176</v>
@@ -4492,11 +4492,11 @@
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
-      <c r="E19" s="207" t="s">
+      <c r="E19" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="207"/>
-      <c r="G19" s="207"/>
+      <c r="F19" s="217"/>
+      <c r="G19" s="217"/>
       <c r="H19" s="145">
         <f t="shared" si="1"/>
         <v>2950</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="143">
         <v>0</v>
@@ -4516,11 +4516,11 @@
         <f>C20</f>
         <v>149970</v>
       </c>
-      <c r="E20" s="207" t="s">
+      <c r="E20" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="207"/>
-      <c r="G20" s="207"/>
+      <c r="F20" s="217"/>
+      <c r="G20" s="217"/>
       <c r="H20" s="145">
         <f t="shared" si="1"/>
         <v>149970</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" s="143">
         <v>0</v>
@@ -4540,11 +4540,11 @@
         <f>C21</f>
         <v>31980</v>
       </c>
-      <c r="E21" s="208" t="s">
+      <c r="E21" s="200" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="208"/>
-      <c r="G21" s="208"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
       <c r="H21" s="145">
         <f>D21</f>
         <v>31980</v>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B22" s="143">
         <v>0</v>
@@ -4564,11 +4564,11 @@
         <f t="shared" ref="D22:D25" si="2">C22</f>
         <v>38700</v>
       </c>
-      <c r="E22" s="208" t="s">
+      <c r="E22" s="200" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="208"/>
-      <c r="G22" s="208"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
       <c r="H22" s="145">
         <f t="shared" ref="H22:H25" si="3">D22</f>
         <v>38700</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" s="143">
         <v>0</v>
@@ -4588,11 +4588,11 @@
         <f t="shared" si="2"/>
         <v>19990</v>
       </c>
-      <c r="E23" s="208" t="s">
+      <c r="E23" s="200" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="208"/>
-      <c r="G23" s="208"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="200"/>
       <c r="H23" s="145">
         <f t="shared" si="3"/>
         <v>19990</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="163" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="162">
         <v>0</v>
@@ -4612,11 +4612,11 @@
         <f t="shared" si="2"/>
         <v>13480</v>
       </c>
-      <c r="E24" s="208" t="s">
+      <c r="E24" s="200" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="208"/>
-      <c r="G24" s="208"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="200"/>
       <c r="H24" s="145">
         <f t="shared" si="3"/>
         <v>13480</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="159" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="156"/>
       <c r="C25" s="157"/>
@@ -4632,11 +4632,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E25" s="208" t="s">
+      <c r="E25" s="200" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="208"/>
-      <c r="G25" s="208"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="200"/>
       <c r="H25" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4658,11 +4658,11 @@
         <f>SUM(D5:D25)</f>
         <v>676036</v>
       </c>
-      <c r="E26" s="201" t="s">
+      <c r="E26" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="202"/>
-      <c r="G26" s="203"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="213"/>
       <c r="H26" s="141">
         <f>SUM(H5:H25)</f>
         <v>676036</v>
@@ -4679,20 +4679,20 @@
       <c r="H27" s="132"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="212" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="212"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="212"/>
-      <c r="G28" s="212"/>
-      <c r="H28" s="212"/>
+      <c r="A28" s="201" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="201"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="201"/>
+      <c r="E28" s="201"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="201"/>
+      <c r="H28" s="201"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" s="142">
         <v>15000</v>
@@ -4719,7 +4719,7 @@
         <v>30000</v>
       </c>
       <c r="I29" s="134" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4751,12 +4751,12 @@
         <v>290000</v>
       </c>
       <c r="I30" s="134" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" s="144">
         <v>100000</v>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B32" s="124">
         <v>0</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" s="144">
         <v>5000</v>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" s="144">
         <v>10000</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="144">
         <v>15000</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B37" s="144">
         <v>15000</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="138" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B38" s="144">
         <v>10000</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B40" s="145">
         <f>D40/2</f>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="121" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B43" s="145">
         <v>20000</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="121" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B44" s="124"/>
       <c r="C44" s="124"/>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1">
       <c r="A45" s="150" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B45" s="126"/>
       <c r="C45" s="126"/>
@@ -5193,20 +5193,20 @@
       <c r="J46" s="6"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="212" t="s">
-        <v>211</v>
-      </c>
-      <c r="B48" s="212"/>
-      <c r="C48" s="212"/>
-      <c r="D48" s="212"/>
-      <c r="E48" s="212"/>
-      <c r="F48" s="212"/>
-      <c r="G48" s="212"/>
-      <c r="H48" s="212"/>
+      <c r="A48" s="201" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="201"/>
+      <c r="C48" s="201"/>
+      <c r="D48" s="201"/>
+      <c r="E48" s="201"/>
+      <c r="F48" s="201"/>
+      <c r="G48" s="201"/>
+      <c r="H48" s="201"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B49" s="145">
         <v>91480</v>
@@ -5218,11 +5218,11 @@
         <f>SUM(B49:C49)</f>
         <v>182960</v>
       </c>
-      <c r="E49" s="208" t="s">
+      <c r="E49" s="200" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="208"/>
-      <c r="G49" s="208"/>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
       <c r="H49" s="145">
         <f>D49+G49</f>
         <v>182960</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B50" s="145">
         <v>2075</v>
@@ -5242,11 +5242,11 @@
         <f>SUM(B50:C50)</f>
         <v>2075</v>
       </c>
-      <c r="E50" s="208" t="s">
+      <c r="E50" s="200" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="208"/>
-      <c r="G50" s="208"/>
+      <c r="F50" s="200"/>
+      <c r="G50" s="200"/>
       <c r="H50" s="145">
         <f>D50+G50</f>
         <v>2075</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5266,25 +5266,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E6:G6"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E11:G11"/>
@@ -5300,6 +5281,25 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5771,7 +5771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -5783,12 +5783,12 @@
       </c>
       <c r="B1" s="225"/>
       <c r="C1" s="226"/>
-      <c r="D1" s="181" t="s">
+      <c r="D1" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="177"/>
       <c r="H1" s="229" t="s">
         <v>113</v>
       </c>
@@ -5797,12 +5797,12 @@
       </c>
       <c r="K1" s="231"/>
       <c r="L1" s="232"/>
-      <c r="M1" s="191" t="s">
+      <c r="M1" s="177" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
-      <c r="P1" s="210"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="203"/>
       <c r="Q1" s="218" t="s">
         <v>113</v>
       </c>
@@ -6485,15 +6485,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6603,10 +6603,10 @@
         <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6614,27 +6614,27 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="234" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="115" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6643,38 +6643,38 @@
         <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="227">
   <si>
     <t>TOTAL</t>
   </si>
@@ -690,6 +690,18 @@
   </si>
   <si>
     <t>Kelemen Éva, Juhász Tamás</t>
+  </si>
+  <si>
+    <t>Pálinkás üvegek, matricák, kupakok, tetőzárak(buszra)</t>
+  </si>
+  <si>
+    <t>Stóla díj (elbocsátó levélhez)</t>
+  </si>
+  <si>
+    <t>hajó előleg fele (110.000) és a az éttermi alkoholos pia (nem tudom még h a teljes tétel mennyi)</t>
+  </si>
+  <si>
+    <t>Állás:</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1474,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1728,6 +1740,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2257,13 +2275,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="169"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="173"/>
       <c r="G1" t="s">
         <v>23</v>
       </c>
@@ -2273,11 +2291,11 @@
       <c r="K1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="170">
+      <c r="L1" s="174">
         <f>L2+L3</f>
         <v>78</v>
       </c>
-      <c r="M1" s="170"/>
+      <c r="M1" s="174"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="11"/>
@@ -2629,8 +2647,8 @@
       <c r="B14" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="178"/>
-      <c r="D14" s="179"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="183"/>
       <c r="E14" s="75">
         <f>SUM(E3:E13)</f>
         <v>2054000.2564102565</v>
@@ -2651,8 +2669,8 @@
       <c r="B15" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="179"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="183"/>
       <c r="E15" s="68">
         <f>E14/L1</f>
         <v>26333.336620644313</v>
@@ -2668,24 +2686,24 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A17" s="167" t="s">
+      <c r="A17" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="168"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="169"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="173"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="180" t="s">
+      <c r="B18" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
@@ -2701,19 +2719,19 @@
       <c r="K18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="185">
+      <c r="L18" s="189">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="M18" s="186"/>
+      <c r="M18" s="190"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="181"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="176"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="180"/>
       <c r="E19" s="14">
         <f>640*310</f>
         <v>198400</v>
@@ -2721,19 +2739,19 @@
       <c r="K19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="183">
+      <c r="L19" s="187">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="M19" s="184"/>
+      <c r="M19" s="188"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="182"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="176"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="180"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2750,28 +2768,28 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="172"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="173"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="177"/>
       <c r="O22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="165">
+      <c r="P22" s="169">
         <f>L1</f>
         <v>78</v>
       </c>
-      <c r="Q22" s="166"/>
+      <c r="Q22" s="170"/>
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="170" t="s">
+      <c r="B23" s="174" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
@@ -2796,17 +2814,17 @@
       <c r="O23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="165">
+      <c r="P23" s="169">
         <v>1</v>
       </c>
-      <c r="Q23" s="166"/>
+      <c r="Q23" s="170"/>
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="170"/>
+      <c r="B24" s="174"/>
       <c r="C24" s="21">
         <v>12000</v>
       </c>
@@ -2828,17 +2846,17 @@
       <c r="O24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="165">
+      <c r="P24" s="169">
         <v>9</v>
       </c>
-      <c r="Q24" s="166"/>
+      <c r="Q24" s="170"/>
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="170"/>
+      <c r="B25" s="174"/>
       <c r="C25" s="21">
         <v>18500</v>
       </c>
@@ -2860,15 +2878,15 @@
       <c r="O25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="191"/>
-      <c r="Q25" s="191"/>
+      <c r="P25" s="195"/>
+      <c r="Q25" s="195"/>
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="170"/>
+      <c r="B26" s="174"/>
       <c r="C26" s="21">
         <v>7500</v>
       </c>
@@ -2890,8 +2908,8 @@
       <c r="O26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="189"/>
-      <c r="Q26" s="190"/>
+      <c r="P26" s="193"/>
+      <c r="Q26" s="194"/>
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23">
@@ -2922,7 +2940,7 @@
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="170" t="s">
+      <c r="B28" s="174" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="21">
@@ -2952,7 +2970,7 @@
       <c r="A29" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B29" s="170"/>
+      <c r="B29" s="174"/>
       <c r="C29" s="21">
         <v>5500</v>
       </c>
@@ -2981,7 +2999,7 @@
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="170"/>
+      <c r="B30" s="174"/>
       <c r="C30" s="21">
         <v>1850</v>
       </c>
@@ -3010,7 +3028,7 @@
       <c r="A31" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="170"/>
+      <c r="B31" s="174"/>
       <c r="C31" s="21">
         <v>1850</v>
       </c>
@@ -3037,7 +3055,7 @@
       <c r="A32" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="170"/>
+      <c r="B32" s="174"/>
       <c r="C32" s="21">
         <v>1850</v>
       </c>
@@ -3063,7 +3081,7 @@
       <c r="A33" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B33" s="170"/>
+      <c r="B33" s="174"/>
       <c r="C33" s="21">
         <v>2000</v>
       </c>
@@ -3088,7 +3106,7 @@
       <c r="A34" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B34" s="170"/>
+      <c r="B34" s="174"/>
       <c r="C34" s="21">
         <v>2000</v>
       </c>
@@ -3113,7 +3131,7 @@
       <c r="A35" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="170"/>
+      <c r="B35" s="174"/>
       <c r="C35" s="21">
         <v>7500</v>
       </c>
@@ -3165,7 +3183,7 @@
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="192" t="s">
+      <c r="B37" s="196" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="11">
@@ -3194,7 +3212,7 @@
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="192"/>
+      <c r="B38" s="196"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -3219,7 +3237,7 @@
       <c r="A39" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="193"/>
+      <c r="B39" s="197"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -3293,19 +3311,19 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A42" s="167" t="s">
+      <c r="A42" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
-      <c r="E42" s="169"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="173"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="187" t="s">
+      <c r="B43" s="191" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="11"/>
@@ -3318,7 +3336,7 @@
       <c r="A44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="187"/>
+      <c r="B44" s="191"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -3329,7 +3347,7 @@
       <c r="A45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="187"/>
+      <c r="B45" s="191"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -3340,7 +3358,7 @@
       <c r="A46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="187"/>
+      <c r="B46" s="191"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -3351,7 +3369,7 @@
       <c r="A47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="187"/>
+      <c r="B47" s="191"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -3362,7 +3380,7 @@
       <c r="A48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="187"/>
+      <c r="B48" s="191"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -3373,7 +3391,7 @@
       <c r="A49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="187"/>
+      <c r="B49" s="191"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="78">
@@ -3395,7 +3413,7 @@
       <c r="A50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="188"/>
+      <c r="B50" s="192"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
@@ -3424,13 +3442,13 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A52" s="167" t="s">
+      <c r="A52" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="168"/>
-      <c r="C52" s="168"/>
-      <c r="D52" s="168"/>
-      <c r="E52" s="169"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="172"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="173"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="29" t="s">
@@ -3559,19 +3577,19 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A58" s="167" t="s">
+      <c r="A58" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="168"/>
-      <c r="C58" s="168"/>
-      <c r="D58" s="168"/>
-      <c r="E58" s="169"/>
+      <c r="B58" s="172"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="172"/>
+      <c r="E58" s="173"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="192" t="s">
+      <c r="B59" s="196" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="140"/>
@@ -3591,7 +3609,7 @@
       <c r="A60" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="192"/>
+      <c r="B60" s="196"/>
       <c r="C60" s="139"/>
       <c r="D60" s="139"/>
       <c r="E60" s="3">
@@ -3609,7 +3627,7 @@
       <c r="A61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="192"/>
+      <c r="B61" s="196"/>
       <c r="C61" s="139"/>
       <c r="D61" s="139"/>
       <c r="E61" s="78">
@@ -3627,7 +3645,7 @@
       <c r="A62" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="B62" s="192"/>
+      <c r="B62" s="196"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="135">
@@ -3651,7 +3669,7 @@
       <c r="A63" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="B63" s="192"/>
+      <c r="B63" s="196"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="135"/>
@@ -3673,7 +3691,7 @@
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="192"/>
+      <c r="B64" s="196"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="78">
@@ -3692,7 +3710,7 @@
       <c r="A65" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="B65" s="192"/>
+      <c r="B65" s="196"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="22">
@@ -3708,7 +3726,7 @@
       <c r="A66" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="192"/>
+      <c r="B66" s="196"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="78">
@@ -3729,7 +3747,7 @@
       <c r="A67" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="192"/>
+      <c r="B67" s="196"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="78">
@@ -3751,7 +3769,7 @@
       <c r="A68" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="192"/>
+      <c r="B68" s="196"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="22"/>
@@ -3765,7 +3783,7 @@
       <c r="A69" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="192"/>
+      <c r="B69" s="196"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="22"/>
@@ -3779,7 +3797,7 @@
       <c r="A70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="192"/>
+      <c r="B70" s="196"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="78">
@@ -3801,7 +3819,7 @@
       <c r="A71" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="192"/>
+      <c r="B71" s="196"/>
       <c r="C71" s="2">
         <v>59</v>
       </c>
@@ -3828,7 +3846,7 @@
       <c r="A72" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B72" s="192"/>
+      <c r="B72" s="196"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="21">
@@ -3847,7 +3865,7 @@
       <c r="A73" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B73" s="192"/>
+      <c r="B73" s="196"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="78">
@@ -3866,7 +3884,7 @@
       <c r="A74" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B74" s="192"/>
+      <c r="B74" s="196"/>
       <c r="C74" s="2">
         <v>450</v>
       </c>
@@ -3890,7 +3908,7 @@
       <c r="A75" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B75" s="192"/>
+      <c r="B75" s="196"/>
       <c r="C75" s="2">
         <v>2392</v>
       </c>
@@ -3915,7 +3933,7 @@
       <c r="A76" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B76" s="192"/>
+      <c r="B76" s="196"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="78">
@@ -3934,7 +3952,7 @@
       <c r="A77" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B77" s="193"/>
+      <c r="B77" s="197"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="21">
@@ -3986,31 +4004,31 @@
         <f>H56+H50+H40+H18+H14+H78</f>
         <v>2346871.974358974</v>
       </c>
-      <c r="K79" s="197" t="s">
+      <c r="K79" s="201" t="s">
         <v>81</v>
       </c>
-      <c r="L79" s="198"/>
-      <c r="M79" s="199"/>
+      <c r="L79" s="202"/>
+      <c r="M79" s="203"/>
     </row>
     <row r="80" spans="1:13">
       <c r="K80" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="185">
+      <c r="L80" s="189">
         <f>M2+L18+M39+M49+M54+M62</f>
         <v>2160680.185897436</v>
       </c>
-      <c r="M80" s="194"/>
+      <c r="M80" s="198"/>
     </row>
     <row r="81" spans="11:13" ht="15.75" thickBot="1">
       <c r="K81" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L81" s="195">
+      <c r="L81" s="199">
         <f>M3+L19+M40+M50+M55+M63</f>
         <v>2179412.096153846</v>
       </c>
-      <c r="M81" s="196"/>
+      <c r="M81" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -4050,10 +4068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4069,68 +4087,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="177" t="s">
+      <c r="B1" s="181" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="203"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="207"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="206"/>
-      <c r="B2" s="191" t="s">
+      <c r="A2" s="210"/>
+      <c r="B2" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="207" t="s">
+      <c r="C2" s="195"/>
+      <c r="D2" s="211" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="191" t="s">
+      <c r="E2" s="195" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="209" t="s">
+      <c r="F2" s="195"/>
+      <c r="G2" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="204" t="s">
+      <c r="H2" s="208" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="206"/>
+      <c r="A3" s="210"/>
       <c r="B3" s="151" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="208"/>
+      <c r="D3" s="212"/>
       <c r="E3" s="151" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="210"/>
-      <c r="H3" s="204"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="208"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="205" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="201"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="201"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="138" t="s">
@@ -4146,11 +4164,11 @@
         <f t="shared" ref="D5:D19" si="0">SUM(B5:C5)</f>
         <v>28300</v>
       </c>
-      <c r="E5" s="165" t="s">
+      <c r="E5" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="205"/>
-      <c r="G5" s="166"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="170"/>
       <c r="H5" s="145">
         <f t="shared" ref="H5:H20" si="1">D5</f>
         <v>28300</v>
@@ -4172,11 +4190,11 @@
         <f t="shared" si="0"/>
         <v>235100</v>
       </c>
-      <c r="E6" s="165" t="s">
+      <c r="E6" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="205"/>
-      <c r="G6" s="166"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="145">
         <f t="shared" si="1"/>
         <v>235100</v>
@@ -4198,11 +4216,11 @@
         <f t="shared" si="0"/>
         <v>20193</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="205"/>
-      <c r="G7" s="166"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="170"/>
       <c r="H7" s="145">
         <f t="shared" si="1"/>
         <v>20193</v>
@@ -4224,11 +4242,11 @@
         <f t="shared" si="0"/>
         <v>41910</v>
       </c>
-      <c r="E8" s="165" t="s">
+      <c r="E8" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="205"/>
-      <c r="G8" s="166"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="170"/>
       <c r="H8" s="145">
         <f t="shared" si="1"/>
         <v>41910</v>
@@ -4250,11 +4268,11 @@
         <f t="shared" si="0"/>
         <v>6925</v>
       </c>
-      <c r="E9" s="165" t="s">
+      <c r="E9" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="205"/>
-      <c r="G9" s="166"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="170"/>
       <c r="H9" s="145">
         <f t="shared" si="1"/>
         <v>6925</v>
@@ -4274,11 +4292,11 @@
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="E10" s="165" t="s">
+      <c r="E10" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="205"/>
-      <c r="G10" s="166"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="170"/>
       <c r="H10" s="145">
         <f t="shared" si="1"/>
         <v>1440</v>
@@ -4298,11 +4316,11 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E11" s="165" t="s">
+      <c r="E11" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="205"/>
-      <c r="G11" s="166"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="170"/>
       <c r="H11" s="145">
         <f t="shared" si="1"/>
         <v>2500</v>
@@ -4322,11 +4340,11 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E12" s="165" t="s">
+      <c r="E12" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="205"/>
-      <c r="G12" s="166"/>
+      <c r="F12" s="209"/>
+      <c r="G12" s="170"/>
       <c r="H12" s="145">
         <f t="shared" si="1"/>
         <v>1500</v>
@@ -4346,11 +4364,11 @@
         <f t="shared" si="0"/>
         <v>14995</v>
       </c>
-      <c r="E13" s="214" t="s">
+      <c r="E13" s="218" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="215"/>
-      <c r="G13" s="216"/>
+      <c r="F13" s="219"/>
+      <c r="G13" s="220"/>
       <c r="H13" s="145">
         <f t="shared" si="1"/>
         <v>14995</v>
@@ -4370,11 +4388,11 @@
         <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="E14" s="165" t="s">
+      <c r="E14" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="205"/>
-      <c r="G14" s="166"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="170"/>
       <c r="H14" s="145">
         <f t="shared" si="1"/>
         <v>24900</v>
@@ -4394,11 +4412,11 @@
         <f t="shared" si="0"/>
         <v>28088</v>
       </c>
-      <c r="E15" s="165" t="s">
+      <c r="E15" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="205"/>
-      <c r="G15" s="166"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="170"/>
       <c r="H15" s="145">
         <f t="shared" si="1"/>
         <v>28088</v>
@@ -4418,11 +4436,11 @@
         <f t="shared" si="0"/>
         <v>3239</v>
       </c>
-      <c r="E16" s="165" t="s">
+      <c r="E16" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="205"/>
-      <c r="G16" s="166"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="170"/>
       <c r="H16" s="145">
         <f t="shared" si="1"/>
         <v>3239</v>
@@ -4442,11 +4460,11 @@
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="E17" s="165" t="s">
+      <c r="E17" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="205"/>
-      <c r="G17" s="166"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="170"/>
       <c r="H17" s="145">
         <f t="shared" si="1"/>
         <v>2700</v>
@@ -4468,11 +4486,11 @@
         <f t="shared" si="0"/>
         <v>7176</v>
       </c>
-      <c r="E18" s="165" t="s">
+      <c r="E18" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="205"/>
-      <c r="G18" s="166"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="170"/>
       <c r="H18" s="145">
         <f t="shared" si="1"/>
         <v>7176</v>
@@ -4492,11 +4510,11 @@
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
-      <c r="E19" s="217" t="s">
+      <c r="E19" s="221" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="217"/>
-      <c r="G19" s="217"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="221"/>
       <c r="H19" s="145">
         <f t="shared" si="1"/>
         <v>2950</v>
@@ -4516,11 +4534,11 @@
         <f>C20</f>
         <v>149970</v>
       </c>
-      <c r="E20" s="217" t="s">
+      <c r="E20" s="221" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="217"/>
-      <c r="G20" s="217"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="221"/>
       <c r="H20" s="145">
         <f t="shared" si="1"/>
         <v>149970</v>
@@ -4540,11 +4558,11 @@
         <f>C21</f>
         <v>31980</v>
       </c>
-      <c r="E21" s="200" t="s">
+      <c r="E21" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="204"/>
       <c r="H21" s="145">
         <f>D21</f>
         <v>31980</v>
@@ -4564,13 +4582,13 @@
         <f t="shared" ref="D22:D25" si="2">C22</f>
         <v>38700</v>
       </c>
-      <c r="E22" s="200" t="s">
+      <c r="E22" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="200"/>
-      <c r="G22" s="200"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
       <c r="H22" s="145">
-        <f t="shared" ref="H22:H25" si="3">D22</f>
+        <f t="shared" ref="H22:H26" si="3">D22</f>
         <v>38700</v>
       </c>
     </row>
@@ -4588,11 +4606,11 @@
         <f t="shared" si="2"/>
         <v>19990</v>
       </c>
-      <c r="E23" s="200" t="s">
+      <c r="E23" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="204"/>
       <c r="H23" s="145">
         <f t="shared" si="3"/>
         <v>19990</v>
@@ -4612,17 +4630,17 @@
         <f t="shared" si="2"/>
         <v>13480</v>
       </c>
-      <c r="E24" s="200" t="s">
+      <c r="E24" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="200"/>
-      <c r="G24" s="200"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="204"/>
       <c r="H24" s="145">
         <f t="shared" si="3"/>
         <v>13480</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1">
+    <row r="25" spans="1:9">
       <c r="A25" s="159" t="s">
         <v>214</v>
       </c>
@@ -4632,642 +4650,712 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E25" s="200" t="s">
+      <c r="E25" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="200"/>
-      <c r="G25" s="200"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
       <c r="H25" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A26" s="127" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="167" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="142">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="162">
+        <v>0</v>
+      </c>
+      <c r="D26" s="142">
+        <f>SUM(B26:C26)</f>
+        <v>1000</v>
+      </c>
+      <c r="E26" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="168">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A27" s="165" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="145">
+        <v>2040</v>
+      </c>
+      <c r="C27" s="143">
+        <v>0</v>
+      </c>
+      <c r="D27" s="145">
+        <f>SUM(B27:C27)</f>
+        <v>2040</v>
+      </c>
+      <c r="E27" s="204" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="204"/>
+      <c r="G27" s="204"/>
+      <c r="H27" s="168">
+        <f>D27</f>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A28" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="146">
-        <f>SUM(B5:B25)</f>
-        <v>249919</v>
-      </c>
-      <c r="C26" s="146">
-        <f>SUM(C5:C25)</f>
+      <c r="B28" s="146">
+        <f>SUM(B5:B27)</f>
+        <v>252959</v>
+      </c>
+      <c r="C28" s="146">
+        <f>SUM(C5:C27)</f>
         <v>426117</v>
       </c>
-      <c r="D26" s="146">
-        <f>SUM(D5:D25)</f>
-        <v>676036</v>
-      </c>
-      <c r="E26" s="211" t="s">
+      <c r="D28" s="146">
+        <f>SUM(D5:D27)</f>
+        <v>679076</v>
+      </c>
+      <c r="E28" s="215" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="212"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="141">
-        <f>SUM(H5:H25)</f>
-        <v>676036</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="131"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="132"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="201" t="s">
+      <c r="F28" s="216"/>
+      <c r="G28" s="217"/>
+      <c r="H28" s="141">
+        <f>SUM(H5:H27)</f>
+        <v>679076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="131"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="132"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="205" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="201"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="201"/>
-      <c r="F28" s="201"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="201"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2" t="s">
+      <c r="B30" s="205"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="205"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B29" s="142">
+      <c r="B31" s="142">
         <v>15000</v>
       </c>
-      <c r="C29" s="143">
+      <c r="C31" s="143">
         <v>0</v>
       </c>
-      <c r="D29" s="142">
-        <f t="shared" ref="D29:D38" si="4">SUM(B29:C29)</f>
+      <c r="D31" s="142">
+        <f t="shared" ref="D31:D40" si="4">SUM(B31:C31)</f>
         <v>15000</v>
       </c>
-      <c r="E29" s="120">
+      <c r="E31" s="120">
         <v>15000</v>
       </c>
-      <c r="F29" s="124">
+      <c r="F31" s="124">
         <v>0</v>
       </c>
-      <c r="G29" s="120">
-        <f t="shared" ref="G29:G42" si="5">SUM(E29:F29)</f>
+      <c r="G31" s="120">
+        <f t="shared" ref="G31:G44" si="5">SUM(E31:F31)</f>
         <v>15000</v>
       </c>
-      <c r="H29" s="120">
-        <f>D29+G29</f>
+      <c r="H31" s="120">
+        <f>D31+G31</f>
         <v>30000</v>
       </c>
-      <c r="I29" s="134" t="s">
+      <c r="I31" s="134" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="142">
+      <c r="B32" s="142">
         <v>100000</v>
       </c>
-      <c r="C30" s="143">
+      <c r="C32" s="143">
         <v>0</v>
       </c>
-      <c r="D30" s="142">
+      <c r="D32" s="142">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="E30" s="120">
+      <c r="E32" s="120">
         <v>190000</v>
       </c>
-      <c r="F30" s="124">
+      <c r="F32" s="124">
         <v>0</v>
       </c>
-      <c r="G30" s="120">
+      <c r="G32" s="120">
         <f t="shared" si="5"/>
         <v>190000</v>
       </c>
-      <c r="H30" s="123">
-        <f>D30+G30</f>
+      <c r="H32" s="123">
+        <f>D32+G32</f>
         <v>290000</v>
       </c>
-      <c r="I30" s="134" t="s">
+      <c r="I32" s="134" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="90" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="144">
+      <c r="B33" s="144">
         <v>100000</v>
       </c>
-      <c r="C31" s="144">
+      <c r="C33" s="144">
         <v>100000</v>
       </c>
-      <c r="D31" s="144">
+      <c r="D33" s="144">
         <f t="shared" si="4"/>
         <v>200000</v>
       </c>
-      <c r="E31" s="120">
-        <f>TERVEZETT!M2-B31</f>
+      <c r="E33" s="120">
+        <f>TERVEZETT!M2-B33</f>
         <v>989995.18589743599</v>
       </c>
-      <c r="F31" s="120">
-        <f>TERVEZETT!M3-C31</f>
+      <c r="F33" s="120">
+        <f>TERVEZETT!M3-C33</f>
         <v>898827.09615384613</v>
       </c>
-      <c r="G31" s="123">
+      <c r="G33" s="123">
         <f t="shared" si="5"/>
         <v>1888822.282051282</v>
       </c>
-      <c r="H31" s="123">
-        <f>D31+G31</f>
+      <c r="H33" s="123">
+        <f>D33+G33</f>
         <v>2088822.282051282</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B32" s="124">
+      <c r="B34" s="124">
         <v>0</v>
       </c>
-      <c r="C32" s="124">
+      <c r="C34" s="124">
         <v>0</v>
       </c>
-      <c r="D32" s="124">
+      <c r="D34" s="124">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E32" s="120">
+      <c r="E34" s="120">
         <f>TERVEZETT!L18</f>
         <v>77500</v>
       </c>
-      <c r="F32" s="120">
+      <c r="F34" s="120">
         <f>TERVEZETT!L19</f>
         <v>198400</v>
       </c>
-      <c r="G32" s="120">
+      <c r="G34" s="120">
         <f t="shared" si="5"/>
         <v>275900</v>
       </c>
-      <c r="H32" s="120">
-        <f>G32</f>
+      <c r="H34" s="120">
+        <f>G34</f>
         <v>275900</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="90" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="160"/>
-      <c r="C33" s="144">
+      <c r="B35" s="160"/>
+      <c r="C35" s="144">
         <v>220000</v>
       </c>
-      <c r="D33" s="144">
+      <c r="D35" s="144">
         <f t="shared" si="4"/>
         <v>220000</v>
       </c>
-      <c r="E33" s="120">
+      <c r="E35" s="120">
         <f>TERVEZETT!M54</f>
         <v>222750</v>
       </c>
-      <c r="F33" s="120">
+      <c r="F35" s="120">
         <f>TERVEZETT!M55</f>
         <v>211750</v>
       </c>
-      <c r="G33" s="120">
+      <c r="G35" s="120">
         <f t="shared" si="5"/>
         <v>434500</v>
       </c>
-      <c r="H33" s="120">
-        <f>G33</f>
+      <c r="H35" s="120">
+        <f>G35</f>
         <v>434500</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="2" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="144">
+      <c r="B36" s="144">
         <v>5000</v>
       </c>
-      <c r="C34" s="144">
+      <c r="C36" s="144">
         <v>5000</v>
       </c>
-      <c r="D34" s="144">
+      <c r="D36" s="144">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="E34" s="119">
+      <c r="E36" s="119">
         <v>20000</v>
       </c>
-      <c r="F34" s="119">
+      <c r="F36" s="119">
         <v>20000</v>
       </c>
-      <c r="G34" s="119">
+      <c r="G36" s="119">
         <f t="shared" si="5"/>
         <v>40000</v>
       </c>
-      <c r="H34" s="123">
-        <f t="shared" ref="H34:H42" si="6">D34+G34</f>
+      <c r="H36" s="123">
+        <f t="shared" ref="H36:H44" si="6">D36+G36</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B35" s="144">
+      <c r="B37" s="144">
         <v>10000</v>
       </c>
-      <c r="C35" s="144">
+      <c r="C37" s="144">
         <v>10000</v>
       </c>
-      <c r="D35" s="144">
+      <c r="D37" s="144">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-      <c r="E35" s="119">
+      <c r="E37" s="119">
         <v>110000</v>
       </c>
-      <c r="F35" s="119">
+      <c r="F37" s="119">
         <v>110000</v>
       </c>
-      <c r="G35" s="119">
+      <c r="G37" s="119">
         <f t="shared" si="5"/>
         <v>220000</v>
       </c>
-      <c r="H35" s="123">
+      <c r="H37" s="123">
         <f t="shared" si="6"/>
         <v>240000</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="9" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B36" s="144">
+      <c r="B38" s="144">
         <v>15000</v>
       </c>
-      <c r="C36" s="144">
+      <c r="C38" s="144">
         <v>15000</v>
       </c>
-      <c r="D36" s="144">
+      <c r="D38" s="144">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
-      <c r="E36" s="119">
+      <c r="E38" s="119">
         <v>45000</v>
       </c>
-      <c r="F36" s="119">
+      <c r="F38" s="119">
         <v>45000</v>
       </c>
-      <c r="G36" s="119">
+      <c r="G38" s="119">
         <f t="shared" si="5"/>
         <v>90000</v>
       </c>
-      <c r="H36" s="119">
+      <c r="H38" s="119">
         <f t="shared" si="6"/>
         <v>120000</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="2" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B37" s="144">
+      <c r="B39" s="144">
         <v>15000</v>
       </c>
-      <c r="C37" s="144">
+      <c r="C39" s="144">
         <v>15000</v>
       </c>
-      <c r="D37" s="144">
+      <c r="D39" s="144">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
-      <c r="E37" s="119">
+      <c r="E39" s="119">
         <v>69950</v>
       </c>
-      <c r="F37" s="119">
+      <c r="F39" s="119">
         <v>69950</v>
       </c>
-      <c r="G37" s="119">
+      <c r="G39" s="119">
         <f t="shared" si="5"/>
         <v>139900</v>
       </c>
-      <c r="H37" s="123">
+      <c r="H39" s="123">
         <f t="shared" si="6"/>
         <v>169900</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="138" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="B38" s="144">
+      <c r="B40" s="144">
         <v>10000</v>
       </c>
-      <c r="C38" s="144">
+      <c r="C40" s="144">
         <v>10000</v>
       </c>
-      <c r="D38" s="144">
+      <c r="D40" s="144">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-      <c r="E38" s="119">
+      <c r="E40" s="119">
         <v>100000</v>
       </c>
-      <c r="F38" s="119">
+      <c r="F40" s="119">
         <v>100000</v>
       </c>
-      <c r="G38" s="119">
+      <c r="G40" s="119">
         <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-      <c r="H38" s="119">
+      <c r="H40" s="119">
         <f t="shared" si="6"/>
         <v>220000</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="9" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="142">
+      <c r="B41" s="142">
         <v>7500</v>
       </c>
-      <c r="C39" s="142">
+      <c r="C41" s="142">
         <v>7500</v>
       </c>
-      <c r="D39" s="142">
+      <c r="D41" s="142">
         <v>15000</v>
       </c>
-      <c r="E39" s="120">
+      <c r="E41" s="120">
         <v>32500</v>
       </c>
-      <c r="F39" s="120">
+      <c r="F41" s="120">
         <v>32500</v>
       </c>
-      <c r="G39" s="120">
+      <c r="G41" s="120">
         <f t="shared" si="5"/>
         <v>65000</v>
       </c>
-      <c r="H39" s="120">
+      <c r="H41" s="120">
         <f t="shared" si="6"/>
         <v>80000</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="9" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B40" s="145">
-        <f>D40/2</f>
+      <c r="B42" s="145">
+        <f>D42/2</f>
         <v>70000</v>
       </c>
-      <c r="C40" s="145">
-        <f>D40/2</f>
+      <c r="C42" s="145">
+        <f>D42/2</f>
         <v>70000</v>
       </c>
-      <c r="D40" s="145">
+      <c r="D42" s="145">
         <v>140000</v>
       </c>
-      <c r="E40" s="118">
+      <c r="E42" s="118">
         <v>66800</v>
       </c>
-      <c r="F40" s="118">
+      <c r="F42" s="118">
         <v>66800</v>
       </c>
-      <c r="G40" s="118">
+      <c r="G42" s="118">
         <f t="shared" si="5"/>
         <v>133600</v>
       </c>
-      <c r="H40" s="118">
+      <c r="H42" s="118">
         <f t="shared" si="6"/>
         <v>273600</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="158" t="s">
+    <row r="43" spans="1:10">
+      <c r="A43" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="124">
+      <c r="B43" s="124">
         <v>0</v>
       </c>
-      <c r="C41" s="124">
+      <c r="C43" s="124">
         <v>0</v>
       </c>
-      <c r="D41" s="124">
-        <f>SUM(B41:C41)</f>
+      <c r="D43" s="124">
+        <f>SUM(B43:C43)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="118">
+      <c r="E43" s="118">
         <v>13500</v>
       </c>
-      <c r="F41" s="118">
+      <c r="F43" s="118">
         <v>13500</v>
       </c>
-      <c r="G41" s="118">
+      <c r="G43" s="118">
         <f t="shared" si="5"/>
         <v>27000</v>
       </c>
-      <c r="H41" s="118">
+      <c r="H43" s="118">
         <f t="shared" si="6"/>
         <v>27000</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="138" t="s">
+    <row r="44" spans="1:10">
+      <c r="A44" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="124">
+      <c r="B44" s="124">
         <v>0</v>
       </c>
-      <c r="C42" s="124">
+      <c r="C44" s="124">
         <v>0</v>
       </c>
-      <c r="D42" s="124">
-        <f>SUM(B42:C42)</f>
+      <c r="D44" s="124">
+        <f>SUM(B44:C44)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="118">
+      <c r="E44" s="118">
         <v>61500</v>
       </c>
-      <c r="F42" s="118">
+      <c r="F44" s="118">
         <v>61500</v>
       </c>
-      <c r="G42" s="118">
+      <c r="G44" s="118">
         <f t="shared" si="5"/>
         <v>123000</v>
       </c>
-      <c r="H42" s="118">
+      <c r="H44" s="118">
         <f t="shared" si="6"/>
         <v>123000</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="121" t="s">
+    <row r="45" spans="1:10">
+      <c r="A45" s="121" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="145">
+      <c r="B45" s="145">
         <v>20000</v>
       </c>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145">
-        <f>SUM(B43:C43)</f>
+      <c r="C45" s="145"/>
+      <c r="D45" s="145">
+        <f>SUM(B45:C45)</f>
         <v>20000</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="121" t="s">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="121" t="s">
         <v>207</v>
       </c>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A45" s="150" t="s">
+      <c r="B46" s="124"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A47" s="150" t="s">
         <v>208</v>
       </c>
-      <c r="B45" s="126"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="136">
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="136">
         <v>15000</v>
       </c>
-      <c r="F45" s="136">
+      <c r="F47" s="136">
         <v>10000</v>
       </c>
-      <c r="G45" s="136">
-        <f>SUM(E45:F45)</f>
+      <c r="G47" s="136">
+        <f>SUM(E47:F47)</f>
         <v>25000</v>
       </c>
-      <c r="H45" s="136">
-        <f>G45</f>
+      <c r="H47" s="136">
+        <f>G47</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A46" s="137" t="s">
+    <row r="48" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A48" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="128">
-        <f t="shared" ref="B46:H46" si="7">SUM(B29:B45)</f>
+      <c r="B48" s="128">
+        <f t="shared" ref="B48:H48" si="7">SUM(B31:B47)</f>
         <v>367500</v>
       </c>
-      <c r="C46" s="128">
+      <c r="C48" s="128">
         <f t="shared" si="7"/>
         <v>452500</v>
       </c>
-      <c r="D46" s="128">
+      <c r="D48" s="128">
         <f t="shared" si="7"/>
         <v>820000</v>
       </c>
-      <c r="E46" s="128">
+      <c r="E48" s="128">
         <f t="shared" si="7"/>
         <v>2029495.185897436</v>
       </c>
-      <c r="F46" s="128">
+      <c r="F48" s="128">
         <f t="shared" si="7"/>
         <v>1838227.096153846</v>
       </c>
-      <c r="G46" s="128">
+      <c r="G48" s="128">
         <f t="shared" si="7"/>
         <v>3867722.282051282</v>
       </c>
-      <c r="H46" s="129">
+      <c r="H48" s="129">
         <f t="shared" si="7"/>
         <v>4447722.282051282</v>
       </c>
-      <c r="I46" s="149"/>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="201" t="s">
+      <c r="I48" s="149"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="205" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="201"/>
-      <c r="C48" s="201"/>
-      <c r="D48" s="201"/>
-      <c r="E48" s="201"/>
-      <c r="F48" s="201"/>
-      <c r="G48" s="201"/>
-      <c r="H48" s="201"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="2" t="s">
+      <c r="B50" s="205"/>
+      <c r="C50" s="205"/>
+      <c r="D50" s="205"/>
+      <c r="E50" s="205"/>
+      <c r="F50" s="205"/>
+      <c r="G50" s="205"/>
+      <c r="H50" s="205"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="145">
+      <c r="B51" s="145">
         <v>91480</v>
       </c>
-      <c r="C49" s="145">
+      <c r="C51" s="145">
         <v>91480</v>
       </c>
-      <c r="D49" s="145">
-        <f>SUM(B49:C49)</f>
+      <c r="D51" s="145">
+        <f>SUM(B51:C51)</f>
         <v>182960</v>
       </c>
-      <c r="E49" s="200" t="s">
+      <c r="E51" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="200"/>
-      <c r="G49" s="200"/>
-      <c r="H49" s="145">
-        <f>D49+G49</f>
+      <c r="F51" s="204"/>
+      <c r="G51" s="204"/>
+      <c r="H51" s="145">
+        <f>D51+G51</f>
         <v>182960</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B50" s="145">
+      <c r="B52" s="145">
         <v>2075</v>
       </c>
-      <c r="C50" s="164">
+      <c r="C52" s="164">
         <v>0</v>
       </c>
-      <c r="D50" s="145">
-        <f>SUM(B50:C50)</f>
+      <c r="D52" s="145">
+        <f>SUM(B52:C52)</f>
         <v>2075</v>
       </c>
-      <c r="E50" s="200" t="s">
+      <c r="E52" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="200"/>
-      <c r="G50" s="200"/>
-      <c r="H50" s="145">
-        <f>D50+G50</f>
+      <c r="F52" s="204"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="145">
+        <f>D52+G52</f>
         <v>2075</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="9" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="166">
+        <f>(B52+B27+B26)/2</f>
+        <v>2557.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="36">
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E28:G28"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E14:G14"/>
@@ -5292,14 +5380,16 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="A50:H50"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5772,45 +5862,45 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="229" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="191" t="s">
+      <c r="B1" s="229"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="195" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="229" t="s">
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="233" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="230" t="s">
+      <c r="J1" s="234" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="231"/>
-      <c r="L1" s="232"/>
-      <c r="M1" s="177" t="s">
+      <c r="K1" s="235"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="181" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="218" t="s">
+      <c r="N1" s="206"/>
+      <c r="O1" s="206"/>
+      <c r="P1" s="207"/>
+      <c r="Q1" s="222" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="227"/>
-      <c r="B2" s="227"/>
-      <c r="C2" s="228"/>
+      <c r="A2" s="231"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="232"/>
       <c r="D2" s="79" t="s">
         <v>84</v>
       </c>
@@ -5823,10 +5913,10 @@
       <c r="G2" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="229"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="227"/>
-      <c r="L2" s="228"/>
+      <c r="H2" s="233"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="232"/>
       <c r="M2" s="79" t="s">
         <v>84</v>
       </c>
@@ -5839,7 +5929,7 @@
       <c r="P2" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="219"/>
+      <c r="Q2" s="223"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="59" t="s">
@@ -5869,7 +5959,7 @@
       <c r="L3" s="85">
         <v>5</v>
       </c>
-      <c r="M3" s="220">
+      <c r="M3" s="224">
         <v>2</v>
       </c>
       <c r="N3" s="86">
@@ -5909,7 +5999,7 @@
       <c r="L4" s="85">
         <v>3</v>
       </c>
-      <c r="M4" s="221"/>
+      <c r="M4" s="225"/>
       <c r="N4" s="88"/>
       <c r="O4" s="88"/>
       <c r="P4" s="89"/>
@@ -6319,10 +6409,10 @@
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="224" t="s">
+      <c r="A22" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="224"/>
+      <c r="B22" s="228"/>
       <c r="C22" s="62">
         <f>SUM(C3:C20)</f>
         <v>41</v>
@@ -6347,10 +6437,10 @@
         <f>SUM(H3:H20)</f>
         <v>24</v>
       </c>
-      <c r="J22" s="222" t="s">
+      <c r="J22" s="226" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="223"/>
+      <c r="K22" s="227"/>
       <c r="L22" s="102">
         <f>SUM(L3:L10)</f>
         <v>37</v>
@@ -6485,7 +6575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -6624,7 +6714,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="234" t="s">
+      <c r="A10" s="238" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="115" t="s">
@@ -6638,7 +6728,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="235"/>
+      <c r="A11" s="239"/>
       <c r="B11" s="115" t="s">
         <v>69</v>
       </c>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="238">
   <si>
     <t>TOTAL</t>
   </si>
@@ -702,6 +702,39 @@
   </si>
   <si>
     <t>Állás:</t>
+  </si>
+  <si>
+    <t>Ágika néni</t>
+  </si>
+  <si>
+    <t>Bodnár Robi</t>
+  </si>
+  <si>
+    <t>Kántor</t>
+  </si>
+  <si>
+    <t>Almásy László Attila</t>
+  </si>
+  <si>
+    <t>20/952-6250</t>
+  </si>
+  <si>
+    <t>helyszínen fizet</t>
+  </si>
+  <si>
+    <t>Fizetés</t>
+  </si>
+  <si>
+    <t>Valentin szemüveg lencse+keret</t>
+  </si>
+  <si>
+    <t>Mr. és Mrs. lufik</t>
+  </si>
+  <si>
+    <t>Vőfélyszalag (2 féle szalag, filctoll)</t>
+  </si>
+  <si>
+    <t>Sütis doboz</t>
   </si>
 </sst>
 </file>
@@ -718,7 +751,7 @@
     <numFmt numFmtId="168" formatCode="[$-40E]mmmm\ d\.;@"/>
     <numFmt numFmtId="169" formatCode="#,##0\ &quot;Ft&quot;"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,6 +896,23 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.8000000000000007"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1474,7 +1524,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1513,14 +1563,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1621,16 +1663,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1715,18 +1753,6 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1746,6 +1772,29 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1853,6 +1902,9 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1900,6 +1952,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2255,7 +2310,7 @@
   <dimension ref="A1:W81"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2275,13 +2330,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="173"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="174"/>
       <c r="G1" t="s">
         <v>23</v>
       </c>
@@ -2291,11 +2346,11 @@
       <c r="K1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="174">
+      <c r="L1" s="175">
         <f>L2+L3</f>
-        <v>78</v>
-      </c>
-      <c r="M1" s="174"/>
+        <v>77</v>
+      </c>
+      <c r="M1" s="175"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="11"/>
@@ -2310,370 +2365,370 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <f>Meghívottak!C22</f>
-        <v>41</v>
+        <f>Meghívottak!C24</f>
+        <v>44</v>
       </c>
       <c r="H2">
-        <f>Meghívottak!L22</f>
-        <v>37</v>
+        <f>Meghívottak!M24</f>
+        <v>33</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="5">
-        <f>Meghívottak!C22</f>
-        <v>41</v>
-      </c>
-      <c r="M2" s="48">
+        <f>Meghívottak!C24</f>
+        <v>44</v>
+      </c>
+      <c r="M2" s="44">
         <f>(L2-2)*M7+2*M8</f>
-        <v>1089995.185897436</v>
+        <v>1173425.8571428573</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="64">
         <v>2000</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="65">
         <f>L1</f>
-        <v>78</v>
-      </c>
-      <c r="E3" s="68">
+        <v>77</v>
+      </c>
+      <c r="E3" s="64">
         <f>C3*D3</f>
-        <v>156000</v>
-      </c>
-      <c r="G3" s="152">
+        <v>154000</v>
+      </c>
+      <c r="G3" s="144">
         <f>G2*$C$3</f>
-        <v>82000</v>
-      </c>
-      <c r="H3" s="152">
+        <v>88000</v>
+      </c>
+      <c r="H3" s="144">
         <f>H2*$C$3</f>
-        <v>74000</v>
+        <v>66000</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="5">
-        <f>Meghívottak!L22</f>
-        <v>37</v>
-      </c>
-      <c r="M3" s="48">
+        <f>Meghívottak!M24</f>
+        <v>33</v>
+      </c>
+      <c r="M3" s="44">
         <f>L3*M7</f>
-        <v>998827.09615384613</v>
+        <v>892727.35714285716</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="64">
         <v>12000</v>
       </c>
-      <c r="D4" s="69">
-        <v>1</v>
-      </c>
-      <c r="E4" s="68">
+      <c r="D4" s="65">
+        <v>1</v>
+      </c>
+      <c r="E4" s="64">
         <f>C4*D4</f>
         <v>12000</v>
       </c>
-      <c r="G4" s="152">
+      <c r="G4" s="144">
         <f>$E$4/2</f>
         <v>6000</v>
       </c>
-      <c r="H4" s="152">
+      <c r="H4" s="144">
         <f>$E$4/2</f>
         <v>6000</v>
       </c>
       <c r="K4" s="18"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="65"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="61"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="64">
         <v>7800</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="65">
         <f>L1-2</f>
-        <v>76</v>
-      </c>
-      <c r="E5" s="68">
+        <v>75</v>
+      </c>
+      <c r="E5" s="64">
         <f>C5*D5</f>
-        <v>592800</v>
-      </c>
-      <c r="G5" s="152">
+        <v>585000</v>
+      </c>
+      <c r="G5" s="144">
         <f>(G2-2)*C5</f>
-        <v>304200</v>
-      </c>
-      <c r="H5" s="152">
+        <v>327600</v>
+      </c>
+      <c r="H5" s="144">
         <f>H2*C5</f>
-        <v>288600</v>
+        <v>257400</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="64">
         <v>3900</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="65">
         <v>2</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="64">
         <f>C6*D6</f>
         <v>7800</v>
       </c>
-      <c r="G6" s="152">
+      <c r="G6" s="144">
         <f>2*C6</f>
         <v>7800</v>
       </c>
-      <c r="H6" s="152">
+      <c r="H6" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="67" t="s">
+      <c r="A7" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="64">
         <v>2900</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="68">
         <v>37</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="64">
         <f>C7*D7</f>
         <v>107300</v>
       </c>
-      <c r="G7" s="152">
+      <c r="G7" s="144">
         <f>$E$7/2</f>
         <v>53650</v>
       </c>
-      <c r="H7" s="152">
+      <c r="H7" s="144">
         <f>$E$7/2</f>
         <v>53650</v>
       </c>
       <c r="M7">
         <f>C4/L1+(C3+C5+C7/2+C8+C9+C10+C11+E13/L1)*1.1</f>
-        <v>26995.326923076922</v>
+        <v>27052.344155844155</v>
       </c>
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="68">
         <f>E8/D8</f>
-        <v>1205.1282051282051</v>
-      </c>
-      <c r="D8" s="69">
+        <v>1220.7792207792209</v>
+      </c>
+      <c r="D8" s="65">
         <f>$L$1</f>
-        <v>78</v>
-      </c>
-      <c r="E8" s="68">
+        <v>77</v>
+      </c>
+      <c r="E8" s="64">
         <v>94000</v>
       </c>
-      <c r="G8" s="152">
+      <c r="G8" s="144">
         <f>$G$2*$C$8</f>
-        <v>49410.256410256407</v>
-      </c>
-      <c r="H8" s="152">
+        <v>53714.285714285717</v>
+      </c>
+      <c r="H8" s="144">
         <f>$H$2*$C$8</f>
-        <v>44589.743589743586</v>
+        <v>40285.71428571429</v>
       </c>
       <c r="M8">
         <f>C4/L1+(C3+C6+C7/2+C8+C9+E13/L1)*1.1</f>
-        <v>18588.717948717949</v>
+        <v>18613.7012987013</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="64">
         <v>7800</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="65">
         <f>$L$1</f>
-        <v>78</v>
-      </c>
-      <c r="E9" s="68">
+        <v>77</v>
+      </c>
+      <c r="E9" s="64">
         <f t="shared" ref="E9:E10" si="0">C9*D9</f>
-        <v>608400</v>
-      </c>
-      <c r="G9" s="152">
+        <v>600600</v>
+      </c>
+      <c r="G9" s="144">
         <f>$G$2*$C$9</f>
-        <v>319800</v>
-      </c>
-      <c r="H9" s="152">
+        <v>343200</v>
+      </c>
+      <c r="H9" s="144">
         <f>$H$2*$C$9</f>
-        <v>288600</v>
+        <v>257400</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="64">
         <v>1500</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="65">
         <f>$L$1-2</f>
-        <v>76</v>
-      </c>
-      <c r="E10" s="68">
+        <v>75</v>
+      </c>
+      <c r="E10" s="64">
         <f t="shared" si="0"/>
-        <v>114000</v>
-      </c>
-      <c r="G10" s="152">
+        <v>112500</v>
+      </c>
+      <c r="G10" s="144">
         <f>($G$2-2)*C10</f>
-        <v>58500</v>
-      </c>
-      <c r="H10" s="152">
+        <v>63000</v>
+      </c>
+      <c r="H10" s="144">
         <f>H2*C10</f>
-        <v>55500</v>
+        <v>49500</v>
       </c>
       <c r="M10" s="1"/>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="72">
+      <c r="B11" s="63"/>
+      <c r="C11" s="68">
         <f>'Kieg. - Ital'!C4/TERVEZETT!L1</f>
-        <v>2242.3717948717949</v>
-      </c>
-      <c r="D11" s="69">
+        <v>2271.4935064935066</v>
+      </c>
+      <c r="D11" s="65">
         <f>$L$1-2</f>
-        <v>76</v>
-      </c>
-      <c r="E11" s="107">
+        <v>75</v>
+      </c>
+      <c r="E11" s="101">
         <f>C11*D11</f>
-        <v>170420.25641025641</v>
-      </c>
-      <c r="G11" s="152">
+        <v>170362.012987013</v>
+      </c>
+      <c r="G11" s="144">
         <f>(G2-2)*C11</f>
-        <v>87452.5</v>
-      </c>
-      <c r="H11" s="152">
+        <v>95402.727272727279</v>
+      </c>
+      <c r="H11" s="144">
         <f>H2*C11</f>
-        <v>82967.756410256407</v>
+        <v>74959.285714285725</v>
       </c>
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="68">
+      <c r="B12" s="63"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="64">
         <f>(E3+E5+E6+E7+E8+E9+E13)*0.1</f>
-        <v>159780</v>
-      </c>
-      <c r="G12" s="152">
+        <v>158020</v>
+      </c>
+      <c r="G12" s="144">
         <f>SUM(G3,G5:G10)*0.1+G13*0.1</f>
-        <v>89111.025641025641</v>
-      </c>
-      <c r="H12" s="152">
+        <v>95271.42857142858</v>
+      </c>
+      <c r="H12" s="144">
         <f>SUM(H3,H5:H10)*0.1+H13*0.1</f>
-        <v>82068.974358974359</v>
+        <v>73998.571428571435</v>
       </c>
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="65">
         <v>3500</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="65">
         <v>9</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="64">
         <f>C13*D13</f>
         <v>31500</v>
       </c>
-      <c r="G13" s="152">
+      <c r="G13" s="144">
         <f>$E$13/2</f>
         <v>15750</v>
       </c>
-      <c r="H13" s="152">
+      <c r="H13" s="144">
         <f>$E$13/2</f>
         <v>15750</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="75">
+      <c r="C14" s="183"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="71">
         <f>SUM(E3:E13)</f>
-        <v>2054000.2564102565</v>
-      </c>
-      <c r="G14" s="153">
+        <v>2033082.012987013</v>
+      </c>
+      <c r="G14" s="145">
         <f>SUM(G3:G13)</f>
-        <v>1073673.782051282</v>
-      </c>
-      <c r="H14" s="153">
+        <v>1149388.4415584416</v>
+      </c>
+      <c r="H14" s="145">
         <f>SUM(H3:H13)</f>
-        <v>991726.47435897426</v>
+        <v>894943.57142857148</v>
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="68">
+      <c r="C15" s="183"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="64">
         <f>E14/L1</f>
-        <v>26333.336620644313</v>
+        <v>26403.662506324843</v>
       </c>
       <c r="U15" s="1"/>
     </row>
@@ -2686,52 +2741,52 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="173"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="174"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="178"/>
-      <c r="D18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
       </c>
-      <c r="G18" s="153">
+      <c r="G18" s="145">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="H18" s="153">
+      <c r="H18" s="145">
         <f>E19</f>
         <v>198400</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="189">
+      <c r="L18" s="190">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="M18" s="190"/>
+      <c r="M18" s="191"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="185"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="180"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="181"/>
       <c r="E19" s="14">
         <f>640*310</f>
         <v>198400</v>
@@ -2739,19 +2794,19 @@
       <c r="K19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="187">
+      <c r="L19" s="188">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="M19" s="188"/>
+      <c r="M19" s="189"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="186"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="180"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="181"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2768,28 +2823,28 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="176"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="177"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="178"/>
       <c r="O22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="169">
+      <c r="P22" s="170">
         <f>L1</f>
-        <v>78</v>
-      </c>
-      <c r="Q22" s="170"/>
+        <v>77</v>
+      </c>
+      <c r="Q22" s="171"/>
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="174" t="s">
+      <c r="B23" s="175" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
@@ -2797,34 +2852,34 @@
       </c>
       <c r="D23" s="2">
         <f>L1+5</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="3">
         <f>C23*D23</f>
-        <v>37350</v>
-      </c>
-      <c r="G23" s="152">
+        <v>36900</v>
+      </c>
+      <c r="G23" s="144">
         <f>(G2+2.5)*C23</f>
-        <v>19575</v>
-      </c>
-      <c r="H23" s="152">
+        <v>20925</v>
+      </c>
+      <c r="H23" s="144">
         <f>(H2+2.5)*C23</f>
-        <v>17775</v>
+        <v>15975</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="169">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="170"/>
+      <c r="P23" s="170">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="171"/>
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="174"/>
+      <c r="B24" s="175"/>
       <c r="C24" s="21">
         <v>12000</v>
       </c>
@@ -2835,28 +2890,28 @@
         <f>C24*D24</f>
         <v>108000</v>
       </c>
-      <c r="G24" s="152">
+      <c r="G24" s="144">
         <f>C24*5</f>
         <v>60000</v>
       </c>
-      <c r="H24" s="152">
+      <c r="H24" s="144">
         <f>C24*4</f>
         <v>48000</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="169">
+      <c r="P24" s="170">
         <v>9</v>
       </c>
-      <c r="Q24" s="170"/>
+      <c r="Q24" s="171"/>
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="174"/>
+      <c r="B25" s="175"/>
       <c r="C25" s="21">
         <v>18500</v>
       </c>
@@ -2867,26 +2922,26 @@
         <f>C25*D25</f>
         <v>18500</v>
       </c>
-      <c r="G25" s="152">
+      <c r="G25" s="144">
         <f t="shared" ref="G25:H38" si="1">$E25/2</f>
         <v>9250</v>
       </c>
-      <c r="H25" s="152">
+      <c r="H25" s="144">
         <f t="shared" si="1"/>
         <v>9250</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="195"/>
-      <c r="Q25" s="195"/>
+      <c r="P25" s="196"/>
+      <c r="Q25" s="196"/>
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="174"/>
+      <c r="B26" s="175"/>
       <c r="C26" s="21">
         <v>7500</v>
       </c>
@@ -2897,40 +2952,40 @@
         <f>C26*D26</f>
         <v>7500</v>
       </c>
-      <c r="G26" s="152">
+      <c r="G26" s="144">
         <f t="shared" si="1"/>
         <v>3750</v>
       </c>
-      <c r="H26" s="152">
+      <c r="H26" s="144">
         <f t="shared" si="1"/>
         <v>3750</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="193"/>
-      <c r="Q26" s="194"/>
+      <c r="P26" s="194"/>
+      <c r="Q26" s="195"/>
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="109" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="78">
+      <c r="E27" s="74">
         <v>20000</v>
       </c>
-      <c r="G27" s="152">
+      <c r="G27" s="144">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="H27" s="152">
+      <c r="H27" s="144">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
@@ -2940,7 +2995,7 @@
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="175" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="21">
@@ -2953,24 +3008,24 @@
         <f t="shared" ref="E28:E36" si="2">C28*D28</f>
         <v>22500</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="152">
+      <c r="G28" s="144">
         <f>E28</f>
         <v>22500</v>
       </c>
-      <c r="H28" s="152">
+      <c r="H28" s="144">
         <v>0</v>
       </c>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B29" s="174"/>
+      <c r="B29" s="175"/>
       <c r="C29" s="21">
         <v>5500</v>
       </c>
@@ -2981,25 +3036,25 @@
         <f t="shared" si="2"/>
         <v>5500</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="152">
+      <c r="G29" s="144">
         <f>E29</f>
         <v>5500</v>
       </c>
-      <c r="H29" s="152">
+      <c r="H29" s="144">
         <v>0</v>
       </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="174"/>
+      <c r="B30" s="175"/>
       <c r="C30" s="21">
         <v>1850</v>
       </c>
@@ -3010,25 +3065,25 @@
         <f t="shared" si="2"/>
         <v>1850</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="152">
+      <c r="G30" s="144">
         <v>0</v>
       </c>
-      <c r="H30" s="152">
+      <c r="H30" s="144">
         <f>E30</f>
         <v>1850</v>
       </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="174"/>
+      <c r="B31" s="175"/>
       <c r="C31" s="21">
         <v>1850</v>
       </c>
@@ -3039,11 +3094,11 @@
         <f>C31*D31</f>
         <v>3700</v>
       </c>
-      <c r="G31" s="152">
+      <c r="G31" s="144">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="H31" s="152">
+      <c r="H31" s="144">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
@@ -3055,7 +3110,7 @@
       <c r="A32" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="174"/>
+      <c r="B32" s="175"/>
       <c r="C32" s="21">
         <v>1850</v>
       </c>
@@ -3066,11 +3121,11 @@
         <f>C32*D32</f>
         <v>3700</v>
       </c>
-      <c r="G32" s="152">
+      <c r="G32" s="144">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="H32" s="152">
+      <c r="H32" s="144">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
@@ -3081,7 +3136,7 @@
       <c r="A33" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B33" s="174"/>
+      <c r="B33" s="175"/>
       <c r="C33" s="21">
         <v>2000</v>
       </c>
@@ -3092,11 +3147,11 @@
         <f>C33*D33</f>
         <v>4000</v>
       </c>
-      <c r="G33" s="152">
+      <c r="G33" s="144">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="H33" s="152">
+      <c r="H33" s="144">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
@@ -3106,22 +3161,22 @@
       <c r="A34" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B34" s="174"/>
+      <c r="B34" s="175"/>
       <c r="C34" s="21">
         <v>2000</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
       </c>
-      <c r="E34" s="78">
+      <c r="E34" s="74">
         <f>C34*D34</f>
         <v>6000</v>
       </c>
-      <c r="G34" s="152">
+      <c r="G34" s="144">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="H34" s="152">
+      <c r="H34" s="144">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
@@ -3131,7 +3186,7 @@
       <c r="A35" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="174"/>
+      <c r="B35" s="175"/>
       <c r="C35" s="21">
         <v>7500</v>
       </c>
@@ -3142,11 +3197,11 @@
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="G35" s="152">
+      <c r="G35" s="144">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="H35" s="152">
+      <c r="H35" s="144">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
@@ -3156,7 +3211,7 @@
       <c r="A36" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B36" s="116" t="s">
+      <c r="B36" s="108" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="21">
@@ -3169,11 +3224,11 @@
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="G36" s="152">
+      <c r="G36" s="144">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="H36" s="152">
+      <c r="H36" s="144">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
@@ -3183,7 +3238,7 @@
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="196" t="s">
+      <c r="B37" s="197" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="11">
@@ -3196,11 +3251,11 @@
         <f>D37*C37</f>
         <v>26500</v>
       </c>
-      <c r="G37" s="152">
+      <c r="G37" s="144">
         <f t="shared" si="1"/>
         <v>13250</v>
       </c>
-      <c r="H37" s="152">
+      <c r="H37" s="144">
         <f t="shared" si="1"/>
         <v>13250</v>
       </c>
@@ -3212,7 +3267,7 @@
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="196"/>
+      <c r="B38" s="197"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -3223,21 +3278,21 @@
         <f>D38*C38</f>
         <v>1500</v>
       </c>
-      <c r="G38" s="152">
+      <c r="G38" s="144">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="H38" s="152">
+      <c r="H38" s="144">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="197"/>
+      <c r="B39" s="198"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -3248,24 +3303,24 @@
         <f>D39*C39</f>
         <v>300</v>
       </c>
-      <c r="G39" s="152">
+      <c r="G39" s="144">
         <f>$E39/2</f>
         <v>150</v>
       </c>
-      <c r="H39" s="152">
+      <c r="H39" s="144">
         <f>$E39/2</f>
         <v>150</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L39" s="151">
+      <c r="L39" s="143">
         <f>$L$2</f>
-        <v>41</v>
-      </c>
-      <c r="M39" s="48">
+        <v>44</v>
+      </c>
+      <c r="M39" s="44">
         <f>E40/2</f>
-        <v>150950</v>
+        <v>150725</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3279,26 +3334,26 @@
       <c r="D40" s="2"/>
       <c r="E40" s="4">
         <f>SUM(E23:E39)</f>
-        <v>301900</v>
-      </c>
-      <c r="G40" s="153">
+        <v>301450</v>
+      </c>
+      <c r="G40" s="145">
         <f>SUM(G23:G39)</f>
-        <v>170925</v>
-      </c>
-      <c r="H40" s="153">
+        <v>172275</v>
+      </c>
+      <c r="H40" s="145">
         <f>SUM(H23:H39)</f>
-        <v>130975</v>
+        <v>129175</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L40" s="151">
+      <c r="L40" s="143">
         <f>$L$3</f>
-        <v>37</v>
-      </c>
-      <c r="M40" s="48">
+        <v>33</v>
+      </c>
+      <c r="M40" s="44">
         <f>E40/2</f>
-        <v>150950</v>
+        <v>150725</v>
       </c>
       <c r="N40" s="1"/>
     </row>
@@ -3311,19 +3366,19 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A42" s="171" t="s">
+      <c r="A42" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="172"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="173"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="174"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="191" t="s">
+      <c r="B43" s="192" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="11"/>
@@ -3336,7 +3391,7 @@
       <c r="A44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="191"/>
+      <c r="B44" s="192"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -3347,7 +3402,7 @@
       <c r="A45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="191"/>
+      <c r="B45" s="192"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -3358,7 +3413,7 @@
       <c r="A46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="191"/>
+      <c r="B46" s="192"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -3369,7 +3424,7 @@
       <c r="A47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="191"/>
+      <c r="B47" s="192"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -3380,7 +3435,7 @@
       <c r="A48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="191"/>
+      <c r="B48" s="192"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -3391,20 +3446,20 @@
       <c r="A49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="191"/>
+      <c r="B49" s="192"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="78">
+      <c r="E49" s="74">
         <v>123000</v>
       </c>
       <c r="K49" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="151">
+      <c r="L49" s="143">
         <f>$L$2</f>
-        <v>41</v>
-      </c>
-      <c r="M49" s="48">
+        <v>44</v>
+      </c>
+      <c r="M49" s="44">
         <f>E50/2</f>
         <v>474950</v>
       </c>
@@ -3413,106 +3468,106 @@
       <c r="A50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="192"/>
+      <c r="B50" s="193"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
         <f>SUM(E43:E49)</f>
         <v>949900</v>
       </c>
-      <c r="G50" s="153">
+      <c r="G50" s="145">
         <f>E50/2</f>
         <v>474950</v>
       </c>
-      <c r="H50" s="153">
+      <c r="H50" s="145">
         <f>E50/2</f>
         <v>474950</v>
       </c>
       <c r="K50" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L50" s="151">
+      <c r="L50" s="143">
         <f>$L$3</f>
-        <v>37</v>
-      </c>
-      <c r="M50" s="48">
+        <v>33</v>
+      </c>
+      <c r="M50" s="44">
         <f>E50/2</f>
         <v>474950</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A52" s="171" t="s">
+      <c r="A52" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="172"/>
-      <c r="C52" s="172"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="173"/>
+      <c r="B52" s="173"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="173"/>
+      <c r="E52" s="174"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="31">
+      <c r="C53" s="163">
         <v>1200</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="161">
         <f>L1</f>
-        <v>78</v>
-      </c>
-      <c r="E53" s="31">
+        <v>77</v>
+      </c>
+      <c r="E53" s="163">
         <f>C53*D53</f>
-        <v>93600</v>
-      </c>
-      <c r="G53" s="152">
+        <v>92400</v>
+      </c>
+      <c r="G53" s="144">
         <f>$G$2*$C53</f>
-        <v>49200</v>
-      </c>
-      <c r="H53" s="152">
+        <v>52800</v>
+      </c>
+      <c r="H53" s="144">
         <f>$H$2*$C53</f>
-        <v>44400</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="163">
         <v>1550</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="161">
         <f>L1</f>
-        <v>78</v>
-      </c>
-      <c r="E54" s="31">
+        <v>77</v>
+      </c>
+      <c r="E54" s="163">
         <f>C54*D54</f>
-        <v>120900</v>
-      </c>
-      <c r="G54" s="152">
+        <v>119350</v>
+      </c>
+      <c r="G54" s="144">
         <f>$G$2*$C54</f>
-        <v>63550</v>
-      </c>
-      <c r="H54" s="152">
+        <v>68200</v>
+      </c>
+      <c r="H54" s="144">
         <f>$H$2*$C54</f>
-        <v>57350</v>
+        <v>51150</v>
       </c>
       <c r="K54" s="15" t="s">
         <v>4</v>
       </c>
       <c r="L54" s="5">
         <f>$L$2</f>
-        <v>41</v>
-      </c>
-      <c r="M54" s="48">
+        <v>44</v>
+      </c>
+      <c r="M54" s="44">
         <f>$E$55/2+($L$54*$C$53)+($L$54*$C$54)</f>
-        <v>222750</v>
+        <v>231000</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3527,11 +3582,11 @@
       <c r="E55" s="3">
         <v>220000</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="144">
         <f>E55/2</f>
         <v>110000</v>
       </c>
-      <c r="H55" s="152">
+      <c r="H55" s="144">
         <f>E55/2</f>
         <v>110000</v>
       </c>
@@ -3540,11 +3595,11 @@
       </c>
       <c r="L55" s="5">
         <f>$L$3</f>
-        <v>37</v>
-      </c>
-      <c r="M55" s="48">
+        <v>33</v>
+      </c>
+      <c r="M55" s="44">
         <f>$E$55/2+($L$55*$C$53)+($L$55*$C$54)</f>
-        <v>211750</v>
+        <v>200750</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3558,15 +3613,15 @@
       <c r="D56" s="15"/>
       <c r="E56" s="4">
         <f>SUM(E53:E55)</f>
-        <v>434500</v>
-      </c>
-      <c r="G56" s="153">
+        <v>431750</v>
+      </c>
+      <c r="G56" s="145">
         <f>SUM(G53:G55)</f>
-        <v>222750</v>
-      </c>
-      <c r="H56" s="153">
+        <v>231000</v>
+      </c>
+      <c r="H56" s="145">
         <f>SUM(H53:H55)</f>
-        <v>211750</v>
+        <v>200750</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1">
@@ -3577,31 +3632,31 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A58" s="171" t="s">
+      <c r="A58" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="172"/>
-      <c r="C58" s="172"/>
-      <c r="D58" s="172"/>
-      <c r="E58" s="173"/>
+      <c r="B58" s="173"/>
+      <c r="C58" s="173"/>
+      <c r="D58" s="173"/>
+      <c r="E58" s="174"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="196" t="s">
+      <c r="B59" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="132"/>
       <c r="E59" s="3">
         <v>30000</v>
       </c>
-      <c r="G59" s="152">
+      <c r="G59" s="144">
         <f>E59</f>
         <v>30000</v>
       </c>
-      <c r="H59" s="152">
+      <c r="H59" s="144">
         <v>0</v>
       </c>
     </row>
@@ -3609,17 +3664,17 @@
       <c r="A60" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="196"/>
-      <c r="C60" s="139"/>
-      <c r="D60" s="139"/>
+      <c r="B60" s="197"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="131"/>
       <c r="E60" s="3">
         <v>190000</v>
       </c>
-      <c r="G60" s="152">
+      <c r="G60" s="144">
         <f>E60</f>
         <v>190000</v>
       </c>
-      <c r="H60" s="152">
+      <c r="H60" s="144">
         <v>0</v>
       </c>
     </row>
@@ -3627,236 +3682,236 @@
       <c r="A61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="196"/>
-      <c r="C61" s="139"/>
-      <c r="D61" s="139"/>
-      <c r="E61" s="78">
+      <c r="B61" s="197"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="74">
         <v>149970</v>
       </c>
-      <c r="G61" s="152">
+      <c r="G61" s="144">
         <v>0</v>
       </c>
-      <c r="H61" s="152">
+      <c r="H61" s="144">
         <f>E61</f>
         <v>149970</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="161" t="s">
         <v>206</v>
       </c>
-      <c r="B62" s="196"/>
+      <c r="B62" s="197"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="135">
+      <c r="E62" s="127">
         <v>53970</v>
       </c>
-      <c r="G62" s="152"/>
-      <c r="H62" s="152"/>
+      <c r="G62" s="144"/>
+      <c r="H62" s="144"/>
       <c r="K62" s="15" t="s">
         <v>4</v>
       </c>
       <c r="L62" s="5">
         <f>$L$2</f>
-        <v>41</v>
-      </c>
-      <c r="M62" s="48">
+        <v>44</v>
+      </c>
+      <c r="M62" s="44">
         <f>SUM(E62:E64)/2</f>
         <v>144535</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="B63" s="196"/>
+      <c r="B63" s="197"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="135"/>
-      <c r="G63" s="152"/>
-      <c r="H63" s="152"/>
+      <c r="E63" s="127"/>
+      <c r="G63" s="144"/>
+      <c r="H63" s="144"/>
       <c r="K63" s="15" t="s">
         <v>2</v>
       </c>
       <c r="L63" s="5">
         <f>$L$3</f>
-        <v>37</v>
-      </c>
-      <c r="M63" s="48">
+        <v>33</v>
+      </c>
+      <c r="M63" s="44">
         <f>SUM(E62:E64)/2</f>
         <v>144535</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="196"/>
+      <c r="B64" s="197"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="78">
+      <c r="E64" s="74">
         <v>235100</v>
       </c>
-      <c r="G64" s="152">
+      <c r="G64" s="144">
         <f>$E$64/2</f>
         <v>117550</v>
       </c>
-      <c r="H64" s="152">
+      <c r="H64" s="144">
         <f>$E$64/2</f>
         <v>117550</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="121" t="s">
+      <c r="A65" s="130" t="s">
         <v>209</v>
       </c>
-      <c r="B65" s="196"/>
+      <c r="B65" s="197"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="22">
+      <c r="E65" s="74">
         <v>25000</v>
       </c>
-      <c r="G65" s="152"/>
-      <c r="H65" s="152"/>
+      <c r="G65" s="144"/>
+      <c r="H65" s="144"/>
       <c r="K65" s="18"/>
-      <c r="L65" s="64"/>
-      <c r="M65" s="65"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="61"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="196"/>
+      <c r="B66" s="197"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="78">
+      <c r="E66" s="74">
         <v>24900</v>
       </c>
-      <c r="G66" s="152">
+      <c r="G66" s="144">
         <f>E66</f>
         <v>24900</v>
       </c>
-      <c r="H66" s="152">
+      <c r="H66" s="144">
         <v>0</v>
       </c>
       <c r="K66" s="18"/>
-      <c r="L66" s="64"/>
-      <c r="M66" s="65"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="61"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="130" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="196"/>
+      <c r="B67" s="197"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="78">
+      <c r="E67" s="74">
         <v>41910</v>
       </c>
-      <c r="G67" s="152">
+      <c r="G67" s="144">
         <f>$E$67/2</f>
         <v>20955</v>
       </c>
-      <c r="H67" s="152">
+      <c r="H67" s="144">
         <f>$E$67/2</f>
         <v>20955</v>
       </c>
       <c r="K67" s="18"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="65"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="61"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="121" t="s">
+      <c r="A68" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="196"/>
+      <c r="B68" s="197"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="22"/>
-      <c r="G68" s="152"/>
-      <c r="H68" s="152"/>
+      <c r="G68" s="144"/>
+      <c r="H68" s="144"/>
       <c r="K68" s="18"/>
-      <c r="L68" s="64"/>
-      <c r="M68" s="65"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="61"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="121" t="s">
+      <c r="A69" s="130" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="196"/>
+      <c r="B69" s="197"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="22"/>
-      <c r="G69" s="152"/>
-      <c r="H69" s="152"/>
+      <c r="G69" s="144"/>
+      <c r="H69" s="144"/>
       <c r="K69" s="18"/>
-      <c r="L69" s="64"/>
-      <c r="M69" s="65"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="61"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="196"/>
+      <c r="B70" s="197"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="78">
+      <c r="E70" s="74">
         <v>80000</v>
       </c>
-      <c r="G70" s="152">
+      <c r="G70" s="144">
         <f>$E$70/2</f>
         <v>40000</v>
       </c>
-      <c r="H70" s="152">
+      <c r="H70" s="144">
         <f>$E$70/2</f>
         <v>40000</v>
       </c>
       <c r="K70" s="18"/>
-      <c r="L70" s="64"/>
-      <c r="M70" s="65"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="61"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="196"/>
+      <c r="B71" s="197"/>
       <c r="C71" s="2">
         <v>59</v>
       </c>
       <c r="D71" s="2">
         <v>50</v>
       </c>
-      <c r="E71" s="78">
+      <c r="E71" s="74">
         <f>C71*D71</f>
         <v>2950</v>
       </c>
-      <c r="G71" s="152">
+      <c r="G71" s="144">
         <f>$E71/2</f>
         <v>1475</v>
       </c>
-      <c r="H71" s="152">
+      <c r="H71" s="144">
         <f>$E71/2</f>
         <v>1475</v>
       </c>
       <c r="K71" s="18"/>
-      <c r="L71" s="64"/>
-      <c r="M71" s="65"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="61"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B72" s="196"/>
+      <c r="B72" s="197"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="21">
         <v>6925</v>
       </c>
-      <c r="G72" s="152">
+      <c r="G72" s="144">
         <f>$E72/2</f>
         <v>3462.5</v>
       </c>
-      <c r="H72" s="152">
+      <c r="H72" s="144">
         <f>$E72/2</f>
         <v>3462.5</v>
       </c>
@@ -3865,18 +3920,18 @@
       <c r="A73" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B73" s="196"/>
+      <c r="B73" s="197"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="78">
+      <c r="E73" s="74">
         <f>23198+4890</f>
         <v>28088</v>
       </c>
-      <c r="G73" s="152">
+      <c r="G73" s="144">
         <f>E73</f>
         <v>28088</v>
       </c>
-      <c r="H73" s="152">
+      <c r="H73" s="144">
         <v>0</v>
       </c>
     </row>
@@ -3884,22 +3939,22 @@
       <c r="A74" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B74" s="196"/>
+      <c r="B74" s="197"/>
       <c r="C74" s="2">
         <v>450</v>
       </c>
       <c r="D74" s="2">
         <v>6</v>
       </c>
-      <c r="E74" s="78">
+      <c r="E74" s="74">
         <f>C74*D74</f>
         <v>2700</v>
       </c>
-      <c r="G74" s="152">
+      <c r="G74" s="144">
         <f>$E74/2</f>
         <v>1350</v>
       </c>
-      <c r="H74" s="152">
+      <c r="H74" s="144">
         <f>$E74/2</f>
         <v>1350</v>
       </c>
@@ -3908,43 +3963,43 @@
       <c r="A75" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B75" s="196"/>
+      <c r="B75" s="197"/>
       <c r="C75" s="2">
         <v>2392</v>
       </c>
       <c r="D75" s="2">
         <v>3</v>
       </c>
-      <c r="E75" s="78">
+      <c r="E75" s="74">
         <f>C75*D75</f>
         <v>7176</v>
       </c>
-      <c r="G75" s="152">
+      <c r="G75" s="144">
         <f>$E75/2</f>
         <v>3588</v>
       </c>
-      <c r="H75" s="152">
+      <c r="H75" s="144">
         <f>$E75/2</f>
         <v>3588</v>
       </c>
-      <c r="M75" s="122"/>
+      <c r="M75" s="114"/>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B76" s="196"/>
+      <c r="B76" s="197"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="78">
+      <c r="E76" s="74">
         <f>2405+(278*3)</f>
         <v>3239</v>
       </c>
-      <c r="G76" s="152">
+      <c r="G76" s="144">
         <f>E76</f>
         <v>3239</v>
       </c>
-      <c r="H76" s="152">
+      <c r="H76" s="144">
         <v>0</v>
       </c>
     </row>
@@ -3952,18 +4007,18 @@
       <c r="A77" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B77" s="197"/>
+      <c r="B77" s="198"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="21">
         <f>950+490</f>
         <v>1440</v>
       </c>
-      <c r="G77" s="152">
+      <c r="G77" s="144">
         <f>$E$77/2</f>
         <v>720</v>
       </c>
-      <c r="H77" s="152">
+      <c r="H77" s="144">
         <f>$E$77/2</f>
         <v>720</v>
       </c>
@@ -3974,11 +4029,11 @@
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
-      <c r="G78" s="153">
+      <c r="G78" s="145">
         <f>SUM(G59:G77)</f>
         <v>465327.5</v>
       </c>
-      <c r="H78" s="153">
+      <c r="H78" s="145">
         <f>SUM(H59:H77)</f>
         <v>339070.5</v>
       </c>
@@ -3994,41 +4049,41 @@
       <c r="D79" s="26"/>
       <c r="E79" s="27">
         <f>E14+E20+E40+E50+E56</f>
-        <v>4016200.2564102565</v>
-      </c>
-      <c r="G79" s="153">
+        <v>3992082.012987013</v>
+      </c>
+      <c r="G79" s="145">
         <f>G14+G18+G40+G50+G56+G78</f>
-        <v>2485126.282051282</v>
-      </c>
-      <c r="H79" s="153">
+        <v>2570440.9415584416</v>
+      </c>
+      <c r="H79" s="145">
         <f>H56+H50+H40+H18+H14+H78</f>
-        <v>2346871.974358974</v>
-      </c>
-      <c r="K79" s="201" t="s">
+        <v>2237289.0714285714</v>
+      </c>
+      <c r="K79" s="202" t="s">
         <v>81</v>
       </c>
-      <c r="L79" s="202"/>
-      <c r="M79" s="203"/>
+      <c r="L79" s="203"/>
+      <c r="M79" s="204"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="K80" s="50" t="s">
+      <c r="K80" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="189">
+      <c r="L80" s="190">
         <f>M2+L18+M39+M49+M54+M62</f>
-        <v>2160680.185897436</v>
-      </c>
-      <c r="M80" s="198"/>
+        <v>2252135.8571428573</v>
+      </c>
+      <c r="M80" s="199"/>
     </row>
     <row r="81" spans="11:13" ht="15.75" thickBot="1">
-      <c r="K81" s="51" t="s">
+      <c r="K81" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="L81" s="199">
+      <c r="L81" s="200">
         <f>M3+L19+M40+M50+M55+M63</f>
-        <v>2179412.096153846</v>
-      </c>
-      <c r="M81" s="200"/>
+        <v>2062087.3571428573</v>
+      </c>
+      <c r="M81" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -4068,10 +4123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4087,89 +4142,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="182" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="207"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="209"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="210"/>
-      <c r="B2" s="195" t="s">
+      <c r="A2" s="212"/>
+      <c r="B2" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="211" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="195" t="s">
+      <c r="E2" s="196" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="195"/>
-      <c r="G2" s="213" t="s">
+      <c r="F2" s="196"/>
+      <c r="G2" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="208" t="s">
+      <c r="H2" s="210" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="210"/>
-      <c r="B3" s="151" t="s">
+      <c r="A3" s="212"/>
+      <c r="B3" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="151" t="s">
+      <c r="D3" s="214"/>
+      <c r="E3" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="151" t="s">
+      <c r="F3" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="214"/>
-      <c r="H3" s="208"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="210"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="206" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="144">
+      <c r="B5" s="136">
         <v>14150</v>
       </c>
-      <c r="C5" s="144">
+      <c r="C5" s="136">
         <v>14150</v>
       </c>
-      <c r="D5" s="144">
+      <c r="D5" s="136">
         <f t="shared" ref="D5:D19" si="0">SUM(B5:C5)</f>
         <v>28300</v>
       </c>
-      <c r="E5" s="169" t="s">
+      <c r="E5" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="209"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="145">
+      <c r="F5" s="211"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="137">
         <f t="shared" ref="H5:H20" si="1">D5</f>
         <v>28300</v>
       </c>
@@ -4178,24 +4233,24 @@
       <c r="A6" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="144">
+      <c r="B6" s="136">
         <f>235100/2</f>
         <v>117550</v>
       </c>
-      <c r="C6" s="144">
+      <c r="C6" s="136">
         <f>235100/2</f>
         <v>117550</v>
       </c>
-      <c r="D6" s="144">
+      <c r="D6" s="136">
         <f t="shared" si="0"/>
         <v>235100</v>
       </c>
-      <c r="E6" s="169" t="s">
+      <c r="E6" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="209"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="145">
+      <c r="F6" s="211"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="137">
         <f t="shared" si="1"/>
         <v>235100</v>
       </c>
@@ -4204,24 +4259,24 @@
       <c r="A7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="142">
+      <c r="B7" s="134">
         <f>20193/2</f>
         <v>10096.5</v>
       </c>
-      <c r="C7" s="142">
+      <c r="C7" s="134">
         <f>20193/2</f>
         <v>10096.5</v>
       </c>
-      <c r="D7" s="142">
+      <c r="D7" s="134">
         <f t="shared" si="0"/>
         <v>20193</v>
       </c>
-      <c r="E7" s="169" t="s">
+      <c r="E7" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="209"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="145">
+      <c r="F7" s="211"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="137">
         <f t="shared" si="1"/>
         <v>20193</v>
       </c>
@@ -4230,50 +4285,50 @@
       <c r="A8" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="142">
+      <c r="B8" s="134">
         <f>41910/2</f>
         <v>20955</v>
       </c>
-      <c r="C8" s="142">
+      <c r="C8" s="134">
         <f>41910/2</f>
         <v>20955</v>
       </c>
-      <c r="D8" s="147">
+      <c r="D8" s="139">
         <f t="shared" si="0"/>
         <v>41910</v>
       </c>
-      <c r="E8" s="169" t="s">
+      <c r="E8" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="209"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="145">
+      <c r="F8" s="211"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="137">
         <f t="shared" si="1"/>
         <v>41910</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="142">
+      <c r="B9" s="134">
         <f>6925/2</f>
         <v>3462.5</v>
       </c>
-      <c r="C9" s="142">
+      <c r="C9" s="134">
         <f>6925/2</f>
         <v>3462.5</v>
       </c>
-      <c r="D9" s="147">
+      <c r="D9" s="139">
         <f t="shared" si="0"/>
         <v>6925</v>
       </c>
-      <c r="E9" s="169" t="s">
+      <c r="E9" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="209"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="145">
+      <c r="F9" s="211"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="137">
         <f t="shared" si="1"/>
         <v>6925</v>
       </c>
@@ -4282,46 +4337,46 @@
       <c r="A10" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B10" s="142">
+      <c r="B10" s="134">
         <v>720</v>
       </c>
-      <c r="C10" s="142">
+      <c r="C10" s="134">
         <v>720</v>
       </c>
-      <c r="D10" s="147">
+      <c r="D10" s="139">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="E10" s="169" t="s">
+      <c r="E10" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="209"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="145">
+      <c r="F10" s="211"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="137">
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="142">
+      <c r="B11" s="134">
         <v>2500</v>
       </c>
-      <c r="C11" s="143">
+      <c r="C11" s="135">
         <v>0</v>
       </c>
-      <c r="D11" s="147">
+      <c r="D11" s="139">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E11" s="169" t="s">
+      <c r="E11" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="209"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="145">
+      <c r="F11" s="211"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="137">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
@@ -4330,22 +4385,22 @@
       <c r="A12" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="142">
+      <c r="B12" s="134">
         <v>1500</v>
       </c>
-      <c r="C12" s="143">
+      <c r="C12" s="135">
         <v>0</v>
       </c>
-      <c r="D12" s="147">
+      <c r="D12" s="139">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E12" s="169" t="s">
+      <c r="E12" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="209"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="145">
+      <c r="F12" s="211"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="137">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
@@ -4354,22 +4409,22 @@
       <c r="A13" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="142">
+      <c r="B13" s="134">
         <v>14995</v>
       </c>
-      <c r="C13" s="143">
+      <c r="C13" s="135">
         <v>0</v>
       </c>
-      <c r="D13" s="147">
+      <c r="D13" s="139">
         <f t="shared" si="0"/>
         <v>14995</v>
       </c>
-      <c r="E13" s="218" t="s">
+      <c r="E13" s="220" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="219"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="145">
+      <c r="F13" s="221"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="137">
         <f t="shared" si="1"/>
         <v>14995</v>
       </c>
@@ -4378,22 +4433,22 @@
       <c r="A14" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="142">
+      <c r="B14" s="134">
         <v>24900</v>
       </c>
-      <c r="C14" s="148">
+      <c r="C14" s="140">
         <v>0</v>
       </c>
-      <c r="D14" s="147">
+      <c r="D14" s="139">
         <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="E14" s="169" t="s">
+      <c r="E14" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="209"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="145">
+      <c r="F14" s="211"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="137">
         <f t="shared" si="1"/>
         <v>24900</v>
       </c>
@@ -4402,22 +4457,22 @@
       <c r="A15" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="142">
+      <c r="B15" s="134">
         <v>28088</v>
       </c>
-      <c r="C15" s="148">
+      <c r="C15" s="140">
         <v>0</v>
       </c>
-      <c r="D15" s="147">
+      <c r="D15" s="139">
         <f t="shared" si="0"/>
         <v>28088</v>
       </c>
-      <c r="E15" s="169" t="s">
+      <c r="E15" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="209"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="145">
+      <c r="F15" s="211"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="137">
         <f t="shared" si="1"/>
         <v>28088</v>
       </c>
@@ -4426,936 +4481,1001 @@
       <c r="A16" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="142">
+      <c r="B16" s="134">
         <v>3239</v>
       </c>
-      <c r="C16" s="148">
+      <c r="C16" s="140">
         <v>0</v>
       </c>
-      <c r="D16" s="147">
+      <c r="D16" s="139">
         <f t="shared" si="0"/>
         <v>3239</v>
       </c>
-      <c r="E16" s="169" t="s">
+      <c r="E16" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="209"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="145">
+      <c r="F16" s="211"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="137">
         <f t="shared" si="1"/>
         <v>3239</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="142">
+      <c r="B17" s="134">
         <v>2700</v>
       </c>
-      <c r="C17" s="148">
+      <c r="C17" s="140">
         <v>0</v>
       </c>
-      <c r="D17" s="147">
+      <c r="D17" s="139">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="E17" s="169" t="s">
+      <c r="E17" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="209"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="145">
+      <c r="F17" s="211"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="137">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="90" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="142">
+      <c r="B18" s="134">
         <f>7176/2</f>
         <v>3588</v>
       </c>
-      <c r="C18" s="142">
+      <c r="C18" s="134">
         <f>7176/2</f>
         <v>3588</v>
       </c>
-      <c r="D18" s="147">
+      <c r="D18" s="139">
         <f t="shared" si="0"/>
         <v>7176</v>
       </c>
-      <c r="E18" s="169" t="s">
+      <c r="E18" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="209"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="145">
+      <c r="F18" s="211"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="137">
         <f t="shared" si="1"/>
         <v>7176</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="142">
+      <c r="B19" s="134">
         <v>1475</v>
       </c>
-      <c r="C19" s="142">
+      <c r="C19" s="134">
         <v>1475</v>
       </c>
-      <c r="D19" s="142">
+      <c r="D19" s="134">
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
-      <c r="E19" s="221" t="s">
+      <c r="E19" s="223" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="221"/>
-      <c r="G19" s="221"/>
-      <c r="H19" s="145">
+      <c r="F19" s="223"/>
+      <c r="G19" s="223"/>
+      <c r="H19" s="137">
         <f t="shared" si="1"/>
         <v>2950</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="143">
+      <c r="B20" s="135">
         <v>0</v>
       </c>
-      <c r="C20" s="142">
+      <c r="C20" s="134">
         <v>149970</v>
       </c>
-      <c r="D20" s="142">
+      <c r="D20" s="134">
         <f>C20</f>
         <v>149970</v>
       </c>
-      <c r="E20" s="221" t="s">
+      <c r="E20" s="223" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="221"/>
-      <c r="G20" s="221"/>
-      <c r="H20" s="145">
+      <c r="F20" s="223"/>
+      <c r="G20" s="223"/>
+      <c r="H20" s="137">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B21" s="143">
+      <c r="B21" s="135">
         <v>0</v>
       </c>
-      <c r="C21" s="142">
+      <c r="C21" s="134">
         <v>31980</v>
       </c>
-      <c r="D21" s="142">
+      <c r="D21" s="134">
         <f>C21</f>
         <v>31980</v>
       </c>
-      <c r="E21" s="204" t="s">
+      <c r="E21" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="204"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="145">
+      <c r="F21" s="205"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="137">
         <f>D21</f>
         <v>31980</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="143">
+      <c r="B22" s="135">
         <v>0</v>
       </c>
-      <c r="C22" s="142">
+      <c r="C22" s="134">
         <v>38700</v>
       </c>
-      <c r="D22" s="142">
-        <f t="shared" ref="D22:D25" si="2">C22</f>
+      <c r="D22" s="134">
+        <f t="shared" ref="D22:D24" si="2">C22</f>
         <v>38700</v>
       </c>
-      <c r="E22" s="204" t="s">
+      <c r="E22" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="204"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="145">
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="137">
         <f t="shared" ref="H22:H26" si="3">D22</f>
         <v>38700</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="143">
+      <c r="B23" s="135">
         <v>0</v>
       </c>
-      <c r="C23" s="142">
+      <c r="C23" s="134">
         <v>19990</v>
       </c>
-      <c r="D23" s="142">
+      <c r="D23" s="134">
         <f t="shared" si="2"/>
         <v>19990</v>
       </c>
-      <c r="E23" s="204" t="s">
+      <c r="E23" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
-      <c r="H23" s="145">
+      <c r="F23" s="205"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="137">
         <f t="shared" si="3"/>
         <v>19990</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="163" t="s">
+    <row r="24" spans="1:8" ht="30">
+      <c r="A24" s="149" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="162">
+      <c r="B24" s="148">
         <v>0</v>
       </c>
-      <c r="C24" s="161">
+      <c r="C24" s="147">
         <v>13480</v>
       </c>
-      <c r="D24" s="142">
+      <c r="D24" s="134">
         <f t="shared" si="2"/>
         <v>13480</v>
       </c>
-      <c r="E24" s="204" t="s">
+      <c r="E24" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="204"/>
-      <c r="G24" s="204"/>
-      <c r="H24" s="145">
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="137">
         <f t="shared" si="3"/>
         <v>13480</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="159" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="153" t="s">
         <v>214</v>
       </c>
-      <c r="B25" s="156"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="154">
-        <f t="shared" si="2"/>
+      <c r="B25" s="147">
+        <v>13500</v>
+      </c>
+      <c r="C25" s="147">
+        <v>13500</v>
+      </c>
+      <c r="D25" s="147">
+        <f t="shared" ref="D25:D31" si="4">SUM(B25:C25)</f>
+        <v>27000</v>
+      </c>
+      <c r="E25" s="205" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="137">
+        <f t="shared" si="3"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="153" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="134">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="148">
         <v>0</v>
       </c>
-      <c r="E25" s="204" t="s">
+      <c r="D26" s="134">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="E26" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="155">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="167" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" s="142">
-        <v>1000</v>
-      </c>
-      <c r="C26" s="162">
-        <v>0</v>
-      </c>
-      <c r="D26" s="142">
-        <f>SUM(B26:C26)</f>
-        <v>1000</v>
-      </c>
-      <c r="E26" s="204" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="168">
+      <c r="F26" s="205"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="154">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30.75" thickBot="1">
-      <c r="A27" s="165" t="s">
+    <row r="27" spans="1:8" ht="30">
+      <c r="A27" s="160" t="s">
         <v>223</v>
       </c>
-      <c r="B27" s="145">
+      <c r="B27" s="137">
         <v>2040</v>
       </c>
-      <c r="C27" s="143">
+      <c r="C27" s="135">
         <v>0</v>
       </c>
-      <c r="D27" s="145">
-        <f>SUM(B27:C27)</f>
+      <c r="D27" s="137">
+        <f t="shared" si="4"/>
         <v>2040</v>
       </c>
-      <c r="E27" s="204" t="s">
+      <c r="E27" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="204"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="168">
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="154">
         <f>D27</f>
         <v>2040</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A28" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="146">
-        <f>SUM(B5:B27)</f>
-        <v>252959</v>
-      </c>
-      <c r="C28" s="146">
-        <f>SUM(C5:C27)</f>
-        <v>426117</v>
-      </c>
-      <c r="D28" s="146">
-        <f>SUM(D5:D27)</f>
-        <v>679076</v>
-      </c>
-      <c r="E28" s="215" t="s">
+    <row r="28" spans="1:8" ht="30">
+      <c r="A28" s="151" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="148">
+        <v>0</v>
+      </c>
+      <c r="C28" s="154">
+        <v>51400</v>
+      </c>
+      <c r="D28" s="159">
+        <f t="shared" si="4"/>
+        <v>51400</v>
+      </c>
+      <c r="E28" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="216"/>
-      <c r="G28" s="217"/>
-      <c r="H28" s="141">
-        <f>SUM(H5:H27)</f>
-        <v>679076</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="131"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="132"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="205" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="205"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="205"/>
-      <c r="E30" s="205"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="154">
+        <f>D28</f>
+        <v>51400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="160" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="137">
+        <v>14988</v>
+      </c>
+      <c r="C29" s="137">
+        <v>14988</v>
+      </c>
+      <c r="D29" s="137">
+        <f t="shared" si="4"/>
+        <v>29976</v>
+      </c>
+      <c r="E29" s="205" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="205"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="137">
+        <f>D29</f>
+        <v>29976</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="160" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" s="137">
+        <v>1599</v>
+      </c>
+      <c r="C30" s="137">
+        <v>1599</v>
+      </c>
+      <c r="D30" s="137">
+        <f t="shared" si="4"/>
+        <v>3198</v>
+      </c>
+      <c r="E30" s="205" t="s">
+        <v>69</v>
+      </c>
       <c r="F30" s="205"/>
       <c r="G30" s="205"/>
-      <c r="H30" s="205"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="2" t="s">
+      <c r="H30" s="137">
+        <f>D30</f>
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A31" s="151" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" s="137">
+        <v>1490</v>
+      </c>
+      <c r="C31" s="154">
+        <v>1490</v>
+      </c>
+      <c r="D31" s="154">
+        <f t="shared" si="4"/>
+        <v>2980</v>
+      </c>
+      <c r="E31" s="207" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="207"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="154">
+        <f>D31</f>
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A32" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="138">
+        <f>SUM(B5:B31)</f>
+        <v>284536</v>
+      </c>
+      <c r="C32" s="138">
+        <f>SUM(C5:C31)</f>
+        <v>509094</v>
+      </c>
+      <c r="D32" s="138">
+        <f>SUM(D5:D31)</f>
+        <v>793630</v>
+      </c>
+      <c r="E32" s="217" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="218"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="133">
+        <f>SUM(H5:H31)</f>
+        <v>793630</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="123"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="124"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="206" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="206"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="206"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="206"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="142">
+      <c r="B35" s="134">
         <v>15000</v>
       </c>
-      <c r="C31" s="143">
+      <c r="C35" s="135">
         <v>0</v>
       </c>
-      <c r="D31" s="142">
-        <f t="shared" ref="D31:D40" si="4">SUM(B31:C31)</f>
+      <c r="D35" s="134">
+        <f t="shared" ref="D35:D44" si="5">SUM(B35:C35)</f>
         <v>15000</v>
       </c>
-      <c r="E31" s="120">
+      <c r="E35" s="112">
         <v>15000</v>
       </c>
-      <c r="F31" s="124">
+      <c r="F35" s="116">
         <v>0</v>
       </c>
-      <c r="G31" s="120">
-        <f t="shared" ref="G31:G44" si="5">SUM(E31:F31)</f>
+      <c r="G35" s="112">
+        <f t="shared" ref="G35:G47" si="6">SUM(E35:F35)</f>
         <v>15000</v>
       </c>
-      <c r="H31" s="120">
-        <f>D31+G31</f>
+      <c r="H35" s="112">
+        <f>D35+G35</f>
         <v>30000</v>
       </c>
-      <c r="I31" s="134" t="s">
+      <c r="I35" s="126" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2" t="s">
+    <row r="36" spans="1:9">
+      <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="142">
+      <c r="B36" s="134">
         <v>100000</v>
       </c>
-      <c r="C32" s="143">
+      <c r="C36" s="135">
         <v>0</v>
       </c>
-      <c r="D32" s="142">
-        <f t="shared" si="4"/>
+      <c r="D36" s="134">
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="E32" s="120">
+      <c r="E36" s="112">
         <v>190000</v>
       </c>
-      <c r="F32" s="124">
+      <c r="F36" s="116">
         <v>0</v>
       </c>
-      <c r="G32" s="120">
+      <c r="G36" s="112">
+        <f t="shared" si="6"/>
+        <v>190000</v>
+      </c>
+      <c r="H36" s="115">
+        <f>D36+G36</f>
+        <v>290000</v>
+      </c>
+      <c r="I36" s="126" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="136">
+        <v>100000</v>
+      </c>
+      <c r="C37" s="136">
+        <v>100000</v>
+      </c>
+      <c r="D37" s="136">
         <f t="shared" si="5"/>
-        <v>190000</v>
-      </c>
-      <c r="H32" s="123">
-        <f>D32+G32</f>
-        <v>290000</v>
-      </c>
-      <c r="I32" s="134" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="144">
-        <v>100000</v>
-      </c>
-      <c r="C33" s="144">
-        <v>100000</v>
-      </c>
-      <c r="D33" s="144">
-        <f t="shared" si="4"/>
         <v>200000</v>
       </c>
-      <c r="E33" s="120">
-        <f>TERVEZETT!M2-B33</f>
-        <v>989995.18589743599</v>
-      </c>
-      <c r="F33" s="120">
-        <f>TERVEZETT!M3-C33</f>
-        <v>898827.09615384613</v>
-      </c>
-      <c r="G33" s="123">
+      <c r="E37" s="112">
+        <f>TERVEZETT!M2-B37</f>
+        <v>1073425.8571428573</v>
+      </c>
+      <c r="F37" s="112">
+        <f>TERVEZETT!M3-C37</f>
+        <v>792727.35714285716</v>
+      </c>
+      <c r="G37" s="115">
+        <f t="shared" si="6"/>
+        <v>1866153.2142857146</v>
+      </c>
+      <c r="H37" s="115">
+        <f>D37+G37</f>
+        <v>2066153.2142857146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" s="116">
+        <v>0</v>
+      </c>
+      <c r="C38" s="116">
+        <v>0</v>
+      </c>
+      <c r="D38" s="116">
         <f t="shared" si="5"/>
-        <v>1888822.282051282</v>
-      </c>
-      <c r="H33" s="123">
-        <f>D33+G33</f>
-        <v>2088822.282051282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="124">
         <v>0</v>
       </c>
-      <c r="C34" s="124">
-        <v>0</v>
-      </c>
-      <c r="D34" s="124">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="120">
+      <c r="E38" s="112">
         <f>TERVEZETT!L18</f>
         <v>77500</v>
       </c>
-      <c r="F34" s="120">
+      <c r="F38" s="112">
         <f>TERVEZETT!L19</f>
         <v>198400</v>
       </c>
-      <c r="G34" s="120">
-        <f t="shared" si="5"/>
+      <c r="G38" s="112">
+        <f t="shared" si="6"/>
         <v>275900</v>
       </c>
-      <c r="H34" s="120">
-        <f>G34</f>
+      <c r="H38" s="112">
+        <f>G38</f>
         <v>275900</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="90" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="160"/>
-      <c r="C35" s="144">
+      <c r="B39" s="146"/>
+      <c r="C39" s="136">
         <v>220000</v>
       </c>
-      <c r="D35" s="144">
-        <f t="shared" si="4"/>
-        <v>220000</v>
-      </c>
-      <c r="E35" s="120">
-        <f>TERVEZETT!M54</f>
-        <v>222750</v>
-      </c>
-      <c r="F35" s="120">
-        <f>TERVEZETT!M55</f>
-        <v>211750</v>
-      </c>
-      <c r="G35" s="120">
-        <f t="shared" si="5"/>
-        <v>434500</v>
-      </c>
-      <c r="H35" s="120">
-        <f>G35</f>
-        <v>434500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B36" s="144">
-        <v>5000</v>
-      </c>
-      <c r="C36" s="144">
-        <v>5000</v>
-      </c>
-      <c r="D36" s="144">
-        <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="E36" s="119">
-        <v>20000</v>
-      </c>
-      <c r="F36" s="119">
-        <v>20000</v>
-      </c>
-      <c r="G36" s="119">
-        <f t="shared" si="5"/>
-        <v>40000</v>
-      </c>
-      <c r="H36" s="123">
-        <f t="shared" ref="H36:H44" si="6">D36+G36</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B37" s="144">
-        <v>10000</v>
-      </c>
-      <c r="C37" s="144">
-        <v>10000</v>
-      </c>
-      <c r="D37" s="144">
-        <f t="shared" si="4"/>
-        <v>20000</v>
-      </c>
-      <c r="E37" s="119">
-        <v>110000</v>
-      </c>
-      <c r="F37" s="119">
-        <v>110000</v>
-      </c>
-      <c r="G37" s="119">
+      <c r="D39" s="136">
         <f t="shared" si="5"/>
         <v>220000</v>
       </c>
-      <c r="H37" s="123">
+      <c r="E39" s="112">
+        <f>TERVEZETT!M54</f>
+        <v>231000</v>
+      </c>
+      <c r="F39" s="112">
+        <f>TERVEZETT!M55</f>
+        <v>200750</v>
+      </c>
+      <c r="G39" s="112">
         <f t="shared" si="6"/>
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B38" s="144">
-        <v>15000</v>
-      </c>
-      <c r="C38" s="144">
-        <v>15000</v>
-      </c>
-      <c r="D38" s="144">
-        <f t="shared" si="4"/>
-        <v>30000</v>
-      </c>
-      <c r="E38" s="119">
-        <v>45000</v>
-      </c>
-      <c r="F38" s="119">
-        <v>45000</v>
-      </c>
-      <c r="G38" s="119">
+        <v>431750</v>
+      </c>
+      <c r="H39" s="112">
+        <f>G39</f>
+        <v>431750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="136">
+        <v>5000</v>
+      </c>
+      <c r="C40" s="136">
+        <v>5000</v>
+      </c>
+      <c r="D40" s="136">
         <f t="shared" si="5"/>
-        <v>90000</v>
-      </c>
-      <c r="H38" s="119">
+        <v>10000</v>
+      </c>
+      <c r="E40" s="111">
+        <v>20000</v>
+      </c>
+      <c r="F40" s="111">
+        <v>20000</v>
+      </c>
+      <c r="G40" s="111">
         <f t="shared" si="6"/>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" s="144">
-        <v>15000</v>
-      </c>
-      <c r="C39" s="144">
-        <v>15000</v>
-      </c>
-      <c r="D39" s="144">
-        <f t="shared" si="4"/>
-        <v>30000</v>
-      </c>
-      <c r="E39" s="119">
-        <v>69950</v>
-      </c>
-      <c r="F39" s="119">
-        <v>69950</v>
-      </c>
-      <c r="G39" s="119">
+        <v>40000</v>
+      </c>
+      <c r="H40" s="115">
+        <f t="shared" ref="H40:H47" si="7">D40+G40</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="136">
+        <v>10000</v>
+      </c>
+      <c r="C41" s="136">
+        <v>10000</v>
+      </c>
+      <c r="D41" s="136">
         <f t="shared" si="5"/>
-        <v>139900</v>
-      </c>
-      <c r="H39" s="123">
-        <f t="shared" si="6"/>
-        <v>169900</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="138" t="s">
-        <v>205</v>
-      </c>
-      <c r="B40" s="144">
-        <v>10000</v>
-      </c>
-      <c r="C40" s="144">
-        <v>10000</v>
-      </c>
-      <c r="D40" s="144">
-        <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-      <c r="E40" s="119">
-        <v>100000</v>
-      </c>
-      <c r="F40" s="119">
-        <v>100000</v>
-      </c>
-      <c r="G40" s="119">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-      <c r="H40" s="119">
+      <c r="E41" s="111">
+        <v>110000</v>
+      </c>
+      <c r="F41" s="111">
+        <v>110000</v>
+      </c>
+      <c r="G41" s="111">
         <f t="shared" si="6"/>
         <v>220000</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="9" t="s">
+      <c r="H41" s="115">
+        <f t="shared" si="7"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="136">
+        <v>15000</v>
+      </c>
+      <c r="C42" s="136">
+        <v>15000</v>
+      </c>
+      <c r="D42" s="136">
+        <f t="shared" si="5"/>
+        <v>30000</v>
+      </c>
+      <c r="E42" s="111">
+        <v>45000</v>
+      </c>
+      <c r="F42" s="111">
+        <v>45000</v>
+      </c>
+      <c r="G42" s="111">
+        <f t="shared" si="6"/>
+        <v>90000</v>
+      </c>
+      <c r="H42" s="111">
+        <f t="shared" si="7"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="136">
+        <v>15000</v>
+      </c>
+      <c r="C43" s="136">
+        <v>15000</v>
+      </c>
+      <c r="D43" s="136">
+        <f t="shared" si="5"/>
+        <v>30000</v>
+      </c>
+      <c r="E43" s="111">
+        <v>69950</v>
+      </c>
+      <c r="F43" s="111">
+        <v>69950</v>
+      </c>
+      <c r="G43" s="111">
+        <f t="shared" si="6"/>
+        <v>139900</v>
+      </c>
+      <c r="H43" s="115">
+        <f t="shared" si="7"/>
+        <v>169900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="136">
+        <v>10000</v>
+      </c>
+      <c r="C44" s="136">
+        <v>10000</v>
+      </c>
+      <c r="D44" s="136">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="E44" s="111">
+        <v>100000</v>
+      </c>
+      <c r="F44" s="111">
+        <v>100000</v>
+      </c>
+      <c r="G44" s="111">
+        <f t="shared" si="6"/>
+        <v>200000</v>
+      </c>
+      <c r="H44" s="111">
+        <f t="shared" si="7"/>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="142">
+      <c r="B45" s="134">
         <v>7500</v>
       </c>
-      <c r="C41" s="142">
+      <c r="C45" s="134">
         <v>7500</v>
       </c>
-      <c r="D41" s="142">
+      <c r="D45" s="134">
         <v>15000</v>
       </c>
-      <c r="E41" s="120">
+      <c r="E45" s="112">
         <v>32500</v>
       </c>
-      <c r="F41" s="120">
+      <c r="F45" s="112">
         <v>32500</v>
       </c>
-      <c r="G41" s="120">
-        <f t="shared" si="5"/>
+      <c r="G45" s="112">
+        <f t="shared" si="6"/>
         <v>65000</v>
       </c>
-      <c r="H41" s="120">
+      <c r="H45" s="112">
+        <f t="shared" si="7"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="137">
+        <f>D46/2</f>
+        <v>70000</v>
+      </c>
+      <c r="C46" s="137">
+        <f>D46/2</f>
+        <v>70000</v>
+      </c>
+      <c r="D46" s="137">
+        <v>140000</v>
+      </c>
+      <c r="E46" s="110">
+        <v>66800</v>
+      </c>
+      <c r="F46" s="110">
+        <v>66800</v>
+      </c>
+      <c r="G46" s="110">
         <f t="shared" si="6"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="145">
-        <f>D42/2</f>
-        <v>70000</v>
-      </c>
-      <c r="C42" s="145">
-        <f>D42/2</f>
-        <v>70000</v>
-      </c>
-      <c r="D42" s="145">
-        <v>140000</v>
-      </c>
-      <c r="E42" s="118">
-        <v>66800</v>
-      </c>
-      <c r="F42" s="118">
-        <v>66800</v>
-      </c>
-      <c r="G42" s="118">
-        <f t="shared" si="5"/>
         <v>133600</v>
       </c>
-      <c r="H42" s="118">
-        <f t="shared" si="6"/>
+      <c r="H46" s="110">
+        <f t="shared" si="7"/>
         <v>273600</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="158" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="124">
+    <row r="47" spans="1:9">
+      <c r="A47" s="130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="116">
         <v>0</v>
       </c>
-      <c r="C43" s="124">
+      <c r="C47" s="116">
         <v>0</v>
       </c>
-      <c r="D43" s="124">
-        <f>SUM(B43:C43)</f>
+      <c r="D47" s="116">
+        <f>SUM(B47:C47)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="118">
-        <v>13500</v>
-      </c>
-      <c r="F43" s="118">
-        <v>13500</v>
-      </c>
-      <c r="G43" s="118">
-        <f t="shared" si="5"/>
-        <v>27000</v>
-      </c>
-      <c r="H43" s="118">
-        <f t="shared" si="6"/>
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="124">
-        <v>0</v>
-      </c>
-      <c r="C44" s="124">
-        <v>0</v>
-      </c>
-      <c r="D44" s="124">
-        <f>SUM(B44:C44)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="118">
+      <c r="E47" s="110">
         <v>61500</v>
       </c>
-      <c r="F44" s="118">
+      <c r="F47" s="110">
         <v>61500</v>
       </c>
-      <c r="G44" s="118">
-        <f t="shared" si="5"/>
-        <v>123000</v>
-      </c>
-      <c r="H44" s="118">
+      <c r="G47" s="110">
         <f t="shared" si="6"/>
         <v>123000</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="121" t="s">
+      <c r="H47" s="110">
+        <f t="shared" si="7"/>
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="B45" s="145">
+      <c r="B48" s="137">
         <v>20000</v>
       </c>
-      <c r="C45" s="145"/>
-      <c r="D45" s="145">
-        <f>SUM(B45:C45)</f>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137">
+        <f>SUM(B48:C48)</f>
         <v>20000</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="121" t="s">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="113" t="s">
         <v>207</v>
       </c>
-      <c r="B46" s="124"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A47" s="150" t="s">
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A50" s="142" t="s">
         <v>208</v>
       </c>
-      <c r="B47" s="126"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="136">
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="128">
         <v>15000</v>
       </c>
-      <c r="F47" s="136">
+      <c r="F50" s="128">
         <v>10000</v>
       </c>
-      <c r="G47" s="136">
-        <f>SUM(E47:F47)</f>
+      <c r="G50" s="128">
+        <f>SUM(E50:F50)</f>
         <v>25000</v>
       </c>
-      <c r="H47" s="136">
-        <f>G47</f>
+      <c r="H50" s="128">
+        <f>G50</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A48" s="137" t="s">
+    <row r="51" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A51" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="128">
-        <f t="shared" ref="B48:H48" si="7">SUM(B31:B47)</f>
+      <c r="B51" s="120">
+        <f t="shared" ref="B51:H51" si="8">SUM(B35:B50)</f>
         <v>367500</v>
       </c>
-      <c r="C48" s="128">
-        <f t="shared" si="7"/>
+      <c r="C51" s="120">
+        <f t="shared" si="8"/>
         <v>452500</v>
       </c>
-      <c r="D48" s="128">
-        <f t="shared" si="7"/>
+      <c r="D51" s="120">
+        <f t="shared" si="8"/>
         <v>820000</v>
       </c>
-      <c r="E48" s="128">
-        <f t="shared" si="7"/>
-        <v>2029495.185897436</v>
-      </c>
-      <c r="F48" s="128">
-        <f t="shared" si="7"/>
-        <v>1838227.096153846</v>
-      </c>
-      <c r="G48" s="128">
-        <f t="shared" si="7"/>
-        <v>3867722.282051282</v>
-      </c>
-      <c r="H48" s="129">
-        <f t="shared" si="7"/>
-        <v>4447722.282051282</v>
-      </c>
-      <c r="I48" s="149"/>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="205" t="s">
+      <c r="E51" s="120">
+        <f t="shared" si="8"/>
+        <v>2107675.8571428573</v>
+      </c>
+      <c r="F51" s="120">
+        <f t="shared" si="8"/>
+        <v>1707627.3571428573</v>
+      </c>
+      <c r="G51" s="120">
+        <f t="shared" si="8"/>
+        <v>3815303.2142857146</v>
+      </c>
+      <c r="H51" s="121">
+        <f t="shared" si="8"/>
+        <v>4395303.2142857146</v>
+      </c>
+      <c r="I51" s="141"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="206" t="s">
         <v>210</v>
       </c>
-      <c r="B50" s="205"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="205"/>
-      <c r="E50" s="205"/>
-      <c r="F50" s="205"/>
-      <c r="G50" s="205"/>
-      <c r="H50" s="205"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="2" t="s">
+      <c r="B53" s="206"/>
+      <c r="C53" s="206"/>
+      <c r="D53" s="206"/>
+      <c r="E53" s="206"/>
+      <c r="F53" s="206"/>
+      <c r="G53" s="206"/>
+      <c r="H53" s="206"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B51" s="145">
+      <c r="B54" s="137">
         <v>91480</v>
       </c>
-      <c r="C51" s="145">
+      <c r="C54" s="137">
         <v>91480</v>
       </c>
-      <c r="D51" s="145">
-        <f>SUM(B51:C51)</f>
+      <c r="D54" s="137">
+        <f>SUM(B54:C54)</f>
         <v>182960</v>
       </c>
-      <c r="E51" s="204" t="s">
+      <c r="E54" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="F51" s="204"/>
-      <c r="G51" s="204"/>
-      <c r="H51" s="145">
-        <f>D51+G51</f>
+      <c r="F54" s="205"/>
+      <c r="G54" s="205"/>
+      <c r="H54" s="137">
+        <f>D54+G54</f>
         <v>182960</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="2" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B52" s="145">
+      <c r="B55" s="137">
         <v>2075</v>
       </c>
-      <c r="C52" s="164">
+      <c r="C55" s="150">
         <v>0</v>
       </c>
-      <c r="D52" s="145">
-        <f>SUM(B52:C52)</f>
+      <c r="D55" s="137">
+        <f>SUM(B55:C55)</f>
         <v>2075</v>
       </c>
-      <c r="E52" s="204" t="s">
+      <c r="E55" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="F52" s="204"/>
-      <c r="G52" s="204"/>
-      <c r="H52" s="145">
-        <f>D52+G52</f>
+      <c r="F55" s="205"/>
+      <c r="G55" s="205"/>
+      <c r="H55" s="137">
+        <f>D55+G55</f>
         <v>2075</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="9" t="s">
+    <row r="56" spans="1:10">
+      <c r="A56" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="166">
-        <f>(B52+B27+B26)/2</f>
-        <v>2557.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
+    <row r="59" spans="1:10">
+      <c r="B59" s="152"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
         <v>17</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" t="s">
         <v>225</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="40">
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E32:G32"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E14:G14"/>
@@ -5380,16 +5500,20 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A34:H34"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5421,23 +5545,23 @@
       <c r="B1">
         <v>15</v>
       </c>
-      <c r="C1" s="33">
+      <c r="C1" s="29">
         <f>B1*H18</f>
         <v>85935</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5448,23 +5572,23 @@
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="29">
         <f>B2*I4</f>
         <v>59980</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="31">
         <v>0.7</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="32">
         <v>2698</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="33">
         <f>H2/G2</f>
         <v>3854.2857142857147</v>
       </c>
@@ -5476,43 +5600,43 @@
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="29">
         <f>B3*I10</f>
         <v>28990</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="31">
         <v>0.7</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="32">
         <v>2698</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="33">
         <f t="shared" ref="I3:I24" si="0">H3/G3</f>
         <v>3854.2857142857147</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75">
-      <c r="C4" s="33">
+      <c r="C4" s="29">
         <f>SUM(C1:C3)</f>
         <v>174905</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="34">
         <v>0.5</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="35">
         <v>2999</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="36">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
@@ -5521,333 +5645,333 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="E5" s="35"/>
-      <c r="F5" s="35" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="31">
         <v>0.5</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="32">
         <v>2999</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="33">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="C6" s="41">
+      <c r="C6" s="37">
         <f>C4/93</f>
         <v>1880.6989247311828</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="31">
         <v>0.5</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="32">
         <v>2999</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="33">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="E7" s="35"/>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="31">
         <v>0.5</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="32">
         <v>2999</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="33">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
-      <c r="E8" s="35"/>
-      <c r="F8" s="35" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="31">
         <v>0.5</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="32">
         <v>2999</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="33">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="E9" s="35"/>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="31">
         <v>0.5</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="32">
         <v>2999</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="33">
         <f t="shared" si="0"/>
         <v>5998</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75">
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="34">
         <v>0.5</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="35">
         <v>2899</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="36">
         <f t="shared" si="0"/>
         <v>5798</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75">
-      <c r="E11" s="35"/>
-      <c r="F11" s="35" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="31">
         <v>0.7</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="32">
         <v>4332</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="33">
         <f t="shared" si="0"/>
         <v>6188.5714285714294</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75">
-      <c r="E12" s="35"/>
-      <c r="F12" s="35" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="35">
-        <v>1</v>
-      </c>
-      <c r="H12" s="36">
+      <c r="G12" s="31">
+        <v>1</v>
+      </c>
+      <c r="H12" s="32">
         <v>5719</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="33">
         <f t="shared" si="0"/>
         <v>5719</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75">
-      <c r="E13" s="35"/>
-      <c r="F13" s="35" t="s">
+      <c r="E13" s="31"/>
+      <c r="F13" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="31">
         <v>0.5</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="32">
         <v>3099</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="33">
         <f t="shared" si="0"/>
         <v>6198</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="E14" s="35"/>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="35">
-        <v>1</v>
-      </c>
-      <c r="H14" s="36">
+      <c r="G14" s="31">
+        <v>1</v>
+      </c>
+      <c r="H14" s="32">
         <v>5734</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="33">
         <f t="shared" si="0"/>
         <v>5734</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="31">
         <v>0.5</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="32">
         <v>1999</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="38">
         <f t="shared" si="0"/>
         <v>3998</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75">
-      <c r="E16" s="35"/>
-      <c r="F16" s="35" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="31">
         <v>0.7</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="32">
         <v>2999</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="33">
         <f t="shared" si="0"/>
         <v>4284.2857142857147</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="15.75">
-      <c r="E17" s="35"/>
-      <c r="F17" s="35" t="s">
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="35">
-        <v>1</v>
-      </c>
-      <c r="H17" s="36">
+      <c r="G17" s="31">
+        <v>1</v>
+      </c>
+      <c r="H17" s="32">
         <v>4259</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="33">
         <f t="shared" si="0"/>
         <v>4259</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="16.5" thickBot="1">
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="43">
-        <v>1</v>
-      </c>
-      <c r="H18" s="44">
+      <c r="G18" s="39">
+        <v>1</v>
+      </c>
+      <c r="H18" s="40">
         <v>5729</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="41">
         <f t="shared" si="0"/>
         <v>5729</v>
       </c>
     </row>
     <row r="19" spans="5:9" ht="16.5" thickTop="1">
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="42">
         <v>0.5</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="43">
         <v>5526</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="43">
         <f t="shared" si="0"/>
         <v>11052</v>
       </c>
     </row>
     <row r="20" spans="5:9" ht="15.75">
-      <c r="E20" s="35"/>
-      <c r="F20" s="35" t="s">
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="31">
         <v>0.5</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="33">
         <v>5479</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="33">
         <f t="shared" si="0"/>
         <v>10958</v>
       </c>
     </row>
     <row r="21" spans="5:9" ht="15.75">
-      <c r="E21" s="35"/>
-      <c r="F21" s="35" t="s">
+      <c r="E21" s="31"/>
+      <c r="F21" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="31">
         <v>0.5</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="33">
         <v>4580</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="33">
         <f t="shared" si="0"/>
         <v>9160</v>
       </c>
     </row>
     <row r="22" spans="5:9" ht="15.75">
-      <c r="E22" s="35"/>
-      <c r="F22" s="35" t="s">
+      <c r="E22" s="31"/>
+      <c r="F22" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="31">
         <v>0.5</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="33">
         <v>5999</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="33">
         <f t="shared" si="0"/>
         <v>11998</v>
       </c>
     </row>
     <row r="23" spans="5:9" ht="15.75">
-      <c r="E23" s="35"/>
-      <c r="F23" s="35" t="s">
+      <c r="E23" s="31"/>
+      <c r="F23" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="31">
         <v>0.5</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="33">
         <v>7075</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="33">
         <f t="shared" si="0"/>
         <v>14150</v>
       </c>
     </row>
     <row r="24" spans="5:9" ht="15.75">
-      <c r="E24" s="35"/>
-      <c r="F24" s="35" t="s">
+      <c r="E24" s="31"/>
+      <c r="F24" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="31">
         <v>0.5</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="33">
         <v>5500</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="33">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
@@ -5859,667 +5983,801 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="229" t="s">
+    <row r="1" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="232" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="195" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="196" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="233" t="s">
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="236" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="234" t="s">
+      <c r="I1" s="224" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="237" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="235"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="181" t="s">
+      <c r="L1" s="238"/>
+      <c r="M1" s="239"/>
+      <c r="N1" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="206"/>
-      <c r="O1" s="206"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="222" t="s">
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="225" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="231"/>
-      <c r="B2" s="231"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="79" t="s">
+      <c r="S1" s="224" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="234"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="233"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="79" t="s">
+      <c r="H2" s="236"/>
+      <c r="I2" s="224"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="79" t="s">
+      <c r="O2" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="79" t="s">
+      <c r="P2" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="79" t="s">
+      <c r="Q2" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="223"/>
-    </row>
-    <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="59" t="s">
+      <c r="R2" s="226"/>
+      <c r="S2" s="224"/>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="57">
+      <c r="B3" s="56"/>
+      <c r="C3" s="53">
         <v>8</v>
       </c>
-      <c r="D3" s="81">
-        <v>1</v>
-      </c>
-      <c r="E3" s="81">
-        <v>1</v>
-      </c>
-      <c r="F3" s="81">
-        <v>1</v>
-      </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83">
-        <v>1</v>
-      </c>
-      <c r="J3" s="84" t="s">
+      <c r="D3" s="77">
+        <v>1</v>
+      </c>
+      <c r="E3" s="77">
+        <v>1</v>
+      </c>
+      <c r="F3" s="77">
+        <v>1</v>
+      </c>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79">
+        <v>1</v>
+      </c>
+      <c r="I3" s="165">
+        <v>3</v>
+      </c>
+      <c r="K3" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="85">
+      <c r="L3" s="49"/>
+      <c r="M3" s="81">
         <v>5</v>
       </c>
-      <c r="M3" s="224">
+      <c r="N3" s="227">
         <v>2</v>
       </c>
-      <c r="N3" s="86">
+      <c r="O3" s="82">
         <v>2</v>
       </c>
-      <c r="O3" s="86">
-        <v>1</v>
-      </c>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="59" t="s">
+      <c r="P3" s="82">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="79">
+        <v>1</v>
+      </c>
+      <c r="S3" s="165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="57">
+      <c r="B4" s="56"/>
+      <c r="C4" s="53">
         <v>6</v>
       </c>
-      <c r="D4" s="108">
-        <v>1</v>
-      </c>
-      <c r="E4" s="81">
-        <v>1</v>
-      </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83">
+      <c r="D4" s="77">
+        <v>1</v>
+      </c>
+      <c r="E4" s="77">
+        <v>1</v>
+      </c>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79">
         <v>0</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="165">
+        <v>2</v>
+      </c>
+      <c r="K4" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="85">
+      <c r="L4" s="52"/>
+      <c r="M4" s="81">
         <v>3</v>
       </c>
-      <c r="M4" s="225"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="83">
+      <c r="N4" s="228"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="79">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="77" t="s">
+      <c r="S4" s="165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="90">
-        <v>1</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81">
-        <v>1</v>
-      </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83">
-        <v>1</v>
-      </c>
-      <c r="J5" s="56" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="86">
+        <v>1</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77">
+        <v>1</v>
+      </c>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79">
+        <v>1</v>
+      </c>
+      <c r="I5" s="165">
+        <v>1</v>
+      </c>
+      <c r="K5" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="85">
-        <v>12</v>
-      </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="91">
+      <c r="L5" s="52"/>
+      <c r="M5" s="81">
+        <v>8</v>
+      </c>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84">
         <v>6</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="P5" s="84"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="79">
+        <v>0</v>
+      </c>
+      <c r="S5" s="165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="90">
+      <c r="C6" s="86">
         <v>2</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="81">
-        <v>1</v>
-      </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83">
+      <c r="D6" s="48"/>
+      <c r="E6" s="77">
+        <v>1</v>
+      </c>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79">
         <v>2</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="I6" s="165">
+        <v>1</v>
+      </c>
+      <c r="K6" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="85">
+      <c r="L6" s="52"/>
+      <c r="M6" s="81">
         <v>4</v>
       </c>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88">
+      <c r="N6" s="84"/>
+      <c r="O6" s="84">
         <v>2</v>
       </c>
-      <c r="O6" s="88"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="83">
+      <c r="P6" s="84"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="79">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="S6" s="165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="19" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="90">
+      <c r="C7" s="86">
         <v>2</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="81">
-        <v>1</v>
-      </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83">
+      <c r="D7" s="48"/>
+      <c r="E7" s="77">
+        <v>1</v>
+      </c>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="79">
         <v>2</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="I7" s="165">
+        <v>1</v>
+      </c>
+      <c r="K7" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="85">
+      <c r="L7" s="52"/>
+      <c r="M7" s="81">
         <v>6</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88">
+      <c r="N7" s="84"/>
+      <c r="O7" s="84">
         <v>3</v>
       </c>
-      <c r="O7" s="88"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="83">
+      <c r="P7" s="84"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="79">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="57" t="s">
+      <c r="S7" s="165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53">
         <v>2</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="81">
-        <v>1</v>
-      </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83">
+      <c r="D8" s="48"/>
+      <c r="E8" s="77">
+        <v>1</v>
+      </c>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79">
         <v>2</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="I8" s="165">
+        <v>1</v>
+      </c>
+      <c r="K8" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="56"/>
-      <c r="L8" s="85">
+      <c r="L8" s="52"/>
+      <c r="M8" s="81">
         <v>2</v>
       </c>
-      <c r="M8" s="88"/>
-      <c r="N8" s="91">
-        <v>1</v>
-      </c>
-      <c r="O8" s="88"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="83">
+      <c r="N8" s="84"/>
+      <c r="O8" s="87">
+        <v>1</v>
+      </c>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="79">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="59" t="s">
+      <c r="S8" s="165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="57">
-        <v>1</v>
-      </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81">
-        <v>1</v>
-      </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83">
-        <v>1</v>
-      </c>
-      <c r="J9" s="56" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="53">
+        <v>1</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77">
+        <v>1</v>
+      </c>
+      <c r="G9" s="78"/>
+      <c r="H9" s="79">
+        <v>1</v>
+      </c>
+      <c r="I9" s="165">
+        <v>1</v>
+      </c>
+      <c r="K9" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="85">
-        <v>1</v>
-      </c>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="91">
-        <v>1</v>
-      </c>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="83">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <f>+-2</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="92" t="s">
+      <c r="L9" s="52"/>
+      <c r="M9" s="81">
+        <v>1</v>
+      </c>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="79">
+        <v>2</v>
+      </c>
+      <c r="S9" s="165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="57">
+      <c r="B10" s="56"/>
+      <c r="C10" s="53">
         <v>2</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="81">
-        <v>1</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83">
+      <c r="D10" s="48"/>
+      <c r="E10" s="77">
+        <v>1</v>
+      </c>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="79">
         <v>2</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="I10" s="165">
+        <v>1</v>
+      </c>
+      <c r="K10" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="85">
+      <c r="L10" s="52"/>
+      <c r="M10" s="81">
         <v>4</v>
       </c>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88">
+      <c r="N10" s="84"/>
+      <c r="O10" s="84">
         <v>2</v>
       </c>
-      <c r="O10" s="88"/>
-      <c r="P10" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="83">
+      <c r="P10" s="84"/>
+      <c r="Q10" s="85">
+        <v>1</v>
+      </c>
+      <c r="R10" s="79">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="92" t="s">
+      <c r="S10" s="165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="57">
-        <v>1</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="93">
-        <v>1</v>
-      </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="94"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="92" t="s">
+      <c r="B11" s="56"/>
+      <c r="C11" s="53">
+        <v>1</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="89">
+        <v>1</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="79">
+        <v>1</v>
+      </c>
+      <c r="I11" s="165">
+        <v>1</v>
+      </c>
+      <c r="R11" s="90"/>
+      <c r="S11" s="166"/>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="57">
+      <c r="B12" s="56"/>
+      <c r="C12" s="53">
         <v>2</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="81">
-        <v>1</v>
-      </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83">
+      <c r="D12" s="48"/>
+      <c r="E12" s="77">
+        <v>1</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="I12" s="165">
+        <v>1</v>
+      </c>
+      <c r="S12" s="166"/>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="90">
+      <c r="C13" s="86">
         <v>0</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81">
-        <v>1</v>
-      </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83">
+      <c r="D13" s="48"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77">
+        <v>1</v>
+      </c>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="I13" s="165">
+        <v>0</v>
+      </c>
+      <c r="S13" s="166"/>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="90">
+      <c r="C14" s="86">
         <v>2</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="89">
-        <v>1</v>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="83">
+      <c r="D14" s="48"/>
+      <c r="E14" s="85">
+        <v>1</v>
+      </c>
+      <c r="F14" s="85"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="79">
+        <v>0</v>
+      </c>
+      <c r="I14" s="165">
+        <v>1</v>
+      </c>
+      <c r="R14" s="90"/>
+      <c r="S14" s="166"/>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="86">
+        <v>1</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="84">
+        <v>1</v>
+      </c>
+      <c r="G15" s="91"/>
+      <c r="H15" s="79">
+        <v>1</v>
+      </c>
+      <c r="I15" s="165">
+        <v>1</v>
+      </c>
+      <c r="R15" s="90"/>
+      <c r="S15" s="166"/>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="93"/>
+      <c r="C16" s="86">
+        <v>1</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="84">
+        <v>1</v>
+      </c>
+      <c r="G16" s="91"/>
+      <c r="H16" s="79">
+        <v>1</v>
+      </c>
+      <c r="I16" s="165">
+        <v>1</v>
+      </c>
+      <c r="R16" s="90"/>
+      <c r="S16" s="166"/>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="94">
         <v>2</v>
       </c>
-      <c r="Q14" s="94"/>
-    </row>
-    <row r="15" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="90">
-        <v>1</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="88">
-        <v>1</v>
-      </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="94"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="90">
-        <v>1</v>
-      </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="88">
-        <v>1</v>
-      </c>
-      <c r="G16" s="95"/>
-      <c r="H16" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="94"/>
-    </row>
-    <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="98">
+      <c r="D17" s="95"/>
+      <c r="E17" s="84">
+        <v>1</v>
+      </c>
+      <c r="F17" s="85"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="79">
+        <v>0</v>
+      </c>
+      <c r="I17" s="165">
+        <v>0</v>
+      </c>
+      <c r="S17" s="166"/>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="94">
         <v>2</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="88">
-        <v>1</v>
-      </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="83">
+      <c r="D18" s="95"/>
+      <c r="E18" s="85">
+        <v>1</v>
+      </c>
+      <c r="F18" s="85"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="79">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="98">
+      <c r="I18" s="165">
+        <v>1</v>
+      </c>
+      <c r="R18" s="90"/>
+      <c r="S18" s="166"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="94">
         <v>2</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="89">
-        <v>1</v>
-      </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="83">
+      <c r="D19" s="95"/>
+      <c r="E19" s="84">
+        <v>1</v>
+      </c>
+      <c r="F19" s="85"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="79">
+        <v>0</v>
+      </c>
+      <c r="I19" s="165">
+        <v>0</v>
+      </c>
+      <c r="R19" s="90"/>
+      <c r="S19" s="166"/>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="155" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="155"/>
+      <c r="C20" s="156">
+        <v>4</v>
+      </c>
+      <c r="D20" s="95"/>
+      <c r="E20" s="85">
         <v>2</v>
       </c>
-      <c r="Q18" s="94"/>
-    </row>
-    <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="98">
+      <c r="F20" s="85"/>
+      <c r="G20" s="85">
+        <v>1</v>
+      </c>
+      <c r="H20" s="79">
+        <v>0</v>
+      </c>
+      <c r="I20" s="165">
         <v>2</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="88">
-        <v>1</v>
-      </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="83">
+      <c r="R20" s="90"/>
+      <c r="S20" s="168"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="53">
+        <v>1</v>
+      </c>
+      <c r="D21" s="95"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85">
+        <v>1</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="79">
+        <v>1</v>
+      </c>
+      <c r="I21" s="165">
+        <v>1</v>
+      </c>
+      <c r="R21" s="90"/>
+      <c r="S21" s="168"/>
+    </row>
+    <row r="22" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="53">
         <v>2</v>
       </c>
-      <c r="Q19" s="94"/>
-    </row>
-    <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="57">
-        <v>4</v>
-      </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="88">
+      <c r="D22" s="95"/>
+      <c r="E22" s="85">
+        <v>1</v>
+      </c>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="79">
         <v>2</v>
       </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="100">
-        <v>1</v>
-      </c>
-      <c r="H20" s="83">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="109"/>
-    </row>
-    <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1"/>
-    <row r="22" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="228" t="s">
+      <c r="I22" s="165">
+        <v>1</v>
+      </c>
+      <c r="R22" s="90"/>
+      <c r="S22" s="168"/>
+    </row>
+    <row r="23" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="I23" s="166"/>
+      <c r="S23" s="166"/>
+    </row>
+    <row r="24" spans="1:19" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A24" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="228"/>
-      <c r="C22" s="62">
-        <f>SUM(C3:C20)</f>
-        <v>41</v>
-      </c>
-      <c r="D22" s="61">
+      <c r="B24" s="231"/>
+      <c r="C24" s="58">
+        <f>SUM(C3:C22)</f>
+        <v>44</v>
+      </c>
+      <c r="D24" s="57">
         <f>SUM(D3:D20)</f>
         <v>2</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E24" s="57">
         <f>SUM(E3:E20)</f>
         <v>13</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F24" s="57">
         <f>SUM(F3:F20)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G24" s="57">
         <f>SUM(G5:G20)</f>
         <v>1</v>
       </c>
-      <c r="H22" s="101">
-        <f>SUM(H3:H20)</f>
-        <v>24</v>
-      </c>
-      <c r="J22" s="226" t="s">
+      <c r="H24" s="96">
+        <f>SUM(H3:H22)</f>
+        <v>21</v>
+      </c>
+      <c r="I24" s="167">
+        <f>SUM(I3:I22)</f>
+        <v>21</v>
+      </c>
+      <c r="K24" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="227"/>
-      <c r="L22" s="102">
-        <f>SUM(L3:L10)</f>
-        <v>37</v>
-      </c>
-      <c r="M22" s="103">
-        <f t="shared" ref="M22:Q22" si="0">SUM(M3:M10)</f>
+      <c r="L24" s="230"/>
+      <c r="M24" s="97">
+        <f>SUM(M3:M10)</f>
+        <v>33</v>
+      </c>
+      <c r="N24" s="98">
+        <f t="shared" ref="N24:Q24" si="0">SUM(N3:N10)</f>
         <v>2</v>
       </c>
-      <c r="N22" s="103">
+      <c r="O24" s="98">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="O22" s="103">
+      <c r="P24" s="98">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P22" s="104">
+      <c r="Q24" s="99">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="101">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" thickTop="1">
-      <c r="C23">
-        <f>C22-3</f>
-        <v>38</v>
-      </c>
-      <c r="L23">
-        <f>L22-3</f>
+      <c r="R24" s="96">
+        <f>SUM(R3:R10)</f>
+        <v>13</v>
+      </c>
+      <c r="S24" s="167">
+        <f>SUM(S3:S10)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickTop="1">
+      <c r="C25">
+        <f>C24-3</f>
+        <v>41</v>
+      </c>
+      <c r="M25">
+        <f>M24-3</f>
+        <v>30</v>
+      </c>
+      <c r="R25" s="90"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="28" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A28" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="169">
+        <f>C24+M24</f>
+        <v>77</v>
+      </c>
+      <c r="C28" s="96">
+        <f>H24+R24</f>
         <v>34</v>
       </c>
-      <c r="Q23" s="94"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="105">
-        <f>C22+L22</f>
-        <v>78</v>
-      </c>
-      <c r="C26" s="101">
-        <f>H22+Q22</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" thickTop="1"/>
-    <row r="28" spans="1:18">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="D28" s="167">
+        <f>I24+S24</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" thickTop="1"/>
+    <row r="30" spans="1:19">
       <c r="A30" s="6"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:19">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -6528,21 +6786,21 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:19">
       <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
@@ -6555,67 +6813,93 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A22:B22"/>
+  <mergeCells count="11">
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="K24:L24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="104" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="158" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="103" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="105" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>136</v>
       </c>
@@ -6628,8 +6912,9 @@
       <c r="D3" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>137</v>
       </c>
@@ -6642,8 +6927,9 @@
       <c r="D4" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>140</v>
       </c>
@@ -6656,12 +6942,13 @@
       <c r="D5" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="103" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6670,8 +6957,11 @@
       <c r="D6" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="9" t="s">
         <v>104</v>
       </c>
@@ -6684,12 +6974,13 @@
       <c r="D7" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="106" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -6698,8 +6989,9 @@
       <c r="D8" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -6712,12 +7004,13 @@
       <c r="D9" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="238" t="s">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="241" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="107" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -6726,10 +7019,11 @@
       <c r="D10" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="239"/>
-      <c r="B11" s="115" t="s">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="242"/>
+      <c r="B11" s="107" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -6738,8 +7032,9 @@
       <c r="D11" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
         <v>165</v>
       </c>
@@ -6752,8 +7047,9 @@
       <c r="D12" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
         <v>164</v>
       </c>
@@ -6766,6 +7062,22 @@
       <c r="D13" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="244">
   <si>
     <t>TOTAL</t>
   </si>
@@ -398,9 +398,6 @@
     <t>Weblap</t>
   </si>
   <si>
-    <t>Pataki Piri</t>
-  </si>
-  <si>
     <t>Kriszti cipő</t>
   </si>
   <si>
@@ -698,9 +695,6 @@
     <t>Stóla díj (elbocsátó levélhez)</t>
   </si>
   <si>
-    <t>hajó előleg fele (110.000) és a az éttermi alkoholos pia (nem tudom még h a teljes tétel mennyi)</t>
-  </si>
-  <si>
     <t>Állás:</t>
   </si>
   <si>
@@ -735,6 +729,30 @@
   </si>
   <si>
     <t>Sütis doboz</t>
+  </si>
+  <si>
+    <t>Próbahaj</t>
+  </si>
+  <si>
+    <t>éttermi alkoholos pia</t>
+  </si>
+  <si>
+    <t>Kocsi</t>
+  </si>
+  <si>
+    <t>Mind2 hangosítás</t>
+  </si>
+  <si>
+    <t>Süteményesek (busz, étterem, grillázstorta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">szombat reggel </t>
+  </si>
+  <si>
+    <t>20/582-3257</t>
+  </si>
+  <si>
+    <t>Patakiné Pirike</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1542,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1648,7 +1666,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1795,6 +1812,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2309,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2330,13 +2359,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="174"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="177"/>
       <c r="G1" t="s">
         <v>23</v>
       </c>
@@ -2346,11 +2375,11 @@
       <c r="K1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="175">
+      <c r="L1" s="178">
         <f>L2+L3</f>
-        <v>77</v>
-      </c>
-      <c r="M1" s="175"/>
+        <v>70</v>
+      </c>
+      <c r="M1" s="178"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="11"/>
@@ -2366,22 +2395,22 @@
       </c>
       <c r="G2">
         <f>Meghívottak!C24</f>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <f>Meghívottak!M24</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="5">
         <f>Meghívottak!C24</f>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M2" s="44">
         <f>(L2-2)*M7+2*M8</f>
-        <v>1173425.8571428573</v>
+        <v>945020.73571428587</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2396,30 +2425,30 @@
       </c>
       <c r="D3" s="65">
         <f>L1</f>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E3" s="64">
         <f>C3*D3</f>
-        <v>154000</v>
-      </c>
-      <c r="G3" s="144">
+        <v>140000</v>
+      </c>
+      <c r="G3" s="143">
         <f>G2*$C$3</f>
-        <v>88000</v>
-      </c>
-      <c r="H3" s="144">
+        <v>70000</v>
+      </c>
+      <c r="H3" s="143">
         <f>H2*$C$3</f>
-        <v>66000</v>
+        <v>70000</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="5">
         <f>Meghívottak!M24</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M3" s="44">
         <f>L3*M7</f>
-        <v>892727.35714285716</v>
+        <v>962397.75000000023</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2439,11 +2468,11 @@
         <f>C4*D4</f>
         <v>12000</v>
       </c>
-      <c r="G4" s="144">
+      <c r="G4" s="143">
         <f>$E$4/2</f>
         <v>6000</v>
       </c>
-      <c r="H4" s="144">
+      <c r="H4" s="143">
         <f>$E$4/2</f>
         <v>6000</v>
       </c>
@@ -2463,19 +2492,19 @@
       </c>
       <c r="D5" s="65">
         <f>L1-2</f>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E5" s="64">
         <f>C5*D5</f>
-        <v>585000</v>
-      </c>
-      <c r="G5" s="144">
+        <v>530400</v>
+      </c>
+      <c r="G5" s="143">
         <f>(G2-2)*C5</f>
-        <v>327600</v>
-      </c>
-      <c r="H5" s="144">
+        <v>257400</v>
+      </c>
+      <c r="H5" s="143">
         <f>H2*C5</f>
-        <v>257400</v>
+        <v>273000</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2495,11 +2524,11 @@
         <f>C6*D6</f>
         <v>7800</v>
       </c>
-      <c r="G6" s="144">
+      <c r="G6" s="143">
         <f>2*C6</f>
         <v>7800</v>
       </c>
-      <c r="H6" s="144">
+      <c r="H6" s="143">
         <v>0</v>
       </c>
     </row>
@@ -2520,17 +2549,17 @@
         <f>C7*D7</f>
         <v>107300</v>
       </c>
-      <c r="G7" s="144">
+      <c r="G7" s="143">
         <f>$E$7/2</f>
         <v>53650</v>
       </c>
-      <c r="H7" s="144">
+      <c r="H7" s="143">
         <f>$E$7/2</f>
         <v>53650</v>
       </c>
       <c r="M7">
         <f>C4/L1+(C3+C5+C7/2+C8+C9+C10+C11+E13/L1)*1.1</f>
-        <v>27052.344155844155</v>
+        <v>27497.078571428578</v>
       </c>
       <c r="S7" s="8"/>
     </row>
@@ -2543,26 +2572,26 @@
       </c>
       <c r="C8" s="68">
         <f>E8/D8</f>
-        <v>1220.7792207792209</v>
+        <v>1342.8571428571429</v>
       </c>
       <c r="D8" s="65">
         <f>$L$1</f>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E8" s="64">
         <v>94000</v>
       </c>
-      <c r="G8" s="144">
+      <c r="G8" s="143">
         <f>$G$2*$C$8</f>
-        <v>53714.285714285717</v>
-      </c>
-      <c r="H8" s="144">
+        <v>47000</v>
+      </c>
+      <c r="H8" s="143">
         <f>$H$2*$C$8</f>
-        <v>40285.71428571429</v>
+        <v>47000</v>
       </c>
       <c r="M8">
         <f>C4/L1+(C3+C6+C7/2+C8+C9+E13/L1)*1.1</f>
-        <v>18613.7012987013</v>
+        <v>18808.571428571435</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2577,19 +2606,19 @@
       </c>
       <c r="D9" s="65">
         <f>$L$1</f>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E9" s="64">
         <f t="shared" ref="E9:E10" si="0">C9*D9</f>
-        <v>600600</v>
-      </c>
-      <c r="G9" s="144">
+        <v>546000</v>
+      </c>
+      <c r="G9" s="143">
         <f>$G$2*$C$9</f>
-        <v>343200</v>
-      </c>
-      <c r="H9" s="144">
+        <v>273000</v>
+      </c>
+      <c r="H9" s="143">
         <f>$H$2*$C$9</f>
-        <v>257400</v>
+        <v>273000</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2604,19 +2633,19 @@
       </c>
       <c r="D10" s="65">
         <f>$L$1-2</f>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E10" s="64">
         <f t="shared" si="0"/>
-        <v>112500</v>
-      </c>
-      <c r="G10" s="144">
+        <v>102000</v>
+      </c>
+      <c r="G10" s="143">
         <f>($G$2-2)*C10</f>
-        <v>63000</v>
-      </c>
-      <c r="H10" s="144">
+        <v>49500</v>
+      </c>
+      <c r="H10" s="143">
         <f>H2*C10</f>
-        <v>49500</v>
+        <v>52500</v>
       </c>
       <c r="M10" s="1"/>
       <c r="S10" s="8"/>
@@ -2628,23 +2657,23 @@
       <c r="B11" s="63"/>
       <c r="C11" s="68">
         <f>'Kieg. - Ital'!C4/TERVEZETT!L1</f>
-        <v>2271.4935064935066</v>
+        <v>2498.6428571428573</v>
       </c>
       <c r="D11" s="65">
         <f>$L$1-2</f>
-        <v>75</v>
-      </c>
-      <c r="E11" s="101">
+        <v>68</v>
+      </c>
+      <c r="E11" s="100">
         <f>C11*D11</f>
-        <v>170362.012987013</v>
-      </c>
-      <c r="G11" s="144">
+        <v>169907.71428571429</v>
+      </c>
+      <c r="G11" s="143">
         <f>(G2-2)*C11</f>
-        <v>95402.727272727279</v>
-      </c>
-      <c r="H11" s="144">
+        <v>82455.21428571429</v>
+      </c>
+      <c r="H11" s="143">
         <f>H2*C11</f>
-        <v>74959.285714285725</v>
+        <v>87452.5</v>
       </c>
       <c r="U11" s="1"/>
     </row>
@@ -2657,15 +2686,15 @@
       <c r="D12" s="65"/>
       <c r="E12" s="64">
         <f>(E3+E5+E6+E7+E8+E9+E13)*0.1</f>
-        <v>158020</v>
-      </c>
-      <c r="G12" s="144">
+        <v>145700</v>
+      </c>
+      <c r="G12" s="143">
         <f>SUM(G3,G5:G10)*0.1+G13*0.1</f>
-        <v>95271.42857142858</v>
-      </c>
-      <c r="H12" s="144">
+        <v>77410</v>
+      </c>
+      <c r="H12" s="143">
         <f>SUM(H3,H5:H10)*0.1+H13*0.1</f>
-        <v>73998.571428571435</v>
+        <v>78490</v>
       </c>
       <c r="U12" s="1"/>
     </row>
@@ -2686,11 +2715,11 @@
         <f>C13*D13</f>
         <v>31500</v>
       </c>
-      <c r="G13" s="144">
+      <c r="G13" s="143">
         <f>$E$13/2</f>
         <v>15750</v>
       </c>
-      <c r="H13" s="144">
+      <c r="H13" s="143">
         <f>$E$13/2</f>
         <v>15750</v>
       </c>
@@ -2702,19 +2731,19 @@
       <c r="B14" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="184"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="187"/>
       <c r="E14" s="71">
         <f>SUM(E3:E13)</f>
-        <v>2033082.012987013</v>
-      </c>
-      <c r="G14" s="145">
+        <v>1886607.7142857143</v>
+      </c>
+      <c r="G14" s="144">
         <f>SUM(G3:G13)</f>
-        <v>1149388.4415584416</v>
-      </c>
-      <c r="H14" s="145">
+        <v>939965.21428571432</v>
+      </c>
+      <c r="H14" s="144">
         <f>SUM(H3:H13)</f>
-        <v>894943.57142857148</v>
+        <v>956842.5</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -2724,11 +2753,11 @@
       <c r="B15" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="183"/>
-      <c r="D15" s="184"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="187"/>
       <c r="E15" s="64">
         <f>E14/L1</f>
-        <v>26403.662506324843</v>
+        <v>26951.538775510206</v>
       </c>
       <c r="U15" s="1"/>
     </row>
@@ -2741,52 +2770,52 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A17" s="172" t="s">
+      <c r="A17" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="174"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="177"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="185" t="s">
+      <c r="B18" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="179"/>
-      <c r="D18" s="180"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="183"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
       </c>
-      <c r="G18" s="145">
+      <c r="G18" s="144">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="H18" s="145">
+      <c r="H18" s="144">
         <f>E19</f>
         <v>198400</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="190">
+      <c r="L18" s="193">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="M18" s="191"/>
+      <c r="M18" s="194"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="186"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="181"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="184"/>
       <c r="E19" s="14">
         <f>640*310</f>
         <v>198400</v>
@@ -2794,19 +2823,19 @@
       <c r="K19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="188">
+      <c r="L19" s="191">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="M19" s="189"/>
+      <c r="M19" s="192"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="187"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="181"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="184"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2823,28 +2852,28 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="179" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="177"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="178"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="181"/>
       <c r="O22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="170">
+      <c r="P22" s="173">
         <f>L1</f>
-        <v>77</v>
-      </c>
-      <c r="Q22" s="171"/>
+        <v>70</v>
+      </c>
+      <c r="Q22" s="174"/>
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="178" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
@@ -2852,34 +2881,34 @@
       </c>
       <c r="D23" s="2">
         <f>L1+5</f>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E23" s="3">
         <f>C23*D23</f>
-        <v>36900</v>
-      </c>
-      <c r="G23" s="144">
+        <v>33750</v>
+      </c>
+      <c r="G23" s="143">
         <f>(G2+2.5)*C23</f>
-        <v>20925</v>
-      </c>
-      <c r="H23" s="144">
+        <v>16875</v>
+      </c>
+      <c r="H23" s="143">
         <f>(H2+2.5)*C23</f>
-        <v>15975</v>
+        <v>16875</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="170">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="171"/>
+      <c r="P23" s="173">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="174"/>
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="175"/>
+        <v>172</v>
+      </c>
+      <c r="B24" s="178"/>
       <c r="C24" s="21">
         <v>12000</v>
       </c>
@@ -2890,28 +2919,28 @@
         <f>C24*D24</f>
         <v>108000</v>
       </c>
-      <c r="G24" s="144">
+      <c r="G24" s="143">
         <f>C24*5</f>
         <v>60000</v>
       </c>
-      <c r="H24" s="144">
+      <c r="H24" s="143">
         <f>C24*4</f>
         <v>48000</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="170">
+      <c r="P24" s="173">
         <v>9</v>
       </c>
-      <c r="Q24" s="171"/>
+      <c r="Q24" s="174"/>
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="175"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="21">
         <v>18500</v>
       </c>
@@ -2922,26 +2951,26 @@
         <f>C25*D25</f>
         <v>18500</v>
       </c>
-      <c r="G25" s="144">
+      <c r="G25" s="143">
         <f t="shared" ref="G25:H38" si="1">$E25/2</f>
         <v>9250</v>
       </c>
-      <c r="H25" s="144">
+      <c r="H25" s="143">
         <f t="shared" si="1"/>
         <v>9250</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="196"/>
-      <c r="Q25" s="196"/>
+      <c r="P25" s="199"/>
+      <c r="Q25" s="199"/>
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="175"/>
+      <c r="B26" s="178"/>
       <c r="C26" s="21">
         <v>7500</v>
       </c>
@@ -2952,26 +2981,26 @@
         <f>C26*D26</f>
         <v>7500</v>
       </c>
-      <c r="G26" s="144">
+      <c r="G26" s="143">
         <f t="shared" si="1"/>
         <v>3750</v>
       </c>
-      <c r="H26" s="144">
+      <c r="H26" s="143">
         <f t="shared" si="1"/>
         <v>3750</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="194"/>
-      <c r="Q26" s="195"/>
+      <c r="P26" s="197"/>
+      <c r="Q26" s="198"/>
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="108" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="2"/>
@@ -2981,11 +3010,11 @@
       <c r="E27" s="74">
         <v>20000</v>
       </c>
-      <c r="G27" s="144">
+      <c r="G27" s="143">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="H27" s="144">
+      <c r="H27" s="143">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
@@ -2995,7 +3024,7 @@
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="175" t="s">
+      <c r="B28" s="178" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="21">
@@ -3011,11 +3040,11 @@
       <c r="F28" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="144">
+      <c r="G28" s="143">
         <f>E28</f>
         <v>22500</v>
       </c>
-      <c r="H28" s="144">
+      <c r="H28" s="143">
         <v>0</v>
       </c>
       <c r="I28" s="45"/>
@@ -3023,9 +3052,9 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="175"/>
+        <v>170</v>
+      </c>
+      <c r="B29" s="178"/>
       <c r="C29" s="21">
         <v>5500</v>
       </c>
@@ -3039,11 +3068,11 @@
       <c r="F29" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="144">
+      <c r="G29" s="143">
         <f>E29</f>
         <v>5500</v>
       </c>
-      <c r="H29" s="144">
+      <c r="H29" s="143">
         <v>0</v>
       </c>
       <c r="I29" s="45"/>
@@ -3054,7 +3083,7 @@
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="175"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="21">
         <v>1850</v>
       </c>
@@ -3068,10 +3097,10 @@
       <c r="F30" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="144">
+      <c r="G30" s="143">
         <v>0</v>
       </c>
-      <c r="H30" s="144">
+      <c r="H30" s="143">
         <f>E30</f>
         <v>1850</v>
       </c>
@@ -3081,9 +3110,9 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="175"/>
+        <v>173</v>
+      </c>
+      <c r="B31" s="178"/>
       <c r="C31" s="21">
         <v>1850</v>
       </c>
@@ -3094,11 +3123,11 @@
         <f>C31*D31</f>
         <v>3700</v>
       </c>
-      <c r="G31" s="144">
+      <c r="G31" s="143">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="H31" s="144">
+      <c r="H31" s="143">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
@@ -3108,9 +3137,9 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="175"/>
+        <v>175</v>
+      </c>
+      <c r="B32" s="178"/>
       <c r="C32" s="21">
         <v>1850</v>
       </c>
@@ -3121,11 +3150,11 @@
         <f>C32*D32</f>
         <v>3700</v>
       </c>
-      <c r="G32" s="144">
+      <c r="G32" s="143">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="H32" s="144">
+      <c r="H32" s="143">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
@@ -3134,9 +3163,9 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" s="175"/>
+        <v>174</v>
+      </c>
+      <c r="B33" s="178"/>
       <c r="C33" s="21">
         <v>2000</v>
       </c>
@@ -3147,11 +3176,11 @@
         <f>C33*D33</f>
         <v>4000</v>
       </c>
-      <c r="G33" s="144">
+      <c r="G33" s="143">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="H33" s="144">
+      <c r="H33" s="143">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
@@ -3159,9 +3188,9 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="175"/>
+        <v>171</v>
+      </c>
+      <c r="B34" s="178"/>
       <c r="C34" s="21">
         <v>2000</v>
       </c>
@@ -3172,11 +3201,11 @@
         <f>C34*D34</f>
         <v>6000</v>
       </c>
-      <c r="G34" s="144">
+      <c r="G34" s="143">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="H34" s="144">
+      <c r="H34" s="143">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
@@ -3184,9 +3213,9 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B35" s="175"/>
+        <v>176</v>
+      </c>
+      <c r="B35" s="178"/>
       <c r="C35" s="21">
         <v>7500</v>
       </c>
@@ -3197,11 +3226,11 @@
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="G35" s="144">
+      <c r="G35" s="143">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="H35" s="144">
+      <c r="H35" s="143">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
@@ -3209,9 +3238,9 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="107" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="21">
@@ -3224,11 +3253,11 @@
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="G36" s="144">
+      <c r="G36" s="143">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="H36" s="144">
+      <c r="H36" s="143">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
@@ -3238,7 +3267,7 @@
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="197" t="s">
+      <c r="B37" s="200" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="11">
@@ -3251,11 +3280,11 @@
         <f>D37*C37</f>
         <v>26500</v>
       </c>
-      <c r="G37" s="144">
+      <c r="G37" s="143">
         <f t="shared" si="1"/>
         <v>13250</v>
       </c>
-      <c r="H37" s="144">
+      <c r="H37" s="143">
         <f t="shared" si="1"/>
         <v>13250</v>
       </c>
@@ -3267,7 +3296,7 @@
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="197"/>
+      <c r="B38" s="200"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -3278,11 +3307,11 @@
         <f>D38*C38</f>
         <v>1500</v>
       </c>
-      <c r="G38" s="144">
+      <c r="G38" s="143">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="H38" s="144">
+      <c r="H38" s="143">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
@@ -3292,7 +3321,7 @@
       <c r="A39" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="198"/>
+      <c r="B39" s="201"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -3303,24 +3332,24 @@
         <f>D39*C39</f>
         <v>300</v>
       </c>
-      <c r="G39" s="144">
+      <c r="G39" s="143">
         <f>$E39/2</f>
         <v>150</v>
       </c>
-      <c r="H39" s="144">
+      <c r="H39" s="143">
         <f>$E39/2</f>
         <v>150</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L39" s="143">
+      <c r="L39" s="142">
         <f>$L$2</f>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M39" s="44">
         <f>E40/2</f>
-        <v>150725</v>
+        <v>149150</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3334,26 +3363,26 @@
       <c r="D40" s="2"/>
       <c r="E40" s="4">
         <f>SUM(E23:E39)</f>
-        <v>301450</v>
-      </c>
-      <c r="G40" s="145">
+        <v>298300</v>
+      </c>
+      <c r="G40" s="144">
         <f>SUM(G23:G39)</f>
-        <v>172275</v>
-      </c>
-      <c r="H40" s="145">
+        <v>168225</v>
+      </c>
+      <c r="H40" s="144">
         <f>SUM(H23:H39)</f>
-        <v>129175</v>
+        <v>130075</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L40" s="143">
+      <c r="L40" s="142">
         <f>$L$3</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M40" s="44">
         <f>E40/2</f>
-        <v>150725</v>
+        <v>149150</v>
       </c>
       <c r="N40" s="1"/>
     </row>
@@ -3366,19 +3395,19 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A42" s="172" t="s">
+      <c r="A42" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="173"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="173"/>
-      <c r="E42" s="174"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="176"/>
+      <c r="E42" s="177"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="192" t="s">
+      <c r="B43" s="195" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="11"/>
@@ -3391,7 +3420,7 @@
       <c r="A44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="192"/>
+      <c r="B44" s="195"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -3402,7 +3431,7 @@
       <c r="A45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="192"/>
+      <c r="B45" s="195"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -3413,7 +3442,7 @@
       <c r="A46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="192"/>
+      <c r="B46" s="195"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -3424,7 +3453,7 @@
       <c r="A47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="192"/>
+      <c r="B47" s="195"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -3435,7 +3464,7 @@
       <c r="A48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="192"/>
+      <c r="B48" s="195"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -3446,7 +3475,7 @@
       <c r="A49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="192"/>
+      <c r="B49" s="195"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="74">
@@ -3455,9 +3484,9 @@
       <c r="K49" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="143">
+      <c r="L49" s="142">
         <f>$L$2</f>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M49" s="44">
         <f>E50/2</f>
@@ -3468,27 +3497,27 @@
       <c r="A50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="193"/>
+      <c r="B50" s="196"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
         <f>SUM(E43:E49)</f>
         <v>949900</v>
       </c>
-      <c r="G50" s="145">
+      <c r="G50" s="144">
         <f>E50/2</f>
         <v>474950</v>
       </c>
-      <c r="H50" s="145">
+      <c r="H50" s="144">
         <f>E50/2</f>
         <v>474950</v>
       </c>
       <c r="K50" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L50" s="143">
+      <c r="L50" s="142">
         <f>$L$3</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M50" s="44">
         <f>E50/2</f>
@@ -3497,77 +3526,77 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A52" s="172" t="s">
+      <c r="A52" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="173"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="173"/>
-      <c r="E52" s="174"/>
+      <c r="B52" s="176"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="176"/>
+      <c r="E52" s="177"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="161" t="s">
+      <c r="A53" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="162" t="s">
+      <c r="B53" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="163">
+      <c r="C53" s="162">
         <v>1200</v>
       </c>
-      <c r="D53" s="161">
+      <c r="D53" s="160">
         <f>L1</f>
-        <v>77</v>
-      </c>
-      <c r="E53" s="163">
+        <v>70</v>
+      </c>
+      <c r="E53" s="162">
         <f>C53*D53</f>
-        <v>92400</v>
-      </c>
-      <c r="G53" s="144">
+        <v>84000</v>
+      </c>
+      <c r="G53" s="143">
         <f>$G$2*$C53</f>
-        <v>52800</v>
-      </c>
-      <c r="H53" s="144">
+        <v>42000</v>
+      </c>
+      <c r="H53" s="143">
         <f>$H$2*$C53</f>
-        <v>39600</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="164" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" s="162" t="s">
+      <c r="A54" s="163" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="163">
+      <c r="C54" s="162">
         <v>1550</v>
       </c>
-      <c r="D54" s="161">
+      <c r="D54" s="160">
         <f>L1</f>
-        <v>77</v>
-      </c>
-      <c r="E54" s="163">
+        <v>70</v>
+      </c>
+      <c r="E54" s="162">
         <f>C54*D54</f>
-        <v>119350</v>
-      </c>
-      <c r="G54" s="144">
+        <v>108500</v>
+      </c>
+      <c r="G54" s="143">
         <f>$G$2*$C54</f>
-        <v>68200</v>
-      </c>
-      <c r="H54" s="144">
+        <v>54250</v>
+      </c>
+      <c r="H54" s="143">
         <f>$H$2*$C54</f>
-        <v>51150</v>
+        <v>54250</v>
       </c>
       <c r="K54" s="15" t="s">
         <v>4</v>
       </c>
       <c r="L54" s="5">
         <f>$L$2</f>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M54" s="44">
         <f>$E$55/2+($L$54*$C$53)+($L$54*$C$54)</f>
-        <v>231000</v>
+        <v>206250</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3582,11 +3611,11 @@
       <c r="E55" s="3">
         <v>220000</v>
       </c>
-      <c r="G55" s="144">
+      <c r="G55" s="143">
         <f>E55/2</f>
         <v>110000</v>
       </c>
-      <c r="H55" s="144">
+      <c r="H55" s="143">
         <f>E55/2</f>
         <v>110000</v>
       </c>
@@ -3595,11 +3624,11 @@
       </c>
       <c r="L55" s="5">
         <f>$L$3</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M55" s="44">
         <f>$E$55/2+($L$55*$C$53)+($L$55*$C$54)</f>
-        <v>200750</v>
+        <v>206250</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3613,15 +3642,15 @@
       <c r="D56" s="15"/>
       <c r="E56" s="4">
         <f>SUM(E53:E55)</f>
-        <v>431750</v>
-      </c>
-      <c r="G56" s="145">
+        <v>412500</v>
+      </c>
+      <c r="G56" s="144">
         <f>SUM(G53:G55)</f>
-        <v>231000</v>
-      </c>
-      <c r="H56" s="145">
+        <v>206250</v>
+      </c>
+      <c r="H56" s="144">
         <f>SUM(H53:H55)</f>
-        <v>200750</v>
+        <v>206250</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1">
@@ -3632,31 +3661,31 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A58" s="172" t="s">
+      <c r="A58" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="173"/>
-      <c r="C58" s="173"/>
-      <c r="D58" s="173"/>
-      <c r="E58" s="174"/>
+      <c r="B58" s="176"/>
+      <c r="C58" s="176"/>
+      <c r="D58" s="176"/>
+      <c r="E58" s="177"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="197" t="s">
+      <c r="B59" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="132"/>
-      <c r="D59" s="132"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="131"/>
       <c r="E59" s="3">
         <v>30000</v>
       </c>
-      <c r="G59" s="144">
+      <c r="G59" s="143">
         <f>E59</f>
         <v>30000</v>
       </c>
-      <c r="H59" s="144">
+      <c r="H59" s="143">
         <v>0</v>
       </c>
     </row>
@@ -3664,17 +3693,17 @@
       <c r="A60" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="197"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
+      <c r="B60" s="200"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
       <c r="E60" s="3">
         <v>190000</v>
       </c>
-      <c r="G60" s="144">
+      <c r="G60" s="143">
         <f>E60</f>
         <v>190000</v>
       </c>
-      <c r="H60" s="144">
+      <c r="H60" s="143">
         <v>0</v>
       </c>
     </row>
@@ -3682,38 +3711,38 @@
       <c r="A61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="197"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="131"/>
+      <c r="B61" s="200"/>
+      <c r="C61" s="130"/>
+      <c r="D61" s="130"/>
       <c r="E61" s="74">
         <v>149970</v>
       </c>
-      <c r="G61" s="144">
+      <c r="G61" s="143">
         <v>0</v>
       </c>
-      <c r="H61" s="144">
+      <c r="H61" s="143">
         <f>E61</f>
         <v>149970</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="161" t="s">
-        <v>206</v>
-      </c>
-      <c r="B62" s="197"/>
+      <c r="A62" s="160" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" s="200"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="127">
+      <c r="E62" s="126">
         <v>53970</v>
       </c>
-      <c r="G62" s="144"/>
-      <c r="H62" s="144"/>
+      <c r="G62" s="143"/>
+      <c r="H62" s="143"/>
       <c r="K62" s="15" t="s">
         <v>4</v>
       </c>
       <c r="L62" s="5">
         <f>$L$2</f>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M62" s="44">
         <f>SUM(E62:E64)/2</f>
@@ -3721,21 +3750,21 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="161" t="s">
-        <v>207</v>
-      </c>
-      <c r="B63" s="197"/>
+      <c r="A63" s="160" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="200"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="127"/>
-      <c r="G63" s="144"/>
-      <c r="H63" s="144"/>
+      <c r="E63" s="126"/>
+      <c r="G63" s="143"/>
+      <c r="H63" s="143"/>
       <c r="K63" s="15" t="s">
         <v>2</v>
       </c>
       <c r="L63" s="5">
         <f>$L$3</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M63" s="44">
         <f>SUM(E62:E64)/2</f>
@@ -3746,52 +3775,52 @@
       <c r="A64" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="197"/>
+      <c r="B64" s="200"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="74">
         <v>235100</v>
       </c>
-      <c r="G64" s="144">
+      <c r="G64" s="143">
         <f>$E$64/2</f>
         <v>117550</v>
       </c>
-      <c r="H64" s="144">
+      <c r="H64" s="143">
         <f>$E$64/2</f>
         <v>117550</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="130" t="s">
-        <v>209</v>
-      </c>
-      <c r="B65" s="197"/>
+      <c r="A65" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" s="200"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="74">
         <v>25000</v>
       </c>
-      <c r="G65" s="144"/>
-      <c r="H65" s="144"/>
+      <c r="G65" s="143"/>
+      <c r="H65" s="143"/>
       <c r="K65" s="18"/>
       <c r="L65" s="60"/>
       <c r="M65" s="61"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="130" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="197"/>
+      <c r="A66" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="200"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="74">
         <v>24900</v>
       </c>
-      <c r="G66" s="144">
+      <c r="G66" s="143">
         <f>E66</f>
         <v>24900</v>
       </c>
-      <c r="H66" s="144">
+      <c r="H66" s="143">
         <v>0</v>
       </c>
       <c r="K66" s="18"/>
@@ -3799,20 +3828,20 @@
       <c r="M66" s="61"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="130" t="s">
-        <v>183</v>
-      </c>
-      <c r="B67" s="197"/>
+      <c r="A67" s="129" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="200"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="74">
         <v>41910</v>
       </c>
-      <c r="G67" s="144">
+      <c r="G67" s="143">
         <f>$E$67/2</f>
         <v>20955</v>
       </c>
-      <c r="H67" s="144">
+      <c r="H67" s="143">
         <f>$E$67/2</f>
         <v>20955</v>
       </c>
@@ -3821,48 +3850,48 @@
       <c r="M67" s="61"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="130" t="s">
+      <c r="A68" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="197"/>
+      <c r="B68" s="200"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="22"/>
-      <c r="G68" s="144"/>
-      <c r="H68" s="144"/>
+      <c r="G68" s="143"/>
+      <c r="H68" s="143"/>
       <c r="K68" s="18"/>
       <c r="L68" s="60"/>
       <c r="M68" s="61"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="130" t="s">
+      <c r="A69" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="197"/>
+      <c r="B69" s="200"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="22"/>
-      <c r="G69" s="144"/>
-      <c r="H69" s="144"/>
+      <c r="G69" s="143"/>
+      <c r="H69" s="143"/>
       <c r="K69" s="18"/>
       <c r="L69" s="60"/>
       <c r="M69" s="61"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="197"/>
+        <v>126</v>
+      </c>
+      <c r="B70" s="200"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="74">
         <v>80000</v>
       </c>
-      <c r="G70" s="144">
+      <c r="G70" s="143">
         <f>$E$70/2</f>
         <v>40000</v>
       </c>
-      <c r="H70" s="144">
+      <c r="H70" s="143">
         <f>$E$70/2</f>
         <v>40000</v>
       </c>
@@ -3872,9 +3901,9 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="197"/>
+        <v>128</v>
+      </c>
+      <c r="B71" s="200"/>
       <c r="C71" s="2">
         <v>59</v>
       </c>
@@ -3885,11 +3914,11 @@
         <f>C71*D71</f>
         <v>2950</v>
       </c>
-      <c r="G71" s="144">
+      <c r="G71" s="143">
         <f>$E71/2</f>
         <v>1475</v>
       </c>
-      <c r="H71" s="144">
+      <c r="H71" s="143">
         <f>$E71/2</f>
         <v>1475</v>
       </c>
@@ -3899,47 +3928,47 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B72" s="197"/>
+        <v>168</v>
+      </c>
+      <c r="B72" s="200"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="21">
         <v>6925</v>
       </c>
-      <c r="G72" s="144">
+      <c r="G72" s="143">
         <f>$E72/2</f>
         <v>3462.5</v>
       </c>
-      <c r="H72" s="144">
+      <c r="H72" s="143">
         <f>$E72/2</f>
         <v>3462.5</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B73" s="197"/>
+        <v>169</v>
+      </c>
+      <c r="B73" s="200"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="74">
         <f>23198+4890</f>
         <v>28088</v>
       </c>
-      <c r="G73" s="144">
+      <c r="G73" s="143">
         <f>E73</f>
         <v>28088</v>
       </c>
-      <c r="H73" s="144">
+      <c r="H73" s="143">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B74" s="197"/>
+        <v>179</v>
+      </c>
+      <c r="B74" s="200"/>
       <c r="C74" s="2">
         <v>450</v>
       </c>
@@ -3950,20 +3979,20 @@
         <f>C74*D74</f>
         <v>2700</v>
       </c>
-      <c r="G74" s="144">
+      <c r="G74" s="143">
         <f>$E74/2</f>
         <v>1350</v>
       </c>
-      <c r="H74" s="144">
+      <c r="H74" s="143">
         <f>$E74/2</f>
         <v>1350</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B75" s="197"/>
+        <v>192</v>
+      </c>
+      <c r="B75" s="200"/>
       <c r="C75" s="2">
         <v>2392</v>
       </c>
@@ -3974,51 +4003,51 @@
         <f>C75*D75</f>
         <v>7176</v>
       </c>
-      <c r="G75" s="144">
+      <c r="G75" s="143">
         <f>$E75/2</f>
         <v>3588</v>
       </c>
-      <c r="H75" s="144">
+      <c r="H75" s="143">
         <f>$E75/2</f>
         <v>3588</v>
       </c>
-      <c r="M75" s="114"/>
+      <c r="M75" s="113"/>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B76" s="197"/>
+        <v>178</v>
+      </c>
+      <c r="B76" s="200"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="74">
         <f>2405+(278*3)</f>
         <v>3239</v>
       </c>
-      <c r="G76" s="144">
+      <c r="G76" s="143">
         <f>E76</f>
         <v>3239</v>
       </c>
-      <c r="H76" s="144">
+      <c r="H76" s="143">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B77" s="198"/>
+        <v>180</v>
+      </c>
+      <c r="B77" s="201"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="21">
         <f>950+490</f>
         <v>1440</v>
       </c>
-      <c r="G77" s="144">
+      <c r="G77" s="143">
         <f>$E$77/2</f>
         <v>720</v>
       </c>
-      <c r="H77" s="144">
+      <c r="H77" s="143">
         <f>$E$77/2</f>
         <v>720</v>
       </c>
@@ -4029,11 +4058,11 @@
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
-      <c r="G78" s="145">
+      <c r="G78" s="144">
         <f>SUM(G59:G77)</f>
         <v>465327.5</v>
       </c>
-      <c r="H78" s="145">
+      <c r="H78" s="144">
         <f>SUM(H59:H77)</f>
         <v>339070.5</v>
       </c>
@@ -4049,41 +4078,41 @@
       <c r="D79" s="26"/>
       <c r="E79" s="27">
         <f>E14+E20+E40+E50+E56</f>
-        <v>3992082.012987013</v>
-      </c>
-      <c r="G79" s="145">
+        <v>3823207.7142857146</v>
+      </c>
+      <c r="G79" s="144">
         <f>G14+G18+G40+G50+G56+G78</f>
-        <v>2570440.9415584416</v>
-      </c>
-      <c r="H79" s="145">
+        <v>2332217.7142857146</v>
+      </c>
+      <c r="H79" s="144">
         <f>H56+H50+H40+H18+H14+H78</f>
-        <v>2237289.0714285714</v>
-      </c>
-      <c r="K79" s="202" t="s">
+        <v>2305588</v>
+      </c>
+      <c r="K79" s="205" t="s">
         <v>81</v>
       </c>
-      <c r="L79" s="203"/>
-      <c r="M79" s="204"/>
+      <c r="L79" s="206"/>
+      <c r="M79" s="207"/>
     </row>
     <row r="80" spans="1:13">
       <c r="K80" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="190">
+      <c r="L80" s="193">
         <f>M2+L18+M39+M49+M54+M62</f>
-        <v>2252135.8571428573</v>
-      </c>
-      <c r="M80" s="199"/>
+        <v>1997405.7357142859</v>
+      </c>
+      <c r="M80" s="202"/>
     </row>
     <row r="81" spans="11:13" ht="15.75" thickBot="1">
       <c r="K81" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="L81" s="200">
+      <c r="L81" s="203">
         <f>M3+L19+M40+M50+M55+M63</f>
-        <v>2062087.3571428573</v>
-      </c>
-      <c r="M81" s="201"/>
+        <v>2135682.75</v>
+      </c>
+      <c r="M81" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -4123,10 +4152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4142,115 +4171,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="185" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="212"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="215"/>
+      <c r="B2" s="199" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="199"/>
+      <c r="D2" s="216" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="199" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="209"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="212"/>
-      <c r="B2" s="196" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="213" t="s">
+      <c r="F2" s="199"/>
+      <c r="G2" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="196" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="196"/>
-      <c r="G2" s="215" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="210" t="s">
+      <c r="H2" s="213" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="212"/>
-      <c r="B3" s="143" t="s">
+      <c r="A3" s="215"/>
+      <c r="B3" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="143" t="s">
+      <c r="C3" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="214"/>
-      <c r="E3" s="143" t="s">
+      <c r="D3" s="217"/>
+      <c r="E3" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="216"/>
-      <c r="H3" s="210"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="213"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="206" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="206"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
+      <c r="A4" s="209" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="136">
+      <c r="B5" s="135">
         <v>14150</v>
       </c>
-      <c r="C5" s="136">
+      <c r="C5" s="135">
         <v>14150</v>
       </c>
-      <c r="D5" s="136">
+      <c r="D5" s="135">
         <f t="shared" ref="D5:D19" si="0">SUM(B5:C5)</f>
         <v>28300</v>
       </c>
-      <c r="E5" s="170" t="s">
+      <c r="E5" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="211"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="137">
+      <c r="F5" s="214"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="136">
         <f t="shared" ref="H5:H20" si="1">D5</f>
         <v>28300</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="136">
+        <v>181</v>
+      </c>
+      <c r="B6" s="135">
         <f>235100/2</f>
         <v>117550</v>
       </c>
-      <c r="C6" s="136">
+      <c r="C6" s="135">
         <f>235100/2</f>
         <v>117550</v>
       </c>
-      <c r="D6" s="136">
+      <c r="D6" s="135">
         <f t="shared" si="0"/>
         <v>235100</v>
       </c>
-      <c r="E6" s="170" t="s">
+      <c r="E6" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="211"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="137">
+      <c r="F6" s="214"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="136">
         <f t="shared" si="1"/>
         <v>235100</v>
       </c>
@@ -4259,1223 +4288,1247 @@
       <c r="A7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="134">
+      <c r="B7" s="133">
         <f>20193/2</f>
         <v>10096.5</v>
       </c>
-      <c r="C7" s="134">
+      <c r="C7" s="133">
         <f>20193/2</f>
         <v>10096.5</v>
       </c>
-      <c r="D7" s="134">
+      <c r="D7" s="133">
         <f t="shared" si="0"/>
         <v>20193</v>
       </c>
-      <c r="E7" s="170" t="s">
+      <c r="E7" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="211"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="137">
+      <c r="F7" s="214"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="136">
         <f t="shared" si="1"/>
         <v>20193</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="134">
+        <v>182</v>
+      </c>
+      <c r="B8" s="133">
         <f>41910/2</f>
         <v>20955</v>
       </c>
-      <c r="C8" s="134">
+      <c r="C8" s="133">
         <f>41910/2</f>
         <v>20955</v>
       </c>
-      <c r="D8" s="139">
+      <c r="D8" s="138">
         <f t="shared" si="0"/>
         <v>41910</v>
       </c>
-      <c r="E8" s="170" t="s">
+      <c r="E8" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="211"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="137">
+      <c r="F8" s="214"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="136">
         <f t="shared" si="1"/>
         <v>41910</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="117" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="134">
+      <c r="A9" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="133">
         <f>6925/2</f>
         <v>3462.5</v>
       </c>
-      <c r="C9" s="134">
+      <c r="C9" s="133">
         <f>6925/2</f>
         <v>3462.5</v>
       </c>
-      <c r="D9" s="139">
+      <c r="D9" s="138">
         <f t="shared" si="0"/>
         <v>6925</v>
       </c>
-      <c r="E9" s="170" t="s">
+      <c r="E9" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="211"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="137">
+      <c r="F9" s="214"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="136">
         <f t="shared" si="1"/>
         <v>6925</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="134">
+        <v>185</v>
+      </c>
+      <c r="B10" s="133">
         <v>720</v>
       </c>
-      <c r="C10" s="134">
+      <c r="C10" s="133">
         <v>720</v>
       </c>
-      <c r="D10" s="139">
+      <c r="D10" s="138">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="E10" s="170" t="s">
+      <c r="E10" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="211"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="137">
+      <c r="F10" s="214"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="136">
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="122" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="134">
+      <c r="A11" s="121" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="133">
         <v>2500</v>
       </c>
-      <c r="C11" s="135">
+      <c r="C11" s="134">
         <v>0</v>
       </c>
-      <c r="D11" s="139">
+      <c r="D11" s="138">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E11" s="170" t="s">
+      <c r="E11" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="211"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="137">
+      <c r="F11" s="214"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="136">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="134">
+        <v>194</v>
+      </c>
+      <c r="B12" s="133">
         <v>1500</v>
       </c>
-      <c r="C12" s="135">
+      <c r="C12" s="134">
         <v>0</v>
       </c>
-      <c r="D12" s="139">
+      <c r="D12" s="138">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E12" s="170" t="s">
+      <c r="E12" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="211"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="137">
+      <c r="F12" s="214"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="136">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="134">
+        <v>191</v>
+      </c>
+      <c r="B13" s="133">
         <v>14995</v>
       </c>
-      <c r="C13" s="135">
+      <c r="C13" s="134">
         <v>0</v>
       </c>
-      <c r="D13" s="139">
+      <c r="D13" s="138">
         <f t="shared" si="0"/>
         <v>14995</v>
       </c>
-      <c r="E13" s="220" t="s">
+      <c r="E13" s="223" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="221"/>
-      <c r="G13" s="222"/>
-      <c r="H13" s="137">
+      <c r="F13" s="224"/>
+      <c r="G13" s="225"/>
+      <c r="H13" s="136">
         <f t="shared" si="1"/>
         <v>14995</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="134">
+        <v>183</v>
+      </c>
+      <c r="B14" s="133">
         <v>24900</v>
       </c>
-      <c r="C14" s="140">
+      <c r="C14" s="139">
         <v>0</v>
       </c>
-      <c r="D14" s="139">
+      <c r="D14" s="138">
         <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="E14" s="170" t="s">
+      <c r="E14" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="211"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="137">
+      <c r="F14" s="214"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="136">
         <f t="shared" si="1"/>
         <v>24900</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="134">
+        <v>184</v>
+      </c>
+      <c r="B15" s="133">
         <v>28088</v>
       </c>
-      <c r="C15" s="140">
+      <c r="C15" s="139">
         <v>0</v>
       </c>
-      <c r="D15" s="139">
+      <c r="D15" s="138">
         <f t="shared" si="0"/>
         <v>28088</v>
       </c>
-      <c r="E15" s="170" t="s">
+      <c r="E15" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="211"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="137">
+      <c r="F15" s="214"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="136">
         <f t="shared" si="1"/>
         <v>28088</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" s="134">
+        <v>178</v>
+      </c>
+      <c r="B16" s="133">
         <v>3239</v>
       </c>
-      <c r="C16" s="140">
+      <c r="C16" s="139">
         <v>0</v>
       </c>
-      <c r="D16" s="139">
+      <c r="D16" s="138">
         <f t="shared" si="0"/>
         <v>3239</v>
       </c>
-      <c r="E16" s="170" t="s">
+      <c r="E16" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="211"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="137">
+      <c r="F16" s="214"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="136">
         <f t="shared" si="1"/>
         <v>3239</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="134">
+        <v>186</v>
+      </c>
+      <c r="B17" s="133">
         <v>2700</v>
       </c>
-      <c r="C17" s="140">
+      <c r="C17" s="139">
         <v>0</v>
       </c>
-      <c r="D17" s="139">
+      <c r="D17" s="138">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="E17" s="170" t="s">
+      <c r="E17" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="211"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="137">
+      <c r="F17" s="214"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="136">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="134">
+        <v>187</v>
+      </c>
+      <c r="B18" s="133">
         <f>7176/2</f>
         <v>3588</v>
       </c>
-      <c r="C18" s="134">
+      <c r="C18" s="133">
         <f>7176/2</f>
         <v>3588</v>
       </c>
-      <c r="D18" s="139">
+      <c r="D18" s="138">
         <f t="shared" si="0"/>
         <v>7176</v>
       </c>
-      <c r="E18" s="170" t="s">
+      <c r="E18" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="211"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="137">
+      <c r="F18" s="214"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="136">
         <f t="shared" si="1"/>
         <v>7176</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="134">
+        <v>128</v>
+      </c>
+      <c r="B19" s="133">
         <v>1475</v>
       </c>
-      <c r="C19" s="134">
+      <c r="C19" s="133">
         <v>1475</v>
       </c>
-      <c r="D19" s="134">
+      <c r="D19" s="133">
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
-      <c r="E19" s="223" t="s">
+      <c r="E19" s="226" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="223"/>
-      <c r="G19" s="223"/>
-      <c r="H19" s="137">
+      <c r="F19" s="226"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="136">
         <f t="shared" si="1"/>
         <v>2950</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="135">
+        <v>188</v>
+      </c>
+      <c r="B20" s="134">
         <v>0</v>
       </c>
-      <c r="C20" s="134">
+      <c r="C20" s="133">
         <v>149970</v>
       </c>
-      <c r="D20" s="134">
+      <c r="D20" s="133">
         <f>C20</f>
         <v>149970</v>
       </c>
-      <c r="E20" s="223" t="s">
+      <c r="E20" s="226" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="223"/>
-      <c r="G20" s="223"/>
-      <c r="H20" s="137">
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="136">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B21" s="135">
+        <v>211</v>
+      </c>
+      <c r="B21" s="134">
         <v>0</v>
       </c>
-      <c r="C21" s="134">
+      <c r="C21" s="133">
         <v>31980</v>
       </c>
-      <c r="D21" s="134">
+      <c r="D21" s="133">
         <f>C21</f>
         <v>31980</v>
       </c>
-      <c r="E21" s="205" t="s">
+      <c r="E21" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="205"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="137">
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="136">
         <f>D21</f>
         <v>31980</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" s="135">
+        <v>217</v>
+      </c>
+      <c r="B22" s="134">
         <v>0</v>
       </c>
-      <c r="C22" s="134">
+      <c r="C22" s="133">
         <v>38700</v>
       </c>
-      <c r="D22" s="134">
+      <c r="D22" s="133">
         <f t="shared" ref="D22:D24" si="2">C22</f>
         <v>38700</v>
       </c>
-      <c r="E22" s="205" t="s">
+      <c r="E22" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="137">
+      <c r="F22" s="208"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="136">
         <f t="shared" ref="H22:H26" si="3">D22</f>
         <v>38700</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="135">
+        <v>212</v>
+      </c>
+      <c r="B23" s="134">
         <v>0</v>
       </c>
-      <c r="C23" s="134">
+      <c r="C23" s="133">
         <v>19990</v>
       </c>
-      <c r="D23" s="134">
+      <c r="D23" s="133">
         <f t="shared" si="2"/>
         <v>19990</v>
       </c>
-      <c r="E23" s="205" t="s">
+      <c r="E23" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="205"/>
-      <c r="G23" s="205"/>
-      <c r="H23" s="137">
+      <c r="F23" s="208"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="136">
         <f t="shared" si="3"/>
         <v>19990</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="149" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="148">
+      <c r="A24" s="148" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="147">
         <v>0</v>
       </c>
-      <c r="C24" s="147">
+      <c r="C24" s="146">
         <v>13480</v>
       </c>
-      <c r="D24" s="134">
+      <c r="D24" s="133">
         <f t="shared" si="2"/>
         <v>13480</v>
       </c>
-      <c r="E24" s="205" t="s">
+      <c r="E24" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="137">
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="136">
         <f t="shared" si="3"/>
         <v>13480</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="153" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" s="147">
+      <c r="A25" s="152" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="146">
         <v>13500</v>
       </c>
-      <c r="C25" s="147">
+      <c r="C25" s="146">
         <v>13500</v>
       </c>
-      <c r="D25" s="147">
-        <f t="shared" ref="D25:D31" si="4">SUM(B25:C25)</f>
+      <c r="D25" s="146">
+        <f t="shared" ref="D25:D32" si="4">SUM(B25:C25)</f>
         <v>27000</v>
       </c>
-      <c r="E25" s="205" t="s">
+      <c r="E25" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="137">
+      <c r="F25" s="208"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="136">
         <f t="shared" si="3"/>
         <v>27000</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="153" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" s="134">
+      <c r="A26" s="152" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="133">
         <v>1000</v>
       </c>
-      <c r="C26" s="148">
+      <c r="C26" s="147">
         <v>0</v>
       </c>
-      <c r="D26" s="134">
+      <c r="D26" s="133">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="E26" s="205" t="s">
+      <c r="E26" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="154">
+      <c r="F26" s="208"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="153">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30">
-      <c r="A27" s="160" t="s">
-        <v>223</v>
-      </c>
-      <c r="B27" s="137">
+      <c r="A27" s="159" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="136">
         <v>2040</v>
       </c>
-      <c r="C27" s="135">
+      <c r="C27" s="134">
         <v>0</v>
       </c>
-      <c r="D27" s="137">
+      <c r="D27" s="136">
         <f t="shared" si="4"/>
         <v>2040</v>
       </c>
-      <c r="E27" s="205" t="s">
+      <c r="E27" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="205"/>
-      <c r="G27" s="205"/>
-      <c r="H27" s="154">
-        <f>D27</f>
+      <c r="F27" s="208"/>
+      <c r="G27" s="208"/>
+      <c r="H27" s="153">
+        <f t="shared" ref="H27:H32" si="5">D27</f>
         <v>2040</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30">
-      <c r="A28" s="151" t="s">
-        <v>234</v>
-      </c>
-      <c r="B28" s="148">
+      <c r="A28" s="150" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="147">
         <v>0</v>
       </c>
-      <c r="C28" s="154">
+      <c r="C28" s="153">
         <v>51400</v>
       </c>
-      <c r="D28" s="159">
+      <c r="D28" s="158">
         <f t="shared" si="4"/>
         <v>51400</v>
       </c>
-      <c r="E28" s="207" t="s">
+      <c r="E28" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="207"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="154">
-        <f>D28</f>
+      <c r="F28" s="210"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="153">
+        <f t="shared" si="5"/>
         <v>51400</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="160" t="s">
+      <c r="A29" s="159" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="137">
+      <c r="B29" s="136">
         <v>14988</v>
       </c>
-      <c r="C29" s="137">
+      <c r="C29" s="136">
         <v>14988</v>
       </c>
-      <c r="D29" s="137">
+      <c r="D29" s="136">
         <f t="shared" si="4"/>
         <v>29976</v>
       </c>
-      <c r="E29" s="205" t="s">
+      <c r="E29" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="205"/>
-      <c r="G29" s="205"/>
-      <c r="H29" s="137">
-        <f>D29</f>
+      <c r="F29" s="208"/>
+      <c r="G29" s="208"/>
+      <c r="H29" s="136">
+        <f t="shared" si="5"/>
         <v>29976</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="160" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" s="137">
+      <c r="A30" s="159" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="136">
         <v>1599</v>
       </c>
-      <c r="C30" s="137">
+      <c r="C30" s="136">
         <v>1599</v>
       </c>
-      <c r="D30" s="137">
+      <c r="D30" s="136">
         <f t="shared" si="4"/>
         <v>3198</v>
       </c>
-      <c r="E30" s="205" t="s">
+      <c r="E30" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="205"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="137">
-        <f>D30</f>
+      <c r="F30" s="208"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="136">
+        <f t="shared" si="5"/>
         <v>3198</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A31" s="151" t="s">
-        <v>236</v>
-      </c>
-      <c r="B31" s="137">
+    <row r="31" spans="1:8" ht="30">
+      <c r="A31" s="150" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="136">
         <v>1490</v>
       </c>
-      <c r="C31" s="154">
+      <c r="C31" s="136">
         <v>1490</v>
       </c>
-      <c r="D31" s="154">
+      <c r="D31" s="136">
         <f t="shared" si="4"/>
         <v>2980</v>
       </c>
-      <c r="E31" s="207" t="s">
+      <c r="E31" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="207"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="154">
-        <f>D31</f>
+      <c r="F31" s="210"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="136">
+        <f t="shared" si="5"/>
         <v>2980</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A32" s="119" t="s">
+      <c r="A32" s="170" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="158">
+        <v>12000</v>
+      </c>
+      <c r="C32" s="158">
+        <v>0</v>
+      </c>
+      <c r="D32" s="158">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+      <c r="E32" s="210" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="210"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="153">
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A33" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="138">
-        <f>SUM(B5:B31)</f>
-        <v>284536</v>
-      </c>
-      <c r="C32" s="138">
-        <f>SUM(C5:C31)</f>
+      <c r="B33" s="137">
+        <f>SUM(B5:B32)</f>
+        <v>296536</v>
+      </c>
+      <c r="C33" s="137">
+        <f>SUM(C5:C32)</f>
         <v>509094</v>
       </c>
-      <c r="D32" s="138">
-        <f>SUM(D5:D31)</f>
-        <v>793630</v>
-      </c>
-      <c r="E32" s="217" t="s">
+      <c r="D33" s="137">
+        <f>SUM(D5:D32)</f>
+        <v>805630</v>
+      </c>
+      <c r="E33" s="220" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="218"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="133">
-        <f>SUM(H5:H31)</f>
-        <v>793630</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="123"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="124"/>
+      <c r="F33" s="221"/>
+      <c r="G33" s="222"/>
+      <c r="H33" s="132">
+        <f>SUM(H5:H32)</f>
+        <v>805630</v>
+      </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="206" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" s="206"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="206"/>
-      <c r="E34" s="206"/>
-      <c r="F34" s="206"/>
-      <c r="G34" s="206"/>
-      <c r="H34" s="206"/>
+      <c r="A34" s="122"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="123"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="134">
-        <v>15000</v>
-      </c>
-      <c r="C35" s="135">
-        <v>0</v>
-      </c>
-      <c r="D35" s="134">
-        <f t="shared" ref="D35:D44" si="5">SUM(B35:C35)</f>
-        <v>15000</v>
-      </c>
-      <c r="E35" s="112">
-        <v>15000</v>
-      </c>
-      <c r="F35" s="116">
-        <v>0</v>
-      </c>
-      <c r="G35" s="112">
-        <f t="shared" ref="G35:G47" si="6">SUM(E35:F35)</f>
-        <v>15000</v>
-      </c>
-      <c r="H35" s="112">
-        <f>D35+G35</f>
-        <v>30000</v>
-      </c>
-      <c r="I35" s="126" t="s">
-        <v>220</v>
-      </c>
+      <c r="A35" s="209" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="209"/>
+      <c r="C35" s="209"/>
+      <c r="D35" s="209"/>
+      <c r="E35" s="209"/>
+      <c r="F35" s="209"/>
+      <c r="G35" s="209"/>
+      <c r="H35" s="209"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="133">
+        <v>15000</v>
+      </c>
+      <c r="C36" s="134">
+        <v>0</v>
+      </c>
+      <c r="D36" s="133">
+        <f t="shared" ref="D36:D45" si="6">SUM(B36:C36)</f>
+        <v>15000</v>
+      </c>
+      <c r="E36" s="111">
+        <v>15000</v>
+      </c>
+      <c r="F36" s="115">
+        <v>0</v>
+      </c>
+      <c r="G36" s="111">
+        <f t="shared" ref="G36:G48" si="7">SUM(E36:F36)</f>
+        <v>15000</v>
+      </c>
+      <c r="H36" s="111">
+        <f>D36+G36</f>
+        <v>30000</v>
+      </c>
+      <c r="I36" s="125" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="134">
+      <c r="B37" s="133">
         <v>100000</v>
       </c>
-      <c r="C36" s="135">
+      <c r="C37" s="134">
         <v>0</v>
       </c>
-      <c r="D36" s="134">
-        <f t="shared" si="5"/>
+      <c r="D37" s="133">
+        <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="E36" s="112">
+      <c r="E37" s="111">
         <v>190000</v>
       </c>
-      <c r="F36" s="116">
+      <c r="F37" s="115">
         <v>0</v>
       </c>
-      <c r="G36" s="112">
+      <c r="G37" s="111">
+        <f t="shared" si="7"/>
+        <v>190000</v>
+      </c>
+      <c r="H37" s="114">
+        <f>D37+G37</f>
+        <v>290000</v>
+      </c>
+      <c r="I37" s="125" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" s="135">
+        <v>100000</v>
+      </c>
+      <c r="C38" s="135">
+        <v>100000</v>
+      </c>
+      <c r="D38" s="135">
         <f t="shared" si="6"/>
-        <v>190000</v>
-      </c>
-      <c r="H36" s="115">
-        <f>D36+G36</f>
-        <v>290000</v>
-      </c>
-      <c r="I36" s="126" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="86" t="s">
+        <v>200000</v>
+      </c>
+      <c r="E38" s="111">
+        <f>TERVEZETT!M2-B38</f>
+        <v>845020.73571428587</v>
+      </c>
+      <c r="F38" s="111">
+        <f>TERVEZETT!M3-C38</f>
+        <v>862397.75000000023</v>
+      </c>
+      <c r="G38" s="114">
+        <f t="shared" si="7"/>
+        <v>1707418.4857142861</v>
+      </c>
+      <c r="H38" s="114">
+        <f>D38+G38</f>
+        <v>1907418.4857142861</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="136">
-        <v>100000</v>
-      </c>
-      <c r="C37" s="136">
-        <v>100000</v>
-      </c>
-      <c r="D37" s="136">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
-      <c r="E37" s="112">
-        <f>TERVEZETT!M2-B37</f>
-        <v>1073425.8571428573</v>
-      </c>
-      <c r="F37" s="112">
-        <f>TERVEZETT!M3-C37</f>
-        <v>792727.35714285716</v>
-      </c>
-      <c r="G37" s="115">
+      <c r="B39" s="115">
+        <v>0</v>
+      </c>
+      <c r="C39" s="115">
+        <v>0</v>
+      </c>
+      <c r="D39" s="115">
         <f t="shared" si="6"/>
-        <v>1866153.2142857146</v>
-      </c>
-      <c r="H37" s="115">
-        <f>D37+G37</f>
-        <v>2066153.2142857146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" s="116">
         <v>0</v>
       </c>
-      <c r="C38" s="116">
-        <v>0</v>
-      </c>
-      <c r="D38" s="116">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="112">
+      <c r="E39" s="111">
         <f>TERVEZETT!L18</f>
         <v>77500</v>
       </c>
-      <c r="F38" s="112">
+      <c r="F39" s="111">
         <f>TERVEZETT!L19</f>
         <v>198400</v>
       </c>
-      <c r="G38" s="112">
+      <c r="G39" s="111">
+        <f t="shared" si="7"/>
+        <v>275900</v>
+      </c>
+      <c r="H39" s="111">
+        <f>G39</f>
+        <v>275900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="145"/>
+      <c r="C40" s="135">
+        <v>220000</v>
+      </c>
+      <c r="D40" s="135">
         <f t="shared" si="6"/>
-        <v>275900</v>
-      </c>
-      <c r="H38" s="112">
-        <f>G38</f>
-        <v>275900</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="146"/>
-      <c r="C39" s="136">
         <v>220000</v>
       </c>
-      <c r="D39" s="136">
-        <f t="shared" si="5"/>
-        <v>220000</v>
-      </c>
-      <c r="E39" s="112">
+      <c r="E40" s="111">
         <f>TERVEZETT!M54</f>
-        <v>231000</v>
-      </c>
-      <c r="F39" s="112">
+        <v>206250</v>
+      </c>
+      <c r="F40" s="111">
         <f>TERVEZETT!M55</f>
-        <v>200750</v>
-      </c>
-      <c r="G39" s="112">
-        <f t="shared" si="6"/>
-        <v>431750</v>
-      </c>
-      <c r="H39" s="112">
-        <f>G39</f>
-        <v>431750</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B40" s="136">
-        <v>5000</v>
-      </c>
-      <c r="C40" s="136">
-        <v>5000</v>
-      </c>
-      <c r="D40" s="136">
-        <f t="shared" si="5"/>
-        <v>10000</v>
-      </c>
-      <c r="E40" s="111">
-        <v>20000</v>
-      </c>
-      <c r="F40" s="111">
-        <v>20000</v>
+        <v>206250</v>
       </c>
       <c r="G40" s="111">
-        <f t="shared" si="6"/>
-        <v>40000</v>
-      </c>
-      <c r="H40" s="115">
-        <f t="shared" ref="H40:H47" si="7">D40+G40</f>
-        <v>50000</v>
+        <f t="shared" si="7"/>
+        <v>412500</v>
+      </c>
+      <c r="H40" s="111">
+        <f>G40</f>
+        <v>412500</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B41" s="136">
+        <v>200</v>
+      </c>
+      <c r="B41" s="135">
+        <v>5000</v>
+      </c>
+      <c r="C41" s="135">
+        <v>5000</v>
+      </c>
+      <c r="D41" s="135">
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="C41" s="136">
+      <c r="E41" s="110">
+        <v>20000</v>
+      </c>
+      <c r="F41" s="110">
+        <v>20000</v>
+      </c>
+      <c r="G41" s="110">
+        <f t="shared" si="7"/>
+        <v>40000</v>
+      </c>
+      <c r="H41" s="114">
+        <f t="shared" ref="H41:H48" si="8">D41+G41</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="135">
         <v>10000</v>
       </c>
-      <c r="D41" s="136">
-        <f t="shared" si="5"/>
+      <c r="C42" s="135">
+        <v>10000</v>
+      </c>
+      <c r="D42" s="135">
+        <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="E41" s="111">
+      <c r="E42" s="110">
         <v>110000</v>
       </c>
-      <c r="F41" s="111">
+      <c r="F42" s="110">
         <v>110000</v>
       </c>
-      <c r="G41" s="111">
-        <f t="shared" si="6"/>
-        <v>220000</v>
-      </c>
-      <c r="H41" s="115">
-        <f t="shared" si="7"/>
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B42" s="136">
-        <v>15000</v>
-      </c>
-      <c r="C42" s="136">
-        <v>15000</v>
-      </c>
-      <c r="D42" s="136">
-        <f t="shared" si="5"/>
-        <v>30000</v>
-      </c>
-      <c r="E42" s="111">
-        <v>45000</v>
-      </c>
-      <c r="F42" s="111">
-        <v>45000</v>
-      </c>
-      <c r="G42" s="111">
-        <f t="shared" si="6"/>
-        <v>90000</v>
-      </c>
-      <c r="H42" s="111">
-        <f t="shared" si="7"/>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B43" s="136">
-        <v>15000</v>
-      </c>
-      <c r="C43" s="136">
-        <v>15000</v>
-      </c>
-      <c r="D43" s="136">
-        <f t="shared" si="5"/>
-        <v>30000</v>
-      </c>
-      <c r="E43" s="111">
-        <v>69950</v>
-      </c>
-      <c r="F43" s="111">
-        <v>69950</v>
-      </c>
-      <c r="G43" s="111">
-        <f t="shared" si="6"/>
-        <v>139900</v>
-      </c>
-      <c r="H43" s="115">
-        <f t="shared" si="7"/>
-        <v>169900</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="130" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" s="136">
-        <v>10000</v>
-      </c>
-      <c r="C44" s="136">
-        <v>10000</v>
-      </c>
-      <c r="D44" s="136">
-        <f t="shared" si="5"/>
-        <v>20000</v>
-      </c>
-      <c r="E44" s="111">
-        <v>100000</v>
-      </c>
-      <c r="F44" s="111">
-        <v>100000</v>
-      </c>
-      <c r="G44" s="111">
-        <f t="shared" si="6"/>
-        <v>200000</v>
-      </c>
-      <c r="H44" s="111">
+      <c r="G42" s="110">
         <f t="shared" si="7"/>
         <v>220000</v>
       </c>
+      <c r="H42" s="114">
+        <f t="shared" si="8"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="135">
+        <v>15000</v>
+      </c>
+      <c r="C43" s="135">
+        <v>15000</v>
+      </c>
+      <c r="D43" s="135">
+        <f t="shared" si="6"/>
+        <v>30000</v>
+      </c>
+      <c r="E43" s="110">
+        <v>45000</v>
+      </c>
+      <c r="F43" s="110">
+        <v>45000</v>
+      </c>
+      <c r="G43" s="110">
+        <f t="shared" si="7"/>
+        <v>90000</v>
+      </c>
+      <c r="H43" s="110">
+        <f t="shared" si="8"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="135">
+        <v>15000</v>
+      </c>
+      <c r="C44" s="135">
+        <v>15000</v>
+      </c>
+      <c r="D44" s="135">
+        <f t="shared" si="6"/>
+        <v>30000</v>
+      </c>
+      <c r="E44" s="110">
+        <v>69950</v>
+      </c>
+      <c r="F44" s="110">
+        <v>69950</v>
+      </c>
+      <c r="G44" s="110">
+        <f t="shared" si="7"/>
+        <v>139900</v>
+      </c>
+      <c r="H44" s="114">
+        <f t="shared" si="8"/>
+        <v>169900</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="134">
-        <v>7500</v>
-      </c>
-      <c r="C45" s="134">
-        <v>7500</v>
-      </c>
-      <c r="D45" s="134">
-        <v>15000</v>
-      </c>
-      <c r="E45" s="112">
-        <v>32500</v>
-      </c>
-      <c r="F45" s="112">
-        <v>32500</v>
-      </c>
-      <c r="G45" s="112">
+      <c r="A45" s="129" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="135">
+        <v>10000</v>
+      </c>
+      <c r="C45" s="135">
+        <v>10000</v>
+      </c>
+      <c r="D45" s="135">
         <f t="shared" si="6"/>
-        <v>65000</v>
-      </c>
-      <c r="H45" s="112">
+        <v>20000</v>
+      </c>
+      <c r="E45" s="110">
+        <v>100000</v>
+      </c>
+      <c r="F45" s="110">
+        <v>100000</v>
+      </c>
+      <c r="G45" s="110">
         <f t="shared" si="7"/>
-        <v>80000</v>
+        <v>200000</v>
+      </c>
+      <c r="H45" s="110">
+        <f t="shared" si="8"/>
+        <v>220000</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" s="137">
-        <f>D46/2</f>
+        <v>126</v>
+      </c>
+      <c r="B46" s="133">
+        <v>7500</v>
+      </c>
+      <c r="C46" s="133">
+        <v>7500</v>
+      </c>
+      <c r="D46" s="133">
+        <v>15000</v>
+      </c>
+      <c r="E46" s="111">
+        <v>32500</v>
+      </c>
+      <c r="F46" s="111">
+        <v>32500</v>
+      </c>
+      <c r="G46" s="111">
+        <f t="shared" si="7"/>
+        <v>65000</v>
+      </c>
+      <c r="H46" s="111">
+        <f t="shared" si="8"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="136">
+        <f>D47/2</f>
         <v>70000</v>
       </c>
-      <c r="C46" s="137">
-        <f>D46/2</f>
+      <c r="C47" s="136">
+        <f>D47/2</f>
         <v>70000</v>
       </c>
-      <c r="D46" s="137">
+      <c r="D47" s="136">
         <v>140000</v>
       </c>
-      <c r="E46" s="110">
+      <c r="E47" s="109">
         <v>66800</v>
       </c>
-      <c r="F46" s="110">
+      <c r="F47" s="109">
         <v>66800</v>
       </c>
-      <c r="G46" s="110">
-        <f t="shared" si="6"/>
+      <c r="G47" s="109">
+        <f t="shared" si="7"/>
         <v>133600</v>
       </c>
-      <c r="H46" s="110">
-        <f t="shared" si="7"/>
+      <c r="H47" s="109">
+        <f t="shared" si="8"/>
         <v>273600</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="130" t="s">
+    <row r="48" spans="1:9">
+      <c r="A48" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="116">
+      <c r="B48" s="115">
         <v>0</v>
       </c>
-      <c r="C47" s="116">
+      <c r="C48" s="115">
         <v>0</v>
       </c>
-      <c r="D47" s="116">
-        <f>SUM(B47:C47)</f>
+      <c r="D48" s="115">
+        <f>SUM(B48:C48)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="110">
+      <c r="E48" s="109">
         <v>61500</v>
       </c>
-      <c r="F47" s="110">
+      <c r="F48" s="109">
         <v>61500</v>
       </c>
-      <c r="G47" s="110">
-        <f t="shared" si="6"/>
-        <v>123000</v>
-      </c>
-      <c r="H47" s="110">
+      <c r="G48" s="109">
         <f t="shared" si="7"/>
         <v>123000</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="113" t="s">
+      <c r="H48" s="109">
+        <f t="shared" si="8"/>
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="136">
+        <v>20000</v>
+      </c>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136">
+        <f>SUM(B49:C49)</f>
+        <v>20000</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="B48" s="137">
-        <v>20000</v>
-      </c>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137">
-        <f>SUM(B48:C48)</f>
-        <v>20000</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="113" t="s">
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A51" s="141" t="s">
         <v>207</v>
       </c>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A50" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="128">
+      <c r="B51" s="117"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="127">
         <v>15000</v>
       </c>
-      <c r="F50" s="128">
+      <c r="F51" s="127">
         <v>10000</v>
       </c>
-      <c r="G50" s="128">
-        <f>SUM(E50:F50)</f>
+      <c r="G51" s="127">
+        <f>SUM(E51:F51)</f>
         <v>25000</v>
       </c>
-      <c r="H50" s="128">
-        <f>G50</f>
+      <c r="H51" s="127">
+        <f>G51</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A51" s="129" t="s">
+    <row r="52" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A52" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="120">
-        <f t="shared" ref="B51:H51" si="8">SUM(B35:B50)</f>
+      <c r="B52" s="119">
+        <f t="shared" ref="B52:H52" si="9">SUM(B36:B51)</f>
         <v>367500</v>
       </c>
-      <c r="C51" s="120">
-        <f t="shared" si="8"/>
+      <c r="C52" s="119">
+        <f t="shared" si="9"/>
         <v>452500</v>
       </c>
-      <c r="D51" s="120">
-        <f t="shared" si="8"/>
+      <c r="D52" s="119">
+        <f t="shared" si="9"/>
         <v>820000</v>
       </c>
-      <c r="E51" s="120">
-        <f t="shared" si="8"/>
-        <v>2107675.8571428573</v>
-      </c>
-      <c r="F51" s="120">
-        <f t="shared" si="8"/>
-        <v>1707627.3571428573</v>
-      </c>
-      <c r="G51" s="120">
-        <f t="shared" si="8"/>
-        <v>3815303.2142857146</v>
-      </c>
-      <c r="H51" s="121">
-        <f t="shared" si="8"/>
-        <v>4395303.2142857146</v>
-      </c>
-      <c r="I51" s="141"/>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="206" t="s">
-        <v>210</v>
-      </c>
-      <c r="B53" s="206"/>
-      <c r="C53" s="206"/>
-      <c r="D53" s="206"/>
-      <c r="E53" s="206"/>
-      <c r="F53" s="206"/>
-      <c r="G53" s="206"/>
-      <c r="H53" s="206"/>
+      <c r="E52" s="119">
+        <f t="shared" si="9"/>
+        <v>1854520.7357142859</v>
+      </c>
+      <c r="F52" s="119">
+        <f t="shared" si="9"/>
+        <v>1782797.7500000002</v>
+      </c>
+      <c r="G52" s="119">
+        <f t="shared" si="9"/>
+        <v>3637318.4857142861</v>
+      </c>
+      <c r="H52" s="120">
+        <f t="shared" si="9"/>
+        <v>4217318.4857142866</v>
+      </c>
+      <c r="I52" s="140"/>
+      <c r="J52" s="6"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B54" s="137">
-        <v>91480</v>
-      </c>
-      <c r="C54" s="137">
-        <v>91480</v>
-      </c>
-      <c r="D54" s="137">
-        <f>SUM(B54:C54)</f>
-        <v>182960</v>
-      </c>
-      <c r="E54" s="205" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="205"/>
-      <c r="G54" s="205"/>
-      <c r="H54" s="137">
-        <f>D54+G54</f>
-        <v>182960</v>
-      </c>
+      <c r="A54" s="209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B54" s="209"/>
+      <c r="C54" s="209"/>
+      <c r="D54" s="209"/>
+      <c r="E54" s="209"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="209"/>
+      <c r="H54" s="209"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" s="136">
+        <v>91480</v>
+      </c>
+      <c r="C55" s="136">
+        <v>91480</v>
+      </c>
+      <c r="D55" s="136">
+        <f>SUM(B55:C55)</f>
+        <v>182960</v>
+      </c>
+      <c r="E55" s="208" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="208"/>
+      <c r="G55" s="208"/>
+      <c r="H55" s="136">
+        <f>D55+G55</f>
+        <v>182960</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="136">
+        <v>2075</v>
+      </c>
+      <c r="C56" s="149">
+        <v>0</v>
+      </c>
+      <c r="D56" s="136">
+        <f>SUM(B56:C56)</f>
+        <v>2075</v>
+      </c>
+      <c r="E56" s="208" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="208"/>
+      <c r="G56" s="208"/>
+      <c r="H56" s="136">
+        <f>D56+G56</f>
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B55" s="137">
-        <v>2075</v>
-      </c>
-      <c r="C55" s="150">
-        <v>0</v>
-      </c>
-      <c r="D55" s="137">
-        <f>SUM(B55:C55)</f>
-        <v>2075</v>
-      </c>
-      <c r="E55" s="205" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="205"/>
-      <c r="G55" s="205"/>
-      <c r="H55" s="137">
-        <f>D55+G55</f>
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>226</v>
-      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="152"/>
+      <c r="A59" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" t="s">
+      <c r="B60" s="151"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
         <v>17</v>
       </c>
-      <c r="B60" t="s">
-        <v>225</v>
+      <c r="B61" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E14:G14"/>
@@ -5500,20 +5553,21 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E54:G54"/>
     <mergeCell ref="E55:G55"/>
-    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="A54:H54"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5985,52 +6039,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="235" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="196" t="s">
+      <c r="B1" s="235"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="236" t="s">
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="239" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="224" t="s">
-        <v>237</v>
-      </c>
-      <c r="K1" s="237" t="s">
+      <c r="I1" s="227" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="240" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="238"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="182" t="s">
+      <c r="L1" s="241"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="185" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="225" t="s">
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="228" t="s">
         <v>113</v>
       </c>
-      <c r="S1" s="224" t="s">
-        <v>237</v>
+      <c r="S1" s="227" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="234"/>
-      <c r="B2" s="234"/>
-      <c r="C2" s="235"/>
+      <c r="A2" s="237"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="238"/>
       <c r="D2" s="75" t="s">
         <v>84</v>
       </c>
@@ -6043,11 +6097,11 @@
       <c r="G2" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="236"/>
-      <c r="I2" s="224"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="235"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="227"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="238"/>
       <c r="N2" s="75" t="s">
         <v>84</v>
       </c>
@@ -6060,8 +6114,8 @@
       <c r="Q2" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="R2" s="226"/>
-      <c r="S2" s="224"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="227"/>
     </row>
     <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="55" t="s">
@@ -6084,7 +6138,7 @@
       <c r="H3" s="79">
         <v>1</v>
       </c>
-      <c r="I3" s="165">
+      <c r="I3" s="164">
         <v>3</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -6094,7 +6148,7 @@
       <c r="M3" s="81">
         <v>5</v>
       </c>
-      <c r="N3" s="227">
+      <c r="N3" s="230">
         <v>2</v>
       </c>
       <c r="O3" s="82">
@@ -6107,7 +6161,7 @@
       <c r="R3" s="79">
         <v>1</v>
       </c>
-      <c r="S3" s="165">
+      <c r="S3" s="164">
         <v>4</v>
       </c>
     </row>
@@ -6130,7 +6184,7 @@
       <c r="H4" s="79">
         <v>0</v>
       </c>
-      <c r="I4" s="165">
+      <c r="I4" s="164">
         <v>2</v>
       </c>
       <c r="K4" s="52" t="s">
@@ -6140,14 +6194,14 @@
       <c r="M4" s="81">
         <v>3</v>
       </c>
-      <c r="N4" s="228"/>
+      <c r="N4" s="231"/>
       <c r="O4" s="84"/>
       <c r="P4" s="84"/>
       <c r="Q4" s="85"/>
       <c r="R4" s="79">
         <v>2</v>
       </c>
-      <c r="S4" s="165">
+      <c r="S4" s="164">
         <v>1</v>
       </c>
     </row>
@@ -6168,7 +6222,7 @@
       <c r="H5" s="79">
         <v>1</v>
       </c>
-      <c r="I5" s="165">
+      <c r="I5" s="164">
         <v>1</v>
       </c>
       <c r="K5" s="52" t="s">
@@ -6176,7 +6230,7 @@
       </c>
       <c r="L5" s="52"/>
       <c r="M5" s="81">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N5" s="84"/>
       <c r="O5" s="84">
@@ -6187,8 +6241,8 @@
       <c r="R5" s="79">
         <v>0</v>
       </c>
-      <c r="S5" s="165">
-        <v>4</v>
+      <c r="S5" s="164">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
@@ -6208,7 +6262,7 @@
       <c r="H6" s="79">
         <v>2</v>
       </c>
-      <c r="I6" s="165">
+      <c r="I6" s="164">
         <v>1</v>
       </c>
       <c r="K6" s="52" t="s">
@@ -6227,7 +6281,7 @@
       <c r="R6" s="79">
         <v>4</v>
       </c>
-      <c r="S6" s="165">
+      <c r="S6" s="164">
         <v>2</v>
       </c>
     </row>
@@ -6248,7 +6302,7 @@
       <c r="H7" s="79">
         <v>2</v>
       </c>
-      <c r="I7" s="165">
+      <c r="I7" s="164">
         <v>1</v>
       </c>
       <c r="K7" s="52" t="s">
@@ -6267,7 +6321,7 @@
       <c r="R7" s="79">
         <v>2</v>
       </c>
-      <c r="S7" s="165">
+      <c r="S7" s="164">
         <v>3</v>
       </c>
     </row>
@@ -6288,7 +6342,7 @@
       <c r="H8" s="79">
         <v>2</v>
       </c>
-      <c r="I8" s="165">
+      <c r="I8" s="164">
         <v>1</v>
       </c>
       <c r="K8" s="52" t="s">
@@ -6299,7 +6353,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="84"/>
-      <c r="O8" s="87">
+      <c r="O8" s="84">
         <v>1</v>
       </c>
       <c r="P8" s="84"/>
@@ -6307,7 +6361,7 @@
       <c r="R8" s="79">
         <v>0</v>
       </c>
-      <c r="S8" s="165">
+      <c r="S8" s="164">
         <v>1</v>
       </c>
     </row>
@@ -6317,7 +6371,7 @@
       </c>
       <c r="B9" s="56"/>
       <c r="C9" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="77"/>
@@ -6326,10 +6380,10 @@
       </c>
       <c r="G9" s="78"/>
       <c r="H9" s="79">
-        <v>1</v>
-      </c>
-      <c r="I9" s="165">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I9" s="164">
+        <v>0</v>
       </c>
       <c r="K9" s="52" t="s">
         <v>99</v>
@@ -6345,14 +6399,14 @@
       </c>
       <c r="Q9" s="85"/>
       <c r="R9" s="79">
-        <v>2</v>
-      </c>
-      <c r="S9" s="165">
+        <v>1</v>
+      </c>
+      <c r="S9" s="164">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="87" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="56"/>
@@ -6366,9 +6420,9 @@
       <c r="F10" s="77"/>
       <c r="G10" s="78"/>
       <c r="H10" s="79">
-        <v>2</v>
-      </c>
-      <c r="I10" s="165">
+        <v>0</v>
+      </c>
+      <c r="I10" s="164">
         <v>1</v>
       </c>
       <c r="K10" s="52" t="s">
@@ -6389,12 +6443,12 @@
       <c r="R10" s="79">
         <v>2</v>
       </c>
-      <c r="S10" s="165">
+      <c r="S10" s="164">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="87" t="s">
         <v>116</v>
       </c>
       <c r="B11" s="56"/>
@@ -6403,21 +6457,21 @@
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="77"/>
-      <c r="F11" s="89">
+      <c r="F11" s="88">
         <v>1</v>
       </c>
       <c r="G11" s="78"/>
       <c r="H11" s="79">
         <v>1</v>
       </c>
-      <c r="I11" s="165">
-        <v>1</v>
-      </c>
-      <c r="R11" s="90"/>
-      <c r="S11" s="166"/>
+      <c r="I11" s="164">
+        <v>1</v>
+      </c>
+      <c r="R11" s="89"/>
+      <c r="S11" s="165"/>
     </row>
     <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="87" t="s">
         <v>117</v>
       </c>
       <c r="B12" s="56"/>
@@ -6431,12 +6485,12 @@
       <c r="F12" s="77"/>
       <c r="G12" s="78"/>
       <c r="H12" s="79">
-        <v>2</v>
-      </c>
-      <c r="I12" s="165">
-        <v>1</v>
-      </c>
-      <c r="S12" s="166"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="164">
+        <v>1</v>
+      </c>
+      <c r="S12" s="165"/>
     </row>
     <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="15" t="s">
@@ -6455,10 +6509,10 @@
       <c r="H13" s="79">
         <v>0</v>
       </c>
-      <c r="I13" s="165">
+      <c r="I13" s="164">
         <v>0</v>
       </c>
-      <c r="S13" s="166"/>
+      <c r="S13" s="165"/>
     </row>
     <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="2" t="s">
@@ -6473,15 +6527,15 @@
         <v>1</v>
       </c>
       <c r="F14" s="85"/>
-      <c r="G14" s="91"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="79">
-        <v>0</v>
-      </c>
-      <c r="I14" s="165">
-        <v>1</v>
-      </c>
-      <c r="R14" s="90"/>
-      <c r="S14" s="166"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="164">
+        <v>1</v>
+      </c>
+      <c r="R14" s="89"/>
+      <c r="S14" s="165"/>
     </row>
     <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="50" t="s">
@@ -6496,21 +6550,21 @@
       <c r="F15" s="84">
         <v>1</v>
       </c>
-      <c r="G15" s="91"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="79">
         <v>1</v>
       </c>
-      <c r="I15" s="165">
-        <v>1</v>
-      </c>
-      <c r="R15" s="90"/>
-      <c r="S15" s="166"/>
+      <c r="I15" s="164">
+        <v>1</v>
+      </c>
+      <c r="R15" s="89"/>
+      <c r="S15" s="165"/>
     </row>
     <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="93"/>
+      <c r="A16" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="92"/>
       <c r="C16" s="86">
         <v>1</v>
       </c>
@@ -6519,93 +6573,93 @@
       <c r="F16" s="84">
         <v>1</v>
       </c>
-      <c r="G16" s="91"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="79">
         <v>1</v>
       </c>
-      <c r="I16" s="165">
-        <v>1</v>
-      </c>
-      <c r="R16" s="90"/>
-      <c r="S16" s="166"/>
+      <c r="I16" s="164">
+        <v>1</v>
+      </c>
+      <c r="R16" s="89"/>
+      <c r="S16" s="165"/>
     </row>
     <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="86" t="s">
         <v>120</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="94">
-        <v>2</v>
-      </c>
-      <c r="D17" s="95"/>
+      <c r="C17" s="93">
+        <v>0</v>
+      </c>
+      <c r="D17" s="94"/>
       <c r="E17" s="84">
         <v>1</v>
       </c>
       <c r="F17" s="85"/>
-      <c r="G17" s="91"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="79">
         <v>0</v>
       </c>
-      <c r="I17" s="165">
+      <c r="I17" s="164">
         <v>0</v>
       </c>
-      <c r="S17" s="166"/>
+      <c r="S17" s="165"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="86" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="94">
+      <c r="C18" s="93">
         <v>2</v>
       </c>
-      <c r="D18" s="95"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="85">
         <v>1</v>
       </c>
       <c r="F18" s="85"/>
-      <c r="G18" s="91"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="79">
         <v>2</v>
       </c>
-      <c r="I18" s="165">
-        <v>1</v>
-      </c>
-      <c r="R18" s="90"/>
-      <c r="S18" s="166"/>
+      <c r="I18" s="164">
+        <v>1</v>
+      </c>
+      <c r="R18" s="89"/>
+      <c r="S18" s="165"/>
     </row>
     <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="86" t="s">
         <v>122</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="94">
-        <v>2</v>
-      </c>
-      <c r="D19" s="95"/>
+      <c r="C19" s="93">
+        <v>0</v>
+      </c>
+      <c r="D19" s="94"/>
       <c r="E19" s="84">
         <v>1</v>
       </c>
       <c r="F19" s="85"/>
-      <c r="G19" s="91"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="79">
         <v>0</v>
       </c>
-      <c r="I19" s="165">
+      <c r="I19" s="164">
         <v>0</v>
       </c>
-      <c r="R19" s="90"/>
-      <c r="S19" s="166"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="165"/>
     </row>
     <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="155" t="s">
+      <c r="A20" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="155"/>
-      <c r="C20" s="156">
-        <v>4</v>
-      </c>
-      <c r="D20" s="95"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="155">
+        <v>0</v>
+      </c>
+      <c r="D20" s="94"/>
       <c r="E20" s="85">
         <v>2</v>
       </c>
@@ -6616,21 +6670,21 @@
       <c r="H20" s="79">
         <v>0</v>
       </c>
-      <c r="I20" s="165">
+      <c r="I20" s="164">
         <v>2</v>
       </c>
-      <c r="R20" s="90"/>
-      <c r="S20" s="168"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="167"/>
     </row>
     <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B21" s="54"/>
       <c r="C21" s="53">
         <v>1</v>
       </c>
-      <c r="D21" s="95"/>
+      <c r="D21" s="94"/>
       <c r="E21" s="85"/>
       <c r="F21" s="85">
         <v>1</v>
@@ -6639,21 +6693,21 @@
       <c r="H21" s="79">
         <v>1</v>
       </c>
-      <c r="I21" s="165">
-        <v>1</v>
-      </c>
-      <c r="R21" s="90"/>
-      <c r="S21" s="168"/>
+      <c r="I21" s="164">
+        <v>1</v>
+      </c>
+      <c r="R21" s="89"/>
+      <c r="S21" s="167"/>
     </row>
     <row r="22" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="54" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B22" s="54"/>
       <c r="C22" s="53">
         <v>2</v>
       </c>
-      <c r="D22" s="95"/>
+      <c r="D22" s="94"/>
       <c r="E22" s="85">
         <v>1</v>
       </c>
@@ -6662,24 +6716,24 @@
       <c r="H22" s="79">
         <v>2</v>
       </c>
-      <c r="I22" s="165">
-        <v>1</v>
-      </c>
-      <c r="R22" s="90"/>
-      <c r="S22" s="168"/>
+      <c r="I22" s="164">
+        <v>1</v>
+      </c>
+      <c r="R22" s="89"/>
+      <c r="S22" s="167"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
-      <c r="I23" s="166"/>
-      <c r="S23" s="166"/>
+      <c r="I23" s="165"/>
+      <c r="S23" s="165"/>
     </row>
     <row r="24" spans="1:19" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A24" s="231" t="s">
+      <c r="A24" s="234" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="231"/>
+      <c r="B24" s="234"/>
       <c r="C24" s="58">
         <f>SUM(C3:C22)</f>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D24" s="57">
         <f>SUM(D3:D20)</f>
@@ -6697,72 +6751,72 @@
         <f>SUM(G5:G20)</f>
         <v>1</v>
       </c>
-      <c r="H24" s="96">
+      <c r="H24" s="95">
         <f>SUM(H3:H22)</f>
-        <v>21</v>
-      </c>
-      <c r="I24" s="167">
+        <v>18</v>
+      </c>
+      <c r="I24" s="166">
         <f>SUM(I3:I22)</f>
-        <v>21</v>
-      </c>
-      <c r="K24" s="229" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="230"/>
-      <c r="M24" s="97">
+      <c r="L24" s="233"/>
+      <c r="M24" s="96">
         <f>SUM(M3:M10)</f>
-        <v>33</v>
-      </c>
-      <c r="N24" s="98">
+        <v>35</v>
+      </c>
+      <c r="N24" s="97">
         <f t="shared" ref="N24:Q24" si="0">SUM(N3:N10)</f>
         <v>2</v>
       </c>
-      <c r="O24" s="98">
+      <c r="O24" s="97">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="P24" s="98">
+      <c r="P24" s="97">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q24" s="99">
+      <c r="Q24" s="98">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R24" s="96">
+      <c r="R24" s="95">
         <f>SUM(R3:R10)</f>
-        <v>13</v>
-      </c>
-      <c r="S24" s="167">
+        <v>12</v>
+      </c>
+      <c r="S24" s="166">
         <f>SUM(S3:S10)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickTop="1">
       <c r="C25">
         <f>C24-3</f>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M25">
         <f>M24-3</f>
-        <v>30</v>
-      </c>
-      <c r="R25" s="90"/>
+        <v>32</v>
+      </c>
+      <c r="R25" s="89"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="169">
+      <c r="B28" s="168">
         <f>C24+M24</f>
-        <v>77</v>
-      </c>
-      <c r="C28" s="96">
+        <v>70</v>
+      </c>
+      <c r="C28" s="95">
         <f>H24+R24</f>
-        <v>34</v>
-      </c>
-      <c r="D28" s="167">
+        <v>30</v>
+      </c>
+      <c r="D28" s="166">
         <f>I24+S24</f>
         <v>39</v>
       </c>
@@ -6788,10 +6842,10 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="6"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
@@ -6815,10 +6869,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="6"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
@@ -6852,10 +6906,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6867,217 +6921,265 @@
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="157" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="157" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="104" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="158" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="103" t="s">
+      <c r="D2" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="105" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="157" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>230</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="C8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="244" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="245"/>
+      <c r="B11" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="241" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="107" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="172" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="171" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="156" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="242"/>
-      <c r="B11" s="107" t="s">
+      <c r="C14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="107" t="s">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E14" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="45">
+      <c r="A16" s="121" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -2377,7 +2377,7 @@
       </c>
       <c r="L1" s="178">
         <f>L2+L3</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M1" s="178"/>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="G2">
         <f>Meghívottak!C24</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <f>Meghívottak!M24</f>
@@ -2406,11 +2406,11 @@
       </c>
       <c r="L2" s="5">
         <f>Meghívottak!C24</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M2" s="44">
         <f>(L2-2)*M7+2*M8</f>
-        <v>945020.73571428587</v>
+        <v>995139.6180555555</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2425,15 +2425,15 @@
       </c>
       <c r="D3" s="65">
         <f>L1</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" s="64">
         <f>C3*D3</f>
-        <v>140000</v>
+        <v>144000</v>
       </c>
       <c r="G3" s="143">
         <f>G2*$C$3</f>
-        <v>70000</v>
+        <v>74000</v>
       </c>
       <c r="H3" s="143">
         <f>H2*$C$3</f>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="M3" s="44">
         <f>L3*M7</f>
-        <v>962397.75000000023</v>
+        <v>957641.5625</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2492,15 +2492,15 @@
       </c>
       <c r="D5" s="65">
         <f>L1-2</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" s="64">
         <f>C5*D5</f>
-        <v>530400</v>
+        <v>546000</v>
       </c>
       <c r="G5" s="143">
         <f>(G2-2)*C5</f>
-        <v>257400</v>
+        <v>273000</v>
       </c>
       <c r="H5" s="143">
         <f>H2*C5</f>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="M7">
         <f>C4/L1+(C3+C5+C7/2+C8+C9+C10+C11+E13/L1)*1.1</f>
-        <v>27497.078571428578</v>
+        <v>27361.1875</v>
       </c>
       <c r="S7" s="8"/>
     </row>
@@ -2572,26 +2572,26 @@
       </c>
       <c r="C8" s="68">
         <f>E8/D8</f>
-        <v>1342.8571428571429</v>
+        <v>1305.5555555555557</v>
       </c>
       <c r="D8" s="65">
         <f>$L$1</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8" s="64">
         <v>94000</v>
       </c>
       <c r="G8" s="143">
         <f>$G$2*$C$8</f>
-        <v>47000</v>
+        <v>48305.555555555562</v>
       </c>
       <c r="H8" s="143">
         <f>$H$2*$C$8</f>
-        <v>47000</v>
+        <v>45694.444444444445</v>
       </c>
       <c r="M8">
         <f>C4/L1+(C3+C6+C7/2+C8+C9+E13/L1)*1.1</f>
-        <v>18808.571428571435</v>
+        <v>18749.027777777781</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2606,15 +2606,15 @@
       </c>
       <c r="D9" s="65">
         <f>$L$1</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E9" s="64">
         <f t="shared" ref="E9:E10" si="0">C9*D9</f>
-        <v>546000</v>
+        <v>561600</v>
       </c>
       <c r="G9" s="143">
         <f>$G$2*$C$9</f>
-        <v>273000</v>
+        <v>288600</v>
       </c>
       <c r="H9" s="143">
         <f>$H$2*$C$9</f>
@@ -2633,15 +2633,15 @@
       </c>
       <c r="D10" s="65">
         <f>$L$1-2</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" s="64">
         <f t="shared" si="0"/>
-        <v>102000</v>
+        <v>105000</v>
       </c>
       <c r="G10" s="143">
         <f>($G$2-2)*C10</f>
-        <v>49500</v>
+        <v>52500</v>
       </c>
       <c r="H10" s="143">
         <f>H2*C10</f>
@@ -2657,23 +2657,23 @@
       <c r="B11" s="63"/>
       <c r="C11" s="68">
         <f>'Kieg. - Ital'!C4/TERVEZETT!L1</f>
-        <v>2498.6428571428573</v>
+        <v>2429.2361111111113</v>
       </c>
       <c r="D11" s="65">
         <f>$L$1-2</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E11" s="100">
         <f>C11*D11</f>
-        <v>169907.71428571429</v>
+        <v>170046.52777777778</v>
       </c>
       <c r="G11" s="143">
         <f>(G2-2)*C11</f>
-        <v>82455.21428571429</v>
+        <v>85023.263888888891</v>
       </c>
       <c r="H11" s="143">
         <f>H2*C11</f>
-        <v>87452.5</v>
+        <v>85023.263888888891</v>
       </c>
       <c r="U11" s="1"/>
     </row>
@@ -2686,15 +2686,15 @@
       <c r="D12" s="65"/>
       <c r="E12" s="64">
         <f>(E3+E5+E6+E7+E8+E9+E13)*0.1</f>
-        <v>145700</v>
+        <v>149220</v>
       </c>
       <c r="G12" s="143">
         <f>SUM(G3,G5:G10)*0.1+G13*0.1</f>
-        <v>77410</v>
+        <v>81360.555555555562</v>
       </c>
       <c r="H12" s="143">
         <f>SUM(H3,H5:H10)*0.1+H13*0.1</f>
-        <v>78490</v>
+        <v>78359.444444444453</v>
       </c>
       <c r="U12" s="1"/>
     </row>
@@ -2735,15 +2735,15 @@
       <c r="D14" s="187"/>
       <c r="E14" s="71">
         <f>SUM(E3:E13)</f>
-        <v>1886607.7142857143</v>
+        <v>1928466.5277777778</v>
       </c>
       <c r="G14" s="144">
         <f>SUM(G3:G13)</f>
-        <v>939965.21428571432</v>
+        <v>985989.375</v>
       </c>
       <c r="H14" s="144">
         <f>SUM(H3:H13)</f>
-        <v>956842.5</v>
+        <v>952977.15277777787</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -2757,7 +2757,7 @@
       <c r="D15" s="187"/>
       <c r="E15" s="64">
         <f>E14/L1</f>
-        <v>26951.538775510206</v>
+        <v>26784.257330246914</v>
       </c>
       <c r="U15" s="1"/>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="P22" s="173">
         <f>L1</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="174"/>
       <c r="W22" s="1"/>
@@ -2881,15 +2881,15 @@
       </c>
       <c r="D23" s="2">
         <f>L1+5</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E23" s="3">
         <f>C23*D23</f>
-        <v>33750</v>
+        <v>34650</v>
       </c>
       <c r="G23" s="143">
         <f>(G2+2.5)*C23</f>
-        <v>16875</v>
+        <v>17775</v>
       </c>
       <c r="H23" s="143">
         <f>(H2+2.5)*C23</f>
@@ -3345,11 +3345,11 @@
       </c>
       <c r="L39" s="142">
         <f>$L$2</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M39" s="44">
         <f>E40/2</f>
-        <v>149150</v>
+        <v>149600</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3363,11 +3363,11 @@
       <c r="D40" s="2"/>
       <c r="E40" s="4">
         <f>SUM(E23:E39)</f>
-        <v>298300</v>
+        <v>299200</v>
       </c>
       <c r="G40" s="144">
         <f>SUM(G23:G39)</f>
-        <v>168225</v>
+        <v>169125</v>
       </c>
       <c r="H40" s="144">
         <f>SUM(H23:H39)</f>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="M40" s="44">
         <f>E40/2</f>
-        <v>149150</v>
+        <v>149600</v>
       </c>
       <c r="N40" s="1"/>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="L49" s="142">
         <f>$L$2</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M49" s="44">
         <f>E50/2</f>
@@ -3546,15 +3546,15 @@
       </c>
       <c r="D53" s="160">
         <f>L1</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E53" s="162">
         <f>C53*D53</f>
-        <v>84000</v>
+        <v>86400</v>
       </c>
       <c r="G53" s="143">
         <f>$G$2*$C53</f>
-        <v>42000</v>
+        <v>44400</v>
       </c>
       <c r="H53" s="143">
         <f>$H$2*$C53</f>
@@ -3573,15 +3573,15 @@
       </c>
       <c r="D54" s="160">
         <f>L1</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E54" s="162">
         <f>C54*D54</f>
-        <v>108500</v>
+        <v>111600</v>
       </c>
       <c r="G54" s="143">
         <f>$G$2*$C54</f>
-        <v>54250</v>
+        <v>57350</v>
       </c>
       <c r="H54" s="143">
         <f>$H$2*$C54</f>
@@ -3592,11 +3592,11 @@
       </c>
       <c r="L54" s="5">
         <f>$L$2</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M54" s="44">
         <f>$E$55/2+($L$54*$C$53)+($L$54*$C$54)</f>
-        <v>206250</v>
+        <v>211750</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3642,11 +3642,11 @@
       <c r="D56" s="15"/>
       <c r="E56" s="4">
         <f>SUM(E53:E55)</f>
-        <v>412500</v>
+        <v>418000</v>
       </c>
       <c r="G56" s="144">
         <f>SUM(G53:G55)</f>
-        <v>206250</v>
+        <v>211750</v>
       </c>
       <c r="H56" s="144">
         <f>SUM(H53:H55)</f>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="L62" s="5">
         <f>$L$2</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M62" s="44">
         <f>SUM(E62:E64)/2</f>
@@ -4078,15 +4078,15 @@
       <c r="D79" s="26"/>
       <c r="E79" s="27">
         <f>E14+E20+E40+E50+E56</f>
-        <v>3823207.7142857146</v>
+        <v>3871466.527777778</v>
       </c>
       <c r="G79" s="144">
         <f>G14+G18+G40+G50+G56+G78</f>
-        <v>2332217.7142857146</v>
+        <v>2384641.875</v>
       </c>
       <c r="H79" s="144">
         <f>H56+H50+H40+H18+H14+H78</f>
-        <v>2305588</v>
+        <v>2301722.652777778</v>
       </c>
       <c r="K79" s="205" t="s">
         <v>81</v>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="L80" s="193">
         <f>M2+L18+M39+M49+M54+M62</f>
-        <v>1997405.7357142859</v>
+        <v>2053474.6180555555</v>
       </c>
       <c r="M80" s="202"/>
     </row>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="L81" s="203">
         <f>M3+L19+M40+M50+M55+M63</f>
-        <v>2135682.75</v>
+        <v>2131376.5625</v>
       </c>
       <c r="M81" s="204"/>
     </row>
@@ -4155,7 +4155,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5044,19 +5044,19 @@
       </c>
       <c r="E38" s="111">
         <f>TERVEZETT!M2-B38</f>
-        <v>845020.73571428587</v>
+        <v>895139.6180555555</v>
       </c>
       <c r="F38" s="111">
         <f>TERVEZETT!M3-C38</f>
-        <v>862397.75000000023</v>
+        <v>857641.5625</v>
       </c>
       <c r="G38" s="114">
         <f t="shared" si="7"/>
-        <v>1707418.4857142861</v>
+        <v>1752781.1805555555</v>
       </c>
       <c r="H38" s="114">
         <f>D38+G38</f>
-        <v>1907418.4857142861</v>
+        <v>1952781.1805555555</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="E40" s="111">
         <f>TERVEZETT!M54</f>
-        <v>206250</v>
+        <v>211750</v>
       </c>
       <c r="F40" s="111">
         <f>TERVEZETT!M55</f>
@@ -5112,11 +5112,11 @@
       </c>
       <c r="G40" s="111">
         <f t="shared" si="7"/>
-        <v>412500</v>
+        <v>418000</v>
       </c>
       <c r="H40" s="111">
         <f>G40</f>
-        <v>412500</v>
+        <v>418000</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -5420,19 +5420,19 @@
       </c>
       <c r="E52" s="119">
         <f t="shared" si="9"/>
-        <v>1854520.7357142859</v>
+        <v>1910139.6180555555</v>
       </c>
       <c r="F52" s="119">
         <f t="shared" si="9"/>
-        <v>1782797.7500000002</v>
+        <v>1778041.5625</v>
       </c>
       <c r="G52" s="119">
         <f t="shared" si="9"/>
-        <v>3637318.4857142861</v>
+        <v>3688181.1805555555</v>
       </c>
       <c r="H52" s="120">
         <f t="shared" si="9"/>
-        <v>4217318.4857142866</v>
+        <v>4268181.180555556</v>
       </c>
       <c r="I52" s="140"/>
       <c r="J52" s="6"/>
@@ -6040,7 +6040,7 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B20" s="154"/>
       <c r="C20" s="155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="94"/>
       <c r="E20" s="85">
@@ -6733,7 +6733,7 @@
       <c r="B24" s="234"/>
       <c r="C24" s="58">
         <f>SUM(C3:C22)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D24" s="57">
         <f>SUM(D3:D20)</f>
@@ -6795,7 +6795,7 @@
     <row r="25" spans="1:19" ht="15.75" thickTop="1">
       <c r="C25">
         <f>C24-3</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M25">
         <f>M24-3</f>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="B28" s="168">
         <f>C24+M24</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C28" s="95">
         <f>H24+R24</f>

--- a/Árkalkuláció.xlsx
+++ b/Árkalkuláció.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="13755" yWindow="0" windowWidth="15075" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TERVEZETT" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="249">
   <si>
     <t>TOTAL</t>
   </si>
@@ -380,9 +380,6 @@
     <t>Jávorszki Erzsók</t>
   </si>
   <si>
-    <t>Jászkai Tünde</t>
-  </si>
-  <si>
     <t>Berecz Andrea</t>
   </si>
   <si>
@@ -644,9 +641,6 @@
     <t>Buszra sütemény</t>
   </si>
   <si>
-    <t>Fodrász (smink ár nélkül)</t>
-  </si>
-  <si>
     <t>Fodrász (smink nélkül)</t>
   </si>
   <si>
@@ -740,9 +734,6 @@
     <t>Kocsi</t>
   </si>
   <si>
-    <t>Mind2 hangosítás</t>
-  </si>
-  <si>
     <t>Süteményesek (busz, étterem, grillázstorta)</t>
   </si>
   <si>
@@ -753,6 +744,30 @@
   </si>
   <si>
     <t>Patakiné Pirike</t>
+  </si>
+  <si>
+    <t>Hurtos István és Ákos</t>
+  </si>
+  <si>
+    <t>30/342-3398</t>
+  </si>
+  <si>
+    <t>Hangosítás</t>
+  </si>
+  <si>
+    <t>Berecz Tünde</t>
+  </si>
+  <si>
+    <t>Smink a továbbiaknak: 5e</t>
+  </si>
+  <si>
+    <t>Fodrász (menyasszony: 10e, további: 5e)</t>
+  </si>
+  <si>
+    <t>Gyűrűpárna</t>
+  </si>
+  <si>
+    <t>utána fizet</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1557,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1720,9 +1735,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1738,7 +1750,6 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1764,7 +1775,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1812,35 +1822,75 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1880,72 +1930,51 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1961,26 +1990,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2003,40 +2041,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2359,13 +2367,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="177"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="179"/>
       <c r="G1" t="s">
         <v>23</v>
       </c>
@@ -2375,11 +2383,11 @@
       <c r="K1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="178">
+      <c r="L1" s="187">
         <f>L2+L3</f>
         <v>72</v>
       </c>
-      <c r="M1" s="178"/>
+      <c r="M1" s="187"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="11"/>
@@ -2431,11 +2439,11 @@
         <f>C3*D3</f>
         <v>144000</v>
       </c>
-      <c r="G3" s="143">
+      <c r="G3" s="140">
         <f>G2*$C$3</f>
         <v>74000</v>
       </c>
-      <c r="H3" s="143">
+      <c r="H3" s="140">
         <f>H2*$C$3</f>
         <v>70000</v>
       </c>
@@ -2468,11 +2476,11 @@
         <f>C4*D4</f>
         <v>12000</v>
       </c>
-      <c r="G4" s="143">
+      <c r="G4" s="140">
         <f>$E$4/2</f>
         <v>6000</v>
       </c>
-      <c r="H4" s="143">
+      <c r="H4" s="140">
         <f>$E$4/2</f>
         <v>6000</v>
       </c>
@@ -2498,11 +2506,11 @@
         <f>C5*D5</f>
         <v>546000</v>
       </c>
-      <c r="G5" s="143">
+      <c r="G5" s="140">
         <f>(G2-2)*C5</f>
         <v>273000</v>
       </c>
-      <c r="H5" s="143">
+      <c r="H5" s="140">
         <f>H2*C5</f>
         <v>273000</v>
       </c>
@@ -2524,11 +2532,11 @@
         <f>C6*D6</f>
         <v>7800</v>
       </c>
-      <c r="G6" s="143">
+      <c r="G6" s="140">
         <f>2*C6</f>
         <v>7800</v>
       </c>
-      <c r="H6" s="143">
+      <c r="H6" s="140">
         <v>0</v>
       </c>
     </row>
@@ -2549,11 +2557,11 @@
         <f>C7*D7</f>
         <v>107300</v>
       </c>
-      <c r="G7" s="143">
+      <c r="G7" s="140">
         <f>$E$7/2</f>
         <v>53650</v>
       </c>
-      <c r="H7" s="143">
+      <c r="H7" s="140">
         <f>$E$7/2</f>
         <v>53650</v>
       </c>
@@ -2581,11 +2589,11 @@
       <c r="E8" s="64">
         <v>94000</v>
       </c>
-      <c r="G8" s="143">
+      <c r="G8" s="140">
         <f>$G$2*$C$8</f>
         <v>48305.555555555562</v>
       </c>
-      <c r="H8" s="143">
+      <c r="H8" s="140">
         <f>$H$2*$C$8</f>
         <v>45694.444444444445</v>
       </c>
@@ -2612,11 +2620,11 @@
         <f t="shared" ref="E9:E10" si="0">C9*D9</f>
         <v>561600</v>
       </c>
-      <c r="G9" s="143">
+      <c r="G9" s="140">
         <f>$G$2*$C$9</f>
         <v>288600</v>
       </c>
-      <c r="H9" s="143">
+      <c r="H9" s="140">
         <f>$H$2*$C$9</f>
         <v>273000</v>
       </c>
@@ -2639,11 +2647,11 @@
         <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-      <c r="G10" s="143">
+      <c r="G10" s="140">
         <f>($G$2-2)*C10</f>
         <v>52500</v>
       </c>
-      <c r="H10" s="143">
+      <c r="H10" s="140">
         <f>H2*C10</f>
         <v>52500</v>
       </c>
@@ -2667,11 +2675,11 @@
         <f>C11*D11</f>
         <v>170046.52777777778</v>
       </c>
-      <c r="G11" s="143">
+      <c r="G11" s="140">
         <f>(G2-2)*C11</f>
         <v>85023.263888888891</v>
       </c>
-      <c r="H11" s="143">
+      <c r="H11" s="140">
         <f>H2*C11</f>
         <v>85023.263888888891</v>
       </c>
@@ -2688,11 +2696,11 @@
         <f>(E3+E5+E6+E7+E8+E9+E13)*0.1</f>
         <v>149220</v>
       </c>
-      <c r="G12" s="143">
+      <c r="G12" s="140">
         <f>SUM(G3,G5:G10)*0.1+G13*0.1</f>
         <v>81360.555555555562</v>
       </c>
-      <c r="H12" s="143">
+      <c r="H12" s="140">
         <f>SUM(H3,H5:H10)*0.1+H13*0.1</f>
         <v>78359.444444444453</v>
       </c>
@@ -2715,11 +2723,11 @@
         <f>C13*D13</f>
         <v>31500</v>
       </c>
-      <c r="G13" s="143">
+      <c r="G13" s="140">
         <f>$E$13/2</f>
         <v>15750</v>
       </c>
-      <c r="H13" s="143">
+      <c r="H13" s="140">
         <f>$E$13/2</f>
         <v>15750</v>
       </c>
@@ -2731,17 +2739,17 @@
       <c r="B14" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="186"/>
-      <c r="D14" s="187"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="198"/>
       <c r="E14" s="71">
         <f>SUM(E3:E13)</f>
         <v>1928466.5277777778</v>
       </c>
-      <c r="G14" s="144">
+      <c r="G14" s="141">
         <f>SUM(G3:G13)</f>
         <v>985989.375</v>
       </c>
-      <c r="H14" s="144">
+      <c r="H14" s="141">
         <f>SUM(H3:H13)</f>
         <v>952977.15277777787</v>
       </c>
@@ -2753,8 +2761,8 @@
       <c r="B15" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="186"/>
-      <c r="D15" s="187"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="198"/>
       <c r="E15" s="64">
         <f>E14/L1</f>
         <v>26784.257330246914</v>
@@ -2770,52 +2778,52 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A17" s="175" t="s">
+      <c r="A17" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="176"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="177"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="179"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="188" t="s">
+      <c r="B18" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="182"/>
-      <c r="D18" s="183"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="194"/>
       <c r="E18" s="3">
         <f>250*310</f>
         <v>77500</v>
       </c>
-      <c r="G18" s="144">
+      <c r="G18" s="141">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="H18" s="144">
+      <c r="H18" s="141">
         <f>E19</f>
         <v>198400</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="193">
+      <c r="L18" s="170">
         <f>E18</f>
         <v>77500</v>
       </c>
-      <c r="M18" s="194"/>
+      <c r="M18" s="204"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="189"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="184"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="195"/>
       <c r="E19" s="14">
         <f>640*310</f>
         <v>198400</v>
@@ -2823,19 +2831,19 @@
       <c r="K19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="191">
+      <c r="L19" s="202">
         <f>E19</f>
         <v>198400</v>
       </c>
-      <c r="M19" s="192"/>
+      <c r="M19" s="203"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="190"/>
-      <c r="C20" s="185"/>
-      <c r="D20" s="184"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="195"/>
       <c r="E20" s="4">
         <f>SUM(E18:E19)</f>
         <v>275900</v>
@@ -2852,28 +2860,28 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="180"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="181"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="192"/>
       <c r="O22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="173">
+      <c r="P22" s="188">
         <f>L1</f>
         <v>72</v>
       </c>
-      <c r="Q22" s="174"/>
+      <c r="Q22" s="189"/>
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="178" t="s">
+      <c r="B23" s="187" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2">
@@ -2887,28 +2895,28 @@
         <f>C23*D23</f>
         <v>34650</v>
       </c>
-      <c r="G23" s="143">
+      <c r="G23" s="140">
         <f>(G2+2.5)*C23</f>
         <v>17775</v>
       </c>
-      <c r="H23" s="143">
+      <c r="H23" s="140">
         <f>(H2+2.5)*C23</f>
         <v>16875</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="173">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="174"/>
+      <c r="P23" s="188">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="189"/>
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="178"/>
+        <v>171</v>
+      </c>
+      <c r="B24" s="187"/>
       <c r="C24" s="21">
         <v>12000</v>
       </c>
@@ -2919,28 +2927,28 @@
         <f>C24*D24</f>
         <v>108000</v>
       </c>
-      <c r="G24" s="143">
+      <c r="G24" s="140">
         <f>C24*5</f>
         <v>60000</v>
       </c>
-      <c r="H24" s="143">
+      <c r="H24" s="140">
         <f>C24*4</f>
         <v>48000</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="173">
+      <c r="P24" s="188">
         <v>9</v>
       </c>
-      <c r="Q24" s="174"/>
+      <c r="Q24" s="189"/>
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="178"/>
+      <c r="B25" s="187"/>
       <c r="C25" s="21">
         <v>18500</v>
       </c>
@@ -2951,26 +2959,26 @@
         <f>C25*D25</f>
         <v>18500</v>
       </c>
-      <c r="G25" s="143">
+      <c r="G25" s="140">
         <f t="shared" ref="G25:H38" si="1">$E25/2</f>
         <v>9250</v>
       </c>
-      <c r="H25" s="143">
+      <c r="H25" s="140">
         <f t="shared" si="1"/>
         <v>9250</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="199"/>
-      <c r="Q25" s="199"/>
+      <c r="P25" s="186"/>
+      <c r="Q25" s="186"/>
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="178"/>
+      <c r="B26" s="187"/>
       <c r="C26" s="21">
         <v>7500</v>
       </c>
@@ -2981,19 +2989,19 @@
         <f>C26*D26</f>
         <v>7500</v>
       </c>
-      <c r="G26" s="143">
+      <c r="G26" s="140">
         <f t="shared" si="1"/>
         <v>3750</v>
       </c>
-      <c r="H26" s="143">
+      <c r="H26" s="140">
         <f t="shared" si="1"/>
         <v>3750</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="197"/>
-      <c r="Q26" s="198"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="185"/>
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23">
@@ -3010,11 +3018,11 @@
       <c r="E27" s="74">
         <v>20000</v>
       </c>
-      <c r="G27" s="143">
+      <c r="G27" s="140">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="H27" s="143">
+      <c r="H27" s="140">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
@@ -3024,7 +3032,7 @@
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="178" t="s">
+      <c r="B28" s="187" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="21">
@@ -3040,11 +3048,11 @@
       <c r="F28" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="143">
+      <c r="G28" s="140">
         <f>E28</f>
         <v>22500</v>
       </c>
-      <c r="H28" s="143">
+      <c r="H28" s="140">
         <v>0</v>
       </c>
       <c r="I28" s="45"/>
@@ -3052,9 +3060,9 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="178"/>
+        <v>169</v>
+      </c>
+      <c r="B29" s="187"/>
       <c r="C29" s="21">
         <v>5500</v>
       </c>
@@ -3068,11 +3076,11 @@
       <c r="F29" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="143">
+      <c r="G29" s="140">
         <f>E29</f>
         <v>5500</v>
       </c>
-      <c r="H29" s="143">
+      <c r="H29" s="140">
         <v>0</v>
       </c>
       <c r="I29" s="45"/>
@@ -3083,7 +3091,7 @@
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="178"/>
+      <c r="B30" s="187"/>
       <c r="C30" s="21">
         <v>1850</v>
       </c>
@@ -3097,10 +3105,10 @@
       <c r="F30" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="143">
+      <c r="G30" s="140">
         <v>0</v>
       </c>
-      <c r="H30" s="143">
+      <c r="H30" s="140">
         <f>E30</f>
         <v>1850</v>
       </c>
@@ -3110,9 +3118,9 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" s="178"/>
+        <v>172</v>
+      </c>
+      <c r="B31" s="187"/>
       <c r="C31" s="21">
         <v>1850</v>
       </c>
@@ -3123,11 +3131,11 @@
         <f>C31*D31</f>
         <v>3700</v>
       </c>
-      <c r="G31" s="143">
+      <c r="G31" s="140">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="H31" s="143">
+      <c r="H31" s="140">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
@@ -3137,9 +3145,9 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="178"/>
+        <v>174</v>
+      </c>
+      <c r="B32" s="187"/>
       <c r="C32" s="21">
         <v>1850</v>
       </c>
@@ -3150,11 +3158,11 @@
         <f>C32*D32</f>
         <v>3700</v>
       </c>
-      <c r="G32" s="143">
+      <c r="G32" s="140">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="H32" s="143">
+      <c r="H32" s="140">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
@@ -3163,9 +3171,9 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="178"/>
+        <v>173</v>
+      </c>
+      <c r="B33" s="187"/>
       <c r="C33" s="21">
         <v>2000</v>
       </c>
@@ -3176,11 +3184,11 @@
         <f>C33*D33</f>
         <v>4000</v>
       </c>
-      <c r="G33" s="143">
+      <c r="G33" s="140">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="H33" s="143">
+      <c r="H33" s="140">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
@@ -3188,9 +3196,9 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B34" s="178"/>
+        <v>170</v>
+      </c>
+      <c r="B34" s="187"/>
       <c r="C34" s="21">
         <v>2000</v>
       </c>
@@ -3201,11 +3209,11 @@
         <f>C34*D34</f>
         <v>6000</v>
       </c>
-      <c r="G34" s="143">
+      <c r="G34" s="140">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="H34" s="143">
+      <c r="H34" s="140">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
@@ -3213,9 +3221,9 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="178"/>
+        <v>175</v>
+      </c>
+      <c r="B35" s="187"/>
       <c r="C35" s="21">
         <v>7500</v>
       </c>
@@ -3226,11 +3234,11 @@
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="G35" s="143">
+      <c r="G35" s="140">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="H35" s="143">
+      <c r="H35" s="140">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
@@ -3238,7 +3246,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36" s="107" t="s">
         <v>3</v>
@@ -3253,11 +3261,11 @@
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="G36" s="143">
+      <c r="G36" s="140">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="H36" s="143">
+      <c r="H36" s="140">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
@@ -3267,7 +3275,7 @@
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="200" t="s">
+      <c r="B37" s="180" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="11">
@@ -3280,11 +3288,11 @@
         <f>D37*C37</f>
         <v>26500</v>
       </c>
-      <c r="G37" s="143">
+      <c r="G37" s="140">
         <f t="shared" si="1"/>
         <v>13250</v>
       </c>
-      <c r="H37" s="143">
+      <c r="H37" s="140">
         <f t="shared" si="1"/>
         <v>13250</v>
       </c>
@@ -3296,7 +3304,7 @@
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="200"/>
+      <c r="B38" s="180"/>
       <c r="C38" s="2">
         <v>1500</v>
       </c>
@@ -3307,11 +3315,11 @@
         <f>D38*C38</f>
         <v>1500</v>
       </c>
-      <c r="G38" s="143">
+      <c r="G38" s="140">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="H38" s="143">
+      <c r="H38" s="140">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
@@ -3321,7 +3329,7 @@
       <c r="A39" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="201"/>
+      <c r="B39" s="181"/>
       <c r="C39" s="2">
         <v>300</v>
       </c>
@@ -3332,18 +3340,18 @@
         <f>D39*C39</f>
         <v>300</v>
       </c>
-      <c r="G39" s="143">
+      <c r="G39" s="140">
         <f>$E39/2</f>
         <v>150</v>
       </c>
-      <c r="H39" s="143">
+      <c r="H39" s="140">
         <f>$E39/2</f>
         <v>150</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L39" s="142">
+      <c r="L39" s="139">
         <f>$L$2</f>
         <v>37</v>
       </c>
@@ -3365,18 +3373,18 @@
         <f>SUM(E23:E39)</f>
         <v>299200</v>
       </c>
-      <c r="G40" s="144">
+      <c r="G40" s="141">
         <f>SUM(G23:G39)</f>
         <v>169125</v>
       </c>
-      <c r="H40" s="144">
+      <c r="H40" s="141">
         <f>SUM(H23:H39)</f>
         <v>130075</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L40" s="142">
+      <c r="L40" s="139">
         <f>$L$3</f>
         <v>35</v>
       </c>
@@ -3395,19 +3403,19 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A42" s="175" t="s">
+      <c r="A42" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="177"/>
+      <c r="B42" s="178"/>
+      <c r="C42" s="178"/>
+      <c r="D42" s="178"/>
+      <c r="E42" s="179"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="195" t="s">
+      <c r="B43" s="182" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="11"/>
@@ -3420,7 +3428,7 @@
       <c r="A44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="195"/>
+      <c r="B44" s="182"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3">
@@ -3431,7 +3439,7 @@
       <c r="A45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="195"/>
+      <c r="B45" s="182"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3">
@@ -3442,7 +3450,7 @@
       <c r="A46" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="195"/>
+      <c r="B46" s="182"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3">
@@ -3453,7 +3461,7 @@
       <c r="A47" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="195"/>
+      <c r="B47" s="182"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3">
@@ -3464,7 +3472,7 @@
       <c r="A48" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="195"/>
+      <c r="B48" s="182"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3">
@@ -3475,7 +3483,7 @@
       <c r="A49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="195"/>
+      <c r="B49" s="182"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="74">
@@ -3484,7 +3492,7 @@
       <c r="K49" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="142">
+      <c r="L49" s="139">
         <f>$L$2</f>
         <v>37</v>
       </c>
@@ -3497,25 +3505,25 @@
       <c r="A50" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="196"/>
+      <c r="B50" s="183"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4">
         <f>SUM(E43:E49)</f>
         <v>949900</v>
       </c>
-      <c r="G50" s="144">
+      <c r="G50" s="141">
         <f>E50/2</f>
         <v>474950</v>
       </c>
-      <c r="H50" s="144">
+      <c r="H50" s="141">
         <f>E50/2</f>
         <v>474950</v>
       </c>
       <c r="K50" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L50" s="142">
+      <c r="L50" s="139">
         <f>$L$3</f>
         <v>35</v>
       </c>
@@ -3526,64 +3534,64 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="52" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A52" s="175" t="s">
+      <c r="A52" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="176"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="177"/>
+      <c r="B52" s="178"/>
+      <c r="C52" s="178"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="179"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="160" t="s">
+      <c r="A53" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="161" t="s">
+      <c r="B53" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="162">
+      <c r="C53" s="159">
         <v>1200</v>
       </c>
-      <c r="D53" s="160">
+      <c r="D53" s="157">
         <f>L1</f>
         <v>72</v>
       </c>
-      <c r="E53" s="162">
+      <c r="E53" s="159">
         <f>C53*D53</f>
         <v>86400</v>
       </c>
-      <c r="G53" s="143">
+      <c r="G53" s="140">
         <f>$G$2*$C53</f>
         <v>44400</v>
       </c>
-      <c r="H53" s="143">
+      <c r="H53" s="140">
         <f>$H$2*$C53</f>
         <v>42000</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="163" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" s="161" t="s">
+      <c r="A54" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="162">
+      <c r="C54" s="159">
         <v>1550</v>
       </c>
-      <c r="D54" s="160">
+      <c r="D54" s="157">
         <f>L1</f>
         <v>72</v>
       </c>
-      <c r="E54" s="162">
+      <c r="E54" s="159">
         <f>C54*D54</f>
         <v>111600</v>
       </c>
-      <c r="G54" s="143">
+      <c r="G54" s="140">
         <f>$G$2*$C54</f>
         <v>57350</v>
       </c>
-      <c r="H54" s="143">
+      <c r="H54" s="140">
         <f>$H$2*$C54</f>
         <v>54250</v>
       </c>
@@ -3611,11 +3619,11 @@
       <c r="E55" s="3">
         <v>220000</v>
       </c>
-      <c r="G55" s="143">
+      <c r="G55" s="140">
         <f>E55/2</f>
         <v>110000</v>
       </c>
-      <c r="H55" s="143">
+      <c r="H55" s="140">
         <f>E55/2</f>
         <v>110000</v>
       </c>
@@ -3644,11 +3652,11 @@
         <f>SUM(E53:E55)</f>
         <v>418000</v>
       </c>
-      <c r="G56" s="144">
+      <c r="G56" s="141">
         <f>SUM(G53:G55)</f>
         <v>211750</v>
       </c>
-      <c r="H56" s="144">
+      <c r="H56" s="141">
         <f>SUM(H53:H55)</f>
         <v>206250</v>
       </c>
@@ -3661,31 +3669,31 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A58" s="175" t="s">
+      <c r="A58" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="176"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
-      <c r="E58" s="177"/>
+      <c r="B58" s="178"/>
+      <c r="C58" s="178"/>
+      <c r="D58" s="178"/>
+      <c r="E58" s="179"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="200" t="s">
+      <c r="B59" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="129"/>
       <c r="E59" s="3">
         <v>30000</v>
       </c>
-      <c r="G59" s="143">
+      <c r="G59" s="140">
         <f>E59</f>
         <v>30000</v>
       </c>
-      <c r="H59" s="143">
+      <c r="H59" s="140">
         <v>0</v>
       </c>
     </row>
@@ -3693,17 +3701,17 @@
       <c r="A60" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="200"/>
-      <c r="C60" s="130"/>
-      <c r="D60" s="130"/>
+      <c r="B60" s="180"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="128"/>
       <c r="E60" s="3">
         <v>190000</v>
       </c>
-      <c r="G60" s="143">
+      <c r="G60" s="140">
         <f>E60</f>
         <v>190000</v>
       </c>
-      <c r="H60" s="143">
+      <c r="H60" s="140">
         <v>0</v>
       </c>
     </row>
@@ -3711,32 +3719,32 @@
       <c r="A61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="200"/>
-      <c r="C61" s="130"/>
-      <c r="D61" s="130"/>
+      <c r="B61" s="180"/>
+      <c r="C61" s="128"/>
+      <c r="D61" s="128"/>
       <c r="E61" s="74">
         <v>149970</v>
       </c>
-      <c r="G61" s="143">
+      <c r="G61" s="140">
         <v>0</v>
       </c>
-      <c r="H61" s="143">
+      <c r="H61" s="140">
         <f>E61</f>
         <v>149970</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="160" t="s">
-        <v>205</v>
-      </c>
-      <c r="B62" s="200"/>
+      <c r="A62" s="157" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" s="180"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="126">
+      <c r="E62" s="125">
         <v>53970</v>
       </c>
-      <c r="G62" s="143"/>
-      <c r="H62" s="143"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="140"/>
       <c r="K62" s="15" t="s">
         <v>4</v>
       </c>
@@ -3750,15 +3758,15 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="160" t="s">
-        <v>206</v>
-      </c>
-      <c r="B63" s="200"/>
+      <c r="A63" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" s="180"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="126"/>
-      <c r="G63" s="143"/>
-      <c r="H63" s="143"/>
+      <c r="E63" s="125"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="140"/>
       <c r="K63" s="15" t="s">
         <v>2</v>
       </c>
@@ -3775,52 +3783,52 @@
       <c r="A64" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="200"/>
+      <c r="B64" s="180"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="74">
         <v>235100</v>
       </c>
-      <c r="G64" s="143">
+      <c r="G64" s="140">
         <f>$E$64/2</f>
         <v>117550</v>
       </c>
-      <c r="H64" s="143">
+      <c r="H64" s="140">
         <f>$E$64/2</f>
         <v>117550</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="129" t="s">
-        <v>208</v>
-      </c>
-      <c r="B65" s="200"/>
+      <c r="A65" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" s="180"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="74">
         <v>25000</v>
       </c>
-      <c r="G65" s="143"/>
-      <c r="H65" s="143"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="140"/>
       <c r="K65" s="18"/>
       <c r="L65" s="60"/>
       <c r="M65" s="61"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="129" t="s">
-        <v>125</v>
-      </c>
-      <c r="B66" s="200"/>
+      <c r="A66" s="127" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="180"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="74">
         <v>24900</v>
       </c>
-      <c r="G66" s="143">
+      <c r="G66" s="140">
         <f>E66</f>
         <v>24900</v>
       </c>
-      <c r="H66" s="143">
+      <c r="H66" s="140">
         <v>0</v>
       </c>
       <c r="K66" s="18"/>
@@ -3828,20 +3836,20 @@
       <c r="M66" s="61"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="129" t="s">
-        <v>182</v>
-      </c>
-      <c r="B67" s="200"/>
+      <c r="A67" s="127" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" s="180"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="74">
         <v>41910</v>
       </c>
-      <c r="G67" s="143">
+      <c r="G67" s="140">
         <f>$E$67/2</f>
         <v>20955</v>
       </c>
-      <c r="H67" s="143">
+      <c r="H67" s="140">
         <f>$E$67/2</f>
         <v>20955</v>
       </c>
@@ -3850,48 +3858,48 @@
       <c r="M67" s="61"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="129" t="s">
+      <c r="A68" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="200"/>
+      <c r="B68" s="180"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="22"/>
-      <c r="G68" s="143"/>
-      <c r="H68" s="143"/>
+      <c r="G68" s="140"/>
+      <c r="H68" s="140"/>
       <c r="K68" s="18"/>
       <c r="L68" s="60"/>
       <c r="M68" s="61"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="129" t="s">
+      <c r="A69" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="200"/>
+      <c r="B69" s="180"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="22"/>
-      <c r="G69" s="143"/>
-      <c r="H69" s="143"/>
+      <c r="G69" s="140"/>
+      <c r="H69" s="140"/>
       <c r="K69" s="18"/>
       <c r="L69" s="60"/>
       <c r="M69" s="61"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B70" s="200"/>
+        <v>125</v>
+      </c>
+      <c r="B70" s="180"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="74">
         <v>80000</v>
       </c>
-      <c r="G70" s="143">
+      <c r="G70" s="140">
         <f>$E$70/2</f>
         <v>40000</v>
       </c>
-      <c r="H70" s="143">
+      <c r="H70" s="140">
         <f>$E$70/2</f>
         <v>40000</v>
       </c>
@@ -3901,9 +3909,9 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="200"/>
+        <v>127</v>
+      </c>
+      <c r="B71" s="180"/>
       <c r="C71" s="2">
         <v>59</v>
       </c>
@@ -3914,11 +3922,11 @@
         <f>C71*D71</f>
         <v>2950</v>
       </c>
-      <c r="G71" s="143">
+      <c r="G71" s="140">
         <f>$E71/2</f>
         <v>1475</v>
       </c>
-      <c r="H71" s="143">
+      <c r="H71" s="140">
         <f>$E71/2</f>
         <v>1475</v>
       </c>
@@ -3928,47 +3936,47 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="200"/>
+        <v>167</v>
+      </c>
+      <c r="B72" s="180"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="21">
         <v>6925</v>
       </c>
-      <c r="G72" s="143">
+      <c r="G72" s="140">
         <f>$E72/2</f>
         <v>3462.5</v>
       </c>
-      <c r="H72" s="143">
+      <c r="H72" s="140">
         <f>$E72/2</f>
         <v>3462.5</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B73" s="200"/>
+        <v>168</v>
+      </c>
+      <c r="B73" s="180"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="74">
         <f>23198+4890</f>
         <v>28088</v>
       </c>
-      <c r="G73" s="143">
+      <c r="G73" s="140">
         <f>E73</f>
         <v>28088</v>
       </c>
-      <c r="H73" s="143">
+      <c r="H73" s="140">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B74" s="200"/>
+        <v>178</v>
+      </c>
+      <c r="B74" s="180"/>
       <c r="C74" s="2">
         <v>450</v>
       </c>
@@ -3979,20 +3987,20 @@
         <f>C74*D74</f>
         <v>2700</v>
       </c>
-      <c r="G74" s="143">
+      <c r="G74" s="140">
         <f>$E74/2</f>
         <v>1350</v>
       </c>
-      <c r="H74" s="143">
+      <c r="H74" s="140">
         <f>$E74/2</f>
         <v>1350</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B75" s="200"/>
+        <v>191</v>
+      </c>
+      <c r="B75" s="180"/>
       <c r="C75" s="2">
         <v>2392</v>
       </c>
@@ -4003,11 +4011,11 @@
         <f>C75*D75</f>
         <v>7176</v>
       </c>
-      <c r="G75" s="143">
+      <c r="G75" s="140">
         <f>$E75/2</f>
         <v>3588</v>
       </c>
-      <c r="H75" s="143">
+      <c r="H75" s="140">
         <f>$E75/2</f>
         <v>3588</v>
       </c>
@@ -4015,39 +4023,39 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B76" s="200"/>
+        <v>177</v>
+      </c>
+      <c r="B76" s="180"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="74">
         <f>2405+(278*3)</f>
         <v>3239</v>
       </c>
-      <c r="G76" s="143">
+      <c r="G76" s="140">
         <f>E76</f>
         <v>3239</v>
       </c>
-      <c r="H76" s="143">
+      <c r="H76" s="140">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B77" s="201"/>
+        <v>179</v>
+      </c>
+      <c r="B77" s="181"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="21">
         <f>950+490</f>
         <v>1440</v>
       </c>
-      <c r="G77" s="143">
+      <c r="G77" s="140">
         <f>$E$77/2</f>
         <v>720</v>
       </c>
-      <c r="H77" s="143">
+      <c r="H77" s="140">
         <f>$E$77/2</f>
         <v>720</v>
       </c>
@@ -4058,11 +4066,11 @@
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
-      <c r="G78" s="144">
+      <c r="G78" s="141">
         <f>SUM(G59:G77)</f>
         <v>465327.5</v>
       </c>
-      <c r="H78" s="144">
+      <c r="H78" s="141">
         <f>SUM(H59:H77)</f>
         <v>339070.5</v>
       </c>
@@ -4080,54 +4088,42 @@
         <f>E14+E20+E40+E50+E56</f>
         <v>3871466.527777778</v>
       </c>
-      <c r="G79" s="144">
+      <c r="G79" s="141">
         <f>G14+G18+G40+G50+G56+G78</f>
         <v>2384641.875</v>
       </c>
-      <c r="H79" s="144">
+      <c r="H79" s="141">
         <f>H56+H50+H40+H18+H14+H78</f>
         <v>2301722.652777778</v>
       </c>
-      <c r="K79" s="205" t="s">
+      <c r="K79" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="L79" s="206"/>
-      <c r="M79" s="207"/>
+      <c r="L79" s="175"/>
+      <c r="M79" s="176"/>
     </row>
     <row r="80" spans="1:13">
       <c r="K80" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="L80" s="193">
+      <c r="L80" s="170">
         <f>M2+L18+M39+M49+M54+M62</f>
         <v>2053474.6180555555</v>
       </c>
-      <c r="M80" s="202"/>
+      <c r="M80" s="171"/>
     </row>
     <row r="81" spans="11:13" ht="15.75" thickBot="1">
       <c r="K81" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="L81" s="203">
+      <c r="L81" s="172">
         <f>M3+L19+M40+M50+M55+M63</f>
         <v>2131376.5625</v>
       </c>
-      <c r="M81" s="204"/>
+      <c r="M81" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="B59:B77"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B28:B35"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P24:Q24"/>
@@ -4144,6 +4140,18 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="B59:B77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -4152,10 +4160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4171,1364 +4179,1419 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="196" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="216"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="219"/>
+      <c r="B2" s="186" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="186"/>
+      <c r="D2" s="220" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="212"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="215"/>
-      <c r="B2" s="199" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="216" t="s">
+      <c r="F2" s="186"/>
+      <c r="G2" s="222" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="199" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="199"/>
-      <c r="G2" s="218" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="213" t="s">
+      <c r="H2" s="217" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="215"/>
-      <c r="B3" s="142" t="s">
+      <c r="A3" s="219"/>
+      <c r="B3" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="217"/>
-      <c r="E3" s="142" t="s">
+      <c r="D3" s="221"/>
+      <c r="E3" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="219"/>
-      <c r="H3" s="213"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="217"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="209" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
+      <c r="A4" s="218" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="218"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="135">
+      <c r="B5" s="133">
         <v>14150</v>
       </c>
-      <c r="C5" s="135">
+      <c r="C5" s="133">
         <v>14150</v>
       </c>
-      <c r="D5" s="135">
+      <c r="D5" s="133">
         <f t="shared" ref="D5:D19" si="0">SUM(B5:C5)</f>
         <v>28300</v>
       </c>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="214"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="136">
+      <c r="F5" s="205"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="134">
         <f t="shared" ref="H5:H20" si="1">D5</f>
         <v>28300</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="135">
+        <v>180</v>
+      </c>
+      <c r="B6" s="133">
         <f>235100/2</f>
         <v>117550</v>
       </c>
-      <c r="C6" s="135">
+      <c r="C6" s="133">
         <f>235100/2</f>
         <v>117550</v>
       </c>
-      <c r="D6" s="135">
+      <c r="D6" s="133">
         <f t="shared" si="0"/>
         <v>235100</v>
       </c>
-      <c r="E6" s="173" t="s">
+      <c r="E6" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="214"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="136">
+      <c r="F6" s="205"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="134">
         <f t="shared" si="1"/>
         <v>235100</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="133">
+        <v>123</v>
+      </c>
+      <c r="B7" s="131">
         <f>20193/2</f>
         <v>10096.5</v>
       </c>
-      <c r="C7" s="133">
+      <c r="C7" s="131">
         <f>20193/2</f>
         <v>10096.5</v>
       </c>
-      <c r="D7" s="133">
+      <c r="D7" s="131">
         <f t="shared" si="0"/>
         <v>20193</v>
       </c>
-      <c r="E7" s="173" t="s">
+      <c r="E7" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="214"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="136">
+      <c r="F7" s="205"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="134">
         <f t="shared" si="1"/>
         <v>20193</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="133">
+        <v>181</v>
+      </c>
+      <c r="B8" s="131">
         <f>41910/2</f>
         <v>20955</v>
       </c>
-      <c r="C8" s="133">
+      <c r="C8" s="131">
         <f>41910/2</f>
         <v>20955</v>
       </c>
-      <c r="D8" s="138">
+      <c r="D8" s="136">
         <f t="shared" si="0"/>
         <v>41910</v>
       </c>
-      <c r="E8" s="173" t="s">
+      <c r="E8" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="214"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="136">
+      <c r="F8" s="205"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="134">
         <f t="shared" si="1"/>
         <v>41910</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="116" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="133">
+        <v>167</v>
+      </c>
+      <c r="B9" s="131">
         <f>6925/2</f>
         <v>3462.5</v>
       </c>
-      <c r="C9" s="133">
+      <c r="C9" s="131">
         <f>6925/2</f>
         <v>3462.5</v>
       </c>
-      <c r="D9" s="138">
+      <c r="D9" s="136">
         <f t="shared" si="0"/>
         <v>6925</v>
       </c>
-      <c r="E9" s="173" t="s">
+      <c r="E9" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="214"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="136">
+      <c r="F9" s="205"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="134">
         <f t="shared" si="1"/>
         <v>6925</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="133">
+        <v>184</v>
+      </c>
+      <c r="B10" s="131">
         <v>720</v>
       </c>
-      <c r="C10" s="133">
+      <c r="C10" s="131">
         <v>720</v>
       </c>
-      <c r="D10" s="138">
+      <c r="D10" s="136">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="214"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="136">
+      <c r="F10" s="205"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="134">
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="121" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="133">
+      <c r="A11" s="120" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="131">
         <v>2500</v>
       </c>
-      <c r="C11" s="134">
+      <c r="C11" s="132">
         <v>0</v>
       </c>
-      <c r="D11" s="138">
+      <c r="D11" s="136">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E11" s="173" t="s">
+      <c r="E11" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="214"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="136">
+      <c r="F11" s="205"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="134">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="133">
+        <v>193</v>
+      </c>
+      <c r="B12" s="131">
         <v>1500</v>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="132">
         <v>0</v>
       </c>
-      <c r="D12" s="138">
+      <c r="D12" s="136">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E12" s="173" t="s">
+      <c r="E12" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="214"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="136">
+      <c r="F12" s="205"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="134">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" s="133">
+        <v>190</v>
+      </c>
+      <c r="B13" s="131">
         <v>14995</v>
       </c>
-      <c r="C13" s="134">
+      <c r="C13" s="132">
         <v>0</v>
       </c>
-      <c r="D13" s="138">
+      <c r="D13" s="136">
         <f t="shared" si="0"/>
         <v>14995</v>
       </c>
-      <c r="E13" s="223" t="s">
+      <c r="E13" s="209" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="224"/>
-      <c r="G13" s="225"/>
-      <c r="H13" s="136">
+      <c r="F13" s="210"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="134">
         <f t="shared" si="1"/>
         <v>14995</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="133">
+        <v>182</v>
+      </c>
+      <c r="B14" s="131">
         <v>24900</v>
       </c>
-      <c r="C14" s="139">
+      <c r="C14" s="137">
         <v>0</v>
       </c>
-      <c r="D14" s="138">
+      <c r="D14" s="136">
         <f t="shared" si="0"/>
         <v>24900</v>
       </c>
-      <c r="E14" s="173" t="s">
+      <c r="E14" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="214"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="136">
+      <c r="F14" s="205"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="134">
         <f t="shared" si="1"/>
         <v>24900</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="133">
+        <v>183</v>
+      </c>
+      <c r="B15" s="131">
         <v>28088</v>
       </c>
-      <c r="C15" s="139">
+      <c r="C15" s="137">
         <v>0</v>
       </c>
-      <c r="D15" s="138">
+      <c r="D15" s="136">
         <f t="shared" si="0"/>
         <v>28088</v>
       </c>
-      <c r="E15" s="173" t="s">
+      <c r="E15" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="214"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="136">
+      <c r="F15" s="205"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="134">
         <f t="shared" si="1"/>
         <v>28088</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="133">
+        <v>177</v>
+      </c>
+      <c r="B16" s="131">
         <v>3239</v>
       </c>
-      <c r="C16" s="139">
+      <c r="C16" s="137">
         <v>0</v>
       </c>
-      <c r="D16" s="138">
+      <c r="D16" s="136">
         <f t="shared" si="0"/>
         <v>3239</v>
       </c>
-      <c r="E16" s="173" t="s">
+      <c r="E16" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="214"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="136">
+      <c r="F16" s="205"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="134">
         <f t="shared" si="1"/>
         <v>3239</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="133">
+        <v>185</v>
+      </c>
+      <c r="B17" s="131">
         <v>2700</v>
       </c>
-      <c r="C17" s="139">
+      <c r="C17" s="137">
         <v>0</v>
       </c>
-      <c r="D17" s="138">
+      <c r="D17" s="136">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="E17" s="173" t="s">
+      <c r="E17" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="214"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="136">
+      <c r="F17" s="205"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="134">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="86" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="133">
+        <v>186</v>
+      </c>
+      <c r="B18" s="131">
         <f>7176/2</f>
         <v>3588</v>
       </c>
-      <c r="C18" s="133">
+      <c r="C18" s="131">
         <f>7176/2</f>
         <v>3588</v>
       </c>
-      <c r="D18" s="138">
+      <c r="D18" s="136">
         <f t="shared" si="0"/>
         <v>7176</v>
       </c>
-      <c r="E18" s="173" t="s">
+      <c r="E18" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="214"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="136">
+      <c r="F18" s="205"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="134">
         <f t="shared" si="1"/>
         <v>7176</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="133">
+        <v>127</v>
+      </c>
+      <c r="B19" s="131">
         <v>1475</v>
       </c>
-      <c r="C19" s="133">
+      <c r="C19" s="131">
         <v>1475</v>
       </c>
-      <c r="D19" s="133">
+      <c r="D19" s="131">
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
-      <c r="E19" s="226" t="s">
+      <c r="E19" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="226"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="136">
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="134">
         <f t="shared" si="1"/>
         <v>2950</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="134">
+        <v>187</v>
+      </c>
+      <c r="B20" s="132">
         <v>0</v>
       </c>
-      <c r="C20" s="133">
+      <c r="C20" s="131">
         <v>149970</v>
       </c>
-      <c r="D20" s="133">
+      <c r="D20" s="131">
         <f>C20</f>
         <v>149970</v>
       </c>
-      <c r="E20" s="226" t="s">
+      <c r="E20" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="136">
+      <c r="F20" s="212"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="134">
         <f t="shared" si="1"/>
         <v>149970</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B21" s="134">
+        <v>209</v>
+      </c>
+      <c r="B21" s="132">
         <v>0</v>
       </c>
-      <c r="C21" s="133">
+      <c r="C21" s="131">
         <v>31980</v>
       </c>
-      <c r="D21" s="133">
+      <c r="D21" s="131">
         <f>C21</f>
         <v>31980</v>
       </c>
-      <c r="E21" s="208" t="s">
+      <c r="E21" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="208"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="136">
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="134">
         <f>D21</f>
         <v>31980</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="134">
+        <v>215</v>
+      </c>
+      <c r="B22" s="132">
         <v>0</v>
       </c>
-      <c r="C22" s="133">
+      <c r="C22" s="131">
         <v>38700</v>
       </c>
-      <c r="D22" s="133">
+      <c r="D22" s="131">
         <f t="shared" ref="D22:D24" si="2">C22</f>
         <v>38700</v>
       </c>
-      <c r="E22" s="208" t="s">
+      <c r="E22" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="208"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="136">
+      <c r="F22" s="213"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="134">
         <f t="shared" ref="H22:H26" si="3">D22</f>
         <v>38700</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B23" s="134">
+        <v>210</v>
+      </c>
+      <c r="B23" s="132">
         <v>0</v>
       </c>
-      <c r="C23" s="133">
+      <c r="C23" s="131">
         <v>19990</v>
       </c>
-      <c r="D23" s="133">
+      <c r="D23" s="131">
         <f t="shared" si="2"/>
         <v>19990</v>
       </c>
-      <c r="E23" s="208" t="s">
+      <c r="E23" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="208"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="136">
+      <c r="F23" s="213"/>
+      <c r="G23" s="213"/>
+      <c r="H23" s="134">
         <f t="shared" si="3"/>
         <v>19990</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="148" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" s="147">
+      <c r="A24" s="145" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="144">
         <v>0</v>
       </c>
-      <c r="C24" s="146">
+      <c r="C24" s="143">
         <v>13480</v>
       </c>
-      <c r="D24" s="133">
+      <c r="D24" s="131">
         <f t="shared" si="2"/>
         <v>13480</v>
       </c>
-      <c r="E24" s="208" t="s">
+      <c r="E24" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="208"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="136">
+      <c r="F24" s="213"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="134">
         <f t="shared" si="3"/>
         <v>13480</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="152" t="s">
-        <v>213</v>
-      </c>
-      <c r="B25" s="146">
+      <c r="A25" s="149" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="143">
         <v>13500</v>
       </c>
-      <c r="C25" s="146">
+      <c r="C25" s="143">
         <v>13500</v>
       </c>
-      <c r="D25" s="146">
+      <c r="D25" s="143">
         <f t="shared" ref="D25:D32" si="4">SUM(B25:C25)</f>
         <v>27000</v>
       </c>
-      <c r="E25" s="208" t="s">
+      <c r="E25" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="208"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="136">
+      <c r="F25" s="213"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="134">
         <f t="shared" si="3"/>
         <v>27000</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="152" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26" s="133">
+      <c r="A26" s="149" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="131">
         <v>1000</v>
       </c>
-      <c r="C26" s="147">
+      <c r="C26" s="144">
         <v>0</v>
       </c>
-      <c r="D26" s="133">
+      <c r="D26" s="131">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="E26" s="208" t="s">
+      <c r="E26" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="208"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="153">
+      <c r="F26" s="213"/>
+      <c r="G26" s="213"/>
+      <c r="H26" s="150">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30">
-      <c r="A27" s="159" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" s="136">
+      <c r="A27" s="156" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="134">
         <v>2040</v>
       </c>
-      <c r="C27" s="134">
+      <c r="C27" s="132">
         <v>0</v>
       </c>
-      <c r="D27" s="136">
+      <c r="D27" s="134">
         <f t="shared" si="4"/>
         <v>2040</v>
       </c>
-      <c r="E27" s="208" t="s">
+      <c r="E27" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="208"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="153">
-        <f t="shared" ref="H27:H32" si="5">D27</f>
+      <c r="F27" s="213"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="150">
+        <f t="shared" ref="H27:H33" si="5">D27</f>
         <v>2040</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30">
-      <c r="A28" s="150" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="147">
+      <c r="A28" s="147" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="144">
         <v>0</v>
       </c>
-      <c r="C28" s="153">
+      <c r="C28" s="150">
         <v>51400</v>
       </c>
-      <c r="D28" s="158">
+      <c r="D28" s="155">
         <f t="shared" si="4"/>
         <v>51400</v>
       </c>
-      <c r="E28" s="210" t="s">
+      <c r="E28" s="214" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="210"/>
-      <c r="G28" s="210"/>
-      <c r="H28" s="153">
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="150">
         <f t="shared" si="5"/>
         <v>51400</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="159" t="s">
+      <c r="A29" s="156" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="136">
+      <c r="B29" s="134">
         <v>14988</v>
       </c>
-      <c r="C29" s="136">
+      <c r="C29" s="134">
         <v>14988</v>
       </c>
-      <c r="D29" s="136">
+      <c r="D29" s="134">
         <f t="shared" si="4"/>
         <v>29976</v>
       </c>
-      <c r="E29" s="208" t="s">
+      <c r="E29" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="208"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="136">
+      <c r="F29" s="213"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="134">
         <f t="shared" si="5"/>
         <v>29976</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="159" t="s">
-        <v>233</v>
-      </c>
-      <c r="B30" s="136">
+      <c r="A30" s="156" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="134">
         <v>1599</v>
       </c>
-      <c r="C30" s="136">
+      <c r="C30" s="134">
         <v>1599</v>
       </c>
-      <c r="D30" s="136">
+      <c r="D30" s="134">
         <f t="shared" si="4"/>
         <v>3198</v>
       </c>
-      <c r="E30" s="208" t="s">
+      <c r="E30" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="208"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="136">
+      <c r="F30" s="213"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="134">
         <f t="shared" si="5"/>
         <v>3198</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30">
-      <c r="A31" s="150" t="s">
-        <v>234</v>
-      </c>
-      <c r="B31" s="136">
+      <c r="A31" s="156" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="134">
         <v>1490</v>
       </c>
-      <c r="C31" s="136">
+      <c r="C31" s="134">
         <v>1490</v>
       </c>
-      <c r="D31" s="136">
+      <c r="D31" s="134">
         <f t="shared" si="4"/>
         <v>2980</v>
       </c>
-      <c r="E31" s="210" t="s">
+      <c r="E31" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="210"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="136">
+      <c r="F31" s="213"/>
+      <c r="G31" s="213"/>
+      <c r="H31" s="134">
         <f t="shared" si="5"/>
         <v>2980</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A32" s="170" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" s="158">
+    <row r="32" spans="1:8">
+      <c r="A32" s="156" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="134">
         <v>12000</v>
       </c>
-      <c r="C32" s="158">
+      <c r="C32" s="132">
         <v>0</v>
       </c>
-      <c r="D32" s="158">
+      <c r="D32" s="134">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="E32" s="210" t="s">
+      <c r="E32" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="210"/>
-      <c r="G32" s="210"/>
-      <c r="H32" s="153">
+      <c r="F32" s="213"/>
+      <c r="G32" s="213"/>
+      <c r="H32" s="134">
         <f t="shared" si="5"/>
         <v>12000</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A33" s="118" t="s">
+      <c r="A33" s="147" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="150">
+        <v>3000</v>
+      </c>
+      <c r="C33" s="144">
+        <v>0</v>
+      </c>
+      <c r="D33" s="150">
+        <f>SUM(B33:C33)</f>
+        <v>3000</v>
+      </c>
+      <c r="E33" s="214" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="214"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="150">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A34" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="137">
-        <f>SUM(B5:B32)</f>
-        <v>296536</v>
-      </c>
-      <c r="C33" s="137">
+      <c r="B34" s="135">
+        <f>SUM(B5:B33)</f>
+        <v>299536</v>
+      </c>
+      <c r="C34" s="135">
         <f>SUM(C5:C32)</f>
         <v>509094</v>
       </c>
-      <c r="D33" s="137">
-        <f>SUM(D5:D32)</f>
-        <v>805630</v>
-      </c>
-      <c r="E33" s="220" t="s">
+      <c r="D34" s="135">
+        <f>SUM(D5:D33)</f>
+        <v>808630</v>
+      </c>
+      <c r="E34" s="206" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="221"/>
-      <c r="G33" s="222"/>
-      <c r="H33" s="132">
-        <f>SUM(H5:H32)</f>
-        <v>805630</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="122"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="123"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="208"/>
+      <c r="H34" s="130">
+        <f>SUM(H5:H33)</f>
+        <v>808630</v>
+      </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="209" t="s">
-        <v>197</v>
-      </c>
-      <c r="B35" s="209"/>
-      <c r="C35" s="209"/>
-      <c r="D35" s="209"/>
-      <c r="E35" s="209"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="209"/>
-      <c r="H35" s="209"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="122"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="133">
-        <v>15000</v>
-      </c>
-      <c r="C36" s="134">
-        <v>0</v>
-      </c>
-      <c r="D36" s="133">
-        <f t="shared" ref="D36:D45" si="6">SUM(B36:C36)</f>
-        <v>15000</v>
-      </c>
-      <c r="E36" s="111">
-        <v>15000</v>
-      </c>
-      <c r="F36" s="115">
-        <v>0</v>
-      </c>
-      <c r="G36" s="111">
-        <f t="shared" ref="G36:G48" si="7">SUM(E36:F36)</f>
-        <v>15000</v>
-      </c>
-      <c r="H36" s="111">
-        <f>D36+G36</f>
-        <v>30000</v>
-      </c>
-      <c r="I36" s="125" t="s">
-        <v>219</v>
-      </c>
+      <c r="A36" s="218" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="218"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="131">
+        <v>15000</v>
+      </c>
+      <c r="C37" s="132">
+        <v>0</v>
+      </c>
+      <c r="D37" s="131">
+        <f t="shared" ref="D37:D46" si="6">SUM(B37:C37)</f>
+        <v>15000</v>
+      </c>
+      <c r="E37" s="111">
+        <v>15000</v>
+      </c>
+      <c r="F37" s="115">
+        <v>0</v>
+      </c>
+      <c r="G37" s="111">
+        <f t="shared" ref="G37:G49" si="7">SUM(E37:F37)</f>
+        <v>15000</v>
+      </c>
+      <c r="H37" s="111">
+        <f>D37+G37</f>
+        <v>30000</v>
+      </c>
+      <c r="I37" s="124" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="133">
+      <c r="B38" s="131">
         <v>100000</v>
       </c>
-      <c r="C37" s="134">
+      <c r="C38" s="132">
         <v>0</v>
       </c>
-      <c r="D37" s="133">
+      <c r="D38" s="131">
         <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="E37" s="111">
+      <c r="E38" s="111">
         <v>190000</v>
       </c>
-      <c r="F37" s="115">
+      <c r="F38" s="115">
         <v>0</v>
       </c>
-      <c r="G37" s="111">
+      <c r="G38" s="111">
         <f t="shared" si="7"/>
         <v>190000</v>
       </c>
-      <c r="H37" s="114">
-        <f>D37+G37</f>
+      <c r="H38" s="114">
+        <f>D38+G38</f>
         <v>290000</v>
       </c>
-      <c r="I37" s="125" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="86" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38" s="135">
+      <c r="I38" s="124" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="133">
         <v>100000</v>
       </c>
-      <c r="C38" s="135">
+      <c r="C39" s="133">
         <v>100000</v>
       </c>
-      <c r="D38" s="135">
+      <c r="D39" s="133">
         <f t="shared" si="6"/>
         <v>200000</v>
       </c>
-      <c r="E38" s="111">
-        <f>TERVE